--- a/stock_historical_data/60m/ZAGGLE.NS.xlsx
+++ b/stock_historical_data/60m/ZAGGLE.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R1217"/>
+  <dimension ref="A1:R1224"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -68285,7 +68285,9 @@
       <c r="Q1211" t="n">
         <v>0</v>
       </c>
-      <c r="R1211" t="inlineStr"/>
+      <c r="R1211" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1212">
       <c r="A1212" s="2" t="n">
@@ -68339,7 +68341,9 @@
       <c r="Q1212" t="n">
         <v>0</v>
       </c>
-      <c r="R1212" t="inlineStr"/>
+      <c r="R1212" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1213">
       <c r="A1213" s="2" t="n">
@@ -68393,7 +68397,9 @@
       <c r="Q1213" t="n">
         <v>0</v>
       </c>
-      <c r="R1213" t="inlineStr"/>
+      <c r="R1213" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1214">
       <c r="A1214" s="2" t="n">
@@ -68447,7 +68453,9 @@
       <c r="Q1214" t="n">
         <v>0</v>
       </c>
-      <c r="R1214" t="inlineStr"/>
+      <c r="R1214" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1215">
       <c r="A1215" s="2" t="n">
@@ -68501,7 +68509,9 @@
       <c r="Q1215" t="n">
         <v>0</v>
       </c>
-      <c r="R1215" t="inlineStr"/>
+      <c r="R1215" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1216">
       <c r="A1216" s="2" t="n">
@@ -68555,7 +68565,9 @@
       <c r="Q1216" t="n">
         <v>0</v>
       </c>
-      <c r="R1216" t="inlineStr"/>
+      <c r="R1216" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1217">
       <c r="A1217" s="2" t="n">
@@ -68609,7 +68621,387 @@
       <c r="Q1217" t="n">
         <v>0</v>
       </c>
-      <c r="R1217" t="inlineStr"/>
+      <c r="R1217" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1218">
+      <c r="A1218" s="2" t="n">
+        <v>45455.38541666666</v>
+      </c>
+      <c r="B1218" t="n">
+        <v>287.3500061035156</v>
+      </c>
+      <c r="C1218" t="n">
+        <v>293</v>
+      </c>
+      <c r="D1218" t="n">
+        <v>283.7999877929688</v>
+      </c>
+      <c r="E1218" t="n">
+        <v>289</v>
+      </c>
+      <c r="F1218" t="n">
+        <v>289</v>
+      </c>
+      <c r="G1218" t="n">
+        <v>2825989</v>
+      </c>
+      <c r="H1218" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1218" t="n">
+        <v>6</v>
+      </c>
+      <c r="J1218" t="n">
+        <v>12</v>
+      </c>
+      <c r="K1218" t="n">
+        <v>9</v>
+      </c>
+      <c r="L1218" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1218" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1218" t="n">
+        <v>24</v>
+      </c>
+      <c r="O1218" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1218" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1218" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1218" t="inlineStr"/>
+    </row>
+    <row r="1219">
+      <c r="A1219" s="2" t="n">
+        <v>45455.42708333334</v>
+      </c>
+      <c r="B1219" t="n">
+        <v>289.2999877929688</v>
+      </c>
+      <c r="C1219" t="n">
+        <v>290.8999938964844</v>
+      </c>
+      <c r="D1219" t="n">
+        <v>288.4500122070312</v>
+      </c>
+      <c r="E1219" t="n">
+        <v>289.6000061035156</v>
+      </c>
+      <c r="F1219" t="n">
+        <v>289.6000061035156</v>
+      </c>
+      <c r="G1219" t="n">
+        <v>288535</v>
+      </c>
+      <c r="H1219" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1219" t="n">
+        <v>6</v>
+      </c>
+      <c r="J1219" t="n">
+        <v>12</v>
+      </c>
+      <c r="K1219" t="n">
+        <v>10</v>
+      </c>
+      <c r="L1219" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1219" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1219" t="n">
+        <v>24</v>
+      </c>
+      <c r="O1219" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1219" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1219" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1219" t="inlineStr"/>
+    </row>
+    <row r="1220">
+      <c r="A1220" s="2" t="n">
+        <v>45455.46875</v>
+      </c>
+      <c r="B1220" t="n">
+        <v>289.6000061035156</v>
+      </c>
+      <c r="C1220" t="n">
+        <v>291.8999938964844</v>
+      </c>
+      <c r="D1220" t="n">
+        <v>287.4500122070312</v>
+      </c>
+      <c r="E1220" t="n">
+        <v>290</v>
+      </c>
+      <c r="F1220" t="n">
+        <v>290</v>
+      </c>
+      <c r="G1220" t="n">
+        <v>282126</v>
+      </c>
+      <c r="H1220" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1220" t="n">
+        <v>6</v>
+      </c>
+      <c r="J1220" t="n">
+        <v>12</v>
+      </c>
+      <c r="K1220" t="n">
+        <v>11</v>
+      </c>
+      <c r="L1220" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1220" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1220" t="n">
+        <v>24</v>
+      </c>
+      <c r="O1220" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1220" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1220" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1220" t="inlineStr"/>
+    </row>
+    <row r="1221">
+      <c r="A1221" s="2" t="n">
+        <v>45455.51041666666</v>
+      </c>
+      <c r="B1221" t="n">
+        <v>289.8999938964844</v>
+      </c>
+      <c r="C1221" t="n">
+        <v>300</v>
+      </c>
+      <c r="D1221" t="n">
+        <v>289.2000122070312</v>
+      </c>
+      <c r="E1221" t="n">
+        <v>298.2999877929688</v>
+      </c>
+      <c r="F1221" t="n">
+        <v>298.2999877929688</v>
+      </c>
+      <c r="G1221" t="n">
+        <v>1266210</v>
+      </c>
+      <c r="H1221" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1221" t="n">
+        <v>6</v>
+      </c>
+      <c r="J1221" t="n">
+        <v>12</v>
+      </c>
+      <c r="K1221" t="n">
+        <v>12</v>
+      </c>
+      <c r="L1221" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1221" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1221" t="n">
+        <v>24</v>
+      </c>
+      <c r="O1221" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1221" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1221" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1221" t="inlineStr"/>
+    </row>
+    <row r="1222">
+      <c r="A1222" s="2" t="n">
+        <v>45455.55208333334</v>
+      </c>
+      <c r="B1222" t="n">
+        <v>298.5</v>
+      </c>
+      <c r="C1222" t="n">
+        <v>299.9500122070312</v>
+      </c>
+      <c r="D1222" t="n">
+        <v>294.25</v>
+      </c>
+      <c r="E1222" t="n">
+        <v>295.8999938964844</v>
+      </c>
+      <c r="F1222" t="n">
+        <v>295.8999938964844</v>
+      </c>
+      <c r="G1222" t="n">
+        <v>600786</v>
+      </c>
+      <c r="H1222" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1222" t="n">
+        <v>6</v>
+      </c>
+      <c r="J1222" t="n">
+        <v>12</v>
+      </c>
+      <c r="K1222" t="n">
+        <v>13</v>
+      </c>
+      <c r="L1222" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1222" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1222" t="n">
+        <v>24</v>
+      </c>
+      <c r="O1222" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1222" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1222" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1222" t="inlineStr"/>
+    </row>
+    <row r="1223">
+      <c r="A1223" s="2" t="n">
+        <v>45455.59375</v>
+      </c>
+      <c r="B1223" t="n">
+        <v>295.7999877929688</v>
+      </c>
+      <c r="C1223" t="n">
+        <v>298.2000122070312</v>
+      </c>
+      <c r="D1223" t="n">
+        <v>293.5</v>
+      </c>
+      <c r="E1223" t="n">
+        <v>296.5</v>
+      </c>
+      <c r="F1223" t="n">
+        <v>296.5</v>
+      </c>
+      <c r="G1223" t="n">
+        <v>674191</v>
+      </c>
+      <c r="H1223" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1223" t="n">
+        <v>6</v>
+      </c>
+      <c r="J1223" t="n">
+        <v>12</v>
+      </c>
+      <c r="K1223" t="n">
+        <v>14</v>
+      </c>
+      <c r="L1223" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1223" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1223" t="n">
+        <v>24</v>
+      </c>
+      <c r="O1223" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1223" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1223" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1223" t="inlineStr"/>
+    </row>
+    <row r="1224">
+      <c r="A1224" s="2" t="n">
+        <v>45455.63541666666</v>
+      </c>
+      <c r="B1224" t="n">
+        <v>296.5499877929688</v>
+      </c>
+      <c r="C1224" t="n">
+        <v>297.25</v>
+      </c>
+      <c r="D1224" t="n">
+        <v>295.5499877929688</v>
+      </c>
+      <c r="E1224" t="n">
+        <v>295.8500061035156</v>
+      </c>
+      <c r="F1224" t="n">
+        <v>295.8500061035156</v>
+      </c>
+      <c r="G1224" t="n">
+        <v>203443</v>
+      </c>
+      <c r="H1224" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1224" t="n">
+        <v>6</v>
+      </c>
+      <c r="J1224" t="n">
+        <v>12</v>
+      </c>
+      <c r="K1224" t="n">
+        <v>15</v>
+      </c>
+      <c r="L1224" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1224" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1224" t="n">
+        <v>24</v>
+      </c>
+      <c r="O1224" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1224" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1224" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1224" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/60m/ZAGGLE.NS.xlsx
+++ b/stock_historical_data/60m/ZAGGLE.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R1224"/>
+  <dimension ref="A1:R1231"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -68677,7 +68677,9 @@
       <c r="Q1218" t="n">
         <v>0</v>
       </c>
-      <c r="R1218" t="inlineStr"/>
+      <c r="R1218" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1219">
       <c r="A1219" s="2" t="n">
@@ -68731,7 +68733,9 @@
       <c r="Q1219" t="n">
         <v>0</v>
       </c>
-      <c r="R1219" t="inlineStr"/>
+      <c r="R1219" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1220">
       <c r="A1220" s="2" t="n">
@@ -68785,7 +68789,9 @@
       <c r="Q1220" t="n">
         <v>0</v>
       </c>
-      <c r="R1220" t="inlineStr"/>
+      <c r="R1220" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1221">
       <c r="A1221" s="2" t="n">
@@ -68839,7 +68845,9 @@
       <c r="Q1221" t="n">
         <v>0</v>
       </c>
-      <c r="R1221" t="inlineStr"/>
+      <c r="R1221" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1222">
       <c r="A1222" s="2" t="n">
@@ -68893,7 +68901,9 @@
       <c r="Q1222" t="n">
         <v>0</v>
       </c>
-      <c r="R1222" t="inlineStr"/>
+      <c r="R1222" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1223">
       <c r="A1223" s="2" t="n">
@@ -68947,7 +68957,9 @@
       <c r="Q1223" t="n">
         <v>0</v>
       </c>
-      <c r="R1223" t="inlineStr"/>
+      <c r="R1223" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1224">
       <c r="A1224" s="2" t="n">
@@ -69001,7 +69013,387 @@
       <c r="Q1224" t="n">
         <v>0</v>
       </c>
-      <c r="R1224" t="inlineStr"/>
+      <c r="R1224" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1225">
+      <c r="A1225" s="2" t="n">
+        <v>45456.38541666666</v>
+      </c>
+      <c r="B1225" t="n">
+        <v>305</v>
+      </c>
+      <c r="C1225" t="n">
+        <v>308.5499877929688</v>
+      </c>
+      <c r="D1225" t="n">
+        <v>300.4500122070312</v>
+      </c>
+      <c r="E1225" t="n">
+        <v>302.5499877929688</v>
+      </c>
+      <c r="F1225" t="n">
+        <v>302.5499877929688</v>
+      </c>
+      <c r="G1225" t="n">
+        <v>1673907</v>
+      </c>
+      <c r="H1225" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1225" t="n">
+        <v>6</v>
+      </c>
+      <c r="J1225" t="n">
+        <v>13</v>
+      </c>
+      <c r="K1225" t="n">
+        <v>9</v>
+      </c>
+      <c r="L1225" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1225" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1225" t="n">
+        <v>24</v>
+      </c>
+      <c r="O1225" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1225" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1225" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1225" t="inlineStr"/>
+    </row>
+    <row r="1226">
+      <c r="A1226" s="2" t="n">
+        <v>45456.42708333334</v>
+      </c>
+      <c r="B1226" t="n">
+        <v>302.8500061035156</v>
+      </c>
+      <c r="C1226" t="n">
+        <v>303</v>
+      </c>
+      <c r="D1226" t="n">
+        <v>300.7999877929688</v>
+      </c>
+      <c r="E1226" t="n">
+        <v>301.5499877929688</v>
+      </c>
+      <c r="F1226" t="n">
+        <v>301.5499877929688</v>
+      </c>
+      <c r="G1226" t="n">
+        <v>251205</v>
+      </c>
+      <c r="H1226" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1226" t="n">
+        <v>6</v>
+      </c>
+      <c r="J1226" t="n">
+        <v>13</v>
+      </c>
+      <c r="K1226" t="n">
+        <v>10</v>
+      </c>
+      <c r="L1226" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1226" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1226" t="n">
+        <v>24</v>
+      </c>
+      <c r="O1226" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1226" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1226" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1226" t="inlineStr"/>
+    </row>
+    <row r="1227">
+      <c r="A1227" s="2" t="n">
+        <v>45456.46875</v>
+      </c>
+      <c r="B1227" t="n">
+        <v>301.5499877929688</v>
+      </c>
+      <c r="C1227" t="n">
+        <v>301.5499877929688</v>
+      </c>
+      <c r="D1227" t="n">
+        <v>297.5</v>
+      </c>
+      <c r="E1227" t="n">
+        <v>299.5</v>
+      </c>
+      <c r="F1227" t="n">
+        <v>299.5</v>
+      </c>
+      <c r="G1227" t="n">
+        <v>393153</v>
+      </c>
+      <c r="H1227" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1227" t="n">
+        <v>6</v>
+      </c>
+      <c r="J1227" t="n">
+        <v>13</v>
+      </c>
+      <c r="K1227" t="n">
+        <v>11</v>
+      </c>
+      <c r="L1227" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1227" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1227" t="n">
+        <v>24</v>
+      </c>
+      <c r="O1227" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1227" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1227" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1227" t="inlineStr"/>
+    </row>
+    <row r="1228">
+      <c r="A1228" s="2" t="n">
+        <v>45456.51041666666</v>
+      </c>
+      <c r="B1228" t="n">
+        <v>299.5</v>
+      </c>
+      <c r="C1228" t="n">
+        <v>299.6499938964844</v>
+      </c>
+      <c r="D1228" t="n">
+        <v>298.5499877929688</v>
+      </c>
+      <c r="E1228" t="n">
+        <v>299.25</v>
+      </c>
+      <c r="F1228" t="n">
+        <v>299.25</v>
+      </c>
+      <c r="G1228" t="n">
+        <v>126603</v>
+      </c>
+      <c r="H1228" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1228" t="n">
+        <v>6</v>
+      </c>
+      <c r="J1228" t="n">
+        <v>13</v>
+      </c>
+      <c r="K1228" t="n">
+        <v>12</v>
+      </c>
+      <c r="L1228" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1228" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1228" t="n">
+        <v>24</v>
+      </c>
+      <c r="O1228" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1228" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1228" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1228" t="inlineStr"/>
+    </row>
+    <row r="1229">
+      <c r="A1229" s="2" t="n">
+        <v>45456.55208333334</v>
+      </c>
+      <c r="B1229" t="n">
+        <v>299.25</v>
+      </c>
+      <c r="C1229" t="n">
+        <v>299.6000061035156</v>
+      </c>
+      <c r="D1229" t="n">
+        <v>297.1499938964844</v>
+      </c>
+      <c r="E1229" t="n">
+        <v>297.5499877929688</v>
+      </c>
+      <c r="F1229" t="n">
+        <v>297.5499877929688</v>
+      </c>
+      <c r="G1229" t="n">
+        <v>170013</v>
+      </c>
+      <c r="H1229" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1229" t="n">
+        <v>6</v>
+      </c>
+      <c r="J1229" t="n">
+        <v>13</v>
+      </c>
+      <c r="K1229" t="n">
+        <v>13</v>
+      </c>
+      <c r="L1229" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1229" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1229" t="n">
+        <v>24</v>
+      </c>
+      <c r="O1229" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1229" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1229" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1229" t="inlineStr"/>
+    </row>
+    <row r="1230">
+      <c r="A1230" s="2" t="n">
+        <v>45456.59375</v>
+      </c>
+      <c r="B1230" t="n">
+        <v>297.5499877929688</v>
+      </c>
+      <c r="C1230" t="n">
+        <v>299.9500122070312</v>
+      </c>
+      <c r="D1230" t="n">
+        <v>297</v>
+      </c>
+      <c r="E1230" t="n">
+        <v>298.2999877929688</v>
+      </c>
+      <c r="F1230" t="n">
+        <v>298.2999877929688</v>
+      </c>
+      <c r="G1230" t="n">
+        <v>230060</v>
+      </c>
+      <c r="H1230" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1230" t="n">
+        <v>6</v>
+      </c>
+      <c r="J1230" t="n">
+        <v>13</v>
+      </c>
+      <c r="K1230" t="n">
+        <v>14</v>
+      </c>
+      <c r="L1230" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1230" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1230" t="n">
+        <v>24</v>
+      </c>
+      <c r="O1230" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1230" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1230" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1230" t="inlineStr"/>
+    </row>
+    <row r="1231">
+      <c r="A1231" s="2" t="n">
+        <v>45456.63541666666</v>
+      </c>
+      <c r="B1231" t="n">
+        <v>298.25</v>
+      </c>
+      <c r="C1231" t="n">
+        <v>299.2000122070312</v>
+      </c>
+      <c r="D1231" t="n">
+        <v>297.0499877929688</v>
+      </c>
+      <c r="E1231" t="n">
+        <v>298.2999877929688</v>
+      </c>
+      <c r="F1231" t="n">
+        <v>298.2999877929688</v>
+      </c>
+      <c r="G1231" t="n">
+        <v>176818</v>
+      </c>
+      <c r="H1231" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1231" t="n">
+        <v>6</v>
+      </c>
+      <c r="J1231" t="n">
+        <v>13</v>
+      </c>
+      <c r="K1231" t="n">
+        <v>15</v>
+      </c>
+      <c r="L1231" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1231" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1231" t="n">
+        <v>24</v>
+      </c>
+      <c r="O1231" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1231" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1231" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1231" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/60m/ZAGGLE.NS.xlsx
+++ b/stock_historical_data/60m/ZAGGLE.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R1231"/>
+  <dimension ref="A1:R1238"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -69061,7 +69061,7 @@
         <v>24</v>
       </c>
       <c r="O1225" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P1225" t="n">
         <v>0</v>
@@ -69069,7 +69069,9 @@
       <c r="Q1225" t="n">
         <v>0</v>
       </c>
-      <c r="R1225" t="inlineStr"/>
+      <c r="R1225" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1226">
       <c r="A1226" s="2" t="n">
@@ -69123,7 +69125,9 @@
       <c r="Q1226" t="n">
         <v>0</v>
       </c>
-      <c r="R1226" t="inlineStr"/>
+      <c r="R1226" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1227">
       <c r="A1227" s="2" t="n">
@@ -69177,7 +69181,9 @@
       <c r="Q1227" t="n">
         <v>0</v>
       </c>
-      <c r="R1227" t="inlineStr"/>
+      <c r="R1227" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1228">
       <c r="A1228" s="2" t="n">
@@ -69231,7 +69237,9 @@
       <c r="Q1228" t="n">
         <v>0</v>
       </c>
-      <c r="R1228" t="inlineStr"/>
+      <c r="R1228" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1229">
       <c r="A1229" s="2" t="n">
@@ -69285,7 +69293,9 @@
       <c r="Q1229" t="n">
         <v>0</v>
       </c>
-      <c r="R1229" t="inlineStr"/>
+      <c r="R1229" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1230">
       <c r="A1230" s="2" t="n">
@@ -69339,7 +69349,9 @@
       <c r="Q1230" t="n">
         <v>0</v>
       </c>
-      <c r="R1230" t="inlineStr"/>
+      <c r="R1230" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1231">
       <c r="A1231" s="2" t="n">
@@ -69393,7 +69405,387 @@
       <c r="Q1231" t="n">
         <v>0</v>
       </c>
-      <c r="R1231" t="inlineStr"/>
+      <c r="R1231" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1232">
+      <c r="A1232" s="2" t="n">
+        <v>45457.38541666666</v>
+      </c>
+      <c r="B1232" t="n">
+        <v>301</v>
+      </c>
+      <c r="C1232" t="n">
+        <v>301</v>
+      </c>
+      <c r="D1232" t="n">
+        <v>296.75</v>
+      </c>
+      <c r="E1232" t="n">
+        <v>298</v>
+      </c>
+      <c r="F1232" t="n">
+        <v>298</v>
+      </c>
+      <c r="G1232" t="n">
+        <v>0</v>
+      </c>
+      <c r="H1232" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1232" t="n">
+        <v>6</v>
+      </c>
+      <c r="J1232" t="n">
+        <v>14</v>
+      </c>
+      <c r="K1232" t="n">
+        <v>9</v>
+      </c>
+      <c r="L1232" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1232" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1232" t="n">
+        <v>24</v>
+      </c>
+      <c r="O1232" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1232" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1232" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1232" t="inlineStr"/>
+    </row>
+    <row r="1233">
+      <c r="A1233" s="2" t="n">
+        <v>45457.42708333334</v>
+      </c>
+      <c r="B1233" t="n">
+        <v>298.3500061035156</v>
+      </c>
+      <c r="C1233" t="n">
+        <v>299.5</v>
+      </c>
+      <c r="D1233" t="n">
+        <v>297.3500061035156</v>
+      </c>
+      <c r="E1233" t="n">
+        <v>298.1499938964844</v>
+      </c>
+      <c r="F1233" t="n">
+        <v>298.1499938964844</v>
+      </c>
+      <c r="G1233" t="n">
+        <v>79205</v>
+      </c>
+      <c r="H1233" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1233" t="n">
+        <v>6</v>
+      </c>
+      <c r="J1233" t="n">
+        <v>14</v>
+      </c>
+      <c r="K1233" t="n">
+        <v>10</v>
+      </c>
+      <c r="L1233" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1233" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1233" t="n">
+        <v>24</v>
+      </c>
+      <c r="O1233" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1233" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1233" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1233" t="inlineStr"/>
+    </row>
+    <row r="1234">
+      <c r="A1234" s="2" t="n">
+        <v>45457.46875</v>
+      </c>
+      <c r="B1234" t="n">
+        <v>298</v>
+      </c>
+      <c r="C1234" t="n">
+        <v>298.2999877929688</v>
+      </c>
+      <c r="D1234" t="n">
+        <v>297.1000061035156</v>
+      </c>
+      <c r="E1234" t="n">
+        <v>297.7000122070312</v>
+      </c>
+      <c r="F1234" t="n">
+        <v>297.7000122070312</v>
+      </c>
+      <c r="G1234" t="n">
+        <v>62111</v>
+      </c>
+      <c r="H1234" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1234" t="n">
+        <v>6</v>
+      </c>
+      <c r="J1234" t="n">
+        <v>14</v>
+      </c>
+      <c r="K1234" t="n">
+        <v>11</v>
+      </c>
+      <c r="L1234" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1234" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1234" t="n">
+        <v>24</v>
+      </c>
+      <c r="O1234" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1234" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1234" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1234" t="inlineStr"/>
+    </row>
+    <row r="1235">
+      <c r="A1235" s="2" t="n">
+        <v>45457.51041666666</v>
+      </c>
+      <c r="B1235" t="n">
+        <v>297.75</v>
+      </c>
+      <c r="C1235" t="n">
+        <v>298.1000061035156</v>
+      </c>
+      <c r="D1235" t="n">
+        <v>296.2000122070312</v>
+      </c>
+      <c r="E1235" t="n">
+        <v>296.3999938964844</v>
+      </c>
+      <c r="F1235" t="n">
+        <v>296.3999938964844</v>
+      </c>
+      <c r="G1235" t="n">
+        <v>41027</v>
+      </c>
+      <c r="H1235" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1235" t="n">
+        <v>6</v>
+      </c>
+      <c r="J1235" t="n">
+        <v>14</v>
+      </c>
+      <c r="K1235" t="n">
+        <v>12</v>
+      </c>
+      <c r="L1235" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1235" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1235" t="n">
+        <v>24</v>
+      </c>
+      <c r="O1235" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1235" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1235" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1235" t="inlineStr"/>
+    </row>
+    <row r="1236">
+      <c r="A1236" s="2" t="n">
+        <v>45457.55208333334</v>
+      </c>
+      <c r="B1236" t="n">
+        <v>296.5</v>
+      </c>
+      <c r="C1236" t="n">
+        <v>297.1000061035156</v>
+      </c>
+      <c r="D1236" t="n">
+        <v>294.0499877929688</v>
+      </c>
+      <c r="E1236" t="n">
+        <v>295</v>
+      </c>
+      <c r="F1236" t="n">
+        <v>295</v>
+      </c>
+      <c r="G1236" t="n">
+        <v>73760</v>
+      </c>
+      <c r="H1236" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1236" t="n">
+        <v>6</v>
+      </c>
+      <c r="J1236" t="n">
+        <v>14</v>
+      </c>
+      <c r="K1236" t="n">
+        <v>13</v>
+      </c>
+      <c r="L1236" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1236" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1236" t="n">
+        <v>24</v>
+      </c>
+      <c r="O1236" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1236" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1236" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1236" t="inlineStr"/>
+    </row>
+    <row r="1237">
+      <c r="A1237" s="2" t="n">
+        <v>45457.59375</v>
+      </c>
+      <c r="B1237" t="n">
+        <v>295.2000122070312</v>
+      </c>
+      <c r="C1237" t="n">
+        <v>295.3999938964844</v>
+      </c>
+      <c r="D1237" t="n">
+        <v>291.75</v>
+      </c>
+      <c r="E1237" t="n">
+        <v>293.75</v>
+      </c>
+      <c r="F1237" t="n">
+        <v>293.75</v>
+      </c>
+      <c r="G1237" t="n">
+        <v>193885</v>
+      </c>
+      <c r="H1237" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1237" t="n">
+        <v>6</v>
+      </c>
+      <c r="J1237" t="n">
+        <v>14</v>
+      </c>
+      <c r="K1237" t="n">
+        <v>14</v>
+      </c>
+      <c r="L1237" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1237" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1237" t="n">
+        <v>24</v>
+      </c>
+      <c r="O1237" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1237" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1237" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1237" t="inlineStr"/>
+    </row>
+    <row r="1238">
+      <c r="A1238" s="2" t="n">
+        <v>45457.63541666666</v>
+      </c>
+      <c r="B1238" t="n">
+        <v>293.5</v>
+      </c>
+      <c r="C1238" t="n">
+        <v>294.75</v>
+      </c>
+      <c r="D1238" t="n">
+        <v>290.7000122070312</v>
+      </c>
+      <c r="E1238" t="n">
+        <v>292.9500122070312</v>
+      </c>
+      <c r="F1238" t="n">
+        <v>292.9500122070312</v>
+      </c>
+      <c r="G1238" t="n">
+        <v>161160</v>
+      </c>
+      <c r="H1238" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1238" t="n">
+        <v>6</v>
+      </c>
+      <c r="J1238" t="n">
+        <v>14</v>
+      </c>
+      <c r="K1238" t="n">
+        <v>15</v>
+      </c>
+      <c r="L1238" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1238" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1238" t="n">
+        <v>24</v>
+      </c>
+      <c r="O1238" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1238" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1238" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1238" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/60m/ZAGGLE.NS.xlsx
+++ b/stock_historical_data/60m/ZAGGLE.NS.xlsx
@@ -69461,7 +69461,9 @@
       <c r="Q1232" t="n">
         <v>0</v>
       </c>
-      <c r="R1232" t="inlineStr"/>
+      <c r="R1232" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1233">
       <c r="A1233" s="2" t="n">
@@ -69515,7 +69517,9 @@
       <c r="Q1233" t="n">
         <v>0</v>
       </c>
-      <c r="R1233" t="inlineStr"/>
+      <c r="R1233" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1234">
       <c r="A1234" s="2" t="n">
@@ -69569,7 +69573,9 @@
       <c r="Q1234" t="n">
         <v>0</v>
       </c>
-      <c r="R1234" t="inlineStr"/>
+      <c r="R1234" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1235">
       <c r="A1235" s="2" t="n">
@@ -69623,7 +69629,9 @@
       <c r="Q1235" t="n">
         <v>0</v>
       </c>
-      <c r="R1235" t="inlineStr"/>
+      <c r="R1235" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1236">
       <c r="A1236" s="2" t="n">
@@ -69677,7 +69685,9 @@
       <c r="Q1236" t="n">
         <v>0</v>
       </c>
-      <c r="R1236" t="inlineStr"/>
+      <c r="R1236" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1237">
       <c r="A1237" s="2" t="n">
@@ -69731,7 +69741,9 @@
       <c r="Q1237" t="n">
         <v>0</v>
       </c>
-      <c r="R1237" t="inlineStr"/>
+      <c r="R1237" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1238">
       <c r="A1238" s="2" t="n">
@@ -69785,7 +69797,9 @@
       <c r="Q1238" t="n">
         <v>0</v>
       </c>
-      <c r="R1238" t="inlineStr"/>
+      <c r="R1238" t="n">
+        <v>0</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/60m/ZAGGLE.NS.xlsx
+++ b/stock_historical_data/60m/ZAGGLE.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R1238"/>
+  <dimension ref="A1:R1245"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -69801,6 +69801,384 @@
         <v>0</v>
       </c>
     </row>
+    <row r="1239">
+      <c r="A1239" s="2" t="n">
+        <v>45461.38541666666</v>
+      </c>
+      <c r="B1239" t="n">
+        <v>294</v>
+      </c>
+      <c r="C1239" t="n">
+        <v>294</v>
+      </c>
+      <c r="D1239" t="n">
+        <v>290</v>
+      </c>
+      <c r="E1239" t="n">
+        <v>290.3500061035156</v>
+      </c>
+      <c r="F1239" t="n">
+        <v>290.3500061035156</v>
+      </c>
+      <c r="G1239" t="n">
+        <v>0</v>
+      </c>
+      <c r="H1239" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1239" t="n">
+        <v>6</v>
+      </c>
+      <c r="J1239" t="n">
+        <v>18</v>
+      </c>
+      <c r="K1239" t="n">
+        <v>9</v>
+      </c>
+      <c r="L1239" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1239" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1239" t="n">
+        <v>25</v>
+      </c>
+      <c r="O1239" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1239" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1239" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1239" t="inlineStr"/>
+    </row>
+    <row r="1240">
+      <c r="A1240" s="2" t="n">
+        <v>45461.42708333334</v>
+      </c>
+      <c r="B1240" t="n">
+        <v>290.3500061035156</v>
+      </c>
+      <c r="C1240" t="n">
+        <v>305.7000122070312</v>
+      </c>
+      <c r="D1240" t="n">
+        <v>289.1000061035156</v>
+      </c>
+      <c r="E1240" t="n">
+        <v>302.25</v>
+      </c>
+      <c r="F1240" t="n">
+        <v>302.25</v>
+      </c>
+      <c r="G1240" t="n">
+        <v>1269429</v>
+      </c>
+      <c r="H1240" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1240" t="n">
+        <v>6</v>
+      </c>
+      <c r="J1240" t="n">
+        <v>18</v>
+      </c>
+      <c r="K1240" t="n">
+        <v>10</v>
+      </c>
+      <c r="L1240" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1240" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1240" t="n">
+        <v>25</v>
+      </c>
+      <c r="O1240" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1240" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1240" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1240" t="inlineStr"/>
+    </row>
+    <row r="1241">
+      <c r="A1241" s="2" t="n">
+        <v>45461.46875</v>
+      </c>
+      <c r="B1241" t="n">
+        <v>302.2999877929688</v>
+      </c>
+      <c r="C1241" t="n">
+        <v>310</v>
+      </c>
+      <c r="D1241" t="n">
+        <v>301.6499938964844</v>
+      </c>
+      <c r="E1241" t="n">
+        <v>306.3999938964844</v>
+      </c>
+      <c r="F1241" t="n">
+        <v>306.3999938964844</v>
+      </c>
+      <c r="G1241" t="n">
+        <v>1235632</v>
+      </c>
+      <c r="H1241" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1241" t="n">
+        <v>6</v>
+      </c>
+      <c r="J1241" t="n">
+        <v>18</v>
+      </c>
+      <c r="K1241" t="n">
+        <v>11</v>
+      </c>
+      <c r="L1241" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1241" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1241" t="n">
+        <v>25</v>
+      </c>
+      <c r="O1241" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1241" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1241" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1241" t="inlineStr"/>
+    </row>
+    <row r="1242">
+      <c r="A1242" s="2" t="n">
+        <v>45461.51041666666</v>
+      </c>
+      <c r="B1242" t="n">
+        <v>306.4500122070312</v>
+      </c>
+      <c r="C1242" t="n">
+        <v>308.9500122070312</v>
+      </c>
+      <c r="D1242" t="n">
+        <v>304.1000061035156</v>
+      </c>
+      <c r="E1242" t="n">
+        <v>306.75</v>
+      </c>
+      <c r="F1242" t="n">
+        <v>306.75</v>
+      </c>
+      <c r="G1242" t="n">
+        <v>334648</v>
+      </c>
+      <c r="H1242" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1242" t="n">
+        <v>6</v>
+      </c>
+      <c r="J1242" t="n">
+        <v>18</v>
+      </c>
+      <c r="K1242" t="n">
+        <v>12</v>
+      </c>
+      <c r="L1242" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1242" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1242" t="n">
+        <v>25</v>
+      </c>
+      <c r="O1242" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1242" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1242" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1242" t="inlineStr"/>
+    </row>
+    <row r="1243">
+      <c r="A1243" s="2" t="n">
+        <v>45461.55208333334</v>
+      </c>
+      <c r="B1243" t="n">
+        <v>306.7999877929688</v>
+      </c>
+      <c r="C1243" t="n">
+        <v>308.6000061035156</v>
+      </c>
+      <c r="D1243" t="n">
+        <v>306.0499877929688</v>
+      </c>
+      <c r="E1243" t="n">
+        <v>308.2999877929688</v>
+      </c>
+      <c r="F1243" t="n">
+        <v>308.2999877929688</v>
+      </c>
+      <c r="G1243" t="n">
+        <v>250794</v>
+      </c>
+      <c r="H1243" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1243" t="n">
+        <v>6</v>
+      </c>
+      <c r="J1243" t="n">
+        <v>18</v>
+      </c>
+      <c r="K1243" t="n">
+        <v>13</v>
+      </c>
+      <c r="L1243" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1243" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1243" t="n">
+        <v>25</v>
+      </c>
+      <c r="O1243" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1243" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1243" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1243" t="inlineStr"/>
+    </row>
+    <row r="1244">
+      <c r="A1244" s="2" t="n">
+        <v>45461.59375</v>
+      </c>
+      <c r="B1244" t="n">
+        <v>308.2999877929688</v>
+      </c>
+      <c r="C1244" t="n">
+        <v>310.8500061035156</v>
+      </c>
+      <c r="D1244" t="n">
+        <v>308</v>
+      </c>
+      <c r="E1244" t="n">
+        <v>310.5</v>
+      </c>
+      <c r="F1244" t="n">
+        <v>310.5</v>
+      </c>
+      <c r="G1244" t="n">
+        <v>551861</v>
+      </c>
+      <c r="H1244" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1244" t="n">
+        <v>6</v>
+      </c>
+      <c r="J1244" t="n">
+        <v>18</v>
+      </c>
+      <c r="K1244" t="n">
+        <v>14</v>
+      </c>
+      <c r="L1244" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1244" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1244" t="n">
+        <v>25</v>
+      </c>
+      <c r="O1244" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1244" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1244" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1244" t="inlineStr"/>
+    </row>
+    <row r="1245">
+      <c r="A1245" s="2" t="n">
+        <v>45461.63541666666</v>
+      </c>
+      <c r="B1245" t="n">
+        <v>311</v>
+      </c>
+      <c r="C1245" t="n">
+        <v>311.8999938964844</v>
+      </c>
+      <c r="D1245" t="n">
+        <v>309</v>
+      </c>
+      <c r="E1245" t="n">
+        <v>310.2999877929688</v>
+      </c>
+      <c r="F1245" t="n">
+        <v>310.2999877929688</v>
+      </c>
+      <c r="G1245" t="n">
+        <v>633209</v>
+      </c>
+      <c r="H1245" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1245" t="n">
+        <v>6</v>
+      </c>
+      <c r="J1245" t="n">
+        <v>18</v>
+      </c>
+      <c r="K1245" t="n">
+        <v>15</v>
+      </c>
+      <c r="L1245" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1245" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1245" t="n">
+        <v>25</v>
+      </c>
+      <c r="O1245" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1245" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1245" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1245" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/stock_historical_data/60m/ZAGGLE.NS.xlsx
+++ b/stock_historical_data/60m/ZAGGLE.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R1245"/>
+  <dimension ref="A1:R1252"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -69853,7 +69853,9 @@
       <c r="Q1239" t="n">
         <v>0</v>
       </c>
-      <c r="R1239" t="inlineStr"/>
+      <c r="R1239" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1240">
       <c r="A1240" s="2" t="n">
@@ -69899,7 +69901,7 @@
         <v>25</v>
       </c>
       <c r="O1240" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="P1240" t="n">
         <v>0</v>
@@ -69907,7 +69909,9 @@
       <c r="Q1240" t="n">
         <v>0</v>
       </c>
-      <c r="R1240" t="inlineStr"/>
+      <c r="R1240" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1241">
       <c r="A1241" s="2" t="n">
@@ -69961,7 +69965,9 @@
       <c r="Q1241" t="n">
         <v>0</v>
       </c>
-      <c r="R1241" t="inlineStr"/>
+      <c r="R1241" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1242">
       <c r="A1242" s="2" t="n">
@@ -70015,7 +70021,9 @@
       <c r="Q1242" t="n">
         <v>0</v>
       </c>
-      <c r="R1242" t="inlineStr"/>
+      <c r="R1242" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1243">
       <c r="A1243" s="2" t="n">
@@ -70069,7 +70077,9 @@
       <c r="Q1243" t="n">
         <v>0</v>
       </c>
-      <c r="R1243" t="inlineStr"/>
+      <c r="R1243" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1244">
       <c r="A1244" s="2" t="n">
@@ -70123,7 +70133,9 @@
       <c r="Q1244" t="n">
         <v>0</v>
       </c>
-      <c r="R1244" t="inlineStr"/>
+      <c r="R1244" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1245">
       <c r="A1245" s="2" t="n">
@@ -70177,7 +70189,387 @@
       <c r="Q1245" t="n">
         <v>0</v>
       </c>
-      <c r="R1245" t="inlineStr"/>
+      <c r="R1245" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1246">
+      <c r="A1246" s="2" t="n">
+        <v>45462.38541666666</v>
+      </c>
+      <c r="B1246" t="n">
+        <v>311.1499938964844</v>
+      </c>
+      <c r="C1246" t="n">
+        <v>311.1499938964844</v>
+      </c>
+      <c r="D1246" t="n">
+        <v>302.6000061035156</v>
+      </c>
+      <c r="E1246" t="n">
+        <v>303.7000122070312</v>
+      </c>
+      <c r="F1246" t="n">
+        <v>303.7000122070312</v>
+      </c>
+      <c r="G1246" t="n">
+        <v>0</v>
+      </c>
+      <c r="H1246" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1246" t="n">
+        <v>6</v>
+      </c>
+      <c r="J1246" t="n">
+        <v>19</v>
+      </c>
+      <c r="K1246" t="n">
+        <v>9</v>
+      </c>
+      <c r="L1246" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1246" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1246" t="n">
+        <v>25</v>
+      </c>
+      <c r="O1246" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1246" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1246" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1246" t="inlineStr"/>
+    </row>
+    <row r="1247">
+      <c r="A1247" s="2" t="n">
+        <v>45462.42708333334</v>
+      </c>
+      <c r="B1247" t="n">
+        <v>303.25</v>
+      </c>
+      <c r="C1247" t="n">
+        <v>303.4500122070312</v>
+      </c>
+      <c r="D1247" t="n">
+        <v>298.5499877929688</v>
+      </c>
+      <c r="E1247" t="n">
+        <v>301.2999877929688</v>
+      </c>
+      <c r="F1247" t="n">
+        <v>301.2999877929688</v>
+      </c>
+      <c r="G1247" t="n">
+        <v>370623</v>
+      </c>
+      <c r="H1247" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1247" t="n">
+        <v>6</v>
+      </c>
+      <c r="J1247" t="n">
+        <v>19</v>
+      </c>
+      <c r="K1247" t="n">
+        <v>10</v>
+      </c>
+      <c r="L1247" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1247" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1247" t="n">
+        <v>25</v>
+      </c>
+      <c r="O1247" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1247" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1247" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1247" t="inlineStr"/>
+    </row>
+    <row r="1248">
+      <c r="A1248" s="2" t="n">
+        <v>45462.46875</v>
+      </c>
+      <c r="B1248" t="n">
+        <v>301.2999877929688</v>
+      </c>
+      <c r="C1248" t="n">
+        <v>302.7000122070312</v>
+      </c>
+      <c r="D1248" t="n">
+        <v>301.0499877929688</v>
+      </c>
+      <c r="E1248" t="n">
+        <v>302.2999877929688</v>
+      </c>
+      <c r="F1248" t="n">
+        <v>302.2999877929688</v>
+      </c>
+      <c r="G1248" t="n">
+        <v>112503</v>
+      </c>
+      <c r="H1248" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1248" t="n">
+        <v>6</v>
+      </c>
+      <c r="J1248" t="n">
+        <v>19</v>
+      </c>
+      <c r="K1248" t="n">
+        <v>11</v>
+      </c>
+      <c r="L1248" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1248" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1248" t="n">
+        <v>25</v>
+      </c>
+      <c r="O1248" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1248" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1248" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1248" t="inlineStr"/>
+    </row>
+    <row r="1249">
+      <c r="A1249" s="2" t="n">
+        <v>45462.51041666666</v>
+      </c>
+      <c r="B1249" t="n">
+        <v>302.3999938964844</v>
+      </c>
+      <c r="C1249" t="n">
+        <v>303.7999877929688</v>
+      </c>
+      <c r="D1249" t="n">
+        <v>302.1499938964844</v>
+      </c>
+      <c r="E1249" t="n">
+        <v>302.9500122070312</v>
+      </c>
+      <c r="F1249" t="n">
+        <v>302.9500122070312</v>
+      </c>
+      <c r="G1249" t="n">
+        <v>104552</v>
+      </c>
+      <c r="H1249" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1249" t="n">
+        <v>6</v>
+      </c>
+      <c r="J1249" t="n">
+        <v>19</v>
+      </c>
+      <c r="K1249" t="n">
+        <v>12</v>
+      </c>
+      <c r="L1249" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1249" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1249" t="n">
+        <v>25</v>
+      </c>
+      <c r="O1249" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1249" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1249" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1249" t="inlineStr"/>
+    </row>
+    <row r="1250">
+      <c r="A1250" s="2" t="n">
+        <v>45462.55208333334</v>
+      </c>
+      <c r="B1250" t="n">
+        <v>302.8999938964844</v>
+      </c>
+      <c r="C1250" t="n">
+        <v>305.2000122070312</v>
+      </c>
+      <c r="D1250" t="n">
+        <v>302</v>
+      </c>
+      <c r="E1250" t="n">
+        <v>304.8999938964844</v>
+      </c>
+      <c r="F1250" t="n">
+        <v>304.8999938964844</v>
+      </c>
+      <c r="G1250" t="n">
+        <v>116593</v>
+      </c>
+      <c r="H1250" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1250" t="n">
+        <v>6</v>
+      </c>
+      <c r="J1250" t="n">
+        <v>19</v>
+      </c>
+      <c r="K1250" t="n">
+        <v>13</v>
+      </c>
+      <c r="L1250" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1250" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1250" t="n">
+        <v>25</v>
+      </c>
+      <c r="O1250" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1250" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1250" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1250" t="inlineStr"/>
+    </row>
+    <row r="1251">
+      <c r="A1251" s="2" t="n">
+        <v>45462.59375</v>
+      </c>
+      <c r="B1251" t="n">
+        <v>304.8999938964844</v>
+      </c>
+      <c r="C1251" t="n">
+        <v>304.8999938964844</v>
+      </c>
+      <c r="D1251" t="n">
+        <v>301</v>
+      </c>
+      <c r="E1251" t="n">
+        <v>301</v>
+      </c>
+      <c r="F1251" t="n">
+        <v>301</v>
+      </c>
+      <c r="G1251" t="n">
+        <v>188602</v>
+      </c>
+      <c r="H1251" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1251" t="n">
+        <v>6</v>
+      </c>
+      <c r="J1251" t="n">
+        <v>19</v>
+      </c>
+      <c r="K1251" t="n">
+        <v>14</v>
+      </c>
+      <c r="L1251" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1251" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1251" t="n">
+        <v>25</v>
+      </c>
+      <c r="O1251" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1251" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1251" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1251" t="inlineStr"/>
+    </row>
+    <row r="1252">
+      <c r="A1252" s="2" t="n">
+        <v>45462.63541666666</v>
+      </c>
+      <c r="B1252" t="n">
+        <v>301.0499877929688</v>
+      </c>
+      <c r="C1252" t="n">
+        <v>301.5499877929688</v>
+      </c>
+      <c r="D1252" t="n">
+        <v>300.25</v>
+      </c>
+      <c r="E1252" t="n">
+        <v>301.1499938964844</v>
+      </c>
+      <c r="F1252" t="n">
+        <v>301.1499938964844</v>
+      </c>
+      <c r="G1252" t="n">
+        <v>77031</v>
+      </c>
+      <c r="H1252" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1252" t="n">
+        <v>6</v>
+      </c>
+      <c r="J1252" t="n">
+        <v>19</v>
+      </c>
+      <c r="K1252" t="n">
+        <v>15</v>
+      </c>
+      <c r="L1252" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1252" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1252" t="n">
+        <v>25</v>
+      </c>
+      <c r="O1252" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1252" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1252" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1252" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/60m/ZAGGLE.NS.xlsx
+++ b/stock_historical_data/60m/ZAGGLE.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R1252"/>
+  <dimension ref="A1:R1273"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -70181,7 +70181,7 @@
         <v>25</v>
       </c>
       <c r="O1245" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P1245" t="n">
         <v>0</v>
@@ -70245,7 +70245,9 @@
       <c r="Q1246" t="n">
         <v>0</v>
       </c>
-      <c r="R1246" t="inlineStr"/>
+      <c r="R1246" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1247">
       <c r="A1247" s="2" t="n">
@@ -70299,7 +70301,9 @@
       <c r="Q1247" t="n">
         <v>0</v>
       </c>
-      <c r="R1247" t="inlineStr"/>
+      <c r="R1247" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1248">
       <c r="A1248" s="2" t="n">
@@ -70353,7 +70357,9 @@
       <c r="Q1248" t="n">
         <v>0</v>
       </c>
-      <c r="R1248" t="inlineStr"/>
+      <c r="R1248" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1249">
       <c r="A1249" s="2" t="n">
@@ -70407,7 +70413,9 @@
       <c r="Q1249" t="n">
         <v>0</v>
       </c>
-      <c r="R1249" t="inlineStr"/>
+      <c r="R1249" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1250">
       <c r="A1250" s="2" t="n">
@@ -70461,7 +70469,9 @@
       <c r="Q1250" t="n">
         <v>0</v>
       </c>
-      <c r="R1250" t="inlineStr"/>
+      <c r="R1250" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1251">
       <c r="A1251" s="2" t="n">
@@ -70515,7 +70525,9 @@
       <c r="Q1251" t="n">
         <v>0</v>
       </c>
-      <c r="R1251" t="inlineStr"/>
+      <c r="R1251" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1252">
       <c r="A1252" s="2" t="n">
@@ -70569,7 +70581,1143 @@
       <c r="Q1252" t="n">
         <v>0</v>
       </c>
-      <c r="R1252" t="inlineStr"/>
+      <c r="R1252" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1253">
+      <c r="A1253" s="2" t="n">
+        <v>45463.38541666666</v>
+      </c>
+      <c r="B1253" t="n">
+        <v>301.2000122070312</v>
+      </c>
+      <c r="C1253" t="n">
+        <v>301.2000122070312</v>
+      </c>
+      <c r="D1253" t="n">
+        <v>296.2999877929688</v>
+      </c>
+      <c r="E1253" t="n">
+        <v>299.9500122070312</v>
+      </c>
+      <c r="F1253" t="n">
+        <v>299.9500122070312</v>
+      </c>
+      <c r="G1253" t="n">
+        <v>0</v>
+      </c>
+      <c r="H1253" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1253" t="n">
+        <v>6</v>
+      </c>
+      <c r="J1253" t="n">
+        <v>20</v>
+      </c>
+      <c r="K1253" t="n">
+        <v>9</v>
+      </c>
+      <c r="L1253" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1253" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1253" t="n">
+        <v>25</v>
+      </c>
+      <c r="O1253" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1253" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1253" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1253" t="inlineStr"/>
+    </row>
+    <row r="1254">
+      <c r="A1254" s="2" t="n">
+        <v>45463.42708333334</v>
+      </c>
+      <c r="B1254" t="n">
+        <v>300.3999938964844</v>
+      </c>
+      <c r="C1254" t="n">
+        <v>300.6499938964844</v>
+      </c>
+      <c r="D1254" t="n">
+        <v>298.3999938964844</v>
+      </c>
+      <c r="E1254" t="n">
+        <v>300.2000122070312</v>
+      </c>
+      <c r="F1254" t="n">
+        <v>300.2000122070312</v>
+      </c>
+      <c r="G1254" t="n">
+        <v>100946</v>
+      </c>
+      <c r="H1254" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1254" t="n">
+        <v>6</v>
+      </c>
+      <c r="J1254" t="n">
+        <v>20</v>
+      </c>
+      <c r="K1254" t="n">
+        <v>10</v>
+      </c>
+      <c r="L1254" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1254" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1254" t="n">
+        <v>25</v>
+      </c>
+      <c r="O1254" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1254" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1254" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1254" t="inlineStr"/>
+    </row>
+    <row r="1255">
+      <c r="A1255" s="2" t="n">
+        <v>45463.46875</v>
+      </c>
+      <c r="B1255" t="n">
+        <v>300.2000122070312</v>
+      </c>
+      <c r="C1255" t="n">
+        <v>301</v>
+      </c>
+      <c r="D1255" t="n">
+        <v>299.1000061035156</v>
+      </c>
+      <c r="E1255" t="n">
+        <v>299.7999877929688</v>
+      </c>
+      <c r="F1255" t="n">
+        <v>299.7999877929688</v>
+      </c>
+      <c r="G1255" t="n">
+        <v>60957</v>
+      </c>
+      <c r="H1255" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1255" t="n">
+        <v>6</v>
+      </c>
+      <c r="J1255" t="n">
+        <v>20</v>
+      </c>
+      <c r="K1255" t="n">
+        <v>11</v>
+      </c>
+      <c r="L1255" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1255" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1255" t="n">
+        <v>25</v>
+      </c>
+      <c r="O1255" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1255" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1255" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1255" t="inlineStr"/>
+    </row>
+    <row r="1256">
+      <c r="A1256" s="2" t="n">
+        <v>45463.51041666666</v>
+      </c>
+      <c r="B1256" t="n">
+        <v>299.7999877929688</v>
+      </c>
+      <c r="C1256" t="n">
+        <v>300</v>
+      </c>
+      <c r="D1256" t="n">
+        <v>298.5</v>
+      </c>
+      <c r="E1256" t="n">
+        <v>298.5</v>
+      </c>
+      <c r="F1256" t="n">
+        <v>298.5</v>
+      </c>
+      <c r="G1256" t="n">
+        <v>34190</v>
+      </c>
+      <c r="H1256" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1256" t="n">
+        <v>6</v>
+      </c>
+      <c r="J1256" t="n">
+        <v>20</v>
+      </c>
+      <c r="K1256" t="n">
+        <v>12</v>
+      </c>
+      <c r="L1256" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1256" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1256" t="n">
+        <v>25</v>
+      </c>
+      <c r="O1256" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1256" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1256" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1256" t="inlineStr"/>
+    </row>
+    <row r="1257">
+      <c r="A1257" s="2" t="n">
+        <v>45463.55208333334</v>
+      </c>
+      <c r="B1257" t="n">
+        <v>298.7000122070312</v>
+      </c>
+      <c r="C1257" t="n">
+        <v>299.8500061035156</v>
+      </c>
+      <c r="D1257" t="n">
+        <v>297.2000122070312</v>
+      </c>
+      <c r="E1257" t="n">
+        <v>298</v>
+      </c>
+      <c r="F1257" t="n">
+        <v>298</v>
+      </c>
+      <c r="G1257" t="n">
+        <v>82063</v>
+      </c>
+      <c r="H1257" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1257" t="n">
+        <v>6</v>
+      </c>
+      <c r="J1257" t="n">
+        <v>20</v>
+      </c>
+      <c r="K1257" t="n">
+        <v>13</v>
+      </c>
+      <c r="L1257" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1257" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1257" t="n">
+        <v>25</v>
+      </c>
+      <c r="O1257" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1257" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1257" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1257" t="inlineStr"/>
+    </row>
+    <row r="1258">
+      <c r="A1258" s="2" t="n">
+        <v>45463.59375</v>
+      </c>
+      <c r="B1258" t="n">
+        <v>298.0499877929688</v>
+      </c>
+      <c r="C1258" t="n">
+        <v>298.2999877929688</v>
+      </c>
+      <c r="D1258" t="n">
+        <v>296.2000122070312</v>
+      </c>
+      <c r="E1258" t="n">
+        <v>296.6000061035156</v>
+      </c>
+      <c r="F1258" t="n">
+        <v>296.6000061035156</v>
+      </c>
+      <c r="G1258" t="n">
+        <v>114826</v>
+      </c>
+      <c r="H1258" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1258" t="n">
+        <v>6</v>
+      </c>
+      <c r="J1258" t="n">
+        <v>20</v>
+      </c>
+      <c r="K1258" t="n">
+        <v>14</v>
+      </c>
+      <c r="L1258" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1258" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1258" t="n">
+        <v>25</v>
+      </c>
+      <c r="O1258" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1258" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1258" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1258" t="inlineStr"/>
+    </row>
+    <row r="1259">
+      <c r="A1259" s="2" t="n">
+        <v>45463.63541666666</v>
+      </c>
+      <c r="B1259" t="n">
+        <v>296.7000122070312</v>
+      </c>
+      <c r="C1259" t="n">
+        <v>297.2999877929688</v>
+      </c>
+      <c r="D1259" t="n">
+        <v>296.1499938964844</v>
+      </c>
+      <c r="E1259" t="n">
+        <v>296.8999938964844</v>
+      </c>
+      <c r="F1259" t="n">
+        <v>296.8999938964844</v>
+      </c>
+      <c r="G1259" t="n">
+        <v>76337</v>
+      </c>
+      <c r="H1259" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1259" t="n">
+        <v>6</v>
+      </c>
+      <c r="J1259" t="n">
+        <v>20</v>
+      </c>
+      <c r="K1259" t="n">
+        <v>15</v>
+      </c>
+      <c r="L1259" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1259" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1259" t="n">
+        <v>25</v>
+      </c>
+      <c r="O1259" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1259" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1259" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1259" t="inlineStr"/>
+    </row>
+    <row r="1260">
+      <c r="A1260" s="2" t="n">
+        <v>45464.38541666666</v>
+      </c>
+      <c r="B1260" t="n">
+        <v>299.75</v>
+      </c>
+      <c r="C1260" t="n">
+        <v>302.5</v>
+      </c>
+      <c r="D1260" t="n">
+        <v>297.2999877929688</v>
+      </c>
+      <c r="E1260" t="n">
+        <v>297.8999938964844</v>
+      </c>
+      <c r="F1260" t="n">
+        <v>297.8999938964844</v>
+      </c>
+      <c r="G1260" t="n">
+        <v>0</v>
+      </c>
+      <c r="H1260" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1260" t="n">
+        <v>6</v>
+      </c>
+      <c r="J1260" t="n">
+        <v>21</v>
+      </c>
+      <c r="K1260" t="n">
+        <v>9</v>
+      </c>
+      <c r="L1260" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1260" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1260" t="n">
+        <v>25</v>
+      </c>
+      <c r="O1260" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1260" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1260" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1260" t="inlineStr"/>
+    </row>
+    <row r="1261">
+      <c r="A1261" s="2" t="n">
+        <v>45464.42708333334</v>
+      </c>
+      <c r="B1261" t="n">
+        <v>297.9500122070312</v>
+      </c>
+      <c r="C1261" t="n">
+        <v>298.7999877929688</v>
+      </c>
+      <c r="D1261" t="n">
+        <v>294.6499938964844</v>
+      </c>
+      <c r="E1261" t="n">
+        <v>296.7000122070312</v>
+      </c>
+      <c r="F1261" t="n">
+        <v>296.7000122070312</v>
+      </c>
+      <c r="G1261" t="n">
+        <v>95712</v>
+      </c>
+      <c r="H1261" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1261" t="n">
+        <v>6</v>
+      </c>
+      <c r="J1261" t="n">
+        <v>21</v>
+      </c>
+      <c r="K1261" t="n">
+        <v>10</v>
+      </c>
+      <c r="L1261" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1261" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1261" t="n">
+        <v>25</v>
+      </c>
+      <c r="O1261" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1261" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1261" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1261" t="inlineStr"/>
+    </row>
+    <row r="1262">
+      <c r="A1262" s="2" t="n">
+        <v>45464.46875</v>
+      </c>
+      <c r="B1262" t="n">
+        <v>296.9500122070312</v>
+      </c>
+      <c r="C1262" t="n">
+        <v>297.4500122070312</v>
+      </c>
+      <c r="D1262" t="n">
+        <v>296.1499938964844</v>
+      </c>
+      <c r="E1262" t="n">
+        <v>297</v>
+      </c>
+      <c r="F1262" t="n">
+        <v>297</v>
+      </c>
+      <c r="G1262" t="n">
+        <v>33210</v>
+      </c>
+      <c r="H1262" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1262" t="n">
+        <v>6</v>
+      </c>
+      <c r="J1262" t="n">
+        <v>21</v>
+      </c>
+      <c r="K1262" t="n">
+        <v>11</v>
+      </c>
+      <c r="L1262" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1262" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1262" t="n">
+        <v>25</v>
+      </c>
+      <c r="O1262" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1262" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1262" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1262" t="inlineStr"/>
+    </row>
+    <row r="1263">
+      <c r="A1263" s="2" t="n">
+        <v>45464.51041666666</v>
+      </c>
+      <c r="B1263" t="n">
+        <v>297</v>
+      </c>
+      <c r="C1263" t="n">
+        <v>297.2999877929688</v>
+      </c>
+      <c r="D1263" t="n">
+        <v>292.0499877929688</v>
+      </c>
+      <c r="E1263" t="n">
+        <v>293.25</v>
+      </c>
+      <c r="F1263" t="n">
+        <v>293.25</v>
+      </c>
+      <c r="G1263" t="n">
+        <v>152023</v>
+      </c>
+      <c r="H1263" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1263" t="n">
+        <v>6</v>
+      </c>
+      <c r="J1263" t="n">
+        <v>21</v>
+      </c>
+      <c r="K1263" t="n">
+        <v>12</v>
+      </c>
+      <c r="L1263" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1263" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1263" t="n">
+        <v>25</v>
+      </c>
+      <c r="O1263" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1263" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1263" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1263" t="inlineStr"/>
+    </row>
+    <row r="1264">
+      <c r="A1264" s="2" t="n">
+        <v>45464.55208333334</v>
+      </c>
+      <c r="B1264" t="n">
+        <v>293.25</v>
+      </c>
+      <c r="C1264" t="n">
+        <v>296</v>
+      </c>
+      <c r="D1264" t="n">
+        <v>292.9500122070312</v>
+      </c>
+      <c r="E1264" t="n">
+        <v>295.7999877929688</v>
+      </c>
+      <c r="F1264" t="n">
+        <v>295.7999877929688</v>
+      </c>
+      <c r="G1264" t="n">
+        <v>84178</v>
+      </c>
+      <c r="H1264" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1264" t="n">
+        <v>6</v>
+      </c>
+      <c r="J1264" t="n">
+        <v>21</v>
+      </c>
+      <c r="K1264" t="n">
+        <v>13</v>
+      </c>
+      <c r="L1264" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1264" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1264" t="n">
+        <v>25</v>
+      </c>
+      <c r="O1264" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1264" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1264" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1264" t="inlineStr"/>
+    </row>
+    <row r="1265">
+      <c r="A1265" s="2" t="n">
+        <v>45464.59375</v>
+      </c>
+      <c r="B1265" t="n">
+        <v>295.5</v>
+      </c>
+      <c r="C1265" t="n">
+        <v>295.5</v>
+      </c>
+      <c r="D1265" t="n">
+        <v>293</v>
+      </c>
+      <c r="E1265" t="n">
+        <v>293.0499877929688</v>
+      </c>
+      <c r="F1265" t="n">
+        <v>293.0499877929688</v>
+      </c>
+      <c r="G1265" t="n">
+        <v>93782</v>
+      </c>
+      <c r="H1265" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1265" t="n">
+        <v>6</v>
+      </c>
+      <c r="J1265" t="n">
+        <v>21</v>
+      </c>
+      <c r="K1265" t="n">
+        <v>14</v>
+      </c>
+      <c r="L1265" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1265" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1265" t="n">
+        <v>25</v>
+      </c>
+      <c r="O1265" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1265" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1265" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1265" t="inlineStr"/>
+    </row>
+    <row r="1266">
+      <c r="A1266" s="2" t="n">
+        <v>45464.63541666666</v>
+      </c>
+      <c r="B1266" t="n">
+        <v>293</v>
+      </c>
+      <c r="C1266" t="n">
+        <v>293.4500122070312</v>
+      </c>
+      <c r="D1266" t="n">
+        <v>292.0499877929688</v>
+      </c>
+      <c r="E1266" t="n">
+        <v>292.9500122070312</v>
+      </c>
+      <c r="F1266" t="n">
+        <v>292.9500122070312</v>
+      </c>
+      <c r="G1266" t="n">
+        <v>83642</v>
+      </c>
+      <c r="H1266" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1266" t="n">
+        <v>6</v>
+      </c>
+      <c r="J1266" t="n">
+        <v>21</v>
+      </c>
+      <c r="K1266" t="n">
+        <v>15</v>
+      </c>
+      <c r="L1266" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1266" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1266" t="n">
+        <v>25</v>
+      </c>
+      <c r="O1266" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1266" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1266" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1266" t="inlineStr"/>
+    </row>
+    <row r="1267">
+      <c r="A1267" s="2" t="n">
+        <v>45467.38541666666</v>
+      </c>
+      <c r="B1267" t="n">
+        <v>290.4500122070312</v>
+      </c>
+      <c r="C1267" t="n">
+        <v>292</v>
+      </c>
+      <c r="D1267" t="n">
+        <v>286.5</v>
+      </c>
+      <c r="E1267" t="n">
+        <v>287</v>
+      </c>
+      <c r="F1267" t="n">
+        <v>287</v>
+      </c>
+      <c r="G1267" t="n">
+        <v>0</v>
+      </c>
+      <c r="H1267" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1267" t="n">
+        <v>6</v>
+      </c>
+      <c r="J1267" t="n">
+        <v>24</v>
+      </c>
+      <c r="K1267" t="n">
+        <v>9</v>
+      </c>
+      <c r="L1267" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1267" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1267" t="n">
+        <v>26</v>
+      </c>
+      <c r="O1267" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1267" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1267" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1267" t="inlineStr"/>
+    </row>
+    <row r="1268">
+      <c r="A1268" s="2" t="n">
+        <v>45467.42708333334</v>
+      </c>
+      <c r="B1268" t="n">
+        <v>287</v>
+      </c>
+      <c r="C1268" t="n">
+        <v>289.75</v>
+      </c>
+      <c r="D1268" t="n">
+        <v>286.7999877929688</v>
+      </c>
+      <c r="E1268" t="n">
+        <v>289.2000122070312</v>
+      </c>
+      <c r="F1268" t="n">
+        <v>289.2000122070312</v>
+      </c>
+      <c r="G1268" t="n">
+        <v>92579</v>
+      </c>
+      <c r="H1268" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1268" t="n">
+        <v>6</v>
+      </c>
+      <c r="J1268" t="n">
+        <v>24</v>
+      </c>
+      <c r="K1268" t="n">
+        <v>10</v>
+      </c>
+      <c r="L1268" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1268" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1268" t="n">
+        <v>26</v>
+      </c>
+      <c r="O1268" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1268" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1268" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1268" t="inlineStr"/>
+    </row>
+    <row r="1269">
+      <c r="A1269" s="2" t="n">
+        <v>45467.46875</v>
+      </c>
+      <c r="B1269" t="n">
+        <v>288.8999938964844</v>
+      </c>
+      <c r="C1269" t="n">
+        <v>290</v>
+      </c>
+      <c r="D1269" t="n">
+        <v>288.5</v>
+      </c>
+      <c r="E1269" t="n">
+        <v>289</v>
+      </c>
+      <c r="F1269" t="n">
+        <v>289</v>
+      </c>
+      <c r="G1269" t="n">
+        <v>72370</v>
+      </c>
+      <c r="H1269" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1269" t="n">
+        <v>6</v>
+      </c>
+      <c r="J1269" t="n">
+        <v>24</v>
+      </c>
+      <c r="K1269" t="n">
+        <v>11</v>
+      </c>
+      <c r="L1269" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1269" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1269" t="n">
+        <v>26</v>
+      </c>
+      <c r="O1269" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1269" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1269" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1269" t="inlineStr"/>
+    </row>
+    <row r="1270">
+      <c r="A1270" s="2" t="n">
+        <v>45467.51041666666</v>
+      </c>
+      <c r="B1270" t="n">
+        <v>289.3999938964844</v>
+      </c>
+      <c r="C1270" t="n">
+        <v>289.7000122070312</v>
+      </c>
+      <c r="D1270" t="n">
+        <v>288.6000061035156</v>
+      </c>
+      <c r="E1270" t="n">
+        <v>289.25</v>
+      </c>
+      <c r="F1270" t="n">
+        <v>289.25</v>
+      </c>
+      <c r="G1270" t="n">
+        <v>34692</v>
+      </c>
+      <c r="H1270" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1270" t="n">
+        <v>6</v>
+      </c>
+      <c r="J1270" t="n">
+        <v>24</v>
+      </c>
+      <c r="K1270" t="n">
+        <v>12</v>
+      </c>
+      <c r="L1270" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1270" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1270" t="n">
+        <v>26</v>
+      </c>
+      <c r="O1270" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1270" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1270" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1270" t="inlineStr"/>
+    </row>
+    <row r="1271">
+      <c r="A1271" s="2" t="n">
+        <v>45467.55208333334</v>
+      </c>
+      <c r="B1271" t="n">
+        <v>289.3999938964844</v>
+      </c>
+      <c r="C1271" t="n">
+        <v>289.6499938964844</v>
+      </c>
+      <c r="D1271" t="n">
+        <v>288.6000061035156</v>
+      </c>
+      <c r="E1271" t="n">
+        <v>289.5499877929688</v>
+      </c>
+      <c r="F1271" t="n">
+        <v>289.5499877929688</v>
+      </c>
+      <c r="G1271" t="n">
+        <v>32823</v>
+      </c>
+      <c r="H1271" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1271" t="n">
+        <v>6</v>
+      </c>
+      <c r="J1271" t="n">
+        <v>24</v>
+      </c>
+      <c r="K1271" t="n">
+        <v>13</v>
+      </c>
+      <c r="L1271" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1271" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1271" t="n">
+        <v>26</v>
+      </c>
+      <c r="O1271" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1271" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1271" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1271" t="inlineStr"/>
+    </row>
+    <row r="1272">
+      <c r="A1272" s="2" t="n">
+        <v>45467.59375</v>
+      </c>
+      <c r="B1272" t="n">
+        <v>289.25</v>
+      </c>
+      <c r="C1272" t="n">
+        <v>289.75</v>
+      </c>
+      <c r="D1272" t="n">
+        <v>286.5</v>
+      </c>
+      <c r="E1272" t="n">
+        <v>286.8999938964844</v>
+      </c>
+      <c r="F1272" t="n">
+        <v>286.8999938964844</v>
+      </c>
+      <c r="G1272" t="n">
+        <v>114896</v>
+      </c>
+      <c r="H1272" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1272" t="n">
+        <v>6</v>
+      </c>
+      <c r="J1272" t="n">
+        <v>24</v>
+      </c>
+      <c r="K1272" t="n">
+        <v>14</v>
+      </c>
+      <c r="L1272" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1272" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1272" t="n">
+        <v>26</v>
+      </c>
+      <c r="O1272" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1272" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1272" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1272" t="inlineStr"/>
+    </row>
+    <row r="1273">
+      <c r="A1273" s="2" t="n">
+        <v>45467.63541666666</v>
+      </c>
+      <c r="B1273" t="n">
+        <v>286.8999938964844</v>
+      </c>
+      <c r="C1273" t="n">
+        <v>289</v>
+      </c>
+      <c r="D1273" t="n">
+        <v>286.4500122070312</v>
+      </c>
+      <c r="E1273" t="n">
+        <v>287.2999877929688</v>
+      </c>
+      <c r="F1273" t="n">
+        <v>287.2999877929688</v>
+      </c>
+      <c r="G1273" t="n">
+        <v>108018</v>
+      </c>
+      <c r="H1273" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1273" t="n">
+        <v>6</v>
+      </c>
+      <c r="J1273" t="n">
+        <v>24</v>
+      </c>
+      <c r="K1273" t="n">
+        <v>15</v>
+      </c>
+      <c r="L1273" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1273" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1273" t="n">
+        <v>26</v>
+      </c>
+      <c r="O1273" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1273" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1273" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1273" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/60m/ZAGGLE.NS.xlsx
+++ b/stock_historical_data/60m/ZAGGLE.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R1273"/>
+  <dimension ref="A1:R1287"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -70637,7 +70637,9 @@
       <c r="Q1253" t="n">
         <v>0</v>
       </c>
-      <c r="R1253" t="inlineStr"/>
+      <c r="R1253" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1254">
       <c r="A1254" s="2" t="n">
@@ -70691,7 +70693,9 @@
       <c r="Q1254" t="n">
         <v>0</v>
       </c>
-      <c r="R1254" t="inlineStr"/>
+      <c r="R1254" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1255">
       <c r="A1255" s="2" t="n">
@@ -70745,7 +70749,9 @@
       <c r="Q1255" t="n">
         <v>0</v>
       </c>
-      <c r="R1255" t="inlineStr"/>
+      <c r="R1255" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1256">
       <c r="A1256" s="2" t="n">
@@ -70799,7 +70805,9 @@
       <c r="Q1256" t="n">
         <v>0</v>
       </c>
-      <c r="R1256" t="inlineStr"/>
+      <c r="R1256" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1257">
       <c r="A1257" s="2" t="n">
@@ -70853,7 +70861,9 @@
       <c r="Q1257" t="n">
         <v>0</v>
       </c>
-      <c r="R1257" t="inlineStr"/>
+      <c r="R1257" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1258">
       <c r="A1258" s="2" t="n">
@@ -70907,7 +70917,9 @@
       <c r="Q1258" t="n">
         <v>0</v>
       </c>
-      <c r="R1258" t="inlineStr"/>
+      <c r="R1258" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1259">
       <c r="A1259" s="2" t="n">
@@ -70961,7 +70973,9 @@
       <c r="Q1259" t="n">
         <v>0</v>
       </c>
-      <c r="R1259" t="inlineStr"/>
+      <c r="R1259" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1260">
       <c r="A1260" s="2" t="n">
@@ -71015,7 +71029,9 @@
       <c r="Q1260" t="n">
         <v>0</v>
       </c>
-      <c r="R1260" t="inlineStr"/>
+      <c r="R1260" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1261">
       <c r="A1261" s="2" t="n">
@@ -71069,7 +71085,9 @@
       <c r="Q1261" t="n">
         <v>0</v>
       </c>
-      <c r="R1261" t="inlineStr"/>
+      <c r="R1261" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1262">
       <c r="A1262" s="2" t="n">
@@ -71123,7 +71141,9 @@
       <c r="Q1262" t="n">
         <v>0</v>
       </c>
-      <c r="R1262" t="inlineStr"/>
+      <c r="R1262" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1263">
       <c r="A1263" s="2" t="n">
@@ -71177,7 +71197,9 @@
       <c r="Q1263" t="n">
         <v>0</v>
       </c>
-      <c r="R1263" t="inlineStr"/>
+      <c r="R1263" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1264">
       <c r="A1264" s="2" t="n">
@@ -71231,7 +71253,9 @@
       <c r="Q1264" t="n">
         <v>0</v>
       </c>
-      <c r="R1264" t="inlineStr"/>
+      <c r="R1264" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1265">
       <c r="A1265" s="2" t="n">
@@ -71285,7 +71309,9 @@
       <c r="Q1265" t="n">
         <v>0</v>
       </c>
-      <c r="R1265" t="inlineStr"/>
+      <c r="R1265" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1266">
       <c r="A1266" s="2" t="n">
@@ -71339,7 +71365,9 @@
       <c r="Q1266" t="n">
         <v>0</v>
       </c>
-      <c r="R1266" t="inlineStr"/>
+      <c r="R1266" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1267">
       <c r="A1267" s="2" t="n">
@@ -71393,7 +71421,9 @@
       <c r="Q1267" t="n">
         <v>0</v>
       </c>
-      <c r="R1267" t="inlineStr"/>
+      <c r="R1267" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1268">
       <c r="A1268" s="2" t="n">
@@ -71447,7 +71477,9 @@
       <c r="Q1268" t="n">
         <v>0</v>
       </c>
-      <c r="R1268" t="inlineStr"/>
+      <c r="R1268" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1269">
       <c r="A1269" s="2" t="n">
@@ -71501,7 +71533,9 @@
       <c r="Q1269" t="n">
         <v>0</v>
       </c>
-      <c r="R1269" t="inlineStr"/>
+      <c r="R1269" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1270">
       <c r="A1270" s="2" t="n">
@@ -71555,7 +71589,9 @@
       <c r="Q1270" t="n">
         <v>0</v>
       </c>
-      <c r="R1270" t="inlineStr"/>
+      <c r="R1270" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1271">
       <c r="A1271" s="2" t="n">
@@ -71609,7 +71645,9 @@
       <c r="Q1271" t="n">
         <v>0</v>
       </c>
-      <c r="R1271" t="inlineStr"/>
+      <c r="R1271" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1272">
       <c r="A1272" s="2" t="n">
@@ -71663,7 +71701,9 @@
       <c r="Q1272" t="n">
         <v>0</v>
       </c>
-      <c r="R1272" t="inlineStr"/>
+      <c r="R1272" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1273">
       <c r="A1273" s="2" t="n">
@@ -71717,7 +71757,765 @@
       <c r="Q1273" t="n">
         <v>0</v>
       </c>
-      <c r="R1273" t="inlineStr"/>
+      <c r="R1273" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1274">
+      <c r="A1274" s="2" t="n">
+        <v>45468.38541666666</v>
+      </c>
+      <c r="B1274" t="n">
+        <v>288.1499938964844</v>
+      </c>
+      <c r="C1274" t="n">
+        <v>290.75</v>
+      </c>
+      <c r="D1274" t="n">
+        <v>287.2000122070312</v>
+      </c>
+      <c r="E1274" t="n">
+        <v>287.7999877929688</v>
+      </c>
+      <c r="F1274" t="n">
+        <v>287.7999877929688</v>
+      </c>
+      <c r="G1274" t="n">
+        <v>141377</v>
+      </c>
+      <c r="H1274" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1274" t="n">
+        <v>6</v>
+      </c>
+      <c r="J1274" t="n">
+        <v>25</v>
+      </c>
+      <c r="K1274" t="n">
+        <v>9</v>
+      </c>
+      <c r="L1274" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1274" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1274" t="n">
+        <v>26</v>
+      </c>
+      <c r="O1274" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1274" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1274" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1274" t="inlineStr"/>
+    </row>
+    <row r="1275">
+      <c r="A1275" s="2" t="n">
+        <v>45468.42708333334</v>
+      </c>
+      <c r="B1275" t="n">
+        <v>287.7999877929688</v>
+      </c>
+      <c r="C1275" t="n">
+        <v>288.7000122070312</v>
+      </c>
+      <c r="D1275" t="n">
+        <v>286</v>
+      </c>
+      <c r="E1275" t="n">
+        <v>286.5</v>
+      </c>
+      <c r="F1275" t="n">
+        <v>286.5</v>
+      </c>
+      <c r="G1275" t="n">
+        <v>84010</v>
+      </c>
+      <c r="H1275" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1275" t="n">
+        <v>6</v>
+      </c>
+      <c r="J1275" t="n">
+        <v>25</v>
+      </c>
+      <c r="K1275" t="n">
+        <v>10</v>
+      </c>
+      <c r="L1275" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1275" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1275" t="n">
+        <v>26</v>
+      </c>
+      <c r="O1275" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1275" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1275" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1275" t="inlineStr"/>
+    </row>
+    <row r="1276">
+      <c r="A1276" s="2" t="n">
+        <v>45468.46875</v>
+      </c>
+      <c r="B1276" t="n">
+        <v>286.3500061035156</v>
+      </c>
+      <c r="C1276" t="n">
+        <v>286.5</v>
+      </c>
+      <c r="D1276" t="n">
+        <v>284</v>
+      </c>
+      <c r="E1276" t="n">
+        <v>284.2999877929688</v>
+      </c>
+      <c r="F1276" t="n">
+        <v>284.2999877929688</v>
+      </c>
+      <c r="G1276" t="n">
+        <v>100268</v>
+      </c>
+      <c r="H1276" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1276" t="n">
+        <v>6</v>
+      </c>
+      <c r="J1276" t="n">
+        <v>25</v>
+      </c>
+      <c r="K1276" t="n">
+        <v>11</v>
+      </c>
+      <c r="L1276" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1276" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1276" t="n">
+        <v>26</v>
+      </c>
+      <c r="O1276" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1276" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1276" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1276" t="inlineStr"/>
+    </row>
+    <row r="1277">
+      <c r="A1277" s="2" t="n">
+        <v>45468.51041666666</v>
+      </c>
+      <c r="B1277" t="n">
+        <v>284.2999877929688</v>
+      </c>
+      <c r="C1277" t="n">
+        <v>285.5</v>
+      </c>
+      <c r="D1277" t="n">
+        <v>283.5499877929688</v>
+      </c>
+      <c r="E1277" t="n">
+        <v>284.5</v>
+      </c>
+      <c r="F1277" t="n">
+        <v>284.5</v>
+      </c>
+      <c r="G1277" t="n">
+        <v>64549</v>
+      </c>
+      <c r="H1277" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1277" t="n">
+        <v>6</v>
+      </c>
+      <c r="J1277" t="n">
+        <v>25</v>
+      </c>
+      <c r="K1277" t="n">
+        <v>12</v>
+      </c>
+      <c r="L1277" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1277" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1277" t="n">
+        <v>26</v>
+      </c>
+      <c r="O1277" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1277" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1277" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1277" t="inlineStr"/>
+    </row>
+    <row r="1278">
+      <c r="A1278" s="2" t="n">
+        <v>45468.55208333334</v>
+      </c>
+      <c r="B1278" t="n">
+        <v>284</v>
+      </c>
+      <c r="C1278" t="n">
+        <v>286.0499877929688</v>
+      </c>
+      <c r="D1278" t="n">
+        <v>284</v>
+      </c>
+      <c r="E1278" t="n">
+        <v>285.0499877929688</v>
+      </c>
+      <c r="F1278" t="n">
+        <v>285.0499877929688</v>
+      </c>
+      <c r="G1278" t="n">
+        <v>129506</v>
+      </c>
+      <c r="H1278" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1278" t="n">
+        <v>6</v>
+      </c>
+      <c r="J1278" t="n">
+        <v>25</v>
+      </c>
+      <c r="K1278" t="n">
+        <v>13</v>
+      </c>
+      <c r="L1278" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1278" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1278" t="n">
+        <v>26</v>
+      </c>
+      <c r="O1278" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1278" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1278" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1278" t="inlineStr"/>
+    </row>
+    <row r="1279">
+      <c r="A1279" s="2" t="n">
+        <v>45468.59375</v>
+      </c>
+      <c r="B1279" t="n">
+        <v>285</v>
+      </c>
+      <c r="C1279" t="n">
+        <v>285.5499877929688</v>
+      </c>
+      <c r="D1279" t="n">
+        <v>281.7000122070312</v>
+      </c>
+      <c r="E1279" t="n">
+        <v>284.5</v>
+      </c>
+      <c r="F1279" t="n">
+        <v>284.5</v>
+      </c>
+      <c r="G1279" t="n">
+        <v>224631</v>
+      </c>
+      <c r="H1279" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1279" t="n">
+        <v>6</v>
+      </c>
+      <c r="J1279" t="n">
+        <v>25</v>
+      </c>
+      <c r="K1279" t="n">
+        <v>14</v>
+      </c>
+      <c r="L1279" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1279" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1279" t="n">
+        <v>26</v>
+      </c>
+      <c r="O1279" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1279" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1279" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1279" t="inlineStr"/>
+    </row>
+    <row r="1280">
+      <c r="A1280" s="2" t="n">
+        <v>45468.63541666666</v>
+      </c>
+      <c r="B1280" t="n">
+        <v>284.1000061035156</v>
+      </c>
+      <c r="C1280" t="n">
+        <v>284.2999877929688</v>
+      </c>
+      <c r="D1280" t="n">
+        <v>282.75</v>
+      </c>
+      <c r="E1280" t="n">
+        <v>283.7000122070312</v>
+      </c>
+      <c r="F1280" t="n">
+        <v>283.7000122070312</v>
+      </c>
+      <c r="G1280" t="n">
+        <v>58549</v>
+      </c>
+      <c r="H1280" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1280" t="n">
+        <v>6</v>
+      </c>
+      <c r="J1280" t="n">
+        <v>25</v>
+      </c>
+      <c r="K1280" t="n">
+        <v>15</v>
+      </c>
+      <c r="L1280" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1280" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1280" t="n">
+        <v>26</v>
+      </c>
+      <c r="O1280" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1280" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1280" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1280" t="inlineStr"/>
+    </row>
+    <row r="1281">
+      <c r="A1281" s="2" t="n">
+        <v>45469.38541666666</v>
+      </c>
+      <c r="B1281" t="n">
+        <v>283.5499877929688</v>
+      </c>
+      <c r="C1281" t="n">
+        <v>287.6000061035156</v>
+      </c>
+      <c r="D1281" t="n">
+        <v>282.2000122070312</v>
+      </c>
+      <c r="E1281" t="n">
+        <v>285.5</v>
+      </c>
+      <c r="F1281" t="n">
+        <v>285.5</v>
+      </c>
+      <c r="G1281" t="n">
+        <v>0</v>
+      </c>
+      <c r="H1281" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1281" t="n">
+        <v>6</v>
+      </c>
+      <c r="J1281" t="n">
+        <v>26</v>
+      </c>
+      <c r="K1281" t="n">
+        <v>9</v>
+      </c>
+      <c r="L1281" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1281" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1281" t="n">
+        <v>26</v>
+      </c>
+      <c r="O1281" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1281" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1281" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1281" t="inlineStr"/>
+    </row>
+    <row r="1282">
+      <c r="A1282" s="2" t="n">
+        <v>45469.42708333334</v>
+      </c>
+      <c r="B1282" t="n">
+        <v>285.8999938964844</v>
+      </c>
+      <c r="C1282" t="n">
+        <v>289.2999877929688</v>
+      </c>
+      <c r="D1282" t="n">
+        <v>285.8999938964844</v>
+      </c>
+      <c r="E1282" t="n">
+        <v>288.5</v>
+      </c>
+      <c r="F1282" t="n">
+        <v>288.5</v>
+      </c>
+      <c r="G1282" t="n">
+        <v>131181</v>
+      </c>
+      <c r="H1282" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1282" t="n">
+        <v>6</v>
+      </c>
+      <c r="J1282" t="n">
+        <v>26</v>
+      </c>
+      <c r="K1282" t="n">
+        <v>10</v>
+      </c>
+      <c r="L1282" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1282" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1282" t="n">
+        <v>26</v>
+      </c>
+      <c r="O1282" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1282" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1282" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1282" t="inlineStr"/>
+    </row>
+    <row r="1283">
+      <c r="A1283" s="2" t="n">
+        <v>45469.46875</v>
+      </c>
+      <c r="B1283" t="n">
+        <v>288.3500061035156</v>
+      </c>
+      <c r="C1283" t="n">
+        <v>288.6000061035156</v>
+      </c>
+      <c r="D1283" t="n">
+        <v>286.0499877929688</v>
+      </c>
+      <c r="E1283" t="n">
+        <v>286.6499938964844</v>
+      </c>
+      <c r="F1283" t="n">
+        <v>286.6499938964844</v>
+      </c>
+      <c r="G1283" t="n">
+        <v>71444</v>
+      </c>
+      <c r="H1283" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1283" t="n">
+        <v>6</v>
+      </c>
+      <c r="J1283" t="n">
+        <v>26</v>
+      </c>
+      <c r="K1283" t="n">
+        <v>11</v>
+      </c>
+      <c r="L1283" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1283" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1283" t="n">
+        <v>26</v>
+      </c>
+      <c r="O1283" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1283" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1283" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1283" t="inlineStr"/>
+    </row>
+    <row r="1284">
+      <c r="A1284" s="2" t="n">
+        <v>45469.51041666666</v>
+      </c>
+      <c r="B1284" t="n">
+        <v>286.6499938964844</v>
+      </c>
+      <c r="C1284" t="n">
+        <v>286.7999877929688</v>
+      </c>
+      <c r="D1284" t="n">
+        <v>283.8999938964844</v>
+      </c>
+      <c r="E1284" t="n">
+        <v>284.1499938964844</v>
+      </c>
+      <c r="F1284" t="n">
+        <v>284.1499938964844</v>
+      </c>
+      <c r="G1284" t="n">
+        <v>49788</v>
+      </c>
+      <c r="H1284" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1284" t="n">
+        <v>6</v>
+      </c>
+      <c r="J1284" t="n">
+        <v>26</v>
+      </c>
+      <c r="K1284" t="n">
+        <v>12</v>
+      </c>
+      <c r="L1284" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1284" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1284" t="n">
+        <v>26</v>
+      </c>
+      <c r="O1284" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1284" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1284" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1284" t="inlineStr"/>
+    </row>
+    <row r="1285">
+      <c r="A1285" s="2" t="n">
+        <v>45469.55208333334</v>
+      </c>
+      <c r="B1285" t="n">
+        <v>284.1000061035156</v>
+      </c>
+      <c r="C1285" t="n">
+        <v>284.3500061035156</v>
+      </c>
+      <c r="D1285" t="n">
+        <v>282.0499877929688</v>
+      </c>
+      <c r="E1285" t="n">
+        <v>282.9500122070312</v>
+      </c>
+      <c r="F1285" t="n">
+        <v>282.9500122070312</v>
+      </c>
+      <c r="G1285" t="n">
+        <v>146291</v>
+      </c>
+      <c r="H1285" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1285" t="n">
+        <v>6</v>
+      </c>
+      <c r="J1285" t="n">
+        <v>26</v>
+      </c>
+      <c r="K1285" t="n">
+        <v>13</v>
+      </c>
+      <c r="L1285" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1285" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1285" t="n">
+        <v>26</v>
+      </c>
+      <c r="O1285" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1285" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1285" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1285" t="inlineStr"/>
+    </row>
+    <row r="1286">
+      <c r="A1286" s="2" t="n">
+        <v>45469.59375</v>
+      </c>
+      <c r="B1286" t="n">
+        <v>282.9500122070312</v>
+      </c>
+      <c r="C1286" t="n">
+        <v>283.2000122070312</v>
+      </c>
+      <c r="D1286" t="n">
+        <v>281.3500061035156</v>
+      </c>
+      <c r="E1286" t="n">
+        <v>282.5</v>
+      </c>
+      <c r="F1286" t="n">
+        <v>282.5</v>
+      </c>
+      <c r="G1286" t="n">
+        <v>107664</v>
+      </c>
+      <c r="H1286" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1286" t="n">
+        <v>6</v>
+      </c>
+      <c r="J1286" t="n">
+        <v>26</v>
+      </c>
+      <c r="K1286" t="n">
+        <v>14</v>
+      </c>
+      <c r="L1286" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1286" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1286" t="n">
+        <v>26</v>
+      </c>
+      <c r="O1286" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1286" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1286" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1286" t="inlineStr"/>
+    </row>
+    <row r="1287">
+      <c r="A1287" s="2" t="n">
+        <v>45469.63541666666</v>
+      </c>
+      <c r="B1287" t="n">
+        <v>282.4500122070312</v>
+      </c>
+      <c r="C1287" t="n">
+        <v>282.75</v>
+      </c>
+      <c r="D1287" t="n">
+        <v>281</v>
+      </c>
+      <c r="E1287" t="n">
+        <v>282</v>
+      </c>
+      <c r="F1287" t="n">
+        <v>282</v>
+      </c>
+      <c r="G1287" t="n">
+        <v>61173</v>
+      </c>
+      <c r="H1287" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1287" t="n">
+        <v>6</v>
+      </c>
+      <c r="J1287" t="n">
+        <v>26</v>
+      </c>
+      <c r="K1287" t="n">
+        <v>15</v>
+      </c>
+      <c r="L1287" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1287" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1287" t="n">
+        <v>26</v>
+      </c>
+      <c r="O1287" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1287" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1287" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1287" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/60m/ZAGGLE.NS.xlsx
+++ b/stock_historical_data/60m/ZAGGLE.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R1287"/>
+  <dimension ref="A1:R1294"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -71813,7 +71813,9 @@
       <c r="Q1274" t="n">
         <v>0</v>
       </c>
-      <c r="R1274" t="inlineStr"/>
+      <c r="R1274" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1275">
       <c r="A1275" s="2" t="n">
@@ -71867,7 +71869,9 @@
       <c r="Q1275" t="n">
         <v>0</v>
       </c>
-      <c r="R1275" t="inlineStr"/>
+      <c r="R1275" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1276">
       <c r="A1276" s="2" t="n">
@@ -71921,7 +71925,9 @@
       <c r="Q1276" t="n">
         <v>0</v>
       </c>
-      <c r="R1276" t="inlineStr"/>
+      <c r="R1276" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1277">
       <c r="A1277" s="2" t="n">
@@ -71975,7 +71981,9 @@
       <c r="Q1277" t="n">
         <v>0</v>
       </c>
-      <c r="R1277" t="inlineStr"/>
+      <c r="R1277" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1278">
       <c r="A1278" s="2" t="n">
@@ -72029,7 +72037,9 @@
       <c r="Q1278" t="n">
         <v>0</v>
       </c>
-      <c r="R1278" t="inlineStr"/>
+      <c r="R1278" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1279">
       <c r="A1279" s="2" t="n">
@@ -72083,7 +72093,9 @@
       <c r="Q1279" t="n">
         <v>0</v>
       </c>
-      <c r="R1279" t="inlineStr"/>
+      <c r="R1279" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1280">
       <c r="A1280" s="2" t="n">
@@ -72137,7 +72149,9 @@
       <c r="Q1280" t="n">
         <v>0</v>
       </c>
-      <c r="R1280" t="inlineStr"/>
+      <c r="R1280" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1281">
       <c r="A1281" s="2" t="n">
@@ -72191,7 +72205,9 @@
       <c r="Q1281" t="n">
         <v>0</v>
       </c>
-      <c r="R1281" t="inlineStr"/>
+      <c r="R1281" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1282">
       <c r="A1282" s="2" t="n">
@@ -72245,7 +72261,9 @@
       <c r="Q1282" t="n">
         <v>0</v>
       </c>
-      <c r="R1282" t="inlineStr"/>
+      <c r="R1282" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1283">
       <c r="A1283" s="2" t="n">
@@ -72299,7 +72317,9 @@
       <c r="Q1283" t="n">
         <v>0</v>
       </c>
-      <c r="R1283" t="inlineStr"/>
+      <c r="R1283" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1284">
       <c r="A1284" s="2" t="n">
@@ -72353,7 +72373,9 @@
       <c r="Q1284" t="n">
         <v>0</v>
       </c>
-      <c r="R1284" t="inlineStr"/>
+      <c r="R1284" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1285">
       <c r="A1285" s="2" t="n">
@@ -72407,7 +72429,9 @@
       <c r="Q1285" t="n">
         <v>0</v>
       </c>
-      <c r="R1285" t="inlineStr"/>
+      <c r="R1285" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1286">
       <c r="A1286" s="2" t="n">
@@ -72461,7 +72485,9 @@
       <c r="Q1286" t="n">
         <v>0</v>
       </c>
-      <c r="R1286" t="inlineStr"/>
+      <c r="R1286" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1287">
       <c r="A1287" s="2" t="n">
@@ -72515,7 +72541,387 @@
       <c r="Q1287" t="n">
         <v>0</v>
       </c>
-      <c r="R1287" t="inlineStr"/>
+      <c r="R1287" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1288">
+      <c r="A1288" s="2" t="n">
+        <v>45470.38541666666</v>
+      </c>
+      <c r="B1288" t="n">
+        <v>282.6499938964844</v>
+      </c>
+      <c r="C1288" t="n">
+        <v>284.75</v>
+      </c>
+      <c r="D1288" t="n">
+        <v>282</v>
+      </c>
+      <c r="E1288" t="n">
+        <v>283.7999877929688</v>
+      </c>
+      <c r="F1288" t="n">
+        <v>283.7999877929688</v>
+      </c>
+      <c r="G1288" t="n">
+        <v>0</v>
+      </c>
+      <c r="H1288" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1288" t="n">
+        <v>6</v>
+      </c>
+      <c r="J1288" t="n">
+        <v>27</v>
+      </c>
+      <c r="K1288" t="n">
+        <v>9</v>
+      </c>
+      <c r="L1288" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1288" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1288" t="n">
+        <v>26</v>
+      </c>
+      <c r="O1288" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1288" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1288" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1288" t="inlineStr"/>
+    </row>
+    <row r="1289">
+      <c r="A1289" s="2" t="n">
+        <v>45470.42708333334</v>
+      </c>
+      <c r="B1289" t="n">
+        <v>283.9500122070312</v>
+      </c>
+      <c r="C1289" t="n">
+        <v>284.1499938964844</v>
+      </c>
+      <c r="D1289" t="n">
+        <v>281.1000061035156</v>
+      </c>
+      <c r="E1289" t="n">
+        <v>282.6000061035156</v>
+      </c>
+      <c r="F1289" t="n">
+        <v>282.6000061035156</v>
+      </c>
+      <c r="G1289" t="n">
+        <v>71957</v>
+      </c>
+      <c r="H1289" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1289" t="n">
+        <v>6</v>
+      </c>
+      <c r="J1289" t="n">
+        <v>27</v>
+      </c>
+      <c r="K1289" t="n">
+        <v>10</v>
+      </c>
+      <c r="L1289" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1289" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1289" t="n">
+        <v>26</v>
+      </c>
+      <c r="O1289" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1289" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1289" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1289" t="inlineStr"/>
+    </row>
+    <row r="1290">
+      <c r="A1290" s="2" t="n">
+        <v>45470.46875</v>
+      </c>
+      <c r="B1290" t="n">
+        <v>282.6000061035156</v>
+      </c>
+      <c r="C1290" t="n">
+        <v>284.3999938964844</v>
+      </c>
+      <c r="D1290" t="n">
+        <v>282.0499877929688</v>
+      </c>
+      <c r="E1290" t="n">
+        <v>283.5</v>
+      </c>
+      <c r="F1290" t="n">
+        <v>283.5</v>
+      </c>
+      <c r="G1290" t="n">
+        <v>85407</v>
+      </c>
+      <c r="H1290" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1290" t="n">
+        <v>6</v>
+      </c>
+      <c r="J1290" t="n">
+        <v>27</v>
+      </c>
+      <c r="K1290" t="n">
+        <v>11</v>
+      </c>
+      <c r="L1290" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1290" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1290" t="n">
+        <v>26</v>
+      </c>
+      <c r="O1290" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1290" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1290" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1290" t="inlineStr"/>
+    </row>
+    <row r="1291">
+      <c r="A1291" s="2" t="n">
+        <v>45470.51041666666</v>
+      </c>
+      <c r="B1291" t="n">
+        <v>283.6499938964844</v>
+      </c>
+      <c r="C1291" t="n">
+        <v>283.6499938964844</v>
+      </c>
+      <c r="D1291" t="n">
+        <v>281.2999877929688</v>
+      </c>
+      <c r="E1291" t="n">
+        <v>281.6000061035156</v>
+      </c>
+      <c r="F1291" t="n">
+        <v>281.6000061035156</v>
+      </c>
+      <c r="G1291" t="n">
+        <v>51629</v>
+      </c>
+      <c r="H1291" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1291" t="n">
+        <v>6</v>
+      </c>
+      <c r="J1291" t="n">
+        <v>27</v>
+      </c>
+      <c r="K1291" t="n">
+        <v>12</v>
+      </c>
+      <c r="L1291" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1291" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1291" t="n">
+        <v>26</v>
+      </c>
+      <c r="O1291" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1291" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1291" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1291" t="inlineStr"/>
+    </row>
+    <row r="1292">
+      <c r="A1292" s="2" t="n">
+        <v>45470.55208333334</v>
+      </c>
+      <c r="B1292" t="n">
+        <v>281.5</v>
+      </c>
+      <c r="C1292" t="n">
+        <v>281.8999938964844</v>
+      </c>
+      <c r="D1292" t="n">
+        <v>278.1000061035156</v>
+      </c>
+      <c r="E1292" t="n">
+        <v>278.7999877929688</v>
+      </c>
+      <c r="F1292" t="n">
+        <v>278.7999877929688</v>
+      </c>
+      <c r="G1292" t="n">
+        <v>81787</v>
+      </c>
+      <c r="H1292" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1292" t="n">
+        <v>6</v>
+      </c>
+      <c r="J1292" t="n">
+        <v>27</v>
+      </c>
+      <c r="K1292" t="n">
+        <v>13</v>
+      </c>
+      <c r="L1292" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1292" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1292" t="n">
+        <v>26</v>
+      </c>
+      <c r="O1292" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1292" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1292" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1292" t="inlineStr"/>
+    </row>
+    <row r="1293">
+      <c r="A1293" s="2" t="n">
+        <v>45470.59375</v>
+      </c>
+      <c r="B1293" t="n">
+        <v>278.7999877929688</v>
+      </c>
+      <c r="C1293" t="n">
+        <v>282.7000122070312</v>
+      </c>
+      <c r="D1293" t="n">
+        <v>278</v>
+      </c>
+      <c r="E1293" t="n">
+        <v>282.7000122070312</v>
+      </c>
+      <c r="F1293" t="n">
+        <v>282.7000122070312</v>
+      </c>
+      <c r="G1293" t="n">
+        <v>131134</v>
+      </c>
+      <c r="H1293" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1293" t="n">
+        <v>6</v>
+      </c>
+      <c r="J1293" t="n">
+        <v>27</v>
+      </c>
+      <c r="K1293" t="n">
+        <v>14</v>
+      </c>
+      <c r="L1293" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1293" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1293" t="n">
+        <v>26</v>
+      </c>
+      <c r="O1293" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1293" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1293" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1293" t="inlineStr"/>
+    </row>
+    <row r="1294">
+      <c r="A1294" s="2" t="n">
+        <v>45470.63541666666</v>
+      </c>
+      <c r="B1294" t="n">
+        <v>282.5</v>
+      </c>
+      <c r="C1294" t="n">
+        <v>282.5</v>
+      </c>
+      <c r="D1294" t="n">
+        <v>279.3500061035156</v>
+      </c>
+      <c r="E1294" t="n">
+        <v>281</v>
+      </c>
+      <c r="F1294" t="n">
+        <v>281</v>
+      </c>
+      <c r="G1294" t="n">
+        <v>67853</v>
+      </c>
+      <c r="H1294" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1294" t="n">
+        <v>6</v>
+      </c>
+      <c r="J1294" t="n">
+        <v>27</v>
+      </c>
+      <c r="K1294" t="n">
+        <v>15</v>
+      </c>
+      <c r="L1294" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1294" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1294" t="n">
+        <v>26</v>
+      </c>
+      <c r="O1294" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1294" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1294" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1294" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/60m/ZAGGLE.NS.xlsx
+++ b/stock_historical_data/60m/ZAGGLE.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R1294"/>
+  <dimension ref="A1:R1301"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -72597,7 +72597,9 @@
       <c r="Q1288" t="n">
         <v>0</v>
       </c>
-      <c r="R1288" t="inlineStr"/>
+      <c r="R1288" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1289">
       <c r="A1289" s="2" t="n">
@@ -72651,7 +72653,9 @@
       <c r="Q1289" t="n">
         <v>0</v>
       </c>
-      <c r="R1289" t="inlineStr"/>
+      <c r="R1289" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1290">
       <c r="A1290" s="2" t="n">
@@ -72705,7 +72709,9 @@
       <c r="Q1290" t="n">
         <v>0</v>
       </c>
-      <c r="R1290" t="inlineStr"/>
+      <c r="R1290" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1291">
       <c r="A1291" s="2" t="n">
@@ -72759,7 +72765,9 @@
       <c r="Q1291" t="n">
         <v>0</v>
       </c>
-      <c r="R1291" t="inlineStr"/>
+      <c r="R1291" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1292">
       <c r="A1292" s="2" t="n">
@@ -72813,7 +72821,9 @@
       <c r="Q1292" t="n">
         <v>0</v>
       </c>
-      <c r="R1292" t="inlineStr"/>
+      <c r="R1292" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1293">
       <c r="A1293" s="2" t="n">
@@ -72867,7 +72877,9 @@
       <c r="Q1293" t="n">
         <v>0</v>
       </c>
-      <c r="R1293" t="inlineStr"/>
+      <c r="R1293" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1294">
       <c r="A1294" s="2" t="n">
@@ -72921,7 +72933,387 @@
       <c r="Q1294" t="n">
         <v>0</v>
       </c>
-      <c r="R1294" t="inlineStr"/>
+      <c r="R1294" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1295">
+      <c r="A1295" s="2" t="n">
+        <v>45471.38541666666</v>
+      </c>
+      <c r="B1295" t="n">
+        <v>281.8500061035156</v>
+      </c>
+      <c r="C1295" t="n">
+        <v>285.4500122070312</v>
+      </c>
+      <c r="D1295" t="n">
+        <v>280.6499938964844</v>
+      </c>
+      <c r="E1295" t="n">
+        <v>281.6499938964844</v>
+      </c>
+      <c r="F1295" t="n">
+        <v>281.6499938964844</v>
+      </c>
+      <c r="G1295" t="n">
+        <v>0</v>
+      </c>
+      <c r="H1295" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1295" t="n">
+        <v>6</v>
+      </c>
+      <c r="J1295" t="n">
+        <v>28</v>
+      </c>
+      <c r="K1295" t="n">
+        <v>9</v>
+      </c>
+      <c r="L1295" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1295" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1295" t="n">
+        <v>26</v>
+      </c>
+      <c r="O1295" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1295" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1295" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1295" t="inlineStr"/>
+    </row>
+    <row r="1296">
+      <c r="A1296" s="2" t="n">
+        <v>45471.42708333334</v>
+      </c>
+      <c r="B1296" t="n">
+        <v>281.3999938964844</v>
+      </c>
+      <c r="C1296" t="n">
+        <v>284</v>
+      </c>
+      <c r="D1296" t="n">
+        <v>280</v>
+      </c>
+      <c r="E1296" t="n">
+        <v>283.5</v>
+      </c>
+      <c r="F1296" t="n">
+        <v>283.5</v>
+      </c>
+      <c r="G1296" t="n">
+        <v>83995</v>
+      </c>
+      <c r="H1296" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1296" t="n">
+        <v>6</v>
+      </c>
+      <c r="J1296" t="n">
+        <v>28</v>
+      </c>
+      <c r="K1296" t="n">
+        <v>10</v>
+      </c>
+      <c r="L1296" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1296" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1296" t="n">
+        <v>26</v>
+      </c>
+      <c r="O1296" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1296" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1296" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1296" t="inlineStr"/>
+    </row>
+    <row r="1297">
+      <c r="A1297" s="2" t="n">
+        <v>45471.46875</v>
+      </c>
+      <c r="B1297" t="n">
+        <v>283.7000122070312</v>
+      </c>
+      <c r="C1297" t="n">
+        <v>283.9500122070312</v>
+      </c>
+      <c r="D1297" t="n">
+        <v>281.5499877929688</v>
+      </c>
+      <c r="E1297" t="n">
+        <v>281.5499877929688</v>
+      </c>
+      <c r="F1297" t="n">
+        <v>281.5499877929688</v>
+      </c>
+      <c r="G1297" t="n">
+        <v>50573</v>
+      </c>
+      <c r="H1297" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1297" t="n">
+        <v>6</v>
+      </c>
+      <c r="J1297" t="n">
+        <v>28</v>
+      </c>
+      <c r="K1297" t="n">
+        <v>11</v>
+      </c>
+      <c r="L1297" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1297" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1297" t="n">
+        <v>26</v>
+      </c>
+      <c r="O1297" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1297" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1297" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1297" t="inlineStr"/>
+    </row>
+    <row r="1298">
+      <c r="A1298" s="2" t="n">
+        <v>45471.51041666666</v>
+      </c>
+      <c r="B1298" t="n">
+        <v>281.8500061035156</v>
+      </c>
+      <c r="C1298" t="n">
+        <v>282.2999877929688</v>
+      </c>
+      <c r="D1298" t="n">
+        <v>280.3500061035156</v>
+      </c>
+      <c r="E1298" t="n">
+        <v>281.7000122070312</v>
+      </c>
+      <c r="F1298" t="n">
+        <v>281.7000122070312</v>
+      </c>
+      <c r="G1298" t="n">
+        <v>40891</v>
+      </c>
+      <c r="H1298" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1298" t="n">
+        <v>6</v>
+      </c>
+      <c r="J1298" t="n">
+        <v>28</v>
+      </c>
+      <c r="K1298" t="n">
+        <v>12</v>
+      </c>
+      <c r="L1298" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1298" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1298" t="n">
+        <v>26</v>
+      </c>
+      <c r="O1298" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1298" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1298" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1298" t="inlineStr"/>
+    </row>
+    <row r="1299">
+      <c r="A1299" s="2" t="n">
+        <v>45471.55208333334</v>
+      </c>
+      <c r="B1299" t="n">
+        <v>281.8999938964844</v>
+      </c>
+      <c r="C1299" t="n">
+        <v>282.7999877929688</v>
+      </c>
+      <c r="D1299" t="n">
+        <v>281.5</v>
+      </c>
+      <c r="E1299" t="n">
+        <v>282.5</v>
+      </c>
+      <c r="F1299" t="n">
+        <v>282.5</v>
+      </c>
+      <c r="G1299" t="n">
+        <v>16009</v>
+      </c>
+      <c r="H1299" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1299" t="n">
+        <v>6</v>
+      </c>
+      <c r="J1299" t="n">
+        <v>28</v>
+      </c>
+      <c r="K1299" t="n">
+        <v>13</v>
+      </c>
+      <c r="L1299" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1299" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1299" t="n">
+        <v>26</v>
+      </c>
+      <c r="O1299" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1299" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1299" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1299" t="inlineStr"/>
+    </row>
+    <row r="1300">
+      <c r="A1300" s="2" t="n">
+        <v>45471.59375</v>
+      </c>
+      <c r="B1300" t="n">
+        <v>282.1000061035156</v>
+      </c>
+      <c r="C1300" t="n">
+        <v>283.6499938964844</v>
+      </c>
+      <c r="D1300" t="n">
+        <v>282.0499877929688</v>
+      </c>
+      <c r="E1300" t="n">
+        <v>283.0499877929688</v>
+      </c>
+      <c r="F1300" t="n">
+        <v>283.0499877929688</v>
+      </c>
+      <c r="G1300" t="n">
+        <v>66434</v>
+      </c>
+      <c r="H1300" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1300" t="n">
+        <v>6</v>
+      </c>
+      <c r="J1300" t="n">
+        <v>28</v>
+      </c>
+      <c r="K1300" t="n">
+        <v>14</v>
+      </c>
+      <c r="L1300" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1300" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1300" t="n">
+        <v>26</v>
+      </c>
+      <c r="O1300" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1300" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1300" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1300" t="inlineStr"/>
+    </row>
+    <row r="1301">
+      <c r="A1301" s="2" t="n">
+        <v>45471.63541666666</v>
+      </c>
+      <c r="B1301" t="n">
+        <v>283.2000122070312</v>
+      </c>
+      <c r="C1301" t="n">
+        <v>283.9500122070312</v>
+      </c>
+      <c r="D1301" t="n">
+        <v>283.0499877929688</v>
+      </c>
+      <c r="E1301" t="n">
+        <v>283.1499938964844</v>
+      </c>
+      <c r="F1301" t="n">
+        <v>283.1499938964844</v>
+      </c>
+      <c r="G1301" t="n">
+        <v>32745</v>
+      </c>
+      <c r="H1301" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1301" t="n">
+        <v>6</v>
+      </c>
+      <c r="J1301" t="n">
+        <v>28</v>
+      </c>
+      <c r="K1301" t="n">
+        <v>15</v>
+      </c>
+      <c r="L1301" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1301" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1301" t="n">
+        <v>26</v>
+      </c>
+      <c r="O1301" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1301" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1301" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1301" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/60m/ZAGGLE.NS.xlsx
+++ b/stock_historical_data/60m/ZAGGLE.NS.xlsx
@@ -72989,7 +72989,9 @@
       <c r="Q1295" t="n">
         <v>0</v>
       </c>
-      <c r="R1295" t="inlineStr"/>
+      <c r="R1295" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1296">
       <c r="A1296" s="2" t="n">
@@ -73043,7 +73045,9 @@
       <c r="Q1296" t="n">
         <v>0</v>
       </c>
-      <c r="R1296" t="inlineStr"/>
+      <c r="R1296" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1297">
       <c r="A1297" s="2" t="n">
@@ -73097,7 +73101,9 @@
       <c r="Q1297" t="n">
         <v>0</v>
       </c>
-      <c r="R1297" t="inlineStr"/>
+      <c r="R1297" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1298">
       <c r="A1298" s="2" t="n">
@@ -73151,7 +73157,9 @@
       <c r="Q1298" t="n">
         <v>0</v>
       </c>
-      <c r="R1298" t="inlineStr"/>
+      <c r="R1298" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1299">
       <c r="A1299" s="2" t="n">
@@ -73205,7 +73213,9 @@
       <c r="Q1299" t="n">
         <v>0</v>
       </c>
-      <c r="R1299" t="inlineStr"/>
+      <c r="R1299" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1300">
       <c r="A1300" s="2" t="n">
@@ -73259,7 +73269,9 @@
       <c r="Q1300" t="n">
         <v>0</v>
       </c>
-      <c r="R1300" t="inlineStr"/>
+      <c r="R1300" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1301">
       <c r="A1301" s="2" t="n">
@@ -73313,7 +73325,9 @@
       <c r="Q1301" t="n">
         <v>0</v>
       </c>
-      <c r="R1301" t="inlineStr"/>
+      <c r="R1301" t="n">
+        <v>0</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/60m/ZAGGLE.NS.xlsx
+++ b/stock_historical_data/60m/ZAGGLE.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R1301"/>
+  <dimension ref="A1:R1308"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5846,7 +5846,7 @@
         <v>0</v>
       </c>
       <c r="R96" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="97">
@@ -6742,7 +6742,7 @@
         <v>0</v>
       </c>
       <c r="R112" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="113">
@@ -13182,7 +13182,7 @@
         <v>1</v>
       </c>
       <c r="R227" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="228">
@@ -14022,7 +14022,7 @@
         <v>1</v>
       </c>
       <c r="R242" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="243">
@@ -15590,7 +15590,7 @@
         <v>0</v>
       </c>
       <c r="R270" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="271">
@@ -16374,7 +16374,7 @@
         <v>1</v>
       </c>
       <c r="R284" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="285">
@@ -18726,7 +18726,7 @@
         <v>1</v>
       </c>
       <c r="R326" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="327">
@@ -21694,7 +21694,7 @@
         <v>2</v>
       </c>
       <c r="R379" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="380">
@@ -28022,7 +28022,7 @@
         <v>0</v>
       </c>
       <c r="R492" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="493">
@@ -30542,7 +30542,7 @@
         <v>0</v>
       </c>
       <c r="R537" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="538">
@@ -32054,7 +32054,7 @@
         <v>1</v>
       </c>
       <c r="R564" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="565">
@@ -33342,7 +33342,7 @@
         <v>1</v>
       </c>
       <c r="R587" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="588">
@@ -35862,7 +35862,7 @@
         <v>1</v>
       </c>
       <c r="R632" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="633">
@@ -44598,7 +44598,7 @@
         <v>1</v>
       </c>
       <c r="R788" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="789">
@@ -51934,7 +51934,7 @@
         <v>0</v>
       </c>
       <c r="R919" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="920">
@@ -57926,7 +57926,7 @@
         <v>2</v>
       </c>
       <c r="R1026" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1027">
@@ -59606,7 +59606,7 @@
         <v>1</v>
       </c>
       <c r="R1056" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1057">
@@ -60166,7 +60166,7 @@
         <v>2</v>
       </c>
       <c r="R1066" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1067">
@@ -62238,7 +62238,7 @@
         <v>2</v>
       </c>
       <c r="R1103" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1104">
@@ -63414,7 +63414,7 @@
         <v>0</v>
       </c>
       <c r="R1124" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1125">
@@ -66214,7 +66214,7 @@
         <v>0</v>
       </c>
       <c r="R1174" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1175">
@@ -72869,7 +72869,7 @@
         <v>26</v>
       </c>
       <c r="O1293" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="P1293" t="n">
         <v>0</v>
@@ -73328,6 +73328,384 @@
       <c r="R1301" t="n">
         <v>0</v>
       </c>
+    </row>
+    <row r="1302">
+      <c r="A1302" s="2" t="n">
+        <v>45474.38541666666</v>
+      </c>
+      <c r="B1302" t="n">
+        <v>284</v>
+      </c>
+      <c r="C1302" t="n">
+        <v>294.5</v>
+      </c>
+      <c r="D1302" t="n">
+        <v>283.7000122070312</v>
+      </c>
+      <c r="E1302" t="n">
+        <v>291.3500061035156</v>
+      </c>
+      <c r="F1302" t="n">
+        <v>291.3500061035156</v>
+      </c>
+      <c r="G1302" t="n">
+        <v>0</v>
+      </c>
+      <c r="H1302" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1302" t="n">
+        <v>7</v>
+      </c>
+      <c r="J1302" t="n">
+        <v>1</v>
+      </c>
+      <c r="K1302" t="n">
+        <v>9</v>
+      </c>
+      <c r="L1302" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1302" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1302" t="n">
+        <v>27</v>
+      </c>
+      <c r="O1302" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1302" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1302" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1302" t="inlineStr"/>
+    </row>
+    <row r="1303">
+      <c r="A1303" s="2" t="n">
+        <v>45474.42708333334</v>
+      </c>
+      <c r="B1303" t="n">
+        <v>291.3999938964844</v>
+      </c>
+      <c r="C1303" t="n">
+        <v>293.8999938964844</v>
+      </c>
+      <c r="D1303" t="n">
+        <v>290.2999877929688</v>
+      </c>
+      <c r="E1303" t="n">
+        <v>292.7000122070312</v>
+      </c>
+      <c r="F1303" t="n">
+        <v>292.7000122070312</v>
+      </c>
+      <c r="G1303" t="n">
+        <v>94147</v>
+      </c>
+      <c r="H1303" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1303" t="n">
+        <v>7</v>
+      </c>
+      <c r="J1303" t="n">
+        <v>1</v>
+      </c>
+      <c r="K1303" t="n">
+        <v>10</v>
+      </c>
+      <c r="L1303" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1303" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1303" t="n">
+        <v>27</v>
+      </c>
+      <c r="O1303" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1303" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1303" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1303" t="inlineStr"/>
+    </row>
+    <row r="1304">
+      <c r="A1304" s="2" t="n">
+        <v>45474.46875</v>
+      </c>
+      <c r="B1304" t="n">
+        <v>292.75</v>
+      </c>
+      <c r="C1304" t="n">
+        <v>293.3500061035156</v>
+      </c>
+      <c r="D1304" t="n">
+        <v>291.0499877929688</v>
+      </c>
+      <c r="E1304" t="n">
+        <v>293.25</v>
+      </c>
+      <c r="F1304" t="n">
+        <v>293.25</v>
+      </c>
+      <c r="G1304" t="n">
+        <v>60508</v>
+      </c>
+      <c r="H1304" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1304" t="n">
+        <v>7</v>
+      </c>
+      <c r="J1304" t="n">
+        <v>1</v>
+      </c>
+      <c r="K1304" t="n">
+        <v>11</v>
+      </c>
+      <c r="L1304" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1304" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1304" t="n">
+        <v>27</v>
+      </c>
+      <c r="O1304" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1304" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1304" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1304" t="inlineStr"/>
+    </row>
+    <row r="1305">
+      <c r="A1305" s="2" t="n">
+        <v>45474.51041666666</v>
+      </c>
+      <c r="B1305" t="n">
+        <v>293.25</v>
+      </c>
+      <c r="C1305" t="n">
+        <v>293.3500061035156</v>
+      </c>
+      <c r="D1305" t="n">
+        <v>291.6499938964844</v>
+      </c>
+      <c r="E1305" t="n">
+        <v>292</v>
+      </c>
+      <c r="F1305" t="n">
+        <v>292</v>
+      </c>
+      <c r="G1305" t="n">
+        <v>39638</v>
+      </c>
+      <c r="H1305" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1305" t="n">
+        <v>7</v>
+      </c>
+      <c r="J1305" t="n">
+        <v>1</v>
+      </c>
+      <c r="K1305" t="n">
+        <v>12</v>
+      </c>
+      <c r="L1305" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1305" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1305" t="n">
+        <v>27</v>
+      </c>
+      <c r="O1305" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1305" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1305" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1305" t="inlineStr"/>
+    </row>
+    <row r="1306">
+      <c r="A1306" s="2" t="n">
+        <v>45474.55208333334</v>
+      </c>
+      <c r="B1306" t="n">
+        <v>292</v>
+      </c>
+      <c r="C1306" t="n">
+        <v>293</v>
+      </c>
+      <c r="D1306" t="n">
+        <v>291.8999938964844</v>
+      </c>
+      <c r="E1306" t="n">
+        <v>292.8500061035156</v>
+      </c>
+      <c r="F1306" t="n">
+        <v>292.8500061035156</v>
+      </c>
+      <c r="G1306" t="n">
+        <v>34888</v>
+      </c>
+      <c r="H1306" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1306" t="n">
+        <v>7</v>
+      </c>
+      <c r="J1306" t="n">
+        <v>1</v>
+      </c>
+      <c r="K1306" t="n">
+        <v>13</v>
+      </c>
+      <c r="L1306" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1306" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1306" t="n">
+        <v>27</v>
+      </c>
+      <c r="O1306" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1306" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1306" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1306" t="inlineStr"/>
+    </row>
+    <row r="1307">
+      <c r="A1307" s="2" t="n">
+        <v>45474.59375</v>
+      </c>
+      <c r="B1307" t="n">
+        <v>292.3999938964844</v>
+      </c>
+      <c r="C1307" t="n">
+        <v>297.3999938964844</v>
+      </c>
+      <c r="D1307" t="n">
+        <v>292.3999938964844</v>
+      </c>
+      <c r="E1307" t="n">
+        <v>295.1000061035156</v>
+      </c>
+      <c r="F1307" t="n">
+        <v>295.1000061035156</v>
+      </c>
+      <c r="G1307" t="n">
+        <v>270111</v>
+      </c>
+      <c r="H1307" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1307" t="n">
+        <v>7</v>
+      </c>
+      <c r="J1307" t="n">
+        <v>1</v>
+      </c>
+      <c r="K1307" t="n">
+        <v>14</v>
+      </c>
+      <c r="L1307" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1307" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1307" t="n">
+        <v>27</v>
+      </c>
+      <c r="O1307" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1307" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1307" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1307" t="inlineStr"/>
+    </row>
+    <row r="1308">
+      <c r="A1308" s="2" t="n">
+        <v>45474.63541666666</v>
+      </c>
+      <c r="B1308" t="n">
+        <v>295.5</v>
+      </c>
+      <c r="C1308" t="n">
+        <v>295.7999877929688</v>
+      </c>
+      <c r="D1308" t="n">
+        <v>294</v>
+      </c>
+      <c r="E1308" t="n">
+        <v>295</v>
+      </c>
+      <c r="F1308" t="n">
+        <v>295</v>
+      </c>
+      <c r="G1308" t="n">
+        <v>112207</v>
+      </c>
+      <c r="H1308" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1308" t="n">
+        <v>7</v>
+      </c>
+      <c r="J1308" t="n">
+        <v>1</v>
+      </c>
+      <c r="K1308" t="n">
+        <v>15</v>
+      </c>
+      <c r="L1308" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1308" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1308" t="n">
+        <v>27</v>
+      </c>
+      <c r="O1308" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1308" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1308" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1308" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/60m/ZAGGLE.NS.xlsx
+++ b/stock_historical_data/60m/ZAGGLE.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R1308"/>
+  <dimension ref="A1:R1315"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5846,7 +5846,7 @@
         <v>0</v>
       </c>
       <c r="R96" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="97">
@@ -6742,7 +6742,7 @@
         <v>0</v>
       </c>
       <c r="R112" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="113">
@@ -13182,7 +13182,7 @@
         <v>1</v>
       </c>
       <c r="R227" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="228">
@@ -14022,7 +14022,7 @@
         <v>1</v>
       </c>
       <c r="R242" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="243">
@@ -15590,7 +15590,7 @@
         <v>0</v>
       </c>
       <c r="R270" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="271">
@@ -16374,7 +16374,7 @@
         <v>1</v>
       </c>
       <c r="R284" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="285">
@@ -18726,7 +18726,7 @@
         <v>1</v>
       </c>
       <c r="R326" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="327">
@@ -21694,7 +21694,7 @@
         <v>2</v>
       </c>
       <c r="R379" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="380">
@@ -28022,7 +28022,7 @@
         <v>0</v>
       </c>
       <c r="R492" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="493">
@@ -30542,7 +30542,7 @@
         <v>0</v>
       </c>
       <c r="R537" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="538">
@@ -32054,7 +32054,7 @@
         <v>1</v>
       </c>
       <c r="R564" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="565">
@@ -33342,7 +33342,7 @@
         <v>1</v>
       </c>
       <c r="R587" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="588">
@@ -35862,7 +35862,7 @@
         <v>1</v>
       </c>
       <c r="R632" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="633">
@@ -44598,7 +44598,7 @@
         <v>1</v>
       </c>
       <c r="R788" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="789">
@@ -51934,7 +51934,7 @@
         <v>0</v>
       </c>
       <c r="R919" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="920">
@@ -57926,7 +57926,7 @@
         <v>2</v>
       </c>
       <c r="R1026" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1027">
@@ -59606,7 +59606,7 @@
         <v>1</v>
       </c>
       <c r="R1056" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1057">
@@ -60166,7 +60166,7 @@
         <v>2</v>
       </c>
       <c r="R1066" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1067">
@@ -62238,7 +62238,7 @@
         <v>2</v>
       </c>
       <c r="R1103" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1104">
@@ -63414,7 +63414,7 @@
         <v>0</v>
       </c>
       <c r="R1124" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1125">
@@ -66214,7 +66214,7 @@
         <v>0</v>
       </c>
       <c r="R1174" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1175">
@@ -73381,7 +73381,9 @@
       <c r="Q1302" t="n">
         <v>0</v>
       </c>
-      <c r="R1302" t="inlineStr"/>
+      <c r="R1302" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1303">
       <c r="A1303" s="2" t="n">
@@ -73435,7 +73437,9 @@
       <c r="Q1303" t="n">
         <v>0</v>
       </c>
-      <c r="R1303" t="inlineStr"/>
+      <c r="R1303" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1304">
       <c r="A1304" s="2" t="n">
@@ -73489,7 +73493,9 @@
       <c r="Q1304" t="n">
         <v>0</v>
       </c>
-      <c r="R1304" t="inlineStr"/>
+      <c r="R1304" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1305">
       <c r="A1305" s="2" t="n">
@@ -73543,7 +73549,9 @@
       <c r="Q1305" t="n">
         <v>0</v>
       </c>
-      <c r="R1305" t="inlineStr"/>
+      <c r="R1305" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1306">
       <c r="A1306" s="2" t="n">
@@ -73597,7 +73605,9 @@
       <c r="Q1306" t="n">
         <v>0</v>
       </c>
-      <c r="R1306" t="inlineStr"/>
+      <c r="R1306" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1307">
       <c r="A1307" s="2" t="n">
@@ -73651,7 +73661,9 @@
       <c r="Q1307" t="n">
         <v>0</v>
       </c>
-      <c r="R1307" t="inlineStr"/>
+      <c r="R1307" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1308">
       <c r="A1308" s="2" t="n">
@@ -73705,7 +73717,387 @@
       <c r="Q1308" t="n">
         <v>0</v>
       </c>
-      <c r="R1308" t="inlineStr"/>
+      <c r="R1308" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1309">
+      <c r="A1309" s="2" t="n">
+        <v>45475.38541666666</v>
+      </c>
+      <c r="B1309" t="n">
+        <v>295.2999877929688</v>
+      </c>
+      <c r="C1309" t="n">
+        <v>299.3999938964844</v>
+      </c>
+      <c r="D1309" t="n">
+        <v>294.2999877929688</v>
+      </c>
+      <c r="E1309" t="n">
+        <v>297.3999938964844</v>
+      </c>
+      <c r="F1309" t="n">
+        <v>297.3999938964844</v>
+      </c>
+      <c r="G1309" t="n">
+        <v>0</v>
+      </c>
+      <c r="H1309" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1309" t="n">
+        <v>7</v>
+      </c>
+      <c r="J1309" t="n">
+        <v>2</v>
+      </c>
+      <c r="K1309" t="n">
+        <v>9</v>
+      </c>
+      <c r="L1309" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1309" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1309" t="n">
+        <v>27</v>
+      </c>
+      <c r="O1309" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1309" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1309" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1309" t="inlineStr"/>
+    </row>
+    <row r="1310">
+      <c r="A1310" s="2" t="n">
+        <v>45475.42708333334</v>
+      </c>
+      <c r="B1310" t="n">
+        <v>297.1499938964844</v>
+      </c>
+      <c r="C1310" t="n">
+        <v>297.5</v>
+      </c>
+      <c r="D1310" t="n">
+        <v>293.8500061035156</v>
+      </c>
+      <c r="E1310" t="n">
+        <v>294.25</v>
+      </c>
+      <c r="F1310" t="n">
+        <v>294.25</v>
+      </c>
+      <c r="G1310" t="n">
+        <v>117626</v>
+      </c>
+      <c r="H1310" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1310" t="n">
+        <v>7</v>
+      </c>
+      <c r="J1310" t="n">
+        <v>2</v>
+      </c>
+      <c r="K1310" t="n">
+        <v>10</v>
+      </c>
+      <c r="L1310" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1310" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1310" t="n">
+        <v>27</v>
+      </c>
+      <c r="O1310" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1310" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1310" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1310" t="inlineStr"/>
+    </row>
+    <row r="1311">
+      <c r="A1311" s="2" t="n">
+        <v>45475.46875</v>
+      </c>
+      <c r="B1311" t="n">
+        <v>294.25</v>
+      </c>
+      <c r="C1311" t="n">
+        <v>294.8999938964844</v>
+      </c>
+      <c r="D1311" t="n">
+        <v>291.7999877929688</v>
+      </c>
+      <c r="E1311" t="n">
+        <v>291.7999877929688</v>
+      </c>
+      <c r="F1311" t="n">
+        <v>291.7999877929688</v>
+      </c>
+      <c r="G1311" t="n">
+        <v>127226</v>
+      </c>
+      <c r="H1311" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1311" t="n">
+        <v>7</v>
+      </c>
+      <c r="J1311" t="n">
+        <v>2</v>
+      </c>
+      <c r="K1311" t="n">
+        <v>11</v>
+      </c>
+      <c r="L1311" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1311" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1311" t="n">
+        <v>27</v>
+      </c>
+      <c r="O1311" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1311" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1311" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1311" t="inlineStr"/>
+    </row>
+    <row r="1312">
+      <c r="A1312" s="2" t="n">
+        <v>45475.51041666666</v>
+      </c>
+      <c r="B1312" t="n">
+        <v>291.7999877929688</v>
+      </c>
+      <c r="C1312" t="n">
+        <v>292.6499938964844</v>
+      </c>
+      <c r="D1312" t="n">
+        <v>289.5499877929688</v>
+      </c>
+      <c r="E1312" t="n">
+        <v>290.7999877929688</v>
+      </c>
+      <c r="F1312" t="n">
+        <v>290.7999877929688</v>
+      </c>
+      <c r="G1312" t="n">
+        <v>138419</v>
+      </c>
+      <c r="H1312" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1312" t="n">
+        <v>7</v>
+      </c>
+      <c r="J1312" t="n">
+        <v>2</v>
+      </c>
+      <c r="K1312" t="n">
+        <v>12</v>
+      </c>
+      <c r="L1312" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1312" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1312" t="n">
+        <v>27</v>
+      </c>
+      <c r="O1312" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1312" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1312" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1312" t="inlineStr"/>
+    </row>
+    <row r="1313">
+      <c r="A1313" s="2" t="n">
+        <v>45475.55208333334</v>
+      </c>
+      <c r="B1313" t="n">
+        <v>290.8500061035156</v>
+      </c>
+      <c r="C1313" t="n">
+        <v>293.2999877929688</v>
+      </c>
+      <c r="D1313" t="n">
+        <v>290.5</v>
+      </c>
+      <c r="E1313" t="n">
+        <v>292.1000061035156</v>
+      </c>
+      <c r="F1313" t="n">
+        <v>292.1000061035156</v>
+      </c>
+      <c r="G1313" t="n">
+        <v>66976</v>
+      </c>
+      <c r="H1313" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1313" t="n">
+        <v>7</v>
+      </c>
+      <c r="J1313" t="n">
+        <v>2</v>
+      </c>
+      <c r="K1313" t="n">
+        <v>13</v>
+      </c>
+      <c r="L1313" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1313" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1313" t="n">
+        <v>27</v>
+      </c>
+      <c r="O1313" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1313" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1313" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1313" t="inlineStr"/>
+    </row>
+    <row r="1314">
+      <c r="A1314" s="2" t="n">
+        <v>45475.59375</v>
+      </c>
+      <c r="B1314" t="n">
+        <v>292.3999938964844</v>
+      </c>
+      <c r="C1314" t="n">
+        <v>292.5499877929688</v>
+      </c>
+      <c r="D1314" t="n">
+        <v>288.7999877929688</v>
+      </c>
+      <c r="E1314" t="n">
+        <v>289.5</v>
+      </c>
+      <c r="F1314" t="n">
+        <v>289.5</v>
+      </c>
+      <c r="G1314" t="n">
+        <v>172785</v>
+      </c>
+      <c r="H1314" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1314" t="n">
+        <v>7</v>
+      </c>
+      <c r="J1314" t="n">
+        <v>2</v>
+      </c>
+      <c r="K1314" t="n">
+        <v>14</v>
+      </c>
+      <c r="L1314" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1314" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1314" t="n">
+        <v>27</v>
+      </c>
+      <c r="O1314" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1314" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1314" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1314" t="inlineStr"/>
+    </row>
+    <row r="1315">
+      <c r="A1315" s="2" t="n">
+        <v>45475.63541666666</v>
+      </c>
+      <c r="B1315" t="n">
+        <v>289.25</v>
+      </c>
+      <c r="C1315" t="n">
+        <v>290.8999938964844</v>
+      </c>
+      <c r="D1315" t="n">
+        <v>288.8500061035156</v>
+      </c>
+      <c r="E1315" t="n">
+        <v>289.6499938964844</v>
+      </c>
+      <c r="F1315" t="n">
+        <v>289.6499938964844</v>
+      </c>
+      <c r="G1315" t="n">
+        <v>61065</v>
+      </c>
+      <c r="H1315" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1315" t="n">
+        <v>7</v>
+      </c>
+      <c r="J1315" t="n">
+        <v>2</v>
+      </c>
+      <c r="K1315" t="n">
+        <v>15</v>
+      </c>
+      <c r="L1315" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1315" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1315" t="n">
+        <v>27</v>
+      </c>
+      <c r="O1315" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1315" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1315" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1315" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/60m/ZAGGLE.NS.xlsx
+++ b/stock_historical_data/60m/ZAGGLE.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R1315"/>
+  <dimension ref="A1:R1322"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -73773,7 +73773,9 @@
       <c r="Q1309" t="n">
         <v>0</v>
       </c>
-      <c r="R1309" t="inlineStr"/>
+      <c r="R1309" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1310">
       <c r="A1310" s="2" t="n">
@@ -73827,7 +73829,9 @@
       <c r="Q1310" t="n">
         <v>0</v>
       </c>
-      <c r="R1310" t="inlineStr"/>
+      <c r="R1310" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1311">
       <c r="A1311" s="2" t="n">
@@ -73881,7 +73885,9 @@
       <c r="Q1311" t="n">
         <v>0</v>
       </c>
-      <c r="R1311" t="inlineStr"/>
+      <c r="R1311" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1312">
       <c r="A1312" s="2" t="n">
@@ -73935,7 +73941,9 @@
       <c r="Q1312" t="n">
         <v>0</v>
       </c>
-      <c r="R1312" t="inlineStr"/>
+      <c r="R1312" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1313">
       <c r="A1313" s="2" t="n">
@@ -73989,7 +73997,9 @@
       <c r="Q1313" t="n">
         <v>0</v>
       </c>
-      <c r="R1313" t="inlineStr"/>
+      <c r="R1313" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1314">
       <c r="A1314" s="2" t="n">
@@ -74043,7 +74053,9 @@
       <c r="Q1314" t="n">
         <v>0</v>
       </c>
-      <c r="R1314" t="inlineStr"/>
+      <c r="R1314" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1315">
       <c r="A1315" s="2" t="n">
@@ -74097,7 +74109,387 @@
       <c r="Q1315" t="n">
         <v>0</v>
       </c>
-      <c r="R1315" t="inlineStr"/>
+      <c r="R1315" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1316">
+      <c r="A1316" s="2" t="n">
+        <v>45476.38541666666</v>
+      </c>
+      <c r="B1316" t="n">
+        <v>292.8500061035156</v>
+      </c>
+      <c r="C1316" t="n">
+        <v>304.7000122070312</v>
+      </c>
+      <c r="D1316" t="n">
+        <v>292.25</v>
+      </c>
+      <c r="E1316" t="n">
+        <v>303</v>
+      </c>
+      <c r="F1316" t="n">
+        <v>303</v>
+      </c>
+      <c r="G1316" t="n">
+        <v>0</v>
+      </c>
+      <c r="H1316" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1316" t="n">
+        <v>7</v>
+      </c>
+      <c r="J1316" t="n">
+        <v>3</v>
+      </c>
+      <c r="K1316" t="n">
+        <v>9</v>
+      </c>
+      <c r="L1316" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1316" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1316" t="n">
+        <v>27</v>
+      </c>
+      <c r="O1316" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1316" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1316" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1316" t="inlineStr"/>
+    </row>
+    <row r="1317">
+      <c r="A1317" s="2" t="n">
+        <v>45476.42708333334</v>
+      </c>
+      <c r="B1317" t="n">
+        <v>303</v>
+      </c>
+      <c r="C1317" t="n">
+        <v>303</v>
+      </c>
+      <c r="D1317" t="n">
+        <v>297.3999938964844</v>
+      </c>
+      <c r="E1317" t="n">
+        <v>298.1000061035156</v>
+      </c>
+      <c r="F1317" t="n">
+        <v>298.1000061035156</v>
+      </c>
+      <c r="G1317" t="n">
+        <v>343273</v>
+      </c>
+      <c r="H1317" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1317" t="n">
+        <v>7</v>
+      </c>
+      <c r="J1317" t="n">
+        <v>3</v>
+      </c>
+      <c r="K1317" t="n">
+        <v>10</v>
+      </c>
+      <c r="L1317" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1317" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1317" t="n">
+        <v>27</v>
+      </c>
+      <c r="O1317" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1317" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1317" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1317" t="inlineStr"/>
+    </row>
+    <row r="1318">
+      <c r="A1318" s="2" t="n">
+        <v>45476.46875</v>
+      </c>
+      <c r="B1318" t="n">
+        <v>298.25</v>
+      </c>
+      <c r="C1318" t="n">
+        <v>299</v>
+      </c>
+      <c r="D1318" t="n">
+        <v>298</v>
+      </c>
+      <c r="E1318" t="n">
+        <v>298.7000122070312</v>
+      </c>
+      <c r="F1318" t="n">
+        <v>298.7000122070312</v>
+      </c>
+      <c r="G1318" t="n">
+        <v>83254</v>
+      </c>
+      <c r="H1318" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1318" t="n">
+        <v>7</v>
+      </c>
+      <c r="J1318" t="n">
+        <v>3</v>
+      </c>
+      <c r="K1318" t="n">
+        <v>11</v>
+      </c>
+      <c r="L1318" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1318" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1318" t="n">
+        <v>27</v>
+      </c>
+      <c r="O1318" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1318" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1318" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1318" t="inlineStr"/>
+    </row>
+    <row r="1319">
+      <c r="A1319" s="2" t="n">
+        <v>45476.51041666666</v>
+      </c>
+      <c r="B1319" t="n">
+        <v>298.7000122070312</v>
+      </c>
+      <c r="C1319" t="n">
+        <v>299.7000122070312</v>
+      </c>
+      <c r="D1319" t="n">
+        <v>298</v>
+      </c>
+      <c r="E1319" t="n">
+        <v>298.0499877929688</v>
+      </c>
+      <c r="F1319" t="n">
+        <v>298.0499877929688</v>
+      </c>
+      <c r="G1319" t="n">
+        <v>57942</v>
+      </c>
+      <c r="H1319" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1319" t="n">
+        <v>7</v>
+      </c>
+      <c r="J1319" t="n">
+        <v>3</v>
+      </c>
+      <c r="K1319" t="n">
+        <v>12</v>
+      </c>
+      <c r="L1319" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1319" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1319" t="n">
+        <v>27</v>
+      </c>
+      <c r="O1319" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1319" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1319" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1319" t="inlineStr"/>
+    </row>
+    <row r="1320">
+      <c r="A1320" s="2" t="n">
+        <v>45476.55208333334</v>
+      </c>
+      <c r="B1320" t="n">
+        <v>298.3999938964844</v>
+      </c>
+      <c r="C1320" t="n">
+        <v>298.9500122070312</v>
+      </c>
+      <c r="D1320" t="n">
+        <v>296.3999938964844</v>
+      </c>
+      <c r="E1320" t="n">
+        <v>298.8500061035156</v>
+      </c>
+      <c r="F1320" t="n">
+        <v>298.8500061035156</v>
+      </c>
+      <c r="G1320" t="n">
+        <v>141928</v>
+      </c>
+      <c r="H1320" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1320" t="n">
+        <v>7</v>
+      </c>
+      <c r="J1320" t="n">
+        <v>3</v>
+      </c>
+      <c r="K1320" t="n">
+        <v>13</v>
+      </c>
+      <c r="L1320" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1320" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1320" t="n">
+        <v>27</v>
+      </c>
+      <c r="O1320" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1320" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1320" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1320" t="inlineStr"/>
+    </row>
+    <row r="1321">
+      <c r="A1321" s="2" t="n">
+        <v>45476.59375</v>
+      </c>
+      <c r="B1321" t="n">
+        <v>298.6000061035156</v>
+      </c>
+      <c r="C1321" t="n">
+        <v>299</v>
+      </c>
+      <c r="D1321" t="n">
+        <v>296.9500122070312</v>
+      </c>
+      <c r="E1321" t="n">
+        <v>297.9500122070312</v>
+      </c>
+      <c r="F1321" t="n">
+        <v>297.9500122070312</v>
+      </c>
+      <c r="G1321" t="n">
+        <v>113773</v>
+      </c>
+      <c r="H1321" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1321" t="n">
+        <v>7</v>
+      </c>
+      <c r="J1321" t="n">
+        <v>3</v>
+      </c>
+      <c r="K1321" t="n">
+        <v>14</v>
+      </c>
+      <c r="L1321" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1321" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1321" t="n">
+        <v>27</v>
+      </c>
+      <c r="O1321" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1321" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1321" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1321" t="inlineStr"/>
+    </row>
+    <row r="1322">
+      <c r="A1322" s="2" t="n">
+        <v>45476.63541666666</v>
+      </c>
+      <c r="B1322" t="n">
+        <v>297.9500122070312</v>
+      </c>
+      <c r="C1322" t="n">
+        <v>298</v>
+      </c>
+      <c r="D1322" t="n">
+        <v>296.2999877929688</v>
+      </c>
+      <c r="E1322" t="n">
+        <v>297.25</v>
+      </c>
+      <c r="F1322" t="n">
+        <v>297.25</v>
+      </c>
+      <c r="G1322" t="n">
+        <v>99665</v>
+      </c>
+      <c r="H1322" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1322" t="n">
+        <v>7</v>
+      </c>
+      <c r="J1322" t="n">
+        <v>3</v>
+      </c>
+      <c r="K1322" t="n">
+        <v>15</v>
+      </c>
+      <c r="L1322" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1322" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1322" t="n">
+        <v>27</v>
+      </c>
+      <c r="O1322" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1322" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1322" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1322" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/60m/ZAGGLE.NS.xlsx
+++ b/stock_historical_data/60m/ZAGGLE.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R1322"/>
+  <dimension ref="A1:R1329"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -74045,7 +74045,7 @@
         <v>27</v>
       </c>
       <c r="O1314" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="P1314" t="n">
         <v>0</v>
@@ -74157,7 +74157,7 @@
         <v>27</v>
       </c>
       <c r="O1316" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P1316" t="n">
         <v>0</v>
@@ -74165,7 +74165,9 @@
       <c r="Q1316" t="n">
         <v>0</v>
       </c>
-      <c r="R1316" t="inlineStr"/>
+      <c r="R1316" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1317">
       <c r="A1317" s="2" t="n">
@@ -74219,7 +74221,9 @@
       <c r="Q1317" t="n">
         <v>0</v>
       </c>
-      <c r="R1317" t="inlineStr"/>
+      <c r="R1317" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1318">
       <c r="A1318" s="2" t="n">
@@ -74273,7 +74277,9 @@
       <c r="Q1318" t="n">
         <v>0</v>
       </c>
-      <c r="R1318" t="inlineStr"/>
+      <c r="R1318" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1319">
       <c r="A1319" s="2" t="n">
@@ -74327,7 +74333,9 @@
       <c r="Q1319" t="n">
         <v>0</v>
       </c>
-      <c r="R1319" t="inlineStr"/>
+      <c r="R1319" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1320">
       <c r="A1320" s="2" t="n">
@@ -74381,7 +74389,9 @@
       <c r="Q1320" t="n">
         <v>0</v>
       </c>
-      <c r="R1320" t="inlineStr"/>
+      <c r="R1320" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1321">
       <c r="A1321" s="2" t="n">
@@ -74435,7 +74445,9 @@
       <c r="Q1321" t="n">
         <v>0</v>
       </c>
-      <c r="R1321" t="inlineStr"/>
+      <c r="R1321" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1322">
       <c r="A1322" s="2" t="n">
@@ -74489,7 +74501,387 @@
       <c r="Q1322" t="n">
         <v>0</v>
       </c>
-      <c r="R1322" t="inlineStr"/>
+      <c r="R1322" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1323">
+      <c r="A1323" s="2" t="n">
+        <v>45477.38541666666</v>
+      </c>
+      <c r="B1323" t="n">
+        <v>298.8999938964844</v>
+      </c>
+      <c r="C1323" t="n">
+        <v>298.8999938964844</v>
+      </c>
+      <c r="D1323" t="n">
+        <v>293.3500061035156</v>
+      </c>
+      <c r="E1323" t="n">
+        <v>294.6499938964844</v>
+      </c>
+      <c r="F1323" t="n">
+        <v>294.6499938964844</v>
+      </c>
+      <c r="G1323" t="n">
+        <v>0</v>
+      </c>
+      <c r="H1323" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1323" t="n">
+        <v>7</v>
+      </c>
+      <c r="J1323" t="n">
+        <v>4</v>
+      </c>
+      <c r="K1323" t="n">
+        <v>9</v>
+      </c>
+      <c r="L1323" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1323" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1323" t="n">
+        <v>27</v>
+      </c>
+      <c r="O1323" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1323" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1323" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1323" t="inlineStr"/>
+    </row>
+    <row r="1324">
+      <c r="A1324" s="2" t="n">
+        <v>45477.42708333334</v>
+      </c>
+      <c r="B1324" t="n">
+        <v>295</v>
+      </c>
+      <c r="C1324" t="n">
+        <v>297.5</v>
+      </c>
+      <c r="D1324" t="n">
+        <v>293.5</v>
+      </c>
+      <c r="E1324" t="n">
+        <v>294</v>
+      </c>
+      <c r="F1324" t="n">
+        <v>294</v>
+      </c>
+      <c r="G1324" t="n">
+        <v>113031</v>
+      </c>
+      <c r="H1324" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1324" t="n">
+        <v>7</v>
+      </c>
+      <c r="J1324" t="n">
+        <v>4</v>
+      </c>
+      <c r="K1324" t="n">
+        <v>10</v>
+      </c>
+      <c r="L1324" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1324" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1324" t="n">
+        <v>27</v>
+      </c>
+      <c r="O1324" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1324" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1324" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1324" t="inlineStr"/>
+    </row>
+    <row r="1325">
+      <c r="A1325" s="2" t="n">
+        <v>45477.46875</v>
+      </c>
+      <c r="B1325" t="n">
+        <v>294</v>
+      </c>
+      <c r="C1325" t="n">
+        <v>294.7000122070312</v>
+      </c>
+      <c r="D1325" t="n">
+        <v>293.5499877929688</v>
+      </c>
+      <c r="E1325" t="n">
+        <v>294.25</v>
+      </c>
+      <c r="F1325" t="n">
+        <v>294.25</v>
+      </c>
+      <c r="G1325" t="n">
+        <v>46411</v>
+      </c>
+      <c r="H1325" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1325" t="n">
+        <v>7</v>
+      </c>
+      <c r="J1325" t="n">
+        <v>4</v>
+      </c>
+      <c r="K1325" t="n">
+        <v>11</v>
+      </c>
+      <c r="L1325" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1325" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1325" t="n">
+        <v>27</v>
+      </c>
+      <c r="O1325" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1325" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1325" t="n">
+        <v>1</v>
+      </c>
+      <c r="R1325" t="inlineStr"/>
+    </row>
+    <row r="1326">
+      <c r="A1326" s="2" t="n">
+        <v>45477.51041666666</v>
+      </c>
+      <c r="B1326" t="n">
+        <v>294.2000122070312</v>
+      </c>
+      <c r="C1326" t="n">
+        <v>294.8500061035156</v>
+      </c>
+      <c r="D1326" t="n">
+        <v>293.2000122070312</v>
+      </c>
+      <c r="E1326" t="n">
+        <v>294</v>
+      </c>
+      <c r="F1326" t="n">
+        <v>294</v>
+      </c>
+      <c r="G1326" t="n">
+        <v>61684</v>
+      </c>
+      <c r="H1326" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1326" t="n">
+        <v>7</v>
+      </c>
+      <c r="J1326" t="n">
+        <v>4</v>
+      </c>
+      <c r="K1326" t="n">
+        <v>12</v>
+      </c>
+      <c r="L1326" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1326" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1326" t="n">
+        <v>27</v>
+      </c>
+      <c r="O1326" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1326" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1326" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1326" t="inlineStr"/>
+    </row>
+    <row r="1327">
+      <c r="A1327" s="2" t="n">
+        <v>45477.55208333334</v>
+      </c>
+      <c r="B1327" t="n">
+        <v>294</v>
+      </c>
+      <c r="C1327" t="n">
+        <v>294.8999938964844</v>
+      </c>
+      <c r="D1327" t="n">
+        <v>293.5499877929688</v>
+      </c>
+      <c r="E1327" t="n">
+        <v>294.5</v>
+      </c>
+      <c r="F1327" t="n">
+        <v>294.5</v>
+      </c>
+      <c r="G1327" t="n">
+        <v>36279</v>
+      </c>
+      <c r="H1327" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1327" t="n">
+        <v>7</v>
+      </c>
+      <c r="J1327" t="n">
+        <v>4</v>
+      </c>
+      <c r="K1327" t="n">
+        <v>13</v>
+      </c>
+      <c r="L1327" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1327" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1327" t="n">
+        <v>27</v>
+      </c>
+      <c r="O1327" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1327" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1327" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1327" t="inlineStr"/>
+    </row>
+    <row r="1328">
+      <c r="A1328" s="2" t="n">
+        <v>45477.59375</v>
+      </c>
+      <c r="B1328" t="n">
+        <v>294.5</v>
+      </c>
+      <c r="C1328" t="n">
+        <v>294.75</v>
+      </c>
+      <c r="D1328" t="n">
+        <v>292.6000061035156</v>
+      </c>
+      <c r="E1328" t="n">
+        <v>292.6000061035156</v>
+      </c>
+      <c r="F1328" t="n">
+        <v>292.6000061035156</v>
+      </c>
+      <c r="G1328" t="n">
+        <v>76253</v>
+      </c>
+      <c r="H1328" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1328" t="n">
+        <v>7</v>
+      </c>
+      <c r="J1328" t="n">
+        <v>4</v>
+      </c>
+      <c r="K1328" t="n">
+        <v>14</v>
+      </c>
+      <c r="L1328" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1328" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1328" t="n">
+        <v>27</v>
+      </c>
+      <c r="O1328" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1328" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1328" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1328" t="inlineStr"/>
+    </row>
+    <row r="1329">
+      <c r="A1329" s="2" t="n">
+        <v>45477.63541666666</v>
+      </c>
+      <c r="B1329" t="n">
+        <v>292.6000061035156</v>
+      </c>
+      <c r="C1329" t="n">
+        <v>293.8999938964844</v>
+      </c>
+      <c r="D1329" t="n">
+        <v>292.3500061035156</v>
+      </c>
+      <c r="E1329" t="n">
+        <v>292.8999938964844</v>
+      </c>
+      <c r="F1329" t="n">
+        <v>292.8999938964844</v>
+      </c>
+      <c r="G1329" t="n">
+        <v>52293</v>
+      </c>
+      <c r="H1329" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1329" t="n">
+        <v>7</v>
+      </c>
+      <c r="J1329" t="n">
+        <v>4</v>
+      </c>
+      <c r="K1329" t="n">
+        <v>15</v>
+      </c>
+      <c r="L1329" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1329" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1329" t="n">
+        <v>27</v>
+      </c>
+      <c r="O1329" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1329" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1329" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1329" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/60m/ZAGGLE.NS.xlsx
+++ b/stock_historical_data/60m/ZAGGLE.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R1329"/>
+  <dimension ref="A1:R1336"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -74557,7 +74557,9 @@
       <c r="Q1323" t="n">
         <v>0</v>
       </c>
-      <c r="R1323" t="inlineStr"/>
+      <c r="R1323" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1324">
       <c r="A1324" s="2" t="n">
@@ -74611,7 +74613,9 @@
       <c r="Q1324" t="n">
         <v>0</v>
       </c>
-      <c r="R1324" t="inlineStr"/>
+      <c r="R1324" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1325">
       <c r="A1325" s="2" t="n">
@@ -74665,7 +74669,9 @@
       <c r="Q1325" t="n">
         <v>1</v>
       </c>
-      <c r="R1325" t="inlineStr"/>
+      <c r="R1325" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1326">
       <c r="A1326" s="2" t="n">
@@ -74719,7 +74725,9 @@
       <c r="Q1326" t="n">
         <v>0</v>
       </c>
-      <c r="R1326" t="inlineStr"/>
+      <c r="R1326" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1327">
       <c r="A1327" s="2" t="n">
@@ -74773,7 +74781,9 @@
       <c r="Q1327" t="n">
         <v>0</v>
       </c>
-      <c r="R1327" t="inlineStr"/>
+      <c r="R1327" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1328">
       <c r="A1328" s="2" t="n">
@@ -74827,7 +74837,9 @@
       <c r="Q1328" t="n">
         <v>0</v>
       </c>
-      <c r="R1328" t="inlineStr"/>
+      <c r="R1328" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1329">
       <c r="A1329" s="2" t="n">
@@ -74881,7 +74893,387 @@
       <c r="Q1329" t="n">
         <v>0</v>
       </c>
-      <c r="R1329" t="inlineStr"/>
+      <c r="R1329" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1330">
+      <c r="A1330" s="2" t="n">
+        <v>45478.38541666666</v>
+      </c>
+      <c r="B1330" t="n">
+        <v>293.9500122070312</v>
+      </c>
+      <c r="C1330" t="n">
+        <v>297.4500122070312</v>
+      </c>
+      <c r="D1330" t="n">
+        <v>292.9500122070312</v>
+      </c>
+      <c r="E1330" t="n">
+        <v>296.5499877929688</v>
+      </c>
+      <c r="F1330" t="n">
+        <v>296.5499877929688</v>
+      </c>
+      <c r="G1330" t="n">
+        <v>0</v>
+      </c>
+      <c r="H1330" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1330" t="n">
+        <v>7</v>
+      </c>
+      <c r="J1330" t="n">
+        <v>5</v>
+      </c>
+      <c r="K1330" t="n">
+        <v>9</v>
+      </c>
+      <c r="L1330" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1330" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1330" t="n">
+        <v>27</v>
+      </c>
+      <c r="O1330" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1330" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1330" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1330" t="inlineStr"/>
+    </row>
+    <row r="1331">
+      <c r="A1331" s="2" t="n">
+        <v>45478.42708333334</v>
+      </c>
+      <c r="B1331" t="n">
+        <v>296.5499877929688</v>
+      </c>
+      <c r="C1331" t="n">
+        <v>304.2999877929688</v>
+      </c>
+      <c r="D1331" t="n">
+        <v>294.5</v>
+      </c>
+      <c r="E1331" t="n">
+        <v>300.5</v>
+      </c>
+      <c r="F1331" t="n">
+        <v>300.5</v>
+      </c>
+      <c r="G1331" t="n">
+        <v>866170</v>
+      </c>
+      <c r="H1331" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1331" t="n">
+        <v>7</v>
+      </c>
+      <c r="J1331" t="n">
+        <v>5</v>
+      </c>
+      <c r="K1331" t="n">
+        <v>10</v>
+      </c>
+      <c r="L1331" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1331" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1331" t="n">
+        <v>27</v>
+      </c>
+      <c r="O1331" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1331" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1331" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1331" t="inlineStr"/>
+    </row>
+    <row r="1332">
+      <c r="A1332" s="2" t="n">
+        <v>45478.46875</v>
+      </c>
+      <c r="B1332" t="n">
+        <v>300.5</v>
+      </c>
+      <c r="C1332" t="n">
+        <v>300.75</v>
+      </c>
+      <c r="D1332" t="n">
+        <v>298.5</v>
+      </c>
+      <c r="E1332" t="n">
+        <v>299.2999877929688</v>
+      </c>
+      <c r="F1332" t="n">
+        <v>299.2999877929688</v>
+      </c>
+      <c r="G1332" t="n">
+        <v>274248</v>
+      </c>
+      <c r="H1332" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1332" t="n">
+        <v>7</v>
+      </c>
+      <c r="J1332" t="n">
+        <v>5</v>
+      </c>
+      <c r="K1332" t="n">
+        <v>11</v>
+      </c>
+      <c r="L1332" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1332" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1332" t="n">
+        <v>27</v>
+      </c>
+      <c r="O1332" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1332" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1332" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1332" t="inlineStr"/>
+    </row>
+    <row r="1333">
+      <c r="A1333" s="2" t="n">
+        <v>45478.51041666666</v>
+      </c>
+      <c r="B1333" t="n">
+        <v>299.2999877929688</v>
+      </c>
+      <c r="C1333" t="n">
+        <v>300.2999877929688</v>
+      </c>
+      <c r="D1333" t="n">
+        <v>297.1499938964844</v>
+      </c>
+      <c r="E1333" t="n">
+        <v>297.5</v>
+      </c>
+      <c r="F1333" t="n">
+        <v>297.5</v>
+      </c>
+      <c r="G1333" t="n">
+        <v>178321</v>
+      </c>
+      <c r="H1333" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1333" t="n">
+        <v>7</v>
+      </c>
+      <c r="J1333" t="n">
+        <v>5</v>
+      </c>
+      <c r="K1333" t="n">
+        <v>12</v>
+      </c>
+      <c r="L1333" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1333" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1333" t="n">
+        <v>27</v>
+      </c>
+      <c r="O1333" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1333" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1333" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1333" t="inlineStr"/>
+    </row>
+    <row r="1334">
+      <c r="A1334" s="2" t="n">
+        <v>45478.55208333334</v>
+      </c>
+      <c r="B1334" t="n">
+        <v>297.3500061035156</v>
+      </c>
+      <c r="C1334" t="n">
+        <v>299</v>
+      </c>
+      <c r="D1334" t="n">
+        <v>295.25</v>
+      </c>
+      <c r="E1334" t="n">
+        <v>296.6000061035156</v>
+      </c>
+      <c r="F1334" t="n">
+        <v>296.6000061035156</v>
+      </c>
+      <c r="G1334" t="n">
+        <v>182918</v>
+      </c>
+      <c r="H1334" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1334" t="n">
+        <v>7</v>
+      </c>
+      <c r="J1334" t="n">
+        <v>5</v>
+      </c>
+      <c r="K1334" t="n">
+        <v>13</v>
+      </c>
+      <c r="L1334" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1334" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1334" t="n">
+        <v>27</v>
+      </c>
+      <c r="O1334" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1334" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1334" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1334" t="inlineStr"/>
+    </row>
+    <row r="1335">
+      <c r="A1335" s="2" t="n">
+        <v>45478.59375</v>
+      </c>
+      <c r="B1335" t="n">
+        <v>296.7000122070312</v>
+      </c>
+      <c r="C1335" t="n">
+        <v>298.2000122070312</v>
+      </c>
+      <c r="D1335" t="n">
+        <v>295.1000061035156</v>
+      </c>
+      <c r="E1335" t="n">
+        <v>295.6000061035156</v>
+      </c>
+      <c r="F1335" t="n">
+        <v>295.6000061035156</v>
+      </c>
+      <c r="G1335" t="n">
+        <v>243087</v>
+      </c>
+      <c r="H1335" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1335" t="n">
+        <v>7</v>
+      </c>
+      <c r="J1335" t="n">
+        <v>5</v>
+      </c>
+      <c r="K1335" t="n">
+        <v>14</v>
+      </c>
+      <c r="L1335" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1335" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1335" t="n">
+        <v>27</v>
+      </c>
+      <c r="O1335" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1335" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1335" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1335" t="inlineStr"/>
+    </row>
+    <row r="1336">
+      <c r="A1336" s="2" t="n">
+        <v>45478.63541666666</v>
+      </c>
+      <c r="B1336" t="n">
+        <v>294.7000122070312</v>
+      </c>
+      <c r="C1336" t="n">
+        <v>296</v>
+      </c>
+      <c r="D1336" t="n">
+        <v>294.3999938964844</v>
+      </c>
+      <c r="E1336" t="n">
+        <v>295.3999938964844</v>
+      </c>
+      <c r="F1336" t="n">
+        <v>295.3999938964844</v>
+      </c>
+      <c r="G1336" t="n">
+        <v>141685</v>
+      </c>
+      <c r="H1336" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1336" t="n">
+        <v>7</v>
+      </c>
+      <c r="J1336" t="n">
+        <v>5</v>
+      </c>
+      <c r="K1336" t="n">
+        <v>15</v>
+      </c>
+      <c r="L1336" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1336" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1336" t="n">
+        <v>27</v>
+      </c>
+      <c r="O1336" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1336" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1336" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1336" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/60m/ZAGGLE.NS.xlsx
+++ b/stock_historical_data/60m/ZAGGLE.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R1336"/>
+  <dimension ref="A1:R1343"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -74949,7 +74949,9 @@
       <c r="Q1330" t="n">
         <v>0</v>
       </c>
-      <c r="R1330" t="inlineStr"/>
+      <c r="R1330" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1331">
       <c r="A1331" s="2" t="n">
@@ -74995,7 +74997,7 @@
         <v>27</v>
       </c>
       <c r="O1331" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P1331" t="n">
         <v>0</v>
@@ -75003,7 +75005,9 @@
       <c r="Q1331" t="n">
         <v>0</v>
       </c>
-      <c r="R1331" t="inlineStr"/>
+      <c r="R1331" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1332">
       <c r="A1332" s="2" t="n">
@@ -75057,7 +75061,9 @@
       <c r="Q1332" t="n">
         <v>0</v>
       </c>
-      <c r="R1332" t="inlineStr"/>
+      <c r="R1332" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1333">
       <c r="A1333" s="2" t="n">
@@ -75111,7 +75117,9 @@
       <c r="Q1333" t="n">
         <v>0</v>
       </c>
-      <c r="R1333" t="inlineStr"/>
+      <c r="R1333" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1334">
       <c r="A1334" s="2" t="n">
@@ -75165,7 +75173,9 @@
       <c r="Q1334" t="n">
         <v>0</v>
       </c>
-      <c r="R1334" t="inlineStr"/>
+      <c r="R1334" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1335">
       <c r="A1335" s="2" t="n">
@@ -75219,7 +75229,9 @@
       <c r="Q1335" t="n">
         <v>0</v>
       </c>
-      <c r="R1335" t="inlineStr"/>
+      <c r="R1335" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1336">
       <c r="A1336" s="2" t="n">
@@ -75273,7 +75285,387 @@
       <c r="Q1336" t="n">
         <v>0</v>
       </c>
-      <c r="R1336" t="inlineStr"/>
+      <c r="R1336" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1337">
+      <c r="A1337" s="2" t="n">
+        <v>45481.38541666666</v>
+      </c>
+      <c r="B1337" t="n">
+        <v>296.9500122070312</v>
+      </c>
+      <c r="C1337" t="n">
+        <v>298.25</v>
+      </c>
+      <c r="D1337" t="n">
+        <v>294.2999877929688</v>
+      </c>
+      <c r="E1337" t="n">
+        <v>295.75</v>
+      </c>
+      <c r="F1337" t="n">
+        <v>295.75</v>
+      </c>
+      <c r="G1337" t="n">
+        <v>0</v>
+      </c>
+      <c r="H1337" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1337" t="n">
+        <v>7</v>
+      </c>
+      <c r="J1337" t="n">
+        <v>8</v>
+      </c>
+      <c r="K1337" t="n">
+        <v>9</v>
+      </c>
+      <c r="L1337" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1337" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1337" t="n">
+        <v>28</v>
+      </c>
+      <c r="O1337" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1337" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1337" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1337" t="inlineStr"/>
+    </row>
+    <row r="1338">
+      <c r="A1338" s="2" t="n">
+        <v>45481.42708333334</v>
+      </c>
+      <c r="B1338" t="n">
+        <v>295.75</v>
+      </c>
+      <c r="C1338" t="n">
+        <v>296.25</v>
+      </c>
+      <c r="D1338" t="n">
+        <v>292.0499877929688</v>
+      </c>
+      <c r="E1338" t="n">
+        <v>293.2999877929688</v>
+      </c>
+      <c r="F1338" t="n">
+        <v>293.2999877929688</v>
+      </c>
+      <c r="G1338" t="n">
+        <v>166333</v>
+      </c>
+      <c r="H1338" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1338" t="n">
+        <v>7</v>
+      </c>
+      <c r="J1338" t="n">
+        <v>8</v>
+      </c>
+      <c r="K1338" t="n">
+        <v>10</v>
+      </c>
+      <c r="L1338" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1338" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1338" t="n">
+        <v>28</v>
+      </c>
+      <c r="O1338" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1338" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1338" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1338" t="inlineStr"/>
+    </row>
+    <row r="1339">
+      <c r="A1339" s="2" t="n">
+        <v>45481.46875</v>
+      </c>
+      <c r="B1339" t="n">
+        <v>293</v>
+      </c>
+      <c r="C1339" t="n">
+        <v>293.8500061035156</v>
+      </c>
+      <c r="D1339" t="n">
+        <v>290.5</v>
+      </c>
+      <c r="E1339" t="n">
+        <v>290.8999938964844</v>
+      </c>
+      <c r="F1339" t="n">
+        <v>290.8999938964844</v>
+      </c>
+      <c r="G1339" t="n">
+        <v>150032</v>
+      </c>
+      <c r="H1339" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1339" t="n">
+        <v>7</v>
+      </c>
+      <c r="J1339" t="n">
+        <v>8</v>
+      </c>
+      <c r="K1339" t="n">
+        <v>11</v>
+      </c>
+      <c r="L1339" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1339" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1339" t="n">
+        <v>28</v>
+      </c>
+      <c r="O1339" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1339" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1339" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1339" t="inlineStr"/>
+    </row>
+    <row r="1340">
+      <c r="A1340" s="2" t="n">
+        <v>45481.51041666666</v>
+      </c>
+      <c r="B1340" t="n">
+        <v>290.8999938964844</v>
+      </c>
+      <c r="C1340" t="n">
+        <v>293.0499877929688</v>
+      </c>
+      <c r="D1340" t="n">
+        <v>290.25</v>
+      </c>
+      <c r="E1340" t="n">
+        <v>292.7999877929688</v>
+      </c>
+      <c r="F1340" t="n">
+        <v>292.7999877929688</v>
+      </c>
+      <c r="G1340" t="n">
+        <v>71129</v>
+      </c>
+      <c r="H1340" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1340" t="n">
+        <v>7</v>
+      </c>
+      <c r="J1340" t="n">
+        <v>8</v>
+      </c>
+      <c r="K1340" t="n">
+        <v>12</v>
+      </c>
+      <c r="L1340" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1340" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1340" t="n">
+        <v>28</v>
+      </c>
+      <c r="O1340" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1340" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1340" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1340" t="inlineStr"/>
+    </row>
+    <row r="1341">
+      <c r="A1341" s="2" t="n">
+        <v>45481.55208333334</v>
+      </c>
+      <c r="B1341" t="n">
+        <v>292.7999877929688</v>
+      </c>
+      <c r="C1341" t="n">
+        <v>292.7999877929688</v>
+      </c>
+      <c r="D1341" t="n">
+        <v>291.25</v>
+      </c>
+      <c r="E1341" t="n">
+        <v>292.2000122070312</v>
+      </c>
+      <c r="F1341" t="n">
+        <v>292.2000122070312</v>
+      </c>
+      <c r="G1341" t="n">
+        <v>42176</v>
+      </c>
+      <c r="H1341" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1341" t="n">
+        <v>7</v>
+      </c>
+      <c r="J1341" t="n">
+        <v>8</v>
+      </c>
+      <c r="K1341" t="n">
+        <v>13</v>
+      </c>
+      <c r="L1341" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1341" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1341" t="n">
+        <v>28</v>
+      </c>
+      <c r="O1341" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1341" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1341" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1341" t="inlineStr"/>
+    </row>
+    <row r="1342">
+      <c r="A1342" s="2" t="n">
+        <v>45481.59375</v>
+      </c>
+      <c r="B1342" t="n">
+        <v>292.2000122070312</v>
+      </c>
+      <c r="C1342" t="n">
+        <v>292.9500122070312</v>
+      </c>
+      <c r="D1342" t="n">
+        <v>291.5</v>
+      </c>
+      <c r="E1342" t="n">
+        <v>291.8500061035156</v>
+      </c>
+      <c r="F1342" t="n">
+        <v>291.8500061035156</v>
+      </c>
+      <c r="G1342" t="n">
+        <v>58725</v>
+      </c>
+      <c r="H1342" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1342" t="n">
+        <v>7</v>
+      </c>
+      <c r="J1342" t="n">
+        <v>8</v>
+      </c>
+      <c r="K1342" t="n">
+        <v>14</v>
+      </c>
+      <c r="L1342" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1342" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1342" t="n">
+        <v>28</v>
+      </c>
+      <c r="O1342" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1342" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q1342" t="n">
+        <v>2</v>
+      </c>
+      <c r="R1342" t="inlineStr"/>
+    </row>
+    <row r="1343">
+      <c r="A1343" s="2" t="n">
+        <v>45481.63541666666</v>
+      </c>
+      <c r="B1343" t="n">
+        <v>291.7000122070312</v>
+      </c>
+      <c r="C1343" t="n">
+        <v>292.7000122070312</v>
+      </c>
+      <c r="D1343" t="n">
+        <v>291.25</v>
+      </c>
+      <c r="E1343" t="n">
+        <v>292.0499877929688</v>
+      </c>
+      <c r="F1343" t="n">
+        <v>292.0499877929688</v>
+      </c>
+      <c r="G1343" t="n">
+        <v>50070</v>
+      </c>
+      <c r="H1343" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1343" t="n">
+        <v>7</v>
+      </c>
+      <c r="J1343" t="n">
+        <v>8</v>
+      </c>
+      <c r="K1343" t="n">
+        <v>15</v>
+      </c>
+      <c r="L1343" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1343" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1343" t="n">
+        <v>28</v>
+      </c>
+      <c r="O1343" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1343" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1343" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1343" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/60m/ZAGGLE.NS.xlsx
+++ b/stock_historical_data/60m/ZAGGLE.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R1343"/>
+  <dimension ref="A1:R1350"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -75341,7 +75341,9 @@
       <c r="Q1337" t="n">
         <v>0</v>
       </c>
-      <c r="R1337" t="inlineStr"/>
+      <c r="R1337" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1338">
       <c r="A1338" s="2" t="n">
@@ -75395,7 +75397,9 @@
       <c r="Q1338" t="n">
         <v>0</v>
       </c>
-      <c r="R1338" t="inlineStr"/>
+      <c r="R1338" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1339">
       <c r="A1339" s="2" t="n">
@@ -75449,7 +75453,9 @@
       <c r="Q1339" t="n">
         <v>0</v>
       </c>
-      <c r="R1339" t="inlineStr"/>
+      <c r="R1339" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1340">
       <c r="A1340" s="2" t="n">
@@ -75503,7 +75509,9 @@
       <c r="Q1340" t="n">
         <v>0</v>
       </c>
-      <c r="R1340" t="inlineStr"/>
+      <c r="R1340" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1341">
       <c r="A1341" s="2" t="n">
@@ -75557,7 +75565,9 @@
       <c r="Q1341" t="n">
         <v>0</v>
       </c>
-      <c r="R1341" t="inlineStr"/>
+      <c r="R1341" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1342">
       <c r="A1342" s="2" t="n">
@@ -75611,7 +75621,9 @@
       <c r="Q1342" t="n">
         <v>2</v>
       </c>
-      <c r="R1342" t="inlineStr"/>
+      <c r="R1342" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="1343">
       <c r="A1343" s="2" t="n">
@@ -75665,7 +75677,387 @@
       <c r="Q1343" t="n">
         <v>0</v>
       </c>
-      <c r="R1343" t="inlineStr"/>
+      <c r="R1343" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1344">
+      <c r="A1344" s="2" t="n">
+        <v>45482.38541666666</v>
+      </c>
+      <c r="B1344" t="n">
+        <v>293.1499938964844</v>
+      </c>
+      <c r="C1344" t="n">
+        <v>296.2000122070312</v>
+      </c>
+      <c r="D1344" t="n">
+        <v>293.0499877929688</v>
+      </c>
+      <c r="E1344" t="n">
+        <v>296.1499938964844</v>
+      </c>
+      <c r="F1344" t="n">
+        <v>296.1499938964844</v>
+      </c>
+      <c r="G1344" t="n">
+        <v>135981</v>
+      </c>
+      <c r="H1344" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1344" t="n">
+        <v>7</v>
+      </c>
+      <c r="J1344" t="n">
+        <v>9</v>
+      </c>
+      <c r="K1344" t="n">
+        <v>9</v>
+      </c>
+      <c r="L1344" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1344" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1344" t="n">
+        <v>28</v>
+      </c>
+      <c r="O1344" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1344" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1344" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1344" t="inlineStr"/>
+    </row>
+    <row r="1345">
+      <c r="A1345" s="2" t="n">
+        <v>45482.42708333334</v>
+      </c>
+      <c r="B1345" t="n">
+        <v>296.0499877929688</v>
+      </c>
+      <c r="C1345" t="n">
+        <v>296.2999877929688</v>
+      </c>
+      <c r="D1345" t="n">
+        <v>292.7000122070312</v>
+      </c>
+      <c r="E1345" t="n">
+        <v>293.1000061035156</v>
+      </c>
+      <c r="F1345" t="n">
+        <v>293.1000061035156</v>
+      </c>
+      <c r="G1345" t="n">
+        <v>74370</v>
+      </c>
+      <c r="H1345" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1345" t="n">
+        <v>7</v>
+      </c>
+      <c r="J1345" t="n">
+        <v>9</v>
+      </c>
+      <c r="K1345" t="n">
+        <v>10</v>
+      </c>
+      <c r="L1345" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1345" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1345" t="n">
+        <v>28</v>
+      </c>
+      <c r="O1345" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1345" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1345" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1345" t="inlineStr"/>
+    </row>
+    <row r="1346">
+      <c r="A1346" s="2" t="n">
+        <v>45482.46875</v>
+      </c>
+      <c r="B1346" t="n">
+        <v>293.3999938964844</v>
+      </c>
+      <c r="C1346" t="n">
+        <v>293.3999938964844</v>
+      </c>
+      <c r="D1346" t="n">
+        <v>291.5</v>
+      </c>
+      <c r="E1346" t="n">
+        <v>291.9500122070312</v>
+      </c>
+      <c r="F1346" t="n">
+        <v>291.9500122070312</v>
+      </c>
+      <c r="G1346" t="n">
+        <v>44695</v>
+      </c>
+      <c r="H1346" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1346" t="n">
+        <v>7</v>
+      </c>
+      <c r="J1346" t="n">
+        <v>9</v>
+      </c>
+      <c r="K1346" t="n">
+        <v>11</v>
+      </c>
+      <c r="L1346" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1346" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1346" t="n">
+        <v>28</v>
+      </c>
+      <c r="O1346" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1346" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1346" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1346" t="inlineStr"/>
+    </row>
+    <row r="1347">
+      <c r="A1347" s="2" t="n">
+        <v>45482.51041666666</v>
+      </c>
+      <c r="B1347" t="n">
+        <v>291.9500122070312</v>
+      </c>
+      <c r="C1347" t="n">
+        <v>292.2000122070312</v>
+      </c>
+      <c r="D1347" t="n">
+        <v>291.2000122070312</v>
+      </c>
+      <c r="E1347" t="n">
+        <v>291.7999877929688</v>
+      </c>
+      <c r="F1347" t="n">
+        <v>291.7999877929688</v>
+      </c>
+      <c r="G1347" t="n">
+        <v>25969</v>
+      </c>
+      <c r="H1347" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1347" t="n">
+        <v>7</v>
+      </c>
+      <c r="J1347" t="n">
+        <v>9</v>
+      </c>
+      <c r="K1347" t="n">
+        <v>12</v>
+      </c>
+      <c r="L1347" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1347" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1347" t="n">
+        <v>28</v>
+      </c>
+      <c r="O1347" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1347" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1347" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1347" t="inlineStr"/>
+    </row>
+    <row r="1348">
+      <c r="A1348" s="2" t="n">
+        <v>45482.55208333334</v>
+      </c>
+      <c r="B1348" t="n">
+        <v>291.7999877929688</v>
+      </c>
+      <c r="C1348" t="n">
+        <v>291.7999877929688</v>
+      </c>
+      <c r="D1348" t="n">
+        <v>291.0499877929688</v>
+      </c>
+      <c r="E1348" t="n">
+        <v>291.0499877929688</v>
+      </c>
+      <c r="F1348" t="n">
+        <v>291.0499877929688</v>
+      </c>
+      <c r="G1348" t="n">
+        <v>44299</v>
+      </c>
+      <c r="H1348" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1348" t="n">
+        <v>7</v>
+      </c>
+      <c r="J1348" t="n">
+        <v>9</v>
+      </c>
+      <c r="K1348" t="n">
+        <v>13</v>
+      </c>
+      <c r="L1348" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1348" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1348" t="n">
+        <v>28</v>
+      </c>
+      <c r="O1348" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1348" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1348" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1348" t="inlineStr"/>
+    </row>
+    <row r="1349">
+      <c r="A1349" s="2" t="n">
+        <v>45482.59375</v>
+      </c>
+      <c r="B1349" t="n">
+        <v>291</v>
+      </c>
+      <c r="C1349" t="n">
+        <v>293.8999938964844</v>
+      </c>
+      <c r="D1349" t="n">
+        <v>290</v>
+      </c>
+      <c r="E1349" t="n">
+        <v>292.8999938964844</v>
+      </c>
+      <c r="F1349" t="n">
+        <v>292.8999938964844</v>
+      </c>
+      <c r="G1349" t="n">
+        <v>188439</v>
+      </c>
+      <c r="H1349" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1349" t="n">
+        <v>7</v>
+      </c>
+      <c r="J1349" t="n">
+        <v>9</v>
+      </c>
+      <c r="K1349" t="n">
+        <v>14</v>
+      </c>
+      <c r="L1349" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1349" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1349" t="n">
+        <v>28</v>
+      </c>
+      <c r="O1349" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1349" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1349" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1349" t="inlineStr"/>
+    </row>
+    <row r="1350">
+      <c r="A1350" s="2" t="n">
+        <v>45482.63541666666</v>
+      </c>
+      <c r="B1350" t="n">
+        <v>293.1000061035156</v>
+      </c>
+      <c r="C1350" t="n">
+        <v>294.1499938964844</v>
+      </c>
+      <c r="D1350" t="n">
+        <v>292.7999877929688</v>
+      </c>
+      <c r="E1350" t="n">
+        <v>293.0499877929688</v>
+      </c>
+      <c r="F1350" t="n">
+        <v>293.0499877929688</v>
+      </c>
+      <c r="G1350" t="n">
+        <v>39763</v>
+      </c>
+      <c r="H1350" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1350" t="n">
+        <v>7</v>
+      </c>
+      <c r="J1350" t="n">
+        <v>9</v>
+      </c>
+      <c r="K1350" t="n">
+        <v>15</v>
+      </c>
+      <c r="L1350" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1350" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1350" t="n">
+        <v>28</v>
+      </c>
+      <c r="O1350" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1350" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1350" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1350" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/60m/ZAGGLE.NS.xlsx
+++ b/stock_historical_data/60m/ZAGGLE.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R1350"/>
+  <dimension ref="A1:R1357"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -75733,7 +75733,9 @@
       <c r="Q1344" t="n">
         <v>0</v>
       </c>
-      <c r="R1344" t="inlineStr"/>
+      <c r="R1344" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1345">
       <c r="A1345" s="2" t="n">
@@ -75787,7 +75789,9 @@
       <c r="Q1345" t="n">
         <v>0</v>
       </c>
-      <c r="R1345" t="inlineStr"/>
+      <c r="R1345" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1346">
       <c r="A1346" s="2" t="n">
@@ -75841,7 +75845,9 @@
       <c r="Q1346" t="n">
         <v>0</v>
       </c>
-      <c r="R1346" t="inlineStr"/>
+      <c r="R1346" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1347">
       <c r="A1347" s="2" t="n">
@@ -75895,7 +75901,9 @@
       <c r="Q1347" t="n">
         <v>0</v>
       </c>
-      <c r="R1347" t="inlineStr"/>
+      <c r="R1347" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1348">
       <c r="A1348" s="2" t="n">
@@ -75949,7 +75957,9 @@
       <c r="Q1348" t="n">
         <v>0</v>
       </c>
-      <c r="R1348" t="inlineStr"/>
+      <c r="R1348" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1349">
       <c r="A1349" s="2" t="n">
@@ -76003,7 +76013,9 @@
       <c r="Q1349" t="n">
         <v>0</v>
       </c>
-      <c r="R1349" t="inlineStr"/>
+      <c r="R1349" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1350">
       <c r="A1350" s="2" t="n">
@@ -76057,7 +76069,387 @@
       <c r="Q1350" t="n">
         <v>0</v>
       </c>
-      <c r="R1350" t="inlineStr"/>
+      <c r="R1350" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1351">
+      <c r="A1351" s="2" t="n">
+        <v>45483.38541666666</v>
+      </c>
+      <c r="B1351" t="n">
+        <v>295.5499877929688</v>
+      </c>
+      <c r="C1351" t="n">
+        <v>297.7000122070312</v>
+      </c>
+      <c r="D1351" t="n">
+        <v>287.1499938964844</v>
+      </c>
+      <c r="E1351" t="n">
+        <v>288.5</v>
+      </c>
+      <c r="F1351" t="n">
+        <v>288.5</v>
+      </c>
+      <c r="G1351" t="n">
+        <v>347552</v>
+      </c>
+      <c r="H1351" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1351" t="n">
+        <v>7</v>
+      </c>
+      <c r="J1351" t="n">
+        <v>10</v>
+      </c>
+      <c r="K1351" t="n">
+        <v>9</v>
+      </c>
+      <c r="L1351" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1351" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1351" t="n">
+        <v>28</v>
+      </c>
+      <c r="O1351" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1351" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1351" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1351" t="inlineStr"/>
+    </row>
+    <row r="1352">
+      <c r="A1352" s="2" t="n">
+        <v>45483.42708333334</v>
+      </c>
+      <c r="B1352" t="n">
+        <v>288.3999938964844</v>
+      </c>
+      <c r="C1352" t="n">
+        <v>288.9500122070312</v>
+      </c>
+      <c r="D1352" t="n">
+        <v>283.6499938964844</v>
+      </c>
+      <c r="E1352" t="n">
+        <v>288</v>
+      </c>
+      <c r="F1352" t="n">
+        <v>288</v>
+      </c>
+      <c r="G1352" t="n">
+        <v>194678</v>
+      </c>
+      <c r="H1352" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1352" t="n">
+        <v>7</v>
+      </c>
+      <c r="J1352" t="n">
+        <v>10</v>
+      </c>
+      <c r="K1352" t="n">
+        <v>10</v>
+      </c>
+      <c r="L1352" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1352" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1352" t="n">
+        <v>28</v>
+      </c>
+      <c r="O1352" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1352" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1352" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1352" t="inlineStr"/>
+    </row>
+    <row r="1353">
+      <c r="A1353" s="2" t="n">
+        <v>45483.46875</v>
+      </c>
+      <c r="B1353" t="n">
+        <v>287.4500122070312</v>
+      </c>
+      <c r="C1353" t="n">
+        <v>290.7999877929688</v>
+      </c>
+      <c r="D1353" t="n">
+        <v>286.7999877929688</v>
+      </c>
+      <c r="E1353" t="n">
+        <v>290.0499877929688</v>
+      </c>
+      <c r="F1353" t="n">
+        <v>290.0499877929688</v>
+      </c>
+      <c r="G1353" t="n">
+        <v>70673</v>
+      </c>
+      <c r="H1353" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1353" t="n">
+        <v>7</v>
+      </c>
+      <c r="J1353" t="n">
+        <v>10</v>
+      </c>
+      <c r="K1353" t="n">
+        <v>11</v>
+      </c>
+      <c r="L1353" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1353" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1353" t="n">
+        <v>28</v>
+      </c>
+      <c r="O1353" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1353" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1353" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1353" t="inlineStr"/>
+    </row>
+    <row r="1354">
+      <c r="A1354" s="2" t="n">
+        <v>45483.51041666666</v>
+      </c>
+      <c r="B1354" t="n">
+        <v>290</v>
+      </c>
+      <c r="C1354" t="n">
+        <v>293.4500122070312</v>
+      </c>
+      <c r="D1354" t="n">
+        <v>290</v>
+      </c>
+      <c r="E1354" t="n">
+        <v>292.75</v>
+      </c>
+      <c r="F1354" t="n">
+        <v>292.75</v>
+      </c>
+      <c r="G1354" t="n">
+        <v>104403</v>
+      </c>
+      <c r="H1354" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1354" t="n">
+        <v>7</v>
+      </c>
+      <c r="J1354" t="n">
+        <v>10</v>
+      </c>
+      <c r="K1354" t="n">
+        <v>12</v>
+      </c>
+      <c r="L1354" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1354" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1354" t="n">
+        <v>28</v>
+      </c>
+      <c r="O1354" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1354" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1354" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1354" t="inlineStr"/>
+    </row>
+    <row r="1355">
+      <c r="A1355" s="2" t="n">
+        <v>45483.55208333334</v>
+      </c>
+      <c r="B1355" t="n">
+        <v>292.3999938964844</v>
+      </c>
+      <c r="C1355" t="n">
+        <v>293.8500061035156</v>
+      </c>
+      <c r="D1355" t="n">
+        <v>292.1499938964844</v>
+      </c>
+      <c r="E1355" t="n">
+        <v>292.5499877929688</v>
+      </c>
+      <c r="F1355" t="n">
+        <v>292.5499877929688</v>
+      </c>
+      <c r="G1355" t="n">
+        <v>58515</v>
+      </c>
+      <c r="H1355" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1355" t="n">
+        <v>7</v>
+      </c>
+      <c r="J1355" t="n">
+        <v>10</v>
+      </c>
+      <c r="K1355" t="n">
+        <v>13</v>
+      </c>
+      <c r="L1355" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1355" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1355" t="n">
+        <v>28</v>
+      </c>
+      <c r="O1355" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1355" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1355" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1355" t="inlineStr"/>
+    </row>
+    <row r="1356">
+      <c r="A1356" s="2" t="n">
+        <v>45483.59375</v>
+      </c>
+      <c r="B1356" t="n">
+        <v>292.25</v>
+      </c>
+      <c r="C1356" t="n">
+        <v>294.5</v>
+      </c>
+      <c r="D1356" t="n">
+        <v>292.25</v>
+      </c>
+      <c r="E1356" t="n">
+        <v>293</v>
+      </c>
+      <c r="F1356" t="n">
+        <v>293</v>
+      </c>
+      <c r="G1356" t="n">
+        <v>68836</v>
+      </c>
+      <c r="H1356" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1356" t="n">
+        <v>7</v>
+      </c>
+      <c r="J1356" t="n">
+        <v>10</v>
+      </c>
+      <c r="K1356" t="n">
+        <v>14</v>
+      </c>
+      <c r="L1356" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1356" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1356" t="n">
+        <v>28</v>
+      </c>
+      <c r="O1356" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1356" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1356" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1356" t="inlineStr"/>
+    </row>
+    <row r="1357">
+      <c r="A1357" s="2" t="n">
+        <v>45483.63541666666</v>
+      </c>
+      <c r="B1357" t="n">
+        <v>293.1499938964844</v>
+      </c>
+      <c r="C1357" t="n">
+        <v>294.9500122070312</v>
+      </c>
+      <c r="D1357" t="n">
+        <v>293</v>
+      </c>
+      <c r="E1357" t="n">
+        <v>293.5</v>
+      </c>
+      <c r="F1357" t="n">
+        <v>293.5</v>
+      </c>
+      <c r="G1357" t="n">
+        <v>57241</v>
+      </c>
+      <c r="H1357" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1357" t="n">
+        <v>7</v>
+      </c>
+      <c r="J1357" t="n">
+        <v>10</v>
+      </c>
+      <c r="K1357" t="n">
+        <v>15</v>
+      </c>
+      <c r="L1357" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1357" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1357" t="n">
+        <v>28</v>
+      </c>
+      <c r="O1357" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1357" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1357" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1357" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/60m/ZAGGLE.NS.xlsx
+++ b/stock_historical_data/60m/ZAGGLE.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R1357"/>
+  <dimension ref="A1:R1364"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -76125,7 +76125,9 @@
       <c r="Q1351" t="n">
         <v>0</v>
       </c>
-      <c r="R1351" t="inlineStr"/>
+      <c r="R1351" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1352">
       <c r="A1352" s="2" t="n">
@@ -76171,7 +76173,7 @@
         <v>28</v>
       </c>
       <c r="O1352" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="P1352" t="n">
         <v>0</v>
@@ -76179,7 +76181,9 @@
       <c r="Q1352" t="n">
         <v>0</v>
       </c>
-      <c r="R1352" t="inlineStr"/>
+      <c r="R1352" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1353">
       <c r="A1353" s="2" t="n">
@@ -76233,7 +76237,9 @@
       <c r="Q1353" t="n">
         <v>0</v>
       </c>
-      <c r="R1353" t="inlineStr"/>
+      <c r="R1353" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1354">
       <c r="A1354" s="2" t="n">
@@ -76287,7 +76293,9 @@
       <c r="Q1354" t="n">
         <v>0</v>
       </c>
-      <c r="R1354" t="inlineStr"/>
+      <c r="R1354" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1355">
       <c r="A1355" s="2" t="n">
@@ -76341,7 +76349,9 @@
       <c r="Q1355" t="n">
         <v>0</v>
       </c>
-      <c r="R1355" t="inlineStr"/>
+      <c r="R1355" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1356">
       <c r="A1356" s="2" t="n">
@@ -76395,7 +76405,9 @@
       <c r="Q1356" t="n">
         <v>0</v>
       </c>
-      <c r="R1356" t="inlineStr"/>
+      <c r="R1356" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1357">
       <c r="A1357" s="2" t="n">
@@ -76449,7 +76461,387 @@
       <c r="Q1357" t="n">
         <v>0</v>
       </c>
-      <c r="R1357" t="inlineStr"/>
+      <c r="R1357" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1358">
+      <c r="A1358" s="2" t="n">
+        <v>45484.38541666666</v>
+      </c>
+      <c r="B1358" t="n">
+        <v>295.8500061035156</v>
+      </c>
+      <c r="C1358" t="n">
+        <v>310.5</v>
+      </c>
+      <c r="D1358" t="n">
+        <v>295</v>
+      </c>
+      <c r="E1358" t="n">
+        <v>304.0499877929688</v>
+      </c>
+      <c r="F1358" t="n">
+        <v>304.0499877929688</v>
+      </c>
+      <c r="G1358" t="n">
+        <v>961403</v>
+      </c>
+      <c r="H1358" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1358" t="n">
+        <v>7</v>
+      </c>
+      <c r="J1358" t="n">
+        <v>11</v>
+      </c>
+      <c r="K1358" t="n">
+        <v>9</v>
+      </c>
+      <c r="L1358" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1358" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1358" t="n">
+        <v>28</v>
+      </c>
+      <c r="O1358" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1358" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1358" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1358" t="inlineStr"/>
+    </row>
+    <row r="1359">
+      <c r="A1359" s="2" t="n">
+        <v>45484.42708333334</v>
+      </c>
+      <c r="B1359" t="n">
+        <v>304.0499877929688</v>
+      </c>
+      <c r="C1359" t="n">
+        <v>304.0499877929688</v>
+      </c>
+      <c r="D1359" t="n">
+        <v>299.5499877929688</v>
+      </c>
+      <c r="E1359" t="n">
+        <v>300.75</v>
+      </c>
+      <c r="F1359" t="n">
+        <v>300.75</v>
+      </c>
+      <c r="G1359" t="n">
+        <v>393241</v>
+      </c>
+      <c r="H1359" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1359" t="n">
+        <v>7</v>
+      </c>
+      <c r="J1359" t="n">
+        <v>11</v>
+      </c>
+      <c r="K1359" t="n">
+        <v>10</v>
+      </c>
+      <c r="L1359" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1359" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1359" t="n">
+        <v>28</v>
+      </c>
+      <c r="O1359" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1359" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1359" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1359" t="inlineStr"/>
+    </row>
+    <row r="1360">
+      <c r="A1360" s="2" t="n">
+        <v>45484.46875</v>
+      </c>
+      <c r="B1360" t="n">
+        <v>300.75</v>
+      </c>
+      <c r="C1360" t="n">
+        <v>301.3500061035156</v>
+      </c>
+      <c r="D1360" t="n">
+        <v>299.5</v>
+      </c>
+      <c r="E1360" t="n">
+        <v>300</v>
+      </c>
+      <c r="F1360" t="n">
+        <v>300</v>
+      </c>
+      <c r="G1360" t="n">
+        <v>144189</v>
+      </c>
+      <c r="H1360" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1360" t="n">
+        <v>7</v>
+      </c>
+      <c r="J1360" t="n">
+        <v>11</v>
+      </c>
+      <c r="K1360" t="n">
+        <v>11</v>
+      </c>
+      <c r="L1360" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1360" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1360" t="n">
+        <v>28</v>
+      </c>
+      <c r="O1360" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1360" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1360" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1360" t="inlineStr"/>
+    </row>
+    <row r="1361">
+      <c r="A1361" s="2" t="n">
+        <v>45484.51041666666</v>
+      </c>
+      <c r="B1361" t="n">
+        <v>299.9500122070312</v>
+      </c>
+      <c r="C1361" t="n">
+        <v>300.6000061035156</v>
+      </c>
+      <c r="D1361" t="n">
+        <v>299.25</v>
+      </c>
+      <c r="E1361" t="n">
+        <v>299.5</v>
+      </c>
+      <c r="F1361" t="n">
+        <v>299.5</v>
+      </c>
+      <c r="G1361" t="n">
+        <v>71551</v>
+      </c>
+      <c r="H1361" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1361" t="n">
+        <v>7</v>
+      </c>
+      <c r="J1361" t="n">
+        <v>11</v>
+      </c>
+      <c r="K1361" t="n">
+        <v>12</v>
+      </c>
+      <c r="L1361" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1361" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1361" t="n">
+        <v>28</v>
+      </c>
+      <c r="O1361" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1361" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1361" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1361" t="inlineStr"/>
+    </row>
+    <row r="1362">
+      <c r="A1362" s="2" t="n">
+        <v>45484.55208333334</v>
+      </c>
+      <c r="B1362" t="n">
+        <v>299.7999877929688</v>
+      </c>
+      <c r="C1362" t="n">
+        <v>300.2999877929688</v>
+      </c>
+      <c r="D1362" t="n">
+        <v>298.9500122070312</v>
+      </c>
+      <c r="E1362" t="n">
+        <v>299.6499938964844</v>
+      </c>
+      <c r="F1362" t="n">
+        <v>299.6499938964844</v>
+      </c>
+      <c r="G1362" t="n">
+        <v>98668</v>
+      </c>
+      <c r="H1362" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1362" t="n">
+        <v>7</v>
+      </c>
+      <c r="J1362" t="n">
+        <v>11</v>
+      </c>
+      <c r="K1362" t="n">
+        <v>13</v>
+      </c>
+      <c r="L1362" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1362" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1362" t="n">
+        <v>28</v>
+      </c>
+      <c r="O1362" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1362" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1362" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1362" t="inlineStr"/>
+    </row>
+    <row r="1363">
+      <c r="A1363" s="2" t="n">
+        <v>45484.59375</v>
+      </c>
+      <c r="B1363" t="n">
+        <v>299.2999877929688</v>
+      </c>
+      <c r="C1363" t="n">
+        <v>301.1000061035156</v>
+      </c>
+      <c r="D1363" t="n">
+        <v>298.4500122070312</v>
+      </c>
+      <c r="E1363" t="n">
+        <v>299.1000061035156</v>
+      </c>
+      <c r="F1363" t="n">
+        <v>299.1000061035156</v>
+      </c>
+      <c r="G1363" t="n">
+        <v>279326</v>
+      </c>
+      <c r="H1363" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1363" t="n">
+        <v>7</v>
+      </c>
+      <c r="J1363" t="n">
+        <v>11</v>
+      </c>
+      <c r="K1363" t="n">
+        <v>14</v>
+      </c>
+      <c r="L1363" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1363" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1363" t="n">
+        <v>28</v>
+      </c>
+      <c r="O1363" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1363" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1363" t="n">
+        <v>1</v>
+      </c>
+      <c r="R1363" t="inlineStr"/>
+    </row>
+    <row r="1364">
+      <c r="A1364" s="2" t="n">
+        <v>45484.63541666666</v>
+      </c>
+      <c r="B1364" t="n">
+        <v>299.1000061035156</v>
+      </c>
+      <c r="C1364" t="n">
+        <v>300.9500122070312</v>
+      </c>
+      <c r="D1364" t="n">
+        <v>297.1000061035156</v>
+      </c>
+      <c r="E1364" t="n">
+        <v>298.75</v>
+      </c>
+      <c r="F1364" t="n">
+        <v>298.75</v>
+      </c>
+      <c r="G1364" t="n">
+        <v>167588</v>
+      </c>
+      <c r="H1364" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1364" t="n">
+        <v>7</v>
+      </c>
+      <c r="J1364" t="n">
+        <v>11</v>
+      </c>
+      <c r="K1364" t="n">
+        <v>15</v>
+      </c>
+      <c r="L1364" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1364" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1364" t="n">
+        <v>28</v>
+      </c>
+      <c r="O1364" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1364" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1364" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1364" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/60m/ZAGGLE.NS.xlsx
+++ b/stock_historical_data/60m/ZAGGLE.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R1364"/>
+  <dimension ref="A1:R1371"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -76509,7 +76509,7 @@
         <v>28</v>
       </c>
       <c r="O1358" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P1358" t="n">
         <v>0</v>
@@ -76517,7 +76517,9 @@
       <c r="Q1358" t="n">
         <v>0</v>
       </c>
-      <c r="R1358" t="inlineStr"/>
+      <c r="R1358" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1359">
       <c r="A1359" s="2" t="n">
@@ -76571,7 +76573,9 @@
       <c r="Q1359" t="n">
         <v>0</v>
       </c>
-      <c r="R1359" t="inlineStr"/>
+      <c r="R1359" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1360">
       <c r="A1360" s="2" t="n">
@@ -76625,7 +76629,9 @@
       <c r="Q1360" t="n">
         <v>0</v>
       </c>
-      <c r="R1360" t="inlineStr"/>
+      <c r="R1360" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1361">
       <c r="A1361" s="2" t="n">
@@ -76679,7 +76685,9 @@
       <c r="Q1361" t="n">
         <v>0</v>
       </c>
-      <c r="R1361" t="inlineStr"/>
+      <c r="R1361" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1362">
       <c r="A1362" s="2" t="n">
@@ -76733,7 +76741,9 @@
       <c r="Q1362" t="n">
         <v>0</v>
       </c>
-      <c r="R1362" t="inlineStr"/>
+      <c r="R1362" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1363">
       <c r="A1363" s="2" t="n">
@@ -76787,7 +76797,9 @@
       <c r="Q1363" t="n">
         <v>1</v>
       </c>
-      <c r="R1363" t="inlineStr"/>
+      <c r="R1363" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1364">
       <c r="A1364" s="2" t="n">
@@ -76841,7 +76853,387 @@
       <c r="Q1364" t="n">
         <v>0</v>
       </c>
-      <c r="R1364" t="inlineStr"/>
+      <c r="R1364" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1365">
+      <c r="A1365" s="2" t="n">
+        <v>45485.38541666666</v>
+      </c>
+      <c r="B1365" t="n">
+        <v>302</v>
+      </c>
+      <c r="C1365" t="n">
+        <v>307</v>
+      </c>
+      <c r="D1365" t="n">
+        <v>300.25</v>
+      </c>
+      <c r="E1365" t="n">
+        <v>305.25</v>
+      </c>
+      <c r="F1365" t="n">
+        <v>305.25</v>
+      </c>
+      <c r="G1365" t="n">
+        <v>0</v>
+      </c>
+      <c r="H1365" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1365" t="n">
+        <v>7</v>
+      </c>
+      <c r="J1365" t="n">
+        <v>12</v>
+      </c>
+      <c r="K1365" t="n">
+        <v>9</v>
+      </c>
+      <c r="L1365" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1365" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1365" t="n">
+        <v>28</v>
+      </c>
+      <c r="O1365" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1365" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1365" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1365" t="inlineStr"/>
+    </row>
+    <row r="1366">
+      <c r="A1366" s="2" t="n">
+        <v>45485.42708333334</v>
+      </c>
+      <c r="B1366" t="n">
+        <v>305</v>
+      </c>
+      <c r="C1366" t="n">
+        <v>308.0499877929688</v>
+      </c>
+      <c r="D1366" t="n">
+        <v>303.6000061035156</v>
+      </c>
+      <c r="E1366" t="n">
+        <v>304</v>
+      </c>
+      <c r="F1366" t="n">
+        <v>304</v>
+      </c>
+      <c r="G1366" t="n">
+        <v>319693</v>
+      </c>
+      <c r="H1366" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1366" t="n">
+        <v>7</v>
+      </c>
+      <c r="J1366" t="n">
+        <v>12</v>
+      </c>
+      <c r="K1366" t="n">
+        <v>10</v>
+      </c>
+      <c r="L1366" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1366" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1366" t="n">
+        <v>28</v>
+      </c>
+      <c r="O1366" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1366" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1366" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1366" t="inlineStr"/>
+    </row>
+    <row r="1367">
+      <c r="A1367" s="2" t="n">
+        <v>45485.46875</v>
+      </c>
+      <c r="B1367" t="n">
+        <v>304</v>
+      </c>
+      <c r="C1367" t="n">
+        <v>304.9500122070312</v>
+      </c>
+      <c r="D1367" t="n">
+        <v>301.7000122070312</v>
+      </c>
+      <c r="E1367" t="n">
+        <v>301.9500122070312</v>
+      </c>
+      <c r="F1367" t="n">
+        <v>301.9500122070312</v>
+      </c>
+      <c r="G1367" t="n">
+        <v>97464</v>
+      </c>
+      <c r="H1367" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1367" t="n">
+        <v>7</v>
+      </c>
+      <c r="J1367" t="n">
+        <v>12</v>
+      </c>
+      <c r="K1367" t="n">
+        <v>11</v>
+      </c>
+      <c r="L1367" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1367" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1367" t="n">
+        <v>28</v>
+      </c>
+      <c r="O1367" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1367" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1367" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1367" t="inlineStr"/>
+    </row>
+    <row r="1368">
+      <c r="A1368" s="2" t="n">
+        <v>45485.51041666666</v>
+      </c>
+      <c r="B1368" t="n">
+        <v>301.7000122070312</v>
+      </c>
+      <c r="C1368" t="n">
+        <v>302</v>
+      </c>
+      <c r="D1368" t="n">
+        <v>300.1000061035156</v>
+      </c>
+      <c r="E1368" t="n">
+        <v>301.1000061035156</v>
+      </c>
+      <c r="F1368" t="n">
+        <v>301.1000061035156</v>
+      </c>
+      <c r="G1368" t="n">
+        <v>100779</v>
+      </c>
+      <c r="H1368" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1368" t="n">
+        <v>7</v>
+      </c>
+      <c r="J1368" t="n">
+        <v>12</v>
+      </c>
+      <c r="K1368" t="n">
+        <v>12</v>
+      </c>
+      <c r="L1368" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1368" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1368" t="n">
+        <v>28</v>
+      </c>
+      <c r="O1368" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1368" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1368" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1368" t="inlineStr"/>
+    </row>
+    <row r="1369">
+      <c r="A1369" s="2" t="n">
+        <v>45485.55208333334</v>
+      </c>
+      <c r="B1369" t="n">
+        <v>301.1000061035156</v>
+      </c>
+      <c r="C1369" t="n">
+        <v>302.25</v>
+      </c>
+      <c r="D1369" t="n">
+        <v>299.3999938964844</v>
+      </c>
+      <c r="E1369" t="n">
+        <v>300.0499877929688</v>
+      </c>
+      <c r="F1369" t="n">
+        <v>300.0499877929688</v>
+      </c>
+      <c r="G1369" t="n">
+        <v>73977</v>
+      </c>
+      <c r="H1369" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1369" t="n">
+        <v>7</v>
+      </c>
+      <c r="J1369" t="n">
+        <v>12</v>
+      </c>
+      <c r="K1369" t="n">
+        <v>13</v>
+      </c>
+      <c r="L1369" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1369" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1369" t="n">
+        <v>28</v>
+      </c>
+      <c r="O1369" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1369" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q1369" t="n">
+        <v>2</v>
+      </c>
+      <c r="R1369" t="inlineStr"/>
+    </row>
+    <row r="1370">
+      <c r="A1370" s="2" t="n">
+        <v>45485.59375</v>
+      </c>
+      <c r="B1370" t="n">
+        <v>300.0499877929688</v>
+      </c>
+      <c r="C1370" t="n">
+        <v>302</v>
+      </c>
+      <c r="D1370" t="n">
+        <v>299</v>
+      </c>
+      <c r="E1370" t="n">
+        <v>301.4500122070312</v>
+      </c>
+      <c r="F1370" t="n">
+        <v>301.4500122070312</v>
+      </c>
+      <c r="G1370" t="n">
+        <v>178378</v>
+      </c>
+      <c r="H1370" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1370" t="n">
+        <v>7</v>
+      </c>
+      <c r="J1370" t="n">
+        <v>12</v>
+      </c>
+      <c r="K1370" t="n">
+        <v>14</v>
+      </c>
+      <c r="L1370" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1370" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1370" t="n">
+        <v>28</v>
+      </c>
+      <c r="O1370" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1370" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1370" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1370" t="inlineStr"/>
+    </row>
+    <row r="1371">
+      <c r="A1371" s="2" t="n">
+        <v>45485.63541666666</v>
+      </c>
+      <c r="B1371" t="n">
+        <v>301.3999938964844</v>
+      </c>
+      <c r="C1371" t="n">
+        <v>303</v>
+      </c>
+      <c r="D1371" t="n">
+        <v>299.3500061035156</v>
+      </c>
+      <c r="E1371" t="n">
+        <v>301.3500061035156</v>
+      </c>
+      <c r="F1371" t="n">
+        <v>301.3500061035156</v>
+      </c>
+      <c r="G1371" t="n">
+        <v>107026</v>
+      </c>
+      <c r="H1371" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1371" t="n">
+        <v>7</v>
+      </c>
+      <c r="J1371" t="n">
+        <v>12</v>
+      </c>
+      <c r="K1371" t="n">
+        <v>15</v>
+      </c>
+      <c r="L1371" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1371" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1371" t="n">
+        <v>28</v>
+      </c>
+      <c r="O1371" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1371" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1371" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1371" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/60m/ZAGGLE.NS.xlsx
+++ b/stock_historical_data/60m/ZAGGLE.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R1371"/>
+  <dimension ref="A1:R1378"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -76909,7 +76909,9 @@
       <c r="Q1365" t="n">
         <v>0</v>
       </c>
-      <c r="R1365" t="inlineStr"/>
+      <c r="R1365" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1366">
       <c r="A1366" s="2" t="n">
@@ -76963,7 +76965,9 @@
       <c r="Q1366" t="n">
         <v>0</v>
       </c>
-      <c r="R1366" t="inlineStr"/>
+      <c r="R1366" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1367">
       <c r="A1367" s="2" t="n">
@@ -77017,7 +77021,9 @@
       <c r="Q1367" t="n">
         <v>0</v>
       </c>
-      <c r="R1367" t="inlineStr"/>
+      <c r="R1367" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1368">
       <c r="A1368" s="2" t="n">
@@ -77071,7 +77077,9 @@
       <c r="Q1368" t="n">
         <v>0</v>
       </c>
-      <c r="R1368" t="inlineStr"/>
+      <c r="R1368" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1369">
       <c r="A1369" s="2" t="n">
@@ -77125,7 +77133,9 @@
       <c r="Q1369" t="n">
         <v>2</v>
       </c>
-      <c r="R1369" t="inlineStr"/>
+      <c r="R1369" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="1370">
       <c r="A1370" s="2" t="n">
@@ -77179,7 +77189,9 @@
       <c r="Q1370" t="n">
         <v>0</v>
       </c>
-      <c r="R1370" t="inlineStr"/>
+      <c r="R1370" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1371">
       <c r="A1371" s="2" t="n">
@@ -77233,7 +77245,387 @@
       <c r="Q1371" t="n">
         <v>0</v>
       </c>
-      <c r="R1371" t="inlineStr"/>
+      <c r="R1371" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1372">
+      <c r="A1372" s="2" t="n">
+        <v>45488.38541666666</v>
+      </c>
+      <c r="B1372" t="n">
+        <v>306.8500061035156</v>
+      </c>
+      <c r="C1372" t="n">
+        <v>312</v>
+      </c>
+      <c r="D1372" t="n">
+        <v>301.6000061035156</v>
+      </c>
+      <c r="E1372" t="n">
+        <v>308.9500122070312</v>
+      </c>
+      <c r="F1372" t="n">
+        <v>308.9500122070312</v>
+      </c>
+      <c r="G1372" t="n">
+        <v>1283282</v>
+      </c>
+      <c r="H1372" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1372" t="n">
+        <v>7</v>
+      </c>
+      <c r="J1372" t="n">
+        <v>15</v>
+      </c>
+      <c r="K1372" t="n">
+        <v>9</v>
+      </c>
+      <c r="L1372" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1372" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1372" t="n">
+        <v>29</v>
+      </c>
+      <c r="O1372" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1372" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1372" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1372" t="inlineStr"/>
+    </row>
+    <row r="1373">
+      <c r="A1373" s="2" t="n">
+        <v>45488.42708333334</v>
+      </c>
+      <c r="B1373" t="n">
+        <v>309</v>
+      </c>
+      <c r="C1373" t="n">
+        <v>316.8999938964844</v>
+      </c>
+      <c r="D1373" t="n">
+        <v>307.0499877929688</v>
+      </c>
+      <c r="E1373" t="n">
+        <v>312.8500061035156</v>
+      </c>
+      <c r="F1373" t="n">
+        <v>312.8500061035156</v>
+      </c>
+      <c r="G1373" t="n">
+        <v>1556621</v>
+      </c>
+      <c r="H1373" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1373" t="n">
+        <v>7</v>
+      </c>
+      <c r="J1373" t="n">
+        <v>15</v>
+      </c>
+      <c r="K1373" t="n">
+        <v>10</v>
+      </c>
+      <c r="L1373" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1373" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1373" t="n">
+        <v>29</v>
+      </c>
+      <c r="O1373" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1373" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1373" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1373" t="inlineStr"/>
+    </row>
+    <row r="1374">
+      <c r="A1374" s="2" t="n">
+        <v>45488.46875</v>
+      </c>
+      <c r="B1374" t="n">
+        <v>312.8500061035156</v>
+      </c>
+      <c r="C1374" t="n">
+        <v>319.7000122070312</v>
+      </c>
+      <c r="D1374" t="n">
+        <v>312.5</v>
+      </c>
+      <c r="E1374" t="n">
+        <v>313.0499877929688</v>
+      </c>
+      <c r="F1374" t="n">
+        <v>313.0499877929688</v>
+      </c>
+      <c r="G1374" t="n">
+        <v>994030</v>
+      </c>
+      <c r="H1374" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1374" t="n">
+        <v>7</v>
+      </c>
+      <c r="J1374" t="n">
+        <v>15</v>
+      </c>
+      <c r="K1374" t="n">
+        <v>11</v>
+      </c>
+      <c r="L1374" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1374" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1374" t="n">
+        <v>29</v>
+      </c>
+      <c r="O1374" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1374" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1374" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1374" t="inlineStr"/>
+    </row>
+    <row r="1375">
+      <c r="A1375" s="2" t="n">
+        <v>45488.51041666666</v>
+      </c>
+      <c r="B1375" t="n">
+        <v>313.2999877929688</v>
+      </c>
+      <c r="C1375" t="n">
+        <v>314.9500122070312</v>
+      </c>
+      <c r="D1375" t="n">
+        <v>312</v>
+      </c>
+      <c r="E1375" t="n">
+        <v>312.4500122070312</v>
+      </c>
+      <c r="F1375" t="n">
+        <v>312.4500122070312</v>
+      </c>
+      <c r="G1375" t="n">
+        <v>292201</v>
+      </c>
+      <c r="H1375" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1375" t="n">
+        <v>7</v>
+      </c>
+      <c r="J1375" t="n">
+        <v>15</v>
+      </c>
+      <c r="K1375" t="n">
+        <v>12</v>
+      </c>
+      <c r="L1375" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1375" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1375" t="n">
+        <v>29</v>
+      </c>
+      <c r="O1375" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1375" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1375" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1375" t="inlineStr"/>
+    </row>
+    <row r="1376">
+      <c r="A1376" s="2" t="n">
+        <v>45488.55208333334</v>
+      </c>
+      <c r="B1376" t="n">
+        <v>313</v>
+      </c>
+      <c r="C1376" t="n">
+        <v>315.4500122070312</v>
+      </c>
+      <c r="D1376" t="n">
+        <v>312.6000061035156</v>
+      </c>
+      <c r="E1376" t="n">
+        <v>313.3500061035156</v>
+      </c>
+      <c r="F1376" t="n">
+        <v>313.3500061035156</v>
+      </c>
+      <c r="G1376" t="n">
+        <v>220366</v>
+      </c>
+      <c r="H1376" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1376" t="n">
+        <v>7</v>
+      </c>
+      <c r="J1376" t="n">
+        <v>15</v>
+      </c>
+      <c r="K1376" t="n">
+        <v>13</v>
+      </c>
+      <c r="L1376" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1376" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1376" t="n">
+        <v>29</v>
+      </c>
+      <c r="O1376" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1376" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1376" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1376" t="inlineStr"/>
+    </row>
+    <row r="1377">
+      <c r="A1377" s="2" t="n">
+        <v>45488.59375</v>
+      </c>
+      <c r="B1377" t="n">
+        <v>313.1499938964844</v>
+      </c>
+      <c r="C1377" t="n">
+        <v>313.1499938964844</v>
+      </c>
+      <c r="D1377" t="n">
+        <v>308</v>
+      </c>
+      <c r="E1377" t="n">
+        <v>308</v>
+      </c>
+      <c r="F1377" t="n">
+        <v>308</v>
+      </c>
+      <c r="G1377" t="n">
+        <v>508655</v>
+      </c>
+      <c r="H1377" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1377" t="n">
+        <v>7</v>
+      </c>
+      <c r="J1377" t="n">
+        <v>15</v>
+      </c>
+      <c r="K1377" t="n">
+        <v>14</v>
+      </c>
+      <c r="L1377" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1377" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1377" t="n">
+        <v>29</v>
+      </c>
+      <c r="O1377" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1377" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1377" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1377" t="inlineStr"/>
+    </row>
+    <row r="1378">
+      <c r="A1378" s="2" t="n">
+        <v>45488.63541666666</v>
+      </c>
+      <c r="B1378" t="n">
+        <v>308.1499938964844</v>
+      </c>
+      <c r="C1378" t="n">
+        <v>311.1000061035156</v>
+      </c>
+      <c r="D1378" t="n">
+        <v>308</v>
+      </c>
+      <c r="E1378" t="n">
+        <v>309.3500061035156</v>
+      </c>
+      <c r="F1378" t="n">
+        <v>309.3500061035156</v>
+      </c>
+      <c r="G1378" t="n">
+        <v>239164</v>
+      </c>
+      <c r="H1378" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1378" t="n">
+        <v>7</v>
+      </c>
+      <c r="J1378" t="n">
+        <v>15</v>
+      </c>
+      <c r="K1378" t="n">
+        <v>15</v>
+      </c>
+      <c r="L1378" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1378" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1378" t="n">
+        <v>29</v>
+      </c>
+      <c r="O1378" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1378" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1378" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1378" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/60m/ZAGGLE.NS.xlsx
+++ b/stock_historical_data/60m/ZAGGLE.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R1378"/>
+  <dimension ref="A1:R1385"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -77301,7 +77301,9 @@
       <c r="Q1372" t="n">
         <v>0</v>
       </c>
-      <c r="R1372" t="inlineStr"/>
+      <c r="R1372" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1373">
       <c r="A1373" s="2" t="n">
@@ -77355,7 +77357,9 @@
       <c r="Q1373" t="n">
         <v>0</v>
       </c>
-      <c r="R1373" t="inlineStr"/>
+      <c r="R1373" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1374">
       <c r="A1374" s="2" t="n">
@@ -77409,7 +77413,9 @@
       <c r="Q1374" t="n">
         <v>0</v>
       </c>
-      <c r="R1374" t="inlineStr"/>
+      <c r="R1374" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1375">
       <c r="A1375" s="2" t="n">
@@ -77463,7 +77469,9 @@
       <c r="Q1375" t="n">
         <v>0</v>
       </c>
-      <c r="R1375" t="inlineStr"/>
+      <c r="R1375" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1376">
       <c r="A1376" s="2" t="n">
@@ -77517,7 +77525,9 @@
       <c r="Q1376" t="n">
         <v>0</v>
       </c>
-      <c r="R1376" t="inlineStr"/>
+      <c r="R1376" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1377">
       <c r="A1377" s="2" t="n">
@@ -77571,7 +77581,9 @@
       <c r="Q1377" t="n">
         <v>0</v>
       </c>
-      <c r="R1377" t="inlineStr"/>
+      <c r="R1377" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1378">
       <c r="A1378" s="2" t="n">
@@ -77625,7 +77637,387 @@
       <c r="Q1378" t="n">
         <v>0</v>
       </c>
-      <c r="R1378" t="inlineStr"/>
+      <c r="R1378" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1379">
+      <c r="A1379" s="2" t="n">
+        <v>45489.38541666666</v>
+      </c>
+      <c r="B1379" t="n">
+        <v>312</v>
+      </c>
+      <c r="C1379" t="n">
+        <v>312</v>
+      </c>
+      <c r="D1379" t="n">
+        <v>306.0499877929688</v>
+      </c>
+      <c r="E1379" t="n">
+        <v>308.1000061035156</v>
+      </c>
+      <c r="F1379" t="n">
+        <v>308.1000061035156</v>
+      </c>
+      <c r="G1379" t="n">
+        <v>438872</v>
+      </c>
+      <c r="H1379" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1379" t="n">
+        <v>7</v>
+      </c>
+      <c r="J1379" t="n">
+        <v>16</v>
+      </c>
+      <c r="K1379" t="n">
+        <v>9</v>
+      </c>
+      <c r="L1379" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1379" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1379" t="n">
+        <v>29</v>
+      </c>
+      <c r="O1379" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1379" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1379" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1379" t="inlineStr"/>
+    </row>
+    <row r="1380">
+      <c r="A1380" s="2" t="n">
+        <v>45489.42708333334</v>
+      </c>
+      <c r="B1380" t="n">
+        <v>308.1000061035156</v>
+      </c>
+      <c r="C1380" t="n">
+        <v>311.8999938964844</v>
+      </c>
+      <c r="D1380" t="n">
+        <v>308</v>
+      </c>
+      <c r="E1380" t="n">
+        <v>311.7000122070312</v>
+      </c>
+      <c r="F1380" t="n">
+        <v>311.7000122070312</v>
+      </c>
+      <c r="G1380" t="n">
+        <v>287229</v>
+      </c>
+      <c r="H1380" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1380" t="n">
+        <v>7</v>
+      </c>
+      <c r="J1380" t="n">
+        <v>16</v>
+      </c>
+      <c r="K1380" t="n">
+        <v>10</v>
+      </c>
+      <c r="L1380" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1380" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1380" t="n">
+        <v>29</v>
+      </c>
+      <c r="O1380" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1380" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1380" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1380" t="inlineStr"/>
+    </row>
+    <row r="1381">
+      <c r="A1381" s="2" t="n">
+        <v>45489.46875</v>
+      </c>
+      <c r="B1381" t="n">
+        <v>312</v>
+      </c>
+      <c r="C1381" t="n">
+        <v>316.4500122070312</v>
+      </c>
+      <c r="D1381" t="n">
+        <v>311.7000122070312</v>
+      </c>
+      <c r="E1381" t="n">
+        <v>315.0499877929688</v>
+      </c>
+      <c r="F1381" t="n">
+        <v>315.0499877929688</v>
+      </c>
+      <c r="G1381" t="n">
+        <v>513614</v>
+      </c>
+      <c r="H1381" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1381" t="n">
+        <v>7</v>
+      </c>
+      <c r="J1381" t="n">
+        <v>16</v>
+      </c>
+      <c r="K1381" t="n">
+        <v>11</v>
+      </c>
+      <c r="L1381" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1381" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1381" t="n">
+        <v>29</v>
+      </c>
+      <c r="O1381" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1381" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1381" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1381" t="inlineStr"/>
+    </row>
+    <row r="1382">
+      <c r="A1382" s="2" t="n">
+        <v>45489.51041666666</v>
+      </c>
+      <c r="B1382" t="n">
+        <v>315</v>
+      </c>
+      <c r="C1382" t="n">
+        <v>316</v>
+      </c>
+      <c r="D1382" t="n">
+        <v>313.1499938964844</v>
+      </c>
+      <c r="E1382" t="n">
+        <v>313.9500122070312</v>
+      </c>
+      <c r="F1382" t="n">
+        <v>313.9500122070312</v>
+      </c>
+      <c r="G1382" t="n">
+        <v>225984</v>
+      </c>
+      <c r="H1382" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1382" t="n">
+        <v>7</v>
+      </c>
+      <c r="J1382" t="n">
+        <v>16</v>
+      </c>
+      <c r="K1382" t="n">
+        <v>12</v>
+      </c>
+      <c r="L1382" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1382" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1382" t="n">
+        <v>29</v>
+      </c>
+      <c r="O1382" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1382" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1382" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1382" t="inlineStr"/>
+    </row>
+    <row r="1383">
+      <c r="A1383" s="2" t="n">
+        <v>45489.55208333334</v>
+      </c>
+      <c r="B1383" t="n">
+        <v>314.0499877929688</v>
+      </c>
+      <c r="C1383" t="n">
+        <v>314.6000061035156</v>
+      </c>
+      <c r="D1383" t="n">
+        <v>313.5499877929688</v>
+      </c>
+      <c r="E1383" t="n">
+        <v>313.9500122070312</v>
+      </c>
+      <c r="F1383" t="n">
+        <v>313.9500122070312</v>
+      </c>
+      <c r="G1383" t="n">
+        <v>150456</v>
+      </c>
+      <c r="H1383" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1383" t="n">
+        <v>7</v>
+      </c>
+      <c r="J1383" t="n">
+        <v>16</v>
+      </c>
+      <c r="K1383" t="n">
+        <v>13</v>
+      </c>
+      <c r="L1383" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1383" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1383" t="n">
+        <v>29</v>
+      </c>
+      <c r="O1383" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1383" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1383" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1383" t="inlineStr"/>
+    </row>
+    <row r="1384">
+      <c r="A1384" s="2" t="n">
+        <v>45489.59375</v>
+      </c>
+      <c r="B1384" t="n">
+        <v>314.0499877929688</v>
+      </c>
+      <c r="C1384" t="n">
+        <v>329.3999938964844</v>
+      </c>
+      <c r="D1384" t="n">
+        <v>313.8999938964844</v>
+      </c>
+      <c r="E1384" t="n">
+        <v>325</v>
+      </c>
+      <c r="F1384" t="n">
+        <v>325</v>
+      </c>
+      <c r="G1384" t="n">
+        <v>2413695</v>
+      </c>
+      <c r="H1384" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1384" t="n">
+        <v>7</v>
+      </c>
+      <c r="J1384" t="n">
+        <v>16</v>
+      </c>
+      <c r="K1384" t="n">
+        <v>14</v>
+      </c>
+      <c r="L1384" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1384" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1384" t="n">
+        <v>29</v>
+      </c>
+      <c r="O1384" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1384" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1384" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1384" t="inlineStr"/>
+    </row>
+    <row r="1385">
+      <c r="A1385" s="2" t="n">
+        <v>45489.63541666666</v>
+      </c>
+      <c r="B1385" t="n">
+        <v>325</v>
+      </c>
+      <c r="C1385" t="n">
+        <v>327.7999877929688</v>
+      </c>
+      <c r="D1385" t="n">
+        <v>325</v>
+      </c>
+      <c r="E1385" t="n">
+        <v>326.4500122070312</v>
+      </c>
+      <c r="F1385" t="n">
+        <v>326.4500122070312</v>
+      </c>
+      <c r="G1385" t="n">
+        <v>726397</v>
+      </c>
+      <c r="H1385" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1385" t="n">
+        <v>7</v>
+      </c>
+      <c r="J1385" t="n">
+        <v>16</v>
+      </c>
+      <c r="K1385" t="n">
+        <v>15</v>
+      </c>
+      <c r="L1385" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1385" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1385" t="n">
+        <v>29</v>
+      </c>
+      <c r="O1385" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1385" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1385" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1385" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/60m/ZAGGLE.NS.xlsx
+++ b/stock_historical_data/60m/ZAGGLE.NS.xlsx
@@ -77693,7 +77693,9 @@
       <c r="Q1379" t="n">
         <v>0</v>
       </c>
-      <c r="R1379" t="inlineStr"/>
+      <c r="R1379" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1380">
       <c r="A1380" s="2" t="n">
@@ -77747,7 +77749,9 @@
       <c r="Q1380" t="n">
         <v>0</v>
       </c>
-      <c r="R1380" t="inlineStr"/>
+      <c r="R1380" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1381">
       <c r="A1381" s="2" t="n">
@@ -77801,7 +77805,9 @@
       <c r="Q1381" t="n">
         <v>0</v>
       </c>
-      <c r="R1381" t="inlineStr"/>
+      <c r="R1381" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1382">
       <c r="A1382" s="2" t="n">
@@ -77855,7 +77861,9 @@
       <c r="Q1382" t="n">
         <v>0</v>
       </c>
-      <c r="R1382" t="inlineStr"/>
+      <c r="R1382" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1383">
       <c r="A1383" s="2" t="n">
@@ -77909,7 +77917,9 @@
       <c r="Q1383" t="n">
         <v>0</v>
       </c>
-      <c r="R1383" t="inlineStr"/>
+      <c r="R1383" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1384">
       <c r="A1384" s="2" t="n">
@@ -77963,7 +77973,9 @@
       <c r="Q1384" t="n">
         <v>0</v>
       </c>
-      <c r="R1384" t="inlineStr"/>
+      <c r="R1384" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1385">
       <c r="A1385" s="2" t="n">
@@ -78017,7 +78029,9 @@
       <c r="Q1385" t="n">
         <v>0</v>
       </c>
-      <c r="R1385" t="inlineStr"/>
+      <c r="R1385" t="n">
+        <v>0</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/60m/ZAGGLE.NS.xlsx
+++ b/stock_historical_data/60m/ZAGGLE.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R1385"/>
+  <dimension ref="A1:R1392"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -78033,6 +78033,384 @@
         <v>0</v>
       </c>
     </row>
+    <row r="1386">
+      <c r="A1386" s="2" t="n">
+        <v>45491.38541666666</v>
+      </c>
+      <c r="B1386" t="n">
+        <v>326.5</v>
+      </c>
+      <c r="C1386" t="n">
+        <v>326.5</v>
+      </c>
+      <c r="D1386" t="n">
+        <v>311.8999938964844</v>
+      </c>
+      <c r="E1386" t="n">
+        <v>318.2999877929688</v>
+      </c>
+      <c r="F1386" t="n">
+        <v>318.2999877929688</v>
+      </c>
+      <c r="G1386" t="n">
+        <v>0</v>
+      </c>
+      <c r="H1386" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1386" t="n">
+        <v>7</v>
+      </c>
+      <c r="J1386" t="n">
+        <v>18</v>
+      </c>
+      <c r="K1386" t="n">
+        <v>9</v>
+      </c>
+      <c r="L1386" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1386" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1386" t="n">
+        <v>29</v>
+      </c>
+      <c r="O1386" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1386" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1386" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1386" t="inlineStr"/>
+    </row>
+    <row r="1387">
+      <c r="A1387" s="2" t="n">
+        <v>45491.42708333334</v>
+      </c>
+      <c r="B1387" t="n">
+        <v>318.5499877929688</v>
+      </c>
+      <c r="C1387" t="n">
+        <v>321.6000061035156</v>
+      </c>
+      <c r="D1387" t="n">
+        <v>311.5</v>
+      </c>
+      <c r="E1387" t="n">
+        <v>312.7000122070312</v>
+      </c>
+      <c r="F1387" t="n">
+        <v>312.7000122070312</v>
+      </c>
+      <c r="G1387" t="n">
+        <v>430532</v>
+      </c>
+      <c r="H1387" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1387" t="n">
+        <v>7</v>
+      </c>
+      <c r="J1387" t="n">
+        <v>18</v>
+      </c>
+      <c r="K1387" t="n">
+        <v>10</v>
+      </c>
+      <c r="L1387" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1387" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1387" t="n">
+        <v>29</v>
+      </c>
+      <c r="O1387" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1387" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1387" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1387" t="inlineStr"/>
+    </row>
+    <row r="1388">
+      <c r="A1388" s="2" t="n">
+        <v>45491.46875</v>
+      </c>
+      <c r="B1388" t="n">
+        <v>312.7000122070312</v>
+      </c>
+      <c r="C1388" t="n">
+        <v>313.7000122070312</v>
+      </c>
+      <c r="D1388" t="n">
+        <v>309.2000122070312</v>
+      </c>
+      <c r="E1388" t="n">
+        <v>313.5</v>
+      </c>
+      <c r="F1388" t="n">
+        <v>313.5</v>
+      </c>
+      <c r="G1388" t="n">
+        <v>452376</v>
+      </c>
+      <c r="H1388" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1388" t="n">
+        <v>7</v>
+      </c>
+      <c r="J1388" t="n">
+        <v>18</v>
+      </c>
+      <c r="K1388" t="n">
+        <v>11</v>
+      </c>
+      <c r="L1388" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1388" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1388" t="n">
+        <v>29</v>
+      </c>
+      <c r="O1388" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1388" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1388" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1388" t="inlineStr"/>
+    </row>
+    <row r="1389">
+      <c r="A1389" s="2" t="n">
+        <v>45491.51041666666</v>
+      </c>
+      <c r="B1389" t="n">
+        <v>313.5</v>
+      </c>
+      <c r="C1389" t="n">
+        <v>317.4500122070312</v>
+      </c>
+      <c r="D1389" t="n">
+        <v>312.3500061035156</v>
+      </c>
+      <c r="E1389" t="n">
+        <v>317.25</v>
+      </c>
+      <c r="F1389" t="n">
+        <v>317.25</v>
+      </c>
+      <c r="G1389" t="n">
+        <v>216591</v>
+      </c>
+      <c r="H1389" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1389" t="n">
+        <v>7</v>
+      </c>
+      <c r="J1389" t="n">
+        <v>18</v>
+      </c>
+      <c r="K1389" t="n">
+        <v>12</v>
+      </c>
+      <c r="L1389" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1389" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1389" t="n">
+        <v>29</v>
+      </c>
+      <c r="O1389" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1389" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1389" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1389" t="inlineStr"/>
+    </row>
+    <row r="1390">
+      <c r="A1390" s="2" t="n">
+        <v>45491.55208333334</v>
+      </c>
+      <c r="B1390" t="n">
+        <v>317.1499938964844</v>
+      </c>
+      <c r="C1390" t="n">
+        <v>318.4500122070312</v>
+      </c>
+      <c r="D1390" t="n">
+        <v>315.6000061035156</v>
+      </c>
+      <c r="E1390" t="n">
+        <v>316.5</v>
+      </c>
+      <c r="F1390" t="n">
+        <v>316.5</v>
+      </c>
+      <c r="G1390" t="n">
+        <v>147354</v>
+      </c>
+      <c r="H1390" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1390" t="n">
+        <v>7</v>
+      </c>
+      <c r="J1390" t="n">
+        <v>18</v>
+      </c>
+      <c r="K1390" t="n">
+        <v>13</v>
+      </c>
+      <c r="L1390" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1390" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1390" t="n">
+        <v>29</v>
+      </c>
+      <c r="O1390" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1390" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1390" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1390" t="inlineStr"/>
+    </row>
+    <row r="1391">
+      <c r="A1391" s="2" t="n">
+        <v>45491.59375</v>
+      </c>
+      <c r="B1391" t="n">
+        <v>316.5</v>
+      </c>
+      <c r="C1391" t="n">
+        <v>319.3999938964844</v>
+      </c>
+      <c r="D1391" t="n">
+        <v>313.8999938964844</v>
+      </c>
+      <c r="E1391" t="n">
+        <v>314.1499938964844</v>
+      </c>
+      <c r="F1391" t="n">
+        <v>314.1499938964844</v>
+      </c>
+      <c r="G1391" t="n">
+        <v>299614</v>
+      </c>
+      <c r="H1391" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1391" t="n">
+        <v>7</v>
+      </c>
+      <c r="J1391" t="n">
+        <v>18</v>
+      </c>
+      <c r="K1391" t="n">
+        <v>14</v>
+      </c>
+      <c r="L1391" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1391" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1391" t="n">
+        <v>29</v>
+      </c>
+      <c r="O1391" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1391" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1391" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1391" t="inlineStr"/>
+    </row>
+    <row r="1392">
+      <c r="A1392" s="2" t="n">
+        <v>45491.63541666666</v>
+      </c>
+      <c r="B1392" t="n">
+        <v>314.0499877929688</v>
+      </c>
+      <c r="C1392" t="n">
+        <v>315.3999938964844</v>
+      </c>
+      <c r="D1392" t="n">
+        <v>312.3500061035156</v>
+      </c>
+      <c r="E1392" t="n">
+        <v>315.3999938964844</v>
+      </c>
+      <c r="F1392" t="n">
+        <v>315.3999938964844</v>
+      </c>
+      <c r="G1392" t="n">
+        <v>140444</v>
+      </c>
+      <c r="H1392" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1392" t="n">
+        <v>7</v>
+      </c>
+      <c r="J1392" t="n">
+        <v>18</v>
+      </c>
+      <c r="K1392" t="n">
+        <v>15</v>
+      </c>
+      <c r="L1392" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1392" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1392" t="n">
+        <v>29</v>
+      </c>
+      <c r="O1392" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1392" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1392" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1392" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/stock_historical_data/60m/ZAGGLE.NS.xlsx
+++ b/stock_historical_data/60m/ZAGGLE.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R1392"/>
+  <dimension ref="A1:R1399"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -77965,7 +77965,7 @@
         <v>29</v>
       </c>
       <c r="O1384" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P1384" t="n">
         <v>0</v>
@@ -78085,7 +78085,9 @@
       <c r="Q1386" t="n">
         <v>0</v>
       </c>
-      <c r="R1386" t="inlineStr"/>
+      <c r="R1386" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1387">
       <c r="A1387" s="2" t="n">
@@ -78139,7 +78141,9 @@
       <c r="Q1387" t="n">
         <v>0</v>
       </c>
-      <c r="R1387" t="inlineStr"/>
+      <c r="R1387" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1388">
       <c r="A1388" s="2" t="n">
@@ -78193,7 +78197,9 @@
       <c r="Q1388" t="n">
         <v>0</v>
       </c>
-      <c r="R1388" t="inlineStr"/>
+      <c r="R1388" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1389">
       <c r="A1389" s="2" t="n">
@@ -78247,7 +78253,9 @@
       <c r="Q1389" t="n">
         <v>0</v>
       </c>
-      <c r="R1389" t="inlineStr"/>
+      <c r="R1389" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1390">
       <c r="A1390" s="2" t="n">
@@ -78301,7 +78309,9 @@
       <c r="Q1390" t="n">
         <v>0</v>
       </c>
-      <c r="R1390" t="inlineStr"/>
+      <c r="R1390" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1391">
       <c r="A1391" s="2" t="n">
@@ -78355,7 +78365,9 @@
       <c r="Q1391" t="n">
         <v>0</v>
       </c>
-      <c r="R1391" t="inlineStr"/>
+      <c r="R1391" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1392">
       <c r="A1392" s="2" t="n">
@@ -78409,7 +78421,387 @@
       <c r="Q1392" t="n">
         <v>0</v>
       </c>
-      <c r="R1392" t="inlineStr"/>
+      <c r="R1392" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1393">
+      <c r="A1393" s="2" t="n">
+        <v>45492.38541666666</v>
+      </c>
+      <c r="B1393" t="n">
+        <v>312</v>
+      </c>
+      <c r="C1393" t="n">
+        <v>312</v>
+      </c>
+      <c r="D1393" t="n">
+        <v>303.1000061035156</v>
+      </c>
+      <c r="E1393" t="n">
+        <v>305</v>
+      </c>
+      <c r="F1393" t="n">
+        <v>305</v>
+      </c>
+      <c r="G1393" t="n">
+        <v>0</v>
+      </c>
+      <c r="H1393" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1393" t="n">
+        <v>7</v>
+      </c>
+      <c r="J1393" t="n">
+        <v>19</v>
+      </c>
+      <c r="K1393" t="n">
+        <v>9</v>
+      </c>
+      <c r="L1393" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1393" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1393" t="n">
+        <v>29</v>
+      </c>
+      <c r="O1393" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1393" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1393" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1393" t="inlineStr"/>
+    </row>
+    <row r="1394">
+      <c r="A1394" s="2" t="n">
+        <v>45492.42708333334</v>
+      </c>
+      <c r="B1394" t="n">
+        <v>305</v>
+      </c>
+      <c r="C1394" t="n">
+        <v>307.7999877929688</v>
+      </c>
+      <c r="D1394" t="n">
+        <v>304.3999938964844</v>
+      </c>
+      <c r="E1394" t="n">
+        <v>305.9500122070312</v>
+      </c>
+      <c r="F1394" t="n">
+        <v>305.9500122070312</v>
+      </c>
+      <c r="G1394" t="n">
+        <v>250745</v>
+      </c>
+      <c r="H1394" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1394" t="n">
+        <v>7</v>
+      </c>
+      <c r="J1394" t="n">
+        <v>19</v>
+      </c>
+      <c r="K1394" t="n">
+        <v>10</v>
+      </c>
+      <c r="L1394" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1394" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1394" t="n">
+        <v>29</v>
+      </c>
+      <c r="O1394" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1394" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1394" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1394" t="inlineStr"/>
+    </row>
+    <row r="1395">
+      <c r="A1395" s="2" t="n">
+        <v>45492.46875</v>
+      </c>
+      <c r="B1395" t="n">
+        <v>305.7000122070312</v>
+      </c>
+      <c r="C1395" t="n">
+        <v>308.6000061035156</v>
+      </c>
+      <c r="D1395" t="n">
+        <v>305.7000122070312</v>
+      </c>
+      <c r="E1395" t="n">
+        <v>308.5</v>
+      </c>
+      <c r="F1395" t="n">
+        <v>308.5</v>
+      </c>
+      <c r="G1395" t="n">
+        <v>137066</v>
+      </c>
+      <c r="H1395" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1395" t="n">
+        <v>7</v>
+      </c>
+      <c r="J1395" t="n">
+        <v>19</v>
+      </c>
+      <c r="K1395" t="n">
+        <v>11</v>
+      </c>
+      <c r="L1395" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1395" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1395" t="n">
+        <v>29</v>
+      </c>
+      <c r="O1395" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1395" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1395" t="n">
+        <v>2</v>
+      </c>
+      <c r="R1395" t="inlineStr"/>
+    </row>
+    <row r="1396">
+      <c r="A1396" s="2" t="n">
+        <v>45492.51041666666</v>
+      </c>
+      <c r="B1396" t="n">
+        <v>308.5499877929688</v>
+      </c>
+      <c r="C1396" t="n">
+        <v>308.9500122070312</v>
+      </c>
+      <c r="D1396" t="n">
+        <v>305.1499938964844</v>
+      </c>
+      <c r="E1396" t="n">
+        <v>306</v>
+      </c>
+      <c r="F1396" t="n">
+        <v>306</v>
+      </c>
+      <c r="G1396" t="n">
+        <v>93719</v>
+      </c>
+      <c r="H1396" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1396" t="n">
+        <v>7</v>
+      </c>
+      <c r="J1396" t="n">
+        <v>19</v>
+      </c>
+      <c r="K1396" t="n">
+        <v>12</v>
+      </c>
+      <c r="L1396" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1396" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1396" t="n">
+        <v>29</v>
+      </c>
+      <c r="O1396" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1396" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1396" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1396" t="inlineStr"/>
+    </row>
+    <row r="1397">
+      <c r="A1397" s="2" t="n">
+        <v>45492.55208333334</v>
+      </c>
+      <c r="B1397" t="n">
+        <v>306</v>
+      </c>
+      <c r="C1397" t="n">
+        <v>308.5499877929688</v>
+      </c>
+      <c r="D1397" t="n">
+        <v>304.7999877929688</v>
+      </c>
+      <c r="E1397" t="n">
+        <v>305.2999877929688</v>
+      </c>
+      <c r="F1397" t="n">
+        <v>305.2999877929688</v>
+      </c>
+      <c r="G1397" t="n">
+        <v>99692</v>
+      </c>
+      <c r="H1397" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1397" t="n">
+        <v>7</v>
+      </c>
+      <c r="J1397" t="n">
+        <v>19</v>
+      </c>
+      <c r="K1397" t="n">
+        <v>13</v>
+      </c>
+      <c r="L1397" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1397" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1397" t="n">
+        <v>29</v>
+      </c>
+      <c r="O1397" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1397" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1397" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1397" t="inlineStr"/>
+    </row>
+    <row r="1398">
+      <c r="A1398" s="2" t="n">
+        <v>45492.59375</v>
+      </c>
+      <c r="B1398" t="n">
+        <v>305.2999877929688</v>
+      </c>
+      <c r="C1398" t="n">
+        <v>305.8500061035156</v>
+      </c>
+      <c r="D1398" t="n">
+        <v>301.3500061035156</v>
+      </c>
+      <c r="E1398" t="n">
+        <v>301.3500061035156</v>
+      </c>
+      <c r="F1398" t="n">
+        <v>301.3500061035156</v>
+      </c>
+      <c r="G1398" t="n">
+        <v>248170</v>
+      </c>
+      <c r="H1398" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1398" t="n">
+        <v>7</v>
+      </c>
+      <c r="J1398" t="n">
+        <v>19</v>
+      </c>
+      <c r="K1398" t="n">
+        <v>14</v>
+      </c>
+      <c r="L1398" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1398" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1398" t="n">
+        <v>29</v>
+      </c>
+      <c r="O1398" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1398" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1398" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1398" t="inlineStr"/>
+    </row>
+    <row r="1399">
+      <c r="A1399" s="2" t="n">
+        <v>45492.63541666666</v>
+      </c>
+      <c r="B1399" t="n">
+        <v>301.0499877929688</v>
+      </c>
+      <c r="C1399" t="n">
+        <v>301.0499877929688</v>
+      </c>
+      <c r="D1399" t="n">
+        <v>296.3999938964844</v>
+      </c>
+      <c r="E1399" t="n">
+        <v>299.25</v>
+      </c>
+      <c r="F1399" t="n">
+        <v>299.25</v>
+      </c>
+      <c r="G1399" t="n">
+        <v>324802</v>
+      </c>
+      <c r="H1399" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1399" t="n">
+        <v>7</v>
+      </c>
+      <c r="J1399" t="n">
+        <v>19</v>
+      </c>
+      <c r="K1399" t="n">
+        <v>15</v>
+      </c>
+      <c r="L1399" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1399" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1399" t="n">
+        <v>29</v>
+      </c>
+      <c r="O1399" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1399" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1399" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1399" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/60m/ZAGGLE.NS.xlsx
+++ b/stock_historical_data/60m/ZAGGLE.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R1399"/>
+  <dimension ref="A1:R1406"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -78477,7 +78477,9 @@
       <c r="Q1393" t="n">
         <v>0</v>
       </c>
-      <c r="R1393" t="inlineStr"/>
+      <c r="R1393" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1394">
       <c r="A1394" s="2" t="n">
@@ -78531,7 +78533,9 @@
       <c r="Q1394" t="n">
         <v>0</v>
       </c>
-      <c r="R1394" t="inlineStr"/>
+      <c r="R1394" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1395">
       <c r="A1395" s="2" t="n">
@@ -78585,7 +78589,9 @@
       <c r="Q1395" t="n">
         <v>2</v>
       </c>
-      <c r="R1395" t="inlineStr"/>
+      <c r="R1395" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1396">
       <c r="A1396" s="2" t="n">
@@ -78639,7 +78645,9 @@
       <c r="Q1396" t="n">
         <v>0</v>
       </c>
-      <c r="R1396" t="inlineStr"/>
+      <c r="R1396" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1397">
       <c r="A1397" s="2" t="n">
@@ -78693,7 +78701,9 @@
       <c r="Q1397" t="n">
         <v>0</v>
       </c>
-      <c r="R1397" t="inlineStr"/>
+      <c r="R1397" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1398">
       <c r="A1398" s="2" t="n">
@@ -78747,7 +78757,9 @@
       <c r="Q1398" t="n">
         <v>0</v>
       </c>
-      <c r="R1398" t="inlineStr"/>
+      <c r="R1398" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1399">
       <c r="A1399" s="2" t="n">
@@ -78801,7 +78813,387 @@
       <c r="Q1399" t="n">
         <v>0</v>
       </c>
-      <c r="R1399" t="inlineStr"/>
+      <c r="R1399" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1400">
+      <c r="A1400" s="2" t="n">
+        <v>45495.38541666666</v>
+      </c>
+      <c r="B1400" t="n">
+        <v>295.2999877929688</v>
+      </c>
+      <c r="C1400" t="n">
+        <v>304</v>
+      </c>
+      <c r="D1400" t="n">
+        <v>289.7000122070312</v>
+      </c>
+      <c r="E1400" t="n">
+        <v>302.8999938964844</v>
+      </c>
+      <c r="F1400" t="n">
+        <v>302.8999938964844</v>
+      </c>
+      <c r="G1400" t="n">
+        <v>0</v>
+      </c>
+      <c r="H1400" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1400" t="n">
+        <v>7</v>
+      </c>
+      <c r="J1400" t="n">
+        <v>22</v>
+      </c>
+      <c r="K1400" t="n">
+        <v>9</v>
+      </c>
+      <c r="L1400" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1400" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1400" t="n">
+        <v>30</v>
+      </c>
+      <c r="O1400" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1400" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1400" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1400" t="inlineStr"/>
+    </row>
+    <row r="1401">
+      <c r="A1401" s="2" t="n">
+        <v>45495.42708333334</v>
+      </c>
+      <c r="B1401" t="n">
+        <v>302.6499938964844</v>
+      </c>
+      <c r="C1401" t="n">
+        <v>306.7000122070312</v>
+      </c>
+      <c r="D1401" t="n">
+        <v>302</v>
+      </c>
+      <c r="E1401" t="n">
+        <v>304.9500122070312</v>
+      </c>
+      <c r="F1401" t="n">
+        <v>304.9500122070312</v>
+      </c>
+      <c r="G1401" t="n">
+        <v>152812</v>
+      </c>
+      <c r="H1401" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1401" t="n">
+        <v>7</v>
+      </c>
+      <c r="J1401" t="n">
+        <v>22</v>
+      </c>
+      <c r="K1401" t="n">
+        <v>10</v>
+      </c>
+      <c r="L1401" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1401" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1401" t="n">
+        <v>30</v>
+      </c>
+      <c r="O1401" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1401" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1401" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1401" t="inlineStr"/>
+    </row>
+    <row r="1402">
+      <c r="A1402" s="2" t="n">
+        <v>45495.46875</v>
+      </c>
+      <c r="B1402" t="n">
+        <v>304.7000122070312</v>
+      </c>
+      <c r="C1402" t="n">
+        <v>306.2000122070312</v>
+      </c>
+      <c r="D1402" t="n">
+        <v>304.1000061035156</v>
+      </c>
+      <c r="E1402" t="n">
+        <v>305.5</v>
+      </c>
+      <c r="F1402" t="n">
+        <v>305.5</v>
+      </c>
+      <c r="G1402" t="n">
+        <v>57395</v>
+      </c>
+      <c r="H1402" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1402" t="n">
+        <v>7</v>
+      </c>
+      <c r="J1402" t="n">
+        <v>22</v>
+      </c>
+      <c r="K1402" t="n">
+        <v>11</v>
+      </c>
+      <c r="L1402" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1402" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1402" t="n">
+        <v>30</v>
+      </c>
+      <c r="O1402" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1402" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1402" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1402" t="inlineStr"/>
+    </row>
+    <row r="1403">
+      <c r="A1403" s="2" t="n">
+        <v>45495.51041666666</v>
+      </c>
+      <c r="B1403" t="n">
+        <v>305.1499938964844</v>
+      </c>
+      <c r="C1403" t="n">
+        <v>306</v>
+      </c>
+      <c r="D1403" t="n">
+        <v>299.7000122070312</v>
+      </c>
+      <c r="E1403" t="n">
+        <v>302.75</v>
+      </c>
+      <c r="F1403" t="n">
+        <v>302.75</v>
+      </c>
+      <c r="G1403" t="n">
+        <v>179837</v>
+      </c>
+      <c r="H1403" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1403" t="n">
+        <v>7</v>
+      </c>
+      <c r="J1403" t="n">
+        <v>22</v>
+      </c>
+      <c r="K1403" t="n">
+        <v>12</v>
+      </c>
+      <c r="L1403" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1403" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1403" t="n">
+        <v>30</v>
+      </c>
+      <c r="O1403" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1403" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1403" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1403" t="inlineStr"/>
+    </row>
+    <row r="1404">
+      <c r="A1404" s="2" t="n">
+        <v>45495.55208333334</v>
+      </c>
+      <c r="B1404" t="n">
+        <v>302.7000122070312</v>
+      </c>
+      <c r="C1404" t="n">
+        <v>305.1499938964844</v>
+      </c>
+      <c r="D1404" t="n">
+        <v>301.1000061035156</v>
+      </c>
+      <c r="E1404" t="n">
+        <v>301.5499877929688</v>
+      </c>
+      <c r="F1404" t="n">
+        <v>301.5499877929688</v>
+      </c>
+      <c r="G1404" t="n">
+        <v>83643</v>
+      </c>
+      <c r="H1404" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1404" t="n">
+        <v>7</v>
+      </c>
+      <c r="J1404" t="n">
+        <v>22</v>
+      </c>
+      <c r="K1404" t="n">
+        <v>13</v>
+      </c>
+      <c r="L1404" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1404" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1404" t="n">
+        <v>30</v>
+      </c>
+      <c r="O1404" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1404" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1404" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1404" t="inlineStr"/>
+    </row>
+    <row r="1405">
+      <c r="A1405" s="2" t="n">
+        <v>45495.59375</v>
+      </c>
+      <c r="B1405" t="n">
+        <v>301.5499877929688</v>
+      </c>
+      <c r="C1405" t="n">
+        <v>305.75</v>
+      </c>
+      <c r="D1405" t="n">
+        <v>299.3999938964844</v>
+      </c>
+      <c r="E1405" t="n">
+        <v>302.8999938964844</v>
+      </c>
+      <c r="F1405" t="n">
+        <v>302.8999938964844</v>
+      </c>
+      <c r="G1405" t="n">
+        <v>241115</v>
+      </c>
+      <c r="H1405" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1405" t="n">
+        <v>7</v>
+      </c>
+      <c r="J1405" t="n">
+        <v>22</v>
+      </c>
+      <c r="K1405" t="n">
+        <v>14</v>
+      </c>
+      <c r="L1405" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1405" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1405" t="n">
+        <v>30</v>
+      </c>
+      <c r="O1405" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1405" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1405" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1405" t="inlineStr"/>
+    </row>
+    <row r="1406">
+      <c r="A1406" s="2" t="n">
+        <v>45495.63541666666</v>
+      </c>
+      <c r="B1406" t="n">
+        <v>302.7000122070312</v>
+      </c>
+      <c r="C1406" t="n">
+        <v>302.8999938964844</v>
+      </c>
+      <c r="D1406" t="n">
+        <v>300.5</v>
+      </c>
+      <c r="E1406" t="n">
+        <v>302.5499877929688</v>
+      </c>
+      <c r="F1406" t="n">
+        <v>302.5499877929688</v>
+      </c>
+      <c r="G1406" t="n">
+        <v>119357</v>
+      </c>
+      <c r="H1406" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1406" t="n">
+        <v>7</v>
+      </c>
+      <c r="J1406" t="n">
+        <v>22</v>
+      </c>
+      <c r="K1406" t="n">
+        <v>15</v>
+      </c>
+      <c r="L1406" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1406" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1406" t="n">
+        <v>30</v>
+      </c>
+      <c r="O1406" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1406" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1406" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1406" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/60m/ZAGGLE.NS.xlsx
+++ b/stock_historical_data/60m/ZAGGLE.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R1406"/>
+  <dimension ref="A1:R1413"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -78869,7 +78869,9 @@
       <c r="Q1400" t="n">
         <v>0</v>
       </c>
-      <c r="R1400" t="inlineStr"/>
+      <c r="R1400" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1401">
       <c r="A1401" s="2" t="n">
@@ -78923,7 +78925,9 @@
       <c r="Q1401" t="n">
         <v>0</v>
       </c>
-      <c r="R1401" t="inlineStr"/>
+      <c r="R1401" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1402">
       <c r="A1402" s="2" t="n">
@@ -78977,7 +78981,9 @@
       <c r="Q1402" t="n">
         <v>0</v>
       </c>
-      <c r="R1402" t="inlineStr"/>
+      <c r="R1402" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1403">
       <c r="A1403" s="2" t="n">
@@ -79031,7 +79037,9 @@
       <c r="Q1403" t="n">
         <v>0</v>
       </c>
-      <c r="R1403" t="inlineStr"/>
+      <c r="R1403" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1404">
       <c r="A1404" s="2" t="n">
@@ -79085,7 +79093,9 @@
       <c r="Q1404" t="n">
         <v>0</v>
       </c>
-      <c r="R1404" t="inlineStr"/>
+      <c r="R1404" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1405">
       <c r="A1405" s="2" t="n">
@@ -79139,7 +79149,9 @@
       <c r="Q1405" t="n">
         <v>0</v>
       </c>
-      <c r="R1405" t="inlineStr"/>
+      <c r="R1405" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1406">
       <c r="A1406" s="2" t="n">
@@ -79193,7 +79205,387 @@
       <c r="Q1406" t="n">
         <v>0</v>
       </c>
-      <c r="R1406" t="inlineStr"/>
+      <c r="R1406" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1407">
+      <c r="A1407" s="2" t="n">
+        <v>45496.38541666666</v>
+      </c>
+      <c r="B1407" t="n">
+        <v>302.3500061035156</v>
+      </c>
+      <c r="C1407" t="n">
+        <v>303.0499877929688</v>
+      </c>
+      <c r="D1407" t="n">
+        <v>295.6499938964844</v>
+      </c>
+      <c r="E1407" t="n">
+        <v>296.25</v>
+      </c>
+      <c r="F1407" t="n">
+        <v>296.25</v>
+      </c>
+      <c r="G1407" t="n">
+        <v>200579</v>
+      </c>
+      <c r="H1407" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1407" t="n">
+        <v>7</v>
+      </c>
+      <c r="J1407" t="n">
+        <v>23</v>
+      </c>
+      <c r="K1407" t="n">
+        <v>9</v>
+      </c>
+      <c r="L1407" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1407" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1407" t="n">
+        <v>30</v>
+      </c>
+      <c r="O1407" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1407" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1407" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1407" t="inlineStr"/>
+    </row>
+    <row r="1408">
+      <c r="A1408" s="2" t="n">
+        <v>45496.42708333334</v>
+      </c>
+      <c r="B1408" t="n">
+        <v>296.1499938964844</v>
+      </c>
+      <c r="C1408" t="n">
+        <v>297.75</v>
+      </c>
+      <c r="D1408" t="n">
+        <v>292.3500061035156</v>
+      </c>
+      <c r="E1408" t="n">
+        <v>296.7000122070312</v>
+      </c>
+      <c r="F1408" t="n">
+        <v>296.7000122070312</v>
+      </c>
+      <c r="G1408" t="n">
+        <v>215771</v>
+      </c>
+      <c r="H1408" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1408" t="n">
+        <v>7</v>
+      </c>
+      <c r="J1408" t="n">
+        <v>23</v>
+      </c>
+      <c r="K1408" t="n">
+        <v>10</v>
+      </c>
+      <c r="L1408" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1408" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1408" t="n">
+        <v>30</v>
+      </c>
+      <c r="O1408" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1408" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1408" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1408" t="inlineStr"/>
+    </row>
+    <row r="1409">
+      <c r="A1409" s="2" t="n">
+        <v>45496.46875</v>
+      </c>
+      <c r="B1409" t="n">
+        <v>296.5</v>
+      </c>
+      <c r="C1409" t="n">
+        <v>297.9500122070312</v>
+      </c>
+      <c r="D1409" t="n">
+        <v>294.6000061035156</v>
+      </c>
+      <c r="E1409" t="n">
+        <v>296.8500061035156</v>
+      </c>
+      <c r="F1409" t="n">
+        <v>296.8500061035156</v>
+      </c>
+      <c r="G1409" t="n">
+        <v>86206</v>
+      </c>
+      <c r="H1409" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1409" t="n">
+        <v>7</v>
+      </c>
+      <c r="J1409" t="n">
+        <v>23</v>
+      </c>
+      <c r="K1409" t="n">
+        <v>11</v>
+      </c>
+      <c r="L1409" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1409" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1409" t="n">
+        <v>30</v>
+      </c>
+      <c r="O1409" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1409" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1409" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1409" t="inlineStr"/>
+    </row>
+    <row r="1410">
+      <c r="A1410" s="2" t="n">
+        <v>45496.51041666666</v>
+      </c>
+      <c r="B1410" t="n">
+        <v>296.8500061035156</v>
+      </c>
+      <c r="C1410" t="n">
+        <v>297.0499877929688</v>
+      </c>
+      <c r="D1410" t="n">
+        <v>281.5499877929688</v>
+      </c>
+      <c r="E1410" t="n">
+        <v>293</v>
+      </c>
+      <c r="F1410" t="n">
+        <v>293</v>
+      </c>
+      <c r="G1410" t="n">
+        <v>641364</v>
+      </c>
+      <c r="H1410" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1410" t="n">
+        <v>7</v>
+      </c>
+      <c r="J1410" t="n">
+        <v>23</v>
+      </c>
+      <c r="K1410" t="n">
+        <v>12</v>
+      </c>
+      <c r="L1410" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1410" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1410" t="n">
+        <v>30</v>
+      </c>
+      <c r="O1410" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1410" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1410" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1410" t="inlineStr"/>
+    </row>
+    <row r="1411">
+      <c r="A1411" s="2" t="n">
+        <v>45496.55208333334</v>
+      </c>
+      <c r="B1411" t="n">
+        <v>292.6499938964844</v>
+      </c>
+      <c r="C1411" t="n">
+        <v>297.25</v>
+      </c>
+      <c r="D1411" t="n">
+        <v>290.5499877929688</v>
+      </c>
+      <c r="E1411" t="n">
+        <v>295.8500061035156</v>
+      </c>
+      <c r="F1411" t="n">
+        <v>295.8500061035156</v>
+      </c>
+      <c r="G1411" t="n">
+        <v>183177</v>
+      </c>
+      <c r="H1411" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1411" t="n">
+        <v>7</v>
+      </c>
+      <c r="J1411" t="n">
+        <v>23</v>
+      </c>
+      <c r="K1411" t="n">
+        <v>13</v>
+      </c>
+      <c r="L1411" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1411" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1411" t="n">
+        <v>30</v>
+      </c>
+      <c r="O1411" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1411" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1411" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1411" t="inlineStr"/>
+    </row>
+    <row r="1412">
+      <c r="A1412" s="2" t="n">
+        <v>45496.59375</v>
+      </c>
+      <c r="B1412" t="n">
+        <v>295.9500122070312</v>
+      </c>
+      <c r="C1412" t="n">
+        <v>303.8999938964844</v>
+      </c>
+      <c r="D1412" t="n">
+        <v>295.0499877929688</v>
+      </c>
+      <c r="E1412" t="n">
+        <v>299.5</v>
+      </c>
+      <c r="F1412" t="n">
+        <v>299.5</v>
+      </c>
+      <c r="G1412" t="n">
+        <v>202090</v>
+      </c>
+      <c r="H1412" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1412" t="n">
+        <v>7</v>
+      </c>
+      <c r="J1412" t="n">
+        <v>23</v>
+      </c>
+      <c r="K1412" t="n">
+        <v>14</v>
+      </c>
+      <c r="L1412" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1412" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1412" t="n">
+        <v>30</v>
+      </c>
+      <c r="O1412" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1412" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1412" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1412" t="inlineStr"/>
+    </row>
+    <row r="1413">
+      <c r="A1413" s="2" t="n">
+        <v>45496.63541666666</v>
+      </c>
+      <c r="B1413" t="n">
+        <v>299.3999938964844</v>
+      </c>
+      <c r="C1413" t="n">
+        <v>302.1499938964844</v>
+      </c>
+      <c r="D1413" t="n">
+        <v>297.2000122070312</v>
+      </c>
+      <c r="E1413" t="n">
+        <v>300.2999877929688</v>
+      </c>
+      <c r="F1413" t="n">
+        <v>300.2999877929688</v>
+      </c>
+      <c r="G1413" t="n">
+        <v>87396</v>
+      </c>
+      <c r="H1413" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1413" t="n">
+        <v>7</v>
+      </c>
+      <c r="J1413" t="n">
+        <v>23</v>
+      </c>
+      <c r="K1413" t="n">
+        <v>15</v>
+      </c>
+      <c r="L1413" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1413" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1413" t="n">
+        <v>30</v>
+      </c>
+      <c r="O1413" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1413" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1413" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1413" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/60m/ZAGGLE.NS.xlsx
+++ b/stock_historical_data/60m/ZAGGLE.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R1413"/>
+  <dimension ref="A1:R1420"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -79261,7 +79261,9 @@
       <c r="Q1407" t="n">
         <v>0</v>
       </c>
-      <c r="R1407" t="inlineStr"/>
+      <c r="R1407" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1408">
       <c r="A1408" s="2" t="n">
@@ -79315,7 +79317,9 @@
       <c r="Q1408" t="n">
         <v>0</v>
       </c>
-      <c r="R1408" t="inlineStr"/>
+      <c r="R1408" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1409">
       <c r="A1409" s="2" t="n">
@@ -79369,7 +79373,9 @@
       <c r="Q1409" t="n">
         <v>0</v>
       </c>
-      <c r="R1409" t="inlineStr"/>
+      <c r="R1409" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1410">
       <c r="A1410" s="2" t="n">
@@ -79415,7 +79421,7 @@
         <v>30</v>
       </c>
       <c r="O1410" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="P1410" t="n">
         <v>0</v>
@@ -79423,7 +79429,9 @@
       <c r="Q1410" t="n">
         <v>0</v>
       </c>
-      <c r="R1410" t="inlineStr"/>
+      <c r="R1410" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1411">
       <c r="A1411" s="2" t="n">
@@ -79477,7 +79485,9 @@
       <c r="Q1411" t="n">
         <v>0</v>
       </c>
-      <c r="R1411" t="inlineStr"/>
+      <c r="R1411" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1412">
       <c r="A1412" s="2" t="n">
@@ -79531,7 +79541,9 @@
       <c r="Q1412" t="n">
         <v>0</v>
       </c>
-      <c r="R1412" t="inlineStr"/>
+      <c r="R1412" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1413">
       <c r="A1413" s="2" t="n">
@@ -79585,7 +79597,387 @@
       <c r="Q1413" t="n">
         <v>0</v>
       </c>
-      <c r="R1413" t="inlineStr"/>
+      <c r="R1413" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1414">
+      <c r="A1414" s="2" t="n">
+        <v>45497.38541666666</v>
+      </c>
+      <c r="B1414" t="n">
+        <v>301.75</v>
+      </c>
+      <c r="C1414" t="n">
+        <v>310.7999877929688</v>
+      </c>
+      <c r="D1414" t="n">
+        <v>301.25</v>
+      </c>
+      <c r="E1414" t="n">
+        <v>309.5</v>
+      </c>
+      <c r="F1414" t="n">
+        <v>309.5</v>
+      </c>
+      <c r="G1414" t="n">
+        <v>444629</v>
+      </c>
+      <c r="H1414" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1414" t="n">
+        <v>7</v>
+      </c>
+      <c r="J1414" t="n">
+        <v>24</v>
+      </c>
+      <c r="K1414" t="n">
+        <v>9</v>
+      </c>
+      <c r="L1414" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1414" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1414" t="n">
+        <v>30</v>
+      </c>
+      <c r="O1414" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1414" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1414" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1414" t="inlineStr"/>
+    </row>
+    <row r="1415">
+      <c r="A1415" s="2" t="n">
+        <v>45497.42708333334</v>
+      </c>
+      <c r="B1415" t="n">
+        <v>309.3999938964844</v>
+      </c>
+      <c r="C1415" t="n">
+        <v>322</v>
+      </c>
+      <c r="D1415" t="n">
+        <v>308.7000122070312</v>
+      </c>
+      <c r="E1415" t="n">
+        <v>319.8999938964844</v>
+      </c>
+      <c r="F1415" t="n">
+        <v>319.8999938964844</v>
+      </c>
+      <c r="G1415" t="n">
+        <v>992081</v>
+      </c>
+      <c r="H1415" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1415" t="n">
+        <v>7</v>
+      </c>
+      <c r="J1415" t="n">
+        <v>24</v>
+      </c>
+      <c r="K1415" t="n">
+        <v>10</v>
+      </c>
+      <c r="L1415" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1415" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1415" t="n">
+        <v>30</v>
+      </c>
+      <c r="O1415" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1415" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1415" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1415" t="inlineStr"/>
+    </row>
+    <row r="1416">
+      <c r="A1416" s="2" t="n">
+        <v>45497.46875</v>
+      </c>
+      <c r="B1416" t="n">
+        <v>319.8999938964844</v>
+      </c>
+      <c r="C1416" t="n">
+        <v>322.7000122070312</v>
+      </c>
+      <c r="D1416" t="n">
+        <v>315.5499877929688</v>
+      </c>
+      <c r="E1416" t="n">
+        <v>316.1499938964844</v>
+      </c>
+      <c r="F1416" t="n">
+        <v>316.1499938964844</v>
+      </c>
+      <c r="G1416" t="n">
+        <v>550268</v>
+      </c>
+      <c r="H1416" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1416" t="n">
+        <v>7</v>
+      </c>
+      <c r="J1416" t="n">
+        <v>24</v>
+      </c>
+      <c r="K1416" t="n">
+        <v>11</v>
+      </c>
+      <c r="L1416" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1416" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1416" t="n">
+        <v>30</v>
+      </c>
+      <c r="O1416" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1416" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1416" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1416" t="inlineStr"/>
+    </row>
+    <row r="1417">
+      <c r="A1417" s="2" t="n">
+        <v>45497.51041666666</v>
+      </c>
+      <c r="B1417" t="n">
+        <v>316.1000061035156</v>
+      </c>
+      <c r="C1417" t="n">
+        <v>317.5</v>
+      </c>
+      <c r="D1417" t="n">
+        <v>313.3500061035156</v>
+      </c>
+      <c r="E1417" t="n">
+        <v>317.25</v>
+      </c>
+      <c r="F1417" t="n">
+        <v>317.25</v>
+      </c>
+      <c r="G1417" t="n">
+        <v>139924</v>
+      </c>
+      <c r="H1417" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1417" t="n">
+        <v>7</v>
+      </c>
+      <c r="J1417" t="n">
+        <v>24</v>
+      </c>
+      <c r="K1417" t="n">
+        <v>12</v>
+      </c>
+      <c r="L1417" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1417" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1417" t="n">
+        <v>30</v>
+      </c>
+      <c r="O1417" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1417" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1417" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1417" t="inlineStr"/>
+    </row>
+    <row r="1418">
+      <c r="A1418" s="2" t="n">
+        <v>45497.55208333334</v>
+      </c>
+      <c r="B1418" t="n">
+        <v>317</v>
+      </c>
+      <c r="C1418" t="n">
+        <v>317.4500122070312</v>
+      </c>
+      <c r="D1418" t="n">
+        <v>314</v>
+      </c>
+      <c r="E1418" t="n">
+        <v>314.3999938964844</v>
+      </c>
+      <c r="F1418" t="n">
+        <v>314.3999938964844</v>
+      </c>
+      <c r="G1418" t="n">
+        <v>104139</v>
+      </c>
+      <c r="H1418" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1418" t="n">
+        <v>7</v>
+      </c>
+      <c r="J1418" t="n">
+        <v>24</v>
+      </c>
+      <c r="K1418" t="n">
+        <v>13</v>
+      </c>
+      <c r="L1418" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1418" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1418" t="n">
+        <v>30</v>
+      </c>
+      <c r="O1418" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1418" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1418" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1418" t="inlineStr"/>
+    </row>
+    <row r="1419">
+      <c r="A1419" s="2" t="n">
+        <v>45497.59375</v>
+      </c>
+      <c r="B1419" t="n">
+        <v>314.25</v>
+      </c>
+      <c r="C1419" t="n">
+        <v>316.1499938964844</v>
+      </c>
+      <c r="D1419" t="n">
+        <v>313.5</v>
+      </c>
+      <c r="E1419" t="n">
+        <v>314</v>
+      </c>
+      <c r="F1419" t="n">
+        <v>314</v>
+      </c>
+      <c r="G1419" t="n">
+        <v>225620</v>
+      </c>
+      <c r="H1419" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1419" t="n">
+        <v>7</v>
+      </c>
+      <c r="J1419" t="n">
+        <v>24</v>
+      </c>
+      <c r="K1419" t="n">
+        <v>14</v>
+      </c>
+      <c r="L1419" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1419" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1419" t="n">
+        <v>30</v>
+      </c>
+      <c r="O1419" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1419" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1419" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1419" t="inlineStr"/>
+    </row>
+    <row r="1420">
+      <c r="A1420" s="2" t="n">
+        <v>45497.63541666666</v>
+      </c>
+      <c r="B1420" t="n">
+        <v>314</v>
+      </c>
+      <c r="C1420" t="n">
+        <v>314.5</v>
+      </c>
+      <c r="D1420" t="n">
+        <v>312.5</v>
+      </c>
+      <c r="E1420" t="n">
+        <v>313.5499877929688</v>
+      </c>
+      <c r="F1420" t="n">
+        <v>313.5499877929688</v>
+      </c>
+      <c r="G1420" t="n">
+        <v>117859</v>
+      </c>
+      <c r="H1420" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1420" t="n">
+        <v>7</v>
+      </c>
+      <c r="J1420" t="n">
+        <v>24</v>
+      </c>
+      <c r="K1420" t="n">
+        <v>15</v>
+      </c>
+      <c r="L1420" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1420" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1420" t="n">
+        <v>30</v>
+      </c>
+      <c r="O1420" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1420" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1420" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1420" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/60m/ZAGGLE.NS.xlsx
+++ b/stock_historical_data/60m/ZAGGLE.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R1420"/>
+  <dimension ref="A1:R1427"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -79653,7 +79653,9 @@
       <c r="Q1414" t="n">
         <v>0</v>
       </c>
-      <c r="R1414" t="inlineStr"/>
+      <c r="R1414" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1415">
       <c r="A1415" s="2" t="n">
@@ -79707,7 +79709,9 @@
       <c r="Q1415" t="n">
         <v>0</v>
       </c>
-      <c r="R1415" t="inlineStr"/>
+      <c r="R1415" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1416">
       <c r="A1416" s="2" t="n">
@@ -79761,7 +79765,9 @@
       <c r="Q1416" t="n">
         <v>0</v>
       </c>
-      <c r="R1416" t="inlineStr"/>
+      <c r="R1416" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1417">
       <c r="A1417" s="2" t="n">
@@ -79815,7 +79821,9 @@
       <c r="Q1417" t="n">
         <v>0</v>
       </c>
-      <c r="R1417" t="inlineStr"/>
+      <c r="R1417" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1418">
       <c r="A1418" s="2" t="n">
@@ -79869,7 +79877,9 @@
       <c r="Q1418" t="n">
         <v>0</v>
       </c>
-      <c r="R1418" t="inlineStr"/>
+      <c r="R1418" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1419">
       <c r="A1419" s="2" t="n">
@@ -79923,7 +79933,9 @@
       <c r="Q1419" t="n">
         <v>0</v>
       </c>
-      <c r="R1419" t="inlineStr"/>
+      <c r="R1419" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1420">
       <c r="A1420" s="2" t="n">
@@ -79977,7 +79989,387 @@
       <c r="Q1420" t="n">
         <v>0</v>
       </c>
-      <c r="R1420" t="inlineStr"/>
+      <c r="R1420" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1421">
+      <c r="A1421" s="2" t="n">
+        <v>45498.38541666666</v>
+      </c>
+      <c r="B1421" t="n">
+        <v>307.5499877929688</v>
+      </c>
+      <c r="C1421" t="n">
+        <v>316.5</v>
+      </c>
+      <c r="D1421" t="n">
+        <v>307.3500061035156</v>
+      </c>
+      <c r="E1421" t="n">
+        <v>315.4500122070312</v>
+      </c>
+      <c r="F1421" t="n">
+        <v>315.4500122070312</v>
+      </c>
+      <c r="G1421" t="n">
+        <v>0</v>
+      </c>
+      <c r="H1421" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1421" t="n">
+        <v>7</v>
+      </c>
+      <c r="J1421" t="n">
+        <v>25</v>
+      </c>
+      <c r="K1421" t="n">
+        <v>9</v>
+      </c>
+      <c r="L1421" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1421" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1421" t="n">
+        <v>30</v>
+      </c>
+      <c r="O1421" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1421" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q1421" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1421" t="inlineStr"/>
+    </row>
+    <row r="1422">
+      <c r="A1422" s="2" t="n">
+        <v>45498.42708333334</v>
+      </c>
+      <c r="B1422" t="n">
+        <v>315.25</v>
+      </c>
+      <c r="C1422" t="n">
+        <v>323.7999877929688</v>
+      </c>
+      <c r="D1422" t="n">
+        <v>314.75</v>
+      </c>
+      <c r="E1422" t="n">
+        <v>320.3500061035156</v>
+      </c>
+      <c r="F1422" t="n">
+        <v>320.3500061035156</v>
+      </c>
+      <c r="G1422" t="n">
+        <v>506030</v>
+      </c>
+      <c r="H1422" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1422" t="n">
+        <v>7</v>
+      </c>
+      <c r="J1422" t="n">
+        <v>25</v>
+      </c>
+      <c r="K1422" t="n">
+        <v>10</v>
+      </c>
+      <c r="L1422" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1422" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1422" t="n">
+        <v>30</v>
+      </c>
+      <c r="O1422" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1422" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1422" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1422" t="inlineStr"/>
+    </row>
+    <row r="1423">
+      <c r="A1423" s="2" t="n">
+        <v>45498.46875</v>
+      </c>
+      <c r="B1423" t="n">
+        <v>320.7000122070312</v>
+      </c>
+      <c r="C1423" t="n">
+        <v>320.7999877929688</v>
+      </c>
+      <c r="D1423" t="n">
+        <v>318.1000061035156</v>
+      </c>
+      <c r="E1423" t="n">
+        <v>318.1000061035156</v>
+      </c>
+      <c r="F1423" t="n">
+        <v>318.1000061035156</v>
+      </c>
+      <c r="G1423" t="n">
+        <v>70045</v>
+      </c>
+      <c r="H1423" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1423" t="n">
+        <v>7</v>
+      </c>
+      <c r="J1423" t="n">
+        <v>25</v>
+      </c>
+      <c r="K1423" t="n">
+        <v>11</v>
+      </c>
+      <c r="L1423" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1423" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1423" t="n">
+        <v>30</v>
+      </c>
+      <c r="O1423" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1423" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1423" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1423" t="inlineStr"/>
+    </row>
+    <row r="1424">
+      <c r="A1424" s="2" t="n">
+        <v>45498.51041666666</v>
+      </c>
+      <c r="B1424" t="n">
+        <v>318.5</v>
+      </c>
+      <c r="C1424" t="n">
+        <v>319.1000061035156</v>
+      </c>
+      <c r="D1424" t="n">
+        <v>314.5</v>
+      </c>
+      <c r="E1424" t="n">
+        <v>316.4500122070312</v>
+      </c>
+      <c r="F1424" t="n">
+        <v>316.4500122070312</v>
+      </c>
+      <c r="G1424" t="n">
+        <v>144515</v>
+      </c>
+      <c r="H1424" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1424" t="n">
+        <v>7</v>
+      </c>
+      <c r="J1424" t="n">
+        <v>25</v>
+      </c>
+      <c r="K1424" t="n">
+        <v>12</v>
+      </c>
+      <c r="L1424" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1424" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1424" t="n">
+        <v>30</v>
+      </c>
+      <c r="O1424" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1424" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1424" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1424" t="inlineStr"/>
+    </row>
+    <row r="1425">
+      <c r="A1425" s="2" t="n">
+        <v>45498.55208333334</v>
+      </c>
+      <c r="B1425" t="n">
+        <v>316.4500122070312</v>
+      </c>
+      <c r="C1425" t="n">
+        <v>317.1499938964844</v>
+      </c>
+      <c r="D1425" t="n">
+        <v>315.8999938964844</v>
+      </c>
+      <c r="E1425" t="n">
+        <v>317</v>
+      </c>
+      <c r="F1425" t="n">
+        <v>317</v>
+      </c>
+      <c r="G1425" t="n">
+        <v>79207</v>
+      </c>
+      <c r="H1425" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1425" t="n">
+        <v>7</v>
+      </c>
+      <c r="J1425" t="n">
+        <v>25</v>
+      </c>
+      <c r="K1425" t="n">
+        <v>13</v>
+      </c>
+      <c r="L1425" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1425" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1425" t="n">
+        <v>30</v>
+      </c>
+      <c r="O1425" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1425" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1425" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1425" t="inlineStr"/>
+    </row>
+    <row r="1426">
+      <c r="A1426" s="2" t="n">
+        <v>45498.59375</v>
+      </c>
+      <c r="B1426" t="n">
+        <v>317</v>
+      </c>
+      <c r="C1426" t="n">
+        <v>317</v>
+      </c>
+      <c r="D1426" t="n">
+        <v>314.7000122070312</v>
+      </c>
+      <c r="E1426" t="n">
+        <v>315.9500122070312</v>
+      </c>
+      <c r="F1426" t="n">
+        <v>315.9500122070312</v>
+      </c>
+      <c r="G1426" t="n">
+        <v>123174</v>
+      </c>
+      <c r="H1426" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1426" t="n">
+        <v>7</v>
+      </c>
+      <c r="J1426" t="n">
+        <v>25</v>
+      </c>
+      <c r="K1426" t="n">
+        <v>14</v>
+      </c>
+      <c r="L1426" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1426" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1426" t="n">
+        <v>30</v>
+      </c>
+      <c r="O1426" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1426" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1426" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1426" t="inlineStr"/>
+    </row>
+    <row r="1427">
+      <c r="A1427" s="2" t="n">
+        <v>45498.63541666666</v>
+      </c>
+      <c r="B1427" t="n">
+        <v>315.4500122070312</v>
+      </c>
+      <c r="C1427" t="n">
+        <v>315.7999877929688</v>
+      </c>
+      <c r="D1427" t="n">
+        <v>312.1000061035156</v>
+      </c>
+      <c r="E1427" t="n">
+        <v>314.7000122070312</v>
+      </c>
+      <c r="F1427" t="n">
+        <v>314.7000122070312</v>
+      </c>
+      <c r="G1427" t="n">
+        <v>87229</v>
+      </c>
+      <c r="H1427" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1427" t="n">
+        <v>7</v>
+      </c>
+      <c r="J1427" t="n">
+        <v>25</v>
+      </c>
+      <c r="K1427" t="n">
+        <v>15</v>
+      </c>
+      <c r="L1427" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1427" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1427" t="n">
+        <v>30</v>
+      </c>
+      <c r="O1427" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1427" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1427" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1427" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/60m/ZAGGLE.NS.xlsx
+++ b/stock_historical_data/60m/ZAGGLE.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R1427"/>
+  <dimension ref="A1:R1434"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -80045,7 +80045,9 @@
       <c r="Q1421" t="n">
         <v>0</v>
       </c>
-      <c r="R1421" t="inlineStr"/>
+      <c r="R1421" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="1422">
       <c r="A1422" s="2" t="n">
@@ -80099,7 +80101,9 @@
       <c r="Q1422" t="n">
         <v>0</v>
       </c>
-      <c r="R1422" t="inlineStr"/>
+      <c r="R1422" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1423">
       <c r="A1423" s="2" t="n">
@@ -80153,7 +80157,9 @@
       <c r="Q1423" t="n">
         <v>0</v>
       </c>
-      <c r="R1423" t="inlineStr"/>
+      <c r="R1423" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1424">
       <c r="A1424" s="2" t="n">
@@ -80207,7 +80213,9 @@
       <c r="Q1424" t="n">
         <v>0</v>
       </c>
-      <c r="R1424" t="inlineStr"/>
+      <c r="R1424" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1425">
       <c r="A1425" s="2" t="n">
@@ -80261,7 +80269,9 @@
       <c r="Q1425" t="n">
         <v>0</v>
       </c>
-      <c r="R1425" t="inlineStr"/>
+      <c r="R1425" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1426">
       <c r="A1426" s="2" t="n">
@@ -80315,7 +80325,9 @@
       <c r="Q1426" t="n">
         <v>0</v>
       </c>
-      <c r="R1426" t="inlineStr"/>
+      <c r="R1426" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1427">
       <c r="A1427" s="2" t="n">
@@ -80369,7 +80381,387 @@
       <c r="Q1427" t="n">
         <v>0</v>
       </c>
-      <c r="R1427" t="inlineStr"/>
+      <c r="R1427" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1428">
+      <c r="A1428" s="2" t="n">
+        <v>45499.38541666666</v>
+      </c>
+      <c r="B1428" t="n">
+        <v>317</v>
+      </c>
+      <c r="C1428" t="n">
+        <v>332.7000122070312</v>
+      </c>
+      <c r="D1428" t="n">
+        <v>315.2999877929688</v>
+      </c>
+      <c r="E1428" t="n">
+        <v>327.2000122070312</v>
+      </c>
+      <c r="F1428" t="n">
+        <v>327.2000122070312</v>
+      </c>
+      <c r="G1428" t="n">
+        <v>1593818</v>
+      </c>
+      <c r="H1428" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1428" t="n">
+        <v>7</v>
+      </c>
+      <c r="J1428" t="n">
+        <v>26</v>
+      </c>
+      <c r="K1428" t="n">
+        <v>9</v>
+      </c>
+      <c r="L1428" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1428" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1428" t="n">
+        <v>30</v>
+      </c>
+      <c r="O1428" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1428" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1428" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1428" t="inlineStr"/>
+    </row>
+    <row r="1429">
+      <c r="A1429" s="2" t="n">
+        <v>45499.42708333334</v>
+      </c>
+      <c r="B1429" t="n">
+        <v>327.2000122070312</v>
+      </c>
+      <c r="C1429" t="n">
+        <v>329.5</v>
+      </c>
+      <c r="D1429" t="n">
+        <v>324.1000061035156</v>
+      </c>
+      <c r="E1429" t="n">
+        <v>326.7000122070312</v>
+      </c>
+      <c r="F1429" t="n">
+        <v>326.7000122070312</v>
+      </c>
+      <c r="G1429" t="n">
+        <v>342892</v>
+      </c>
+      <c r="H1429" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1429" t="n">
+        <v>7</v>
+      </c>
+      <c r="J1429" t="n">
+        <v>26</v>
+      </c>
+      <c r="K1429" t="n">
+        <v>10</v>
+      </c>
+      <c r="L1429" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1429" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1429" t="n">
+        <v>30</v>
+      </c>
+      <c r="O1429" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1429" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1429" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1429" t="inlineStr"/>
+    </row>
+    <row r="1430">
+      <c r="A1430" s="2" t="n">
+        <v>45499.46875</v>
+      </c>
+      <c r="B1430" t="n">
+        <v>326.7000122070312</v>
+      </c>
+      <c r="C1430" t="n">
+        <v>327</v>
+      </c>
+      <c r="D1430" t="n">
+        <v>323.1000061035156</v>
+      </c>
+      <c r="E1430" t="n">
+        <v>324</v>
+      </c>
+      <c r="F1430" t="n">
+        <v>324</v>
+      </c>
+      <c r="G1430" t="n">
+        <v>163582</v>
+      </c>
+      <c r="H1430" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1430" t="n">
+        <v>7</v>
+      </c>
+      <c r="J1430" t="n">
+        <v>26</v>
+      </c>
+      <c r="K1430" t="n">
+        <v>11</v>
+      </c>
+      <c r="L1430" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1430" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1430" t="n">
+        <v>30</v>
+      </c>
+      <c r="O1430" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1430" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1430" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1430" t="inlineStr"/>
+    </row>
+    <row r="1431">
+      <c r="A1431" s="2" t="n">
+        <v>45499.51041666666</v>
+      </c>
+      <c r="B1431" t="n">
+        <v>324.2999877929688</v>
+      </c>
+      <c r="C1431" t="n">
+        <v>324.6000061035156</v>
+      </c>
+      <c r="D1431" t="n">
+        <v>321.6000061035156</v>
+      </c>
+      <c r="E1431" t="n">
+        <v>321.9500122070312</v>
+      </c>
+      <c r="F1431" t="n">
+        <v>321.9500122070312</v>
+      </c>
+      <c r="G1431" t="n">
+        <v>86923</v>
+      </c>
+      <c r="H1431" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1431" t="n">
+        <v>7</v>
+      </c>
+      <c r="J1431" t="n">
+        <v>26</v>
+      </c>
+      <c r="K1431" t="n">
+        <v>12</v>
+      </c>
+      <c r="L1431" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1431" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1431" t="n">
+        <v>30</v>
+      </c>
+      <c r="O1431" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1431" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1431" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1431" t="inlineStr"/>
+    </row>
+    <row r="1432">
+      <c r="A1432" s="2" t="n">
+        <v>45499.55208333334</v>
+      </c>
+      <c r="B1432" t="n">
+        <v>322</v>
+      </c>
+      <c r="C1432" t="n">
+        <v>322.5499877929688</v>
+      </c>
+      <c r="D1432" t="n">
+        <v>320.5</v>
+      </c>
+      <c r="E1432" t="n">
+        <v>321.3500061035156</v>
+      </c>
+      <c r="F1432" t="n">
+        <v>321.3500061035156</v>
+      </c>
+      <c r="G1432" t="n">
+        <v>107031</v>
+      </c>
+      <c r="H1432" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1432" t="n">
+        <v>7</v>
+      </c>
+      <c r="J1432" t="n">
+        <v>26</v>
+      </c>
+      <c r="K1432" t="n">
+        <v>13</v>
+      </c>
+      <c r="L1432" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1432" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1432" t="n">
+        <v>30</v>
+      </c>
+      <c r="O1432" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1432" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1432" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1432" t="inlineStr"/>
+    </row>
+    <row r="1433">
+      <c r="A1433" s="2" t="n">
+        <v>45499.59375</v>
+      </c>
+      <c r="B1433" t="n">
+        <v>321.7999877929688</v>
+      </c>
+      <c r="C1433" t="n">
+        <v>324.9500122070312</v>
+      </c>
+      <c r="D1433" t="n">
+        <v>321.2999877929688</v>
+      </c>
+      <c r="E1433" t="n">
+        <v>322</v>
+      </c>
+      <c r="F1433" t="n">
+        <v>322</v>
+      </c>
+      <c r="G1433" t="n">
+        <v>241255</v>
+      </c>
+      <c r="H1433" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1433" t="n">
+        <v>7</v>
+      </c>
+      <c r="J1433" t="n">
+        <v>26</v>
+      </c>
+      <c r="K1433" t="n">
+        <v>14</v>
+      </c>
+      <c r="L1433" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1433" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1433" t="n">
+        <v>30</v>
+      </c>
+      <c r="O1433" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1433" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1433" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1433" t="inlineStr"/>
+    </row>
+    <row r="1434">
+      <c r="A1434" s="2" t="n">
+        <v>45499.63541666666</v>
+      </c>
+      <c r="B1434" t="n">
+        <v>321.2000122070312</v>
+      </c>
+      <c r="C1434" t="n">
+        <v>324.8500061035156</v>
+      </c>
+      <c r="D1434" t="n">
+        <v>321.0499877929688</v>
+      </c>
+      <c r="E1434" t="n">
+        <v>322.7999877929688</v>
+      </c>
+      <c r="F1434" t="n">
+        <v>322.7999877929688</v>
+      </c>
+      <c r="G1434" t="n">
+        <v>218225</v>
+      </c>
+      <c r="H1434" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1434" t="n">
+        <v>7</v>
+      </c>
+      <c r="J1434" t="n">
+        <v>26</v>
+      </c>
+      <c r="K1434" t="n">
+        <v>15</v>
+      </c>
+      <c r="L1434" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1434" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1434" t="n">
+        <v>30</v>
+      </c>
+      <c r="O1434" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1434" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1434" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1434" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/60m/ZAGGLE.NS.xlsx
+++ b/stock_historical_data/60m/ZAGGLE.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R1434"/>
+  <dimension ref="A1:R1441"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -80429,7 +80429,7 @@
         <v>30</v>
       </c>
       <c r="O1428" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P1428" t="n">
         <v>0</v>
@@ -80437,7 +80437,9 @@
       <c r="Q1428" t="n">
         <v>0</v>
       </c>
-      <c r="R1428" t="inlineStr"/>
+      <c r="R1428" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1429">
       <c r="A1429" s="2" t="n">
@@ -80491,7 +80493,9 @@
       <c r="Q1429" t="n">
         <v>0</v>
       </c>
-      <c r="R1429" t="inlineStr"/>
+      <c r="R1429" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1430">
       <c r="A1430" s="2" t="n">
@@ -80545,7 +80549,9 @@
       <c r="Q1430" t="n">
         <v>0</v>
       </c>
-      <c r="R1430" t="inlineStr"/>
+      <c r="R1430" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1431">
       <c r="A1431" s="2" t="n">
@@ -80599,7 +80605,9 @@
       <c r="Q1431" t="n">
         <v>0</v>
       </c>
-      <c r="R1431" t="inlineStr"/>
+      <c r="R1431" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1432">
       <c r="A1432" s="2" t="n">
@@ -80653,7 +80661,9 @@
       <c r="Q1432" t="n">
         <v>0</v>
       </c>
-      <c r="R1432" t="inlineStr"/>
+      <c r="R1432" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1433">
       <c r="A1433" s="2" t="n">
@@ -80707,7 +80717,9 @@
       <c r="Q1433" t="n">
         <v>0</v>
       </c>
-      <c r="R1433" t="inlineStr"/>
+      <c r="R1433" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1434">
       <c r="A1434" s="2" t="n">
@@ -80761,7 +80773,387 @@
       <c r="Q1434" t="n">
         <v>0</v>
       </c>
-      <c r="R1434" t="inlineStr"/>
+      <c r="R1434" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1435">
+      <c r="A1435" s="2" t="n">
+        <v>45502.38541666666</v>
+      </c>
+      <c r="B1435" t="n">
+        <v>325.7999877929688</v>
+      </c>
+      <c r="C1435" t="n">
+        <v>329.3999938964844</v>
+      </c>
+      <c r="D1435" t="n">
+        <v>323.2000122070312</v>
+      </c>
+      <c r="E1435" t="n">
+        <v>329.2000122070312</v>
+      </c>
+      <c r="F1435" t="n">
+        <v>329.2000122070312</v>
+      </c>
+      <c r="G1435" t="n">
+        <v>0</v>
+      </c>
+      <c r="H1435" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1435" t="n">
+        <v>7</v>
+      </c>
+      <c r="J1435" t="n">
+        <v>29</v>
+      </c>
+      <c r="K1435" t="n">
+        <v>9</v>
+      </c>
+      <c r="L1435" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1435" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1435" t="n">
+        <v>31</v>
+      </c>
+      <c r="O1435" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1435" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1435" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1435" t="inlineStr"/>
+    </row>
+    <row r="1436">
+      <c r="A1436" s="2" t="n">
+        <v>45502.42708333334</v>
+      </c>
+      <c r="B1436" t="n">
+        <v>329.1499938964844</v>
+      </c>
+      <c r="C1436" t="n">
+        <v>329.2999877929688</v>
+      </c>
+      <c r="D1436" t="n">
+        <v>325.7999877929688</v>
+      </c>
+      <c r="E1436" t="n">
+        <v>327.5</v>
+      </c>
+      <c r="F1436" t="n">
+        <v>327.5</v>
+      </c>
+      <c r="G1436" t="n">
+        <v>153754</v>
+      </c>
+      <c r="H1436" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1436" t="n">
+        <v>7</v>
+      </c>
+      <c r="J1436" t="n">
+        <v>29</v>
+      </c>
+      <c r="K1436" t="n">
+        <v>10</v>
+      </c>
+      <c r="L1436" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1436" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1436" t="n">
+        <v>31</v>
+      </c>
+      <c r="O1436" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1436" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1436" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1436" t="inlineStr"/>
+    </row>
+    <row r="1437">
+      <c r="A1437" s="2" t="n">
+        <v>45502.46875</v>
+      </c>
+      <c r="B1437" t="n">
+        <v>327.5</v>
+      </c>
+      <c r="C1437" t="n">
+        <v>329</v>
+      </c>
+      <c r="D1437" t="n">
+        <v>324.5</v>
+      </c>
+      <c r="E1437" t="n">
+        <v>326.4500122070312</v>
+      </c>
+      <c r="F1437" t="n">
+        <v>326.4500122070312</v>
+      </c>
+      <c r="G1437" t="n">
+        <v>137535</v>
+      </c>
+      <c r="H1437" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1437" t="n">
+        <v>7</v>
+      </c>
+      <c r="J1437" t="n">
+        <v>29</v>
+      </c>
+      <c r="K1437" t="n">
+        <v>11</v>
+      </c>
+      <c r="L1437" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1437" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1437" t="n">
+        <v>31</v>
+      </c>
+      <c r="O1437" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1437" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1437" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1437" t="inlineStr"/>
+    </row>
+    <row r="1438">
+      <c r="A1438" s="2" t="n">
+        <v>45502.51041666666</v>
+      </c>
+      <c r="B1438" t="n">
+        <v>327</v>
+      </c>
+      <c r="C1438" t="n">
+        <v>331</v>
+      </c>
+      <c r="D1438" t="n">
+        <v>323.1000061035156</v>
+      </c>
+      <c r="E1438" t="n">
+        <v>328.25</v>
+      </c>
+      <c r="F1438" t="n">
+        <v>328.25</v>
+      </c>
+      <c r="G1438" t="n">
+        <v>276170</v>
+      </c>
+      <c r="H1438" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1438" t="n">
+        <v>7</v>
+      </c>
+      <c r="J1438" t="n">
+        <v>29</v>
+      </c>
+      <c r="K1438" t="n">
+        <v>12</v>
+      </c>
+      <c r="L1438" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1438" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1438" t="n">
+        <v>31</v>
+      </c>
+      <c r="O1438" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1438" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1438" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1438" t="inlineStr"/>
+    </row>
+    <row r="1439">
+      <c r="A1439" s="2" t="n">
+        <v>45502.55208333334</v>
+      </c>
+      <c r="B1439" t="n">
+        <v>328.5</v>
+      </c>
+      <c r="C1439" t="n">
+        <v>332.25</v>
+      </c>
+      <c r="D1439" t="n">
+        <v>327.5</v>
+      </c>
+      <c r="E1439" t="n">
+        <v>328.5499877929688</v>
+      </c>
+      <c r="F1439" t="n">
+        <v>328.5499877929688</v>
+      </c>
+      <c r="G1439" t="n">
+        <v>539780</v>
+      </c>
+      <c r="H1439" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1439" t="n">
+        <v>7</v>
+      </c>
+      <c r="J1439" t="n">
+        <v>29</v>
+      </c>
+      <c r="K1439" t="n">
+        <v>13</v>
+      </c>
+      <c r="L1439" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1439" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1439" t="n">
+        <v>31</v>
+      </c>
+      <c r="O1439" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1439" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q1439" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1439" t="inlineStr"/>
+    </row>
+    <row r="1440">
+      <c r="A1440" s="2" t="n">
+        <v>45502.59375</v>
+      </c>
+      <c r="B1440" t="n">
+        <v>328.2999877929688</v>
+      </c>
+      <c r="C1440" t="n">
+        <v>335.8999938964844</v>
+      </c>
+      <c r="D1440" t="n">
+        <v>328.0499877929688</v>
+      </c>
+      <c r="E1440" t="n">
+        <v>335.8999938964844</v>
+      </c>
+      <c r="F1440" t="n">
+        <v>335.8999938964844</v>
+      </c>
+      <c r="G1440" t="n">
+        <v>1089962</v>
+      </c>
+      <c r="H1440" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1440" t="n">
+        <v>7</v>
+      </c>
+      <c r="J1440" t="n">
+        <v>29</v>
+      </c>
+      <c r="K1440" t="n">
+        <v>14</v>
+      </c>
+      <c r="L1440" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1440" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1440" t="n">
+        <v>31</v>
+      </c>
+      <c r="O1440" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1440" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1440" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1440" t="inlineStr"/>
+    </row>
+    <row r="1441">
+      <c r="A1441" s="2" t="n">
+        <v>45502.63541666666</v>
+      </c>
+      <c r="B1441" t="n">
+        <v>337.1499938964844</v>
+      </c>
+      <c r="C1441" t="n">
+        <v>338</v>
+      </c>
+      <c r="D1441" t="n">
+        <v>334.2000122070312</v>
+      </c>
+      <c r="E1441" t="n">
+        <v>335.2999877929688</v>
+      </c>
+      <c r="F1441" t="n">
+        <v>335.2999877929688</v>
+      </c>
+      <c r="G1441" t="n">
+        <v>512673</v>
+      </c>
+      <c r="H1441" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1441" t="n">
+        <v>7</v>
+      </c>
+      <c r="J1441" t="n">
+        <v>29</v>
+      </c>
+      <c r="K1441" t="n">
+        <v>15</v>
+      </c>
+      <c r="L1441" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1441" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1441" t="n">
+        <v>31</v>
+      </c>
+      <c r="O1441" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1441" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1441" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1441" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/60m/ZAGGLE.NS.xlsx
+++ b/stock_historical_data/60m/ZAGGLE.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R1441"/>
+  <dimension ref="A1:R1448"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -80829,7 +80829,9 @@
       <c r="Q1435" t="n">
         <v>0</v>
       </c>
-      <c r="R1435" t="inlineStr"/>
+      <c r="R1435" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1436">
       <c r="A1436" s="2" t="n">
@@ -80883,7 +80885,9 @@
       <c r="Q1436" t="n">
         <v>0</v>
       </c>
-      <c r="R1436" t="inlineStr"/>
+      <c r="R1436" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1437">
       <c r="A1437" s="2" t="n">
@@ -80937,7 +80941,9 @@
       <c r="Q1437" t="n">
         <v>0</v>
       </c>
-      <c r="R1437" t="inlineStr"/>
+      <c r="R1437" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1438">
       <c r="A1438" s="2" t="n">
@@ -80991,7 +80997,9 @@
       <c r="Q1438" t="n">
         <v>0</v>
       </c>
-      <c r="R1438" t="inlineStr"/>
+      <c r="R1438" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1439">
       <c r="A1439" s="2" t="n">
@@ -81045,7 +81053,9 @@
       <c r="Q1439" t="n">
         <v>0</v>
       </c>
-      <c r="R1439" t="inlineStr"/>
+      <c r="R1439" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="1440">
       <c r="A1440" s="2" t="n">
@@ -81099,7 +81109,9 @@
       <c r="Q1440" t="n">
         <v>0</v>
       </c>
-      <c r="R1440" t="inlineStr"/>
+      <c r="R1440" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1441">
       <c r="A1441" s="2" t="n">
@@ -81153,7 +81165,387 @@
       <c r="Q1441" t="n">
         <v>0</v>
       </c>
-      <c r="R1441" t="inlineStr"/>
+      <c r="R1441" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1442">
+      <c r="A1442" s="2" t="n">
+        <v>45503.38541666666</v>
+      </c>
+      <c r="B1442" t="n">
+        <v>336.75</v>
+      </c>
+      <c r="C1442" t="n">
+        <v>340.5</v>
+      </c>
+      <c r="D1442" t="n">
+        <v>333.5</v>
+      </c>
+      <c r="E1442" t="n">
+        <v>335</v>
+      </c>
+      <c r="F1442" t="n">
+        <v>335</v>
+      </c>
+      <c r="G1442" t="n">
+        <v>836000</v>
+      </c>
+      <c r="H1442" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1442" t="n">
+        <v>7</v>
+      </c>
+      <c r="J1442" t="n">
+        <v>30</v>
+      </c>
+      <c r="K1442" t="n">
+        <v>9</v>
+      </c>
+      <c r="L1442" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1442" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1442" t="n">
+        <v>31</v>
+      </c>
+      <c r="O1442" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1442" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1442" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1442" t="inlineStr"/>
+    </row>
+    <row r="1443">
+      <c r="A1443" s="2" t="n">
+        <v>45503.42708333334</v>
+      </c>
+      <c r="B1443" t="n">
+        <v>334.5</v>
+      </c>
+      <c r="C1443" t="n">
+        <v>335.9500122070312</v>
+      </c>
+      <c r="D1443" t="n">
+        <v>334</v>
+      </c>
+      <c r="E1443" t="n">
+        <v>335.2000122070312</v>
+      </c>
+      <c r="F1443" t="n">
+        <v>335.2000122070312</v>
+      </c>
+      <c r="G1443" t="n">
+        <v>149243</v>
+      </c>
+      <c r="H1443" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1443" t="n">
+        <v>7</v>
+      </c>
+      <c r="J1443" t="n">
+        <v>30</v>
+      </c>
+      <c r="K1443" t="n">
+        <v>10</v>
+      </c>
+      <c r="L1443" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1443" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1443" t="n">
+        <v>31</v>
+      </c>
+      <c r="O1443" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1443" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1443" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1443" t="inlineStr"/>
+    </row>
+    <row r="1444">
+      <c r="A1444" s="2" t="n">
+        <v>45503.46875</v>
+      </c>
+      <c r="B1444" t="n">
+        <v>335.3500061035156</v>
+      </c>
+      <c r="C1444" t="n">
+        <v>335.5</v>
+      </c>
+      <c r="D1444" t="n">
+        <v>332.25</v>
+      </c>
+      <c r="E1444" t="n">
+        <v>332.6499938964844</v>
+      </c>
+      <c r="F1444" t="n">
+        <v>332.6499938964844</v>
+      </c>
+      <c r="G1444" t="n">
+        <v>149765</v>
+      </c>
+      <c r="H1444" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1444" t="n">
+        <v>7</v>
+      </c>
+      <c r="J1444" t="n">
+        <v>30</v>
+      </c>
+      <c r="K1444" t="n">
+        <v>11</v>
+      </c>
+      <c r="L1444" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1444" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1444" t="n">
+        <v>31</v>
+      </c>
+      <c r="O1444" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1444" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1444" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1444" t="inlineStr"/>
+    </row>
+    <row r="1445">
+      <c r="A1445" s="2" t="n">
+        <v>45503.51041666666</v>
+      </c>
+      <c r="B1445" t="n">
+        <v>332.7000122070312</v>
+      </c>
+      <c r="C1445" t="n">
+        <v>333</v>
+      </c>
+      <c r="D1445" t="n">
+        <v>325.4500122070312</v>
+      </c>
+      <c r="E1445" t="n">
+        <v>328.5</v>
+      </c>
+      <c r="F1445" t="n">
+        <v>328.5</v>
+      </c>
+      <c r="G1445" t="n">
+        <v>508300</v>
+      </c>
+      <c r="H1445" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1445" t="n">
+        <v>7</v>
+      </c>
+      <c r="J1445" t="n">
+        <v>30</v>
+      </c>
+      <c r="K1445" t="n">
+        <v>12</v>
+      </c>
+      <c r="L1445" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1445" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1445" t="n">
+        <v>31</v>
+      </c>
+      <c r="O1445" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1445" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1445" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1445" t="inlineStr"/>
+    </row>
+    <row r="1446">
+      <c r="A1446" s="2" t="n">
+        <v>45503.55208333334</v>
+      </c>
+      <c r="B1446" t="n">
+        <v>328.8500061035156</v>
+      </c>
+      <c r="C1446" t="n">
+        <v>330.5499877929688</v>
+      </c>
+      <c r="D1446" t="n">
+        <v>327.7999877929688</v>
+      </c>
+      <c r="E1446" t="n">
+        <v>330.5</v>
+      </c>
+      <c r="F1446" t="n">
+        <v>330.5</v>
+      </c>
+      <c r="G1446" t="n">
+        <v>122325</v>
+      </c>
+      <c r="H1446" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1446" t="n">
+        <v>7</v>
+      </c>
+      <c r="J1446" t="n">
+        <v>30</v>
+      </c>
+      <c r="K1446" t="n">
+        <v>13</v>
+      </c>
+      <c r="L1446" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1446" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1446" t="n">
+        <v>31</v>
+      </c>
+      <c r="O1446" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1446" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1446" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1446" t="inlineStr"/>
+    </row>
+    <row r="1447">
+      <c r="A1447" s="2" t="n">
+        <v>45503.59375</v>
+      </c>
+      <c r="B1447" t="n">
+        <v>330.3500061035156</v>
+      </c>
+      <c r="C1447" t="n">
+        <v>336.5</v>
+      </c>
+      <c r="D1447" t="n">
+        <v>330.1000061035156</v>
+      </c>
+      <c r="E1447" t="n">
+        <v>334.5</v>
+      </c>
+      <c r="F1447" t="n">
+        <v>334.5</v>
+      </c>
+      <c r="G1447" t="n">
+        <v>403073</v>
+      </c>
+      <c r="H1447" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1447" t="n">
+        <v>7</v>
+      </c>
+      <c r="J1447" t="n">
+        <v>30</v>
+      </c>
+      <c r="K1447" t="n">
+        <v>14</v>
+      </c>
+      <c r="L1447" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1447" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1447" t="n">
+        <v>31</v>
+      </c>
+      <c r="O1447" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1447" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1447" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1447" t="inlineStr"/>
+    </row>
+    <row r="1448">
+      <c r="A1448" s="2" t="n">
+        <v>45503.63541666666</v>
+      </c>
+      <c r="B1448" t="n">
+        <v>334</v>
+      </c>
+      <c r="C1448" t="n">
+        <v>339.75</v>
+      </c>
+      <c r="D1448" t="n">
+        <v>331.8999938964844</v>
+      </c>
+      <c r="E1448" t="n">
+        <v>335.9500122070312</v>
+      </c>
+      <c r="F1448" t="n">
+        <v>335.9500122070312</v>
+      </c>
+      <c r="G1448" t="n">
+        <v>334129</v>
+      </c>
+      <c r="H1448" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1448" t="n">
+        <v>7</v>
+      </c>
+      <c r="J1448" t="n">
+        <v>30</v>
+      </c>
+      <c r="K1448" t="n">
+        <v>15</v>
+      </c>
+      <c r="L1448" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1448" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1448" t="n">
+        <v>31</v>
+      </c>
+      <c r="O1448" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1448" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1448" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1448" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/60m/ZAGGLE.NS.xlsx
+++ b/stock_historical_data/60m/ZAGGLE.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R1448"/>
+  <dimension ref="A1:R1455"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -81221,7 +81221,9 @@
       <c r="Q1442" t="n">
         <v>0</v>
       </c>
-      <c r="R1442" t="inlineStr"/>
+      <c r="R1442" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1443">
       <c r="A1443" s="2" t="n">
@@ -81275,7 +81277,9 @@
       <c r="Q1443" t="n">
         <v>0</v>
       </c>
-      <c r="R1443" t="inlineStr"/>
+      <c r="R1443" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1444">
       <c r="A1444" s="2" t="n">
@@ -81329,7 +81333,9 @@
       <c r="Q1444" t="n">
         <v>0</v>
       </c>
-      <c r="R1444" t="inlineStr"/>
+      <c r="R1444" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1445">
       <c r="A1445" s="2" t="n">
@@ -81383,7 +81389,9 @@
       <c r="Q1445" t="n">
         <v>0</v>
       </c>
-      <c r="R1445" t="inlineStr"/>
+      <c r="R1445" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1446">
       <c r="A1446" s="2" t="n">
@@ -81437,7 +81445,9 @@
       <c r="Q1446" t="n">
         <v>0</v>
       </c>
-      <c r="R1446" t="inlineStr"/>
+      <c r="R1446" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1447">
       <c r="A1447" s="2" t="n">
@@ -81491,7 +81501,9 @@
       <c r="Q1447" t="n">
         <v>0</v>
       </c>
-      <c r="R1447" t="inlineStr"/>
+      <c r="R1447" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1448">
       <c r="A1448" s="2" t="n">
@@ -81545,7 +81557,387 @@
       <c r="Q1448" t="n">
         <v>0</v>
       </c>
-      <c r="R1448" t="inlineStr"/>
+      <c r="R1448" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1449">
+      <c r="A1449" s="2" t="n">
+        <v>45504.38541666666</v>
+      </c>
+      <c r="B1449" t="n">
+        <v>352.25</v>
+      </c>
+      <c r="C1449" t="n">
+        <v>352.25</v>
+      </c>
+      <c r="D1449" t="n">
+        <v>341.7000122070312</v>
+      </c>
+      <c r="E1449" t="n">
+        <v>344</v>
+      </c>
+      <c r="F1449" t="n">
+        <v>344</v>
+      </c>
+      <c r="G1449" t="n">
+        <v>921910</v>
+      </c>
+      <c r="H1449" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1449" t="n">
+        <v>7</v>
+      </c>
+      <c r="J1449" t="n">
+        <v>31</v>
+      </c>
+      <c r="K1449" t="n">
+        <v>9</v>
+      </c>
+      <c r="L1449" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1449" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1449" t="n">
+        <v>31</v>
+      </c>
+      <c r="O1449" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1449" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1449" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1449" t="inlineStr"/>
+    </row>
+    <row r="1450">
+      <c r="A1450" s="2" t="n">
+        <v>45504.42708333334</v>
+      </c>
+      <c r="B1450" t="n">
+        <v>344.25</v>
+      </c>
+      <c r="C1450" t="n">
+        <v>345.2999877929688</v>
+      </c>
+      <c r="D1450" t="n">
+        <v>340.2999877929688</v>
+      </c>
+      <c r="E1450" t="n">
+        <v>342.1000061035156</v>
+      </c>
+      <c r="F1450" t="n">
+        <v>342.1000061035156</v>
+      </c>
+      <c r="G1450" t="n">
+        <v>800038</v>
+      </c>
+      <c r="H1450" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1450" t="n">
+        <v>7</v>
+      </c>
+      <c r="J1450" t="n">
+        <v>31</v>
+      </c>
+      <c r="K1450" t="n">
+        <v>10</v>
+      </c>
+      <c r="L1450" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1450" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1450" t="n">
+        <v>31</v>
+      </c>
+      <c r="O1450" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1450" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1450" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1450" t="inlineStr"/>
+    </row>
+    <row r="1451">
+      <c r="A1451" s="2" t="n">
+        <v>45504.46875</v>
+      </c>
+      <c r="B1451" t="n">
+        <v>342.1000061035156</v>
+      </c>
+      <c r="C1451" t="n">
+        <v>344.5499877929688</v>
+      </c>
+      <c r="D1451" t="n">
+        <v>341.1499938964844</v>
+      </c>
+      <c r="E1451" t="n">
+        <v>344</v>
+      </c>
+      <c r="F1451" t="n">
+        <v>344</v>
+      </c>
+      <c r="G1451" t="n">
+        <v>366070</v>
+      </c>
+      <c r="H1451" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1451" t="n">
+        <v>7</v>
+      </c>
+      <c r="J1451" t="n">
+        <v>31</v>
+      </c>
+      <c r="K1451" t="n">
+        <v>11</v>
+      </c>
+      <c r="L1451" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1451" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1451" t="n">
+        <v>31</v>
+      </c>
+      <c r="O1451" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1451" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1451" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1451" t="inlineStr"/>
+    </row>
+    <row r="1452">
+      <c r="A1452" s="2" t="n">
+        <v>45504.51041666666</v>
+      </c>
+      <c r="B1452" t="n">
+        <v>344</v>
+      </c>
+      <c r="C1452" t="n">
+        <v>344.75</v>
+      </c>
+      <c r="D1452" t="n">
+        <v>341.5</v>
+      </c>
+      <c r="E1452" t="n">
+        <v>343.3999938964844</v>
+      </c>
+      <c r="F1452" t="n">
+        <v>343.3999938964844</v>
+      </c>
+      <c r="G1452" t="n">
+        <v>271221</v>
+      </c>
+      <c r="H1452" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1452" t="n">
+        <v>7</v>
+      </c>
+      <c r="J1452" t="n">
+        <v>31</v>
+      </c>
+      <c r="K1452" t="n">
+        <v>12</v>
+      </c>
+      <c r="L1452" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1452" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1452" t="n">
+        <v>31</v>
+      </c>
+      <c r="O1452" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1452" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1452" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1452" t="inlineStr"/>
+    </row>
+    <row r="1453">
+      <c r="A1453" s="2" t="n">
+        <v>45504.55208333334</v>
+      </c>
+      <c r="B1453" t="n">
+        <v>343.2000122070312</v>
+      </c>
+      <c r="C1453" t="n">
+        <v>343.5</v>
+      </c>
+      <c r="D1453" t="n">
+        <v>341.5</v>
+      </c>
+      <c r="E1453" t="n">
+        <v>342.0499877929688</v>
+      </c>
+      <c r="F1453" t="n">
+        <v>342.0499877929688</v>
+      </c>
+      <c r="G1453" t="n">
+        <v>200946</v>
+      </c>
+      <c r="H1453" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1453" t="n">
+        <v>7</v>
+      </c>
+      <c r="J1453" t="n">
+        <v>31</v>
+      </c>
+      <c r="K1453" t="n">
+        <v>13</v>
+      </c>
+      <c r="L1453" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1453" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1453" t="n">
+        <v>31</v>
+      </c>
+      <c r="O1453" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1453" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1453" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1453" t="inlineStr"/>
+    </row>
+    <row r="1454">
+      <c r="A1454" s="2" t="n">
+        <v>45504.59375</v>
+      </c>
+      <c r="B1454" t="n">
+        <v>342.25</v>
+      </c>
+      <c r="C1454" t="n">
+        <v>342.4500122070312</v>
+      </c>
+      <c r="D1454" t="n">
+        <v>337.25</v>
+      </c>
+      <c r="E1454" t="n">
+        <v>338.9500122070312</v>
+      </c>
+      <c r="F1454" t="n">
+        <v>338.9500122070312</v>
+      </c>
+      <c r="G1454" t="n">
+        <v>601753</v>
+      </c>
+      <c r="H1454" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1454" t="n">
+        <v>7</v>
+      </c>
+      <c r="J1454" t="n">
+        <v>31</v>
+      </c>
+      <c r="K1454" t="n">
+        <v>14</v>
+      </c>
+      <c r="L1454" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1454" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1454" t="n">
+        <v>31</v>
+      </c>
+      <c r="O1454" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1454" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1454" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1454" t="inlineStr"/>
+    </row>
+    <row r="1455">
+      <c r="A1455" s="2" t="n">
+        <v>45504.63541666666</v>
+      </c>
+      <c r="B1455" t="n">
+        <v>338.8500061035156</v>
+      </c>
+      <c r="C1455" t="n">
+        <v>338.8500061035156</v>
+      </c>
+      <c r="D1455" t="n">
+        <v>332.1499938964844</v>
+      </c>
+      <c r="E1455" t="n">
+        <v>336.0499877929688</v>
+      </c>
+      <c r="F1455" t="n">
+        <v>336.0499877929688</v>
+      </c>
+      <c r="G1455" t="n">
+        <v>455563</v>
+      </c>
+      <c r="H1455" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1455" t="n">
+        <v>7</v>
+      </c>
+      <c r="J1455" t="n">
+        <v>31</v>
+      </c>
+      <c r="K1455" t="n">
+        <v>15</v>
+      </c>
+      <c r="L1455" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1455" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1455" t="n">
+        <v>31</v>
+      </c>
+      <c r="O1455" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1455" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1455" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1455" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/60m/ZAGGLE.NS.xlsx
+++ b/stock_historical_data/60m/ZAGGLE.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R1455"/>
+  <dimension ref="A1:R1462"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -81613,7 +81613,9 @@
       <c r="Q1449" t="n">
         <v>0</v>
       </c>
-      <c r="R1449" t="inlineStr"/>
+      <c r="R1449" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1450">
       <c r="A1450" s="2" t="n">
@@ -81667,7 +81669,9 @@
       <c r="Q1450" t="n">
         <v>0</v>
       </c>
-      <c r="R1450" t="inlineStr"/>
+      <c r="R1450" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1451">
       <c r="A1451" s="2" t="n">
@@ -81721,7 +81725,9 @@
       <c r="Q1451" t="n">
         <v>0</v>
       </c>
-      <c r="R1451" t="inlineStr"/>
+      <c r="R1451" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1452">
       <c r="A1452" s="2" t="n">
@@ -81775,7 +81781,9 @@
       <c r="Q1452" t="n">
         <v>0</v>
       </c>
-      <c r="R1452" t="inlineStr"/>
+      <c r="R1452" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1453">
       <c r="A1453" s="2" t="n">
@@ -81829,7 +81837,9 @@
       <c r="Q1453" t="n">
         <v>0</v>
       </c>
-      <c r="R1453" t="inlineStr"/>
+      <c r="R1453" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1454">
       <c r="A1454" s="2" t="n">
@@ -81883,7 +81893,9 @@
       <c r="Q1454" t="n">
         <v>0</v>
       </c>
-      <c r="R1454" t="inlineStr"/>
+      <c r="R1454" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1455">
       <c r="A1455" s="2" t="n">
@@ -81937,7 +81949,387 @@
       <c r="Q1455" t="n">
         <v>0</v>
       </c>
-      <c r="R1455" t="inlineStr"/>
+      <c r="R1455" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1456">
+      <c r="A1456" s="2" t="n">
+        <v>45505.38541666666</v>
+      </c>
+      <c r="B1456" t="n">
+        <v>334.8500061035156</v>
+      </c>
+      <c r="C1456" t="n">
+        <v>345.6000061035156</v>
+      </c>
+      <c r="D1456" t="n">
+        <v>328.3999938964844</v>
+      </c>
+      <c r="E1456" t="n">
+        <v>343.3999938964844</v>
+      </c>
+      <c r="F1456" t="n">
+        <v>343.3999938964844</v>
+      </c>
+      <c r="G1456" t="n">
+        <v>0</v>
+      </c>
+      <c r="H1456" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1456" t="n">
+        <v>8</v>
+      </c>
+      <c r="J1456" t="n">
+        <v>1</v>
+      </c>
+      <c r="K1456" t="n">
+        <v>9</v>
+      </c>
+      <c r="L1456" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1456" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1456" t="n">
+        <v>31</v>
+      </c>
+      <c r="O1456" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1456" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1456" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1456" t="inlineStr"/>
+    </row>
+    <row r="1457">
+      <c r="A1457" s="2" t="n">
+        <v>45505.42708333334</v>
+      </c>
+      <c r="B1457" t="n">
+        <v>343.1000061035156</v>
+      </c>
+      <c r="C1457" t="n">
+        <v>352.9500122070312</v>
+      </c>
+      <c r="D1457" t="n">
+        <v>339.7999877929688</v>
+      </c>
+      <c r="E1457" t="n">
+        <v>346.5499877929688</v>
+      </c>
+      <c r="F1457" t="n">
+        <v>346.5499877929688</v>
+      </c>
+      <c r="G1457" t="n">
+        <v>1723920</v>
+      </c>
+      <c r="H1457" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1457" t="n">
+        <v>8</v>
+      </c>
+      <c r="J1457" t="n">
+        <v>1</v>
+      </c>
+      <c r="K1457" t="n">
+        <v>10</v>
+      </c>
+      <c r="L1457" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1457" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1457" t="n">
+        <v>31</v>
+      </c>
+      <c r="O1457" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1457" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1457" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1457" t="inlineStr"/>
+    </row>
+    <row r="1458">
+      <c r="A1458" s="2" t="n">
+        <v>45505.46875</v>
+      </c>
+      <c r="B1458" t="n">
+        <v>346.6499938964844</v>
+      </c>
+      <c r="C1458" t="n">
+        <v>369.25</v>
+      </c>
+      <c r="D1458" t="n">
+        <v>346.2999877929688</v>
+      </c>
+      <c r="E1458" t="n">
+        <v>361.25</v>
+      </c>
+      <c r="F1458" t="n">
+        <v>361.25</v>
+      </c>
+      <c r="G1458" t="n">
+        <v>3222585</v>
+      </c>
+      <c r="H1458" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1458" t="n">
+        <v>8</v>
+      </c>
+      <c r="J1458" t="n">
+        <v>1</v>
+      </c>
+      <c r="K1458" t="n">
+        <v>11</v>
+      </c>
+      <c r="L1458" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1458" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1458" t="n">
+        <v>31</v>
+      </c>
+      <c r="O1458" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1458" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1458" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1458" t="inlineStr"/>
+    </row>
+    <row r="1459">
+      <c r="A1459" s="2" t="n">
+        <v>45505.51041666666</v>
+      </c>
+      <c r="B1459" t="n">
+        <v>361.75</v>
+      </c>
+      <c r="C1459" t="n">
+        <v>368.7000122070312</v>
+      </c>
+      <c r="D1459" t="n">
+        <v>356.2000122070312</v>
+      </c>
+      <c r="E1459" t="n">
+        <v>362.8500061035156</v>
+      </c>
+      <c r="F1459" t="n">
+        <v>362.8500061035156</v>
+      </c>
+      <c r="G1459" t="n">
+        <v>1149789</v>
+      </c>
+      <c r="H1459" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1459" t="n">
+        <v>8</v>
+      </c>
+      <c r="J1459" t="n">
+        <v>1</v>
+      </c>
+      <c r="K1459" t="n">
+        <v>12</v>
+      </c>
+      <c r="L1459" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1459" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1459" t="n">
+        <v>31</v>
+      </c>
+      <c r="O1459" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1459" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1459" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1459" t="inlineStr"/>
+    </row>
+    <row r="1460">
+      <c r="A1460" s="2" t="n">
+        <v>45505.55208333334</v>
+      </c>
+      <c r="B1460" t="n">
+        <v>362.7999877929688</v>
+      </c>
+      <c r="C1460" t="n">
+        <v>366.2999877929688</v>
+      </c>
+      <c r="D1460" t="n">
+        <v>360.0499877929688</v>
+      </c>
+      <c r="E1460" t="n">
+        <v>360.2999877929688</v>
+      </c>
+      <c r="F1460" t="n">
+        <v>360.2999877929688</v>
+      </c>
+      <c r="G1460" t="n">
+        <v>500474</v>
+      </c>
+      <c r="H1460" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1460" t="n">
+        <v>8</v>
+      </c>
+      <c r="J1460" t="n">
+        <v>1</v>
+      </c>
+      <c r="K1460" t="n">
+        <v>13</v>
+      </c>
+      <c r="L1460" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1460" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1460" t="n">
+        <v>31</v>
+      </c>
+      <c r="O1460" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1460" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1460" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1460" t="inlineStr"/>
+    </row>
+    <row r="1461">
+      <c r="A1461" s="2" t="n">
+        <v>45505.59375</v>
+      </c>
+      <c r="B1461" t="n">
+        <v>360.1499938964844</v>
+      </c>
+      <c r="C1461" t="n">
+        <v>369</v>
+      </c>
+      <c r="D1461" t="n">
+        <v>357.6499938964844</v>
+      </c>
+      <c r="E1461" t="n">
+        <v>361.25</v>
+      </c>
+      <c r="F1461" t="n">
+        <v>361.25</v>
+      </c>
+      <c r="G1461" t="n">
+        <v>1254190</v>
+      </c>
+      <c r="H1461" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1461" t="n">
+        <v>8</v>
+      </c>
+      <c r="J1461" t="n">
+        <v>1</v>
+      </c>
+      <c r="K1461" t="n">
+        <v>14</v>
+      </c>
+      <c r="L1461" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1461" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1461" t="n">
+        <v>31</v>
+      </c>
+      <c r="O1461" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1461" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1461" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1461" t="inlineStr"/>
+    </row>
+    <row r="1462">
+      <c r="A1462" s="2" t="n">
+        <v>45505.63541666666</v>
+      </c>
+      <c r="B1462" t="n">
+        <v>361.4500122070312</v>
+      </c>
+      <c r="C1462" t="n">
+        <v>364</v>
+      </c>
+      <c r="D1462" t="n">
+        <v>359.5</v>
+      </c>
+      <c r="E1462" t="n">
+        <v>362.5499877929688</v>
+      </c>
+      <c r="F1462" t="n">
+        <v>362.5499877929688</v>
+      </c>
+      <c r="G1462" t="n">
+        <v>367044</v>
+      </c>
+      <c r="H1462" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1462" t="n">
+        <v>8</v>
+      </c>
+      <c r="J1462" t="n">
+        <v>1</v>
+      </c>
+      <c r="K1462" t="n">
+        <v>15</v>
+      </c>
+      <c r="L1462" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1462" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1462" t="n">
+        <v>31</v>
+      </c>
+      <c r="O1462" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1462" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1462" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1462" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/60m/ZAGGLE.NS.xlsx
+++ b/stock_historical_data/60m/ZAGGLE.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R1462"/>
+  <dimension ref="A1:R1469"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -82005,7 +82005,9 @@
       <c r="Q1456" t="n">
         <v>0</v>
       </c>
-      <c r="R1456" t="inlineStr"/>
+      <c r="R1456" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1457">
       <c r="A1457" s="2" t="n">
@@ -82059,7 +82061,9 @@
       <c r="Q1457" t="n">
         <v>0</v>
       </c>
-      <c r="R1457" t="inlineStr"/>
+      <c r="R1457" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1458">
       <c r="A1458" s="2" t="n">
@@ -82105,7 +82109,7 @@
         <v>31</v>
       </c>
       <c r="O1458" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P1458" t="n">
         <v>0</v>
@@ -82113,7 +82117,9 @@
       <c r="Q1458" t="n">
         <v>0</v>
       </c>
-      <c r="R1458" t="inlineStr"/>
+      <c r="R1458" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1459">
       <c r="A1459" s="2" t="n">
@@ -82167,7 +82173,9 @@
       <c r="Q1459" t="n">
         <v>0</v>
       </c>
-      <c r="R1459" t="inlineStr"/>
+      <c r="R1459" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1460">
       <c r="A1460" s="2" t="n">
@@ -82221,7 +82229,9 @@
       <c r="Q1460" t="n">
         <v>0</v>
       </c>
-      <c r="R1460" t="inlineStr"/>
+      <c r="R1460" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1461">
       <c r="A1461" s="2" t="n">
@@ -82275,7 +82285,9 @@
       <c r="Q1461" t="n">
         <v>0</v>
       </c>
-      <c r="R1461" t="inlineStr"/>
+      <c r="R1461" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1462">
       <c r="A1462" s="2" t="n">
@@ -82329,7 +82341,387 @@
       <c r="Q1462" t="n">
         <v>0</v>
       </c>
-      <c r="R1462" t="inlineStr"/>
+      <c r="R1462" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1463">
+      <c r="A1463" s="2" t="n">
+        <v>45506.38541666666</v>
+      </c>
+      <c r="B1463" t="n">
+        <v>354.3500061035156</v>
+      </c>
+      <c r="C1463" t="n">
+        <v>366.8500061035156</v>
+      </c>
+      <c r="D1463" t="n">
+        <v>354.3500061035156</v>
+      </c>
+      <c r="E1463" t="n">
+        <v>361.5</v>
+      </c>
+      <c r="F1463" t="n">
+        <v>361.5</v>
+      </c>
+      <c r="G1463" t="n">
+        <v>1269698</v>
+      </c>
+      <c r="H1463" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1463" t="n">
+        <v>8</v>
+      </c>
+      <c r="J1463" t="n">
+        <v>2</v>
+      </c>
+      <c r="K1463" t="n">
+        <v>9</v>
+      </c>
+      <c r="L1463" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1463" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1463" t="n">
+        <v>31</v>
+      </c>
+      <c r="O1463" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1463" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1463" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1463" t="inlineStr"/>
+    </row>
+    <row r="1464">
+      <c r="A1464" s="2" t="n">
+        <v>45506.42708333334</v>
+      </c>
+      <c r="B1464" t="n">
+        <v>361.7000122070312</v>
+      </c>
+      <c r="C1464" t="n">
+        <v>366.5</v>
+      </c>
+      <c r="D1464" t="n">
+        <v>357.5499877929688</v>
+      </c>
+      <c r="E1464" t="n">
+        <v>359.6000061035156</v>
+      </c>
+      <c r="F1464" t="n">
+        <v>359.6000061035156</v>
+      </c>
+      <c r="G1464" t="n">
+        <v>426684</v>
+      </c>
+      <c r="H1464" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1464" t="n">
+        <v>8</v>
+      </c>
+      <c r="J1464" t="n">
+        <v>2</v>
+      </c>
+      <c r="K1464" t="n">
+        <v>10</v>
+      </c>
+      <c r="L1464" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1464" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1464" t="n">
+        <v>31</v>
+      </c>
+      <c r="O1464" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1464" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1464" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1464" t="inlineStr"/>
+    </row>
+    <row r="1465">
+      <c r="A1465" s="2" t="n">
+        <v>45506.46875</v>
+      </c>
+      <c r="B1465" t="n">
+        <v>359.8999938964844</v>
+      </c>
+      <c r="C1465" t="n">
+        <v>364</v>
+      </c>
+      <c r="D1465" t="n">
+        <v>358.5499877929688</v>
+      </c>
+      <c r="E1465" t="n">
+        <v>362.75</v>
+      </c>
+      <c r="F1465" t="n">
+        <v>362.75</v>
+      </c>
+      <c r="G1465" t="n">
+        <v>254702</v>
+      </c>
+      <c r="H1465" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1465" t="n">
+        <v>8</v>
+      </c>
+      <c r="J1465" t="n">
+        <v>2</v>
+      </c>
+      <c r="K1465" t="n">
+        <v>11</v>
+      </c>
+      <c r="L1465" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1465" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1465" t="n">
+        <v>31</v>
+      </c>
+      <c r="O1465" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1465" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1465" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1465" t="inlineStr"/>
+    </row>
+    <row r="1466">
+      <c r="A1466" s="2" t="n">
+        <v>45506.51041666666</v>
+      </c>
+      <c r="B1466" t="n">
+        <v>362.5</v>
+      </c>
+      <c r="C1466" t="n">
+        <v>362.7999877929688</v>
+      </c>
+      <c r="D1466" t="n">
+        <v>358.2000122070312</v>
+      </c>
+      <c r="E1466" t="n">
+        <v>359.1000061035156</v>
+      </c>
+      <c r="F1466" t="n">
+        <v>359.1000061035156</v>
+      </c>
+      <c r="G1466" t="n">
+        <v>153881</v>
+      </c>
+      <c r="H1466" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1466" t="n">
+        <v>8</v>
+      </c>
+      <c r="J1466" t="n">
+        <v>2</v>
+      </c>
+      <c r="K1466" t="n">
+        <v>12</v>
+      </c>
+      <c r="L1466" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1466" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1466" t="n">
+        <v>31</v>
+      </c>
+      <c r="O1466" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1466" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1466" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1466" t="inlineStr"/>
+    </row>
+    <row r="1467">
+      <c r="A1467" s="2" t="n">
+        <v>45506.55208333334</v>
+      </c>
+      <c r="B1467" t="n">
+        <v>359.1499938964844</v>
+      </c>
+      <c r="C1467" t="n">
+        <v>360.75</v>
+      </c>
+      <c r="D1467" t="n">
+        <v>355.7000122070312</v>
+      </c>
+      <c r="E1467" t="n">
+        <v>356.2000122070312</v>
+      </c>
+      <c r="F1467" t="n">
+        <v>356.2000122070312</v>
+      </c>
+      <c r="G1467" t="n">
+        <v>198225</v>
+      </c>
+      <c r="H1467" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1467" t="n">
+        <v>8</v>
+      </c>
+      <c r="J1467" t="n">
+        <v>2</v>
+      </c>
+      <c r="K1467" t="n">
+        <v>13</v>
+      </c>
+      <c r="L1467" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1467" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1467" t="n">
+        <v>31</v>
+      </c>
+      <c r="O1467" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1467" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1467" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1467" t="inlineStr"/>
+    </row>
+    <row r="1468">
+      <c r="A1468" s="2" t="n">
+        <v>45506.59375</v>
+      </c>
+      <c r="B1468" t="n">
+        <v>356.5499877929688</v>
+      </c>
+      <c r="C1468" t="n">
+        <v>357.5</v>
+      </c>
+      <c r="D1468" t="n">
+        <v>348.1000061035156</v>
+      </c>
+      <c r="E1468" t="n">
+        <v>348.6000061035156</v>
+      </c>
+      <c r="F1468" t="n">
+        <v>348.6000061035156</v>
+      </c>
+      <c r="G1468" t="n">
+        <v>622573</v>
+      </c>
+      <c r="H1468" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1468" t="n">
+        <v>8</v>
+      </c>
+      <c r="J1468" t="n">
+        <v>2</v>
+      </c>
+      <c r="K1468" t="n">
+        <v>14</v>
+      </c>
+      <c r="L1468" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1468" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1468" t="n">
+        <v>31</v>
+      </c>
+      <c r="O1468" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1468" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1468" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1468" t="inlineStr"/>
+    </row>
+    <row r="1469">
+      <c r="A1469" s="2" t="n">
+        <v>45506.63541666666</v>
+      </c>
+      <c r="B1469" t="n">
+        <v>348.5</v>
+      </c>
+      <c r="C1469" t="n">
+        <v>350.7999877929688</v>
+      </c>
+      <c r="D1469" t="n">
+        <v>348.0499877929688</v>
+      </c>
+      <c r="E1469" t="n">
+        <v>349.3999938964844</v>
+      </c>
+      <c r="F1469" t="n">
+        <v>349.3999938964844</v>
+      </c>
+      <c r="G1469" t="n">
+        <v>3393228</v>
+      </c>
+      <c r="H1469" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1469" t="n">
+        <v>8</v>
+      </c>
+      <c r="J1469" t="n">
+        <v>2</v>
+      </c>
+      <c r="K1469" t="n">
+        <v>15</v>
+      </c>
+      <c r="L1469" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1469" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1469" t="n">
+        <v>31</v>
+      </c>
+      <c r="O1469" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1469" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q1469" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1469" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/60m/ZAGGLE.NS.xlsx
+++ b/stock_historical_data/60m/ZAGGLE.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R1469"/>
+  <dimension ref="A1:R1476"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -82397,7 +82397,9 @@
       <c r="Q1463" t="n">
         <v>0</v>
       </c>
-      <c r="R1463" t="inlineStr"/>
+      <c r="R1463" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1464">
       <c r="A1464" s="2" t="n">
@@ -82451,7 +82453,9 @@
       <c r="Q1464" t="n">
         <v>0</v>
       </c>
-      <c r="R1464" t="inlineStr"/>
+      <c r="R1464" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1465">
       <c r="A1465" s="2" t="n">
@@ -82505,7 +82509,9 @@
       <c r="Q1465" t="n">
         <v>0</v>
       </c>
-      <c r="R1465" t="inlineStr"/>
+      <c r="R1465" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1466">
       <c r="A1466" s="2" t="n">
@@ -82559,7 +82565,9 @@
       <c r="Q1466" t="n">
         <v>0</v>
       </c>
-      <c r="R1466" t="inlineStr"/>
+      <c r="R1466" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1467">
       <c r="A1467" s="2" t="n">
@@ -82613,7 +82621,9 @@
       <c r="Q1467" t="n">
         <v>0</v>
       </c>
-      <c r="R1467" t="inlineStr"/>
+      <c r="R1467" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1468">
       <c r="A1468" s="2" t="n">
@@ -82667,7 +82677,9 @@
       <c r="Q1468" t="n">
         <v>0</v>
       </c>
-      <c r="R1468" t="inlineStr"/>
+      <c r="R1468" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1469">
       <c r="A1469" s="2" t="n">
@@ -82721,7 +82733,387 @@
       <c r="Q1469" t="n">
         <v>0</v>
       </c>
-      <c r="R1469" t="inlineStr"/>
+      <c r="R1469" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1470">
+      <c r="A1470" s="2" t="n">
+        <v>45509.38541666666</v>
+      </c>
+      <c r="B1470" t="n">
+        <v>338.0499877929688</v>
+      </c>
+      <c r="C1470" t="n">
+        <v>344.9500122070312</v>
+      </c>
+      <c r="D1470" t="n">
+        <v>331.6000061035156</v>
+      </c>
+      <c r="E1470" t="n">
+        <v>334.6000061035156</v>
+      </c>
+      <c r="F1470" t="n">
+        <v>334.6000061035156</v>
+      </c>
+      <c r="G1470" t="n">
+        <v>0</v>
+      </c>
+      <c r="H1470" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1470" t="n">
+        <v>8</v>
+      </c>
+      <c r="J1470" t="n">
+        <v>5</v>
+      </c>
+      <c r="K1470" t="n">
+        <v>9</v>
+      </c>
+      <c r="L1470" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1470" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1470" t="n">
+        <v>32</v>
+      </c>
+      <c r="O1470" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1470" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1470" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1470" t="inlineStr"/>
+    </row>
+    <row r="1471">
+      <c r="A1471" s="2" t="n">
+        <v>45509.42708333334</v>
+      </c>
+      <c r="B1471" t="n">
+        <v>334.8999938964844</v>
+      </c>
+      <c r="C1471" t="n">
+        <v>334.8999938964844</v>
+      </c>
+      <c r="D1471" t="n">
+        <v>323.2000122070312</v>
+      </c>
+      <c r="E1471" t="n">
+        <v>323.6499938964844</v>
+      </c>
+      <c r="F1471" t="n">
+        <v>323.6499938964844</v>
+      </c>
+      <c r="G1471" t="n">
+        <v>904907</v>
+      </c>
+      <c r="H1471" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1471" t="n">
+        <v>8</v>
+      </c>
+      <c r="J1471" t="n">
+        <v>5</v>
+      </c>
+      <c r="K1471" t="n">
+        <v>10</v>
+      </c>
+      <c r="L1471" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1471" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1471" t="n">
+        <v>32</v>
+      </c>
+      <c r="O1471" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1471" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1471" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1471" t="inlineStr"/>
+    </row>
+    <row r="1472">
+      <c r="A1472" s="2" t="n">
+        <v>45509.46875</v>
+      </c>
+      <c r="B1472" t="n">
+        <v>323.6000061035156</v>
+      </c>
+      <c r="C1472" t="n">
+        <v>327.25</v>
+      </c>
+      <c r="D1472" t="n">
+        <v>321.1000061035156</v>
+      </c>
+      <c r="E1472" t="n">
+        <v>325.4500122070312</v>
+      </c>
+      <c r="F1472" t="n">
+        <v>325.4500122070312</v>
+      </c>
+      <c r="G1472" t="n">
+        <v>463842</v>
+      </c>
+      <c r="H1472" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1472" t="n">
+        <v>8</v>
+      </c>
+      <c r="J1472" t="n">
+        <v>5</v>
+      </c>
+      <c r="K1472" t="n">
+        <v>11</v>
+      </c>
+      <c r="L1472" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1472" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1472" t="n">
+        <v>32</v>
+      </c>
+      <c r="O1472" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1472" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1472" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1472" t="inlineStr"/>
+    </row>
+    <row r="1473">
+      <c r="A1473" s="2" t="n">
+        <v>45509.51041666666</v>
+      </c>
+      <c r="B1473" t="n">
+        <v>325.5499877929688</v>
+      </c>
+      <c r="C1473" t="n">
+        <v>326.7000122070312</v>
+      </c>
+      <c r="D1473" t="n">
+        <v>321.2999877929688</v>
+      </c>
+      <c r="E1473" t="n">
+        <v>325.3500061035156</v>
+      </c>
+      <c r="F1473" t="n">
+        <v>325.3500061035156</v>
+      </c>
+      <c r="G1473" t="n">
+        <v>237357</v>
+      </c>
+      <c r="H1473" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1473" t="n">
+        <v>8</v>
+      </c>
+      <c r="J1473" t="n">
+        <v>5</v>
+      </c>
+      <c r="K1473" t="n">
+        <v>12</v>
+      </c>
+      <c r="L1473" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1473" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1473" t="n">
+        <v>32</v>
+      </c>
+      <c r="O1473" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1473" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1473" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1473" t="inlineStr"/>
+    </row>
+    <row r="1474">
+      <c r="A1474" s="2" t="n">
+        <v>45509.55208333334</v>
+      </c>
+      <c r="B1474" t="n">
+        <v>325.2999877929688</v>
+      </c>
+      <c r="C1474" t="n">
+        <v>328.4500122070312</v>
+      </c>
+      <c r="D1474" t="n">
+        <v>324.3999938964844</v>
+      </c>
+      <c r="E1474" t="n">
+        <v>326.7999877929688</v>
+      </c>
+      <c r="F1474" t="n">
+        <v>326.7999877929688</v>
+      </c>
+      <c r="G1474" t="n">
+        <v>241882</v>
+      </c>
+      <c r="H1474" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1474" t="n">
+        <v>8</v>
+      </c>
+      <c r="J1474" t="n">
+        <v>5</v>
+      </c>
+      <c r="K1474" t="n">
+        <v>13</v>
+      </c>
+      <c r="L1474" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1474" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1474" t="n">
+        <v>32</v>
+      </c>
+      <c r="O1474" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1474" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1474" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1474" t="inlineStr"/>
+    </row>
+    <row r="1475">
+      <c r="A1475" s="2" t="n">
+        <v>45509.59375</v>
+      </c>
+      <c r="B1475" t="n">
+        <v>326.75</v>
+      </c>
+      <c r="C1475" t="n">
+        <v>327.5499877929688</v>
+      </c>
+      <c r="D1475" t="n">
+        <v>323.5</v>
+      </c>
+      <c r="E1475" t="n">
+        <v>324.3500061035156</v>
+      </c>
+      <c r="F1475" t="n">
+        <v>324.3500061035156</v>
+      </c>
+      <c r="G1475" t="n">
+        <v>319939</v>
+      </c>
+      <c r="H1475" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1475" t="n">
+        <v>8</v>
+      </c>
+      <c r="J1475" t="n">
+        <v>5</v>
+      </c>
+      <c r="K1475" t="n">
+        <v>14</v>
+      </c>
+      <c r="L1475" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1475" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1475" t="n">
+        <v>32</v>
+      </c>
+      <c r="O1475" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1475" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1475" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1475" t="inlineStr"/>
+    </row>
+    <row r="1476">
+      <c r="A1476" s="2" t="n">
+        <v>45509.63541666666</v>
+      </c>
+      <c r="B1476" t="n">
+        <v>324.1000061035156</v>
+      </c>
+      <c r="C1476" t="n">
+        <v>324.3500061035156</v>
+      </c>
+      <c r="D1476" t="n">
+        <v>322.1000061035156</v>
+      </c>
+      <c r="E1476" t="n">
+        <v>323.5499877929688</v>
+      </c>
+      <c r="F1476" t="n">
+        <v>323.5499877929688</v>
+      </c>
+      <c r="G1476" t="n">
+        <v>211621</v>
+      </c>
+      <c r="H1476" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1476" t="n">
+        <v>8</v>
+      </c>
+      <c r="J1476" t="n">
+        <v>5</v>
+      </c>
+      <c r="K1476" t="n">
+        <v>15</v>
+      </c>
+      <c r="L1476" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1476" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1476" t="n">
+        <v>32</v>
+      </c>
+      <c r="O1476" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1476" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1476" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1476" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/60m/ZAGGLE.NS.xlsx
+++ b/stock_historical_data/60m/ZAGGLE.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R1476"/>
+  <dimension ref="A1:R1483"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -82789,7 +82789,9 @@
       <c r="Q1470" t="n">
         <v>0</v>
       </c>
-      <c r="R1470" t="inlineStr"/>
+      <c r="R1470" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1471">
       <c r="A1471" s="2" t="n">
@@ -82843,7 +82845,9 @@
       <c r="Q1471" t="n">
         <v>0</v>
       </c>
-      <c r="R1471" t="inlineStr"/>
+      <c r="R1471" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1472">
       <c r="A1472" s="2" t="n">
@@ -82897,7 +82901,9 @@
       <c r="Q1472" t="n">
         <v>0</v>
       </c>
-      <c r="R1472" t="inlineStr"/>
+      <c r="R1472" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1473">
       <c r="A1473" s="2" t="n">
@@ -82951,7 +82957,9 @@
       <c r="Q1473" t="n">
         <v>0</v>
       </c>
-      <c r="R1473" t="inlineStr"/>
+      <c r="R1473" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1474">
       <c r="A1474" s="2" t="n">
@@ -83005,7 +83013,9 @@
       <c r="Q1474" t="n">
         <v>0</v>
       </c>
-      <c r="R1474" t="inlineStr"/>
+      <c r="R1474" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1475">
       <c r="A1475" s="2" t="n">
@@ -83059,7 +83069,9 @@
       <c r="Q1475" t="n">
         <v>0</v>
       </c>
-      <c r="R1475" t="inlineStr"/>
+      <c r="R1475" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1476">
       <c r="A1476" s="2" t="n">
@@ -83113,7 +83125,387 @@
       <c r="Q1476" t="n">
         <v>0</v>
       </c>
-      <c r="R1476" t="inlineStr"/>
+      <c r="R1476" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1477">
+      <c r="A1477" s="2" t="n">
+        <v>45510.38541666666</v>
+      </c>
+      <c r="B1477" t="n">
+        <v>333.2999877929688</v>
+      </c>
+      <c r="C1477" t="n">
+        <v>336.8500061035156</v>
+      </c>
+      <c r="D1477" t="n">
+        <v>327.6000061035156</v>
+      </c>
+      <c r="E1477" t="n">
+        <v>336.7999877929688</v>
+      </c>
+      <c r="F1477" t="n">
+        <v>336.7999877929688</v>
+      </c>
+      <c r="G1477" t="n">
+        <v>673349</v>
+      </c>
+      <c r="H1477" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1477" t="n">
+        <v>8</v>
+      </c>
+      <c r="J1477" t="n">
+        <v>6</v>
+      </c>
+      <c r="K1477" t="n">
+        <v>9</v>
+      </c>
+      <c r="L1477" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1477" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1477" t="n">
+        <v>32</v>
+      </c>
+      <c r="O1477" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1477" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1477" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1477" t="inlineStr"/>
+    </row>
+    <row r="1478">
+      <c r="A1478" s="2" t="n">
+        <v>45510.42708333334</v>
+      </c>
+      <c r="B1478" t="n">
+        <v>337.1000061035156</v>
+      </c>
+      <c r="C1478" t="n">
+        <v>339.8999938964844</v>
+      </c>
+      <c r="D1478" t="n">
+        <v>329.25</v>
+      </c>
+      <c r="E1478" t="n">
+        <v>332.2999877929688</v>
+      </c>
+      <c r="F1478" t="n">
+        <v>332.2999877929688</v>
+      </c>
+      <c r="G1478" t="n">
+        <v>409214</v>
+      </c>
+      <c r="H1478" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1478" t="n">
+        <v>8</v>
+      </c>
+      <c r="J1478" t="n">
+        <v>6</v>
+      </c>
+      <c r="K1478" t="n">
+        <v>10</v>
+      </c>
+      <c r="L1478" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1478" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1478" t="n">
+        <v>32</v>
+      </c>
+      <c r="O1478" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1478" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1478" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1478" t="inlineStr"/>
+    </row>
+    <row r="1479">
+      <c r="A1479" s="2" t="n">
+        <v>45510.46875</v>
+      </c>
+      <c r="B1479" t="n">
+        <v>332.5</v>
+      </c>
+      <c r="C1479" t="n">
+        <v>333.2999877929688</v>
+      </c>
+      <c r="D1479" t="n">
+        <v>329.1000061035156</v>
+      </c>
+      <c r="E1479" t="n">
+        <v>331.2000122070312</v>
+      </c>
+      <c r="F1479" t="n">
+        <v>331.2000122070312</v>
+      </c>
+      <c r="G1479" t="n">
+        <v>98206</v>
+      </c>
+      <c r="H1479" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1479" t="n">
+        <v>8</v>
+      </c>
+      <c r="J1479" t="n">
+        <v>6</v>
+      </c>
+      <c r="K1479" t="n">
+        <v>11</v>
+      </c>
+      <c r="L1479" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1479" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1479" t="n">
+        <v>32</v>
+      </c>
+      <c r="O1479" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1479" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1479" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1479" t="inlineStr"/>
+    </row>
+    <row r="1480">
+      <c r="A1480" s="2" t="n">
+        <v>45510.51041666666</v>
+      </c>
+      <c r="B1480" t="n">
+        <v>331.1000061035156</v>
+      </c>
+      <c r="C1480" t="n">
+        <v>333.75</v>
+      </c>
+      <c r="D1480" t="n">
+        <v>328.8500061035156</v>
+      </c>
+      <c r="E1480" t="n">
+        <v>330.6000061035156</v>
+      </c>
+      <c r="F1480" t="n">
+        <v>330.6000061035156</v>
+      </c>
+      <c r="G1480" t="n">
+        <v>144421</v>
+      </c>
+      <c r="H1480" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1480" t="n">
+        <v>8</v>
+      </c>
+      <c r="J1480" t="n">
+        <v>6</v>
+      </c>
+      <c r="K1480" t="n">
+        <v>12</v>
+      </c>
+      <c r="L1480" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1480" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1480" t="n">
+        <v>32</v>
+      </c>
+      <c r="O1480" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1480" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1480" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1480" t="inlineStr"/>
+    </row>
+    <row r="1481">
+      <c r="A1481" s="2" t="n">
+        <v>45510.55208333334</v>
+      </c>
+      <c r="B1481" t="n">
+        <v>330.7999877929688</v>
+      </c>
+      <c r="C1481" t="n">
+        <v>330.7999877929688</v>
+      </c>
+      <c r="D1481" t="n">
+        <v>323.5499877929688</v>
+      </c>
+      <c r="E1481" t="n">
+        <v>324.2999877929688</v>
+      </c>
+      <c r="F1481" t="n">
+        <v>324.2999877929688</v>
+      </c>
+      <c r="G1481" t="n">
+        <v>210360</v>
+      </c>
+      <c r="H1481" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1481" t="n">
+        <v>8</v>
+      </c>
+      <c r="J1481" t="n">
+        <v>6</v>
+      </c>
+      <c r="K1481" t="n">
+        <v>13</v>
+      </c>
+      <c r="L1481" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1481" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1481" t="n">
+        <v>32</v>
+      </c>
+      <c r="O1481" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1481" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1481" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1481" t="inlineStr"/>
+    </row>
+    <row r="1482">
+      <c r="A1482" s="2" t="n">
+        <v>45510.59375</v>
+      </c>
+      <c r="B1482" t="n">
+        <v>324.0499877929688</v>
+      </c>
+      <c r="C1482" t="n">
+        <v>326.8999938964844</v>
+      </c>
+      <c r="D1482" t="n">
+        <v>320.6499938964844</v>
+      </c>
+      <c r="E1482" t="n">
+        <v>321.25</v>
+      </c>
+      <c r="F1482" t="n">
+        <v>321.25</v>
+      </c>
+      <c r="G1482" t="n">
+        <v>273877</v>
+      </c>
+      <c r="H1482" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1482" t="n">
+        <v>8</v>
+      </c>
+      <c r="J1482" t="n">
+        <v>6</v>
+      </c>
+      <c r="K1482" t="n">
+        <v>14</v>
+      </c>
+      <c r="L1482" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1482" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1482" t="n">
+        <v>32</v>
+      </c>
+      <c r="O1482" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1482" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1482" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1482" t="inlineStr"/>
+    </row>
+    <row r="1483">
+      <c r="A1483" s="2" t="n">
+        <v>45510.63541666666</v>
+      </c>
+      <c r="B1483" t="n">
+        <v>320.8500061035156</v>
+      </c>
+      <c r="C1483" t="n">
+        <v>324.7999877929688</v>
+      </c>
+      <c r="D1483" t="n">
+        <v>319.8500061035156</v>
+      </c>
+      <c r="E1483" t="n">
+        <v>321.4500122070312</v>
+      </c>
+      <c r="F1483" t="n">
+        <v>321.4500122070312</v>
+      </c>
+      <c r="G1483" t="n">
+        <v>95092</v>
+      </c>
+      <c r="H1483" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1483" t="n">
+        <v>8</v>
+      </c>
+      <c r="J1483" t="n">
+        <v>6</v>
+      </c>
+      <c r="K1483" t="n">
+        <v>15</v>
+      </c>
+      <c r="L1483" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1483" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1483" t="n">
+        <v>32</v>
+      </c>
+      <c r="O1483" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1483" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1483" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1483" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/60m/ZAGGLE.NS.xlsx
+++ b/stock_historical_data/60m/ZAGGLE.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R1483"/>
+  <dimension ref="A1:R1490"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -83181,7 +83181,9 @@
       <c r="Q1477" t="n">
         <v>0</v>
       </c>
-      <c r="R1477" t="inlineStr"/>
+      <c r="R1477" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1478">
       <c r="A1478" s="2" t="n">
@@ -83235,7 +83237,9 @@
       <c r="Q1478" t="n">
         <v>0</v>
       </c>
-      <c r="R1478" t="inlineStr"/>
+      <c r="R1478" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1479">
       <c r="A1479" s="2" t="n">
@@ -83289,7 +83293,9 @@
       <c r="Q1479" t="n">
         <v>0</v>
       </c>
-      <c r="R1479" t="inlineStr"/>
+      <c r="R1479" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1480">
       <c r="A1480" s="2" t="n">
@@ -83343,7 +83349,9 @@
       <c r="Q1480" t="n">
         <v>0</v>
       </c>
-      <c r="R1480" t="inlineStr"/>
+      <c r="R1480" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1481">
       <c r="A1481" s="2" t="n">
@@ -83397,7 +83405,9 @@
       <c r="Q1481" t="n">
         <v>0</v>
       </c>
-      <c r="R1481" t="inlineStr"/>
+      <c r="R1481" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1482">
       <c r="A1482" s="2" t="n">
@@ -83451,7 +83461,9 @@
       <c r="Q1482" t="n">
         <v>0</v>
       </c>
-      <c r="R1482" t="inlineStr"/>
+      <c r="R1482" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1483">
       <c r="A1483" s="2" t="n">
@@ -83505,7 +83517,387 @@
       <c r="Q1483" t="n">
         <v>0</v>
       </c>
-      <c r="R1483" t="inlineStr"/>
+      <c r="R1483" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1484">
+      <c r="A1484" s="2" t="n">
+        <v>45511.38541666666</v>
+      </c>
+      <c r="B1484" t="n">
+        <v>332</v>
+      </c>
+      <c r="C1484" t="n">
+        <v>339</v>
+      </c>
+      <c r="D1484" t="n">
+        <v>327.6000061035156</v>
+      </c>
+      <c r="E1484" t="n">
+        <v>336.5499877929688</v>
+      </c>
+      <c r="F1484" t="n">
+        <v>336.5499877929688</v>
+      </c>
+      <c r="G1484" t="n">
+        <v>729847</v>
+      </c>
+      <c r="H1484" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1484" t="n">
+        <v>8</v>
+      </c>
+      <c r="J1484" t="n">
+        <v>7</v>
+      </c>
+      <c r="K1484" t="n">
+        <v>9</v>
+      </c>
+      <c r="L1484" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1484" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1484" t="n">
+        <v>32</v>
+      </c>
+      <c r="O1484" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1484" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1484" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1484" t="inlineStr"/>
+    </row>
+    <row r="1485">
+      <c r="A1485" s="2" t="n">
+        <v>45511.42708333334</v>
+      </c>
+      <c r="B1485" t="n">
+        <v>336.3500061035156</v>
+      </c>
+      <c r="C1485" t="n">
+        <v>343.6000061035156</v>
+      </c>
+      <c r="D1485" t="n">
+        <v>336.3500061035156</v>
+      </c>
+      <c r="E1485" t="n">
+        <v>340.6000061035156</v>
+      </c>
+      <c r="F1485" t="n">
+        <v>340.6000061035156</v>
+      </c>
+      <c r="G1485" t="n">
+        <v>503589</v>
+      </c>
+      <c r="H1485" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1485" t="n">
+        <v>8</v>
+      </c>
+      <c r="J1485" t="n">
+        <v>7</v>
+      </c>
+      <c r="K1485" t="n">
+        <v>10</v>
+      </c>
+      <c r="L1485" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1485" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1485" t="n">
+        <v>32</v>
+      </c>
+      <c r="O1485" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1485" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1485" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1485" t="inlineStr"/>
+    </row>
+    <row r="1486">
+      <c r="A1486" s="2" t="n">
+        <v>45511.46875</v>
+      </c>
+      <c r="B1486" t="n">
+        <v>340.5499877929688</v>
+      </c>
+      <c r="C1486" t="n">
+        <v>343.2000122070312</v>
+      </c>
+      <c r="D1486" t="n">
+        <v>338</v>
+      </c>
+      <c r="E1486" t="n">
+        <v>342.8500061035156</v>
+      </c>
+      <c r="F1486" t="n">
+        <v>342.8500061035156</v>
+      </c>
+      <c r="G1486" t="n">
+        <v>200182</v>
+      </c>
+      <c r="H1486" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1486" t="n">
+        <v>8</v>
+      </c>
+      <c r="J1486" t="n">
+        <v>7</v>
+      </c>
+      <c r="K1486" t="n">
+        <v>11</v>
+      </c>
+      <c r="L1486" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1486" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1486" t="n">
+        <v>32</v>
+      </c>
+      <c r="O1486" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1486" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1486" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1486" t="inlineStr"/>
+    </row>
+    <row r="1487">
+      <c r="A1487" s="2" t="n">
+        <v>45511.51041666666</v>
+      </c>
+      <c r="B1487" t="n">
+        <v>343.7000122070312</v>
+      </c>
+      <c r="C1487" t="n">
+        <v>344.8999938964844</v>
+      </c>
+      <c r="D1487" t="n">
+        <v>341.5499877929688</v>
+      </c>
+      <c r="E1487" t="n">
+        <v>342</v>
+      </c>
+      <c r="F1487" t="n">
+        <v>342</v>
+      </c>
+      <c r="G1487" t="n">
+        <v>234020</v>
+      </c>
+      <c r="H1487" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1487" t="n">
+        <v>8</v>
+      </c>
+      <c r="J1487" t="n">
+        <v>7</v>
+      </c>
+      <c r="K1487" t="n">
+        <v>12</v>
+      </c>
+      <c r="L1487" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1487" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1487" t="n">
+        <v>32</v>
+      </c>
+      <c r="O1487" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1487" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1487" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1487" t="inlineStr"/>
+    </row>
+    <row r="1488">
+      <c r="A1488" s="2" t="n">
+        <v>45511.55208333334</v>
+      </c>
+      <c r="B1488" t="n">
+        <v>342</v>
+      </c>
+      <c r="C1488" t="n">
+        <v>342.4500122070312</v>
+      </c>
+      <c r="D1488" t="n">
+        <v>338.7999877929688</v>
+      </c>
+      <c r="E1488" t="n">
+        <v>340.8999938964844</v>
+      </c>
+      <c r="F1488" t="n">
+        <v>340.8999938964844</v>
+      </c>
+      <c r="G1488" t="n">
+        <v>138115</v>
+      </c>
+      <c r="H1488" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1488" t="n">
+        <v>8</v>
+      </c>
+      <c r="J1488" t="n">
+        <v>7</v>
+      </c>
+      <c r="K1488" t="n">
+        <v>13</v>
+      </c>
+      <c r="L1488" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1488" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1488" t="n">
+        <v>32</v>
+      </c>
+      <c r="O1488" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1488" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1488" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1488" t="inlineStr"/>
+    </row>
+    <row r="1489">
+      <c r="A1489" s="2" t="n">
+        <v>45511.59375</v>
+      </c>
+      <c r="B1489" t="n">
+        <v>340.6000061035156</v>
+      </c>
+      <c r="C1489" t="n">
+        <v>348.2000122070312</v>
+      </c>
+      <c r="D1489" t="n">
+        <v>340.6000061035156</v>
+      </c>
+      <c r="E1489" t="n">
+        <v>347.8999938964844</v>
+      </c>
+      <c r="F1489" t="n">
+        <v>347.8999938964844</v>
+      </c>
+      <c r="G1489" t="n">
+        <v>481299</v>
+      </c>
+      <c r="H1489" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1489" t="n">
+        <v>8</v>
+      </c>
+      <c r="J1489" t="n">
+        <v>7</v>
+      </c>
+      <c r="K1489" t="n">
+        <v>14</v>
+      </c>
+      <c r="L1489" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1489" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1489" t="n">
+        <v>32</v>
+      </c>
+      <c r="O1489" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1489" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1489" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1489" t="inlineStr"/>
+    </row>
+    <row r="1490">
+      <c r="A1490" s="2" t="n">
+        <v>45511.63541666666</v>
+      </c>
+      <c r="B1490" t="n">
+        <v>348</v>
+      </c>
+      <c r="C1490" t="n">
+        <v>348</v>
+      </c>
+      <c r="D1490" t="n">
+        <v>345.8500061035156</v>
+      </c>
+      <c r="E1490" t="n">
+        <v>346.75</v>
+      </c>
+      <c r="F1490" t="n">
+        <v>346.75</v>
+      </c>
+      <c r="G1490" t="n">
+        <v>214392</v>
+      </c>
+      <c r="H1490" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1490" t="n">
+        <v>8</v>
+      </c>
+      <c r="J1490" t="n">
+        <v>7</v>
+      </c>
+      <c r="K1490" t="n">
+        <v>15</v>
+      </c>
+      <c r="L1490" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1490" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1490" t="n">
+        <v>32</v>
+      </c>
+      <c r="O1490" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1490" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1490" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1490" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/60m/ZAGGLE.NS.xlsx
+++ b/stock_historical_data/60m/ZAGGLE.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R1490"/>
+  <dimension ref="A1:R1497"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -83509,7 +83509,7 @@
         <v>32</v>
       </c>
       <c r="O1483" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="P1483" t="n">
         <v>0</v>
@@ -83573,7 +83573,9 @@
       <c r="Q1484" t="n">
         <v>0</v>
       </c>
-      <c r="R1484" t="inlineStr"/>
+      <c r="R1484" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1485">
       <c r="A1485" s="2" t="n">
@@ -83627,7 +83629,9 @@
       <c r="Q1485" t="n">
         <v>0</v>
       </c>
-      <c r="R1485" t="inlineStr"/>
+      <c r="R1485" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1486">
       <c r="A1486" s="2" t="n">
@@ -83681,7 +83685,9 @@
       <c r="Q1486" t="n">
         <v>0</v>
       </c>
-      <c r="R1486" t="inlineStr"/>
+      <c r="R1486" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1487">
       <c r="A1487" s="2" t="n">
@@ -83735,7 +83741,9 @@
       <c r="Q1487" t="n">
         <v>0</v>
       </c>
-      <c r="R1487" t="inlineStr"/>
+      <c r="R1487" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1488">
       <c r="A1488" s="2" t="n">
@@ -83789,7 +83797,9 @@
       <c r="Q1488" t="n">
         <v>0</v>
       </c>
-      <c r="R1488" t="inlineStr"/>
+      <c r="R1488" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1489">
       <c r="A1489" s="2" t="n">
@@ -83843,7 +83853,9 @@
       <c r="Q1489" t="n">
         <v>0</v>
       </c>
-      <c r="R1489" t="inlineStr"/>
+      <c r="R1489" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1490">
       <c r="A1490" s="2" t="n">
@@ -83897,7 +83909,387 @@
       <c r="Q1490" t="n">
         <v>0</v>
       </c>
-      <c r="R1490" t="inlineStr"/>
+      <c r="R1490" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1491">
+      <c r="A1491" s="2" t="n">
+        <v>45512.38541666666</v>
+      </c>
+      <c r="B1491" t="n">
+        <v>343.2000122070312</v>
+      </c>
+      <c r="C1491" t="n">
+        <v>349</v>
+      </c>
+      <c r="D1491" t="n">
+        <v>342.5499877929688</v>
+      </c>
+      <c r="E1491" t="n">
+        <v>345.8999938964844</v>
+      </c>
+      <c r="F1491" t="n">
+        <v>345.8999938964844</v>
+      </c>
+      <c r="G1491" t="n">
+        <v>0</v>
+      </c>
+      <c r="H1491" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1491" t="n">
+        <v>8</v>
+      </c>
+      <c r="J1491" t="n">
+        <v>8</v>
+      </c>
+      <c r="K1491" t="n">
+        <v>9</v>
+      </c>
+      <c r="L1491" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1491" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1491" t="n">
+        <v>32</v>
+      </c>
+      <c r="O1491" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1491" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1491" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1491" t="inlineStr"/>
+    </row>
+    <row r="1492">
+      <c r="A1492" s="2" t="n">
+        <v>45512.42708333334</v>
+      </c>
+      <c r="B1492" t="n">
+        <v>345.6499938964844</v>
+      </c>
+      <c r="C1492" t="n">
+        <v>364.3500061035156</v>
+      </c>
+      <c r="D1492" t="n">
+        <v>344.7000122070312</v>
+      </c>
+      <c r="E1492" t="n">
+        <v>361.8999938964844</v>
+      </c>
+      <c r="F1492" t="n">
+        <v>361.8999938964844</v>
+      </c>
+      <c r="G1492" t="n">
+        <v>1199399</v>
+      </c>
+      <c r="H1492" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1492" t="n">
+        <v>8</v>
+      </c>
+      <c r="J1492" t="n">
+        <v>8</v>
+      </c>
+      <c r="K1492" t="n">
+        <v>10</v>
+      </c>
+      <c r="L1492" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1492" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1492" t="n">
+        <v>32</v>
+      </c>
+      <c r="O1492" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1492" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1492" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1492" t="inlineStr"/>
+    </row>
+    <row r="1493">
+      <c r="A1493" s="2" t="n">
+        <v>45512.46875</v>
+      </c>
+      <c r="B1493" t="n">
+        <v>362</v>
+      </c>
+      <c r="C1493" t="n">
+        <v>374.4500122070312</v>
+      </c>
+      <c r="D1493" t="n">
+        <v>360.1499938964844</v>
+      </c>
+      <c r="E1493" t="n">
+        <v>373</v>
+      </c>
+      <c r="F1493" t="n">
+        <v>373</v>
+      </c>
+      <c r="G1493" t="n">
+        <v>1014887</v>
+      </c>
+      <c r="H1493" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1493" t="n">
+        <v>8</v>
+      </c>
+      <c r="J1493" t="n">
+        <v>8</v>
+      </c>
+      <c r="K1493" t="n">
+        <v>11</v>
+      </c>
+      <c r="L1493" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1493" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1493" t="n">
+        <v>32</v>
+      </c>
+      <c r="O1493" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1493" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1493" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1493" t="inlineStr"/>
+    </row>
+    <row r="1494">
+      <c r="A1494" s="2" t="n">
+        <v>45512.51041666666</v>
+      </c>
+      <c r="B1494" t="n">
+        <v>373.25</v>
+      </c>
+      <c r="C1494" t="n">
+        <v>376.2000122070312</v>
+      </c>
+      <c r="D1494" t="n">
+        <v>363.5499877929688</v>
+      </c>
+      <c r="E1494" t="n">
+        <v>364.8999938964844</v>
+      </c>
+      <c r="F1494" t="n">
+        <v>364.8999938964844</v>
+      </c>
+      <c r="G1494" t="n">
+        <v>973073</v>
+      </c>
+      <c r="H1494" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1494" t="n">
+        <v>8</v>
+      </c>
+      <c r="J1494" t="n">
+        <v>8</v>
+      </c>
+      <c r="K1494" t="n">
+        <v>12</v>
+      </c>
+      <c r="L1494" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1494" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1494" t="n">
+        <v>32</v>
+      </c>
+      <c r="O1494" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1494" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q1494" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1494" t="inlineStr"/>
+    </row>
+    <row r="1495">
+      <c r="A1495" s="2" t="n">
+        <v>45512.55208333334</v>
+      </c>
+      <c r="B1495" t="n">
+        <v>364.8999938964844</v>
+      </c>
+      <c r="C1495" t="n">
+        <v>366.9500122070312</v>
+      </c>
+      <c r="D1495" t="n">
+        <v>362.5499877929688</v>
+      </c>
+      <c r="E1495" t="n">
+        <v>363.0499877929688</v>
+      </c>
+      <c r="F1495" t="n">
+        <v>363.0499877929688</v>
+      </c>
+      <c r="G1495" t="n">
+        <v>207826</v>
+      </c>
+      <c r="H1495" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1495" t="n">
+        <v>8</v>
+      </c>
+      <c r="J1495" t="n">
+        <v>8</v>
+      </c>
+      <c r="K1495" t="n">
+        <v>13</v>
+      </c>
+      <c r="L1495" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1495" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1495" t="n">
+        <v>32</v>
+      </c>
+      <c r="O1495" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1495" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1495" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1495" t="inlineStr"/>
+    </row>
+    <row r="1496">
+      <c r="A1496" s="2" t="n">
+        <v>45512.59375</v>
+      </c>
+      <c r="B1496" t="n">
+        <v>363.0499877929688</v>
+      </c>
+      <c r="C1496" t="n">
+        <v>364.8999938964844</v>
+      </c>
+      <c r="D1496" t="n">
+        <v>360.1000061035156</v>
+      </c>
+      <c r="E1496" t="n">
+        <v>360.25</v>
+      </c>
+      <c r="F1496" t="n">
+        <v>360.25</v>
+      </c>
+      <c r="G1496" t="n">
+        <v>293167</v>
+      </c>
+      <c r="H1496" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1496" t="n">
+        <v>8</v>
+      </c>
+      <c r="J1496" t="n">
+        <v>8</v>
+      </c>
+      <c r="K1496" t="n">
+        <v>14</v>
+      </c>
+      <c r="L1496" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1496" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1496" t="n">
+        <v>32</v>
+      </c>
+      <c r="O1496" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1496" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1496" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1496" t="inlineStr"/>
+    </row>
+    <row r="1497">
+      <c r="A1497" s="2" t="n">
+        <v>45512.63541666666</v>
+      </c>
+      <c r="B1497" t="n">
+        <v>360.25</v>
+      </c>
+      <c r="C1497" t="n">
+        <v>362</v>
+      </c>
+      <c r="D1497" t="n">
+        <v>358.9500122070312</v>
+      </c>
+      <c r="E1497" t="n">
+        <v>360.4500122070312</v>
+      </c>
+      <c r="F1497" t="n">
+        <v>360.4500122070312</v>
+      </c>
+      <c r="G1497" t="n">
+        <v>200340</v>
+      </c>
+      <c r="H1497" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1497" t="n">
+        <v>8</v>
+      </c>
+      <c r="J1497" t="n">
+        <v>8</v>
+      </c>
+      <c r="K1497" t="n">
+        <v>15</v>
+      </c>
+      <c r="L1497" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1497" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1497" t="n">
+        <v>32</v>
+      </c>
+      <c r="O1497" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1497" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1497" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1497" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/60m/ZAGGLE.NS.xlsx
+++ b/stock_historical_data/60m/ZAGGLE.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R1497"/>
+  <dimension ref="A1:R1504"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -83965,7 +83965,9 @@
       <c r="Q1491" t="n">
         <v>0</v>
       </c>
-      <c r="R1491" t="inlineStr"/>
+      <c r="R1491" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1492">
       <c r="A1492" s="2" t="n">
@@ -84019,7 +84021,9 @@
       <c r="Q1492" t="n">
         <v>0</v>
       </c>
-      <c r="R1492" t="inlineStr"/>
+      <c r="R1492" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1493">
       <c r="A1493" s="2" t="n">
@@ -84073,7 +84077,9 @@
       <c r="Q1493" t="n">
         <v>0</v>
       </c>
-      <c r="R1493" t="inlineStr"/>
+      <c r="R1493" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1494">
       <c r="A1494" s="2" t="n">
@@ -84119,7 +84125,7 @@
         <v>32</v>
       </c>
       <c r="O1494" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P1494" t="n">
         <v>1</v>
@@ -84127,7 +84133,9 @@
       <c r="Q1494" t="n">
         <v>0</v>
       </c>
-      <c r="R1494" t="inlineStr"/>
+      <c r="R1494" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="1495">
       <c r="A1495" s="2" t="n">
@@ -84181,7 +84189,9 @@
       <c r="Q1495" t="n">
         <v>0</v>
       </c>
-      <c r="R1495" t="inlineStr"/>
+      <c r="R1495" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1496">
       <c r="A1496" s="2" t="n">
@@ -84235,7 +84245,9 @@
       <c r="Q1496" t="n">
         <v>0</v>
       </c>
-      <c r="R1496" t="inlineStr"/>
+      <c r="R1496" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1497">
       <c r="A1497" s="2" t="n">
@@ -84289,7 +84301,387 @@
       <c r="Q1497" t="n">
         <v>0</v>
       </c>
-      <c r="R1497" t="inlineStr"/>
+      <c r="R1497" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1498">
+      <c r="A1498" s="2" t="n">
+        <v>45513.38541666666</v>
+      </c>
+      <c r="B1498" t="n">
+        <v>363</v>
+      </c>
+      <c r="C1498" t="n">
+        <v>366</v>
+      </c>
+      <c r="D1498" t="n">
+        <v>359.3999938964844</v>
+      </c>
+      <c r="E1498" t="n">
+        <v>359.8500061035156</v>
+      </c>
+      <c r="F1498" t="n">
+        <v>359.8500061035156</v>
+      </c>
+      <c r="G1498" t="n">
+        <v>582772</v>
+      </c>
+      <c r="H1498" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1498" t="n">
+        <v>8</v>
+      </c>
+      <c r="J1498" t="n">
+        <v>9</v>
+      </c>
+      <c r="K1498" t="n">
+        <v>9</v>
+      </c>
+      <c r="L1498" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1498" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1498" t="n">
+        <v>32</v>
+      </c>
+      <c r="O1498" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1498" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1498" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1498" t="inlineStr"/>
+    </row>
+    <row r="1499">
+      <c r="A1499" s="2" t="n">
+        <v>45513.42708333334</v>
+      </c>
+      <c r="B1499" t="n">
+        <v>359.6000061035156</v>
+      </c>
+      <c r="C1499" t="n">
+        <v>365.6499938964844</v>
+      </c>
+      <c r="D1499" t="n">
+        <v>357.2000122070312</v>
+      </c>
+      <c r="E1499" t="n">
+        <v>365</v>
+      </c>
+      <c r="F1499" t="n">
+        <v>365</v>
+      </c>
+      <c r="G1499" t="n">
+        <v>255692</v>
+      </c>
+      <c r="H1499" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1499" t="n">
+        <v>8</v>
+      </c>
+      <c r="J1499" t="n">
+        <v>9</v>
+      </c>
+      <c r="K1499" t="n">
+        <v>10</v>
+      </c>
+      <c r="L1499" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1499" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1499" t="n">
+        <v>32</v>
+      </c>
+      <c r="O1499" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1499" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1499" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1499" t="inlineStr"/>
+    </row>
+    <row r="1500">
+      <c r="A1500" s="2" t="n">
+        <v>45513.46875</v>
+      </c>
+      <c r="B1500" t="n">
+        <v>365</v>
+      </c>
+      <c r="C1500" t="n">
+        <v>369.7999877929688</v>
+      </c>
+      <c r="D1500" t="n">
+        <v>363</v>
+      </c>
+      <c r="E1500" t="n">
+        <v>364.5</v>
+      </c>
+      <c r="F1500" t="n">
+        <v>364.5</v>
+      </c>
+      <c r="G1500" t="n">
+        <v>250705</v>
+      </c>
+      <c r="H1500" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1500" t="n">
+        <v>8</v>
+      </c>
+      <c r="J1500" t="n">
+        <v>9</v>
+      </c>
+      <c r="K1500" t="n">
+        <v>11</v>
+      </c>
+      <c r="L1500" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1500" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1500" t="n">
+        <v>32</v>
+      </c>
+      <c r="O1500" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1500" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1500" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1500" t="inlineStr"/>
+    </row>
+    <row r="1501">
+      <c r="A1501" s="2" t="n">
+        <v>45513.51041666666</v>
+      </c>
+      <c r="B1501" t="n">
+        <v>364.7999877929688</v>
+      </c>
+      <c r="C1501" t="n">
+        <v>364.7999877929688</v>
+      </c>
+      <c r="D1501" t="n">
+        <v>360.9500122070312</v>
+      </c>
+      <c r="E1501" t="n">
+        <v>361.7999877929688</v>
+      </c>
+      <c r="F1501" t="n">
+        <v>361.7999877929688</v>
+      </c>
+      <c r="G1501" t="n">
+        <v>92583</v>
+      </c>
+      <c r="H1501" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1501" t="n">
+        <v>8</v>
+      </c>
+      <c r="J1501" t="n">
+        <v>9</v>
+      </c>
+      <c r="K1501" t="n">
+        <v>12</v>
+      </c>
+      <c r="L1501" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1501" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1501" t="n">
+        <v>32</v>
+      </c>
+      <c r="O1501" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1501" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1501" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1501" t="inlineStr"/>
+    </row>
+    <row r="1502">
+      <c r="A1502" s="2" t="n">
+        <v>45513.55208333334</v>
+      </c>
+      <c r="B1502" t="n">
+        <v>361.5499877929688</v>
+      </c>
+      <c r="C1502" t="n">
+        <v>364.0499877929688</v>
+      </c>
+      <c r="D1502" t="n">
+        <v>361.2999877929688</v>
+      </c>
+      <c r="E1502" t="n">
+        <v>362.5499877929688</v>
+      </c>
+      <c r="F1502" t="n">
+        <v>362.5499877929688</v>
+      </c>
+      <c r="G1502" t="n">
+        <v>101159</v>
+      </c>
+      <c r="H1502" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1502" t="n">
+        <v>8</v>
+      </c>
+      <c r="J1502" t="n">
+        <v>9</v>
+      </c>
+      <c r="K1502" t="n">
+        <v>13</v>
+      </c>
+      <c r="L1502" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1502" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1502" t="n">
+        <v>32</v>
+      </c>
+      <c r="O1502" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1502" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1502" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1502" t="inlineStr"/>
+    </row>
+    <row r="1503">
+      <c r="A1503" s="2" t="n">
+        <v>45513.59375</v>
+      </c>
+      <c r="B1503" t="n">
+        <v>362.4500122070312</v>
+      </c>
+      <c r="C1503" t="n">
+        <v>363</v>
+      </c>
+      <c r="D1503" t="n">
+        <v>358.3999938964844</v>
+      </c>
+      <c r="E1503" t="n">
+        <v>360.0499877929688</v>
+      </c>
+      <c r="F1503" t="n">
+        <v>360.0499877929688</v>
+      </c>
+      <c r="G1503" t="n">
+        <v>178815</v>
+      </c>
+      <c r="H1503" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1503" t="n">
+        <v>8</v>
+      </c>
+      <c r="J1503" t="n">
+        <v>9</v>
+      </c>
+      <c r="K1503" t="n">
+        <v>14</v>
+      </c>
+      <c r="L1503" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1503" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1503" t="n">
+        <v>32</v>
+      </c>
+      <c r="O1503" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1503" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1503" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1503" t="inlineStr"/>
+    </row>
+    <row r="1504">
+      <c r="A1504" s="2" t="n">
+        <v>45513.63541666666</v>
+      </c>
+      <c r="B1504" t="n">
+        <v>360.2000122070312</v>
+      </c>
+      <c r="C1504" t="n">
+        <v>361</v>
+      </c>
+      <c r="D1504" t="n">
+        <v>357.9500122070312</v>
+      </c>
+      <c r="E1504" t="n">
+        <v>360</v>
+      </c>
+      <c r="F1504" t="n">
+        <v>360</v>
+      </c>
+      <c r="G1504" t="n">
+        <v>119795</v>
+      </c>
+      <c r="H1504" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1504" t="n">
+        <v>8</v>
+      </c>
+      <c r="J1504" t="n">
+        <v>9</v>
+      </c>
+      <c r="K1504" t="n">
+        <v>15</v>
+      </c>
+      <c r="L1504" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1504" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1504" t="n">
+        <v>32</v>
+      </c>
+      <c r="O1504" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1504" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1504" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1504" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/60m/ZAGGLE.NS.xlsx
+++ b/stock_historical_data/60m/ZAGGLE.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R1504"/>
+  <dimension ref="A1:R1511"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -84357,7 +84357,9 @@
       <c r="Q1498" t="n">
         <v>0</v>
       </c>
-      <c r="R1498" t="inlineStr"/>
+      <c r="R1498" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1499">
       <c r="A1499" s="2" t="n">
@@ -84411,7 +84413,9 @@
       <c r="Q1499" t="n">
         <v>0</v>
       </c>
-      <c r="R1499" t="inlineStr"/>
+      <c r="R1499" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1500">
       <c r="A1500" s="2" t="n">
@@ -84465,7 +84469,9 @@
       <c r="Q1500" t="n">
         <v>0</v>
       </c>
-      <c r="R1500" t="inlineStr"/>
+      <c r="R1500" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1501">
       <c r="A1501" s="2" t="n">
@@ -84519,7 +84525,9 @@
       <c r="Q1501" t="n">
         <v>0</v>
       </c>
-      <c r="R1501" t="inlineStr"/>
+      <c r="R1501" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1502">
       <c r="A1502" s="2" t="n">
@@ -84573,7 +84581,9 @@
       <c r="Q1502" t="n">
         <v>0</v>
       </c>
-      <c r="R1502" t="inlineStr"/>
+      <c r="R1502" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1503">
       <c r="A1503" s="2" t="n">
@@ -84627,7 +84637,9 @@
       <c r="Q1503" t="n">
         <v>0</v>
       </c>
-      <c r="R1503" t="inlineStr"/>
+      <c r="R1503" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1504">
       <c r="A1504" s="2" t="n">
@@ -84681,7 +84693,387 @@
       <c r="Q1504" t="n">
         <v>0</v>
       </c>
-      <c r="R1504" t="inlineStr"/>
+      <c r="R1504" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1505">
+      <c r="A1505" s="2" t="n">
+        <v>45516.38541666666</v>
+      </c>
+      <c r="B1505" t="n">
+        <v>355.7999877929688</v>
+      </c>
+      <c r="C1505" t="n">
+        <v>368.4500122070312</v>
+      </c>
+      <c r="D1505" t="n">
+        <v>352.75</v>
+      </c>
+      <c r="E1505" t="n">
+        <v>364</v>
+      </c>
+      <c r="F1505" t="n">
+        <v>364</v>
+      </c>
+      <c r="G1505" t="n">
+        <v>0</v>
+      </c>
+      <c r="H1505" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1505" t="n">
+        <v>8</v>
+      </c>
+      <c r="J1505" t="n">
+        <v>12</v>
+      </c>
+      <c r="K1505" t="n">
+        <v>9</v>
+      </c>
+      <c r="L1505" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1505" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1505" t="n">
+        <v>33</v>
+      </c>
+      <c r="O1505" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1505" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1505" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1505" t="inlineStr"/>
+    </row>
+    <row r="1506">
+      <c r="A1506" s="2" t="n">
+        <v>45516.42708333334</v>
+      </c>
+      <c r="B1506" t="n">
+        <v>363.7000122070312</v>
+      </c>
+      <c r="C1506" t="n">
+        <v>374.5</v>
+      </c>
+      <c r="D1506" t="n">
+        <v>363.6499938964844</v>
+      </c>
+      <c r="E1506" t="n">
+        <v>370.5</v>
+      </c>
+      <c r="F1506" t="n">
+        <v>370.5</v>
+      </c>
+      <c r="G1506" t="n">
+        <v>547445</v>
+      </c>
+      <c r="H1506" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1506" t="n">
+        <v>8</v>
+      </c>
+      <c r="J1506" t="n">
+        <v>12</v>
+      </c>
+      <c r="K1506" t="n">
+        <v>10</v>
+      </c>
+      <c r="L1506" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1506" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1506" t="n">
+        <v>33</v>
+      </c>
+      <c r="O1506" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1506" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1506" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1506" t="inlineStr"/>
+    </row>
+    <row r="1507">
+      <c r="A1507" s="2" t="n">
+        <v>45516.46875</v>
+      </c>
+      <c r="B1507" t="n">
+        <v>370.5</v>
+      </c>
+      <c r="C1507" t="n">
+        <v>370.5</v>
+      </c>
+      <c r="D1507" t="n">
+        <v>365.2999877929688</v>
+      </c>
+      <c r="E1507" t="n">
+        <v>367.25</v>
+      </c>
+      <c r="F1507" t="n">
+        <v>367.25</v>
+      </c>
+      <c r="G1507" t="n">
+        <v>253810</v>
+      </c>
+      <c r="H1507" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1507" t="n">
+        <v>8</v>
+      </c>
+      <c r="J1507" t="n">
+        <v>12</v>
+      </c>
+      <c r="K1507" t="n">
+        <v>11</v>
+      </c>
+      <c r="L1507" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1507" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1507" t="n">
+        <v>33</v>
+      </c>
+      <c r="O1507" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1507" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1507" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1507" t="inlineStr"/>
+    </row>
+    <row r="1508">
+      <c r="A1508" s="2" t="n">
+        <v>45516.51041666666</v>
+      </c>
+      <c r="B1508" t="n">
+        <v>366.7999877929688</v>
+      </c>
+      <c r="C1508" t="n">
+        <v>371.9500122070312</v>
+      </c>
+      <c r="D1508" t="n">
+        <v>366.7999877929688</v>
+      </c>
+      <c r="E1508" t="n">
+        <v>368.25</v>
+      </c>
+      <c r="F1508" t="n">
+        <v>368.25</v>
+      </c>
+      <c r="G1508" t="n">
+        <v>144725</v>
+      </c>
+      <c r="H1508" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1508" t="n">
+        <v>8</v>
+      </c>
+      <c r="J1508" t="n">
+        <v>12</v>
+      </c>
+      <c r="K1508" t="n">
+        <v>12</v>
+      </c>
+      <c r="L1508" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1508" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1508" t="n">
+        <v>33</v>
+      </c>
+      <c r="O1508" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1508" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1508" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1508" t="inlineStr"/>
+    </row>
+    <row r="1509">
+      <c r="A1509" s="2" t="n">
+        <v>45516.55208333334</v>
+      </c>
+      <c r="B1509" t="n">
+        <v>368.2999877929688</v>
+      </c>
+      <c r="C1509" t="n">
+        <v>368.8999938964844</v>
+      </c>
+      <c r="D1509" t="n">
+        <v>359.2000122070312</v>
+      </c>
+      <c r="E1509" t="n">
+        <v>359.9500122070312</v>
+      </c>
+      <c r="F1509" t="n">
+        <v>359.9500122070312</v>
+      </c>
+      <c r="G1509" t="n">
+        <v>182802</v>
+      </c>
+      <c r="H1509" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1509" t="n">
+        <v>8</v>
+      </c>
+      <c r="J1509" t="n">
+        <v>12</v>
+      </c>
+      <c r="K1509" t="n">
+        <v>13</v>
+      </c>
+      <c r="L1509" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1509" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1509" t="n">
+        <v>33</v>
+      </c>
+      <c r="O1509" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1509" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1509" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1509" t="inlineStr"/>
+    </row>
+    <row r="1510">
+      <c r="A1510" s="2" t="n">
+        <v>45516.59375</v>
+      </c>
+      <c r="B1510" t="n">
+        <v>359.9500122070312</v>
+      </c>
+      <c r="C1510" t="n">
+        <v>364.6499938964844</v>
+      </c>
+      <c r="D1510" t="n">
+        <v>357.6499938964844</v>
+      </c>
+      <c r="E1510" t="n">
+        <v>360.8999938964844</v>
+      </c>
+      <c r="F1510" t="n">
+        <v>360.8999938964844</v>
+      </c>
+      <c r="G1510" t="n">
+        <v>289479</v>
+      </c>
+      <c r="H1510" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1510" t="n">
+        <v>8</v>
+      </c>
+      <c r="J1510" t="n">
+        <v>12</v>
+      </c>
+      <c r="K1510" t="n">
+        <v>14</v>
+      </c>
+      <c r="L1510" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1510" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1510" t="n">
+        <v>33</v>
+      </c>
+      <c r="O1510" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1510" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1510" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1510" t="inlineStr"/>
+    </row>
+    <row r="1511">
+      <c r="A1511" s="2" t="n">
+        <v>45516.63541666666</v>
+      </c>
+      <c r="B1511" t="n">
+        <v>360.7999877929688</v>
+      </c>
+      <c r="C1511" t="n">
+        <v>363.4500122070312</v>
+      </c>
+      <c r="D1511" t="n">
+        <v>360.1499938964844</v>
+      </c>
+      <c r="E1511" t="n">
+        <v>361.2000122070312</v>
+      </c>
+      <c r="F1511" t="n">
+        <v>361.2000122070312</v>
+      </c>
+      <c r="G1511" t="n">
+        <v>110113</v>
+      </c>
+      <c r="H1511" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1511" t="n">
+        <v>8</v>
+      </c>
+      <c r="J1511" t="n">
+        <v>12</v>
+      </c>
+      <c r="K1511" t="n">
+        <v>15</v>
+      </c>
+      <c r="L1511" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1511" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1511" t="n">
+        <v>33</v>
+      </c>
+      <c r="O1511" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1511" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1511" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1511" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/60m/ZAGGLE.NS.xlsx
+++ b/stock_historical_data/60m/ZAGGLE.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R1511"/>
+  <dimension ref="A1:R1518"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -84741,7 +84741,7 @@
         <v>33</v>
       </c>
       <c r="O1505" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="P1505" t="n">
         <v>0</v>
@@ -84749,7 +84749,9 @@
       <c r="Q1505" t="n">
         <v>0</v>
       </c>
-      <c r="R1505" t="inlineStr"/>
+      <c r="R1505" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1506">
       <c r="A1506" s="2" t="n">
@@ -84795,7 +84797,7 @@
         <v>33</v>
       </c>
       <c r="O1506" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P1506" t="n">
         <v>0</v>
@@ -84803,7 +84805,9 @@
       <c r="Q1506" t="n">
         <v>0</v>
       </c>
-      <c r="R1506" t="inlineStr"/>
+      <c r="R1506" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1507">
       <c r="A1507" s="2" t="n">
@@ -84857,7 +84861,9 @@
       <c r="Q1507" t="n">
         <v>0</v>
       </c>
-      <c r="R1507" t="inlineStr"/>
+      <c r="R1507" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1508">
       <c r="A1508" s="2" t="n">
@@ -84911,7 +84917,9 @@
       <c r="Q1508" t="n">
         <v>0</v>
       </c>
-      <c r="R1508" t="inlineStr"/>
+      <c r="R1508" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1509">
       <c r="A1509" s="2" t="n">
@@ -84965,7 +84973,9 @@
       <c r="Q1509" t="n">
         <v>0</v>
       </c>
-      <c r="R1509" t="inlineStr"/>
+      <c r="R1509" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1510">
       <c r="A1510" s="2" t="n">
@@ -85019,7 +85029,9 @@
       <c r="Q1510" t="n">
         <v>0</v>
       </c>
-      <c r="R1510" t="inlineStr"/>
+      <c r="R1510" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1511">
       <c r="A1511" s="2" t="n">
@@ -85073,7 +85085,387 @@
       <c r="Q1511" t="n">
         <v>0</v>
       </c>
-      <c r="R1511" t="inlineStr"/>
+      <c r="R1511" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1512">
+      <c r="A1512" s="2" t="n">
+        <v>45517.38541666666</v>
+      </c>
+      <c r="B1512" t="n">
+        <v>363.4500122070312</v>
+      </c>
+      <c r="C1512" t="n">
+        <v>364.5</v>
+      </c>
+      <c r="D1512" t="n">
+        <v>358</v>
+      </c>
+      <c r="E1512" t="n">
+        <v>360.75</v>
+      </c>
+      <c r="F1512" t="n">
+        <v>360.75</v>
+      </c>
+      <c r="G1512" t="n">
+        <v>0</v>
+      </c>
+      <c r="H1512" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1512" t="n">
+        <v>8</v>
+      </c>
+      <c r="J1512" t="n">
+        <v>13</v>
+      </c>
+      <c r="K1512" t="n">
+        <v>9</v>
+      </c>
+      <c r="L1512" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1512" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1512" t="n">
+        <v>33</v>
+      </c>
+      <c r="O1512" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1512" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1512" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1512" t="inlineStr"/>
+    </row>
+    <row r="1513">
+      <c r="A1513" s="2" t="n">
+        <v>45517.42708333334</v>
+      </c>
+      <c r="B1513" t="n">
+        <v>360.3999938964844</v>
+      </c>
+      <c r="C1513" t="n">
+        <v>360.9500122070312</v>
+      </c>
+      <c r="D1513" t="n">
+        <v>356.6000061035156</v>
+      </c>
+      <c r="E1513" t="n">
+        <v>359</v>
+      </c>
+      <c r="F1513" t="n">
+        <v>359</v>
+      </c>
+      <c r="G1513" t="n">
+        <v>133116</v>
+      </c>
+      <c r="H1513" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1513" t="n">
+        <v>8</v>
+      </c>
+      <c r="J1513" t="n">
+        <v>13</v>
+      </c>
+      <c r="K1513" t="n">
+        <v>10</v>
+      </c>
+      <c r="L1513" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1513" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1513" t="n">
+        <v>33</v>
+      </c>
+      <c r="O1513" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1513" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1513" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1513" t="inlineStr"/>
+    </row>
+    <row r="1514">
+      <c r="A1514" s="2" t="n">
+        <v>45517.46875</v>
+      </c>
+      <c r="B1514" t="n">
+        <v>359.2000122070312</v>
+      </c>
+      <c r="C1514" t="n">
+        <v>361.3999938964844</v>
+      </c>
+      <c r="D1514" t="n">
+        <v>356.6499938964844</v>
+      </c>
+      <c r="E1514" t="n">
+        <v>357.25</v>
+      </c>
+      <c r="F1514" t="n">
+        <v>357.25</v>
+      </c>
+      <c r="G1514" t="n">
+        <v>85518</v>
+      </c>
+      <c r="H1514" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1514" t="n">
+        <v>8</v>
+      </c>
+      <c r="J1514" t="n">
+        <v>13</v>
+      </c>
+      <c r="K1514" t="n">
+        <v>11</v>
+      </c>
+      <c r="L1514" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1514" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1514" t="n">
+        <v>33</v>
+      </c>
+      <c r="O1514" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1514" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1514" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1514" t="inlineStr"/>
+    </row>
+    <row r="1515">
+      <c r="A1515" s="2" t="n">
+        <v>45517.51041666666</v>
+      </c>
+      <c r="B1515" t="n">
+        <v>356.8999938964844</v>
+      </c>
+      <c r="C1515" t="n">
+        <v>357.3999938964844</v>
+      </c>
+      <c r="D1515" t="n">
+        <v>353</v>
+      </c>
+      <c r="E1515" t="n">
+        <v>354.2000122070312</v>
+      </c>
+      <c r="F1515" t="n">
+        <v>354.2000122070312</v>
+      </c>
+      <c r="G1515" t="n">
+        <v>195024</v>
+      </c>
+      <c r="H1515" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1515" t="n">
+        <v>8</v>
+      </c>
+      <c r="J1515" t="n">
+        <v>13</v>
+      </c>
+      <c r="K1515" t="n">
+        <v>12</v>
+      </c>
+      <c r="L1515" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1515" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1515" t="n">
+        <v>33</v>
+      </c>
+      <c r="O1515" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1515" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1515" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1515" t="inlineStr"/>
+    </row>
+    <row r="1516">
+      <c r="A1516" s="2" t="n">
+        <v>45517.55208333334</v>
+      </c>
+      <c r="B1516" t="n">
+        <v>354.5499877929688</v>
+      </c>
+      <c r="C1516" t="n">
+        <v>356.2000122070312</v>
+      </c>
+      <c r="D1516" t="n">
+        <v>348.5</v>
+      </c>
+      <c r="E1516" t="n">
+        <v>352.2000122070312</v>
+      </c>
+      <c r="F1516" t="n">
+        <v>352.2000122070312</v>
+      </c>
+      <c r="G1516" t="n">
+        <v>207174</v>
+      </c>
+      <c r="H1516" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1516" t="n">
+        <v>8</v>
+      </c>
+      <c r="J1516" t="n">
+        <v>13</v>
+      </c>
+      <c r="K1516" t="n">
+        <v>13</v>
+      </c>
+      <c r="L1516" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1516" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1516" t="n">
+        <v>33</v>
+      </c>
+      <c r="O1516" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1516" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1516" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1516" t="inlineStr"/>
+    </row>
+    <row r="1517">
+      <c r="A1517" s="2" t="n">
+        <v>45517.59375</v>
+      </c>
+      <c r="B1517" t="n">
+        <v>352.2000122070312</v>
+      </c>
+      <c r="C1517" t="n">
+        <v>358.5</v>
+      </c>
+      <c r="D1517" t="n">
+        <v>346.75</v>
+      </c>
+      <c r="E1517" t="n">
+        <v>353.3500061035156</v>
+      </c>
+      <c r="F1517" t="n">
+        <v>353.3500061035156</v>
+      </c>
+      <c r="G1517" t="n">
+        <v>472521</v>
+      </c>
+      <c r="H1517" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1517" t="n">
+        <v>8</v>
+      </c>
+      <c r="J1517" t="n">
+        <v>13</v>
+      </c>
+      <c r="K1517" t="n">
+        <v>14</v>
+      </c>
+      <c r="L1517" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1517" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1517" t="n">
+        <v>33</v>
+      </c>
+      <c r="O1517" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1517" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q1517" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1517" t="inlineStr"/>
+    </row>
+    <row r="1518">
+      <c r="A1518" s="2" t="n">
+        <v>45517.63541666666</v>
+      </c>
+      <c r="B1518" t="n">
+        <v>353</v>
+      </c>
+      <c r="C1518" t="n">
+        <v>353.3500061035156</v>
+      </c>
+      <c r="D1518" t="n">
+        <v>349.6000061035156</v>
+      </c>
+      <c r="E1518" t="n">
+        <v>353.0499877929688</v>
+      </c>
+      <c r="F1518" t="n">
+        <v>353.0499877929688</v>
+      </c>
+      <c r="G1518" t="n">
+        <v>154238</v>
+      </c>
+      <c r="H1518" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1518" t="n">
+        <v>8</v>
+      </c>
+      <c r="J1518" t="n">
+        <v>13</v>
+      </c>
+      <c r="K1518" t="n">
+        <v>15</v>
+      </c>
+      <c r="L1518" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1518" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1518" t="n">
+        <v>33</v>
+      </c>
+      <c r="O1518" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1518" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1518" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1518" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/60m/ZAGGLE.NS.xlsx
+++ b/stock_historical_data/60m/ZAGGLE.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R1518"/>
+  <dimension ref="A1:R1525"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -85141,7 +85141,9 @@
       <c r="Q1512" t="n">
         <v>0</v>
       </c>
-      <c r="R1512" t="inlineStr"/>
+      <c r="R1512" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1513">
       <c r="A1513" s="2" t="n">
@@ -85195,7 +85197,9 @@
       <c r="Q1513" t="n">
         <v>0</v>
       </c>
-      <c r="R1513" t="inlineStr"/>
+      <c r="R1513" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1514">
       <c r="A1514" s="2" t="n">
@@ -85249,7 +85253,9 @@
       <c r="Q1514" t="n">
         <v>0</v>
       </c>
-      <c r="R1514" t="inlineStr"/>
+      <c r="R1514" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1515">
       <c r="A1515" s="2" t="n">
@@ -85303,7 +85309,9 @@
       <c r="Q1515" t="n">
         <v>0</v>
       </c>
-      <c r="R1515" t="inlineStr"/>
+      <c r="R1515" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1516">
       <c r="A1516" s="2" t="n">
@@ -85357,7 +85365,9 @@
       <c r="Q1516" t="n">
         <v>0</v>
       </c>
-      <c r="R1516" t="inlineStr"/>
+      <c r="R1516" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1517">
       <c r="A1517" s="2" t="n">
@@ -85411,7 +85421,9 @@
       <c r="Q1517" t="n">
         <v>0</v>
       </c>
-      <c r="R1517" t="inlineStr"/>
+      <c r="R1517" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="1518">
       <c r="A1518" s="2" t="n">
@@ -85465,7 +85477,387 @@
       <c r="Q1518" t="n">
         <v>0</v>
       </c>
-      <c r="R1518" t="inlineStr"/>
+      <c r="R1518" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1519">
+      <c r="A1519" s="2" t="n">
+        <v>45518.38541666666</v>
+      </c>
+      <c r="B1519" t="n">
+        <v>353</v>
+      </c>
+      <c r="C1519" t="n">
+        <v>355.2999877929688</v>
+      </c>
+      <c r="D1519" t="n">
+        <v>344.0499877929688</v>
+      </c>
+      <c r="E1519" t="n">
+        <v>351.8999938964844</v>
+      </c>
+      <c r="F1519" t="n">
+        <v>351.8999938964844</v>
+      </c>
+      <c r="G1519" t="n">
+        <v>475377</v>
+      </c>
+      <c r="H1519" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1519" t="n">
+        <v>8</v>
+      </c>
+      <c r="J1519" t="n">
+        <v>14</v>
+      </c>
+      <c r="K1519" t="n">
+        <v>9</v>
+      </c>
+      <c r="L1519" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1519" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1519" t="n">
+        <v>33</v>
+      </c>
+      <c r="O1519" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1519" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1519" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1519" t="inlineStr"/>
+    </row>
+    <row r="1520">
+      <c r="A1520" s="2" t="n">
+        <v>45518.42708333334</v>
+      </c>
+      <c r="B1520" t="n">
+        <v>351.7000122070312</v>
+      </c>
+      <c r="C1520" t="n">
+        <v>354.8999938964844</v>
+      </c>
+      <c r="D1520" t="n">
+        <v>349</v>
+      </c>
+      <c r="E1520" t="n">
+        <v>349</v>
+      </c>
+      <c r="F1520" t="n">
+        <v>349</v>
+      </c>
+      <c r="G1520" t="n">
+        <v>176371</v>
+      </c>
+      <c r="H1520" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1520" t="n">
+        <v>8</v>
+      </c>
+      <c r="J1520" t="n">
+        <v>14</v>
+      </c>
+      <c r="K1520" t="n">
+        <v>10</v>
+      </c>
+      <c r="L1520" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1520" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1520" t="n">
+        <v>33</v>
+      </c>
+      <c r="O1520" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1520" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1520" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1520" t="inlineStr"/>
+    </row>
+    <row r="1521">
+      <c r="A1521" s="2" t="n">
+        <v>45518.46875</v>
+      </c>
+      <c r="B1521" t="n">
+        <v>349.25</v>
+      </c>
+      <c r="C1521" t="n">
+        <v>351.7999877929688</v>
+      </c>
+      <c r="D1521" t="n">
+        <v>348.1000061035156</v>
+      </c>
+      <c r="E1521" t="n">
+        <v>351.0499877929688</v>
+      </c>
+      <c r="F1521" t="n">
+        <v>351.0499877929688</v>
+      </c>
+      <c r="G1521" t="n">
+        <v>87420</v>
+      </c>
+      <c r="H1521" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1521" t="n">
+        <v>8</v>
+      </c>
+      <c r="J1521" t="n">
+        <v>14</v>
+      </c>
+      <c r="K1521" t="n">
+        <v>11</v>
+      </c>
+      <c r="L1521" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1521" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1521" t="n">
+        <v>33</v>
+      </c>
+      <c r="O1521" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1521" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1521" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1521" t="inlineStr"/>
+    </row>
+    <row r="1522">
+      <c r="A1522" s="2" t="n">
+        <v>45518.51041666666</v>
+      </c>
+      <c r="B1522" t="n">
+        <v>351.7000122070312</v>
+      </c>
+      <c r="C1522" t="n">
+        <v>363.5499877929688</v>
+      </c>
+      <c r="D1522" t="n">
+        <v>350.7999877929688</v>
+      </c>
+      <c r="E1522" t="n">
+        <v>357.1499938964844</v>
+      </c>
+      <c r="F1522" t="n">
+        <v>357.1499938964844</v>
+      </c>
+      <c r="G1522" t="n">
+        <v>378465</v>
+      </c>
+      <c r="H1522" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1522" t="n">
+        <v>8</v>
+      </c>
+      <c r="J1522" t="n">
+        <v>14</v>
+      </c>
+      <c r="K1522" t="n">
+        <v>12</v>
+      </c>
+      <c r="L1522" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1522" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1522" t="n">
+        <v>33</v>
+      </c>
+      <c r="O1522" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1522" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1522" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1522" t="inlineStr"/>
+    </row>
+    <row r="1523">
+      <c r="A1523" s="2" t="n">
+        <v>45518.55208333334</v>
+      </c>
+      <c r="B1523" t="n">
+        <v>356.75</v>
+      </c>
+      <c r="C1523" t="n">
+        <v>358.3500061035156</v>
+      </c>
+      <c r="D1523" t="n">
+        <v>354.5499877929688</v>
+      </c>
+      <c r="E1523" t="n">
+        <v>357.75</v>
+      </c>
+      <c r="F1523" t="n">
+        <v>357.75</v>
+      </c>
+      <c r="G1523" t="n">
+        <v>91429</v>
+      </c>
+      <c r="H1523" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1523" t="n">
+        <v>8</v>
+      </c>
+      <c r="J1523" t="n">
+        <v>14</v>
+      </c>
+      <c r="K1523" t="n">
+        <v>13</v>
+      </c>
+      <c r="L1523" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1523" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1523" t="n">
+        <v>33</v>
+      </c>
+      <c r="O1523" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1523" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1523" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1523" t="inlineStr"/>
+    </row>
+    <row r="1524">
+      <c r="A1524" s="2" t="n">
+        <v>45518.59375</v>
+      </c>
+      <c r="B1524" t="n">
+        <v>357.75</v>
+      </c>
+      <c r="C1524" t="n">
+        <v>358</v>
+      </c>
+      <c r="D1524" t="n">
+        <v>351.5499877929688</v>
+      </c>
+      <c r="E1524" t="n">
+        <v>351.6000061035156</v>
+      </c>
+      <c r="F1524" t="n">
+        <v>351.6000061035156</v>
+      </c>
+      <c r="G1524" t="n">
+        <v>136520</v>
+      </c>
+      <c r="H1524" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1524" t="n">
+        <v>8</v>
+      </c>
+      <c r="J1524" t="n">
+        <v>14</v>
+      </c>
+      <c r="K1524" t="n">
+        <v>14</v>
+      </c>
+      <c r="L1524" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1524" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1524" t="n">
+        <v>33</v>
+      </c>
+      <c r="O1524" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1524" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1524" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1524" t="inlineStr"/>
+    </row>
+    <row r="1525">
+      <c r="A1525" s="2" t="n">
+        <v>45518.63541666666</v>
+      </c>
+      <c r="B1525" t="n">
+        <v>351.5499877929688</v>
+      </c>
+      <c r="C1525" t="n">
+        <v>354</v>
+      </c>
+      <c r="D1525" t="n">
+        <v>351.5499877929688</v>
+      </c>
+      <c r="E1525" t="n">
+        <v>352.6000061035156</v>
+      </c>
+      <c r="F1525" t="n">
+        <v>352.6000061035156</v>
+      </c>
+      <c r="G1525" t="n">
+        <v>72429</v>
+      </c>
+      <c r="H1525" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1525" t="n">
+        <v>8</v>
+      </c>
+      <c r="J1525" t="n">
+        <v>14</v>
+      </c>
+      <c r="K1525" t="n">
+        <v>15</v>
+      </c>
+      <c r="L1525" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1525" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1525" t="n">
+        <v>33</v>
+      </c>
+      <c r="O1525" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1525" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1525" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1525" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/60m/ZAGGLE.NS.xlsx
+++ b/stock_historical_data/60m/ZAGGLE.NS.xlsx
@@ -85533,7 +85533,9 @@
       <c r="Q1519" t="n">
         <v>0</v>
       </c>
-      <c r="R1519" t="inlineStr"/>
+      <c r="R1519" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1520">
       <c r="A1520" s="2" t="n">
@@ -85587,7 +85589,9 @@
       <c r="Q1520" t="n">
         <v>0</v>
       </c>
-      <c r="R1520" t="inlineStr"/>
+      <c r="R1520" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1521">
       <c r="A1521" s="2" t="n">
@@ -85641,7 +85645,9 @@
       <c r="Q1521" t="n">
         <v>0</v>
       </c>
-      <c r="R1521" t="inlineStr"/>
+      <c r="R1521" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1522">
       <c r="A1522" s="2" t="n">
@@ -85695,7 +85701,9 @@
       <c r="Q1522" t="n">
         <v>0</v>
       </c>
-      <c r="R1522" t="inlineStr"/>
+      <c r="R1522" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1523">
       <c r="A1523" s="2" t="n">
@@ -85749,7 +85757,9 @@
       <c r="Q1523" t="n">
         <v>0</v>
       </c>
-      <c r="R1523" t="inlineStr"/>
+      <c r="R1523" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1524">
       <c r="A1524" s="2" t="n">
@@ -85803,7 +85813,9 @@
       <c r="Q1524" t="n">
         <v>0</v>
       </c>
-      <c r="R1524" t="inlineStr"/>
+      <c r="R1524" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1525">
       <c r="A1525" s="2" t="n">
@@ -85857,7 +85869,9 @@
       <c r="Q1525" t="n">
         <v>0</v>
       </c>
-      <c r="R1525" t="inlineStr"/>
+      <c r="R1525" t="n">
+        <v>0</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/60m/ZAGGLE.NS.xlsx
+++ b/stock_historical_data/60m/ZAGGLE.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R1525"/>
+  <dimension ref="A1:R1532"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -85525,7 +85525,7 @@
         <v>33</v>
       </c>
       <c r="O1519" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="P1519" t="n">
         <v>0</v>
@@ -85872,6 +85872,384 @@
       <c r="R1525" t="n">
         <v>0</v>
       </c>
+    </row>
+    <row r="1526">
+      <c r="A1526" s="2" t="n">
+        <v>45520.38541666666</v>
+      </c>
+      <c r="B1526" t="n">
+        <v>357.75</v>
+      </c>
+      <c r="C1526" t="n">
+        <v>388</v>
+      </c>
+      <c r="D1526" t="n">
+        <v>357.75</v>
+      </c>
+      <c r="E1526" t="n">
+        <v>380.2000122070312</v>
+      </c>
+      <c r="F1526" t="n">
+        <v>380.2000122070312</v>
+      </c>
+      <c r="G1526" t="n">
+        <v>1048656</v>
+      </c>
+      <c r="H1526" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1526" t="n">
+        <v>8</v>
+      </c>
+      <c r="J1526" t="n">
+        <v>16</v>
+      </c>
+      <c r="K1526" t="n">
+        <v>9</v>
+      </c>
+      <c r="L1526" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1526" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1526" t="n">
+        <v>33</v>
+      </c>
+      <c r="O1526" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1526" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1526" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1526" t="inlineStr"/>
+    </row>
+    <row r="1527">
+      <c r="A1527" s="2" t="n">
+        <v>45520.42708333334</v>
+      </c>
+      <c r="B1527" t="n">
+        <v>380.1000061035156</v>
+      </c>
+      <c r="C1527" t="n">
+        <v>389.8999938964844</v>
+      </c>
+      <c r="D1527" t="n">
+        <v>378.2999877929688</v>
+      </c>
+      <c r="E1527" t="n">
+        <v>383.5</v>
+      </c>
+      <c r="F1527" t="n">
+        <v>383.5</v>
+      </c>
+      <c r="G1527" t="n">
+        <v>825197</v>
+      </c>
+      <c r="H1527" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1527" t="n">
+        <v>8</v>
+      </c>
+      <c r="J1527" t="n">
+        <v>16</v>
+      </c>
+      <c r="K1527" t="n">
+        <v>10</v>
+      </c>
+      <c r="L1527" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1527" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1527" t="n">
+        <v>33</v>
+      </c>
+      <c r="O1527" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1527" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1527" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1527" t="inlineStr"/>
+    </row>
+    <row r="1528">
+      <c r="A1528" s="2" t="n">
+        <v>45520.46875</v>
+      </c>
+      <c r="B1528" t="n">
+        <v>383.7000122070312</v>
+      </c>
+      <c r="C1528" t="n">
+        <v>385.3500061035156</v>
+      </c>
+      <c r="D1528" t="n">
+        <v>378.5</v>
+      </c>
+      <c r="E1528" t="n">
+        <v>378.5</v>
+      </c>
+      <c r="F1528" t="n">
+        <v>378.5</v>
+      </c>
+      <c r="G1528" t="n">
+        <v>534075</v>
+      </c>
+      <c r="H1528" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1528" t="n">
+        <v>8</v>
+      </c>
+      <c r="J1528" t="n">
+        <v>16</v>
+      </c>
+      <c r="K1528" t="n">
+        <v>11</v>
+      </c>
+      <c r="L1528" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1528" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1528" t="n">
+        <v>33</v>
+      </c>
+      <c r="O1528" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1528" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1528" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1528" t="inlineStr"/>
+    </row>
+    <row r="1529">
+      <c r="A1529" s="2" t="n">
+        <v>45520.51041666666</v>
+      </c>
+      <c r="B1529" t="n">
+        <v>378</v>
+      </c>
+      <c r="C1529" t="n">
+        <v>381.2000122070312</v>
+      </c>
+      <c r="D1529" t="n">
+        <v>377.5499877929688</v>
+      </c>
+      <c r="E1529" t="n">
+        <v>379.75</v>
+      </c>
+      <c r="F1529" t="n">
+        <v>379.75</v>
+      </c>
+      <c r="G1529" t="n">
+        <v>221991</v>
+      </c>
+      <c r="H1529" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1529" t="n">
+        <v>8</v>
+      </c>
+      <c r="J1529" t="n">
+        <v>16</v>
+      </c>
+      <c r="K1529" t="n">
+        <v>12</v>
+      </c>
+      <c r="L1529" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1529" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1529" t="n">
+        <v>33</v>
+      </c>
+      <c r="O1529" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1529" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1529" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1529" t="inlineStr"/>
+    </row>
+    <row r="1530">
+      <c r="A1530" s="2" t="n">
+        <v>45520.55208333334</v>
+      </c>
+      <c r="B1530" t="n">
+        <v>379.4500122070312</v>
+      </c>
+      <c r="C1530" t="n">
+        <v>380</v>
+      </c>
+      <c r="D1530" t="n">
+        <v>370.3999938964844</v>
+      </c>
+      <c r="E1530" t="n">
+        <v>372.4500122070312</v>
+      </c>
+      <c r="F1530" t="n">
+        <v>372.4500122070312</v>
+      </c>
+      <c r="G1530" t="n">
+        <v>414893</v>
+      </c>
+      <c r="H1530" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1530" t="n">
+        <v>8</v>
+      </c>
+      <c r="J1530" t="n">
+        <v>16</v>
+      </c>
+      <c r="K1530" t="n">
+        <v>13</v>
+      </c>
+      <c r="L1530" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1530" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1530" t="n">
+        <v>33</v>
+      </c>
+      <c r="O1530" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1530" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1530" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1530" t="inlineStr"/>
+    </row>
+    <row r="1531">
+      <c r="A1531" s="2" t="n">
+        <v>45520.59375</v>
+      </c>
+      <c r="B1531" t="n">
+        <v>372.4500122070312</v>
+      </c>
+      <c r="C1531" t="n">
+        <v>376.2000122070312</v>
+      </c>
+      <c r="D1531" t="n">
+        <v>368.5499877929688</v>
+      </c>
+      <c r="E1531" t="n">
+        <v>374.7000122070312</v>
+      </c>
+      <c r="F1531" t="n">
+        <v>374.7000122070312</v>
+      </c>
+      <c r="G1531" t="n">
+        <v>595942</v>
+      </c>
+      <c r="H1531" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1531" t="n">
+        <v>8</v>
+      </c>
+      <c r="J1531" t="n">
+        <v>16</v>
+      </c>
+      <c r="K1531" t="n">
+        <v>14</v>
+      </c>
+      <c r="L1531" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1531" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1531" t="n">
+        <v>33</v>
+      </c>
+      <c r="O1531" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1531" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1531" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1531" t="inlineStr"/>
+    </row>
+    <row r="1532">
+      <c r="A1532" s="2" t="n">
+        <v>45520.63541666666</v>
+      </c>
+      <c r="B1532" t="n">
+        <v>374.6000061035156</v>
+      </c>
+      <c r="C1532" t="n">
+        <v>378.2999877929688</v>
+      </c>
+      <c r="D1532" t="n">
+        <v>373.75</v>
+      </c>
+      <c r="E1532" t="n">
+        <v>375</v>
+      </c>
+      <c r="F1532" t="n">
+        <v>375</v>
+      </c>
+      <c r="G1532" t="n">
+        <v>302897</v>
+      </c>
+      <c r="H1532" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1532" t="n">
+        <v>8</v>
+      </c>
+      <c r="J1532" t="n">
+        <v>16</v>
+      </c>
+      <c r="K1532" t="n">
+        <v>15</v>
+      </c>
+      <c r="L1532" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1532" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1532" t="n">
+        <v>33</v>
+      </c>
+      <c r="O1532" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1532" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1532" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1532" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/60m/ZAGGLE.NS.xlsx
+++ b/stock_historical_data/60m/ZAGGLE.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R1532"/>
+  <dimension ref="A1:R1539"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -85925,7 +85925,9 @@
       <c r="Q1526" t="n">
         <v>0</v>
       </c>
-      <c r="R1526" t="inlineStr"/>
+      <c r="R1526" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1527">
       <c r="A1527" s="2" t="n">
@@ -85979,7 +85981,9 @@
       <c r="Q1527" t="n">
         <v>0</v>
       </c>
-      <c r="R1527" t="inlineStr"/>
+      <c r="R1527" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1528">
       <c r="A1528" s="2" t="n">
@@ -86033,7 +86037,9 @@
       <c r="Q1528" t="n">
         <v>0</v>
       </c>
-      <c r="R1528" t="inlineStr"/>
+      <c r="R1528" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1529">
       <c r="A1529" s="2" t="n">
@@ -86087,7 +86093,9 @@
       <c r="Q1529" t="n">
         <v>0</v>
       </c>
-      <c r="R1529" t="inlineStr"/>
+      <c r="R1529" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1530">
       <c r="A1530" s="2" t="n">
@@ -86141,7 +86149,9 @@
       <c r="Q1530" t="n">
         <v>0</v>
       </c>
-      <c r="R1530" t="inlineStr"/>
+      <c r="R1530" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1531">
       <c r="A1531" s="2" t="n">
@@ -86195,7 +86205,9 @@
       <c r="Q1531" t="n">
         <v>0</v>
       </c>
-      <c r="R1531" t="inlineStr"/>
+      <c r="R1531" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1532">
       <c r="A1532" s="2" t="n">
@@ -86249,7 +86261,387 @@
       <c r="Q1532" t="n">
         <v>0</v>
       </c>
-      <c r="R1532" t="inlineStr"/>
+      <c r="R1532" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1533">
+      <c r="A1533" s="2" t="n">
+        <v>45523.38541666666</v>
+      </c>
+      <c r="B1533" t="n">
+        <v>384.3999938964844</v>
+      </c>
+      <c r="C1533" t="n">
+        <v>392.9500122070312</v>
+      </c>
+      <c r="D1533" t="n">
+        <v>381.2000122070312</v>
+      </c>
+      <c r="E1533" t="n">
+        <v>389.7999877929688</v>
+      </c>
+      <c r="F1533" t="n">
+        <v>389.7999877929688</v>
+      </c>
+      <c r="G1533" t="n">
+        <v>0</v>
+      </c>
+      <c r="H1533" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1533" t="n">
+        <v>8</v>
+      </c>
+      <c r="J1533" t="n">
+        <v>19</v>
+      </c>
+      <c r="K1533" t="n">
+        <v>9</v>
+      </c>
+      <c r="L1533" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1533" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1533" t="n">
+        <v>34</v>
+      </c>
+      <c r="O1533" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1533" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1533" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1533" t="inlineStr"/>
+    </row>
+    <row r="1534">
+      <c r="A1534" s="2" t="n">
+        <v>45523.42708333334</v>
+      </c>
+      <c r="B1534" t="n">
+        <v>390</v>
+      </c>
+      <c r="C1534" t="n">
+        <v>393.2999877929688</v>
+      </c>
+      <c r="D1534" t="n">
+        <v>380.6000061035156</v>
+      </c>
+      <c r="E1534" t="n">
+        <v>382.3999938964844</v>
+      </c>
+      <c r="F1534" t="n">
+        <v>382.3999938964844</v>
+      </c>
+      <c r="G1534" t="n">
+        <v>580607</v>
+      </c>
+      <c r="H1534" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1534" t="n">
+        <v>8</v>
+      </c>
+      <c r="J1534" t="n">
+        <v>19</v>
+      </c>
+      <c r="K1534" t="n">
+        <v>10</v>
+      </c>
+      <c r="L1534" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1534" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1534" t="n">
+        <v>34</v>
+      </c>
+      <c r="O1534" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1534" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1534" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1534" t="inlineStr"/>
+    </row>
+    <row r="1535">
+      <c r="A1535" s="2" t="n">
+        <v>45523.46875</v>
+      </c>
+      <c r="B1535" t="n">
+        <v>382.4500122070312</v>
+      </c>
+      <c r="C1535" t="n">
+        <v>384.2999877929688</v>
+      </c>
+      <c r="D1535" t="n">
+        <v>379.0499877929688</v>
+      </c>
+      <c r="E1535" t="n">
+        <v>381.6000061035156</v>
+      </c>
+      <c r="F1535" t="n">
+        <v>381.6000061035156</v>
+      </c>
+      <c r="G1535" t="n">
+        <v>332387</v>
+      </c>
+      <c r="H1535" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1535" t="n">
+        <v>8</v>
+      </c>
+      <c r="J1535" t="n">
+        <v>19</v>
+      </c>
+      <c r="K1535" t="n">
+        <v>11</v>
+      </c>
+      <c r="L1535" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1535" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1535" t="n">
+        <v>34</v>
+      </c>
+      <c r="O1535" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1535" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1535" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1535" t="inlineStr"/>
+    </row>
+    <row r="1536">
+      <c r="A1536" s="2" t="n">
+        <v>45523.51041666666</v>
+      </c>
+      <c r="B1536" t="n">
+        <v>381.6000061035156</v>
+      </c>
+      <c r="C1536" t="n">
+        <v>381.6000061035156</v>
+      </c>
+      <c r="D1536" t="n">
+        <v>364.0499877929688</v>
+      </c>
+      <c r="E1536" t="n">
+        <v>366.2999877929688</v>
+      </c>
+      <c r="F1536" t="n">
+        <v>366.2999877929688</v>
+      </c>
+      <c r="G1536" t="n">
+        <v>7373713</v>
+      </c>
+      <c r="H1536" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1536" t="n">
+        <v>8</v>
+      </c>
+      <c r="J1536" t="n">
+        <v>19</v>
+      </c>
+      <c r="K1536" t="n">
+        <v>12</v>
+      </c>
+      <c r="L1536" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1536" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1536" t="n">
+        <v>34</v>
+      </c>
+      <c r="O1536" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1536" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1536" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1536" t="inlineStr"/>
+    </row>
+    <row r="1537">
+      <c r="A1537" s="2" t="n">
+        <v>45523.55208333334</v>
+      </c>
+      <c r="B1537" t="n">
+        <v>366.2999877929688</v>
+      </c>
+      <c r="C1537" t="n">
+        <v>370.5499877929688</v>
+      </c>
+      <c r="D1537" t="n">
+        <v>362.75</v>
+      </c>
+      <c r="E1537" t="n">
+        <v>363.75</v>
+      </c>
+      <c r="F1537" t="n">
+        <v>363.75</v>
+      </c>
+      <c r="G1537" t="n">
+        <v>682960</v>
+      </c>
+      <c r="H1537" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1537" t="n">
+        <v>8</v>
+      </c>
+      <c r="J1537" t="n">
+        <v>19</v>
+      </c>
+      <c r="K1537" t="n">
+        <v>13</v>
+      </c>
+      <c r="L1537" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1537" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1537" t="n">
+        <v>34</v>
+      </c>
+      <c r="O1537" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1537" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1537" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1537" t="inlineStr"/>
+    </row>
+    <row r="1538">
+      <c r="A1538" s="2" t="n">
+        <v>45523.59375</v>
+      </c>
+      <c r="B1538" t="n">
+        <v>363.75</v>
+      </c>
+      <c r="C1538" t="n">
+        <v>366.6000061035156</v>
+      </c>
+      <c r="D1538" t="n">
+        <v>361.0499877929688</v>
+      </c>
+      <c r="E1538" t="n">
+        <v>362.25</v>
+      </c>
+      <c r="F1538" t="n">
+        <v>362.25</v>
+      </c>
+      <c r="G1538" t="n">
+        <v>538971</v>
+      </c>
+      <c r="H1538" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1538" t="n">
+        <v>8</v>
+      </c>
+      <c r="J1538" t="n">
+        <v>19</v>
+      </c>
+      <c r="K1538" t="n">
+        <v>14</v>
+      </c>
+      <c r="L1538" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1538" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1538" t="n">
+        <v>34</v>
+      </c>
+      <c r="O1538" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1538" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1538" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1538" t="inlineStr"/>
+    </row>
+    <row r="1539">
+      <c r="A1539" s="2" t="n">
+        <v>45523.63541666666</v>
+      </c>
+      <c r="B1539" t="n">
+        <v>362.3500061035156</v>
+      </c>
+      <c r="C1539" t="n">
+        <v>364</v>
+      </c>
+      <c r="D1539" t="n">
+        <v>361.25</v>
+      </c>
+      <c r="E1539" t="n">
+        <v>362.4500122070312</v>
+      </c>
+      <c r="F1539" t="n">
+        <v>362.4500122070312</v>
+      </c>
+      <c r="G1539" t="n">
+        <v>380585</v>
+      </c>
+      <c r="H1539" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1539" t="n">
+        <v>8</v>
+      </c>
+      <c r="J1539" t="n">
+        <v>19</v>
+      </c>
+      <c r="K1539" t="n">
+        <v>15</v>
+      </c>
+      <c r="L1539" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1539" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1539" t="n">
+        <v>34</v>
+      </c>
+      <c r="O1539" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1539" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1539" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1539" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/60m/ZAGGLE.NS.xlsx
+++ b/stock_historical_data/60m/ZAGGLE.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R1539"/>
+  <dimension ref="A1:R1546"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -86317,7 +86317,9 @@
       <c r="Q1533" t="n">
         <v>0</v>
       </c>
-      <c r="R1533" t="inlineStr"/>
+      <c r="R1533" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1534">
       <c r="A1534" s="2" t="n">
@@ -86363,7 +86365,7 @@
         <v>34</v>
       </c>
       <c r="O1534" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P1534" t="n">
         <v>0</v>
@@ -86371,7 +86373,9 @@
       <c r="Q1534" t="n">
         <v>0</v>
       </c>
-      <c r="R1534" t="inlineStr"/>
+      <c r="R1534" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1535">
       <c r="A1535" s="2" t="n">
@@ -86425,7 +86429,9 @@
       <c r="Q1535" t="n">
         <v>0</v>
       </c>
-      <c r="R1535" t="inlineStr"/>
+      <c r="R1535" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1536">
       <c r="A1536" s="2" t="n">
@@ -86479,7 +86485,9 @@
       <c r="Q1536" t="n">
         <v>0</v>
       </c>
-      <c r="R1536" t="inlineStr"/>
+      <c r="R1536" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1537">
       <c r="A1537" s="2" t="n">
@@ -86533,7 +86541,9 @@
       <c r="Q1537" t="n">
         <v>0</v>
       </c>
-      <c r="R1537" t="inlineStr"/>
+      <c r="R1537" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1538">
       <c r="A1538" s="2" t="n">
@@ -86587,7 +86597,9 @@
       <c r="Q1538" t="n">
         <v>0</v>
       </c>
-      <c r="R1538" t="inlineStr"/>
+      <c r="R1538" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1539">
       <c r="A1539" s="2" t="n">
@@ -86641,7 +86653,387 @@
       <c r="Q1539" t="n">
         <v>0</v>
       </c>
-      <c r="R1539" t="inlineStr"/>
+      <c r="R1539" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1540">
+      <c r="A1540" s="2" t="n">
+        <v>45524.38541666666</v>
+      </c>
+      <c r="B1540" t="n">
+        <v>359.8999938964844</v>
+      </c>
+      <c r="C1540" t="n">
+        <v>366.7999877929688</v>
+      </c>
+      <c r="D1540" t="n">
+        <v>358.6000061035156</v>
+      </c>
+      <c r="E1540" t="n">
+        <v>364.5</v>
+      </c>
+      <c r="F1540" t="n">
+        <v>364.5</v>
+      </c>
+      <c r="G1540" t="n">
+        <v>786661</v>
+      </c>
+      <c r="H1540" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1540" t="n">
+        <v>8</v>
+      </c>
+      <c r="J1540" t="n">
+        <v>20</v>
+      </c>
+      <c r="K1540" t="n">
+        <v>9</v>
+      </c>
+      <c r="L1540" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1540" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1540" t="n">
+        <v>34</v>
+      </c>
+      <c r="O1540" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1540" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1540" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1540" t="inlineStr"/>
+    </row>
+    <row r="1541">
+      <c r="A1541" s="2" t="n">
+        <v>45524.42708333334</v>
+      </c>
+      <c r="B1541" t="n">
+        <v>364.6000061035156</v>
+      </c>
+      <c r="C1541" t="n">
+        <v>365.8999938964844</v>
+      </c>
+      <c r="D1541" t="n">
+        <v>362.1000061035156</v>
+      </c>
+      <c r="E1541" t="n">
+        <v>363.5</v>
+      </c>
+      <c r="F1541" t="n">
+        <v>363.5</v>
+      </c>
+      <c r="G1541" t="n">
+        <v>163169</v>
+      </c>
+      <c r="H1541" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1541" t="n">
+        <v>8</v>
+      </c>
+      <c r="J1541" t="n">
+        <v>20</v>
+      </c>
+      <c r="K1541" t="n">
+        <v>10</v>
+      </c>
+      <c r="L1541" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1541" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1541" t="n">
+        <v>34</v>
+      </c>
+      <c r="O1541" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1541" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1541" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1541" t="inlineStr"/>
+    </row>
+    <row r="1542">
+      <c r="A1542" s="2" t="n">
+        <v>45524.46875</v>
+      </c>
+      <c r="B1542" t="n">
+        <v>363.5499877929688</v>
+      </c>
+      <c r="C1542" t="n">
+        <v>365.3999938964844</v>
+      </c>
+      <c r="D1542" t="n">
+        <v>361.3999938964844</v>
+      </c>
+      <c r="E1542" t="n">
+        <v>364.2000122070312</v>
+      </c>
+      <c r="F1542" t="n">
+        <v>364.2000122070312</v>
+      </c>
+      <c r="G1542" t="n">
+        <v>157312</v>
+      </c>
+      <c r="H1542" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1542" t="n">
+        <v>8</v>
+      </c>
+      <c r="J1542" t="n">
+        <v>20</v>
+      </c>
+      <c r="K1542" t="n">
+        <v>11</v>
+      </c>
+      <c r="L1542" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1542" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1542" t="n">
+        <v>34</v>
+      </c>
+      <c r="O1542" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1542" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1542" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1542" t="inlineStr"/>
+    </row>
+    <row r="1543">
+      <c r="A1543" s="2" t="n">
+        <v>45524.51041666666</v>
+      </c>
+      <c r="B1543" t="n">
+        <v>364.2999877929688</v>
+      </c>
+      <c r="C1543" t="n">
+        <v>368.8999938964844</v>
+      </c>
+      <c r="D1543" t="n">
+        <v>364.25</v>
+      </c>
+      <c r="E1543" t="n">
+        <v>367.3999938964844</v>
+      </c>
+      <c r="F1543" t="n">
+        <v>367.3999938964844</v>
+      </c>
+      <c r="G1543" t="n">
+        <v>384858</v>
+      </c>
+      <c r="H1543" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1543" t="n">
+        <v>8</v>
+      </c>
+      <c r="J1543" t="n">
+        <v>20</v>
+      </c>
+      <c r="K1543" t="n">
+        <v>12</v>
+      </c>
+      <c r="L1543" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1543" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1543" t="n">
+        <v>34</v>
+      </c>
+      <c r="O1543" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1543" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1543" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1543" t="inlineStr"/>
+    </row>
+    <row r="1544">
+      <c r="A1544" s="2" t="n">
+        <v>45524.55208333334</v>
+      </c>
+      <c r="B1544" t="n">
+        <v>367.1499938964844</v>
+      </c>
+      <c r="C1544" t="n">
+        <v>367.3999938964844</v>
+      </c>
+      <c r="D1544" t="n">
+        <v>363</v>
+      </c>
+      <c r="E1544" t="n">
+        <v>363.25</v>
+      </c>
+      <c r="F1544" t="n">
+        <v>363.25</v>
+      </c>
+      <c r="G1544" t="n">
+        <v>191902</v>
+      </c>
+      <c r="H1544" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1544" t="n">
+        <v>8</v>
+      </c>
+      <c r="J1544" t="n">
+        <v>20</v>
+      </c>
+      <c r="K1544" t="n">
+        <v>13</v>
+      </c>
+      <c r="L1544" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1544" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1544" t="n">
+        <v>34</v>
+      </c>
+      <c r="O1544" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1544" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1544" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1544" t="inlineStr"/>
+    </row>
+    <row r="1545">
+      <c r="A1545" s="2" t="n">
+        <v>45524.59375</v>
+      </c>
+      <c r="B1545" t="n">
+        <v>363.3999938964844</v>
+      </c>
+      <c r="C1545" t="n">
+        <v>364.6000061035156</v>
+      </c>
+      <c r="D1545" t="n">
+        <v>360.6499938964844</v>
+      </c>
+      <c r="E1545" t="n">
+        <v>364.0499877929688</v>
+      </c>
+      <c r="F1545" t="n">
+        <v>364.0499877929688</v>
+      </c>
+      <c r="G1545" t="n">
+        <v>330036</v>
+      </c>
+      <c r="H1545" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1545" t="n">
+        <v>8</v>
+      </c>
+      <c r="J1545" t="n">
+        <v>20</v>
+      </c>
+      <c r="K1545" t="n">
+        <v>14</v>
+      </c>
+      <c r="L1545" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1545" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1545" t="n">
+        <v>34</v>
+      </c>
+      <c r="O1545" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1545" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q1545" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1545" t="inlineStr"/>
+    </row>
+    <row r="1546">
+      <c r="A1546" s="2" t="n">
+        <v>45524.63541666666</v>
+      </c>
+      <c r="B1546" t="n">
+        <v>364.25</v>
+      </c>
+      <c r="C1546" t="n">
+        <v>366.1000061035156</v>
+      </c>
+      <c r="D1546" t="n">
+        <v>363.1000061035156</v>
+      </c>
+      <c r="E1546" t="n">
+        <v>364.25</v>
+      </c>
+      <c r="F1546" t="n">
+        <v>364.25</v>
+      </c>
+      <c r="G1546" t="n">
+        <v>222429</v>
+      </c>
+      <c r="H1546" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1546" t="n">
+        <v>8</v>
+      </c>
+      <c r="J1546" t="n">
+        <v>20</v>
+      </c>
+      <c r="K1546" t="n">
+        <v>15</v>
+      </c>
+      <c r="L1546" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1546" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1546" t="n">
+        <v>34</v>
+      </c>
+      <c r="O1546" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1546" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1546" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1546" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/60m/ZAGGLE.NS.xlsx
+++ b/stock_historical_data/60m/ZAGGLE.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R1546"/>
+  <dimension ref="A1:R1553"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -86701,7 +86701,7 @@
         <v>34</v>
       </c>
       <c r="O1540" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="P1540" t="n">
         <v>0</v>
@@ -86709,7 +86709,9 @@
       <c r="Q1540" t="n">
         <v>0</v>
       </c>
-      <c r="R1540" t="inlineStr"/>
+      <c r="R1540" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1541">
       <c r="A1541" s="2" t="n">
@@ -86763,7 +86765,9 @@
       <c r="Q1541" t="n">
         <v>0</v>
       </c>
-      <c r="R1541" t="inlineStr"/>
+      <c r="R1541" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1542">
       <c r="A1542" s="2" t="n">
@@ -86817,7 +86821,9 @@
       <c r="Q1542" t="n">
         <v>0</v>
       </c>
-      <c r="R1542" t="inlineStr"/>
+      <c r="R1542" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1543">
       <c r="A1543" s="2" t="n">
@@ -86871,7 +86877,9 @@
       <c r="Q1543" t="n">
         <v>0</v>
       </c>
-      <c r="R1543" t="inlineStr"/>
+      <c r="R1543" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1544">
       <c r="A1544" s="2" t="n">
@@ -86925,7 +86933,9 @@
       <c r="Q1544" t="n">
         <v>0</v>
       </c>
-      <c r="R1544" t="inlineStr"/>
+      <c r="R1544" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1545">
       <c r="A1545" s="2" t="n">
@@ -86979,7 +86989,9 @@
       <c r="Q1545" t="n">
         <v>0</v>
       </c>
-      <c r="R1545" t="inlineStr"/>
+      <c r="R1545" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="1546">
       <c r="A1546" s="2" t="n">
@@ -87033,7 +87045,387 @@
       <c r="Q1546" t="n">
         <v>0</v>
       </c>
-      <c r="R1546" t="inlineStr"/>
+      <c r="R1546" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1547">
+      <c r="A1547" s="2" t="n">
+        <v>45525.38541666666</v>
+      </c>
+      <c r="B1547" t="n">
+        <v>366.7999877929688</v>
+      </c>
+      <c r="C1547" t="n">
+        <v>368</v>
+      </c>
+      <c r="D1547" t="n">
+        <v>363.6000061035156</v>
+      </c>
+      <c r="E1547" t="n">
+        <v>365.25</v>
+      </c>
+      <c r="F1547" t="n">
+        <v>365.25</v>
+      </c>
+      <c r="G1547" t="n">
+        <v>0</v>
+      </c>
+      <c r="H1547" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1547" t="n">
+        <v>8</v>
+      </c>
+      <c r="J1547" t="n">
+        <v>21</v>
+      </c>
+      <c r="K1547" t="n">
+        <v>9</v>
+      </c>
+      <c r="L1547" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1547" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1547" t="n">
+        <v>34</v>
+      </c>
+      <c r="O1547" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1547" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1547" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1547" t="inlineStr"/>
+    </row>
+    <row r="1548">
+      <c r="A1548" s="2" t="n">
+        <v>45525.42708333334</v>
+      </c>
+      <c r="B1548" t="n">
+        <v>365</v>
+      </c>
+      <c r="C1548" t="n">
+        <v>367.7000122070312</v>
+      </c>
+      <c r="D1548" t="n">
+        <v>362.25</v>
+      </c>
+      <c r="E1548" t="n">
+        <v>363</v>
+      </c>
+      <c r="F1548" t="n">
+        <v>363</v>
+      </c>
+      <c r="G1548" t="n">
+        <v>165494</v>
+      </c>
+      <c r="H1548" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1548" t="n">
+        <v>8</v>
+      </c>
+      <c r="J1548" t="n">
+        <v>21</v>
+      </c>
+      <c r="K1548" t="n">
+        <v>10</v>
+      </c>
+      <c r="L1548" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1548" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1548" t="n">
+        <v>34</v>
+      </c>
+      <c r="O1548" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1548" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1548" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1548" t="inlineStr"/>
+    </row>
+    <row r="1549">
+      <c r="A1549" s="2" t="n">
+        <v>45525.46875</v>
+      </c>
+      <c r="B1549" t="n">
+        <v>362.7000122070312</v>
+      </c>
+      <c r="C1549" t="n">
+        <v>364.7000122070312</v>
+      </c>
+      <c r="D1549" t="n">
+        <v>361.6000061035156</v>
+      </c>
+      <c r="E1549" t="n">
+        <v>364.4500122070312</v>
+      </c>
+      <c r="F1549" t="n">
+        <v>364.4500122070312</v>
+      </c>
+      <c r="G1549" t="n">
+        <v>121914</v>
+      </c>
+      <c r="H1549" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1549" t="n">
+        <v>8</v>
+      </c>
+      <c r="J1549" t="n">
+        <v>21</v>
+      </c>
+      <c r="K1549" t="n">
+        <v>11</v>
+      </c>
+      <c r="L1549" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1549" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1549" t="n">
+        <v>34</v>
+      </c>
+      <c r="O1549" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1549" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1549" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1549" t="inlineStr"/>
+    </row>
+    <row r="1550">
+      <c r="A1550" s="2" t="n">
+        <v>45525.51041666666</v>
+      </c>
+      <c r="B1550" t="n">
+        <v>364.3999938964844</v>
+      </c>
+      <c r="C1550" t="n">
+        <v>365.8500061035156</v>
+      </c>
+      <c r="D1550" t="n">
+        <v>363.5</v>
+      </c>
+      <c r="E1550" t="n">
+        <v>363.5</v>
+      </c>
+      <c r="F1550" t="n">
+        <v>363.5</v>
+      </c>
+      <c r="G1550" t="n">
+        <v>54867</v>
+      </c>
+      <c r="H1550" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1550" t="n">
+        <v>8</v>
+      </c>
+      <c r="J1550" t="n">
+        <v>21</v>
+      </c>
+      <c r="K1550" t="n">
+        <v>12</v>
+      </c>
+      <c r="L1550" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1550" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1550" t="n">
+        <v>34</v>
+      </c>
+      <c r="O1550" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1550" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1550" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1550" t="inlineStr"/>
+    </row>
+    <row r="1551">
+      <c r="A1551" s="2" t="n">
+        <v>45525.55208333334</v>
+      </c>
+      <c r="B1551" t="n">
+        <v>363.5</v>
+      </c>
+      <c r="C1551" t="n">
+        <v>364.4500122070312</v>
+      </c>
+      <c r="D1551" t="n">
+        <v>361.2999877929688</v>
+      </c>
+      <c r="E1551" t="n">
+        <v>361.2999877929688</v>
+      </c>
+      <c r="F1551" t="n">
+        <v>361.2999877929688</v>
+      </c>
+      <c r="G1551" t="n">
+        <v>92196</v>
+      </c>
+      <c r="H1551" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1551" t="n">
+        <v>8</v>
+      </c>
+      <c r="J1551" t="n">
+        <v>21</v>
+      </c>
+      <c r="K1551" t="n">
+        <v>13</v>
+      </c>
+      <c r="L1551" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1551" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1551" t="n">
+        <v>34</v>
+      </c>
+      <c r="O1551" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1551" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1551" t="n">
+        <v>1</v>
+      </c>
+      <c r="R1551" t="inlineStr"/>
+    </row>
+    <row r="1552">
+      <c r="A1552" s="2" t="n">
+        <v>45525.59375</v>
+      </c>
+      <c r="B1552" t="n">
+        <v>361.3500061035156</v>
+      </c>
+      <c r="C1552" t="n">
+        <v>362.25</v>
+      </c>
+      <c r="D1552" t="n">
+        <v>358.7000122070312</v>
+      </c>
+      <c r="E1552" t="n">
+        <v>359.0499877929688</v>
+      </c>
+      <c r="F1552" t="n">
+        <v>359.0499877929688</v>
+      </c>
+      <c r="G1552" t="n">
+        <v>288914</v>
+      </c>
+      <c r="H1552" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1552" t="n">
+        <v>8</v>
+      </c>
+      <c r="J1552" t="n">
+        <v>21</v>
+      </c>
+      <c r="K1552" t="n">
+        <v>14</v>
+      </c>
+      <c r="L1552" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1552" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1552" t="n">
+        <v>34</v>
+      </c>
+      <c r="O1552" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1552" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1552" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1552" t="inlineStr"/>
+    </row>
+    <row r="1553">
+      <c r="A1553" s="2" t="n">
+        <v>45525.63541666666</v>
+      </c>
+      <c r="B1553" t="n">
+        <v>359.1000061035156</v>
+      </c>
+      <c r="C1553" t="n">
+        <v>359.4500122070312</v>
+      </c>
+      <c r="D1553" t="n">
+        <v>356.75</v>
+      </c>
+      <c r="E1553" t="n">
+        <v>358.6499938964844</v>
+      </c>
+      <c r="F1553" t="n">
+        <v>358.6499938964844</v>
+      </c>
+      <c r="G1553" t="n">
+        <v>192630</v>
+      </c>
+      <c r="H1553" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1553" t="n">
+        <v>8</v>
+      </c>
+      <c r="J1553" t="n">
+        <v>21</v>
+      </c>
+      <c r="K1553" t="n">
+        <v>15</v>
+      </c>
+      <c r="L1553" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1553" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1553" t="n">
+        <v>34</v>
+      </c>
+      <c r="O1553" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1553" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1553" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1553" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/60m/ZAGGLE.NS.xlsx
+++ b/stock_historical_data/60m/ZAGGLE.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R1553"/>
+  <dimension ref="A1:R1560"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -87101,7 +87101,9 @@
       <c r="Q1547" t="n">
         <v>0</v>
       </c>
-      <c r="R1547" t="inlineStr"/>
+      <c r="R1547" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1548">
       <c r="A1548" s="2" t="n">
@@ -87155,7 +87157,9 @@
       <c r="Q1548" t="n">
         <v>0</v>
       </c>
-      <c r="R1548" t="inlineStr"/>
+      <c r="R1548" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1549">
       <c r="A1549" s="2" t="n">
@@ -87209,7 +87213,9 @@
       <c r="Q1549" t="n">
         <v>0</v>
       </c>
-      <c r="R1549" t="inlineStr"/>
+      <c r="R1549" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1550">
       <c r="A1550" s="2" t="n">
@@ -87263,7 +87269,9 @@
       <c r="Q1550" t="n">
         <v>0</v>
       </c>
-      <c r="R1550" t="inlineStr"/>
+      <c r="R1550" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1551">
       <c r="A1551" s="2" t="n">
@@ -87317,7 +87325,9 @@
       <c r="Q1551" t="n">
         <v>1</v>
       </c>
-      <c r="R1551" t="inlineStr"/>
+      <c r="R1551" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1552">
       <c r="A1552" s="2" t="n">
@@ -87371,7 +87381,9 @@
       <c r="Q1552" t="n">
         <v>0</v>
       </c>
-      <c r="R1552" t="inlineStr"/>
+      <c r="R1552" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1553">
       <c r="A1553" s="2" t="n">
@@ -87425,7 +87437,387 @@
       <c r="Q1553" t="n">
         <v>0</v>
       </c>
-      <c r="R1553" t="inlineStr"/>
+      <c r="R1553" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1554">
+      <c r="A1554" s="2" t="n">
+        <v>45526.38541666666</v>
+      </c>
+      <c r="B1554" t="n">
+        <v>361.8999938964844</v>
+      </c>
+      <c r="C1554" t="n">
+        <v>369.2000122070312</v>
+      </c>
+      <c r="D1554" t="n">
+        <v>361.75</v>
+      </c>
+      <c r="E1554" t="n">
+        <v>366.2000122070312</v>
+      </c>
+      <c r="F1554" t="n">
+        <v>366.2000122070312</v>
+      </c>
+      <c r="G1554" t="n">
+        <v>0</v>
+      </c>
+      <c r="H1554" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1554" t="n">
+        <v>8</v>
+      </c>
+      <c r="J1554" t="n">
+        <v>22</v>
+      </c>
+      <c r="K1554" t="n">
+        <v>9</v>
+      </c>
+      <c r="L1554" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1554" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1554" t="n">
+        <v>34</v>
+      </c>
+      <c r="O1554" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1554" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1554" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1554" t="inlineStr"/>
+    </row>
+    <row r="1555">
+      <c r="A1555" s="2" t="n">
+        <v>45526.42708333334</v>
+      </c>
+      <c r="B1555" t="n">
+        <v>366.2000122070312</v>
+      </c>
+      <c r="C1555" t="n">
+        <v>373.8999938964844</v>
+      </c>
+      <c r="D1555" t="n">
+        <v>364.1000061035156</v>
+      </c>
+      <c r="E1555" t="n">
+        <v>371.5499877929688</v>
+      </c>
+      <c r="F1555" t="n">
+        <v>371.5499877929688</v>
+      </c>
+      <c r="G1555" t="n">
+        <v>493134</v>
+      </c>
+      <c r="H1555" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1555" t="n">
+        <v>8</v>
+      </c>
+      <c r="J1555" t="n">
+        <v>22</v>
+      </c>
+      <c r="K1555" t="n">
+        <v>10</v>
+      </c>
+      <c r="L1555" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1555" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1555" t="n">
+        <v>34</v>
+      </c>
+      <c r="O1555" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1555" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1555" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1555" t="inlineStr"/>
+    </row>
+    <row r="1556">
+      <c r="A1556" s="2" t="n">
+        <v>45526.46875</v>
+      </c>
+      <c r="B1556" t="n">
+        <v>371.5499877929688</v>
+      </c>
+      <c r="C1556" t="n">
+        <v>375</v>
+      </c>
+      <c r="D1556" t="n">
+        <v>368.2000122070312</v>
+      </c>
+      <c r="E1556" t="n">
+        <v>375</v>
+      </c>
+      <c r="F1556" t="n">
+        <v>375</v>
+      </c>
+      <c r="G1556" t="n">
+        <v>336819</v>
+      </c>
+      <c r="H1556" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1556" t="n">
+        <v>8</v>
+      </c>
+      <c r="J1556" t="n">
+        <v>22</v>
+      </c>
+      <c r="K1556" t="n">
+        <v>11</v>
+      </c>
+      <c r="L1556" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1556" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1556" t="n">
+        <v>34</v>
+      </c>
+      <c r="O1556" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1556" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1556" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1556" t="inlineStr"/>
+    </row>
+    <row r="1557">
+      <c r="A1557" s="2" t="n">
+        <v>45526.51041666666</v>
+      </c>
+      <c r="B1557" t="n">
+        <v>374.8999938964844</v>
+      </c>
+      <c r="C1557" t="n">
+        <v>377.7000122070312</v>
+      </c>
+      <c r="D1557" t="n">
+        <v>370.8500061035156</v>
+      </c>
+      <c r="E1557" t="n">
+        <v>371</v>
+      </c>
+      <c r="F1557" t="n">
+        <v>371</v>
+      </c>
+      <c r="G1557" t="n">
+        <v>384360</v>
+      </c>
+      <c r="H1557" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1557" t="n">
+        <v>8</v>
+      </c>
+      <c r="J1557" t="n">
+        <v>22</v>
+      </c>
+      <c r="K1557" t="n">
+        <v>12</v>
+      </c>
+      <c r="L1557" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1557" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1557" t="n">
+        <v>34</v>
+      </c>
+      <c r="O1557" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1557" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1557" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1557" t="inlineStr"/>
+    </row>
+    <row r="1558">
+      <c r="A1558" s="2" t="n">
+        <v>45526.55208333334</v>
+      </c>
+      <c r="B1558" t="n">
+        <v>370.8999938964844</v>
+      </c>
+      <c r="C1558" t="n">
+        <v>372.6000061035156</v>
+      </c>
+      <c r="D1558" t="n">
+        <v>370.0499877929688</v>
+      </c>
+      <c r="E1558" t="n">
+        <v>371.2000122070312</v>
+      </c>
+      <c r="F1558" t="n">
+        <v>371.2000122070312</v>
+      </c>
+      <c r="G1558" t="n">
+        <v>122725</v>
+      </c>
+      <c r="H1558" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1558" t="n">
+        <v>8</v>
+      </c>
+      <c r="J1558" t="n">
+        <v>22</v>
+      </c>
+      <c r="K1558" t="n">
+        <v>13</v>
+      </c>
+      <c r="L1558" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1558" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1558" t="n">
+        <v>34</v>
+      </c>
+      <c r="O1558" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1558" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1558" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1558" t="inlineStr"/>
+    </row>
+    <row r="1559">
+      <c r="A1559" s="2" t="n">
+        <v>45526.59375</v>
+      </c>
+      <c r="B1559" t="n">
+        <v>371.2000122070312</v>
+      </c>
+      <c r="C1559" t="n">
+        <v>371.75</v>
+      </c>
+      <c r="D1559" t="n">
+        <v>367.1000061035156</v>
+      </c>
+      <c r="E1559" t="n">
+        <v>368.1000061035156</v>
+      </c>
+      <c r="F1559" t="n">
+        <v>368.1000061035156</v>
+      </c>
+      <c r="G1559" t="n">
+        <v>274206</v>
+      </c>
+      <c r="H1559" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1559" t="n">
+        <v>8</v>
+      </c>
+      <c r="J1559" t="n">
+        <v>22</v>
+      </c>
+      <c r="K1559" t="n">
+        <v>14</v>
+      </c>
+      <c r="L1559" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1559" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1559" t="n">
+        <v>34</v>
+      </c>
+      <c r="O1559" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1559" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1559" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1559" t="inlineStr"/>
+    </row>
+    <row r="1560">
+      <c r="A1560" s="2" t="n">
+        <v>45526.63541666666</v>
+      </c>
+      <c r="B1560" t="n">
+        <v>367.7000122070312</v>
+      </c>
+      <c r="C1560" t="n">
+        <v>368.8500061035156</v>
+      </c>
+      <c r="D1560" t="n">
+        <v>366.2000122070312</v>
+      </c>
+      <c r="E1560" t="n">
+        <v>367.75</v>
+      </c>
+      <c r="F1560" t="n">
+        <v>367.75</v>
+      </c>
+      <c r="G1560" t="n">
+        <v>111852</v>
+      </c>
+      <c r="H1560" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1560" t="n">
+        <v>8</v>
+      </c>
+      <c r="J1560" t="n">
+        <v>22</v>
+      </c>
+      <c r="K1560" t="n">
+        <v>15</v>
+      </c>
+      <c r="L1560" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1560" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1560" t="n">
+        <v>34</v>
+      </c>
+      <c r="O1560" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1560" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1560" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1560" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/60m/ZAGGLE.NS.xlsx
+++ b/stock_historical_data/60m/ZAGGLE.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R1560"/>
+  <dimension ref="A1:R1567"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -87429,7 +87429,7 @@
         <v>34</v>
       </c>
       <c r="O1553" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="P1553" t="n">
         <v>0</v>
@@ -87493,7 +87493,9 @@
       <c r="Q1554" t="n">
         <v>0</v>
       </c>
-      <c r="R1554" t="inlineStr"/>
+      <c r="R1554" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1555">
       <c r="A1555" s="2" t="n">
@@ -87547,7 +87549,9 @@
       <c r="Q1555" t="n">
         <v>0</v>
       </c>
-      <c r="R1555" t="inlineStr"/>
+      <c r="R1555" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1556">
       <c r="A1556" s="2" t="n">
@@ -87601,7 +87605,9 @@
       <c r="Q1556" t="n">
         <v>0</v>
       </c>
-      <c r="R1556" t="inlineStr"/>
+      <c r="R1556" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1557">
       <c r="A1557" s="2" t="n">
@@ -87647,7 +87653,7 @@
         <v>34</v>
       </c>
       <c r="O1557" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P1557" t="n">
         <v>0</v>
@@ -87655,7 +87661,9 @@
       <c r="Q1557" t="n">
         <v>0</v>
       </c>
-      <c r="R1557" t="inlineStr"/>
+      <c r="R1557" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1558">
       <c r="A1558" s="2" t="n">
@@ -87709,7 +87717,9 @@
       <c r="Q1558" t="n">
         <v>0</v>
       </c>
-      <c r="R1558" t="inlineStr"/>
+      <c r="R1558" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1559">
       <c r="A1559" s="2" t="n">
@@ -87763,7 +87773,9 @@
       <c r="Q1559" t="n">
         <v>0</v>
       </c>
-      <c r="R1559" t="inlineStr"/>
+      <c r="R1559" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1560">
       <c r="A1560" s="2" t="n">
@@ -87817,7 +87829,387 @@
       <c r="Q1560" t="n">
         <v>0</v>
       </c>
-      <c r="R1560" t="inlineStr"/>
+      <c r="R1560" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1561">
+      <c r="A1561" s="2" t="n">
+        <v>45527.38541666666</v>
+      </c>
+      <c r="B1561" t="n">
+        <v>369</v>
+      </c>
+      <c r="C1561" t="n">
+        <v>377.6499938964844</v>
+      </c>
+      <c r="D1561" t="n">
+        <v>368.1000061035156</v>
+      </c>
+      <c r="E1561" t="n">
+        <v>372.1499938964844</v>
+      </c>
+      <c r="F1561" t="n">
+        <v>372.1499938964844</v>
+      </c>
+      <c r="G1561" t="n">
+        <v>0</v>
+      </c>
+      <c r="H1561" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1561" t="n">
+        <v>8</v>
+      </c>
+      <c r="J1561" t="n">
+        <v>23</v>
+      </c>
+      <c r="K1561" t="n">
+        <v>9</v>
+      </c>
+      <c r="L1561" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1561" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1561" t="n">
+        <v>34</v>
+      </c>
+      <c r="O1561" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1561" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1561" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1561" t="inlineStr"/>
+    </row>
+    <row r="1562">
+      <c r="A1562" s="2" t="n">
+        <v>45527.42708333334</v>
+      </c>
+      <c r="B1562" t="n">
+        <v>372.2999877929688</v>
+      </c>
+      <c r="C1562" t="n">
+        <v>374.3999938964844</v>
+      </c>
+      <c r="D1562" t="n">
+        <v>370.5499877929688</v>
+      </c>
+      <c r="E1562" t="n">
+        <v>373.8999938964844</v>
+      </c>
+      <c r="F1562" t="n">
+        <v>373.8999938964844</v>
+      </c>
+      <c r="G1562" t="n">
+        <v>176785</v>
+      </c>
+      <c r="H1562" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1562" t="n">
+        <v>8</v>
+      </c>
+      <c r="J1562" t="n">
+        <v>23</v>
+      </c>
+      <c r="K1562" t="n">
+        <v>10</v>
+      </c>
+      <c r="L1562" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1562" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1562" t="n">
+        <v>34</v>
+      </c>
+      <c r="O1562" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1562" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1562" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1562" t="inlineStr"/>
+    </row>
+    <row r="1563">
+      <c r="A1563" s="2" t="n">
+        <v>45527.46875</v>
+      </c>
+      <c r="B1563" t="n">
+        <v>373.8500061035156</v>
+      </c>
+      <c r="C1563" t="n">
+        <v>375</v>
+      </c>
+      <c r="D1563" t="n">
+        <v>371.2000122070312</v>
+      </c>
+      <c r="E1563" t="n">
+        <v>371.3500061035156</v>
+      </c>
+      <c r="F1563" t="n">
+        <v>371.3500061035156</v>
+      </c>
+      <c r="G1563" t="n">
+        <v>71184</v>
+      </c>
+      <c r="H1563" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1563" t="n">
+        <v>8</v>
+      </c>
+      <c r="J1563" t="n">
+        <v>23</v>
+      </c>
+      <c r="K1563" t="n">
+        <v>11</v>
+      </c>
+      <c r="L1563" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1563" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1563" t="n">
+        <v>34</v>
+      </c>
+      <c r="O1563" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1563" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1563" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1563" t="inlineStr"/>
+    </row>
+    <row r="1564">
+      <c r="A1564" s="2" t="n">
+        <v>45527.51041666666</v>
+      </c>
+      <c r="B1564" t="n">
+        <v>371.75</v>
+      </c>
+      <c r="C1564" t="n">
+        <v>372.9500122070312</v>
+      </c>
+      <c r="D1564" t="n">
+        <v>370.2999877929688</v>
+      </c>
+      <c r="E1564" t="n">
+        <v>371</v>
+      </c>
+      <c r="F1564" t="n">
+        <v>371</v>
+      </c>
+      <c r="G1564" t="n">
+        <v>174534</v>
+      </c>
+      <c r="H1564" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1564" t="n">
+        <v>8</v>
+      </c>
+      <c r="J1564" t="n">
+        <v>23</v>
+      </c>
+      <c r="K1564" t="n">
+        <v>12</v>
+      </c>
+      <c r="L1564" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1564" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1564" t="n">
+        <v>34</v>
+      </c>
+      <c r="O1564" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1564" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q1564" t="n">
+        <v>1</v>
+      </c>
+      <c r="R1564" t="inlineStr"/>
+    </row>
+    <row r="1565">
+      <c r="A1565" s="2" t="n">
+        <v>45527.55208333334</v>
+      </c>
+      <c r="B1565" t="n">
+        <v>371.0499877929688</v>
+      </c>
+      <c r="C1565" t="n">
+        <v>371.0499877929688</v>
+      </c>
+      <c r="D1565" t="n">
+        <v>369.2000122070312</v>
+      </c>
+      <c r="E1565" t="n">
+        <v>369.3999938964844</v>
+      </c>
+      <c r="F1565" t="n">
+        <v>369.3999938964844</v>
+      </c>
+      <c r="G1565" t="n">
+        <v>137369</v>
+      </c>
+      <c r="H1565" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1565" t="n">
+        <v>8</v>
+      </c>
+      <c r="J1565" t="n">
+        <v>23</v>
+      </c>
+      <c r="K1565" t="n">
+        <v>13</v>
+      </c>
+      <c r="L1565" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1565" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1565" t="n">
+        <v>34</v>
+      </c>
+      <c r="O1565" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1565" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1565" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1565" t="inlineStr"/>
+    </row>
+    <row r="1566">
+      <c r="A1566" s="2" t="n">
+        <v>45527.59375</v>
+      </c>
+      <c r="B1566" t="n">
+        <v>368.9500122070312</v>
+      </c>
+      <c r="C1566" t="n">
+        <v>369.0499877929688</v>
+      </c>
+      <c r="D1566" t="n">
+        <v>366.5</v>
+      </c>
+      <c r="E1566" t="n">
+        <v>368</v>
+      </c>
+      <c r="F1566" t="n">
+        <v>368</v>
+      </c>
+      <c r="G1566" t="n">
+        <v>180629</v>
+      </c>
+      <c r="H1566" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1566" t="n">
+        <v>8</v>
+      </c>
+      <c r="J1566" t="n">
+        <v>23</v>
+      </c>
+      <c r="K1566" t="n">
+        <v>14</v>
+      </c>
+      <c r="L1566" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1566" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1566" t="n">
+        <v>34</v>
+      </c>
+      <c r="O1566" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1566" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1566" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1566" t="inlineStr"/>
+    </row>
+    <row r="1567">
+      <c r="A1567" s="2" t="n">
+        <v>45527.63541666666</v>
+      </c>
+      <c r="B1567" t="n">
+        <v>367.9500122070312</v>
+      </c>
+      <c r="C1567" t="n">
+        <v>369</v>
+      </c>
+      <c r="D1567" t="n">
+        <v>367.1000061035156</v>
+      </c>
+      <c r="E1567" t="n">
+        <v>369</v>
+      </c>
+      <c r="F1567" t="n">
+        <v>369</v>
+      </c>
+      <c r="G1567" t="n">
+        <v>142647</v>
+      </c>
+      <c r="H1567" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1567" t="n">
+        <v>8</v>
+      </c>
+      <c r="J1567" t="n">
+        <v>23</v>
+      </c>
+      <c r="K1567" t="n">
+        <v>15</v>
+      </c>
+      <c r="L1567" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1567" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1567" t="n">
+        <v>34</v>
+      </c>
+      <c r="O1567" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1567" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1567" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1567" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/60m/ZAGGLE.NS.xlsx
+++ b/stock_historical_data/60m/ZAGGLE.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R1567"/>
+  <dimension ref="A1:R1574"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -87885,7 +87885,9 @@
       <c r="Q1561" t="n">
         <v>0</v>
       </c>
-      <c r="R1561" t="inlineStr"/>
+      <c r="R1561" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1562">
       <c r="A1562" s="2" t="n">
@@ -87939,7 +87941,9 @@
       <c r="Q1562" t="n">
         <v>0</v>
       </c>
-      <c r="R1562" t="inlineStr"/>
+      <c r="R1562" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1563">
       <c r="A1563" s="2" t="n">
@@ -87993,7 +87997,9 @@
       <c r="Q1563" t="n">
         <v>0</v>
       </c>
-      <c r="R1563" t="inlineStr"/>
+      <c r="R1563" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1564">
       <c r="A1564" s="2" t="n">
@@ -88047,7 +88053,9 @@
       <c r="Q1564" t="n">
         <v>1</v>
       </c>
-      <c r="R1564" t="inlineStr"/>
+      <c r="R1564" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="1565">
       <c r="A1565" s="2" t="n">
@@ -88101,7 +88109,9 @@
       <c r="Q1565" t="n">
         <v>0</v>
       </c>
-      <c r="R1565" t="inlineStr"/>
+      <c r="R1565" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1566">
       <c r="A1566" s="2" t="n">
@@ -88155,7 +88165,9 @@
       <c r="Q1566" t="n">
         <v>0</v>
       </c>
-      <c r="R1566" t="inlineStr"/>
+      <c r="R1566" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1567">
       <c r="A1567" s="2" t="n">
@@ -88209,7 +88221,387 @@
       <c r="Q1567" t="n">
         <v>0</v>
       </c>
-      <c r="R1567" t="inlineStr"/>
+      <c r="R1567" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1568">
+      <c r="A1568" s="2" t="n">
+        <v>45530.38541666666</v>
+      </c>
+      <c r="B1568" t="n">
+        <v>371.25</v>
+      </c>
+      <c r="C1568" t="n">
+        <v>373.25</v>
+      </c>
+      <c r="D1568" t="n">
+        <v>363.2000122070312</v>
+      </c>
+      <c r="E1568" t="n">
+        <v>364.75</v>
+      </c>
+      <c r="F1568" t="n">
+        <v>364.75</v>
+      </c>
+      <c r="G1568" t="n">
+        <v>0</v>
+      </c>
+      <c r="H1568" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1568" t="n">
+        <v>8</v>
+      </c>
+      <c r="J1568" t="n">
+        <v>26</v>
+      </c>
+      <c r="K1568" t="n">
+        <v>9</v>
+      </c>
+      <c r="L1568" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1568" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1568" t="n">
+        <v>35</v>
+      </c>
+      <c r="O1568" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1568" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1568" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1568" t="inlineStr"/>
+    </row>
+    <row r="1569">
+      <c r="A1569" s="2" t="n">
+        <v>45530.42708333334</v>
+      </c>
+      <c r="B1569" t="n">
+        <v>364.7000122070312</v>
+      </c>
+      <c r="C1569" t="n">
+        <v>365.3999938964844</v>
+      </c>
+      <c r="D1569" t="n">
+        <v>362.25</v>
+      </c>
+      <c r="E1569" t="n">
+        <v>363.6000061035156</v>
+      </c>
+      <c r="F1569" t="n">
+        <v>363.6000061035156</v>
+      </c>
+      <c r="G1569" t="n">
+        <v>123689</v>
+      </c>
+      <c r="H1569" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1569" t="n">
+        <v>8</v>
+      </c>
+      <c r="J1569" t="n">
+        <v>26</v>
+      </c>
+      <c r="K1569" t="n">
+        <v>10</v>
+      </c>
+      <c r="L1569" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1569" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1569" t="n">
+        <v>35</v>
+      </c>
+      <c r="O1569" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1569" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1569" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1569" t="inlineStr"/>
+    </row>
+    <row r="1570">
+      <c r="A1570" s="2" t="n">
+        <v>45530.46875</v>
+      </c>
+      <c r="B1570" t="n">
+        <v>363.9500122070312</v>
+      </c>
+      <c r="C1570" t="n">
+        <v>366.7999877929688</v>
+      </c>
+      <c r="D1570" t="n">
+        <v>361.5</v>
+      </c>
+      <c r="E1570" t="n">
+        <v>361.8999938964844</v>
+      </c>
+      <c r="F1570" t="n">
+        <v>361.8999938964844</v>
+      </c>
+      <c r="G1570" t="n">
+        <v>117527</v>
+      </c>
+      <c r="H1570" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1570" t="n">
+        <v>8</v>
+      </c>
+      <c r="J1570" t="n">
+        <v>26</v>
+      </c>
+      <c r="K1570" t="n">
+        <v>11</v>
+      </c>
+      <c r="L1570" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1570" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1570" t="n">
+        <v>35</v>
+      </c>
+      <c r="O1570" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1570" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1570" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1570" t="inlineStr"/>
+    </row>
+    <row r="1571">
+      <c r="A1571" s="2" t="n">
+        <v>45530.51041666666</v>
+      </c>
+      <c r="B1571" t="n">
+        <v>362</v>
+      </c>
+      <c r="C1571" t="n">
+        <v>362.8500061035156</v>
+      </c>
+      <c r="D1571" t="n">
+        <v>361.3500061035156</v>
+      </c>
+      <c r="E1571" t="n">
+        <v>361.8999938964844</v>
+      </c>
+      <c r="F1571" t="n">
+        <v>361.8999938964844</v>
+      </c>
+      <c r="G1571" t="n">
+        <v>119355</v>
+      </c>
+      <c r="H1571" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1571" t="n">
+        <v>8</v>
+      </c>
+      <c r="J1571" t="n">
+        <v>26</v>
+      </c>
+      <c r="K1571" t="n">
+        <v>12</v>
+      </c>
+      <c r="L1571" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1571" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1571" t="n">
+        <v>35</v>
+      </c>
+      <c r="O1571" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1571" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1571" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1571" t="inlineStr"/>
+    </row>
+    <row r="1572">
+      <c r="A1572" s="2" t="n">
+        <v>45530.55208333334</v>
+      </c>
+      <c r="B1572" t="n">
+        <v>361.8999938964844</v>
+      </c>
+      <c r="C1572" t="n">
+        <v>362.0499877929688</v>
+      </c>
+      <c r="D1572" t="n">
+        <v>360.1000061035156</v>
+      </c>
+      <c r="E1572" t="n">
+        <v>361.4500122070312</v>
+      </c>
+      <c r="F1572" t="n">
+        <v>361.4500122070312</v>
+      </c>
+      <c r="G1572" t="n">
+        <v>80621</v>
+      </c>
+      <c r="H1572" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1572" t="n">
+        <v>8</v>
+      </c>
+      <c r="J1572" t="n">
+        <v>26</v>
+      </c>
+      <c r="K1572" t="n">
+        <v>13</v>
+      </c>
+      <c r="L1572" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1572" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1572" t="n">
+        <v>35</v>
+      </c>
+      <c r="O1572" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1572" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1572" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1572" t="inlineStr"/>
+    </row>
+    <row r="1573">
+      <c r="A1573" s="2" t="n">
+        <v>45530.59375</v>
+      </c>
+      <c r="B1573" t="n">
+        <v>361.4500122070312</v>
+      </c>
+      <c r="C1573" t="n">
+        <v>361.5499877929688</v>
+      </c>
+      <c r="D1573" t="n">
+        <v>358.25</v>
+      </c>
+      <c r="E1573" t="n">
+        <v>359.3999938964844</v>
+      </c>
+      <c r="F1573" t="n">
+        <v>359.3999938964844</v>
+      </c>
+      <c r="G1573" t="n">
+        <v>117726</v>
+      </c>
+      <c r="H1573" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1573" t="n">
+        <v>8</v>
+      </c>
+      <c r="J1573" t="n">
+        <v>26</v>
+      </c>
+      <c r="K1573" t="n">
+        <v>14</v>
+      </c>
+      <c r="L1573" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1573" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1573" t="n">
+        <v>35</v>
+      </c>
+      <c r="O1573" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1573" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1573" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1573" t="inlineStr"/>
+    </row>
+    <row r="1574">
+      <c r="A1574" s="2" t="n">
+        <v>45530.63541666666</v>
+      </c>
+      <c r="B1574" t="n">
+        <v>359.4500122070312</v>
+      </c>
+      <c r="C1574" t="n">
+        <v>360.9500122070312</v>
+      </c>
+      <c r="D1574" t="n">
+        <v>358.5</v>
+      </c>
+      <c r="E1574" t="n">
+        <v>360.4500122070312</v>
+      </c>
+      <c r="F1574" t="n">
+        <v>360.4500122070312</v>
+      </c>
+      <c r="G1574" t="n">
+        <v>71190</v>
+      </c>
+      <c r="H1574" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1574" t="n">
+        <v>8</v>
+      </c>
+      <c r="J1574" t="n">
+        <v>26</v>
+      </c>
+      <c r="K1574" t="n">
+        <v>15</v>
+      </c>
+      <c r="L1574" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1574" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1574" t="n">
+        <v>35</v>
+      </c>
+      <c r="O1574" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1574" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1574" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1574" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/60m/ZAGGLE.NS.xlsx
+++ b/stock_historical_data/60m/ZAGGLE.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R1574"/>
+  <dimension ref="A1:R1581"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -88277,7 +88277,9 @@
       <c r="Q1568" t="n">
         <v>0</v>
       </c>
-      <c r="R1568" t="inlineStr"/>
+      <c r="R1568" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1569">
       <c r="A1569" s="2" t="n">
@@ -88331,7 +88333,9 @@
       <c r="Q1569" t="n">
         <v>0</v>
       </c>
-      <c r="R1569" t="inlineStr"/>
+      <c r="R1569" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1570">
       <c r="A1570" s="2" t="n">
@@ -88385,7 +88389,9 @@
       <c r="Q1570" t="n">
         <v>0</v>
       </c>
-      <c r="R1570" t="inlineStr"/>
+      <c r="R1570" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1571">
       <c r="A1571" s="2" t="n">
@@ -88439,7 +88445,9 @@
       <c r="Q1571" t="n">
         <v>0</v>
       </c>
-      <c r="R1571" t="inlineStr"/>
+      <c r="R1571" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1572">
       <c r="A1572" s="2" t="n">
@@ -88493,7 +88501,9 @@
       <c r="Q1572" t="n">
         <v>0</v>
       </c>
-      <c r="R1572" t="inlineStr"/>
+      <c r="R1572" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1573">
       <c r="A1573" s="2" t="n">
@@ -88547,7 +88557,9 @@
       <c r="Q1573" t="n">
         <v>0</v>
       </c>
-      <c r="R1573" t="inlineStr"/>
+      <c r="R1573" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1574">
       <c r="A1574" s="2" t="n">
@@ -88601,7 +88613,387 @@
       <c r="Q1574" t="n">
         <v>0</v>
       </c>
-      <c r="R1574" t="inlineStr"/>
+      <c r="R1574" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1575">
+      <c r="A1575" s="2" t="n">
+        <v>45531.38541666666</v>
+      </c>
+      <c r="B1575" t="n">
+        <v>361.3500061035156</v>
+      </c>
+      <c r="C1575" t="n">
+        <v>366</v>
+      </c>
+      <c r="D1575" t="n">
+        <v>361.0499877929688</v>
+      </c>
+      <c r="E1575" t="n">
+        <v>361.8999938964844</v>
+      </c>
+      <c r="F1575" t="n">
+        <v>361.8999938964844</v>
+      </c>
+      <c r="G1575" t="n">
+        <v>0</v>
+      </c>
+      <c r="H1575" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1575" t="n">
+        <v>8</v>
+      </c>
+      <c r="J1575" t="n">
+        <v>27</v>
+      </c>
+      <c r="K1575" t="n">
+        <v>9</v>
+      </c>
+      <c r="L1575" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1575" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1575" t="n">
+        <v>35</v>
+      </c>
+      <c r="O1575" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1575" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1575" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1575" t="inlineStr"/>
+    </row>
+    <row r="1576">
+      <c r="A1576" s="2" t="n">
+        <v>45531.42708333334</v>
+      </c>
+      <c r="B1576" t="n">
+        <v>361.7000122070312</v>
+      </c>
+      <c r="C1576" t="n">
+        <v>367.9500122070312</v>
+      </c>
+      <c r="D1576" t="n">
+        <v>360.6000061035156</v>
+      </c>
+      <c r="E1576" t="n">
+        <v>365.8999938964844</v>
+      </c>
+      <c r="F1576" t="n">
+        <v>365.8999938964844</v>
+      </c>
+      <c r="G1576" t="n">
+        <v>184156</v>
+      </c>
+      <c r="H1576" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1576" t="n">
+        <v>8</v>
+      </c>
+      <c r="J1576" t="n">
+        <v>27</v>
+      </c>
+      <c r="K1576" t="n">
+        <v>10</v>
+      </c>
+      <c r="L1576" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1576" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1576" t="n">
+        <v>35</v>
+      </c>
+      <c r="O1576" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1576" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1576" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1576" t="inlineStr"/>
+    </row>
+    <row r="1577">
+      <c r="A1577" s="2" t="n">
+        <v>45531.46875</v>
+      </c>
+      <c r="B1577" t="n">
+        <v>365.5499877929688</v>
+      </c>
+      <c r="C1577" t="n">
+        <v>367.3999938964844</v>
+      </c>
+      <c r="D1577" t="n">
+        <v>364.7999877929688</v>
+      </c>
+      <c r="E1577" t="n">
+        <v>366.5</v>
+      </c>
+      <c r="F1577" t="n">
+        <v>366.5</v>
+      </c>
+      <c r="G1577" t="n">
+        <v>64762</v>
+      </c>
+      <c r="H1577" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1577" t="n">
+        <v>8</v>
+      </c>
+      <c r="J1577" t="n">
+        <v>27</v>
+      </c>
+      <c r="K1577" t="n">
+        <v>11</v>
+      </c>
+      <c r="L1577" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1577" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1577" t="n">
+        <v>35</v>
+      </c>
+      <c r="O1577" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1577" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1577" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1577" t="inlineStr"/>
+    </row>
+    <row r="1578">
+      <c r="A1578" s="2" t="n">
+        <v>45531.51041666666</v>
+      </c>
+      <c r="B1578" t="n">
+        <v>366.5</v>
+      </c>
+      <c r="C1578" t="n">
+        <v>366.9500122070312</v>
+      </c>
+      <c r="D1578" t="n">
+        <v>365</v>
+      </c>
+      <c r="E1578" t="n">
+        <v>365.25</v>
+      </c>
+      <c r="F1578" t="n">
+        <v>365.25</v>
+      </c>
+      <c r="G1578" t="n">
+        <v>27843</v>
+      </c>
+      <c r="H1578" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1578" t="n">
+        <v>8</v>
+      </c>
+      <c r="J1578" t="n">
+        <v>27</v>
+      </c>
+      <c r="K1578" t="n">
+        <v>12</v>
+      </c>
+      <c r="L1578" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1578" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1578" t="n">
+        <v>35</v>
+      </c>
+      <c r="O1578" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1578" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1578" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1578" t="inlineStr"/>
+    </row>
+    <row r="1579">
+      <c r="A1579" s="2" t="n">
+        <v>45531.55208333334</v>
+      </c>
+      <c r="B1579" t="n">
+        <v>365.6000061035156</v>
+      </c>
+      <c r="C1579" t="n">
+        <v>367.7999877929688</v>
+      </c>
+      <c r="D1579" t="n">
+        <v>365.0499877929688</v>
+      </c>
+      <c r="E1579" t="n">
+        <v>365.5</v>
+      </c>
+      <c r="F1579" t="n">
+        <v>365.5</v>
+      </c>
+      <c r="G1579" t="n">
+        <v>46032</v>
+      </c>
+      <c r="H1579" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1579" t="n">
+        <v>8</v>
+      </c>
+      <c r="J1579" t="n">
+        <v>27</v>
+      </c>
+      <c r="K1579" t="n">
+        <v>13</v>
+      </c>
+      <c r="L1579" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1579" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1579" t="n">
+        <v>35</v>
+      </c>
+      <c r="O1579" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1579" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1579" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1579" t="inlineStr"/>
+    </row>
+    <row r="1580">
+      <c r="A1580" s="2" t="n">
+        <v>45531.59375</v>
+      </c>
+      <c r="B1580" t="n">
+        <v>365.8999938964844</v>
+      </c>
+      <c r="C1580" t="n">
+        <v>371.25</v>
+      </c>
+      <c r="D1580" t="n">
+        <v>365.25</v>
+      </c>
+      <c r="E1580" t="n">
+        <v>366.6499938964844</v>
+      </c>
+      <c r="F1580" t="n">
+        <v>366.6499938964844</v>
+      </c>
+      <c r="G1580" t="n">
+        <v>169540</v>
+      </c>
+      <c r="H1580" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1580" t="n">
+        <v>8</v>
+      </c>
+      <c r="J1580" t="n">
+        <v>27</v>
+      </c>
+      <c r="K1580" t="n">
+        <v>14</v>
+      </c>
+      <c r="L1580" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1580" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1580" t="n">
+        <v>35</v>
+      </c>
+      <c r="O1580" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1580" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1580" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1580" t="inlineStr"/>
+    </row>
+    <row r="1581">
+      <c r="A1581" s="2" t="n">
+        <v>45531.63541666666</v>
+      </c>
+      <c r="B1581" t="n">
+        <v>366.7999877929688</v>
+      </c>
+      <c r="C1581" t="n">
+        <v>368</v>
+      </c>
+      <c r="D1581" t="n">
+        <v>365.5</v>
+      </c>
+      <c r="E1581" t="n">
+        <v>366.0499877929688</v>
+      </c>
+      <c r="F1581" t="n">
+        <v>366.0499877929688</v>
+      </c>
+      <c r="G1581" t="n">
+        <v>117104</v>
+      </c>
+      <c r="H1581" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1581" t="n">
+        <v>8</v>
+      </c>
+      <c r="J1581" t="n">
+        <v>27</v>
+      </c>
+      <c r="K1581" t="n">
+        <v>15</v>
+      </c>
+      <c r="L1581" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1581" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1581" t="n">
+        <v>35</v>
+      </c>
+      <c r="O1581" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1581" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1581" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1581" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/60m/ZAGGLE.NS.xlsx
+++ b/stock_historical_data/60m/ZAGGLE.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R1581"/>
+  <dimension ref="A1:R1588"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -88549,7 +88549,7 @@
         <v>35</v>
       </c>
       <c r="O1573" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="P1573" t="n">
         <v>0</v>
@@ -88669,7 +88669,9 @@
       <c r="Q1575" t="n">
         <v>0</v>
       </c>
-      <c r="R1575" t="inlineStr"/>
+      <c r="R1575" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1576">
       <c r="A1576" s="2" t="n">
@@ -88723,7 +88725,9 @@
       <c r="Q1576" t="n">
         <v>0</v>
       </c>
-      <c r="R1576" t="inlineStr"/>
+      <c r="R1576" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1577">
       <c r="A1577" s="2" t="n">
@@ -88777,7 +88781,9 @@
       <c r="Q1577" t="n">
         <v>0</v>
       </c>
-      <c r="R1577" t="inlineStr"/>
+      <c r="R1577" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1578">
       <c r="A1578" s="2" t="n">
@@ -88831,7 +88837,9 @@
       <c r="Q1578" t="n">
         <v>0</v>
       </c>
-      <c r="R1578" t="inlineStr"/>
+      <c r="R1578" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1579">
       <c r="A1579" s="2" t="n">
@@ -88885,7 +88893,9 @@
       <c r="Q1579" t="n">
         <v>0</v>
       </c>
-      <c r="R1579" t="inlineStr"/>
+      <c r="R1579" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1580">
       <c r="A1580" s="2" t="n">
@@ -88939,7 +88949,9 @@
       <c r="Q1580" t="n">
         <v>0</v>
       </c>
-      <c r="R1580" t="inlineStr"/>
+      <c r="R1580" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1581">
       <c r="A1581" s="2" t="n">
@@ -88993,7 +89005,387 @@
       <c r="Q1581" t="n">
         <v>0</v>
       </c>
-      <c r="R1581" t="inlineStr"/>
+      <c r="R1581" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1582">
+      <c r="A1582" s="2" t="n">
+        <v>45532.38541666666</v>
+      </c>
+      <c r="B1582" t="n">
+        <v>369</v>
+      </c>
+      <c r="C1582" t="n">
+        <v>372.7000122070312</v>
+      </c>
+      <c r="D1582" t="n">
+        <v>366.5499877929688</v>
+      </c>
+      <c r="E1582" t="n">
+        <v>368.3999938964844</v>
+      </c>
+      <c r="F1582" t="n">
+        <v>368.3999938964844</v>
+      </c>
+      <c r="G1582" t="n">
+        <v>248357</v>
+      </c>
+      <c r="H1582" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1582" t="n">
+        <v>8</v>
+      </c>
+      <c r="J1582" t="n">
+        <v>28</v>
+      </c>
+      <c r="K1582" t="n">
+        <v>9</v>
+      </c>
+      <c r="L1582" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1582" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1582" t="n">
+        <v>35</v>
+      </c>
+      <c r="O1582" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1582" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1582" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1582" t="inlineStr"/>
+    </row>
+    <row r="1583">
+      <c r="A1583" s="2" t="n">
+        <v>45532.42708333334</v>
+      </c>
+      <c r="B1583" t="n">
+        <v>368.7000122070312</v>
+      </c>
+      <c r="C1583" t="n">
+        <v>374.7000122070312</v>
+      </c>
+      <c r="D1583" t="n">
+        <v>367.7999877929688</v>
+      </c>
+      <c r="E1583" t="n">
+        <v>369.8500061035156</v>
+      </c>
+      <c r="F1583" t="n">
+        <v>369.8500061035156</v>
+      </c>
+      <c r="G1583" t="n">
+        <v>435537</v>
+      </c>
+      <c r="H1583" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1583" t="n">
+        <v>8</v>
+      </c>
+      <c r="J1583" t="n">
+        <v>28</v>
+      </c>
+      <c r="K1583" t="n">
+        <v>10</v>
+      </c>
+      <c r="L1583" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1583" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1583" t="n">
+        <v>35</v>
+      </c>
+      <c r="O1583" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1583" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1583" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1583" t="inlineStr"/>
+    </row>
+    <row r="1584">
+      <c r="A1584" s="2" t="n">
+        <v>45532.46875</v>
+      </c>
+      <c r="B1584" t="n">
+        <v>369.6000061035156</v>
+      </c>
+      <c r="C1584" t="n">
+        <v>371.4500122070312</v>
+      </c>
+      <c r="D1584" t="n">
+        <v>368.6499938964844</v>
+      </c>
+      <c r="E1584" t="n">
+        <v>368.75</v>
+      </c>
+      <c r="F1584" t="n">
+        <v>368.75</v>
+      </c>
+      <c r="G1584" t="n">
+        <v>73824</v>
+      </c>
+      <c r="H1584" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1584" t="n">
+        <v>8</v>
+      </c>
+      <c r="J1584" t="n">
+        <v>28</v>
+      </c>
+      <c r="K1584" t="n">
+        <v>11</v>
+      </c>
+      <c r="L1584" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1584" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1584" t="n">
+        <v>35</v>
+      </c>
+      <c r="O1584" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1584" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q1584" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1584" t="inlineStr"/>
+    </row>
+    <row r="1585">
+      <c r="A1585" s="2" t="n">
+        <v>45532.51041666666</v>
+      </c>
+      <c r="B1585" t="n">
+        <v>368.8500061035156</v>
+      </c>
+      <c r="C1585" t="n">
+        <v>369.2000122070312</v>
+      </c>
+      <c r="D1585" t="n">
+        <v>366.1000061035156</v>
+      </c>
+      <c r="E1585" t="n">
+        <v>367</v>
+      </c>
+      <c r="F1585" t="n">
+        <v>367</v>
+      </c>
+      <c r="G1585" t="n">
+        <v>87147</v>
+      </c>
+      <c r="H1585" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1585" t="n">
+        <v>8</v>
+      </c>
+      <c r="J1585" t="n">
+        <v>28</v>
+      </c>
+      <c r="K1585" t="n">
+        <v>12</v>
+      </c>
+      <c r="L1585" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1585" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1585" t="n">
+        <v>35</v>
+      </c>
+      <c r="O1585" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1585" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1585" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1585" t="inlineStr"/>
+    </row>
+    <row r="1586">
+      <c r="A1586" s="2" t="n">
+        <v>45532.55208333334</v>
+      </c>
+      <c r="B1586" t="n">
+        <v>367</v>
+      </c>
+      <c r="C1586" t="n">
+        <v>367.6499938964844</v>
+      </c>
+      <c r="D1586" t="n">
+        <v>364</v>
+      </c>
+      <c r="E1586" t="n">
+        <v>366.0499877929688</v>
+      </c>
+      <c r="F1586" t="n">
+        <v>366.0499877929688</v>
+      </c>
+      <c r="G1586" t="n">
+        <v>101322</v>
+      </c>
+      <c r="H1586" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1586" t="n">
+        <v>8</v>
+      </c>
+      <c r="J1586" t="n">
+        <v>28</v>
+      </c>
+      <c r="K1586" t="n">
+        <v>13</v>
+      </c>
+      <c r="L1586" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1586" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1586" t="n">
+        <v>35</v>
+      </c>
+      <c r="O1586" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1586" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1586" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1586" t="inlineStr"/>
+    </row>
+    <row r="1587">
+      <c r="A1587" s="2" t="n">
+        <v>45532.59375</v>
+      </c>
+      <c r="B1587" t="n">
+        <v>366.0499877929688</v>
+      </c>
+      <c r="C1587" t="n">
+        <v>366.0499877929688</v>
+      </c>
+      <c r="D1587" t="n">
+        <v>361.2999877929688</v>
+      </c>
+      <c r="E1587" t="n">
+        <v>362.5</v>
+      </c>
+      <c r="F1587" t="n">
+        <v>362.5</v>
+      </c>
+      <c r="G1587" t="n">
+        <v>137361</v>
+      </c>
+      <c r="H1587" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1587" t="n">
+        <v>8</v>
+      </c>
+      <c r="J1587" t="n">
+        <v>28</v>
+      </c>
+      <c r="K1587" t="n">
+        <v>14</v>
+      </c>
+      <c r="L1587" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1587" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1587" t="n">
+        <v>35</v>
+      </c>
+      <c r="O1587" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1587" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1587" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1587" t="inlineStr"/>
+    </row>
+    <row r="1588">
+      <c r="A1588" s="2" t="n">
+        <v>45532.63541666666</v>
+      </c>
+      <c r="B1588" t="n">
+        <v>362.75</v>
+      </c>
+      <c r="C1588" t="n">
+        <v>363.9500122070312</v>
+      </c>
+      <c r="D1588" t="n">
+        <v>361.3999938964844</v>
+      </c>
+      <c r="E1588" t="n">
+        <v>363</v>
+      </c>
+      <c r="F1588" t="n">
+        <v>363</v>
+      </c>
+      <c r="G1588" t="n">
+        <v>80138</v>
+      </c>
+      <c r="H1588" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1588" t="n">
+        <v>8</v>
+      </c>
+      <c r="J1588" t="n">
+        <v>28</v>
+      </c>
+      <c r="K1588" t="n">
+        <v>15</v>
+      </c>
+      <c r="L1588" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1588" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1588" t="n">
+        <v>35</v>
+      </c>
+      <c r="O1588" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1588" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1588" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1588" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/60m/ZAGGLE.NS.xlsx
+++ b/stock_historical_data/60m/ZAGGLE.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R1588"/>
+  <dimension ref="A1:R1595"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -89061,7 +89061,9 @@
       <c r="Q1582" t="n">
         <v>0</v>
       </c>
-      <c r="R1582" t="inlineStr"/>
+      <c r="R1582" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1583">
       <c r="A1583" s="2" t="n">
@@ -89107,7 +89109,7 @@
         <v>35</v>
       </c>
       <c r="O1583" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P1583" t="n">
         <v>0</v>
@@ -89115,7 +89117,9 @@
       <c r="Q1583" t="n">
         <v>0</v>
       </c>
-      <c r="R1583" t="inlineStr"/>
+      <c r="R1583" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1584">
       <c r="A1584" s="2" t="n">
@@ -89169,7 +89173,9 @@
       <c r="Q1584" t="n">
         <v>0</v>
       </c>
-      <c r="R1584" t="inlineStr"/>
+      <c r="R1584" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="1585">
       <c r="A1585" s="2" t="n">
@@ -89223,7 +89229,9 @@
       <c r="Q1585" t="n">
         <v>0</v>
       </c>
-      <c r="R1585" t="inlineStr"/>
+      <c r="R1585" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1586">
       <c r="A1586" s="2" t="n">
@@ -89277,7 +89285,9 @@
       <c r="Q1586" t="n">
         <v>0</v>
       </c>
-      <c r="R1586" t="inlineStr"/>
+      <c r="R1586" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1587">
       <c r="A1587" s="2" t="n">
@@ -89331,7 +89341,9 @@
       <c r="Q1587" t="n">
         <v>0</v>
       </c>
-      <c r="R1587" t="inlineStr"/>
+      <c r="R1587" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1588">
       <c r="A1588" s="2" t="n">
@@ -89385,7 +89397,387 @@
       <c r="Q1588" t="n">
         <v>0</v>
       </c>
-      <c r="R1588" t="inlineStr"/>
+      <c r="R1588" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1589">
+      <c r="A1589" s="2" t="n">
+        <v>45533.38541666666</v>
+      </c>
+      <c r="B1589" t="n">
+        <v>362.2999877929688</v>
+      </c>
+      <c r="C1589" t="n">
+        <v>363.9500122070312</v>
+      </c>
+      <c r="D1589" t="n">
+        <v>360.0499877929688</v>
+      </c>
+      <c r="E1589" t="n">
+        <v>360.25</v>
+      </c>
+      <c r="F1589" t="n">
+        <v>360.25</v>
+      </c>
+      <c r="G1589" t="n">
+        <v>171451</v>
+      </c>
+      <c r="H1589" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1589" t="n">
+        <v>8</v>
+      </c>
+      <c r="J1589" t="n">
+        <v>29</v>
+      </c>
+      <c r="K1589" t="n">
+        <v>9</v>
+      </c>
+      <c r="L1589" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1589" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1589" t="n">
+        <v>35</v>
+      </c>
+      <c r="O1589" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1589" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1589" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1589" t="inlineStr"/>
+    </row>
+    <row r="1590">
+      <c r="A1590" s="2" t="n">
+        <v>45533.42708333334</v>
+      </c>
+      <c r="B1590" t="n">
+        <v>360.1000061035156</v>
+      </c>
+      <c r="C1590" t="n">
+        <v>361.5499877929688</v>
+      </c>
+      <c r="D1590" t="n">
+        <v>356</v>
+      </c>
+      <c r="E1590" t="n">
+        <v>357.5499877929688</v>
+      </c>
+      <c r="F1590" t="n">
+        <v>357.5499877929688</v>
+      </c>
+      <c r="G1590" t="n">
+        <v>281343</v>
+      </c>
+      <c r="H1590" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1590" t="n">
+        <v>8</v>
+      </c>
+      <c r="J1590" t="n">
+        <v>29</v>
+      </c>
+      <c r="K1590" t="n">
+        <v>10</v>
+      </c>
+      <c r="L1590" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1590" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1590" t="n">
+        <v>35</v>
+      </c>
+      <c r="O1590" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1590" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1590" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1590" t="inlineStr"/>
+    </row>
+    <row r="1591">
+      <c r="A1591" s="2" t="n">
+        <v>45533.46875</v>
+      </c>
+      <c r="B1591" t="n">
+        <v>357.6000061035156</v>
+      </c>
+      <c r="C1591" t="n">
+        <v>358.2999877929688</v>
+      </c>
+      <c r="D1591" t="n">
+        <v>351.3999938964844</v>
+      </c>
+      <c r="E1591" t="n">
+        <v>354.8999938964844</v>
+      </c>
+      <c r="F1591" t="n">
+        <v>354.8999938964844</v>
+      </c>
+      <c r="G1591" t="n">
+        <v>288217</v>
+      </c>
+      <c r="H1591" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1591" t="n">
+        <v>8</v>
+      </c>
+      <c r="J1591" t="n">
+        <v>29</v>
+      </c>
+      <c r="K1591" t="n">
+        <v>11</v>
+      </c>
+      <c r="L1591" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1591" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1591" t="n">
+        <v>35</v>
+      </c>
+      <c r="O1591" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1591" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1591" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1591" t="inlineStr"/>
+    </row>
+    <row r="1592">
+      <c r="A1592" s="2" t="n">
+        <v>45533.51041666666</v>
+      </c>
+      <c r="B1592" t="n">
+        <v>354.75</v>
+      </c>
+      <c r="C1592" t="n">
+        <v>357</v>
+      </c>
+      <c r="D1592" t="n">
+        <v>353.3500061035156</v>
+      </c>
+      <c r="E1592" t="n">
+        <v>355.2000122070312</v>
+      </c>
+      <c r="F1592" t="n">
+        <v>355.2000122070312</v>
+      </c>
+      <c r="G1592" t="n">
+        <v>82871</v>
+      </c>
+      <c r="H1592" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1592" t="n">
+        <v>8</v>
+      </c>
+      <c r="J1592" t="n">
+        <v>29</v>
+      </c>
+      <c r="K1592" t="n">
+        <v>12</v>
+      </c>
+      <c r="L1592" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1592" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1592" t="n">
+        <v>35</v>
+      </c>
+      <c r="O1592" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1592" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1592" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1592" t="inlineStr"/>
+    </row>
+    <row r="1593">
+      <c r="A1593" s="2" t="n">
+        <v>45533.55208333334</v>
+      </c>
+      <c r="B1593" t="n">
+        <v>355.1499938964844</v>
+      </c>
+      <c r="C1593" t="n">
+        <v>357.7000122070312</v>
+      </c>
+      <c r="D1593" t="n">
+        <v>353.0499877929688</v>
+      </c>
+      <c r="E1593" t="n">
+        <v>354.7000122070312</v>
+      </c>
+      <c r="F1593" t="n">
+        <v>354.7000122070312</v>
+      </c>
+      <c r="G1593" t="n">
+        <v>78434</v>
+      </c>
+      <c r="H1593" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1593" t="n">
+        <v>8</v>
+      </c>
+      <c r="J1593" t="n">
+        <v>29</v>
+      </c>
+      <c r="K1593" t="n">
+        <v>13</v>
+      </c>
+      <c r="L1593" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1593" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1593" t="n">
+        <v>35</v>
+      </c>
+      <c r="O1593" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1593" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1593" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1593" t="inlineStr"/>
+    </row>
+    <row r="1594">
+      <c r="A1594" s="2" t="n">
+        <v>45533.59375</v>
+      </c>
+      <c r="B1594" t="n">
+        <v>354.7000122070312</v>
+      </c>
+      <c r="C1594" t="n">
+        <v>356.6499938964844</v>
+      </c>
+      <c r="D1594" t="n">
+        <v>352.6499938964844</v>
+      </c>
+      <c r="E1594" t="n">
+        <v>355.2999877929688</v>
+      </c>
+      <c r="F1594" t="n">
+        <v>355.2999877929688</v>
+      </c>
+      <c r="G1594" t="n">
+        <v>112049</v>
+      </c>
+      <c r="H1594" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1594" t="n">
+        <v>8</v>
+      </c>
+      <c r="J1594" t="n">
+        <v>29</v>
+      </c>
+      <c r="K1594" t="n">
+        <v>14</v>
+      </c>
+      <c r="L1594" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1594" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1594" t="n">
+        <v>35</v>
+      </c>
+      <c r="O1594" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1594" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q1594" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1594" t="inlineStr"/>
+    </row>
+    <row r="1595">
+      <c r="A1595" s="2" t="n">
+        <v>45533.63541666666</v>
+      </c>
+      <c r="B1595" t="n">
+        <v>354.0499877929688</v>
+      </c>
+      <c r="C1595" t="n">
+        <v>358</v>
+      </c>
+      <c r="D1595" t="n">
+        <v>354.0499877929688</v>
+      </c>
+      <c r="E1595" t="n">
+        <v>357.9500122070312</v>
+      </c>
+      <c r="F1595" t="n">
+        <v>357.9500122070312</v>
+      </c>
+      <c r="G1595" t="n">
+        <v>90850</v>
+      </c>
+      <c r="H1595" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1595" t="n">
+        <v>8</v>
+      </c>
+      <c r="J1595" t="n">
+        <v>29</v>
+      </c>
+      <c r="K1595" t="n">
+        <v>15</v>
+      </c>
+      <c r="L1595" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1595" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1595" t="n">
+        <v>35</v>
+      </c>
+      <c r="O1595" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1595" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1595" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1595" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/60m/ZAGGLE.NS.xlsx
+++ b/stock_historical_data/60m/ZAGGLE.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R1595"/>
+  <dimension ref="A1:R1602"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -89453,7 +89453,9 @@
       <c r="Q1589" t="n">
         <v>0</v>
       </c>
-      <c r="R1589" t="inlineStr"/>
+      <c r="R1589" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1590">
       <c r="A1590" s="2" t="n">
@@ -89507,7 +89509,9 @@
       <c r="Q1590" t="n">
         <v>0</v>
       </c>
-      <c r="R1590" t="inlineStr"/>
+      <c r="R1590" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1591">
       <c r="A1591" s="2" t="n">
@@ -89561,7 +89565,9 @@
       <c r="Q1591" t="n">
         <v>0</v>
       </c>
-      <c r="R1591" t="inlineStr"/>
+      <c r="R1591" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1592">
       <c r="A1592" s="2" t="n">
@@ -89615,7 +89621,9 @@
       <c r="Q1592" t="n">
         <v>0</v>
       </c>
-      <c r="R1592" t="inlineStr"/>
+      <c r="R1592" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1593">
       <c r="A1593" s="2" t="n">
@@ -89669,7 +89677,9 @@
       <c r="Q1593" t="n">
         <v>0</v>
       </c>
-      <c r="R1593" t="inlineStr"/>
+      <c r="R1593" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1594">
       <c r="A1594" s="2" t="n">
@@ -89723,7 +89733,9 @@
       <c r="Q1594" t="n">
         <v>0</v>
       </c>
-      <c r="R1594" t="inlineStr"/>
+      <c r="R1594" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="1595">
       <c r="A1595" s="2" t="n">
@@ -89777,7 +89789,387 @@
       <c r="Q1595" t="n">
         <v>0</v>
       </c>
-      <c r="R1595" t="inlineStr"/>
+      <c r="R1595" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1596">
+      <c r="A1596" s="2" t="n">
+        <v>45534.38541666666</v>
+      </c>
+      <c r="B1596" t="n">
+        <v>358</v>
+      </c>
+      <c r="C1596" t="n">
+        <v>358</v>
+      </c>
+      <c r="D1596" t="n">
+        <v>348.25</v>
+      </c>
+      <c r="E1596" t="n">
+        <v>349.6499938964844</v>
+      </c>
+      <c r="F1596" t="n">
+        <v>349.6499938964844</v>
+      </c>
+      <c r="G1596" t="n">
+        <v>430160</v>
+      </c>
+      <c r="H1596" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1596" t="n">
+        <v>8</v>
+      </c>
+      <c r="J1596" t="n">
+        <v>30</v>
+      </c>
+      <c r="K1596" t="n">
+        <v>9</v>
+      </c>
+      <c r="L1596" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1596" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1596" t="n">
+        <v>35</v>
+      </c>
+      <c r="O1596" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1596" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1596" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1596" t="inlineStr"/>
+    </row>
+    <row r="1597">
+      <c r="A1597" s="2" t="n">
+        <v>45534.42708333334</v>
+      </c>
+      <c r="B1597" t="n">
+        <v>349.5499877929688</v>
+      </c>
+      <c r="C1597" t="n">
+        <v>350.8999938964844</v>
+      </c>
+      <c r="D1597" t="n">
+        <v>348.6000061035156</v>
+      </c>
+      <c r="E1597" t="n">
+        <v>348.6499938964844</v>
+      </c>
+      <c r="F1597" t="n">
+        <v>348.6499938964844</v>
+      </c>
+      <c r="G1597" t="n">
+        <v>150071</v>
+      </c>
+      <c r="H1597" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1597" t="n">
+        <v>8</v>
+      </c>
+      <c r="J1597" t="n">
+        <v>30</v>
+      </c>
+      <c r="K1597" t="n">
+        <v>10</v>
+      </c>
+      <c r="L1597" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1597" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1597" t="n">
+        <v>35</v>
+      </c>
+      <c r="O1597" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1597" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1597" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1597" t="inlineStr"/>
+    </row>
+    <row r="1598">
+      <c r="A1598" s="2" t="n">
+        <v>45534.46875</v>
+      </c>
+      <c r="B1598" t="n">
+        <v>348.6499938964844</v>
+      </c>
+      <c r="C1598" t="n">
+        <v>357.2000122070312</v>
+      </c>
+      <c r="D1598" t="n">
+        <v>348.5</v>
+      </c>
+      <c r="E1598" t="n">
+        <v>354.75</v>
+      </c>
+      <c r="F1598" t="n">
+        <v>354.75</v>
+      </c>
+      <c r="G1598" t="n">
+        <v>486204</v>
+      </c>
+      <c r="H1598" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1598" t="n">
+        <v>8</v>
+      </c>
+      <c r="J1598" t="n">
+        <v>30</v>
+      </c>
+      <c r="K1598" t="n">
+        <v>11</v>
+      </c>
+      <c r="L1598" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1598" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1598" t="n">
+        <v>35</v>
+      </c>
+      <c r="O1598" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1598" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1598" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1598" t="inlineStr"/>
+    </row>
+    <row r="1599">
+      <c r="A1599" s="2" t="n">
+        <v>45534.51041666666</v>
+      </c>
+      <c r="B1599" t="n">
+        <v>354.75</v>
+      </c>
+      <c r="C1599" t="n">
+        <v>360.9500122070312</v>
+      </c>
+      <c r="D1599" t="n">
+        <v>354.1000061035156</v>
+      </c>
+      <c r="E1599" t="n">
+        <v>357.0499877929688</v>
+      </c>
+      <c r="F1599" t="n">
+        <v>357.0499877929688</v>
+      </c>
+      <c r="G1599" t="n">
+        <v>253117</v>
+      </c>
+      <c r="H1599" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1599" t="n">
+        <v>8</v>
+      </c>
+      <c r="J1599" t="n">
+        <v>30</v>
+      </c>
+      <c r="K1599" t="n">
+        <v>12</v>
+      </c>
+      <c r="L1599" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1599" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1599" t="n">
+        <v>35</v>
+      </c>
+      <c r="O1599" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1599" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1599" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1599" t="inlineStr"/>
+    </row>
+    <row r="1600">
+      <c r="A1600" s="2" t="n">
+        <v>45534.55208333334</v>
+      </c>
+      <c r="B1600" t="n">
+        <v>357.2999877929688</v>
+      </c>
+      <c r="C1600" t="n">
+        <v>358.5</v>
+      </c>
+      <c r="D1600" t="n">
+        <v>355.6000061035156</v>
+      </c>
+      <c r="E1600" t="n">
+        <v>356.75</v>
+      </c>
+      <c r="F1600" t="n">
+        <v>356.75</v>
+      </c>
+      <c r="G1600" t="n">
+        <v>104952</v>
+      </c>
+      <c r="H1600" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1600" t="n">
+        <v>8</v>
+      </c>
+      <c r="J1600" t="n">
+        <v>30</v>
+      </c>
+      <c r="K1600" t="n">
+        <v>13</v>
+      </c>
+      <c r="L1600" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1600" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1600" t="n">
+        <v>35</v>
+      </c>
+      <c r="O1600" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1600" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1600" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1600" t="inlineStr"/>
+    </row>
+    <row r="1601">
+      <c r="A1601" s="2" t="n">
+        <v>45534.59375</v>
+      </c>
+      <c r="B1601" t="n">
+        <v>356.75</v>
+      </c>
+      <c r="C1601" t="n">
+        <v>357.5</v>
+      </c>
+      <c r="D1601" t="n">
+        <v>352.7999877929688</v>
+      </c>
+      <c r="E1601" t="n">
+        <v>354.0499877929688</v>
+      </c>
+      <c r="F1601" t="n">
+        <v>354.0499877929688</v>
+      </c>
+      <c r="G1601" t="n">
+        <v>176229</v>
+      </c>
+      <c r="H1601" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1601" t="n">
+        <v>8</v>
+      </c>
+      <c r="J1601" t="n">
+        <v>30</v>
+      </c>
+      <c r="K1601" t="n">
+        <v>14</v>
+      </c>
+      <c r="L1601" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1601" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1601" t="n">
+        <v>35</v>
+      </c>
+      <c r="O1601" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1601" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1601" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1601" t="inlineStr"/>
+    </row>
+    <row r="1602">
+      <c r="A1602" s="2" t="n">
+        <v>45534.63541666666</v>
+      </c>
+      <c r="B1602" t="n">
+        <v>354.0499877929688</v>
+      </c>
+      <c r="C1602" t="n">
+        <v>354.5</v>
+      </c>
+      <c r="D1602" t="n">
+        <v>352.2999877929688</v>
+      </c>
+      <c r="E1602" t="n">
+        <v>353.5</v>
+      </c>
+      <c r="F1602" t="n">
+        <v>353.5</v>
+      </c>
+      <c r="G1602" t="n">
+        <v>88702</v>
+      </c>
+      <c r="H1602" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1602" t="n">
+        <v>8</v>
+      </c>
+      <c r="J1602" t="n">
+        <v>30</v>
+      </c>
+      <c r="K1602" t="n">
+        <v>15</v>
+      </c>
+      <c r="L1602" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1602" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1602" t="n">
+        <v>35</v>
+      </c>
+      <c r="O1602" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1602" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1602" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1602" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/60m/ZAGGLE.NS.xlsx
+++ b/stock_historical_data/60m/ZAGGLE.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R1602"/>
+  <dimension ref="A1:R1609"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -89845,7 +89845,9 @@
       <c r="Q1596" t="n">
         <v>0</v>
       </c>
-      <c r="R1596" t="inlineStr"/>
+      <c r="R1596" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1597">
       <c r="A1597" s="2" t="n">
@@ -89899,7 +89901,9 @@
       <c r="Q1597" t="n">
         <v>0</v>
       </c>
-      <c r="R1597" t="inlineStr"/>
+      <c r="R1597" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1598">
       <c r="A1598" s="2" t="n">
@@ -89953,7 +89957,9 @@
       <c r="Q1598" t="n">
         <v>0</v>
       </c>
-      <c r="R1598" t="inlineStr"/>
+      <c r="R1598" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1599">
       <c r="A1599" s="2" t="n">
@@ -90007,7 +90013,9 @@
       <c r="Q1599" t="n">
         <v>0</v>
       </c>
-      <c r="R1599" t="inlineStr"/>
+      <c r="R1599" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1600">
       <c r="A1600" s="2" t="n">
@@ -90061,7 +90069,9 @@
       <c r="Q1600" t="n">
         <v>0</v>
       </c>
-      <c r="R1600" t="inlineStr"/>
+      <c r="R1600" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1601">
       <c r="A1601" s="2" t="n">
@@ -90115,7 +90125,9 @@
       <c r="Q1601" t="n">
         <v>0</v>
       </c>
-      <c r="R1601" t="inlineStr"/>
+      <c r="R1601" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1602">
       <c r="A1602" s="2" t="n">
@@ -90169,7 +90181,387 @@
       <c r="Q1602" t="n">
         <v>0</v>
       </c>
-      <c r="R1602" t="inlineStr"/>
+      <c r="R1602" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1603">
+      <c r="A1603" s="2" t="n">
+        <v>45537.38541666666</v>
+      </c>
+      <c r="B1603" t="n">
+        <v>356.6000061035156</v>
+      </c>
+      <c r="C1603" t="n">
+        <v>356.6000061035156</v>
+      </c>
+      <c r="D1603" t="n">
+        <v>351.25</v>
+      </c>
+      <c r="E1603" t="n">
+        <v>353.2000122070312</v>
+      </c>
+      <c r="F1603" t="n">
+        <v>353.2000122070312</v>
+      </c>
+      <c r="G1603" t="n">
+        <v>0</v>
+      </c>
+      <c r="H1603" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1603" t="n">
+        <v>9</v>
+      </c>
+      <c r="J1603" t="n">
+        <v>2</v>
+      </c>
+      <c r="K1603" t="n">
+        <v>9</v>
+      </c>
+      <c r="L1603" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1603" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1603" t="n">
+        <v>36</v>
+      </c>
+      <c r="O1603" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1603" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1603" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1603" t="inlineStr"/>
+    </row>
+    <row r="1604">
+      <c r="A1604" s="2" t="n">
+        <v>45537.42708333334</v>
+      </c>
+      <c r="B1604" t="n">
+        <v>353</v>
+      </c>
+      <c r="C1604" t="n">
+        <v>353.1499938964844</v>
+      </c>
+      <c r="D1604" t="n">
+        <v>350.4500122070312</v>
+      </c>
+      <c r="E1604" t="n">
+        <v>351.7000122070312</v>
+      </c>
+      <c r="F1604" t="n">
+        <v>351.7000122070312</v>
+      </c>
+      <c r="G1604" t="n">
+        <v>61751</v>
+      </c>
+      <c r="H1604" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1604" t="n">
+        <v>9</v>
+      </c>
+      <c r="J1604" t="n">
+        <v>2</v>
+      </c>
+      <c r="K1604" t="n">
+        <v>10</v>
+      </c>
+      <c r="L1604" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1604" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1604" t="n">
+        <v>36</v>
+      </c>
+      <c r="O1604" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1604" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1604" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1604" t="inlineStr"/>
+    </row>
+    <row r="1605">
+      <c r="A1605" s="2" t="n">
+        <v>45537.46875</v>
+      </c>
+      <c r="B1605" t="n">
+        <v>351.4500122070312</v>
+      </c>
+      <c r="C1605" t="n">
+        <v>354</v>
+      </c>
+      <c r="D1605" t="n">
+        <v>351.25</v>
+      </c>
+      <c r="E1605" t="n">
+        <v>351.6000061035156</v>
+      </c>
+      <c r="F1605" t="n">
+        <v>351.6000061035156</v>
+      </c>
+      <c r="G1605" t="n">
+        <v>81761</v>
+      </c>
+      <c r="H1605" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1605" t="n">
+        <v>9</v>
+      </c>
+      <c r="J1605" t="n">
+        <v>2</v>
+      </c>
+      <c r="K1605" t="n">
+        <v>11</v>
+      </c>
+      <c r="L1605" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1605" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1605" t="n">
+        <v>36</v>
+      </c>
+      <c r="O1605" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1605" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1605" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1605" t="inlineStr"/>
+    </row>
+    <row r="1606">
+      <c r="A1606" s="2" t="n">
+        <v>45537.51041666666</v>
+      </c>
+      <c r="B1606" t="n">
+        <v>351.6000061035156</v>
+      </c>
+      <c r="C1606" t="n">
+        <v>351.75</v>
+      </c>
+      <c r="D1606" t="n">
+        <v>336.7999877929688</v>
+      </c>
+      <c r="E1606" t="n">
+        <v>342.8500061035156</v>
+      </c>
+      <c r="F1606" t="n">
+        <v>342.8500061035156</v>
+      </c>
+      <c r="G1606" t="n">
+        <v>617812</v>
+      </c>
+      <c r="H1606" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1606" t="n">
+        <v>9</v>
+      </c>
+      <c r="J1606" t="n">
+        <v>2</v>
+      </c>
+      <c r="K1606" t="n">
+        <v>12</v>
+      </c>
+      <c r="L1606" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1606" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1606" t="n">
+        <v>36</v>
+      </c>
+      <c r="O1606" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1606" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1606" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1606" t="inlineStr"/>
+    </row>
+    <row r="1607">
+      <c r="A1607" s="2" t="n">
+        <v>45537.55208333334</v>
+      </c>
+      <c r="B1607" t="n">
+        <v>342.8500061035156</v>
+      </c>
+      <c r="C1607" t="n">
+        <v>347.3999938964844</v>
+      </c>
+      <c r="D1607" t="n">
+        <v>342.2999877929688</v>
+      </c>
+      <c r="E1607" t="n">
+        <v>346.3999938964844</v>
+      </c>
+      <c r="F1607" t="n">
+        <v>346.3999938964844</v>
+      </c>
+      <c r="G1607" t="n">
+        <v>192140</v>
+      </c>
+      <c r="H1607" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1607" t="n">
+        <v>9</v>
+      </c>
+      <c r="J1607" t="n">
+        <v>2</v>
+      </c>
+      <c r="K1607" t="n">
+        <v>13</v>
+      </c>
+      <c r="L1607" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1607" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1607" t="n">
+        <v>36</v>
+      </c>
+      <c r="O1607" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1607" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1607" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1607" t="inlineStr"/>
+    </row>
+    <row r="1608">
+      <c r="A1608" s="2" t="n">
+        <v>45537.59375</v>
+      </c>
+      <c r="B1608" t="n">
+        <v>346.3999938964844</v>
+      </c>
+      <c r="C1608" t="n">
+        <v>353</v>
+      </c>
+      <c r="D1608" t="n">
+        <v>345.6499938964844</v>
+      </c>
+      <c r="E1608" t="n">
+        <v>353</v>
+      </c>
+      <c r="F1608" t="n">
+        <v>353</v>
+      </c>
+      <c r="G1608" t="n">
+        <v>244313</v>
+      </c>
+      <c r="H1608" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1608" t="n">
+        <v>9</v>
+      </c>
+      <c r="J1608" t="n">
+        <v>2</v>
+      </c>
+      <c r="K1608" t="n">
+        <v>14</v>
+      </c>
+      <c r="L1608" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1608" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1608" t="n">
+        <v>36</v>
+      </c>
+      <c r="O1608" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1608" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1608" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1608" t="inlineStr"/>
+    </row>
+    <row r="1609">
+      <c r="A1609" s="2" t="n">
+        <v>45537.63541666666</v>
+      </c>
+      <c r="B1609" t="n">
+        <v>353.3500061035156</v>
+      </c>
+      <c r="C1609" t="n">
+        <v>353.3500061035156</v>
+      </c>
+      <c r="D1609" t="n">
+        <v>350.5</v>
+      </c>
+      <c r="E1609" t="n">
+        <v>351.7000122070312</v>
+      </c>
+      <c r="F1609" t="n">
+        <v>351.7000122070312</v>
+      </c>
+      <c r="G1609" t="n">
+        <v>58734</v>
+      </c>
+      <c r="H1609" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1609" t="n">
+        <v>9</v>
+      </c>
+      <c r="J1609" t="n">
+        <v>2</v>
+      </c>
+      <c r="K1609" t="n">
+        <v>15</v>
+      </c>
+      <c r="L1609" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1609" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1609" t="n">
+        <v>36</v>
+      </c>
+      <c r="O1609" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1609" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1609" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1609" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/60m/ZAGGLE.NS.xlsx
+++ b/stock_historical_data/60m/ZAGGLE.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R1609"/>
+  <dimension ref="A1:R1616"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -90237,7 +90237,9 @@
       <c r="Q1603" t="n">
         <v>0</v>
       </c>
-      <c r="R1603" t="inlineStr"/>
+      <c r="R1603" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1604">
       <c r="A1604" s="2" t="n">
@@ -90291,7 +90293,9 @@
       <c r="Q1604" t="n">
         <v>0</v>
       </c>
-      <c r="R1604" t="inlineStr"/>
+      <c r="R1604" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1605">
       <c r="A1605" s="2" t="n">
@@ -90345,7 +90349,9 @@
       <c r="Q1605" t="n">
         <v>0</v>
       </c>
-      <c r="R1605" t="inlineStr"/>
+      <c r="R1605" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1606">
       <c r="A1606" s="2" t="n">
@@ -90391,7 +90397,7 @@
         <v>36</v>
       </c>
       <c r="O1606" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="P1606" t="n">
         <v>0</v>
@@ -90399,7 +90405,9 @@
       <c r="Q1606" t="n">
         <v>0</v>
       </c>
-      <c r="R1606" t="inlineStr"/>
+      <c r="R1606" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1607">
       <c r="A1607" s="2" t="n">
@@ -90453,7 +90461,9 @@
       <c r="Q1607" t="n">
         <v>0</v>
       </c>
-      <c r="R1607" t="inlineStr"/>
+      <c r="R1607" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1608">
       <c r="A1608" s="2" t="n">
@@ -90507,7 +90517,9 @@
       <c r="Q1608" t="n">
         <v>0</v>
       </c>
-      <c r="R1608" t="inlineStr"/>
+      <c r="R1608" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1609">
       <c r="A1609" s="2" t="n">
@@ -90561,7 +90573,387 @@
       <c r="Q1609" t="n">
         <v>0</v>
       </c>
-      <c r="R1609" t="inlineStr"/>
+      <c r="R1609" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1610">
+      <c r="A1610" s="2" t="n">
+        <v>45538.38541666666</v>
+      </c>
+      <c r="B1610" t="n">
+        <v>351.8500061035156</v>
+      </c>
+      <c r="C1610" t="n">
+        <v>353.7000122070312</v>
+      </c>
+      <c r="D1610" t="n">
+        <v>348.2999877929688</v>
+      </c>
+      <c r="E1610" t="n">
+        <v>351.9500122070312</v>
+      </c>
+      <c r="F1610" t="n">
+        <v>351.9500122070312</v>
+      </c>
+      <c r="G1610" t="n">
+        <v>0</v>
+      </c>
+      <c r="H1610" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1610" t="n">
+        <v>9</v>
+      </c>
+      <c r="J1610" t="n">
+        <v>3</v>
+      </c>
+      <c r="K1610" t="n">
+        <v>9</v>
+      </c>
+      <c r="L1610" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1610" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1610" t="n">
+        <v>36</v>
+      </c>
+      <c r="O1610" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1610" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1610" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1610" t="inlineStr"/>
+    </row>
+    <row r="1611">
+      <c r="A1611" s="2" t="n">
+        <v>45538.42708333334</v>
+      </c>
+      <c r="B1611" t="n">
+        <v>352</v>
+      </c>
+      <c r="C1611" t="n">
+        <v>357.2000122070312</v>
+      </c>
+      <c r="D1611" t="n">
+        <v>350.0499877929688</v>
+      </c>
+      <c r="E1611" t="n">
+        <v>355.4500122070312</v>
+      </c>
+      <c r="F1611" t="n">
+        <v>355.4500122070312</v>
+      </c>
+      <c r="G1611" t="n">
+        <v>195484</v>
+      </c>
+      <c r="H1611" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1611" t="n">
+        <v>9</v>
+      </c>
+      <c r="J1611" t="n">
+        <v>3</v>
+      </c>
+      <c r="K1611" t="n">
+        <v>10</v>
+      </c>
+      <c r="L1611" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1611" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1611" t="n">
+        <v>36</v>
+      </c>
+      <c r="O1611" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1611" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1611" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1611" t="inlineStr"/>
+    </row>
+    <row r="1612">
+      <c r="A1612" s="2" t="n">
+        <v>45538.46875</v>
+      </c>
+      <c r="B1612" t="n">
+        <v>354.6499938964844</v>
+      </c>
+      <c r="C1612" t="n">
+        <v>357</v>
+      </c>
+      <c r="D1612" t="n">
+        <v>353.8500061035156</v>
+      </c>
+      <c r="E1612" t="n">
+        <v>354.9500122070312</v>
+      </c>
+      <c r="F1612" t="n">
+        <v>354.9500122070312</v>
+      </c>
+      <c r="G1612" t="n">
+        <v>106541</v>
+      </c>
+      <c r="H1612" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1612" t="n">
+        <v>9</v>
+      </c>
+      <c r="J1612" t="n">
+        <v>3</v>
+      </c>
+      <c r="K1612" t="n">
+        <v>11</v>
+      </c>
+      <c r="L1612" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1612" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1612" t="n">
+        <v>36</v>
+      </c>
+      <c r="O1612" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1612" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1612" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1612" t="inlineStr"/>
+    </row>
+    <row r="1613">
+      <c r="A1613" s="2" t="n">
+        <v>45538.51041666666</v>
+      </c>
+      <c r="B1613" t="n">
+        <v>355</v>
+      </c>
+      <c r="C1613" t="n">
+        <v>356.25</v>
+      </c>
+      <c r="D1613" t="n">
+        <v>354.2000122070312</v>
+      </c>
+      <c r="E1613" t="n">
+        <v>355.6499938964844</v>
+      </c>
+      <c r="F1613" t="n">
+        <v>355.6499938964844</v>
+      </c>
+      <c r="G1613" t="n">
+        <v>54891</v>
+      </c>
+      <c r="H1613" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1613" t="n">
+        <v>9</v>
+      </c>
+      <c r="J1613" t="n">
+        <v>3</v>
+      </c>
+      <c r="K1613" t="n">
+        <v>12</v>
+      </c>
+      <c r="L1613" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1613" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1613" t="n">
+        <v>36</v>
+      </c>
+      <c r="O1613" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1613" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1613" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1613" t="inlineStr"/>
+    </row>
+    <row r="1614">
+      <c r="A1614" s="2" t="n">
+        <v>45538.55208333334</v>
+      </c>
+      <c r="B1614" t="n">
+        <v>355.3500061035156</v>
+      </c>
+      <c r="C1614" t="n">
+        <v>356</v>
+      </c>
+      <c r="D1614" t="n">
+        <v>353.2000122070312</v>
+      </c>
+      <c r="E1614" t="n">
+        <v>353.2000122070312</v>
+      </c>
+      <c r="F1614" t="n">
+        <v>353.2000122070312</v>
+      </c>
+      <c r="G1614" t="n">
+        <v>58208</v>
+      </c>
+      <c r="H1614" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1614" t="n">
+        <v>9</v>
+      </c>
+      <c r="J1614" t="n">
+        <v>3</v>
+      </c>
+      <c r="K1614" t="n">
+        <v>13</v>
+      </c>
+      <c r="L1614" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1614" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1614" t="n">
+        <v>36</v>
+      </c>
+      <c r="O1614" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1614" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1614" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1614" t="inlineStr"/>
+    </row>
+    <row r="1615">
+      <c r="A1615" s="2" t="n">
+        <v>45538.59375</v>
+      </c>
+      <c r="B1615" t="n">
+        <v>353.3500061035156</v>
+      </c>
+      <c r="C1615" t="n">
+        <v>353.9500122070312</v>
+      </c>
+      <c r="D1615" t="n">
+        <v>351.2000122070312</v>
+      </c>
+      <c r="E1615" t="n">
+        <v>351.5</v>
+      </c>
+      <c r="F1615" t="n">
+        <v>351.5</v>
+      </c>
+      <c r="G1615" t="n">
+        <v>140348</v>
+      </c>
+      <c r="H1615" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1615" t="n">
+        <v>9</v>
+      </c>
+      <c r="J1615" t="n">
+        <v>3</v>
+      </c>
+      <c r="K1615" t="n">
+        <v>14</v>
+      </c>
+      <c r="L1615" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1615" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1615" t="n">
+        <v>36</v>
+      </c>
+      <c r="O1615" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1615" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1615" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1615" t="inlineStr"/>
+    </row>
+    <row r="1616">
+      <c r="A1616" s="2" t="n">
+        <v>45538.63541666666</v>
+      </c>
+      <c r="B1616" t="n">
+        <v>351.5</v>
+      </c>
+      <c r="C1616" t="n">
+        <v>352.5499877929688</v>
+      </c>
+      <c r="D1616" t="n">
+        <v>350.2000122070312</v>
+      </c>
+      <c r="E1616" t="n">
+        <v>352</v>
+      </c>
+      <c r="F1616" t="n">
+        <v>352</v>
+      </c>
+      <c r="G1616" t="n">
+        <v>72683</v>
+      </c>
+      <c r="H1616" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1616" t="n">
+        <v>9</v>
+      </c>
+      <c r="J1616" t="n">
+        <v>3</v>
+      </c>
+      <c r="K1616" t="n">
+        <v>15</v>
+      </c>
+      <c r="L1616" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1616" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1616" t="n">
+        <v>36</v>
+      </c>
+      <c r="O1616" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1616" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1616" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1616" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/60m/ZAGGLE.NS.xlsx
+++ b/stock_historical_data/60m/ZAGGLE.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R1616"/>
+  <dimension ref="A1:R1623"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -90629,7 +90629,9 @@
       <c r="Q1610" t="n">
         <v>0</v>
       </c>
-      <c r="R1610" t="inlineStr"/>
+      <c r="R1610" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1611">
       <c r="A1611" s="2" t="n">
@@ -90683,7 +90685,9 @@
       <c r="Q1611" t="n">
         <v>0</v>
       </c>
-      <c r="R1611" t="inlineStr"/>
+      <c r="R1611" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1612">
       <c r="A1612" s="2" t="n">
@@ -90737,7 +90741,9 @@
       <c r="Q1612" t="n">
         <v>0</v>
       </c>
-      <c r="R1612" t="inlineStr"/>
+      <c r="R1612" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1613">
       <c r="A1613" s="2" t="n">
@@ -90791,7 +90797,9 @@
       <c r="Q1613" t="n">
         <v>0</v>
       </c>
-      <c r="R1613" t="inlineStr"/>
+      <c r="R1613" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1614">
       <c r="A1614" s="2" t="n">
@@ -90845,7 +90853,9 @@
       <c r="Q1614" t="n">
         <v>0</v>
       </c>
-      <c r="R1614" t="inlineStr"/>
+      <c r="R1614" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1615">
       <c r="A1615" s="2" t="n">
@@ -90899,7 +90909,9 @@
       <c r="Q1615" t="n">
         <v>0</v>
       </c>
-      <c r="R1615" t="inlineStr"/>
+      <c r="R1615" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1616">
       <c r="A1616" s="2" t="n">
@@ -90953,7 +90965,387 @@
       <c r="Q1616" t="n">
         <v>0</v>
       </c>
-      <c r="R1616" t="inlineStr"/>
+      <c r="R1616" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1617">
+      <c r="A1617" s="2" t="n">
+        <v>45539.38541666666</v>
+      </c>
+      <c r="B1617" t="n">
+        <v>347.8999938964844</v>
+      </c>
+      <c r="C1617" t="n">
+        <v>353.0499877929688</v>
+      </c>
+      <c r="D1617" t="n">
+        <v>346.0499877929688</v>
+      </c>
+      <c r="E1617" t="n">
+        <v>351.6499938964844</v>
+      </c>
+      <c r="F1617" t="n">
+        <v>351.6499938964844</v>
+      </c>
+      <c r="G1617" t="n">
+        <v>127482</v>
+      </c>
+      <c r="H1617" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1617" t="n">
+        <v>9</v>
+      </c>
+      <c r="J1617" t="n">
+        <v>4</v>
+      </c>
+      <c r="K1617" t="n">
+        <v>9</v>
+      </c>
+      <c r="L1617" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1617" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1617" t="n">
+        <v>36</v>
+      </c>
+      <c r="O1617" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1617" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q1617" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1617" t="inlineStr"/>
+    </row>
+    <row r="1618">
+      <c r="A1618" s="2" t="n">
+        <v>45539.42708333334</v>
+      </c>
+      <c r="B1618" t="n">
+        <v>351.3999938964844</v>
+      </c>
+      <c r="C1618" t="n">
+        <v>351.7000122070312</v>
+      </c>
+      <c r="D1618" t="n">
+        <v>349.3500061035156</v>
+      </c>
+      <c r="E1618" t="n">
+        <v>350.5</v>
+      </c>
+      <c r="F1618" t="n">
+        <v>350.5</v>
+      </c>
+      <c r="G1618" t="n">
+        <v>36439</v>
+      </c>
+      <c r="H1618" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1618" t="n">
+        <v>9</v>
+      </c>
+      <c r="J1618" t="n">
+        <v>4</v>
+      </c>
+      <c r="K1618" t="n">
+        <v>10</v>
+      </c>
+      <c r="L1618" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1618" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1618" t="n">
+        <v>36</v>
+      </c>
+      <c r="O1618" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1618" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1618" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1618" t="inlineStr"/>
+    </row>
+    <row r="1619">
+      <c r="A1619" s="2" t="n">
+        <v>45539.46875</v>
+      </c>
+      <c r="B1619" t="n">
+        <v>350.5</v>
+      </c>
+      <c r="C1619" t="n">
+        <v>351.1499938964844</v>
+      </c>
+      <c r="D1619" t="n">
+        <v>348.0499877929688</v>
+      </c>
+      <c r="E1619" t="n">
+        <v>350</v>
+      </c>
+      <c r="F1619" t="n">
+        <v>350</v>
+      </c>
+      <c r="G1619" t="n">
+        <v>67911</v>
+      </c>
+      <c r="H1619" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1619" t="n">
+        <v>9</v>
+      </c>
+      <c r="J1619" t="n">
+        <v>4</v>
+      </c>
+      <c r="K1619" t="n">
+        <v>11</v>
+      </c>
+      <c r="L1619" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1619" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1619" t="n">
+        <v>36</v>
+      </c>
+      <c r="O1619" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1619" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1619" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1619" t="inlineStr"/>
+    </row>
+    <row r="1620">
+      <c r="A1620" s="2" t="n">
+        <v>45539.51041666666</v>
+      </c>
+      <c r="B1620" t="n">
+        <v>350.0499877929688</v>
+      </c>
+      <c r="C1620" t="n">
+        <v>350.4500122070312</v>
+      </c>
+      <c r="D1620" t="n">
+        <v>348.5499877929688</v>
+      </c>
+      <c r="E1620" t="n">
+        <v>348.8999938964844</v>
+      </c>
+      <c r="F1620" t="n">
+        <v>348.8999938964844</v>
+      </c>
+      <c r="G1620" t="n">
+        <v>31517</v>
+      </c>
+      <c r="H1620" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1620" t="n">
+        <v>9</v>
+      </c>
+      <c r="J1620" t="n">
+        <v>4</v>
+      </c>
+      <c r="K1620" t="n">
+        <v>12</v>
+      </c>
+      <c r="L1620" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1620" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1620" t="n">
+        <v>36</v>
+      </c>
+      <c r="O1620" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1620" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1620" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1620" t="inlineStr"/>
+    </row>
+    <row r="1621">
+      <c r="A1621" s="2" t="n">
+        <v>45539.55208333334</v>
+      </c>
+      <c r="B1621" t="n">
+        <v>348.6000061035156</v>
+      </c>
+      <c r="C1621" t="n">
+        <v>348.9500122070312</v>
+      </c>
+      <c r="D1621" t="n">
+        <v>347.0499877929688</v>
+      </c>
+      <c r="E1621" t="n">
+        <v>347.0499877929688</v>
+      </c>
+      <c r="F1621" t="n">
+        <v>347.0499877929688</v>
+      </c>
+      <c r="G1621" t="n">
+        <v>25296</v>
+      </c>
+      <c r="H1621" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1621" t="n">
+        <v>9</v>
+      </c>
+      <c r="J1621" t="n">
+        <v>4</v>
+      </c>
+      <c r="K1621" t="n">
+        <v>13</v>
+      </c>
+      <c r="L1621" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1621" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1621" t="n">
+        <v>36</v>
+      </c>
+      <c r="O1621" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1621" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1621" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1621" t="inlineStr"/>
+    </row>
+    <row r="1622">
+      <c r="A1622" s="2" t="n">
+        <v>45539.59375</v>
+      </c>
+      <c r="B1622" t="n">
+        <v>347.0499877929688</v>
+      </c>
+      <c r="C1622" t="n">
+        <v>348</v>
+      </c>
+      <c r="D1622" t="n">
+        <v>345.4500122070312</v>
+      </c>
+      <c r="E1622" t="n">
+        <v>347.2000122070312</v>
+      </c>
+      <c r="F1622" t="n">
+        <v>347.2000122070312</v>
+      </c>
+      <c r="G1622" t="n">
+        <v>74896</v>
+      </c>
+      <c r="H1622" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1622" t="n">
+        <v>9</v>
+      </c>
+      <c r="J1622" t="n">
+        <v>4</v>
+      </c>
+      <c r="K1622" t="n">
+        <v>14</v>
+      </c>
+      <c r="L1622" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1622" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1622" t="n">
+        <v>36</v>
+      </c>
+      <c r="O1622" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1622" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1622" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1622" t="inlineStr"/>
+    </row>
+    <row r="1623">
+      <c r="A1623" s="2" t="n">
+        <v>45539.63541666666</v>
+      </c>
+      <c r="B1623" t="n">
+        <v>347.1499938964844</v>
+      </c>
+      <c r="C1623" t="n">
+        <v>349.75</v>
+      </c>
+      <c r="D1623" t="n">
+        <v>346</v>
+      </c>
+      <c r="E1623" t="n">
+        <v>348.5</v>
+      </c>
+      <c r="F1623" t="n">
+        <v>348.5</v>
+      </c>
+      <c r="G1623" t="n">
+        <v>49090</v>
+      </c>
+      <c r="H1623" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1623" t="n">
+        <v>9</v>
+      </c>
+      <c r="J1623" t="n">
+        <v>4</v>
+      </c>
+      <c r="K1623" t="n">
+        <v>15</v>
+      </c>
+      <c r="L1623" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1623" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1623" t="n">
+        <v>36</v>
+      </c>
+      <c r="O1623" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1623" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1623" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1623" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/60m/ZAGGLE.NS.xlsx
+++ b/stock_historical_data/60m/ZAGGLE.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R1623"/>
+  <dimension ref="A1:R1630"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -91021,7 +91021,9 @@
       <c r="Q1617" t="n">
         <v>0</v>
       </c>
-      <c r="R1617" t="inlineStr"/>
+      <c r="R1617" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="1618">
       <c r="A1618" s="2" t="n">
@@ -91075,7 +91077,9 @@
       <c r="Q1618" t="n">
         <v>0</v>
       </c>
-      <c r="R1618" t="inlineStr"/>
+      <c r="R1618" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1619">
       <c r="A1619" s="2" t="n">
@@ -91129,7 +91133,9 @@
       <c r="Q1619" t="n">
         <v>0</v>
       </c>
-      <c r="R1619" t="inlineStr"/>
+      <c r="R1619" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1620">
       <c r="A1620" s="2" t="n">
@@ -91183,7 +91189,9 @@
       <c r="Q1620" t="n">
         <v>0</v>
       </c>
-      <c r="R1620" t="inlineStr"/>
+      <c r="R1620" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1621">
       <c r="A1621" s="2" t="n">
@@ -91237,7 +91245,9 @@
       <c r="Q1621" t="n">
         <v>0</v>
       </c>
-      <c r="R1621" t="inlineStr"/>
+      <c r="R1621" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1622">
       <c r="A1622" s="2" t="n">
@@ -91291,7 +91301,9 @@
       <c r="Q1622" t="n">
         <v>0</v>
       </c>
-      <c r="R1622" t="inlineStr"/>
+      <c r="R1622" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1623">
       <c r="A1623" s="2" t="n">
@@ -91345,7 +91357,387 @@
       <c r="Q1623" t="n">
         <v>0</v>
       </c>
-      <c r="R1623" t="inlineStr"/>
+      <c r="R1623" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1624">
+      <c r="A1624" s="2" t="n">
+        <v>45540.38541666666</v>
+      </c>
+      <c r="B1624" t="n">
+        <v>353.8999938964844</v>
+      </c>
+      <c r="C1624" t="n">
+        <v>361.6000061035156</v>
+      </c>
+      <c r="D1624" t="n">
+        <v>353.8999938964844</v>
+      </c>
+      <c r="E1624" t="n">
+        <v>359.3999938964844</v>
+      </c>
+      <c r="F1624" t="n">
+        <v>359.3999938964844</v>
+      </c>
+      <c r="G1624" t="n">
+        <v>591537</v>
+      </c>
+      <c r="H1624" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1624" t="n">
+        <v>9</v>
+      </c>
+      <c r="J1624" t="n">
+        <v>5</v>
+      </c>
+      <c r="K1624" t="n">
+        <v>9</v>
+      </c>
+      <c r="L1624" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1624" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1624" t="n">
+        <v>36</v>
+      </c>
+      <c r="O1624" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1624" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1624" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1624" t="inlineStr"/>
+    </row>
+    <row r="1625">
+      <c r="A1625" s="2" t="n">
+        <v>45540.42708333334</v>
+      </c>
+      <c r="B1625" t="n">
+        <v>359.0499877929688</v>
+      </c>
+      <c r="C1625" t="n">
+        <v>359.9500122070312</v>
+      </c>
+      <c r="D1625" t="n">
+        <v>355.8999938964844</v>
+      </c>
+      <c r="E1625" t="n">
+        <v>357.2000122070312</v>
+      </c>
+      <c r="F1625" t="n">
+        <v>357.2000122070312</v>
+      </c>
+      <c r="G1625" t="n">
+        <v>111329</v>
+      </c>
+      <c r="H1625" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1625" t="n">
+        <v>9</v>
+      </c>
+      <c r="J1625" t="n">
+        <v>5</v>
+      </c>
+      <c r="K1625" t="n">
+        <v>10</v>
+      </c>
+      <c r="L1625" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1625" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1625" t="n">
+        <v>36</v>
+      </c>
+      <c r="O1625" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1625" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1625" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1625" t="inlineStr"/>
+    </row>
+    <row r="1626">
+      <c r="A1626" s="2" t="n">
+        <v>45540.46875</v>
+      </c>
+      <c r="B1626" t="n">
+        <v>357.5499877929688</v>
+      </c>
+      <c r="C1626" t="n">
+        <v>357.8999938964844</v>
+      </c>
+      <c r="D1626" t="n">
+        <v>355.5499877929688</v>
+      </c>
+      <c r="E1626" t="n">
+        <v>355.9500122070312</v>
+      </c>
+      <c r="F1626" t="n">
+        <v>355.9500122070312</v>
+      </c>
+      <c r="G1626" t="n">
+        <v>34581</v>
+      </c>
+      <c r="H1626" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1626" t="n">
+        <v>9</v>
+      </c>
+      <c r="J1626" t="n">
+        <v>5</v>
+      </c>
+      <c r="K1626" t="n">
+        <v>11</v>
+      </c>
+      <c r="L1626" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1626" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1626" t="n">
+        <v>36</v>
+      </c>
+      <c r="O1626" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1626" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1626" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1626" t="inlineStr"/>
+    </row>
+    <row r="1627">
+      <c r="A1627" s="2" t="n">
+        <v>45540.51041666666</v>
+      </c>
+      <c r="B1627" t="n">
+        <v>355.9500122070312</v>
+      </c>
+      <c r="C1627" t="n">
+        <v>356.0499877929688</v>
+      </c>
+      <c r="D1627" t="n">
+        <v>354.1000061035156</v>
+      </c>
+      <c r="E1627" t="n">
+        <v>355.3500061035156</v>
+      </c>
+      <c r="F1627" t="n">
+        <v>355.3500061035156</v>
+      </c>
+      <c r="G1627" t="n">
+        <v>56001</v>
+      </c>
+      <c r="H1627" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1627" t="n">
+        <v>9</v>
+      </c>
+      <c r="J1627" t="n">
+        <v>5</v>
+      </c>
+      <c r="K1627" t="n">
+        <v>12</v>
+      </c>
+      <c r="L1627" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1627" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1627" t="n">
+        <v>36</v>
+      </c>
+      <c r="O1627" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1627" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1627" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1627" t="inlineStr"/>
+    </row>
+    <row r="1628">
+      <c r="A1628" s="2" t="n">
+        <v>45540.55208333334</v>
+      </c>
+      <c r="B1628" t="n">
+        <v>355</v>
+      </c>
+      <c r="C1628" t="n">
+        <v>357.6000061035156</v>
+      </c>
+      <c r="D1628" t="n">
+        <v>355</v>
+      </c>
+      <c r="E1628" t="n">
+        <v>356.2999877929688</v>
+      </c>
+      <c r="F1628" t="n">
+        <v>356.2999877929688</v>
+      </c>
+      <c r="G1628" t="n">
+        <v>51154</v>
+      </c>
+      <c r="H1628" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1628" t="n">
+        <v>9</v>
+      </c>
+      <c r="J1628" t="n">
+        <v>5</v>
+      </c>
+      <c r="K1628" t="n">
+        <v>13</v>
+      </c>
+      <c r="L1628" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1628" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1628" t="n">
+        <v>36</v>
+      </c>
+      <c r="O1628" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1628" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1628" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1628" t="inlineStr"/>
+    </row>
+    <row r="1629">
+      <c r="A1629" s="2" t="n">
+        <v>45540.59375</v>
+      </c>
+      <c r="B1629" t="n">
+        <v>356.2000122070312</v>
+      </c>
+      <c r="C1629" t="n">
+        <v>356.7000122070312</v>
+      </c>
+      <c r="D1629" t="n">
+        <v>353</v>
+      </c>
+      <c r="E1629" t="n">
+        <v>353.8999938964844</v>
+      </c>
+      <c r="F1629" t="n">
+        <v>353.8999938964844</v>
+      </c>
+      <c r="G1629" t="n">
+        <v>102240</v>
+      </c>
+      <c r="H1629" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1629" t="n">
+        <v>9</v>
+      </c>
+      <c r="J1629" t="n">
+        <v>5</v>
+      </c>
+      <c r="K1629" t="n">
+        <v>14</v>
+      </c>
+      <c r="L1629" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1629" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1629" t="n">
+        <v>36</v>
+      </c>
+      <c r="O1629" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1629" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1629" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1629" t="inlineStr"/>
+    </row>
+    <row r="1630">
+      <c r="A1630" s="2" t="n">
+        <v>45540.63541666666</v>
+      </c>
+      <c r="B1630" t="n">
+        <v>353.6499938964844</v>
+      </c>
+      <c r="C1630" t="n">
+        <v>354.2000122070312</v>
+      </c>
+      <c r="D1630" t="n">
+        <v>351.5</v>
+      </c>
+      <c r="E1630" t="n">
+        <v>352.8999938964844</v>
+      </c>
+      <c r="F1630" t="n">
+        <v>352.8999938964844</v>
+      </c>
+      <c r="G1630" t="n">
+        <v>88912</v>
+      </c>
+      <c r="H1630" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1630" t="n">
+        <v>9</v>
+      </c>
+      <c r="J1630" t="n">
+        <v>5</v>
+      </c>
+      <c r="K1630" t="n">
+        <v>15</v>
+      </c>
+      <c r="L1630" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1630" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1630" t="n">
+        <v>36</v>
+      </c>
+      <c r="O1630" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1630" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1630" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1630" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/60m/ZAGGLE.NS.xlsx
+++ b/stock_historical_data/60m/ZAGGLE.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R1630"/>
+  <dimension ref="A1:R1637"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -91293,7 +91293,7 @@
         <v>36</v>
       </c>
       <c r="O1622" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="P1622" t="n">
         <v>0</v>
@@ -91405,7 +91405,7 @@
         <v>36</v>
       </c>
       <c r="O1624" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P1624" t="n">
         <v>0</v>
@@ -91413,7 +91413,9 @@
       <c r="Q1624" t="n">
         <v>0</v>
       </c>
-      <c r="R1624" t="inlineStr"/>
+      <c r="R1624" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1625">
       <c r="A1625" s="2" t="n">
@@ -91467,7 +91469,9 @@
       <c r="Q1625" t="n">
         <v>0</v>
       </c>
-      <c r="R1625" t="inlineStr"/>
+      <c r="R1625" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1626">
       <c r="A1626" s="2" t="n">
@@ -91521,7 +91525,9 @@
       <c r="Q1626" t="n">
         <v>0</v>
       </c>
-      <c r="R1626" t="inlineStr"/>
+      <c r="R1626" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1627">
       <c r="A1627" s="2" t="n">
@@ -91575,7 +91581,9 @@
       <c r="Q1627" t="n">
         <v>0</v>
       </c>
-      <c r="R1627" t="inlineStr"/>
+      <c r="R1627" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1628">
       <c r="A1628" s="2" t="n">
@@ -91629,7 +91637,9 @@
       <c r="Q1628" t="n">
         <v>0</v>
       </c>
-      <c r="R1628" t="inlineStr"/>
+      <c r="R1628" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1629">
       <c r="A1629" s="2" t="n">
@@ -91683,7 +91693,9 @@
       <c r="Q1629" t="n">
         <v>0</v>
       </c>
-      <c r="R1629" t="inlineStr"/>
+      <c r="R1629" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1630">
       <c r="A1630" s="2" t="n">
@@ -91737,7 +91749,387 @@
       <c r="Q1630" t="n">
         <v>0</v>
       </c>
-      <c r="R1630" t="inlineStr"/>
+      <c r="R1630" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1631">
+      <c r="A1631" s="2" t="n">
+        <v>45541.38541666666</v>
+      </c>
+      <c r="B1631" t="n">
+        <v>352.3999938964844</v>
+      </c>
+      <c r="C1631" t="n">
+        <v>356.2999877929688</v>
+      </c>
+      <c r="D1631" t="n">
+        <v>348</v>
+      </c>
+      <c r="E1631" t="n">
+        <v>348.6499938964844</v>
+      </c>
+      <c r="F1631" t="n">
+        <v>348.6499938964844</v>
+      </c>
+      <c r="G1631" t="n">
+        <v>0</v>
+      </c>
+      <c r="H1631" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1631" t="n">
+        <v>9</v>
+      </c>
+      <c r="J1631" t="n">
+        <v>6</v>
+      </c>
+      <c r="K1631" t="n">
+        <v>9</v>
+      </c>
+      <c r="L1631" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1631" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1631" t="n">
+        <v>36</v>
+      </c>
+      <c r="O1631" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1631" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1631" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1631" t="inlineStr"/>
+    </row>
+    <row r="1632">
+      <c r="A1632" s="2" t="n">
+        <v>45541.42708333334</v>
+      </c>
+      <c r="B1632" t="n">
+        <v>348.9500122070312</v>
+      </c>
+      <c r="C1632" t="n">
+        <v>355.7999877929688</v>
+      </c>
+      <c r="D1632" t="n">
+        <v>348.5</v>
+      </c>
+      <c r="E1632" t="n">
+        <v>355.0499877929688</v>
+      </c>
+      <c r="F1632" t="n">
+        <v>355.0499877929688</v>
+      </c>
+      <c r="G1632" t="n">
+        <v>176441</v>
+      </c>
+      <c r="H1632" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1632" t="n">
+        <v>9</v>
+      </c>
+      <c r="J1632" t="n">
+        <v>6</v>
+      </c>
+      <c r="K1632" t="n">
+        <v>10</v>
+      </c>
+      <c r="L1632" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1632" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1632" t="n">
+        <v>36</v>
+      </c>
+      <c r="O1632" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1632" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1632" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1632" t="inlineStr"/>
+    </row>
+    <row r="1633">
+      <c r="A1633" s="2" t="n">
+        <v>45541.46875</v>
+      </c>
+      <c r="B1633" t="n">
+        <v>355.0499877929688</v>
+      </c>
+      <c r="C1633" t="n">
+        <v>355.2000122070312</v>
+      </c>
+      <c r="D1633" t="n">
+        <v>352.25</v>
+      </c>
+      <c r="E1633" t="n">
+        <v>355</v>
+      </c>
+      <c r="F1633" t="n">
+        <v>355</v>
+      </c>
+      <c r="G1633" t="n">
+        <v>90450</v>
+      </c>
+      <c r="H1633" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1633" t="n">
+        <v>9</v>
+      </c>
+      <c r="J1633" t="n">
+        <v>6</v>
+      </c>
+      <c r="K1633" t="n">
+        <v>11</v>
+      </c>
+      <c r="L1633" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1633" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1633" t="n">
+        <v>36</v>
+      </c>
+      <c r="O1633" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1633" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1633" t="n">
+        <v>1</v>
+      </c>
+      <c r="R1633" t="inlineStr"/>
+    </row>
+    <row r="1634">
+      <c r="A1634" s="2" t="n">
+        <v>45541.51041666666</v>
+      </c>
+      <c r="B1634" t="n">
+        <v>354.8999938964844</v>
+      </c>
+      <c r="C1634" t="n">
+        <v>359</v>
+      </c>
+      <c r="D1634" t="n">
+        <v>354</v>
+      </c>
+      <c r="E1634" t="n">
+        <v>356.7000122070312</v>
+      </c>
+      <c r="F1634" t="n">
+        <v>356.7000122070312</v>
+      </c>
+      <c r="G1634" t="n">
+        <v>161243</v>
+      </c>
+      <c r="H1634" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1634" t="n">
+        <v>9</v>
+      </c>
+      <c r="J1634" t="n">
+        <v>6</v>
+      </c>
+      <c r="K1634" t="n">
+        <v>12</v>
+      </c>
+      <c r="L1634" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1634" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1634" t="n">
+        <v>36</v>
+      </c>
+      <c r="O1634" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1634" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1634" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1634" t="inlineStr"/>
+    </row>
+    <row r="1635">
+      <c r="A1635" s="2" t="n">
+        <v>45541.55208333334</v>
+      </c>
+      <c r="B1635" t="n">
+        <v>356.3999938964844</v>
+      </c>
+      <c r="C1635" t="n">
+        <v>360.6000061035156</v>
+      </c>
+      <c r="D1635" t="n">
+        <v>355.9500122070312</v>
+      </c>
+      <c r="E1635" t="n">
+        <v>358.6499938964844</v>
+      </c>
+      <c r="F1635" t="n">
+        <v>358.6499938964844</v>
+      </c>
+      <c r="G1635" t="n">
+        <v>179888</v>
+      </c>
+      <c r="H1635" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1635" t="n">
+        <v>9</v>
+      </c>
+      <c r="J1635" t="n">
+        <v>6</v>
+      </c>
+      <c r="K1635" t="n">
+        <v>13</v>
+      </c>
+      <c r="L1635" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1635" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1635" t="n">
+        <v>36</v>
+      </c>
+      <c r="O1635" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1635" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q1635" t="n">
+        <v>2</v>
+      </c>
+      <c r="R1635" t="inlineStr"/>
+    </row>
+    <row r="1636">
+      <c r="A1636" s="2" t="n">
+        <v>45541.59375</v>
+      </c>
+      <c r="B1636" t="n">
+        <v>358.3999938964844</v>
+      </c>
+      <c r="C1636" t="n">
+        <v>358.7000122070312</v>
+      </c>
+      <c r="D1636" t="n">
+        <v>354.7999877929688</v>
+      </c>
+      <c r="E1636" t="n">
+        <v>356.2000122070312</v>
+      </c>
+      <c r="F1636" t="n">
+        <v>356.2000122070312</v>
+      </c>
+      <c r="G1636" t="n">
+        <v>111687</v>
+      </c>
+      <c r="H1636" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1636" t="n">
+        <v>9</v>
+      </c>
+      <c r="J1636" t="n">
+        <v>6</v>
+      </c>
+      <c r="K1636" t="n">
+        <v>14</v>
+      </c>
+      <c r="L1636" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1636" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1636" t="n">
+        <v>36</v>
+      </c>
+      <c r="O1636" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1636" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1636" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1636" t="inlineStr"/>
+    </row>
+    <row r="1637">
+      <c r="A1637" s="2" t="n">
+        <v>45541.63541666666</v>
+      </c>
+      <c r="B1637" t="n">
+        <v>356.2000122070312</v>
+      </c>
+      <c r="C1637" t="n">
+        <v>356.4500122070312</v>
+      </c>
+      <c r="D1637" t="n">
+        <v>354</v>
+      </c>
+      <c r="E1637" t="n">
+        <v>355.5</v>
+      </c>
+      <c r="F1637" t="n">
+        <v>355.5</v>
+      </c>
+      <c r="G1637" t="n">
+        <v>56911</v>
+      </c>
+      <c r="H1637" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1637" t="n">
+        <v>9</v>
+      </c>
+      <c r="J1637" t="n">
+        <v>6</v>
+      </c>
+      <c r="K1637" t="n">
+        <v>15</v>
+      </c>
+      <c r="L1637" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1637" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1637" t="n">
+        <v>36</v>
+      </c>
+      <c r="O1637" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1637" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1637" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1637" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/60m/ZAGGLE.NS.xlsx
+++ b/stock_historical_data/60m/ZAGGLE.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R1637"/>
+  <dimension ref="A1:R1644"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -91805,7 +91805,9 @@
       <c r="Q1631" t="n">
         <v>0</v>
       </c>
-      <c r="R1631" t="inlineStr"/>
+      <c r="R1631" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1632">
       <c r="A1632" s="2" t="n">
@@ -91859,7 +91861,9 @@
       <c r="Q1632" t="n">
         <v>0</v>
       </c>
-      <c r="R1632" t="inlineStr"/>
+      <c r="R1632" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1633">
       <c r="A1633" s="2" t="n">
@@ -91913,7 +91917,9 @@
       <c r="Q1633" t="n">
         <v>1</v>
       </c>
-      <c r="R1633" t="inlineStr"/>
+      <c r="R1633" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1634">
       <c r="A1634" s="2" t="n">
@@ -91967,7 +91973,9 @@
       <c r="Q1634" t="n">
         <v>0</v>
       </c>
-      <c r="R1634" t="inlineStr"/>
+      <c r="R1634" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1635">
       <c r="A1635" s="2" t="n">
@@ -92021,7 +92029,9 @@
       <c r="Q1635" t="n">
         <v>2</v>
       </c>
-      <c r="R1635" t="inlineStr"/>
+      <c r="R1635" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="1636">
       <c r="A1636" s="2" t="n">
@@ -92075,7 +92085,9 @@
       <c r="Q1636" t="n">
         <v>0</v>
       </c>
-      <c r="R1636" t="inlineStr"/>
+      <c r="R1636" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1637">
       <c r="A1637" s="2" t="n">
@@ -92129,7 +92141,387 @@
       <c r="Q1637" t="n">
         <v>0</v>
       </c>
-      <c r="R1637" t="inlineStr"/>
+      <c r="R1637" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1638">
+      <c r="A1638" s="2" t="n">
+        <v>45544.38541666666</v>
+      </c>
+      <c r="B1638" t="n">
+        <v>358.8500061035156</v>
+      </c>
+      <c r="C1638" t="n">
+        <v>362.3999938964844</v>
+      </c>
+      <c r="D1638" t="n">
+        <v>348.5</v>
+      </c>
+      <c r="E1638" t="n">
+        <v>360.4500122070312</v>
+      </c>
+      <c r="F1638" t="n">
+        <v>360.4500122070312</v>
+      </c>
+      <c r="G1638" t="n">
+        <v>0</v>
+      </c>
+      <c r="H1638" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1638" t="n">
+        <v>9</v>
+      </c>
+      <c r="J1638" t="n">
+        <v>9</v>
+      </c>
+      <c r="K1638" t="n">
+        <v>9</v>
+      </c>
+      <c r="L1638" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1638" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1638" t="n">
+        <v>37</v>
+      </c>
+      <c r="O1638" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1638" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1638" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1638" t="inlineStr"/>
+    </row>
+    <row r="1639">
+      <c r="A1639" s="2" t="n">
+        <v>45544.42708333334</v>
+      </c>
+      <c r="B1639" t="n">
+        <v>360.75</v>
+      </c>
+      <c r="C1639" t="n">
+        <v>360.75</v>
+      </c>
+      <c r="D1639" t="n">
+        <v>354.25</v>
+      </c>
+      <c r="E1639" t="n">
+        <v>356.6000061035156</v>
+      </c>
+      <c r="F1639" t="n">
+        <v>356.6000061035156</v>
+      </c>
+      <c r="G1639" t="n">
+        <v>149243</v>
+      </c>
+      <c r="H1639" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1639" t="n">
+        <v>9</v>
+      </c>
+      <c r="J1639" t="n">
+        <v>9</v>
+      </c>
+      <c r="K1639" t="n">
+        <v>10</v>
+      </c>
+      <c r="L1639" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1639" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1639" t="n">
+        <v>37</v>
+      </c>
+      <c r="O1639" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1639" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1639" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1639" t="inlineStr"/>
+    </row>
+    <row r="1640">
+      <c r="A1640" s="2" t="n">
+        <v>45544.46875</v>
+      </c>
+      <c r="B1640" t="n">
+        <v>356.8999938964844</v>
+      </c>
+      <c r="C1640" t="n">
+        <v>357.1000061035156</v>
+      </c>
+      <c r="D1640" t="n">
+        <v>352.1000061035156</v>
+      </c>
+      <c r="E1640" t="n">
+        <v>352.1000061035156</v>
+      </c>
+      <c r="F1640" t="n">
+        <v>352.1000061035156</v>
+      </c>
+      <c r="G1640" t="n">
+        <v>105404</v>
+      </c>
+      <c r="H1640" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1640" t="n">
+        <v>9</v>
+      </c>
+      <c r="J1640" t="n">
+        <v>9</v>
+      </c>
+      <c r="K1640" t="n">
+        <v>11</v>
+      </c>
+      <c r="L1640" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1640" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1640" t="n">
+        <v>37</v>
+      </c>
+      <c r="O1640" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1640" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1640" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1640" t="inlineStr"/>
+    </row>
+    <row r="1641">
+      <c r="A1641" s="2" t="n">
+        <v>45544.51041666666</v>
+      </c>
+      <c r="B1641" t="n">
+        <v>352.3500061035156</v>
+      </c>
+      <c r="C1641" t="n">
+        <v>352.3999938964844</v>
+      </c>
+      <c r="D1641" t="n">
+        <v>350.3999938964844</v>
+      </c>
+      <c r="E1641" t="n">
+        <v>350.75</v>
+      </c>
+      <c r="F1641" t="n">
+        <v>350.75</v>
+      </c>
+      <c r="G1641" t="n">
+        <v>50069</v>
+      </c>
+      <c r="H1641" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1641" t="n">
+        <v>9</v>
+      </c>
+      <c r="J1641" t="n">
+        <v>9</v>
+      </c>
+      <c r="K1641" t="n">
+        <v>12</v>
+      </c>
+      <c r="L1641" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1641" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1641" t="n">
+        <v>37</v>
+      </c>
+      <c r="O1641" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1641" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1641" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1641" t="inlineStr"/>
+    </row>
+    <row r="1642">
+      <c r="A1642" s="2" t="n">
+        <v>45544.55208333334</v>
+      </c>
+      <c r="B1642" t="n">
+        <v>350.6499938964844</v>
+      </c>
+      <c r="C1642" t="n">
+        <v>352.5</v>
+      </c>
+      <c r="D1642" t="n">
+        <v>350</v>
+      </c>
+      <c r="E1642" t="n">
+        <v>351.1000061035156</v>
+      </c>
+      <c r="F1642" t="n">
+        <v>351.1000061035156</v>
+      </c>
+      <c r="G1642" t="n">
+        <v>70009</v>
+      </c>
+      <c r="H1642" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1642" t="n">
+        <v>9</v>
+      </c>
+      <c r="J1642" t="n">
+        <v>9</v>
+      </c>
+      <c r="K1642" t="n">
+        <v>13</v>
+      </c>
+      <c r="L1642" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1642" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1642" t="n">
+        <v>37</v>
+      </c>
+      <c r="O1642" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1642" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1642" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1642" t="inlineStr"/>
+    </row>
+    <row r="1643">
+      <c r="A1643" s="2" t="n">
+        <v>45544.59375</v>
+      </c>
+      <c r="B1643" t="n">
+        <v>351.25</v>
+      </c>
+      <c r="C1643" t="n">
+        <v>352.9500122070312</v>
+      </c>
+      <c r="D1643" t="n">
+        <v>350.5</v>
+      </c>
+      <c r="E1643" t="n">
+        <v>352.5</v>
+      </c>
+      <c r="F1643" t="n">
+        <v>352.5</v>
+      </c>
+      <c r="G1643" t="n">
+        <v>63649</v>
+      </c>
+      <c r="H1643" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1643" t="n">
+        <v>9</v>
+      </c>
+      <c r="J1643" t="n">
+        <v>9</v>
+      </c>
+      <c r="K1643" t="n">
+        <v>14</v>
+      </c>
+      <c r="L1643" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1643" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1643" t="n">
+        <v>37</v>
+      </c>
+      <c r="O1643" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1643" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1643" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1643" t="inlineStr"/>
+    </row>
+    <row r="1644">
+      <c r="A1644" s="2" t="n">
+        <v>45544.63541666666</v>
+      </c>
+      <c r="B1644" t="n">
+        <v>352.2999877929688</v>
+      </c>
+      <c r="C1644" t="n">
+        <v>353.5499877929688</v>
+      </c>
+      <c r="D1644" t="n">
+        <v>350</v>
+      </c>
+      <c r="E1644" t="n">
+        <v>351.4500122070312</v>
+      </c>
+      <c r="F1644" t="n">
+        <v>351.4500122070312</v>
+      </c>
+      <c r="G1644" t="n">
+        <v>74814</v>
+      </c>
+      <c r="H1644" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1644" t="n">
+        <v>9</v>
+      </c>
+      <c r="J1644" t="n">
+        <v>9</v>
+      </c>
+      <c r="K1644" t="n">
+        <v>15</v>
+      </c>
+      <c r="L1644" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1644" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1644" t="n">
+        <v>37</v>
+      </c>
+      <c r="O1644" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1644" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1644" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1644" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/60m/ZAGGLE.NS.xlsx
+++ b/stock_historical_data/60m/ZAGGLE.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R1644"/>
+  <dimension ref="A1:R1651"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -92197,7 +92197,9 @@
       <c r="Q1638" t="n">
         <v>0</v>
       </c>
-      <c r="R1638" t="inlineStr"/>
+      <c r="R1638" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1639">
       <c r="A1639" s="2" t="n">
@@ -92251,7 +92253,9 @@
       <c r="Q1639" t="n">
         <v>0</v>
       </c>
-      <c r="R1639" t="inlineStr"/>
+      <c r="R1639" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1640">
       <c r="A1640" s="2" t="n">
@@ -92305,7 +92309,9 @@
       <c r="Q1640" t="n">
         <v>0</v>
       </c>
-      <c r="R1640" t="inlineStr"/>
+      <c r="R1640" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1641">
       <c r="A1641" s="2" t="n">
@@ -92359,7 +92365,9 @@
       <c r="Q1641" t="n">
         <v>0</v>
       </c>
-      <c r="R1641" t="inlineStr"/>
+      <c r="R1641" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1642">
       <c r="A1642" s="2" t="n">
@@ -92413,7 +92421,9 @@
       <c r="Q1642" t="n">
         <v>0</v>
       </c>
-      <c r="R1642" t="inlineStr"/>
+      <c r="R1642" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1643">
       <c r="A1643" s="2" t="n">
@@ -92467,7 +92477,9 @@
       <c r="Q1643" t="n">
         <v>0</v>
       </c>
-      <c r="R1643" t="inlineStr"/>
+      <c r="R1643" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1644">
       <c r="A1644" s="2" t="n">
@@ -92521,7 +92533,387 @@
       <c r="Q1644" t="n">
         <v>0</v>
       </c>
-      <c r="R1644" t="inlineStr"/>
+      <c r="R1644" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1645">
+      <c r="A1645" s="2" t="n">
+        <v>45545.38541666666</v>
+      </c>
+      <c r="B1645" t="n">
+        <v>358.9500122070312</v>
+      </c>
+      <c r="C1645" t="n">
+        <v>367.8500061035156</v>
+      </c>
+      <c r="D1645" t="n">
+        <v>358.25</v>
+      </c>
+      <c r="E1645" t="n">
+        <v>358.8500061035156</v>
+      </c>
+      <c r="F1645" t="n">
+        <v>358.8500061035156</v>
+      </c>
+      <c r="G1645" t="n">
+        <v>629553</v>
+      </c>
+      <c r="H1645" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1645" t="n">
+        <v>9</v>
+      </c>
+      <c r="J1645" t="n">
+        <v>10</v>
+      </c>
+      <c r="K1645" t="n">
+        <v>9</v>
+      </c>
+      <c r="L1645" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1645" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1645" t="n">
+        <v>37</v>
+      </c>
+      <c r="O1645" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1645" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1645" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1645" t="inlineStr"/>
+    </row>
+    <row r="1646">
+      <c r="A1646" s="2" t="n">
+        <v>45545.42708333334</v>
+      </c>
+      <c r="B1646" t="n">
+        <v>359.0499877929688</v>
+      </c>
+      <c r="C1646" t="n">
+        <v>372.5</v>
+      </c>
+      <c r="D1646" t="n">
+        <v>358.5</v>
+      </c>
+      <c r="E1646" t="n">
+        <v>371.6499938964844</v>
+      </c>
+      <c r="F1646" t="n">
+        <v>371.6499938964844</v>
+      </c>
+      <c r="G1646" t="n">
+        <v>824414</v>
+      </c>
+      <c r="H1646" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1646" t="n">
+        <v>9</v>
+      </c>
+      <c r="J1646" t="n">
+        <v>10</v>
+      </c>
+      <c r="K1646" t="n">
+        <v>10</v>
+      </c>
+      <c r="L1646" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1646" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1646" t="n">
+        <v>37</v>
+      </c>
+      <c r="O1646" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1646" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1646" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1646" t="inlineStr"/>
+    </row>
+    <row r="1647">
+      <c r="A1647" s="2" t="n">
+        <v>45545.46875</v>
+      </c>
+      <c r="B1647" t="n">
+        <v>371.6000061035156</v>
+      </c>
+      <c r="C1647" t="n">
+        <v>371.7999877929688</v>
+      </c>
+      <c r="D1647" t="n">
+        <v>367.5499877929688</v>
+      </c>
+      <c r="E1647" t="n">
+        <v>370.4500122070312</v>
+      </c>
+      <c r="F1647" t="n">
+        <v>370.4500122070312</v>
+      </c>
+      <c r="G1647" t="n">
+        <v>185941</v>
+      </c>
+      <c r="H1647" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1647" t="n">
+        <v>9</v>
+      </c>
+      <c r="J1647" t="n">
+        <v>10</v>
+      </c>
+      <c r="K1647" t="n">
+        <v>11</v>
+      </c>
+      <c r="L1647" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1647" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1647" t="n">
+        <v>37</v>
+      </c>
+      <c r="O1647" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1647" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1647" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1647" t="inlineStr"/>
+    </row>
+    <row r="1648">
+      <c r="A1648" s="2" t="n">
+        <v>45545.51041666666</v>
+      </c>
+      <c r="B1648" t="n">
+        <v>370.4500122070312</v>
+      </c>
+      <c r="C1648" t="n">
+        <v>371.4500122070312</v>
+      </c>
+      <c r="D1648" t="n">
+        <v>367.1000061035156</v>
+      </c>
+      <c r="E1648" t="n">
+        <v>368.2000122070312</v>
+      </c>
+      <c r="F1648" t="n">
+        <v>368.2000122070312</v>
+      </c>
+      <c r="G1648" t="n">
+        <v>175098</v>
+      </c>
+      <c r="H1648" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1648" t="n">
+        <v>9</v>
+      </c>
+      <c r="J1648" t="n">
+        <v>10</v>
+      </c>
+      <c r="K1648" t="n">
+        <v>12</v>
+      </c>
+      <c r="L1648" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1648" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1648" t="n">
+        <v>37</v>
+      </c>
+      <c r="O1648" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1648" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1648" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1648" t="inlineStr"/>
+    </row>
+    <row r="1649">
+      <c r="A1649" s="2" t="n">
+        <v>45545.55208333334</v>
+      </c>
+      <c r="B1649" t="n">
+        <v>368</v>
+      </c>
+      <c r="C1649" t="n">
+        <v>370.2999877929688</v>
+      </c>
+      <c r="D1649" t="n">
+        <v>367.5499877929688</v>
+      </c>
+      <c r="E1649" t="n">
+        <v>370</v>
+      </c>
+      <c r="F1649" t="n">
+        <v>370</v>
+      </c>
+      <c r="G1649" t="n">
+        <v>118519</v>
+      </c>
+      <c r="H1649" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1649" t="n">
+        <v>9</v>
+      </c>
+      <c r="J1649" t="n">
+        <v>10</v>
+      </c>
+      <c r="K1649" t="n">
+        <v>13</v>
+      </c>
+      <c r="L1649" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1649" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1649" t="n">
+        <v>37</v>
+      </c>
+      <c r="O1649" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1649" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1649" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1649" t="inlineStr"/>
+    </row>
+    <row r="1650">
+      <c r="A1650" s="2" t="n">
+        <v>45545.59375</v>
+      </c>
+      <c r="B1650" t="n">
+        <v>370.1499938964844</v>
+      </c>
+      <c r="C1650" t="n">
+        <v>370.3999938964844</v>
+      </c>
+      <c r="D1650" t="n">
+        <v>367.5</v>
+      </c>
+      <c r="E1650" t="n">
+        <v>368</v>
+      </c>
+      <c r="F1650" t="n">
+        <v>368</v>
+      </c>
+      <c r="G1650" t="n">
+        <v>155233</v>
+      </c>
+      <c r="H1650" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1650" t="n">
+        <v>9</v>
+      </c>
+      <c r="J1650" t="n">
+        <v>10</v>
+      </c>
+      <c r="K1650" t="n">
+        <v>14</v>
+      </c>
+      <c r="L1650" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1650" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1650" t="n">
+        <v>37</v>
+      </c>
+      <c r="O1650" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1650" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1650" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1650" t="inlineStr"/>
+    </row>
+    <row r="1651">
+      <c r="A1651" s="2" t="n">
+        <v>45545.63541666666</v>
+      </c>
+      <c r="B1651" t="n">
+        <v>367.9500122070312</v>
+      </c>
+      <c r="C1651" t="n">
+        <v>368.8999938964844</v>
+      </c>
+      <c r="D1651" t="n">
+        <v>366.4500122070312</v>
+      </c>
+      <c r="E1651" t="n">
+        <v>367.5499877929688</v>
+      </c>
+      <c r="F1651" t="n">
+        <v>367.5499877929688</v>
+      </c>
+      <c r="G1651" t="n">
+        <v>143303</v>
+      </c>
+      <c r="H1651" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1651" t="n">
+        <v>9</v>
+      </c>
+      <c r="J1651" t="n">
+        <v>10</v>
+      </c>
+      <c r="K1651" t="n">
+        <v>15</v>
+      </c>
+      <c r="L1651" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1651" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1651" t="n">
+        <v>37</v>
+      </c>
+      <c r="O1651" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1651" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1651" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1651" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/60m/ZAGGLE.NS.xlsx
+++ b/stock_historical_data/60m/ZAGGLE.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R1651"/>
+  <dimension ref="A1:R1658"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -92589,7 +92589,9 @@
       <c r="Q1645" t="n">
         <v>0</v>
       </c>
-      <c r="R1645" t="inlineStr"/>
+      <c r="R1645" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1646">
       <c r="A1646" s="2" t="n">
@@ -92643,7 +92645,9 @@
       <c r="Q1646" t="n">
         <v>0</v>
       </c>
-      <c r="R1646" t="inlineStr"/>
+      <c r="R1646" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1647">
       <c r="A1647" s="2" t="n">
@@ -92697,7 +92701,9 @@
       <c r="Q1647" t="n">
         <v>0</v>
       </c>
-      <c r="R1647" t="inlineStr"/>
+      <c r="R1647" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1648">
       <c r="A1648" s="2" t="n">
@@ -92751,7 +92757,9 @@
       <c r="Q1648" t="n">
         <v>0</v>
       </c>
-      <c r="R1648" t="inlineStr"/>
+      <c r="R1648" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1649">
       <c r="A1649" s="2" t="n">
@@ -92805,7 +92813,9 @@
       <c r="Q1649" t="n">
         <v>0</v>
       </c>
-      <c r="R1649" t="inlineStr"/>
+      <c r="R1649" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1650">
       <c r="A1650" s="2" t="n">
@@ -92859,7 +92869,9 @@
       <c r="Q1650" t="n">
         <v>0</v>
       </c>
-      <c r="R1650" t="inlineStr"/>
+      <c r="R1650" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1651">
       <c r="A1651" s="2" t="n">
@@ -92913,7 +92925,387 @@
       <c r="Q1651" t="n">
         <v>0</v>
       </c>
-      <c r="R1651" t="inlineStr"/>
+      <c r="R1651" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1652">
+      <c r="A1652" s="2" t="n">
+        <v>45546.38541666666</v>
+      </c>
+      <c r="B1652" t="n">
+        <v>368.7999877929688</v>
+      </c>
+      <c r="C1652" t="n">
+        <v>386.8999938964844</v>
+      </c>
+      <c r="D1652" t="n">
+        <v>365.5</v>
+      </c>
+      <c r="E1652" t="n">
+        <v>384.9500122070312</v>
+      </c>
+      <c r="F1652" t="n">
+        <v>384.9500122070312</v>
+      </c>
+      <c r="G1652" t="n">
+        <v>1506052</v>
+      </c>
+      <c r="H1652" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1652" t="n">
+        <v>9</v>
+      </c>
+      <c r="J1652" t="n">
+        <v>11</v>
+      </c>
+      <c r="K1652" t="n">
+        <v>9</v>
+      </c>
+      <c r="L1652" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1652" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1652" t="n">
+        <v>37</v>
+      </c>
+      <c r="O1652" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1652" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1652" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1652" t="inlineStr"/>
+    </row>
+    <row r="1653">
+      <c r="A1653" s="2" t="n">
+        <v>45546.42708333334</v>
+      </c>
+      <c r="B1653" t="n">
+        <v>384.8999938964844</v>
+      </c>
+      <c r="C1653" t="n">
+        <v>407.5</v>
+      </c>
+      <c r="D1653" t="n">
+        <v>383.6000061035156</v>
+      </c>
+      <c r="E1653" t="n">
+        <v>407.1499938964844</v>
+      </c>
+      <c r="F1653" t="n">
+        <v>407.1499938964844</v>
+      </c>
+      <c r="G1653" t="n">
+        <v>3526133</v>
+      </c>
+      <c r="H1653" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1653" t="n">
+        <v>9</v>
+      </c>
+      <c r="J1653" t="n">
+        <v>11</v>
+      </c>
+      <c r="K1653" t="n">
+        <v>10</v>
+      </c>
+      <c r="L1653" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1653" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1653" t="n">
+        <v>37</v>
+      </c>
+      <c r="O1653" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1653" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1653" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1653" t="inlineStr"/>
+    </row>
+    <row r="1654">
+      <c r="A1654" s="2" t="n">
+        <v>45546.46875</v>
+      </c>
+      <c r="B1654" t="n">
+        <v>407.5</v>
+      </c>
+      <c r="C1654" t="n">
+        <v>420.2999877929688</v>
+      </c>
+      <c r="D1654" t="n">
+        <v>405.5499877929688</v>
+      </c>
+      <c r="E1654" t="n">
+        <v>410.7999877929688</v>
+      </c>
+      <c r="F1654" t="n">
+        <v>410.7999877929688</v>
+      </c>
+      <c r="G1654" t="n">
+        <v>3221980</v>
+      </c>
+      <c r="H1654" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1654" t="n">
+        <v>9</v>
+      </c>
+      <c r="J1654" t="n">
+        <v>11</v>
+      </c>
+      <c r="K1654" t="n">
+        <v>11</v>
+      </c>
+      <c r="L1654" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1654" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1654" t="n">
+        <v>37</v>
+      </c>
+      <c r="O1654" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1654" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1654" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1654" t="inlineStr"/>
+    </row>
+    <row r="1655">
+      <c r="A1655" s="2" t="n">
+        <v>45546.51041666666</v>
+      </c>
+      <c r="B1655" t="n">
+        <v>410.6000061035156</v>
+      </c>
+      <c r="C1655" t="n">
+        <v>415.1000061035156</v>
+      </c>
+      <c r="D1655" t="n">
+        <v>407.25</v>
+      </c>
+      <c r="E1655" t="n">
+        <v>410.2000122070312</v>
+      </c>
+      <c r="F1655" t="n">
+        <v>410.2000122070312</v>
+      </c>
+      <c r="G1655" t="n">
+        <v>859394</v>
+      </c>
+      <c r="H1655" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1655" t="n">
+        <v>9</v>
+      </c>
+      <c r="J1655" t="n">
+        <v>11</v>
+      </c>
+      <c r="K1655" t="n">
+        <v>12</v>
+      </c>
+      <c r="L1655" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1655" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1655" t="n">
+        <v>37</v>
+      </c>
+      <c r="O1655" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1655" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1655" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1655" t="inlineStr"/>
+    </row>
+    <row r="1656">
+      <c r="A1656" s="2" t="n">
+        <v>45546.55208333334</v>
+      </c>
+      <c r="B1656" t="n">
+        <v>410.5499877929688</v>
+      </c>
+      <c r="C1656" t="n">
+        <v>411</v>
+      </c>
+      <c r="D1656" t="n">
+        <v>404.6000061035156</v>
+      </c>
+      <c r="E1656" t="n">
+        <v>406.5499877929688</v>
+      </c>
+      <c r="F1656" t="n">
+        <v>406.5499877929688</v>
+      </c>
+      <c r="G1656" t="n">
+        <v>647684</v>
+      </c>
+      <c r="H1656" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1656" t="n">
+        <v>9</v>
+      </c>
+      <c r="J1656" t="n">
+        <v>11</v>
+      </c>
+      <c r="K1656" t="n">
+        <v>13</v>
+      </c>
+      <c r="L1656" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1656" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1656" t="n">
+        <v>37</v>
+      </c>
+      <c r="O1656" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1656" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1656" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1656" t="inlineStr"/>
+    </row>
+    <row r="1657">
+      <c r="A1657" s="2" t="n">
+        <v>45546.59375</v>
+      </c>
+      <c r="B1657" t="n">
+        <v>406.8500061035156</v>
+      </c>
+      <c r="C1657" t="n">
+        <v>410</v>
+      </c>
+      <c r="D1657" t="n">
+        <v>403.0499877929688</v>
+      </c>
+      <c r="E1657" t="n">
+        <v>408.0499877929688</v>
+      </c>
+      <c r="F1657" t="n">
+        <v>408.0499877929688</v>
+      </c>
+      <c r="G1657" t="n">
+        <v>877999</v>
+      </c>
+      <c r="H1657" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1657" t="n">
+        <v>9</v>
+      </c>
+      <c r="J1657" t="n">
+        <v>11</v>
+      </c>
+      <c r="K1657" t="n">
+        <v>14</v>
+      </c>
+      <c r="L1657" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1657" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1657" t="n">
+        <v>37</v>
+      </c>
+      <c r="O1657" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1657" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1657" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1657" t="inlineStr"/>
+    </row>
+    <row r="1658">
+      <c r="A1658" s="2" t="n">
+        <v>45546.63541666666</v>
+      </c>
+      <c r="B1658" t="n">
+        <v>408.5</v>
+      </c>
+      <c r="C1658" t="n">
+        <v>414.7000122070312</v>
+      </c>
+      <c r="D1658" t="n">
+        <v>406.7999877929688</v>
+      </c>
+      <c r="E1658" t="n">
+        <v>412</v>
+      </c>
+      <c r="F1658" t="n">
+        <v>412</v>
+      </c>
+      <c r="G1658" t="n">
+        <v>687284</v>
+      </c>
+      <c r="H1658" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1658" t="n">
+        <v>9</v>
+      </c>
+      <c r="J1658" t="n">
+        <v>11</v>
+      </c>
+      <c r="K1658" t="n">
+        <v>15</v>
+      </c>
+      <c r="L1658" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1658" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1658" t="n">
+        <v>37</v>
+      </c>
+      <c r="O1658" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1658" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1658" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1658" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/60m/ZAGGLE.NS.xlsx
+++ b/stock_historical_data/60m/ZAGGLE.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R1658"/>
+  <dimension ref="A1:R1665"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -92981,7 +92981,9 @@
       <c r="Q1652" t="n">
         <v>0</v>
       </c>
-      <c r="R1652" t="inlineStr"/>
+      <c r="R1652" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1653">
       <c r="A1653" s="2" t="n">
@@ -93035,7 +93037,9 @@
       <c r="Q1653" t="n">
         <v>0</v>
       </c>
-      <c r="R1653" t="inlineStr"/>
+      <c r="R1653" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1654">
       <c r="A1654" s="2" t="n">
@@ -93089,7 +93093,9 @@
       <c r="Q1654" t="n">
         <v>0</v>
       </c>
-      <c r="R1654" t="inlineStr"/>
+      <c r="R1654" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1655">
       <c r="A1655" s="2" t="n">
@@ -93143,7 +93149,9 @@
       <c r="Q1655" t="n">
         <v>0</v>
       </c>
-      <c r="R1655" t="inlineStr"/>
+      <c r="R1655" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1656">
       <c r="A1656" s="2" t="n">
@@ -93197,7 +93205,9 @@
       <c r="Q1656" t="n">
         <v>0</v>
       </c>
-      <c r="R1656" t="inlineStr"/>
+      <c r="R1656" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1657">
       <c r="A1657" s="2" t="n">
@@ -93251,7 +93261,9 @@
       <c r="Q1657" t="n">
         <v>0</v>
       </c>
-      <c r="R1657" t="inlineStr"/>
+      <c r="R1657" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1658">
       <c r="A1658" s="2" t="n">
@@ -93305,7 +93317,387 @@
       <c r="Q1658" t="n">
         <v>0</v>
       </c>
-      <c r="R1658" t="inlineStr"/>
+      <c r="R1658" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1659">
+      <c r="A1659" s="2" t="n">
+        <v>45547.38541666666</v>
+      </c>
+      <c r="B1659" t="n">
+        <v>422.2999877929688</v>
+      </c>
+      <c r="C1659" t="n">
+        <v>441.2000122070312</v>
+      </c>
+      <c r="D1659" t="n">
+        <v>420.4500122070312</v>
+      </c>
+      <c r="E1659" t="n">
+        <v>429.1000061035156</v>
+      </c>
+      <c r="F1659" t="n">
+        <v>429.1000061035156</v>
+      </c>
+      <c r="G1659" t="n">
+        <v>0</v>
+      </c>
+      <c r="H1659" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1659" t="n">
+        <v>9</v>
+      </c>
+      <c r="J1659" t="n">
+        <v>12</v>
+      </c>
+      <c r="K1659" t="n">
+        <v>9</v>
+      </c>
+      <c r="L1659" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1659" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1659" t="n">
+        <v>37</v>
+      </c>
+      <c r="O1659" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1659" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1659" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1659" t="inlineStr"/>
+    </row>
+    <row r="1660">
+      <c r="A1660" s="2" t="n">
+        <v>45547.42708333334</v>
+      </c>
+      <c r="B1660" t="n">
+        <v>429.4500122070312</v>
+      </c>
+      <c r="C1660" t="n">
+        <v>440.5</v>
+      </c>
+      <c r="D1660" t="n">
+        <v>428.2999877929688</v>
+      </c>
+      <c r="E1660" t="n">
+        <v>429.8500061035156</v>
+      </c>
+      <c r="F1660" t="n">
+        <v>429.8500061035156</v>
+      </c>
+      <c r="G1660" t="n">
+        <v>1278497</v>
+      </c>
+      <c r="H1660" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1660" t="n">
+        <v>9</v>
+      </c>
+      <c r="J1660" t="n">
+        <v>12</v>
+      </c>
+      <c r="K1660" t="n">
+        <v>10</v>
+      </c>
+      <c r="L1660" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1660" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1660" t="n">
+        <v>37</v>
+      </c>
+      <c r="O1660" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1660" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1660" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1660" t="inlineStr"/>
+    </row>
+    <row r="1661">
+      <c r="A1661" s="2" t="n">
+        <v>45547.46875</v>
+      </c>
+      <c r="B1661" t="n">
+        <v>430.2999877929688</v>
+      </c>
+      <c r="C1661" t="n">
+        <v>441</v>
+      </c>
+      <c r="D1661" t="n">
+        <v>428</v>
+      </c>
+      <c r="E1661" t="n">
+        <v>437.75</v>
+      </c>
+      <c r="F1661" t="n">
+        <v>437.75</v>
+      </c>
+      <c r="G1661" t="n">
+        <v>755857</v>
+      </c>
+      <c r="H1661" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1661" t="n">
+        <v>9</v>
+      </c>
+      <c r="J1661" t="n">
+        <v>12</v>
+      </c>
+      <c r="K1661" t="n">
+        <v>11</v>
+      </c>
+      <c r="L1661" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1661" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1661" t="n">
+        <v>37</v>
+      </c>
+      <c r="O1661" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1661" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1661" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1661" t="inlineStr"/>
+    </row>
+    <row r="1662">
+      <c r="A1662" s="2" t="n">
+        <v>45547.51041666666</v>
+      </c>
+      <c r="B1662" t="n">
+        <v>437.6000061035156</v>
+      </c>
+      <c r="C1662" t="n">
+        <v>444.6499938964844</v>
+      </c>
+      <c r="D1662" t="n">
+        <v>432.25</v>
+      </c>
+      <c r="E1662" t="n">
+        <v>435.2000122070312</v>
+      </c>
+      <c r="F1662" t="n">
+        <v>435.2000122070312</v>
+      </c>
+      <c r="G1662" t="n">
+        <v>944304</v>
+      </c>
+      <c r="H1662" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1662" t="n">
+        <v>9</v>
+      </c>
+      <c r="J1662" t="n">
+        <v>12</v>
+      </c>
+      <c r="K1662" t="n">
+        <v>12</v>
+      </c>
+      <c r="L1662" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1662" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1662" t="n">
+        <v>37</v>
+      </c>
+      <c r="O1662" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1662" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1662" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1662" t="inlineStr"/>
+    </row>
+    <row r="1663">
+      <c r="A1663" s="2" t="n">
+        <v>45547.55208333334</v>
+      </c>
+      <c r="B1663" t="n">
+        <v>435.2999877929688</v>
+      </c>
+      <c r="C1663" t="n">
+        <v>437.0499877929688</v>
+      </c>
+      <c r="D1663" t="n">
+        <v>433.7999877929688</v>
+      </c>
+      <c r="E1663" t="n">
+        <v>435</v>
+      </c>
+      <c r="F1663" t="n">
+        <v>435</v>
+      </c>
+      <c r="G1663" t="n">
+        <v>250136</v>
+      </c>
+      <c r="H1663" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1663" t="n">
+        <v>9</v>
+      </c>
+      <c r="J1663" t="n">
+        <v>12</v>
+      </c>
+      <c r="K1663" t="n">
+        <v>13</v>
+      </c>
+      <c r="L1663" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1663" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1663" t="n">
+        <v>37</v>
+      </c>
+      <c r="O1663" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1663" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1663" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1663" t="inlineStr"/>
+    </row>
+    <row r="1664">
+      <c r="A1664" s="2" t="n">
+        <v>45547.59375</v>
+      </c>
+      <c r="B1664" t="n">
+        <v>434.8500061035156</v>
+      </c>
+      <c r="C1664" t="n">
+        <v>444</v>
+      </c>
+      <c r="D1664" t="n">
+        <v>434.5</v>
+      </c>
+      <c r="E1664" t="n">
+        <v>439.9500122070312</v>
+      </c>
+      <c r="F1664" t="n">
+        <v>439.9500122070312</v>
+      </c>
+      <c r="G1664" t="n">
+        <v>844605</v>
+      </c>
+      <c r="H1664" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1664" t="n">
+        <v>9</v>
+      </c>
+      <c r="J1664" t="n">
+        <v>12</v>
+      </c>
+      <c r="K1664" t="n">
+        <v>14</v>
+      </c>
+      <c r="L1664" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1664" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1664" t="n">
+        <v>37</v>
+      </c>
+      <c r="O1664" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1664" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1664" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1664" t="inlineStr"/>
+    </row>
+    <row r="1665">
+      <c r="A1665" s="2" t="n">
+        <v>45547.63541666666</v>
+      </c>
+      <c r="B1665" t="n">
+        <v>439.5499877929688</v>
+      </c>
+      <c r="C1665" t="n">
+        <v>444.3500061035156</v>
+      </c>
+      <c r="D1665" t="n">
+        <v>438.5499877929688</v>
+      </c>
+      <c r="E1665" t="n">
+        <v>443.5499877929688</v>
+      </c>
+      <c r="F1665" t="n">
+        <v>443.5499877929688</v>
+      </c>
+      <c r="G1665" t="n">
+        <v>584248</v>
+      </c>
+      <c r="H1665" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1665" t="n">
+        <v>9</v>
+      </c>
+      <c r="J1665" t="n">
+        <v>12</v>
+      </c>
+      <c r="K1665" t="n">
+        <v>15</v>
+      </c>
+      <c r="L1665" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1665" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1665" t="n">
+        <v>37</v>
+      </c>
+      <c r="O1665" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1665" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1665" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1665" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/60m/ZAGGLE.NS.xlsx
+++ b/stock_historical_data/60m/ZAGGLE.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R1665"/>
+  <dimension ref="A1:R1672"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -93373,7 +93373,9 @@
       <c r="Q1659" t="n">
         <v>0</v>
       </c>
-      <c r="R1659" t="inlineStr"/>
+      <c r="R1659" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1660">
       <c r="A1660" s="2" t="n">
@@ -93427,7 +93429,9 @@
       <c r="Q1660" t="n">
         <v>0</v>
       </c>
-      <c r="R1660" t="inlineStr"/>
+      <c r="R1660" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1661">
       <c r="A1661" s="2" t="n">
@@ -93481,7 +93485,9 @@
       <c r="Q1661" t="n">
         <v>0</v>
       </c>
-      <c r="R1661" t="inlineStr"/>
+      <c r="R1661" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1662">
       <c r="A1662" s="2" t="n">
@@ -93535,7 +93541,9 @@
       <c r="Q1662" t="n">
         <v>0</v>
       </c>
-      <c r="R1662" t="inlineStr"/>
+      <c r="R1662" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1663">
       <c r="A1663" s="2" t="n">
@@ -93589,7 +93597,9 @@
       <c r="Q1663" t="n">
         <v>0</v>
       </c>
-      <c r="R1663" t="inlineStr"/>
+      <c r="R1663" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1664">
       <c r="A1664" s="2" t="n">
@@ -93643,7 +93653,9 @@
       <c r="Q1664" t="n">
         <v>0</v>
       </c>
-      <c r="R1664" t="inlineStr"/>
+      <c r="R1664" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1665">
       <c r="A1665" s="2" t="n">
@@ -93697,7 +93709,387 @@
       <c r="Q1665" t="n">
         <v>0</v>
       </c>
-      <c r="R1665" t="inlineStr"/>
+      <c r="R1665" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1666">
+      <c r="A1666" s="2" t="n">
+        <v>45548.38541666666</v>
+      </c>
+      <c r="B1666" t="n">
+        <v>441.7999877929688</v>
+      </c>
+      <c r="C1666" t="n">
+        <v>446</v>
+      </c>
+      <c r="D1666" t="n">
+        <v>424.2000122070312</v>
+      </c>
+      <c r="E1666" t="n">
+        <v>435.1000061035156</v>
+      </c>
+      <c r="F1666" t="n">
+        <v>435.1000061035156</v>
+      </c>
+      <c r="G1666" t="n">
+        <v>1704161</v>
+      </c>
+      <c r="H1666" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1666" t="n">
+        <v>9</v>
+      </c>
+      <c r="J1666" t="n">
+        <v>13</v>
+      </c>
+      <c r="K1666" t="n">
+        <v>9</v>
+      </c>
+      <c r="L1666" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1666" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1666" t="n">
+        <v>37</v>
+      </c>
+      <c r="O1666" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1666" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1666" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1666" t="inlineStr"/>
+    </row>
+    <row r="1667">
+      <c r="A1667" s="2" t="n">
+        <v>45548.42708333334</v>
+      </c>
+      <c r="B1667" t="n">
+        <v>435.6000061035156</v>
+      </c>
+      <c r="C1667" t="n">
+        <v>442</v>
+      </c>
+      <c r="D1667" t="n">
+        <v>434.1000061035156</v>
+      </c>
+      <c r="E1667" t="n">
+        <v>440.7000122070312</v>
+      </c>
+      <c r="F1667" t="n">
+        <v>440.7000122070312</v>
+      </c>
+      <c r="G1667" t="n">
+        <v>532709</v>
+      </c>
+      <c r="H1667" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1667" t="n">
+        <v>9</v>
+      </c>
+      <c r="J1667" t="n">
+        <v>13</v>
+      </c>
+      <c r="K1667" t="n">
+        <v>10</v>
+      </c>
+      <c r="L1667" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1667" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1667" t="n">
+        <v>37</v>
+      </c>
+      <c r="O1667" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1667" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1667" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1667" t="inlineStr"/>
+    </row>
+    <row r="1668">
+      <c r="A1668" s="2" t="n">
+        <v>45548.46875</v>
+      </c>
+      <c r="B1668" t="n">
+        <v>440.4500122070312</v>
+      </c>
+      <c r="C1668" t="n">
+        <v>441.6499938964844</v>
+      </c>
+      <c r="D1668" t="n">
+        <v>434.1499938964844</v>
+      </c>
+      <c r="E1668" t="n">
+        <v>434.8500061035156</v>
+      </c>
+      <c r="F1668" t="n">
+        <v>434.8500061035156</v>
+      </c>
+      <c r="G1668" t="n">
+        <v>380302</v>
+      </c>
+      <c r="H1668" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1668" t="n">
+        <v>9</v>
+      </c>
+      <c r="J1668" t="n">
+        <v>13</v>
+      </c>
+      <c r="K1668" t="n">
+        <v>11</v>
+      </c>
+      <c r="L1668" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1668" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1668" t="n">
+        <v>37</v>
+      </c>
+      <c r="O1668" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1668" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1668" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1668" t="inlineStr"/>
+    </row>
+    <row r="1669">
+      <c r="A1669" s="2" t="n">
+        <v>45548.51041666666</v>
+      </c>
+      <c r="B1669" t="n">
+        <v>434.4500122070312</v>
+      </c>
+      <c r="C1669" t="n">
+        <v>438.7000122070312</v>
+      </c>
+      <c r="D1669" t="n">
+        <v>431.9500122070312</v>
+      </c>
+      <c r="E1669" t="n">
+        <v>435.7000122070312</v>
+      </c>
+      <c r="F1669" t="n">
+        <v>435.7000122070312</v>
+      </c>
+      <c r="G1669" t="n">
+        <v>198735</v>
+      </c>
+      <c r="H1669" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1669" t="n">
+        <v>9</v>
+      </c>
+      <c r="J1669" t="n">
+        <v>13</v>
+      </c>
+      <c r="K1669" t="n">
+        <v>12</v>
+      </c>
+      <c r="L1669" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1669" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1669" t="n">
+        <v>37</v>
+      </c>
+      <c r="O1669" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1669" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1669" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1669" t="inlineStr"/>
+    </row>
+    <row r="1670">
+      <c r="A1670" s="2" t="n">
+        <v>45548.55208333334</v>
+      </c>
+      <c r="B1670" t="n">
+        <v>435.6499938964844</v>
+      </c>
+      <c r="C1670" t="n">
+        <v>437.9500122070312</v>
+      </c>
+      <c r="D1670" t="n">
+        <v>433.7999877929688</v>
+      </c>
+      <c r="E1670" t="n">
+        <v>437.7999877929688</v>
+      </c>
+      <c r="F1670" t="n">
+        <v>437.7999877929688</v>
+      </c>
+      <c r="G1670" t="n">
+        <v>148514</v>
+      </c>
+      <c r="H1670" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1670" t="n">
+        <v>9</v>
+      </c>
+      <c r="J1670" t="n">
+        <v>13</v>
+      </c>
+      <c r="K1670" t="n">
+        <v>13</v>
+      </c>
+      <c r="L1670" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1670" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1670" t="n">
+        <v>37</v>
+      </c>
+      <c r="O1670" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1670" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1670" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1670" t="inlineStr"/>
+    </row>
+    <row r="1671">
+      <c r="A1671" s="2" t="n">
+        <v>45548.59375</v>
+      </c>
+      <c r="B1671" t="n">
+        <v>437.7999877929688</v>
+      </c>
+      <c r="C1671" t="n">
+        <v>438.8999938964844</v>
+      </c>
+      <c r="D1671" t="n">
+        <v>434.5499877929688</v>
+      </c>
+      <c r="E1671" t="n">
+        <v>437.2999877929688</v>
+      </c>
+      <c r="F1671" t="n">
+        <v>437.2999877929688</v>
+      </c>
+      <c r="G1671" t="n">
+        <v>232551</v>
+      </c>
+      <c r="H1671" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1671" t="n">
+        <v>9</v>
+      </c>
+      <c r="J1671" t="n">
+        <v>13</v>
+      </c>
+      <c r="K1671" t="n">
+        <v>14</v>
+      </c>
+      <c r="L1671" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1671" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1671" t="n">
+        <v>37</v>
+      </c>
+      <c r="O1671" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1671" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1671" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1671" t="inlineStr"/>
+    </row>
+    <row r="1672">
+      <c r="A1672" s="2" t="n">
+        <v>45548.63541666666</v>
+      </c>
+      <c r="B1672" t="n">
+        <v>437.0499877929688</v>
+      </c>
+      <c r="C1672" t="n">
+        <v>438.1000061035156</v>
+      </c>
+      <c r="D1672" t="n">
+        <v>436</v>
+      </c>
+      <c r="E1672" t="n">
+        <v>436.25</v>
+      </c>
+      <c r="F1672" t="n">
+        <v>436.25</v>
+      </c>
+      <c r="G1672" t="n">
+        <v>185291</v>
+      </c>
+      <c r="H1672" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1672" t="n">
+        <v>9</v>
+      </c>
+      <c r="J1672" t="n">
+        <v>13</v>
+      </c>
+      <c r="K1672" t="n">
+        <v>15</v>
+      </c>
+      <c r="L1672" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1672" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1672" t="n">
+        <v>37</v>
+      </c>
+      <c r="O1672" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1672" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1672" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1672" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/60m/ZAGGLE.NS.xlsx
+++ b/stock_historical_data/60m/ZAGGLE.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R1672"/>
+  <dimension ref="A1:R1679"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -93757,7 +93757,7 @@
         <v>37</v>
       </c>
       <c r="O1666" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P1666" t="n">
         <v>0</v>
@@ -93765,7 +93765,9 @@
       <c r="Q1666" t="n">
         <v>0</v>
       </c>
-      <c r="R1666" t="inlineStr"/>
+      <c r="R1666" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1667">
       <c r="A1667" s="2" t="n">
@@ -93819,7 +93821,9 @@
       <c r="Q1667" t="n">
         <v>0</v>
       </c>
-      <c r="R1667" t="inlineStr"/>
+      <c r="R1667" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1668">
       <c r="A1668" s="2" t="n">
@@ -93873,7 +93877,9 @@
       <c r="Q1668" t="n">
         <v>0</v>
       </c>
-      <c r="R1668" t="inlineStr"/>
+      <c r="R1668" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1669">
       <c r="A1669" s="2" t="n">
@@ -93927,7 +93933,9 @@
       <c r="Q1669" t="n">
         <v>0</v>
       </c>
-      <c r="R1669" t="inlineStr"/>
+      <c r="R1669" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1670">
       <c r="A1670" s="2" t="n">
@@ -93981,7 +93989,9 @@
       <c r="Q1670" t="n">
         <v>0</v>
       </c>
-      <c r="R1670" t="inlineStr"/>
+      <c r="R1670" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1671">
       <c r="A1671" s="2" t="n">
@@ -94035,7 +94045,9 @@
       <c r="Q1671" t="n">
         <v>0</v>
       </c>
-      <c r="R1671" t="inlineStr"/>
+      <c r="R1671" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1672">
       <c r="A1672" s="2" t="n">
@@ -94089,7 +94101,387 @@
       <c r="Q1672" t="n">
         <v>0</v>
       </c>
-      <c r="R1672" t="inlineStr"/>
+      <c r="R1672" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1673">
+      <c r="A1673" s="2" t="n">
+        <v>45551.38541666666</v>
+      </c>
+      <c r="B1673" t="n">
+        <v>440.75</v>
+      </c>
+      <c r="C1673" t="n">
+        <v>445</v>
+      </c>
+      <c r="D1673" t="n">
+        <v>426.7999877929688</v>
+      </c>
+      <c r="E1673" t="n">
+        <v>426.7999877929688</v>
+      </c>
+      <c r="F1673" t="n">
+        <v>426.7999877929688</v>
+      </c>
+      <c r="G1673" t="n">
+        <v>0</v>
+      </c>
+      <c r="H1673" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1673" t="n">
+        <v>9</v>
+      </c>
+      <c r="J1673" t="n">
+        <v>16</v>
+      </c>
+      <c r="K1673" t="n">
+        <v>9</v>
+      </c>
+      <c r="L1673" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1673" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1673" t="n">
+        <v>38</v>
+      </c>
+      <c r="O1673" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1673" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1673" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1673" t="inlineStr"/>
+    </row>
+    <row r="1674">
+      <c r="A1674" s="2" t="n">
+        <v>45551.42708333334</v>
+      </c>
+      <c r="B1674" t="n">
+        <v>427.4500122070312</v>
+      </c>
+      <c r="C1674" t="n">
+        <v>437.3999938964844</v>
+      </c>
+      <c r="D1674" t="n">
+        <v>427</v>
+      </c>
+      <c r="E1674" t="n">
+        <v>432.8500061035156</v>
+      </c>
+      <c r="F1674" t="n">
+        <v>432.8500061035156</v>
+      </c>
+      <c r="G1674" t="n">
+        <v>206774</v>
+      </c>
+      <c r="H1674" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1674" t="n">
+        <v>9</v>
+      </c>
+      <c r="J1674" t="n">
+        <v>16</v>
+      </c>
+      <c r="K1674" t="n">
+        <v>10</v>
+      </c>
+      <c r="L1674" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1674" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1674" t="n">
+        <v>38</v>
+      </c>
+      <c r="O1674" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1674" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1674" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1674" t="inlineStr"/>
+    </row>
+    <row r="1675">
+      <c r="A1675" s="2" t="n">
+        <v>45551.46875</v>
+      </c>
+      <c r="B1675" t="n">
+        <v>432.7999877929688</v>
+      </c>
+      <c r="C1675" t="n">
+        <v>433.3500061035156</v>
+      </c>
+      <c r="D1675" t="n">
+        <v>428.7000122070312</v>
+      </c>
+      <c r="E1675" t="n">
+        <v>430.0499877929688</v>
+      </c>
+      <c r="F1675" t="n">
+        <v>430.0499877929688</v>
+      </c>
+      <c r="G1675" t="n">
+        <v>97947</v>
+      </c>
+      <c r="H1675" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1675" t="n">
+        <v>9</v>
+      </c>
+      <c r="J1675" t="n">
+        <v>16</v>
+      </c>
+      <c r="K1675" t="n">
+        <v>11</v>
+      </c>
+      <c r="L1675" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1675" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1675" t="n">
+        <v>38</v>
+      </c>
+      <c r="O1675" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1675" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1675" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1675" t="inlineStr"/>
+    </row>
+    <row r="1676">
+      <c r="A1676" s="2" t="n">
+        <v>45551.51041666666</v>
+      </c>
+      <c r="B1676" t="n">
+        <v>429.9500122070312</v>
+      </c>
+      <c r="C1676" t="n">
+        <v>435.9500122070312</v>
+      </c>
+      <c r="D1676" t="n">
+        <v>429.3999938964844</v>
+      </c>
+      <c r="E1676" t="n">
+        <v>434.4500122070312</v>
+      </c>
+      <c r="F1676" t="n">
+        <v>434.4500122070312</v>
+      </c>
+      <c r="G1676" t="n">
+        <v>99590</v>
+      </c>
+      <c r="H1676" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1676" t="n">
+        <v>9</v>
+      </c>
+      <c r="J1676" t="n">
+        <v>16</v>
+      </c>
+      <c r="K1676" t="n">
+        <v>12</v>
+      </c>
+      <c r="L1676" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1676" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1676" t="n">
+        <v>38</v>
+      </c>
+      <c r="O1676" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1676" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1676" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1676" t="inlineStr"/>
+    </row>
+    <row r="1677">
+      <c r="A1677" s="2" t="n">
+        <v>45551.55208333334</v>
+      </c>
+      <c r="B1677" t="n">
+        <v>435.2000122070312</v>
+      </c>
+      <c r="C1677" t="n">
+        <v>437.7000122070312</v>
+      </c>
+      <c r="D1677" t="n">
+        <v>433.2999877929688</v>
+      </c>
+      <c r="E1677" t="n">
+        <v>433.4500122070312</v>
+      </c>
+      <c r="F1677" t="n">
+        <v>433.4500122070312</v>
+      </c>
+      <c r="G1677" t="n">
+        <v>152893</v>
+      </c>
+      <c r="H1677" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1677" t="n">
+        <v>9</v>
+      </c>
+      <c r="J1677" t="n">
+        <v>16</v>
+      </c>
+      <c r="K1677" t="n">
+        <v>13</v>
+      </c>
+      <c r="L1677" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1677" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1677" t="n">
+        <v>38</v>
+      </c>
+      <c r="O1677" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1677" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1677" t="n">
+        <v>2</v>
+      </c>
+      <c r="R1677" t="inlineStr"/>
+    </row>
+    <row r="1678">
+      <c r="A1678" s="2" t="n">
+        <v>45551.59375</v>
+      </c>
+      <c r="B1678" t="n">
+        <v>433.5499877929688</v>
+      </c>
+      <c r="C1678" t="n">
+        <v>439.7000122070312</v>
+      </c>
+      <c r="D1678" t="n">
+        <v>432.2999877929688</v>
+      </c>
+      <c r="E1678" t="n">
+        <v>439</v>
+      </c>
+      <c r="F1678" t="n">
+        <v>439</v>
+      </c>
+      <c r="G1678" t="n">
+        <v>198750</v>
+      </c>
+      <c r="H1678" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1678" t="n">
+        <v>9</v>
+      </c>
+      <c r="J1678" t="n">
+        <v>16</v>
+      </c>
+      <c r="K1678" t="n">
+        <v>14</v>
+      </c>
+      <c r="L1678" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1678" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1678" t="n">
+        <v>38</v>
+      </c>
+      <c r="O1678" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1678" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1678" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1678" t="inlineStr"/>
+    </row>
+    <row r="1679">
+      <c r="A1679" s="2" t="n">
+        <v>45551.63541666666</v>
+      </c>
+      <c r="B1679" t="n">
+        <v>439.25</v>
+      </c>
+      <c r="C1679" t="n">
+        <v>445</v>
+      </c>
+      <c r="D1679" t="n">
+        <v>439.0499877929688</v>
+      </c>
+      <c r="E1679" t="n">
+        <v>442.3999938964844</v>
+      </c>
+      <c r="F1679" t="n">
+        <v>442.3999938964844</v>
+      </c>
+      <c r="G1679" t="n">
+        <v>449618</v>
+      </c>
+      <c r="H1679" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1679" t="n">
+        <v>9</v>
+      </c>
+      <c r="J1679" t="n">
+        <v>16</v>
+      </c>
+      <c r="K1679" t="n">
+        <v>15</v>
+      </c>
+      <c r="L1679" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1679" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1679" t="n">
+        <v>38</v>
+      </c>
+      <c r="O1679" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1679" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1679" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1679" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/60m/ZAGGLE.NS.xlsx
+++ b/stock_historical_data/60m/ZAGGLE.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R1679"/>
+  <dimension ref="A1:R1693"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -94157,7 +94157,9 @@
       <c r="Q1673" t="n">
         <v>0</v>
       </c>
-      <c r="R1673" t="inlineStr"/>
+      <c r="R1673" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1674">
       <c r="A1674" s="2" t="n">
@@ -94211,7 +94213,9 @@
       <c r="Q1674" t="n">
         <v>0</v>
       </c>
-      <c r="R1674" t="inlineStr"/>
+      <c r="R1674" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1675">
       <c r="A1675" s="2" t="n">
@@ -94265,7 +94269,9 @@
       <c r="Q1675" t="n">
         <v>0</v>
       </c>
-      <c r="R1675" t="inlineStr"/>
+      <c r="R1675" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1676">
       <c r="A1676" s="2" t="n">
@@ -94319,7 +94325,9 @@
       <c r="Q1676" t="n">
         <v>0</v>
       </c>
-      <c r="R1676" t="inlineStr"/>
+      <c r="R1676" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1677">
       <c r="A1677" s="2" t="n">
@@ -94373,7 +94381,9 @@
       <c r="Q1677" t="n">
         <v>2</v>
       </c>
-      <c r="R1677" t="inlineStr"/>
+      <c r="R1677" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1678">
       <c r="A1678" s="2" t="n">
@@ -94427,7 +94437,9 @@
       <c r="Q1678" t="n">
         <v>0</v>
       </c>
-      <c r="R1678" t="inlineStr"/>
+      <c r="R1678" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1679">
       <c r="A1679" s="2" t="n">
@@ -94481,7 +94493,765 @@
       <c r="Q1679" t="n">
         <v>0</v>
       </c>
-      <c r="R1679" t="inlineStr"/>
+      <c r="R1679" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1680">
+      <c r="A1680" s="2" t="n">
+        <v>45552.38541666666</v>
+      </c>
+      <c r="B1680" t="n">
+        <v>443.7000122070312</v>
+      </c>
+      <c r="C1680" t="n">
+        <v>460.7000122070312</v>
+      </c>
+      <c r="D1680" t="n">
+        <v>438</v>
+      </c>
+      <c r="E1680" t="n">
+        <v>453.5</v>
+      </c>
+      <c r="F1680" t="n">
+        <v>453.5</v>
+      </c>
+      <c r="G1680" t="n">
+        <v>1512425</v>
+      </c>
+      <c r="H1680" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1680" t="n">
+        <v>9</v>
+      </c>
+      <c r="J1680" t="n">
+        <v>17</v>
+      </c>
+      <c r="K1680" t="n">
+        <v>9</v>
+      </c>
+      <c r="L1680" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1680" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1680" t="n">
+        <v>38</v>
+      </c>
+      <c r="O1680" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1680" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1680" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1680" t="inlineStr"/>
+    </row>
+    <row r="1681">
+      <c r="A1681" s="2" t="n">
+        <v>45552.42708333334</v>
+      </c>
+      <c r="B1681" t="n">
+        <v>452.3500061035156</v>
+      </c>
+      <c r="C1681" t="n">
+        <v>465</v>
+      </c>
+      <c r="D1681" t="n">
+        <v>449.3500061035156</v>
+      </c>
+      <c r="E1681" t="n">
+        <v>460.3500061035156</v>
+      </c>
+      <c r="F1681" t="n">
+        <v>460.3500061035156</v>
+      </c>
+      <c r="G1681" t="n">
+        <v>857741</v>
+      </c>
+      <c r="H1681" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1681" t="n">
+        <v>9</v>
+      </c>
+      <c r="J1681" t="n">
+        <v>17</v>
+      </c>
+      <c r="K1681" t="n">
+        <v>10</v>
+      </c>
+      <c r="L1681" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1681" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1681" t="n">
+        <v>38</v>
+      </c>
+      <c r="O1681" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1681" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1681" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1681" t="inlineStr"/>
+    </row>
+    <row r="1682">
+      <c r="A1682" s="2" t="n">
+        <v>45552.46875</v>
+      </c>
+      <c r="B1682" t="n">
+        <v>460.3500061035156</v>
+      </c>
+      <c r="C1682" t="n">
+        <v>468.75</v>
+      </c>
+      <c r="D1682" t="n">
+        <v>458</v>
+      </c>
+      <c r="E1682" t="n">
+        <v>459.25</v>
+      </c>
+      <c r="F1682" t="n">
+        <v>459.25</v>
+      </c>
+      <c r="G1682" t="n">
+        <v>717583</v>
+      </c>
+      <c r="H1682" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1682" t="n">
+        <v>9</v>
+      </c>
+      <c r="J1682" t="n">
+        <v>17</v>
+      </c>
+      <c r="K1682" t="n">
+        <v>11</v>
+      </c>
+      <c r="L1682" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1682" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1682" t="n">
+        <v>38</v>
+      </c>
+      <c r="O1682" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1682" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1682" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1682" t="inlineStr"/>
+    </row>
+    <row r="1683">
+      <c r="A1683" s="2" t="n">
+        <v>45552.51041666666</v>
+      </c>
+      <c r="B1683" t="n">
+        <v>459.6000061035156</v>
+      </c>
+      <c r="C1683" t="n">
+        <v>473</v>
+      </c>
+      <c r="D1683" t="n">
+        <v>459</v>
+      </c>
+      <c r="E1683" t="n">
+        <v>470.3999938964844</v>
+      </c>
+      <c r="F1683" t="n">
+        <v>470.3999938964844</v>
+      </c>
+      <c r="G1683" t="n">
+        <v>603239</v>
+      </c>
+      <c r="H1683" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1683" t="n">
+        <v>9</v>
+      </c>
+      <c r="J1683" t="n">
+        <v>17</v>
+      </c>
+      <c r="K1683" t="n">
+        <v>12</v>
+      </c>
+      <c r="L1683" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1683" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1683" t="n">
+        <v>38</v>
+      </c>
+      <c r="O1683" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1683" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1683" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1683" t="inlineStr"/>
+    </row>
+    <row r="1684">
+      <c r="A1684" s="2" t="n">
+        <v>45552.55208333334</v>
+      </c>
+      <c r="B1684" t="n">
+        <v>471.1499938964844</v>
+      </c>
+      <c r="C1684" t="n">
+        <v>493</v>
+      </c>
+      <c r="D1684" t="n">
+        <v>464.4500122070312</v>
+      </c>
+      <c r="E1684" t="n">
+        <v>466.5</v>
+      </c>
+      <c r="F1684" t="n">
+        <v>466.5</v>
+      </c>
+      <c r="G1684" t="n">
+        <v>2493496</v>
+      </c>
+      <c r="H1684" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1684" t="n">
+        <v>9</v>
+      </c>
+      <c r="J1684" t="n">
+        <v>17</v>
+      </c>
+      <c r="K1684" t="n">
+        <v>13</v>
+      </c>
+      <c r="L1684" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1684" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1684" t="n">
+        <v>38</v>
+      </c>
+      <c r="O1684" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1684" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1684" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1684" t="inlineStr"/>
+    </row>
+    <row r="1685">
+      <c r="A1685" s="2" t="n">
+        <v>45552.59375</v>
+      </c>
+      <c r="B1685" t="n">
+        <v>466.8999938964844</v>
+      </c>
+      <c r="C1685" t="n">
+        <v>471</v>
+      </c>
+      <c r="D1685" t="n">
+        <v>464.1000061035156</v>
+      </c>
+      <c r="E1685" t="n">
+        <v>466.8500061035156</v>
+      </c>
+      <c r="F1685" t="n">
+        <v>466.8500061035156</v>
+      </c>
+      <c r="G1685" t="n">
+        <v>550933</v>
+      </c>
+      <c r="H1685" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1685" t="n">
+        <v>9</v>
+      </c>
+      <c r="J1685" t="n">
+        <v>17</v>
+      </c>
+      <c r="K1685" t="n">
+        <v>14</v>
+      </c>
+      <c r="L1685" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1685" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1685" t="n">
+        <v>38</v>
+      </c>
+      <c r="O1685" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1685" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1685" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1685" t="inlineStr"/>
+    </row>
+    <row r="1686">
+      <c r="A1686" s="2" t="n">
+        <v>45552.63541666666</v>
+      </c>
+      <c r="B1686" t="n">
+        <v>467.2000122070312</v>
+      </c>
+      <c r="C1686" t="n">
+        <v>470</v>
+      </c>
+      <c r="D1686" t="n">
+        <v>466.1499938964844</v>
+      </c>
+      <c r="E1686" t="n">
+        <v>468</v>
+      </c>
+      <c r="F1686" t="n">
+        <v>468</v>
+      </c>
+      <c r="G1686" t="n">
+        <v>298449</v>
+      </c>
+      <c r="H1686" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1686" t="n">
+        <v>9</v>
+      </c>
+      <c r="J1686" t="n">
+        <v>17</v>
+      </c>
+      <c r="K1686" t="n">
+        <v>15</v>
+      </c>
+      <c r="L1686" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1686" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1686" t="n">
+        <v>38</v>
+      </c>
+      <c r="O1686" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1686" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1686" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1686" t="inlineStr"/>
+    </row>
+    <row r="1687">
+      <c r="A1687" s="2" t="n">
+        <v>45553.38541666666</v>
+      </c>
+      <c r="B1687" t="n">
+        <v>468.5499877929688</v>
+      </c>
+      <c r="C1687" t="n">
+        <v>470.8500061035156</v>
+      </c>
+      <c r="D1687" t="n">
+        <v>456.1000061035156</v>
+      </c>
+      <c r="E1687" t="n">
+        <v>463.5</v>
+      </c>
+      <c r="F1687" t="n">
+        <v>463.5</v>
+      </c>
+      <c r="G1687" t="n">
+        <v>0</v>
+      </c>
+      <c r="H1687" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1687" t="n">
+        <v>9</v>
+      </c>
+      <c r="J1687" t="n">
+        <v>18</v>
+      </c>
+      <c r="K1687" t="n">
+        <v>9</v>
+      </c>
+      <c r="L1687" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1687" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1687" t="n">
+        <v>38</v>
+      </c>
+      <c r="O1687" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1687" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1687" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1687" t="inlineStr"/>
+    </row>
+    <row r="1688">
+      <c r="A1688" s="2" t="n">
+        <v>45553.42708333334</v>
+      </c>
+      <c r="B1688" t="n">
+        <v>463.2000122070312</v>
+      </c>
+      <c r="C1688" t="n">
+        <v>470.1000061035156</v>
+      </c>
+      <c r="D1688" t="n">
+        <v>458.3999938964844</v>
+      </c>
+      <c r="E1688" t="n">
+        <v>470.1000061035156</v>
+      </c>
+      <c r="F1688" t="n">
+        <v>470.1000061035156</v>
+      </c>
+      <c r="G1688" t="n">
+        <v>338776</v>
+      </c>
+      <c r="H1688" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1688" t="n">
+        <v>9</v>
+      </c>
+      <c r="J1688" t="n">
+        <v>18</v>
+      </c>
+      <c r="K1688" t="n">
+        <v>10</v>
+      </c>
+      <c r="L1688" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1688" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1688" t="n">
+        <v>38</v>
+      </c>
+      <c r="O1688" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1688" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1688" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1688" t="inlineStr"/>
+    </row>
+    <row r="1689">
+      <c r="A1689" s="2" t="n">
+        <v>45553.46875</v>
+      </c>
+      <c r="B1689" t="n">
+        <v>470.1000061035156</v>
+      </c>
+      <c r="C1689" t="n">
+        <v>470.1000061035156</v>
+      </c>
+      <c r="D1689" t="n">
+        <v>459.3999938964844</v>
+      </c>
+      <c r="E1689" t="n">
+        <v>460.25</v>
+      </c>
+      <c r="F1689" t="n">
+        <v>460.25</v>
+      </c>
+      <c r="G1689" t="n">
+        <v>227241</v>
+      </c>
+      <c r="H1689" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1689" t="n">
+        <v>9</v>
+      </c>
+      <c r="J1689" t="n">
+        <v>18</v>
+      </c>
+      <c r="K1689" t="n">
+        <v>11</v>
+      </c>
+      <c r="L1689" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1689" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1689" t="n">
+        <v>38</v>
+      </c>
+      <c r="O1689" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1689" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1689" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1689" t="inlineStr"/>
+    </row>
+    <row r="1690">
+      <c r="A1690" s="2" t="n">
+        <v>45553.51041666666</v>
+      </c>
+      <c r="B1690" t="n">
+        <v>460.25</v>
+      </c>
+      <c r="C1690" t="n">
+        <v>462</v>
+      </c>
+      <c r="D1690" t="n">
+        <v>452</v>
+      </c>
+      <c r="E1690" t="n">
+        <v>452.3500061035156</v>
+      </c>
+      <c r="F1690" t="n">
+        <v>452.3500061035156</v>
+      </c>
+      <c r="G1690" t="n">
+        <v>217814</v>
+      </c>
+      <c r="H1690" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1690" t="n">
+        <v>9</v>
+      </c>
+      <c r="J1690" t="n">
+        <v>18</v>
+      </c>
+      <c r="K1690" t="n">
+        <v>12</v>
+      </c>
+      <c r="L1690" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1690" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1690" t="n">
+        <v>38</v>
+      </c>
+      <c r="O1690" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1690" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1690" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1690" t="inlineStr"/>
+    </row>
+    <row r="1691">
+      <c r="A1691" s="2" t="n">
+        <v>45553.55208333334</v>
+      </c>
+      <c r="B1691" t="n">
+        <v>452.25</v>
+      </c>
+      <c r="C1691" t="n">
+        <v>454</v>
+      </c>
+      <c r="D1691" t="n">
+        <v>442.7999877929688</v>
+      </c>
+      <c r="E1691" t="n">
+        <v>443.75</v>
+      </c>
+      <c r="F1691" t="n">
+        <v>443.75</v>
+      </c>
+      <c r="G1691" t="n">
+        <v>646710</v>
+      </c>
+      <c r="H1691" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1691" t="n">
+        <v>9</v>
+      </c>
+      <c r="J1691" t="n">
+        <v>18</v>
+      </c>
+      <c r="K1691" t="n">
+        <v>13</v>
+      </c>
+      <c r="L1691" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1691" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1691" t="n">
+        <v>38</v>
+      </c>
+      <c r="O1691" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1691" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1691" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1691" t="inlineStr"/>
+    </row>
+    <row r="1692">
+      <c r="A1692" s="2" t="n">
+        <v>45553.59375</v>
+      </c>
+      <c r="B1692" t="n">
+        <v>443.5</v>
+      </c>
+      <c r="C1692" t="n">
+        <v>448.7999877929688</v>
+      </c>
+      <c r="D1692" t="n">
+        <v>442.5</v>
+      </c>
+      <c r="E1692" t="n">
+        <v>447.2000122070312</v>
+      </c>
+      <c r="F1692" t="n">
+        <v>447.2000122070312</v>
+      </c>
+      <c r="G1692" t="n">
+        <v>314834</v>
+      </c>
+      <c r="H1692" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1692" t="n">
+        <v>9</v>
+      </c>
+      <c r="J1692" t="n">
+        <v>18</v>
+      </c>
+      <c r="K1692" t="n">
+        <v>14</v>
+      </c>
+      <c r="L1692" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1692" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1692" t="n">
+        <v>38</v>
+      </c>
+      <c r="O1692" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1692" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1692" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1692" t="inlineStr"/>
+    </row>
+    <row r="1693">
+      <c r="A1693" s="2" t="n">
+        <v>45553.63541666666</v>
+      </c>
+      <c r="B1693" t="n">
+        <v>447.4500122070312</v>
+      </c>
+      <c r="C1693" t="n">
+        <v>450.2999877929688</v>
+      </c>
+      <c r="D1693" t="n">
+        <v>446.1499938964844</v>
+      </c>
+      <c r="E1693" t="n">
+        <v>450</v>
+      </c>
+      <c r="F1693" t="n">
+        <v>450</v>
+      </c>
+      <c r="G1693" t="n">
+        <v>147832</v>
+      </c>
+      <c r="H1693" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1693" t="n">
+        <v>9</v>
+      </c>
+      <c r="J1693" t="n">
+        <v>18</v>
+      </c>
+      <c r="K1693" t="n">
+        <v>15</v>
+      </c>
+      <c r="L1693" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1693" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1693" t="n">
+        <v>38</v>
+      </c>
+      <c r="O1693" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1693" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1693" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1693" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/60m/ZAGGLE.NS.xlsx
+++ b/stock_historical_data/60m/ZAGGLE.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R1693"/>
+  <dimension ref="A1:R1700"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -94549,7 +94549,9 @@
       <c r="Q1680" t="n">
         <v>0</v>
       </c>
-      <c r="R1680" t="inlineStr"/>
+      <c r="R1680" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1681">
       <c r="A1681" s="2" t="n">
@@ -94603,7 +94605,9 @@
       <c r="Q1681" t="n">
         <v>0</v>
       </c>
-      <c r="R1681" t="inlineStr"/>
+      <c r="R1681" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1682">
       <c r="A1682" s="2" t="n">
@@ -94657,7 +94661,9 @@
       <c r="Q1682" t="n">
         <v>0</v>
       </c>
-      <c r="R1682" t="inlineStr"/>
+      <c r="R1682" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1683">
       <c r="A1683" s="2" t="n">
@@ -94711,7 +94717,9 @@
       <c r="Q1683" t="n">
         <v>0</v>
       </c>
-      <c r="R1683" t="inlineStr"/>
+      <c r="R1683" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1684">
       <c r="A1684" s="2" t="n">
@@ -94757,7 +94765,7 @@
         <v>38</v>
       </c>
       <c r="O1684" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P1684" t="n">
         <v>0</v>
@@ -94765,7 +94773,9 @@
       <c r="Q1684" t="n">
         <v>0</v>
       </c>
-      <c r="R1684" t="inlineStr"/>
+      <c r="R1684" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1685">
       <c r="A1685" s="2" t="n">
@@ -94819,7 +94829,9 @@
       <c r="Q1685" t="n">
         <v>0</v>
       </c>
-      <c r="R1685" t="inlineStr"/>
+      <c r="R1685" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1686">
       <c r="A1686" s="2" t="n">
@@ -94873,7 +94885,9 @@
       <c r="Q1686" t="n">
         <v>0</v>
       </c>
-      <c r="R1686" t="inlineStr"/>
+      <c r="R1686" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1687">
       <c r="A1687" s="2" t="n">
@@ -94927,7 +94941,9 @@
       <c r="Q1687" t="n">
         <v>0</v>
       </c>
-      <c r="R1687" t="inlineStr"/>
+      <c r="R1687" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1688">
       <c r="A1688" s="2" t="n">
@@ -94981,7 +94997,9 @@
       <c r="Q1688" t="n">
         <v>0</v>
       </c>
-      <c r="R1688" t="inlineStr"/>
+      <c r="R1688" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1689">
       <c r="A1689" s="2" t="n">
@@ -95035,7 +95053,9 @@
       <c r="Q1689" t="n">
         <v>0</v>
       </c>
-      <c r="R1689" t="inlineStr"/>
+      <c r="R1689" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1690">
       <c r="A1690" s="2" t="n">
@@ -95089,7 +95109,9 @@
       <c r="Q1690" t="n">
         <v>0</v>
       </c>
-      <c r="R1690" t="inlineStr"/>
+      <c r="R1690" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1691">
       <c r="A1691" s="2" t="n">
@@ -95143,7 +95165,9 @@
       <c r="Q1691" t="n">
         <v>0</v>
       </c>
-      <c r="R1691" t="inlineStr"/>
+      <c r="R1691" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1692">
       <c r="A1692" s="2" t="n">
@@ -95197,7 +95221,9 @@
       <c r="Q1692" t="n">
         <v>0</v>
       </c>
-      <c r="R1692" t="inlineStr"/>
+      <c r="R1692" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1693">
       <c r="A1693" s="2" t="n">
@@ -95251,7 +95277,387 @@
       <c r="Q1693" t="n">
         <v>0</v>
       </c>
-      <c r="R1693" t="inlineStr"/>
+      <c r="R1693" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1694">
+      <c r="A1694" s="2" t="n">
+        <v>45554.38541666666</v>
+      </c>
+      <c r="B1694" t="n">
+        <v>451</v>
+      </c>
+      <c r="C1694" t="n">
+        <v>454.7000122070312</v>
+      </c>
+      <c r="D1694" t="n">
+        <v>426</v>
+      </c>
+      <c r="E1694" t="n">
+        <v>426</v>
+      </c>
+      <c r="F1694" t="n">
+        <v>426</v>
+      </c>
+      <c r="G1694" t="n">
+        <v>781133</v>
+      </c>
+      <c r="H1694" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1694" t="n">
+        <v>9</v>
+      </c>
+      <c r="J1694" t="n">
+        <v>19</v>
+      </c>
+      <c r="K1694" t="n">
+        <v>9</v>
+      </c>
+      <c r="L1694" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1694" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1694" t="n">
+        <v>38</v>
+      </c>
+      <c r="O1694" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1694" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1694" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1694" t="inlineStr"/>
+    </row>
+    <row r="1695">
+      <c r="A1695" s="2" t="n">
+        <v>45554.42708333334</v>
+      </c>
+      <c r="B1695" t="n">
+        <v>426.8500061035156</v>
+      </c>
+      <c r="C1695" t="n">
+        <v>435.6499938964844</v>
+      </c>
+      <c r="D1695" t="n">
+        <v>426.8500061035156</v>
+      </c>
+      <c r="E1695" t="n">
+        <v>428.25</v>
+      </c>
+      <c r="F1695" t="n">
+        <v>428.25</v>
+      </c>
+      <c r="G1695" t="n">
+        <v>302995</v>
+      </c>
+      <c r="H1695" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1695" t="n">
+        <v>9</v>
+      </c>
+      <c r="J1695" t="n">
+        <v>19</v>
+      </c>
+      <c r="K1695" t="n">
+        <v>10</v>
+      </c>
+      <c r="L1695" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1695" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1695" t="n">
+        <v>38</v>
+      </c>
+      <c r="O1695" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1695" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1695" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1695" t="inlineStr"/>
+    </row>
+    <row r="1696">
+      <c r="A1696" s="2" t="n">
+        <v>45554.46875</v>
+      </c>
+      <c r="B1696" t="n">
+        <v>428.7999877929688</v>
+      </c>
+      <c r="C1696" t="n">
+        <v>433.2999877929688</v>
+      </c>
+      <c r="D1696" t="n">
+        <v>420.25</v>
+      </c>
+      <c r="E1696" t="n">
+        <v>432.4500122070312</v>
+      </c>
+      <c r="F1696" t="n">
+        <v>432.4500122070312</v>
+      </c>
+      <c r="G1696" t="n">
+        <v>316751</v>
+      </c>
+      <c r="H1696" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1696" t="n">
+        <v>9</v>
+      </c>
+      <c r="J1696" t="n">
+        <v>19</v>
+      </c>
+      <c r="K1696" t="n">
+        <v>11</v>
+      </c>
+      <c r="L1696" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1696" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1696" t="n">
+        <v>38</v>
+      </c>
+      <c r="O1696" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1696" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1696" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1696" t="inlineStr"/>
+    </row>
+    <row r="1697">
+      <c r="A1697" s="2" t="n">
+        <v>45554.51041666666</v>
+      </c>
+      <c r="B1697" t="n">
+        <v>432</v>
+      </c>
+      <c r="C1697" t="n">
+        <v>438</v>
+      </c>
+      <c r="D1697" t="n">
+        <v>432</v>
+      </c>
+      <c r="E1697" t="n">
+        <v>433.3999938964844</v>
+      </c>
+      <c r="F1697" t="n">
+        <v>433.3999938964844</v>
+      </c>
+      <c r="G1697" t="n">
+        <v>158458</v>
+      </c>
+      <c r="H1697" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1697" t="n">
+        <v>9</v>
+      </c>
+      <c r="J1697" t="n">
+        <v>19</v>
+      </c>
+      <c r="K1697" t="n">
+        <v>12</v>
+      </c>
+      <c r="L1697" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1697" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1697" t="n">
+        <v>38</v>
+      </c>
+      <c r="O1697" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1697" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1697" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1697" t="inlineStr"/>
+    </row>
+    <row r="1698">
+      <c r="A1698" s="2" t="n">
+        <v>45554.55208333334</v>
+      </c>
+      <c r="B1698" t="n">
+        <v>433.3999938964844</v>
+      </c>
+      <c r="C1698" t="n">
+        <v>434.6000061035156</v>
+      </c>
+      <c r="D1698" t="n">
+        <v>430</v>
+      </c>
+      <c r="E1698" t="n">
+        <v>432.2999877929688</v>
+      </c>
+      <c r="F1698" t="n">
+        <v>432.2999877929688</v>
+      </c>
+      <c r="G1698" t="n">
+        <v>64244</v>
+      </c>
+      <c r="H1698" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1698" t="n">
+        <v>9</v>
+      </c>
+      <c r="J1698" t="n">
+        <v>19</v>
+      </c>
+      <c r="K1698" t="n">
+        <v>13</v>
+      </c>
+      <c r="L1698" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1698" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1698" t="n">
+        <v>38</v>
+      </c>
+      <c r="O1698" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1698" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1698" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1698" t="inlineStr"/>
+    </row>
+    <row r="1699">
+      <c r="A1699" s="2" t="n">
+        <v>45554.59375</v>
+      </c>
+      <c r="B1699" t="n">
+        <v>431.9500122070312</v>
+      </c>
+      <c r="C1699" t="n">
+        <v>438.2999877929688</v>
+      </c>
+      <c r="D1699" t="n">
+        <v>429.1499938964844</v>
+      </c>
+      <c r="E1699" t="n">
+        <v>438.2999877929688</v>
+      </c>
+      <c r="F1699" t="n">
+        <v>438.2999877929688</v>
+      </c>
+      <c r="G1699" t="n">
+        <v>129687</v>
+      </c>
+      <c r="H1699" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1699" t="n">
+        <v>9</v>
+      </c>
+      <c r="J1699" t="n">
+        <v>19</v>
+      </c>
+      <c r="K1699" t="n">
+        <v>14</v>
+      </c>
+      <c r="L1699" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1699" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1699" t="n">
+        <v>38</v>
+      </c>
+      <c r="O1699" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1699" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1699" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1699" t="inlineStr"/>
+    </row>
+    <row r="1700">
+      <c r="A1700" s="2" t="n">
+        <v>45554.63541666666</v>
+      </c>
+      <c r="B1700" t="n">
+        <v>436.8999938964844</v>
+      </c>
+      <c r="C1700" t="n">
+        <v>438.6499938964844</v>
+      </c>
+      <c r="D1700" t="n">
+        <v>435.1499938964844</v>
+      </c>
+      <c r="E1700" t="n">
+        <v>435.7999877929688</v>
+      </c>
+      <c r="F1700" t="n">
+        <v>435.7999877929688</v>
+      </c>
+      <c r="G1700" t="n">
+        <v>90968</v>
+      </c>
+      <c r="H1700" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1700" t="n">
+        <v>9</v>
+      </c>
+      <c r="J1700" t="n">
+        <v>19</v>
+      </c>
+      <c r="K1700" t="n">
+        <v>15</v>
+      </c>
+      <c r="L1700" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1700" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1700" t="n">
+        <v>38</v>
+      </c>
+      <c r="O1700" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1700" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1700" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1700" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/60m/ZAGGLE.NS.xlsx
+++ b/stock_historical_data/60m/ZAGGLE.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R1700"/>
+  <dimension ref="A1:R1707"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -95333,7 +95333,9 @@
       <c r="Q1694" t="n">
         <v>0</v>
       </c>
-      <c r="R1694" t="inlineStr"/>
+      <c r="R1694" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1695">
       <c r="A1695" s="2" t="n">
@@ -95387,7 +95389,9 @@
       <c r="Q1695" t="n">
         <v>0</v>
       </c>
-      <c r="R1695" t="inlineStr"/>
+      <c r="R1695" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1696">
       <c r="A1696" s="2" t="n">
@@ -95433,7 +95437,7 @@
         <v>38</v>
       </c>
       <c r="O1696" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="P1696" t="n">
         <v>0</v>
@@ -95441,7 +95445,9 @@
       <c r="Q1696" t="n">
         <v>0</v>
       </c>
-      <c r="R1696" t="inlineStr"/>
+      <c r="R1696" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1697">
       <c r="A1697" s="2" t="n">
@@ -95495,7 +95501,9 @@
       <c r="Q1697" t="n">
         <v>0</v>
       </c>
-      <c r="R1697" t="inlineStr"/>
+      <c r="R1697" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1698">
       <c r="A1698" s="2" t="n">
@@ -95549,7 +95557,9 @@
       <c r="Q1698" t="n">
         <v>0</v>
       </c>
-      <c r="R1698" t="inlineStr"/>
+      <c r="R1698" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1699">
       <c r="A1699" s="2" t="n">
@@ -95603,7 +95613,9 @@
       <c r="Q1699" t="n">
         <v>0</v>
       </c>
-      <c r="R1699" t="inlineStr"/>
+      <c r="R1699" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1700">
       <c r="A1700" s="2" t="n">
@@ -95657,7 +95669,387 @@
       <c r="Q1700" t="n">
         <v>0</v>
       </c>
-      <c r="R1700" t="inlineStr"/>
+      <c r="R1700" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1701">
+      <c r="A1701" s="2" t="n">
+        <v>45555.38541666666</v>
+      </c>
+      <c r="B1701" t="n">
+        <v>439.3999938964844</v>
+      </c>
+      <c r="C1701" t="n">
+        <v>444.75</v>
+      </c>
+      <c r="D1701" t="n">
+        <v>430.8500061035156</v>
+      </c>
+      <c r="E1701" t="n">
+        <v>432.8999938964844</v>
+      </c>
+      <c r="F1701" t="n">
+        <v>432.8999938964844</v>
+      </c>
+      <c r="G1701" t="n">
+        <v>0</v>
+      </c>
+      <c r="H1701" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1701" t="n">
+        <v>9</v>
+      </c>
+      <c r="J1701" t="n">
+        <v>20</v>
+      </c>
+      <c r="K1701" t="n">
+        <v>9</v>
+      </c>
+      <c r="L1701" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1701" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1701" t="n">
+        <v>38</v>
+      </c>
+      <c r="O1701" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1701" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1701" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1701" t="inlineStr"/>
+    </row>
+    <row r="1702">
+      <c r="A1702" s="2" t="n">
+        <v>45555.42708333334</v>
+      </c>
+      <c r="B1702" t="n">
+        <v>432.8999938964844</v>
+      </c>
+      <c r="C1702" t="n">
+        <v>443.9500122070312</v>
+      </c>
+      <c r="D1702" t="n">
+        <v>432.8999938964844</v>
+      </c>
+      <c r="E1702" t="n">
+        <v>442.8999938964844</v>
+      </c>
+      <c r="F1702" t="n">
+        <v>442.8999938964844</v>
+      </c>
+      <c r="G1702" t="n">
+        <v>192618</v>
+      </c>
+      <c r="H1702" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1702" t="n">
+        <v>9</v>
+      </c>
+      <c r="J1702" t="n">
+        <v>20</v>
+      </c>
+      <c r="K1702" t="n">
+        <v>10</v>
+      </c>
+      <c r="L1702" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1702" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1702" t="n">
+        <v>38</v>
+      </c>
+      <c r="O1702" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1702" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1702" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1702" t="inlineStr"/>
+    </row>
+    <row r="1703">
+      <c r="A1703" s="2" t="n">
+        <v>45555.46875</v>
+      </c>
+      <c r="B1703" t="n">
+        <v>442.8999938964844</v>
+      </c>
+      <c r="C1703" t="n">
+        <v>443</v>
+      </c>
+      <c r="D1703" t="n">
+        <v>438.3999938964844</v>
+      </c>
+      <c r="E1703" t="n">
+        <v>440.3500061035156</v>
+      </c>
+      <c r="F1703" t="n">
+        <v>440.3500061035156</v>
+      </c>
+      <c r="G1703" t="n">
+        <v>65728</v>
+      </c>
+      <c r="H1703" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1703" t="n">
+        <v>9</v>
+      </c>
+      <c r="J1703" t="n">
+        <v>20</v>
+      </c>
+      <c r="K1703" t="n">
+        <v>11</v>
+      </c>
+      <c r="L1703" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1703" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1703" t="n">
+        <v>38</v>
+      </c>
+      <c r="O1703" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1703" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1703" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1703" t="inlineStr"/>
+    </row>
+    <row r="1704">
+      <c r="A1704" s="2" t="n">
+        <v>45555.51041666666</v>
+      </c>
+      <c r="B1704" t="n">
+        <v>440.2999877929688</v>
+      </c>
+      <c r="C1704" t="n">
+        <v>440.2999877929688</v>
+      </c>
+      <c r="D1704" t="n">
+        <v>434.9500122070312</v>
+      </c>
+      <c r="E1704" t="n">
+        <v>437.1499938964844</v>
+      </c>
+      <c r="F1704" t="n">
+        <v>437.1499938964844</v>
+      </c>
+      <c r="G1704" t="n">
+        <v>52120</v>
+      </c>
+      <c r="H1704" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1704" t="n">
+        <v>9</v>
+      </c>
+      <c r="J1704" t="n">
+        <v>20</v>
+      </c>
+      <c r="K1704" t="n">
+        <v>12</v>
+      </c>
+      <c r="L1704" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1704" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1704" t="n">
+        <v>38</v>
+      </c>
+      <c r="O1704" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1704" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1704" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1704" t="inlineStr"/>
+    </row>
+    <row r="1705">
+      <c r="A1705" s="2" t="n">
+        <v>45555.55208333334</v>
+      </c>
+      <c r="B1705" t="n">
+        <v>437.1499938964844</v>
+      </c>
+      <c r="C1705" t="n">
+        <v>437.5499877929688</v>
+      </c>
+      <c r="D1705" t="n">
+        <v>432</v>
+      </c>
+      <c r="E1705" t="n">
+        <v>434.75</v>
+      </c>
+      <c r="F1705" t="n">
+        <v>434.75</v>
+      </c>
+      <c r="G1705" t="n">
+        <v>64304</v>
+      </c>
+      <c r="H1705" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1705" t="n">
+        <v>9</v>
+      </c>
+      <c r="J1705" t="n">
+        <v>20</v>
+      </c>
+      <c r="K1705" t="n">
+        <v>13</v>
+      </c>
+      <c r="L1705" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1705" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1705" t="n">
+        <v>38</v>
+      </c>
+      <c r="O1705" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1705" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1705" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1705" t="inlineStr"/>
+    </row>
+    <row r="1706">
+      <c r="A1706" s="2" t="n">
+        <v>45555.59375</v>
+      </c>
+      <c r="B1706" t="n">
+        <v>435.1499938964844</v>
+      </c>
+      <c r="C1706" t="n">
+        <v>443.8500061035156</v>
+      </c>
+      <c r="D1706" t="n">
+        <v>434.7999877929688</v>
+      </c>
+      <c r="E1706" t="n">
+        <v>443</v>
+      </c>
+      <c r="F1706" t="n">
+        <v>443</v>
+      </c>
+      <c r="G1706" t="n">
+        <v>144400</v>
+      </c>
+      <c r="H1706" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1706" t="n">
+        <v>9</v>
+      </c>
+      <c r="J1706" t="n">
+        <v>20</v>
+      </c>
+      <c r="K1706" t="n">
+        <v>14</v>
+      </c>
+      <c r="L1706" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1706" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1706" t="n">
+        <v>38</v>
+      </c>
+      <c r="O1706" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1706" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1706" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1706" t="inlineStr"/>
+    </row>
+    <row r="1707">
+      <c r="A1707" s="2" t="n">
+        <v>45555.63541666666</v>
+      </c>
+      <c r="B1707" t="n">
+        <v>443.25</v>
+      </c>
+      <c r="C1707" t="n">
+        <v>444.7999877929688</v>
+      </c>
+      <c r="D1707" t="n">
+        <v>442.0499877929688</v>
+      </c>
+      <c r="E1707" t="n">
+        <v>444.7999877929688</v>
+      </c>
+      <c r="F1707" t="n">
+        <v>444.7999877929688</v>
+      </c>
+      <c r="G1707" t="n">
+        <v>83252</v>
+      </c>
+      <c r="H1707" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1707" t="n">
+        <v>9</v>
+      </c>
+      <c r="J1707" t="n">
+        <v>20</v>
+      </c>
+      <c r="K1707" t="n">
+        <v>15</v>
+      </c>
+      <c r="L1707" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1707" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1707" t="n">
+        <v>38</v>
+      </c>
+      <c r="O1707" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1707" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1707" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1707" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/60m/ZAGGLE.NS.xlsx
+++ b/stock_historical_data/60m/ZAGGLE.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R1707"/>
+  <dimension ref="A1:R1714"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -95725,7 +95725,9 @@
       <c r="Q1701" t="n">
         <v>0</v>
       </c>
-      <c r="R1701" t="inlineStr"/>
+      <c r="R1701" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1702">
       <c r="A1702" s="2" t="n">
@@ -95779,7 +95781,9 @@
       <c r="Q1702" t="n">
         <v>0</v>
       </c>
-      <c r="R1702" t="inlineStr"/>
+      <c r="R1702" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1703">
       <c r="A1703" s="2" t="n">
@@ -95833,7 +95837,9 @@
       <c r="Q1703" t="n">
         <v>0</v>
       </c>
-      <c r="R1703" t="inlineStr"/>
+      <c r="R1703" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1704">
       <c r="A1704" s="2" t="n">
@@ -95887,7 +95893,9 @@
       <c r="Q1704" t="n">
         <v>0</v>
       </c>
-      <c r="R1704" t="inlineStr"/>
+      <c r="R1704" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1705">
       <c r="A1705" s="2" t="n">
@@ -95941,7 +95949,9 @@
       <c r="Q1705" t="n">
         <v>0</v>
       </c>
-      <c r="R1705" t="inlineStr"/>
+      <c r="R1705" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1706">
       <c r="A1706" s="2" t="n">
@@ -95995,7 +96005,9 @@
       <c r="Q1706" t="n">
         <v>0</v>
       </c>
-      <c r="R1706" t="inlineStr"/>
+      <c r="R1706" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1707">
       <c r="A1707" s="2" t="n">
@@ -96049,7 +96061,387 @@
       <c r="Q1707" t="n">
         <v>0</v>
       </c>
-      <c r="R1707" t="inlineStr"/>
+      <c r="R1707" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1708">
+      <c r="A1708" s="2" t="n">
+        <v>45558.38541666666</v>
+      </c>
+      <c r="B1708" t="n">
+        <v>446.5</v>
+      </c>
+      <c r="C1708" t="n">
+        <v>453.1499938964844</v>
+      </c>
+      <c r="D1708" t="n">
+        <v>440.1000061035156</v>
+      </c>
+      <c r="E1708" t="n">
+        <v>442.2000122070312</v>
+      </c>
+      <c r="F1708" t="n">
+        <v>442.2000122070312</v>
+      </c>
+      <c r="G1708" t="n">
+        <v>0</v>
+      </c>
+      <c r="H1708" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1708" t="n">
+        <v>9</v>
+      </c>
+      <c r="J1708" t="n">
+        <v>23</v>
+      </c>
+      <c r="K1708" t="n">
+        <v>9</v>
+      </c>
+      <c r="L1708" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1708" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1708" t="n">
+        <v>39</v>
+      </c>
+      <c r="O1708" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1708" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1708" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1708" t="inlineStr"/>
+    </row>
+    <row r="1709">
+      <c r="A1709" s="2" t="n">
+        <v>45558.42708333334</v>
+      </c>
+      <c r="B1709" t="n">
+        <v>442.2000122070312</v>
+      </c>
+      <c r="C1709" t="n">
+        <v>448</v>
+      </c>
+      <c r="D1709" t="n">
+        <v>439.7000122070312</v>
+      </c>
+      <c r="E1709" t="n">
+        <v>446.75</v>
+      </c>
+      <c r="F1709" t="n">
+        <v>446.75</v>
+      </c>
+      <c r="G1709" t="n">
+        <v>114121</v>
+      </c>
+      <c r="H1709" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1709" t="n">
+        <v>9</v>
+      </c>
+      <c r="J1709" t="n">
+        <v>23</v>
+      </c>
+      <c r="K1709" t="n">
+        <v>10</v>
+      </c>
+      <c r="L1709" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1709" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1709" t="n">
+        <v>39</v>
+      </c>
+      <c r="O1709" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1709" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1709" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1709" t="inlineStr"/>
+    </row>
+    <row r="1710">
+      <c r="A1710" s="2" t="n">
+        <v>45558.46875</v>
+      </c>
+      <c r="B1710" t="n">
+        <v>446.6000061035156</v>
+      </c>
+      <c r="C1710" t="n">
+        <v>451.8999938964844</v>
+      </c>
+      <c r="D1710" t="n">
+        <v>443.0499877929688</v>
+      </c>
+      <c r="E1710" t="n">
+        <v>444.4500122070312</v>
+      </c>
+      <c r="F1710" t="n">
+        <v>444.4500122070312</v>
+      </c>
+      <c r="G1710" t="n">
+        <v>119571</v>
+      </c>
+      <c r="H1710" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1710" t="n">
+        <v>9</v>
+      </c>
+      <c r="J1710" t="n">
+        <v>23</v>
+      </c>
+      <c r="K1710" t="n">
+        <v>11</v>
+      </c>
+      <c r="L1710" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1710" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1710" t="n">
+        <v>39</v>
+      </c>
+      <c r="O1710" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1710" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1710" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1710" t="inlineStr"/>
+    </row>
+    <row r="1711">
+      <c r="A1711" s="2" t="n">
+        <v>45558.51041666666</v>
+      </c>
+      <c r="B1711" t="n">
+        <v>444.9500122070312</v>
+      </c>
+      <c r="C1711" t="n">
+        <v>445.2999877929688</v>
+      </c>
+      <c r="D1711" t="n">
+        <v>441.1000061035156</v>
+      </c>
+      <c r="E1711" t="n">
+        <v>441.5499877929688</v>
+      </c>
+      <c r="F1711" t="n">
+        <v>441.5499877929688</v>
+      </c>
+      <c r="G1711" t="n">
+        <v>59631</v>
+      </c>
+      <c r="H1711" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1711" t="n">
+        <v>9</v>
+      </c>
+      <c r="J1711" t="n">
+        <v>23</v>
+      </c>
+      <c r="K1711" t="n">
+        <v>12</v>
+      </c>
+      <c r="L1711" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1711" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1711" t="n">
+        <v>39</v>
+      </c>
+      <c r="O1711" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1711" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1711" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1711" t="inlineStr"/>
+    </row>
+    <row r="1712">
+      <c r="A1712" s="2" t="n">
+        <v>45558.55208333334</v>
+      </c>
+      <c r="B1712" t="n">
+        <v>442.1000061035156</v>
+      </c>
+      <c r="C1712" t="n">
+        <v>444.1000061035156</v>
+      </c>
+      <c r="D1712" t="n">
+        <v>441.3999938964844</v>
+      </c>
+      <c r="E1712" t="n">
+        <v>443.8999938964844</v>
+      </c>
+      <c r="F1712" t="n">
+        <v>443.8999938964844</v>
+      </c>
+      <c r="G1712" t="n">
+        <v>29168</v>
+      </c>
+      <c r="H1712" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1712" t="n">
+        <v>9</v>
+      </c>
+      <c r="J1712" t="n">
+        <v>23</v>
+      </c>
+      <c r="K1712" t="n">
+        <v>13</v>
+      </c>
+      <c r="L1712" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1712" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1712" t="n">
+        <v>39</v>
+      </c>
+      <c r="O1712" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1712" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1712" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1712" t="inlineStr"/>
+    </row>
+    <row r="1713">
+      <c r="A1713" s="2" t="n">
+        <v>45558.59375</v>
+      </c>
+      <c r="B1713" t="n">
+        <v>443.3999938964844</v>
+      </c>
+      <c r="C1713" t="n">
+        <v>448.7000122070312</v>
+      </c>
+      <c r="D1713" t="n">
+        <v>441.6499938964844</v>
+      </c>
+      <c r="E1713" t="n">
+        <v>444.7999877929688</v>
+      </c>
+      <c r="F1713" t="n">
+        <v>444.7999877929688</v>
+      </c>
+      <c r="G1713" t="n">
+        <v>206416</v>
+      </c>
+      <c r="H1713" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1713" t="n">
+        <v>9</v>
+      </c>
+      <c r="J1713" t="n">
+        <v>23</v>
+      </c>
+      <c r="K1713" t="n">
+        <v>14</v>
+      </c>
+      <c r="L1713" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1713" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1713" t="n">
+        <v>39</v>
+      </c>
+      <c r="O1713" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1713" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1713" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1713" t="inlineStr"/>
+    </row>
+    <row r="1714">
+      <c r="A1714" s="2" t="n">
+        <v>45558.63541666666</v>
+      </c>
+      <c r="B1714" t="n">
+        <v>444.7999877929688</v>
+      </c>
+      <c r="C1714" t="n">
+        <v>445.8500061035156</v>
+      </c>
+      <c r="D1714" t="n">
+        <v>443.4500122070312</v>
+      </c>
+      <c r="E1714" t="n">
+        <v>444.8500061035156</v>
+      </c>
+      <c r="F1714" t="n">
+        <v>444.8500061035156</v>
+      </c>
+      <c r="G1714" t="n">
+        <v>60406</v>
+      </c>
+      <c r="H1714" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1714" t="n">
+        <v>9</v>
+      </c>
+      <c r="J1714" t="n">
+        <v>23</v>
+      </c>
+      <c r="K1714" t="n">
+        <v>15</v>
+      </c>
+      <c r="L1714" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1714" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1714" t="n">
+        <v>39</v>
+      </c>
+      <c r="O1714" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1714" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1714" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1714" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/60m/ZAGGLE.NS.xlsx
+++ b/stock_historical_data/60m/ZAGGLE.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R1714"/>
+  <dimension ref="A1:R1721"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -96117,7 +96117,9 @@
       <c r="Q1708" t="n">
         <v>0</v>
       </c>
-      <c r="R1708" t="inlineStr"/>
+      <c r="R1708" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1709">
       <c r="A1709" s="2" t="n">
@@ -96171,7 +96173,9 @@
       <c r="Q1709" t="n">
         <v>0</v>
       </c>
-      <c r="R1709" t="inlineStr"/>
+      <c r="R1709" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1710">
       <c r="A1710" s="2" t="n">
@@ -96225,7 +96229,9 @@
       <c r="Q1710" t="n">
         <v>0</v>
       </c>
-      <c r="R1710" t="inlineStr"/>
+      <c r="R1710" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1711">
       <c r="A1711" s="2" t="n">
@@ -96279,7 +96285,9 @@
       <c r="Q1711" t="n">
         <v>0</v>
       </c>
-      <c r="R1711" t="inlineStr"/>
+      <c r="R1711" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1712">
       <c r="A1712" s="2" t="n">
@@ -96333,7 +96341,9 @@
       <c r="Q1712" t="n">
         <v>0</v>
       </c>
-      <c r="R1712" t="inlineStr"/>
+      <c r="R1712" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1713">
       <c r="A1713" s="2" t="n">
@@ -96387,7 +96397,9 @@
       <c r="Q1713" t="n">
         <v>0</v>
       </c>
-      <c r="R1713" t="inlineStr"/>
+      <c r="R1713" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1714">
       <c r="A1714" s="2" t="n">
@@ -96441,7 +96453,387 @@
       <c r="Q1714" t="n">
         <v>0</v>
       </c>
-      <c r="R1714" t="inlineStr"/>
+      <c r="R1714" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1715">
+      <c r="A1715" s="2" t="n">
+        <v>45559.38541666666</v>
+      </c>
+      <c r="B1715" t="n">
+        <v>445</v>
+      </c>
+      <c r="C1715" t="n">
+        <v>455.2000122070312</v>
+      </c>
+      <c r="D1715" t="n">
+        <v>442.0499877929688</v>
+      </c>
+      <c r="E1715" t="n">
+        <v>448.3999938964844</v>
+      </c>
+      <c r="F1715" t="n">
+        <v>448.3999938964844</v>
+      </c>
+      <c r="G1715" t="n">
+        <v>0</v>
+      </c>
+      <c r="H1715" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1715" t="n">
+        <v>9</v>
+      </c>
+      <c r="J1715" t="n">
+        <v>24</v>
+      </c>
+      <c r="K1715" t="n">
+        <v>9</v>
+      </c>
+      <c r="L1715" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1715" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1715" t="n">
+        <v>39</v>
+      </c>
+      <c r="O1715" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1715" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1715" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1715" t="inlineStr"/>
+    </row>
+    <row r="1716">
+      <c r="A1716" s="2" t="n">
+        <v>45559.42708333334</v>
+      </c>
+      <c r="B1716" t="n">
+        <v>449.2000122070312</v>
+      </c>
+      <c r="C1716" t="n">
+        <v>454</v>
+      </c>
+      <c r="D1716" t="n">
+        <v>445.6499938964844</v>
+      </c>
+      <c r="E1716" t="n">
+        <v>452.5</v>
+      </c>
+      <c r="F1716" t="n">
+        <v>452.5</v>
+      </c>
+      <c r="G1716" t="n">
+        <v>153146</v>
+      </c>
+      <c r="H1716" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1716" t="n">
+        <v>9</v>
+      </c>
+      <c r="J1716" t="n">
+        <v>24</v>
+      </c>
+      <c r="K1716" t="n">
+        <v>10</v>
+      </c>
+      <c r="L1716" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1716" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1716" t="n">
+        <v>39</v>
+      </c>
+      <c r="O1716" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1716" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1716" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1716" t="inlineStr"/>
+    </row>
+    <row r="1717">
+      <c r="A1717" s="2" t="n">
+        <v>45559.46875</v>
+      </c>
+      <c r="B1717" t="n">
+        <v>452.3500061035156</v>
+      </c>
+      <c r="C1717" t="n">
+        <v>460.2999877929688</v>
+      </c>
+      <c r="D1717" t="n">
+        <v>448.1000061035156</v>
+      </c>
+      <c r="E1717" t="n">
+        <v>459.8999938964844</v>
+      </c>
+      <c r="F1717" t="n">
+        <v>459.8999938964844</v>
+      </c>
+      <c r="G1717" t="n">
+        <v>280740</v>
+      </c>
+      <c r="H1717" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1717" t="n">
+        <v>9</v>
+      </c>
+      <c r="J1717" t="n">
+        <v>24</v>
+      </c>
+      <c r="K1717" t="n">
+        <v>11</v>
+      </c>
+      <c r="L1717" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1717" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1717" t="n">
+        <v>39</v>
+      </c>
+      <c r="O1717" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1717" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1717" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1717" t="inlineStr"/>
+    </row>
+    <row r="1718">
+      <c r="A1718" s="2" t="n">
+        <v>45559.51041666666</v>
+      </c>
+      <c r="B1718" t="n">
+        <v>459.75</v>
+      </c>
+      <c r="C1718" t="n">
+        <v>461.8999938964844</v>
+      </c>
+      <c r="D1718" t="n">
+        <v>444.5</v>
+      </c>
+      <c r="E1718" t="n">
+        <v>445</v>
+      </c>
+      <c r="F1718" t="n">
+        <v>445</v>
+      </c>
+      <c r="G1718" t="n">
+        <v>361007</v>
+      </c>
+      <c r="H1718" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1718" t="n">
+        <v>9</v>
+      </c>
+      <c r="J1718" t="n">
+        <v>24</v>
+      </c>
+      <c r="K1718" t="n">
+        <v>12</v>
+      </c>
+      <c r="L1718" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1718" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1718" t="n">
+        <v>39</v>
+      </c>
+      <c r="O1718" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1718" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1718" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1718" t="inlineStr"/>
+    </row>
+    <row r="1719">
+      <c r="A1719" s="2" t="n">
+        <v>45559.55208333334</v>
+      </c>
+      <c r="B1719" t="n">
+        <v>445</v>
+      </c>
+      <c r="C1719" t="n">
+        <v>448.7999877929688</v>
+      </c>
+      <c r="D1719" t="n">
+        <v>442.6499938964844</v>
+      </c>
+      <c r="E1719" t="n">
+        <v>445</v>
+      </c>
+      <c r="F1719" t="n">
+        <v>445</v>
+      </c>
+      <c r="G1719" t="n">
+        <v>109454</v>
+      </c>
+      <c r="H1719" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1719" t="n">
+        <v>9</v>
+      </c>
+      <c r="J1719" t="n">
+        <v>24</v>
+      </c>
+      <c r="K1719" t="n">
+        <v>13</v>
+      </c>
+      <c r="L1719" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1719" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1719" t="n">
+        <v>39</v>
+      </c>
+      <c r="O1719" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1719" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1719" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1719" t="inlineStr"/>
+    </row>
+    <row r="1720">
+      <c r="A1720" s="2" t="n">
+        <v>45559.59375</v>
+      </c>
+      <c r="B1720" t="n">
+        <v>445.5</v>
+      </c>
+      <c r="C1720" t="n">
+        <v>447</v>
+      </c>
+      <c r="D1720" t="n">
+        <v>443</v>
+      </c>
+      <c r="E1720" t="n">
+        <v>444.8999938964844</v>
+      </c>
+      <c r="F1720" t="n">
+        <v>444.8999938964844</v>
+      </c>
+      <c r="G1720" t="n">
+        <v>123258</v>
+      </c>
+      <c r="H1720" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1720" t="n">
+        <v>9</v>
+      </c>
+      <c r="J1720" t="n">
+        <v>24</v>
+      </c>
+      <c r="K1720" t="n">
+        <v>14</v>
+      </c>
+      <c r="L1720" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1720" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1720" t="n">
+        <v>39</v>
+      </c>
+      <c r="O1720" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1720" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1720" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1720" t="inlineStr"/>
+    </row>
+    <row r="1721">
+      <c r="A1721" s="2" t="n">
+        <v>45559.63541666666</v>
+      </c>
+      <c r="B1721" t="n">
+        <v>445</v>
+      </c>
+      <c r="C1721" t="n">
+        <v>445</v>
+      </c>
+      <c r="D1721" t="n">
+        <v>441</v>
+      </c>
+      <c r="E1721" t="n">
+        <v>441</v>
+      </c>
+      <c r="F1721" t="n">
+        <v>441</v>
+      </c>
+      <c r="G1721" t="n">
+        <v>117215</v>
+      </c>
+      <c r="H1721" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1721" t="n">
+        <v>9</v>
+      </c>
+      <c r="J1721" t="n">
+        <v>24</v>
+      </c>
+      <c r="K1721" t="n">
+        <v>15</v>
+      </c>
+      <c r="L1721" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1721" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1721" t="n">
+        <v>39</v>
+      </c>
+      <c r="O1721" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1721" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1721" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1721" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/60m/ZAGGLE.NS.xlsx
+++ b/stock_historical_data/60m/ZAGGLE.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R1721"/>
+  <dimension ref="A1:R1728"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -96509,7 +96509,9 @@
       <c r="Q1715" t="n">
         <v>0</v>
       </c>
-      <c r="R1715" t="inlineStr"/>
+      <c r="R1715" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1716">
       <c r="A1716" s="2" t="n">
@@ -96563,7 +96565,9 @@
       <c r="Q1716" t="n">
         <v>0</v>
       </c>
-      <c r="R1716" t="inlineStr"/>
+      <c r="R1716" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1717">
       <c r="A1717" s="2" t="n">
@@ -96617,7 +96621,9 @@
       <c r="Q1717" t="n">
         <v>0</v>
       </c>
-      <c r="R1717" t="inlineStr"/>
+      <c r="R1717" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1718">
       <c r="A1718" s="2" t="n">
@@ -96663,7 +96669,7 @@
         <v>39</v>
       </c>
       <c r="O1718" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P1718" t="n">
         <v>0</v>
@@ -96671,7 +96677,9 @@
       <c r="Q1718" t="n">
         <v>0</v>
       </c>
-      <c r="R1718" t="inlineStr"/>
+      <c r="R1718" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1719">
       <c r="A1719" s="2" t="n">
@@ -96725,7 +96733,9 @@
       <c r="Q1719" t="n">
         <v>0</v>
       </c>
-      <c r="R1719" t="inlineStr"/>
+      <c r="R1719" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1720">
       <c r="A1720" s="2" t="n">
@@ -96779,7 +96789,9 @@
       <c r="Q1720" t="n">
         <v>0</v>
       </c>
-      <c r="R1720" t="inlineStr"/>
+      <c r="R1720" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1721">
       <c r="A1721" s="2" t="n">
@@ -96833,7 +96845,387 @@
       <c r="Q1721" t="n">
         <v>0</v>
       </c>
-      <c r="R1721" t="inlineStr"/>
+      <c r="R1721" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1722">
+      <c r="A1722" s="2" t="n">
+        <v>45560.38541666666</v>
+      </c>
+      <c r="B1722" t="n">
+        <v>442.2000122070312</v>
+      </c>
+      <c r="C1722" t="n">
+        <v>444.9500122070312</v>
+      </c>
+      <c r="D1722" t="n">
+        <v>431.5</v>
+      </c>
+      <c r="E1722" t="n">
+        <v>433.1499938964844</v>
+      </c>
+      <c r="F1722" t="n">
+        <v>433.1499938964844</v>
+      </c>
+      <c r="G1722" t="n">
+        <v>311083</v>
+      </c>
+      <c r="H1722" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1722" t="n">
+        <v>9</v>
+      </c>
+      <c r="J1722" t="n">
+        <v>25</v>
+      </c>
+      <c r="K1722" t="n">
+        <v>9</v>
+      </c>
+      <c r="L1722" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1722" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1722" t="n">
+        <v>39</v>
+      </c>
+      <c r="O1722" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1722" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1722" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1722" t="inlineStr"/>
+    </row>
+    <row r="1723">
+      <c r="A1723" s="2" t="n">
+        <v>45560.42708333334</v>
+      </c>
+      <c r="B1723" t="n">
+        <v>433</v>
+      </c>
+      <c r="C1723" t="n">
+        <v>440</v>
+      </c>
+      <c r="D1723" t="n">
+        <v>430.9500122070312</v>
+      </c>
+      <c r="E1723" t="n">
+        <v>435.75</v>
+      </c>
+      <c r="F1723" t="n">
+        <v>435.75</v>
+      </c>
+      <c r="G1723" t="n">
+        <v>160627</v>
+      </c>
+      <c r="H1723" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1723" t="n">
+        <v>9</v>
+      </c>
+      <c r="J1723" t="n">
+        <v>25</v>
+      </c>
+      <c r="K1723" t="n">
+        <v>10</v>
+      </c>
+      <c r="L1723" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1723" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1723" t="n">
+        <v>39</v>
+      </c>
+      <c r="O1723" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1723" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1723" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1723" t="inlineStr"/>
+    </row>
+    <row r="1724">
+      <c r="A1724" s="2" t="n">
+        <v>45560.46875</v>
+      </c>
+      <c r="B1724" t="n">
+        <v>436.3500061035156</v>
+      </c>
+      <c r="C1724" t="n">
+        <v>437.5</v>
+      </c>
+      <c r="D1724" t="n">
+        <v>431</v>
+      </c>
+      <c r="E1724" t="n">
+        <v>433.3999938964844</v>
+      </c>
+      <c r="F1724" t="n">
+        <v>433.3999938964844</v>
+      </c>
+      <c r="G1724" t="n">
+        <v>133463</v>
+      </c>
+      <c r="H1724" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1724" t="n">
+        <v>9</v>
+      </c>
+      <c r="J1724" t="n">
+        <v>25</v>
+      </c>
+      <c r="K1724" t="n">
+        <v>11</v>
+      </c>
+      <c r="L1724" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1724" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1724" t="n">
+        <v>39</v>
+      </c>
+      <c r="O1724" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1724" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1724" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1724" t="inlineStr"/>
+    </row>
+    <row r="1725">
+      <c r="A1725" s="2" t="n">
+        <v>45560.51041666666</v>
+      </c>
+      <c r="B1725" t="n">
+        <v>433.2999877929688</v>
+      </c>
+      <c r="C1725" t="n">
+        <v>433.9500122070312</v>
+      </c>
+      <c r="D1725" t="n">
+        <v>431.5499877929688</v>
+      </c>
+      <c r="E1725" t="n">
+        <v>432.1000061035156</v>
+      </c>
+      <c r="F1725" t="n">
+        <v>432.1000061035156</v>
+      </c>
+      <c r="G1725" t="n">
+        <v>33475</v>
+      </c>
+      <c r="H1725" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1725" t="n">
+        <v>9</v>
+      </c>
+      <c r="J1725" t="n">
+        <v>25</v>
+      </c>
+      <c r="K1725" t="n">
+        <v>12</v>
+      </c>
+      <c r="L1725" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1725" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1725" t="n">
+        <v>39</v>
+      </c>
+      <c r="O1725" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1725" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1725" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1725" t="inlineStr"/>
+    </row>
+    <row r="1726">
+      <c r="A1726" s="2" t="n">
+        <v>45560.55208333334</v>
+      </c>
+      <c r="B1726" t="n">
+        <v>433.2000122070312</v>
+      </c>
+      <c r="C1726" t="n">
+        <v>435.25</v>
+      </c>
+      <c r="D1726" t="n">
+        <v>432.2999877929688</v>
+      </c>
+      <c r="E1726" t="n">
+        <v>434</v>
+      </c>
+      <c r="F1726" t="n">
+        <v>434</v>
+      </c>
+      <c r="G1726" t="n">
+        <v>51029</v>
+      </c>
+      <c r="H1726" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1726" t="n">
+        <v>9</v>
+      </c>
+      <c r="J1726" t="n">
+        <v>25</v>
+      </c>
+      <c r="K1726" t="n">
+        <v>13</v>
+      </c>
+      <c r="L1726" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1726" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1726" t="n">
+        <v>39</v>
+      </c>
+      <c r="O1726" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1726" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1726" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1726" t="inlineStr"/>
+    </row>
+    <row r="1727">
+      <c r="A1727" s="2" t="n">
+        <v>45560.59375</v>
+      </c>
+      <c r="B1727" t="n">
+        <v>433.5</v>
+      </c>
+      <c r="C1727" t="n">
+        <v>434.3999938964844</v>
+      </c>
+      <c r="D1727" t="n">
+        <v>431.6499938964844</v>
+      </c>
+      <c r="E1727" t="n">
+        <v>432.5</v>
+      </c>
+      <c r="F1727" t="n">
+        <v>432.5</v>
+      </c>
+      <c r="G1727" t="n">
+        <v>70162</v>
+      </c>
+      <c r="H1727" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1727" t="n">
+        <v>9</v>
+      </c>
+      <c r="J1727" t="n">
+        <v>25</v>
+      </c>
+      <c r="K1727" t="n">
+        <v>14</v>
+      </c>
+      <c r="L1727" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1727" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1727" t="n">
+        <v>39</v>
+      </c>
+      <c r="O1727" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1727" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1727" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1727" t="inlineStr"/>
+    </row>
+    <row r="1728">
+      <c r="A1728" s="2" t="n">
+        <v>45560.63541666666</v>
+      </c>
+      <c r="B1728" t="n">
+        <v>432.5</v>
+      </c>
+      <c r="C1728" t="n">
+        <v>433</v>
+      </c>
+      <c r="D1728" t="n">
+        <v>430.0499877929688</v>
+      </c>
+      <c r="E1728" t="n">
+        <v>431.8500061035156</v>
+      </c>
+      <c r="F1728" t="n">
+        <v>431.8500061035156</v>
+      </c>
+      <c r="G1728" t="n">
+        <v>91029</v>
+      </c>
+      <c r="H1728" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1728" t="n">
+        <v>9</v>
+      </c>
+      <c r="J1728" t="n">
+        <v>25</v>
+      </c>
+      <c r="K1728" t="n">
+        <v>15</v>
+      </c>
+      <c r="L1728" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1728" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1728" t="n">
+        <v>39</v>
+      </c>
+      <c r="O1728" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1728" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1728" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1728" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/60m/ZAGGLE.NS.xlsx
+++ b/stock_historical_data/60m/ZAGGLE.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R1728"/>
+  <dimension ref="A1:R1735"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -96901,7 +96901,9 @@
       <c r="Q1722" t="n">
         <v>0</v>
       </c>
-      <c r="R1722" t="inlineStr"/>
+      <c r="R1722" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1723">
       <c r="A1723" s="2" t="n">
@@ -96955,7 +96957,9 @@
       <c r="Q1723" t="n">
         <v>0</v>
       </c>
-      <c r="R1723" t="inlineStr"/>
+      <c r="R1723" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1724">
       <c r="A1724" s="2" t="n">
@@ -97009,7 +97013,9 @@
       <c r="Q1724" t="n">
         <v>0</v>
       </c>
-      <c r="R1724" t="inlineStr"/>
+      <c r="R1724" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1725">
       <c r="A1725" s="2" t="n">
@@ -97063,7 +97069,9 @@
       <c r="Q1725" t="n">
         <v>0</v>
       </c>
-      <c r="R1725" t="inlineStr"/>
+      <c r="R1725" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1726">
       <c r="A1726" s="2" t="n">
@@ -97117,7 +97125,9 @@
       <c r="Q1726" t="n">
         <v>0</v>
       </c>
-      <c r="R1726" t="inlineStr"/>
+      <c r="R1726" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1727">
       <c r="A1727" s="2" t="n">
@@ -97171,7 +97181,9 @@
       <c r="Q1727" t="n">
         <v>0</v>
       </c>
-      <c r="R1727" t="inlineStr"/>
+      <c r="R1727" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1728">
       <c r="A1728" s="2" t="n">
@@ -97225,7 +97237,387 @@
       <c r="Q1728" t="n">
         <v>0</v>
       </c>
-      <c r="R1728" t="inlineStr"/>
+      <c r="R1728" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1729">
+      <c r="A1729" s="2" t="n">
+        <v>45561.38541666666</v>
+      </c>
+      <c r="B1729" t="n">
+        <v>439.7000122070312</v>
+      </c>
+      <c r="C1729" t="n">
+        <v>461.3500061035156</v>
+      </c>
+      <c r="D1729" t="n">
+        <v>439.7000122070312</v>
+      </c>
+      <c r="E1729" t="n">
+        <v>456.1499938964844</v>
+      </c>
+      <c r="F1729" t="n">
+        <v>456.1499938964844</v>
+      </c>
+      <c r="G1729" t="n">
+        <v>1118834</v>
+      </c>
+      <c r="H1729" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1729" t="n">
+        <v>9</v>
+      </c>
+      <c r="J1729" t="n">
+        <v>26</v>
+      </c>
+      <c r="K1729" t="n">
+        <v>9</v>
+      </c>
+      <c r="L1729" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1729" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1729" t="n">
+        <v>39</v>
+      </c>
+      <c r="O1729" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1729" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1729" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1729" t="inlineStr"/>
+    </row>
+    <row r="1730">
+      <c r="A1730" s="2" t="n">
+        <v>45561.42708333334</v>
+      </c>
+      <c r="B1730" t="n">
+        <v>456.3999938964844</v>
+      </c>
+      <c r="C1730" t="n">
+        <v>458.5499877929688</v>
+      </c>
+      <c r="D1730" t="n">
+        <v>444.5499877929688</v>
+      </c>
+      <c r="E1730" t="n">
+        <v>446.3500061035156</v>
+      </c>
+      <c r="F1730" t="n">
+        <v>446.3500061035156</v>
+      </c>
+      <c r="G1730" t="n">
+        <v>554017</v>
+      </c>
+      <c r="H1730" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1730" t="n">
+        <v>9</v>
+      </c>
+      <c r="J1730" t="n">
+        <v>26</v>
+      </c>
+      <c r="K1730" t="n">
+        <v>10</v>
+      </c>
+      <c r="L1730" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1730" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1730" t="n">
+        <v>39</v>
+      </c>
+      <c r="O1730" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1730" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1730" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1730" t="inlineStr"/>
+    </row>
+    <row r="1731">
+      <c r="A1731" s="2" t="n">
+        <v>45561.46875</v>
+      </c>
+      <c r="B1731" t="n">
+        <v>446.2000122070312</v>
+      </c>
+      <c r="C1731" t="n">
+        <v>449.3500061035156</v>
+      </c>
+      <c r="D1731" t="n">
+        <v>443.4500122070312</v>
+      </c>
+      <c r="E1731" t="n">
+        <v>445.7999877929688</v>
+      </c>
+      <c r="F1731" t="n">
+        <v>445.7999877929688</v>
+      </c>
+      <c r="G1731" t="n">
+        <v>184801</v>
+      </c>
+      <c r="H1731" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1731" t="n">
+        <v>9</v>
+      </c>
+      <c r="J1731" t="n">
+        <v>26</v>
+      </c>
+      <c r="K1731" t="n">
+        <v>11</v>
+      </c>
+      <c r="L1731" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1731" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1731" t="n">
+        <v>39</v>
+      </c>
+      <c r="O1731" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1731" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1731" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1731" t="inlineStr"/>
+    </row>
+    <row r="1732">
+      <c r="A1732" s="2" t="n">
+        <v>45561.51041666666</v>
+      </c>
+      <c r="B1732" t="n">
+        <v>446.0499877929688</v>
+      </c>
+      <c r="C1732" t="n">
+        <v>447</v>
+      </c>
+      <c r="D1732" t="n">
+        <v>441.1000061035156</v>
+      </c>
+      <c r="E1732" t="n">
+        <v>442.7999877929688</v>
+      </c>
+      <c r="F1732" t="n">
+        <v>442.7999877929688</v>
+      </c>
+      <c r="G1732" t="n">
+        <v>141327</v>
+      </c>
+      <c r="H1732" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1732" t="n">
+        <v>9</v>
+      </c>
+      <c r="J1732" t="n">
+        <v>26</v>
+      </c>
+      <c r="K1732" t="n">
+        <v>12</v>
+      </c>
+      <c r="L1732" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1732" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1732" t="n">
+        <v>39</v>
+      </c>
+      <c r="O1732" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1732" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1732" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1732" t="inlineStr"/>
+    </row>
+    <row r="1733">
+      <c r="A1733" s="2" t="n">
+        <v>45561.55208333334</v>
+      </c>
+      <c r="B1733" t="n">
+        <v>442.75</v>
+      </c>
+      <c r="C1733" t="n">
+        <v>445.8999938964844</v>
+      </c>
+      <c r="D1733" t="n">
+        <v>442.75</v>
+      </c>
+      <c r="E1733" t="n">
+        <v>445.1499938964844</v>
+      </c>
+      <c r="F1733" t="n">
+        <v>445.1499938964844</v>
+      </c>
+      <c r="G1733" t="n">
+        <v>115671</v>
+      </c>
+      <c r="H1733" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1733" t="n">
+        <v>9</v>
+      </c>
+      <c r="J1733" t="n">
+        <v>26</v>
+      </c>
+      <c r="K1733" t="n">
+        <v>13</v>
+      </c>
+      <c r="L1733" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1733" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1733" t="n">
+        <v>39</v>
+      </c>
+      <c r="O1733" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1733" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1733" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1733" t="inlineStr"/>
+    </row>
+    <row r="1734">
+      <c r="A1734" s="2" t="n">
+        <v>45561.59375</v>
+      </c>
+      <c r="B1734" t="n">
+        <v>445.1499938964844</v>
+      </c>
+      <c r="C1734" t="n">
+        <v>446.1000061035156</v>
+      </c>
+      <c r="D1734" t="n">
+        <v>442.7000122070312</v>
+      </c>
+      <c r="E1734" t="n">
+        <v>444.1000061035156</v>
+      </c>
+      <c r="F1734" t="n">
+        <v>444.1000061035156</v>
+      </c>
+      <c r="G1734" t="n">
+        <v>194402</v>
+      </c>
+      <c r="H1734" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1734" t="n">
+        <v>9</v>
+      </c>
+      <c r="J1734" t="n">
+        <v>26</v>
+      </c>
+      <c r="K1734" t="n">
+        <v>14</v>
+      </c>
+      <c r="L1734" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1734" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1734" t="n">
+        <v>39</v>
+      </c>
+      <c r="O1734" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1734" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1734" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1734" t="inlineStr"/>
+    </row>
+    <row r="1735">
+      <c r="A1735" s="2" t="n">
+        <v>45561.63541666666</v>
+      </c>
+      <c r="B1735" t="n">
+        <v>444</v>
+      </c>
+      <c r="C1735" t="n">
+        <v>445.3999938964844</v>
+      </c>
+      <c r="D1735" t="n">
+        <v>441</v>
+      </c>
+      <c r="E1735" t="n">
+        <v>441.7999877929688</v>
+      </c>
+      <c r="F1735" t="n">
+        <v>441.7999877929688</v>
+      </c>
+      <c r="G1735" t="n">
+        <v>165324</v>
+      </c>
+      <c r="H1735" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1735" t="n">
+        <v>9</v>
+      </c>
+      <c r="J1735" t="n">
+        <v>26</v>
+      </c>
+      <c r="K1735" t="n">
+        <v>15</v>
+      </c>
+      <c r="L1735" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1735" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1735" t="n">
+        <v>39</v>
+      </c>
+      <c r="O1735" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1735" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1735" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1735" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/60m/ZAGGLE.NS.xlsx
+++ b/stock_historical_data/60m/ZAGGLE.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R1735"/>
+  <dimension ref="A1:R1742"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -97229,7 +97229,7 @@
         <v>39</v>
       </c>
       <c r="O1728" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="P1728" t="n">
         <v>0</v>
@@ -97285,7 +97285,7 @@
         <v>39</v>
       </c>
       <c r="O1729" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P1729" t="n">
         <v>0</v>
@@ -97293,7 +97293,9 @@
       <c r="Q1729" t="n">
         <v>0</v>
       </c>
-      <c r="R1729" t="inlineStr"/>
+      <c r="R1729" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1730">
       <c r="A1730" s="2" t="n">
@@ -97347,7 +97349,9 @@
       <c r="Q1730" t="n">
         <v>0</v>
       </c>
-      <c r="R1730" t="inlineStr"/>
+      <c r="R1730" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1731">
       <c r="A1731" s="2" t="n">
@@ -97401,7 +97405,9 @@
       <c r="Q1731" t="n">
         <v>0</v>
       </c>
-      <c r="R1731" t="inlineStr"/>
+      <c r="R1731" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1732">
       <c r="A1732" s="2" t="n">
@@ -97455,7 +97461,9 @@
       <c r="Q1732" t="n">
         <v>0</v>
       </c>
-      <c r="R1732" t="inlineStr"/>
+      <c r="R1732" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1733">
       <c r="A1733" s="2" t="n">
@@ -97509,7 +97517,9 @@
       <c r="Q1733" t="n">
         <v>0</v>
       </c>
-      <c r="R1733" t="inlineStr"/>
+      <c r="R1733" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1734">
       <c r="A1734" s="2" t="n">
@@ -97563,7 +97573,9 @@
       <c r="Q1734" t="n">
         <v>0</v>
       </c>
-      <c r="R1734" t="inlineStr"/>
+      <c r="R1734" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1735">
       <c r="A1735" s="2" t="n">
@@ -97617,7 +97629,387 @@
       <c r="Q1735" t="n">
         <v>0</v>
       </c>
-      <c r="R1735" t="inlineStr"/>
+      <c r="R1735" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1736">
+      <c r="A1736" s="2" t="n">
+        <v>45562.38541666666</v>
+      </c>
+      <c r="B1736" t="n">
+        <v>445.5</v>
+      </c>
+      <c r="C1736" t="n">
+        <v>448.0499877929688</v>
+      </c>
+      <c r="D1736" t="n">
+        <v>442.0499877929688</v>
+      </c>
+      <c r="E1736" t="n">
+        <v>442.8999938964844</v>
+      </c>
+      <c r="F1736" t="n">
+        <v>442.8999938964844</v>
+      </c>
+      <c r="G1736" t="n">
+        <v>287987</v>
+      </c>
+      <c r="H1736" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1736" t="n">
+        <v>9</v>
+      </c>
+      <c r="J1736" t="n">
+        <v>27</v>
+      </c>
+      <c r="K1736" t="n">
+        <v>9</v>
+      </c>
+      <c r="L1736" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1736" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1736" t="n">
+        <v>39</v>
+      </c>
+      <c r="O1736" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1736" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1736" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1736" t="inlineStr"/>
+    </row>
+    <row r="1737">
+      <c r="A1737" s="2" t="n">
+        <v>45562.42708333334</v>
+      </c>
+      <c r="B1737" t="n">
+        <v>442.7000122070312</v>
+      </c>
+      <c r="C1737" t="n">
+        <v>447</v>
+      </c>
+      <c r="D1737" t="n">
+        <v>440.8999938964844</v>
+      </c>
+      <c r="E1737" t="n">
+        <v>444.1000061035156</v>
+      </c>
+      <c r="F1737" t="n">
+        <v>444.1000061035156</v>
+      </c>
+      <c r="G1737" t="n">
+        <v>135604</v>
+      </c>
+      <c r="H1737" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1737" t="n">
+        <v>9</v>
+      </c>
+      <c r="J1737" t="n">
+        <v>27</v>
+      </c>
+      <c r="K1737" t="n">
+        <v>10</v>
+      </c>
+      <c r="L1737" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1737" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1737" t="n">
+        <v>39</v>
+      </c>
+      <c r="O1737" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1737" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1737" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1737" t="inlineStr"/>
+    </row>
+    <row r="1738">
+      <c r="A1738" s="2" t="n">
+        <v>45562.46875</v>
+      </c>
+      <c r="B1738" t="n">
+        <v>443.9500122070312</v>
+      </c>
+      <c r="C1738" t="n">
+        <v>445.1499938964844</v>
+      </c>
+      <c r="D1738" t="n">
+        <v>442.75</v>
+      </c>
+      <c r="E1738" t="n">
+        <v>445.1000061035156</v>
+      </c>
+      <c r="F1738" t="n">
+        <v>445.1000061035156</v>
+      </c>
+      <c r="G1738" t="n">
+        <v>55468</v>
+      </c>
+      <c r="H1738" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1738" t="n">
+        <v>9</v>
+      </c>
+      <c r="J1738" t="n">
+        <v>27</v>
+      </c>
+      <c r="K1738" t="n">
+        <v>11</v>
+      </c>
+      <c r="L1738" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1738" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1738" t="n">
+        <v>39</v>
+      </c>
+      <c r="O1738" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1738" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1738" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1738" t="inlineStr"/>
+    </row>
+    <row r="1739">
+      <c r="A1739" s="2" t="n">
+        <v>45562.51041666666</v>
+      </c>
+      <c r="B1739" t="n">
+        <v>445.1000061035156</v>
+      </c>
+      <c r="C1739" t="n">
+        <v>446.2000122070312</v>
+      </c>
+      <c r="D1739" t="n">
+        <v>442.4500122070312</v>
+      </c>
+      <c r="E1739" t="n">
+        <v>443.5499877929688</v>
+      </c>
+      <c r="F1739" t="n">
+        <v>443.5499877929688</v>
+      </c>
+      <c r="G1739" t="n">
+        <v>76409</v>
+      </c>
+      <c r="H1739" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1739" t="n">
+        <v>9</v>
+      </c>
+      <c r="J1739" t="n">
+        <v>27</v>
+      </c>
+      <c r="K1739" t="n">
+        <v>12</v>
+      </c>
+      <c r="L1739" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1739" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1739" t="n">
+        <v>39</v>
+      </c>
+      <c r="O1739" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1739" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1739" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1739" t="inlineStr"/>
+    </row>
+    <row r="1740">
+      <c r="A1740" s="2" t="n">
+        <v>45562.55208333334</v>
+      </c>
+      <c r="B1740" t="n">
+        <v>443.75</v>
+      </c>
+      <c r="C1740" t="n">
+        <v>446.2999877929688</v>
+      </c>
+      <c r="D1740" t="n">
+        <v>443</v>
+      </c>
+      <c r="E1740" t="n">
+        <v>443.0499877929688</v>
+      </c>
+      <c r="F1740" t="n">
+        <v>443.0499877929688</v>
+      </c>
+      <c r="G1740" t="n">
+        <v>120819</v>
+      </c>
+      <c r="H1740" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1740" t="n">
+        <v>9</v>
+      </c>
+      <c r="J1740" t="n">
+        <v>27</v>
+      </c>
+      <c r="K1740" t="n">
+        <v>13</v>
+      </c>
+      <c r="L1740" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1740" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1740" t="n">
+        <v>39</v>
+      </c>
+      <c r="O1740" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1740" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q1740" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1740" t="inlineStr"/>
+    </row>
+    <row r="1741">
+      <c r="A1741" s="2" t="n">
+        <v>45562.59375</v>
+      </c>
+      <c r="B1741" t="n">
+        <v>443.0499877929688</v>
+      </c>
+      <c r="C1741" t="n">
+        <v>445.6000061035156</v>
+      </c>
+      <c r="D1741" t="n">
+        <v>440.1000061035156</v>
+      </c>
+      <c r="E1741" t="n">
+        <v>440.7999877929688</v>
+      </c>
+      <c r="F1741" t="n">
+        <v>440.7999877929688</v>
+      </c>
+      <c r="G1741" t="n">
+        <v>163360</v>
+      </c>
+      <c r="H1741" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1741" t="n">
+        <v>9</v>
+      </c>
+      <c r="J1741" t="n">
+        <v>27</v>
+      </c>
+      <c r="K1741" t="n">
+        <v>14</v>
+      </c>
+      <c r="L1741" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1741" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1741" t="n">
+        <v>39</v>
+      </c>
+      <c r="O1741" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1741" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1741" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1741" t="inlineStr"/>
+    </row>
+    <row r="1742">
+      <c r="A1742" s="2" t="n">
+        <v>45562.63541666666</v>
+      </c>
+      <c r="B1742" t="n">
+        <v>440.5499877929688</v>
+      </c>
+      <c r="C1742" t="n">
+        <v>443.9500122070312</v>
+      </c>
+      <c r="D1742" t="n">
+        <v>440.3500061035156</v>
+      </c>
+      <c r="E1742" t="n">
+        <v>442.8500061035156</v>
+      </c>
+      <c r="F1742" t="n">
+        <v>442.8500061035156</v>
+      </c>
+      <c r="G1742" t="n">
+        <v>78852</v>
+      </c>
+      <c r="H1742" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1742" t="n">
+        <v>9</v>
+      </c>
+      <c r="J1742" t="n">
+        <v>27</v>
+      </c>
+      <c r="K1742" t="n">
+        <v>15</v>
+      </c>
+      <c r="L1742" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1742" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1742" t="n">
+        <v>39</v>
+      </c>
+      <c r="O1742" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1742" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1742" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1742" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/60m/ZAGGLE.NS.xlsx
+++ b/stock_historical_data/60m/ZAGGLE.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R1742"/>
+  <dimension ref="A1:R1749"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -97685,7 +97685,9 @@
       <c r="Q1736" t="n">
         <v>0</v>
       </c>
-      <c r="R1736" t="inlineStr"/>
+      <c r="R1736" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1737">
       <c r="A1737" s="2" t="n">
@@ -97739,7 +97741,9 @@
       <c r="Q1737" t="n">
         <v>0</v>
       </c>
-      <c r="R1737" t="inlineStr"/>
+      <c r="R1737" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1738">
       <c r="A1738" s="2" t="n">
@@ -97793,7 +97797,9 @@
       <c r="Q1738" t="n">
         <v>0</v>
       </c>
-      <c r="R1738" t="inlineStr"/>
+      <c r="R1738" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1739">
       <c r="A1739" s="2" t="n">
@@ -97847,7 +97853,9 @@
       <c r="Q1739" t="n">
         <v>0</v>
       </c>
-      <c r="R1739" t="inlineStr"/>
+      <c r="R1739" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1740">
       <c r="A1740" s="2" t="n">
@@ -97901,7 +97909,9 @@
       <c r="Q1740" t="n">
         <v>0</v>
       </c>
-      <c r="R1740" t="inlineStr"/>
+      <c r="R1740" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="1741">
       <c r="A1741" s="2" t="n">
@@ -97955,7 +97965,9 @@
       <c r="Q1741" t="n">
         <v>0</v>
       </c>
-      <c r="R1741" t="inlineStr"/>
+      <c r="R1741" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1742">
       <c r="A1742" s="2" t="n">
@@ -98009,7 +98021,387 @@
       <c r="Q1742" t="n">
         <v>0</v>
       </c>
-      <c r="R1742" t="inlineStr"/>
+      <c r="R1742" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1743">
+      <c r="A1743" s="2" t="n">
+        <v>45565.38541666666</v>
+      </c>
+      <c r="B1743" t="n">
+        <v>441.1000061035156</v>
+      </c>
+      <c r="C1743" t="n">
+        <v>443.75</v>
+      </c>
+      <c r="D1743" t="n">
+        <v>432.5499877929688</v>
+      </c>
+      <c r="E1743" t="n">
+        <v>441.6000061035156</v>
+      </c>
+      <c r="F1743" t="n">
+        <v>441.6000061035156</v>
+      </c>
+      <c r="G1743" t="n">
+        <v>0</v>
+      </c>
+      <c r="H1743" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1743" t="n">
+        <v>9</v>
+      </c>
+      <c r="J1743" t="n">
+        <v>30</v>
+      </c>
+      <c r="K1743" t="n">
+        <v>9</v>
+      </c>
+      <c r="L1743" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1743" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1743" t="n">
+        <v>40</v>
+      </c>
+      <c r="O1743" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1743" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1743" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1743" t="inlineStr"/>
+    </row>
+    <row r="1744">
+      <c r="A1744" s="2" t="n">
+        <v>45565.42708333334</v>
+      </c>
+      <c r="B1744" t="n">
+        <v>441.4500122070312</v>
+      </c>
+      <c r="C1744" t="n">
+        <v>441.75</v>
+      </c>
+      <c r="D1744" t="n">
+        <v>434</v>
+      </c>
+      <c r="E1744" t="n">
+        <v>435</v>
+      </c>
+      <c r="F1744" t="n">
+        <v>435</v>
+      </c>
+      <c r="G1744" t="n">
+        <v>107130</v>
+      </c>
+      <c r="H1744" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1744" t="n">
+        <v>9</v>
+      </c>
+      <c r="J1744" t="n">
+        <v>30</v>
+      </c>
+      <c r="K1744" t="n">
+        <v>10</v>
+      </c>
+      <c r="L1744" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1744" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1744" t="n">
+        <v>40</v>
+      </c>
+      <c r="O1744" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1744" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1744" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1744" t="inlineStr"/>
+    </row>
+    <row r="1745">
+      <c r="A1745" s="2" t="n">
+        <v>45565.46875</v>
+      </c>
+      <c r="B1745" t="n">
+        <v>435</v>
+      </c>
+      <c r="C1745" t="n">
+        <v>435</v>
+      </c>
+      <c r="D1745" t="n">
+        <v>431.1000061035156</v>
+      </c>
+      <c r="E1745" t="n">
+        <v>432.2999877929688</v>
+      </c>
+      <c r="F1745" t="n">
+        <v>432.2999877929688</v>
+      </c>
+      <c r="G1745" t="n">
+        <v>129623</v>
+      </c>
+      <c r="H1745" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1745" t="n">
+        <v>9</v>
+      </c>
+      <c r="J1745" t="n">
+        <v>30</v>
+      </c>
+      <c r="K1745" t="n">
+        <v>11</v>
+      </c>
+      <c r="L1745" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1745" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1745" t="n">
+        <v>40</v>
+      </c>
+      <c r="O1745" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1745" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1745" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1745" t="inlineStr"/>
+    </row>
+    <row r="1746">
+      <c r="A1746" s="2" t="n">
+        <v>45565.51041666666</v>
+      </c>
+      <c r="B1746" t="n">
+        <v>432.0499877929688</v>
+      </c>
+      <c r="C1746" t="n">
+        <v>433.6000061035156</v>
+      </c>
+      <c r="D1746" t="n">
+        <v>432</v>
+      </c>
+      <c r="E1746" t="n">
+        <v>432.9500122070312</v>
+      </c>
+      <c r="F1746" t="n">
+        <v>432.9500122070312</v>
+      </c>
+      <c r="G1746" t="n">
+        <v>58894</v>
+      </c>
+      <c r="H1746" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1746" t="n">
+        <v>9</v>
+      </c>
+      <c r="J1746" t="n">
+        <v>30</v>
+      </c>
+      <c r="K1746" t="n">
+        <v>12</v>
+      </c>
+      <c r="L1746" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1746" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1746" t="n">
+        <v>40</v>
+      </c>
+      <c r="O1746" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1746" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1746" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1746" t="inlineStr"/>
+    </row>
+    <row r="1747">
+      <c r="A1747" s="2" t="n">
+        <v>45565.55208333334</v>
+      </c>
+      <c r="B1747" t="n">
+        <v>433.3500061035156</v>
+      </c>
+      <c r="C1747" t="n">
+        <v>435.5499877929688</v>
+      </c>
+      <c r="D1747" t="n">
+        <v>432.0499877929688</v>
+      </c>
+      <c r="E1747" t="n">
+        <v>435.5499877929688</v>
+      </c>
+      <c r="F1747" t="n">
+        <v>435.5499877929688</v>
+      </c>
+      <c r="G1747" t="n">
+        <v>54207</v>
+      </c>
+      <c r="H1747" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1747" t="n">
+        <v>9</v>
+      </c>
+      <c r="J1747" t="n">
+        <v>30</v>
+      </c>
+      <c r="K1747" t="n">
+        <v>13</v>
+      </c>
+      <c r="L1747" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1747" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1747" t="n">
+        <v>40</v>
+      </c>
+      <c r="O1747" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1747" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1747" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1747" t="inlineStr"/>
+    </row>
+    <row r="1748">
+      <c r="A1748" s="2" t="n">
+        <v>45565.59375</v>
+      </c>
+      <c r="B1748" t="n">
+        <v>435.5</v>
+      </c>
+      <c r="C1748" t="n">
+        <v>438</v>
+      </c>
+      <c r="D1748" t="n">
+        <v>433.6000061035156</v>
+      </c>
+      <c r="E1748" t="n">
+        <v>436.7000122070312</v>
+      </c>
+      <c r="F1748" t="n">
+        <v>436.7000122070312</v>
+      </c>
+      <c r="G1748" t="n">
+        <v>92158</v>
+      </c>
+      <c r="H1748" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1748" t="n">
+        <v>9</v>
+      </c>
+      <c r="J1748" t="n">
+        <v>30</v>
+      </c>
+      <c r="K1748" t="n">
+        <v>14</v>
+      </c>
+      <c r="L1748" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1748" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1748" t="n">
+        <v>40</v>
+      </c>
+      <c r="O1748" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1748" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1748" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1748" t="inlineStr"/>
+    </row>
+    <row r="1749">
+      <c r="A1749" s="2" t="n">
+        <v>45565.63541666666</v>
+      </c>
+      <c r="B1749" t="n">
+        <v>435.9500122070312</v>
+      </c>
+      <c r="C1749" t="n">
+        <v>437.6000061035156</v>
+      </c>
+      <c r="D1749" t="n">
+        <v>435.8999938964844</v>
+      </c>
+      <c r="E1749" t="n">
+        <v>436.5499877929688</v>
+      </c>
+      <c r="F1749" t="n">
+        <v>436.5499877929688</v>
+      </c>
+      <c r="G1749" t="n">
+        <v>56855</v>
+      </c>
+      <c r="H1749" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1749" t="n">
+        <v>9</v>
+      </c>
+      <c r="J1749" t="n">
+        <v>30</v>
+      </c>
+      <c r="K1749" t="n">
+        <v>15</v>
+      </c>
+      <c r="L1749" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1749" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1749" t="n">
+        <v>40</v>
+      </c>
+      <c r="O1749" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1749" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1749" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1749" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/60m/ZAGGLE.NS.xlsx
+++ b/stock_historical_data/60m/ZAGGLE.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R1749"/>
+  <dimension ref="A1:R1756"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -98077,7 +98077,9 @@
       <c r="Q1743" t="n">
         <v>0</v>
       </c>
-      <c r="R1743" t="inlineStr"/>
+      <c r="R1743" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1744">
       <c r="A1744" s="2" t="n">
@@ -98131,7 +98133,9 @@
       <c r="Q1744" t="n">
         <v>0</v>
       </c>
-      <c r="R1744" t="inlineStr"/>
+      <c r="R1744" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1745">
       <c r="A1745" s="2" t="n">
@@ -98177,7 +98181,7 @@
         <v>40</v>
       </c>
       <c r="O1745" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="P1745" t="n">
         <v>0</v>
@@ -98185,7 +98189,9 @@
       <c r="Q1745" t="n">
         <v>0</v>
       </c>
-      <c r="R1745" t="inlineStr"/>
+      <c r="R1745" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1746">
       <c r="A1746" s="2" t="n">
@@ -98239,7 +98245,9 @@
       <c r="Q1746" t="n">
         <v>0</v>
       </c>
-      <c r="R1746" t="inlineStr"/>
+      <c r="R1746" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1747">
       <c r="A1747" s="2" t="n">
@@ -98293,7 +98301,9 @@
       <c r="Q1747" t="n">
         <v>0</v>
       </c>
-      <c r="R1747" t="inlineStr"/>
+      <c r="R1747" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1748">
       <c r="A1748" s="2" t="n">
@@ -98347,7 +98357,9 @@
       <c r="Q1748" t="n">
         <v>0</v>
       </c>
-      <c r="R1748" t="inlineStr"/>
+      <c r="R1748" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1749">
       <c r="A1749" s="2" t="n">
@@ -98401,7 +98413,387 @@
       <c r="Q1749" t="n">
         <v>0</v>
       </c>
-      <c r="R1749" t="inlineStr"/>
+      <c r="R1749" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1750">
+      <c r="A1750" s="2" t="n">
+        <v>45566.38541666666</v>
+      </c>
+      <c r="B1750" t="n">
+        <v>437.7000122070312</v>
+      </c>
+      <c r="C1750" t="n">
+        <v>441.6000061035156</v>
+      </c>
+      <c r="D1750" t="n">
+        <v>435.7999877929688</v>
+      </c>
+      <c r="E1750" t="n">
+        <v>439.7000122070312</v>
+      </c>
+      <c r="F1750" t="n">
+        <v>439.7000122070312</v>
+      </c>
+      <c r="G1750" t="n">
+        <v>0</v>
+      </c>
+      <c r="H1750" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1750" t="n">
+        <v>10</v>
+      </c>
+      <c r="J1750" t="n">
+        <v>1</v>
+      </c>
+      <c r="K1750" t="n">
+        <v>9</v>
+      </c>
+      <c r="L1750" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1750" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1750" t="n">
+        <v>40</v>
+      </c>
+      <c r="O1750" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1750" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1750" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1750" t="inlineStr"/>
+    </row>
+    <row r="1751">
+      <c r="A1751" s="2" t="n">
+        <v>45566.42708333334</v>
+      </c>
+      <c r="B1751" t="n">
+        <v>439.6000061035156</v>
+      </c>
+      <c r="C1751" t="n">
+        <v>446.2999877929688</v>
+      </c>
+      <c r="D1751" t="n">
+        <v>437.3500061035156</v>
+      </c>
+      <c r="E1751" t="n">
+        <v>442.3500061035156</v>
+      </c>
+      <c r="F1751" t="n">
+        <v>442.3500061035156</v>
+      </c>
+      <c r="G1751" t="n">
+        <v>176643</v>
+      </c>
+      <c r="H1751" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1751" t="n">
+        <v>10</v>
+      </c>
+      <c r="J1751" t="n">
+        <v>1</v>
+      </c>
+      <c r="K1751" t="n">
+        <v>10</v>
+      </c>
+      <c r="L1751" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1751" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1751" t="n">
+        <v>40</v>
+      </c>
+      <c r="O1751" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1751" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1751" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1751" t="inlineStr"/>
+    </row>
+    <row r="1752">
+      <c r="A1752" s="2" t="n">
+        <v>45566.46875</v>
+      </c>
+      <c r="B1752" t="n">
+        <v>441.9500122070312</v>
+      </c>
+      <c r="C1752" t="n">
+        <v>443.8500061035156</v>
+      </c>
+      <c r="D1752" t="n">
+        <v>438.0499877929688</v>
+      </c>
+      <c r="E1752" t="n">
+        <v>439</v>
+      </c>
+      <c r="F1752" t="n">
+        <v>439</v>
+      </c>
+      <c r="G1752" t="n">
+        <v>105903</v>
+      </c>
+      <c r="H1752" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1752" t="n">
+        <v>10</v>
+      </c>
+      <c r="J1752" t="n">
+        <v>1</v>
+      </c>
+      <c r="K1752" t="n">
+        <v>11</v>
+      </c>
+      <c r="L1752" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1752" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1752" t="n">
+        <v>40</v>
+      </c>
+      <c r="O1752" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1752" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1752" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1752" t="inlineStr"/>
+    </row>
+    <row r="1753">
+      <c r="A1753" s="2" t="n">
+        <v>45566.51041666666</v>
+      </c>
+      <c r="B1753" t="n">
+        <v>438.7000122070312</v>
+      </c>
+      <c r="C1753" t="n">
+        <v>439.8999938964844</v>
+      </c>
+      <c r="D1753" t="n">
+        <v>435.5</v>
+      </c>
+      <c r="E1753" t="n">
+        <v>436.4500122070312</v>
+      </c>
+      <c r="F1753" t="n">
+        <v>436.4500122070312</v>
+      </c>
+      <c r="G1753" t="n">
+        <v>103864</v>
+      </c>
+      <c r="H1753" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1753" t="n">
+        <v>10</v>
+      </c>
+      <c r="J1753" t="n">
+        <v>1</v>
+      </c>
+      <c r="K1753" t="n">
+        <v>12</v>
+      </c>
+      <c r="L1753" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1753" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1753" t="n">
+        <v>40</v>
+      </c>
+      <c r="O1753" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1753" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1753" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1753" t="inlineStr"/>
+    </row>
+    <row r="1754">
+      <c r="A1754" s="2" t="n">
+        <v>45566.55208333334</v>
+      </c>
+      <c r="B1754" t="n">
+        <v>436.5</v>
+      </c>
+      <c r="C1754" t="n">
+        <v>439.6000061035156</v>
+      </c>
+      <c r="D1754" t="n">
+        <v>436.0499877929688</v>
+      </c>
+      <c r="E1754" t="n">
+        <v>438.2999877929688</v>
+      </c>
+      <c r="F1754" t="n">
+        <v>438.2999877929688</v>
+      </c>
+      <c r="G1754" t="n">
+        <v>66352</v>
+      </c>
+      <c r="H1754" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1754" t="n">
+        <v>10</v>
+      </c>
+      <c r="J1754" t="n">
+        <v>1</v>
+      </c>
+      <c r="K1754" t="n">
+        <v>13</v>
+      </c>
+      <c r="L1754" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1754" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1754" t="n">
+        <v>40</v>
+      </c>
+      <c r="O1754" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1754" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1754" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1754" t="inlineStr"/>
+    </row>
+    <row r="1755">
+      <c r="A1755" s="2" t="n">
+        <v>45566.59375</v>
+      </c>
+      <c r="B1755" t="n">
+        <v>438.25</v>
+      </c>
+      <c r="C1755" t="n">
+        <v>441</v>
+      </c>
+      <c r="D1755" t="n">
+        <v>436.7000122070312</v>
+      </c>
+      <c r="E1755" t="n">
+        <v>439</v>
+      </c>
+      <c r="F1755" t="n">
+        <v>439</v>
+      </c>
+      <c r="G1755" t="n">
+        <v>146364</v>
+      </c>
+      <c r="H1755" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1755" t="n">
+        <v>10</v>
+      </c>
+      <c r="J1755" t="n">
+        <v>1</v>
+      </c>
+      <c r="K1755" t="n">
+        <v>14</v>
+      </c>
+      <c r="L1755" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1755" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1755" t="n">
+        <v>40</v>
+      </c>
+      <c r="O1755" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1755" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1755" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1755" t="inlineStr"/>
+    </row>
+    <row r="1756">
+      <c r="A1756" s="2" t="n">
+        <v>45566.63541666666</v>
+      </c>
+      <c r="B1756" t="n">
+        <v>438.8500061035156</v>
+      </c>
+      <c r="C1756" t="n">
+        <v>442.7999877929688</v>
+      </c>
+      <c r="D1756" t="n">
+        <v>438.2999877929688</v>
+      </c>
+      <c r="E1756" t="n">
+        <v>441.1000061035156</v>
+      </c>
+      <c r="F1756" t="n">
+        <v>441.1000061035156</v>
+      </c>
+      <c r="G1756" t="n">
+        <v>84797</v>
+      </c>
+      <c r="H1756" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1756" t="n">
+        <v>10</v>
+      </c>
+      <c r="J1756" t="n">
+        <v>1</v>
+      </c>
+      <c r="K1756" t="n">
+        <v>15</v>
+      </c>
+      <c r="L1756" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1756" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1756" t="n">
+        <v>40</v>
+      </c>
+      <c r="O1756" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1756" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q1756" t="n">
+        <v>1</v>
+      </c>
+      <c r="R1756" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/60m/ZAGGLE.NS.xlsx
+++ b/stock_historical_data/60m/ZAGGLE.NS.xlsx
@@ -98469,7 +98469,9 @@
       <c r="Q1750" t="n">
         <v>0</v>
       </c>
-      <c r="R1750" t="inlineStr"/>
+      <c r="R1750" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1751">
       <c r="A1751" s="2" t="n">
@@ -98523,7 +98525,9 @@
       <c r="Q1751" t="n">
         <v>0</v>
       </c>
-      <c r="R1751" t="inlineStr"/>
+      <c r="R1751" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1752">
       <c r="A1752" s="2" t="n">
@@ -98577,7 +98581,9 @@
       <c r="Q1752" t="n">
         <v>0</v>
       </c>
-      <c r="R1752" t="inlineStr"/>
+      <c r="R1752" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1753">
       <c r="A1753" s="2" t="n">
@@ -98631,7 +98637,9 @@
       <c r="Q1753" t="n">
         <v>0</v>
       </c>
-      <c r="R1753" t="inlineStr"/>
+      <c r="R1753" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1754">
       <c r="A1754" s="2" t="n">
@@ -98685,7 +98693,9 @@
       <c r="Q1754" t="n">
         <v>0</v>
       </c>
-      <c r="R1754" t="inlineStr"/>
+      <c r="R1754" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1755">
       <c r="A1755" s="2" t="n">
@@ -98739,7 +98749,9 @@
       <c r="Q1755" t="n">
         <v>0</v>
       </c>
-      <c r="R1755" t="inlineStr"/>
+      <c r="R1755" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1756">
       <c r="A1756" s="2" t="n">
@@ -98793,7 +98805,9 @@
       <c r="Q1756" t="n">
         <v>1</v>
       </c>
-      <c r="R1756" t="inlineStr"/>
+      <c r="R1756" t="n">
+        <v>1</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/60m/ZAGGLE.NS.xlsx
+++ b/stock_historical_data/60m/ZAGGLE.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R1756"/>
+  <dimension ref="A1:R1763"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -98809,6 +98809,384 @@
         <v>1</v>
       </c>
     </row>
+    <row r="1757">
+      <c r="A1757" s="2" t="n">
+        <v>45568.38541666666</v>
+      </c>
+      <c r="B1757" t="n">
+        <v>429.8500061035156</v>
+      </c>
+      <c r="C1757" t="n">
+        <v>457.2999877929688</v>
+      </c>
+      <c r="D1757" t="n">
+        <v>427.2000122070312</v>
+      </c>
+      <c r="E1757" t="n">
+        <v>451</v>
+      </c>
+      <c r="F1757" t="n">
+        <v>451</v>
+      </c>
+      <c r="G1757" t="n">
+        <v>930486</v>
+      </c>
+      <c r="H1757" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1757" t="n">
+        <v>10</v>
+      </c>
+      <c r="J1757" t="n">
+        <v>3</v>
+      </c>
+      <c r="K1757" t="n">
+        <v>9</v>
+      </c>
+      <c r="L1757" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1757" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1757" t="n">
+        <v>40</v>
+      </c>
+      <c r="O1757" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1757" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1757" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1757" t="inlineStr"/>
+    </row>
+    <row r="1758">
+      <c r="A1758" s="2" t="n">
+        <v>45568.42708333334</v>
+      </c>
+      <c r="B1758" t="n">
+        <v>451</v>
+      </c>
+      <c r="C1758" t="n">
+        <v>455.3999938964844</v>
+      </c>
+      <c r="D1758" t="n">
+        <v>449.75</v>
+      </c>
+      <c r="E1758" t="n">
+        <v>450.5</v>
+      </c>
+      <c r="F1758" t="n">
+        <v>450.5</v>
+      </c>
+      <c r="G1758" t="n">
+        <v>191038</v>
+      </c>
+      <c r="H1758" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1758" t="n">
+        <v>10</v>
+      </c>
+      <c r="J1758" t="n">
+        <v>3</v>
+      </c>
+      <c r="K1758" t="n">
+        <v>10</v>
+      </c>
+      <c r="L1758" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1758" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1758" t="n">
+        <v>40</v>
+      </c>
+      <c r="O1758" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1758" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1758" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1758" t="inlineStr"/>
+    </row>
+    <row r="1759">
+      <c r="A1759" s="2" t="n">
+        <v>45568.46875</v>
+      </c>
+      <c r="B1759" t="n">
+        <v>450.3999938964844</v>
+      </c>
+      <c r="C1759" t="n">
+        <v>450.8999938964844</v>
+      </c>
+      <c r="D1759" t="n">
+        <v>447.5</v>
+      </c>
+      <c r="E1759" t="n">
+        <v>448.5</v>
+      </c>
+      <c r="F1759" t="n">
+        <v>448.5</v>
+      </c>
+      <c r="G1759" t="n">
+        <v>171672</v>
+      </c>
+      <c r="H1759" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1759" t="n">
+        <v>10</v>
+      </c>
+      <c r="J1759" t="n">
+        <v>3</v>
+      </c>
+      <c r="K1759" t="n">
+        <v>11</v>
+      </c>
+      <c r="L1759" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1759" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1759" t="n">
+        <v>40</v>
+      </c>
+      <c r="O1759" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1759" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1759" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1759" t="inlineStr"/>
+    </row>
+    <row r="1760">
+      <c r="A1760" s="2" t="n">
+        <v>45568.51041666666</v>
+      </c>
+      <c r="B1760" t="n">
+        <v>448.5</v>
+      </c>
+      <c r="C1760" t="n">
+        <v>449.3999938964844</v>
+      </c>
+      <c r="D1760" t="n">
+        <v>446.1000061035156</v>
+      </c>
+      <c r="E1760" t="n">
+        <v>447.2999877929688</v>
+      </c>
+      <c r="F1760" t="n">
+        <v>447.2999877929688</v>
+      </c>
+      <c r="G1760" t="n">
+        <v>116322</v>
+      </c>
+      <c r="H1760" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1760" t="n">
+        <v>10</v>
+      </c>
+      <c r="J1760" t="n">
+        <v>3</v>
+      </c>
+      <c r="K1760" t="n">
+        <v>12</v>
+      </c>
+      <c r="L1760" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1760" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1760" t="n">
+        <v>40</v>
+      </c>
+      <c r="O1760" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1760" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1760" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1760" t="inlineStr"/>
+    </row>
+    <row r="1761">
+      <c r="A1761" s="2" t="n">
+        <v>45568.55208333334</v>
+      </c>
+      <c r="B1761" t="n">
+        <v>447.25</v>
+      </c>
+      <c r="C1761" t="n">
+        <v>447.6499938964844</v>
+      </c>
+      <c r="D1761" t="n">
+        <v>440.8999938964844</v>
+      </c>
+      <c r="E1761" t="n">
+        <v>441.5499877929688</v>
+      </c>
+      <c r="F1761" t="n">
+        <v>441.5499877929688</v>
+      </c>
+      <c r="G1761" t="n">
+        <v>310027</v>
+      </c>
+      <c r="H1761" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1761" t="n">
+        <v>10</v>
+      </c>
+      <c r="J1761" t="n">
+        <v>3</v>
+      </c>
+      <c r="K1761" t="n">
+        <v>13</v>
+      </c>
+      <c r="L1761" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1761" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1761" t="n">
+        <v>40</v>
+      </c>
+      <c r="O1761" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1761" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1761" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1761" t="inlineStr"/>
+    </row>
+    <row r="1762">
+      <c r="A1762" s="2" t="n">
+        <v>45568.59375</v>
+      </c>
+      <c r="B1762" t="n">
+        <v>441.5</v>
+      </c>
+      <c r="C1762" t="n">
+        <v>446.4500122070312</v>
+      </c>
+      <c r="D1762" t="n">
+        <v>441.0499877929688</v>
+      </c>
+      <c r="E1762" t="n">
+        <v>445.3999938964844</v>
+      </c>
+      <c r="F1762" t="n">
+        <v>445.3999938964844</v>
+      </c>
+      <c r="G1762" t="n">
+        <v>393656</v>
+      </c>
+      <c r="H1762" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1762" t="n">
+        <v>10</v>
+      </c>
+      <c r="J1762" t="n">
+        <v>3</v>
+      </c>
+      <c r="K1762" t="n">
+        <v>14</v>
+      </c>
+      <c r="L1762" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1762" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1762" t="n">
+        <v>40</v>
+      </c>
+      <c r="O1762" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1762" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1762" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1762" t="inlineStr"/>
+    </row>
+    <row r="1763">
+      <c r="A1763" s="2" t="n">
+        <v>45568.63541666666</v>
+      </c>
+      <c r="B1763" t="n">
+        <v>445.4500122070312</v>
+      </c>
+      <c r="C1763" t="n">
+        <v>450.6499938964844</v>
+      </c>
+      <c r="D1763" t="n">
+        <v>444.8500061035156</v>
+      </c>
+      <c r="E1763" t="n">
+        <v>450</v>
+      </c>
+      <c r="F1763" t="n">
+        <v>450</v>
+      </c>
+      <c r="G1763" t="n">
+        <v>219026</v>
+      </c>
+      <c r="H1763" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1763" t="n">
+        <v>10</v>
+      </c>
+      <c r="J1763" t="n">
+        <v>3</v>
+      </c>
+      <c r="K1763" t="n">
+        <v>15</v>
+      </c>
+      <c r="L1763" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1763" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1763" t="n">
+        <v>40</v>
+      </c>
+      <c r="O1763" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1763" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1763" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1763" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/stock_historical_data/60m/ZAGGLE.NS.xlsx
+++ b/stock_historical_data/60m/ZAGGLE.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R1763"/>
+  <dimension ref="A1:R1770"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -98853,7 +98853,7 @@
         <v>40</v>
       </c>
       <c r="O1757" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="P1757" t="n">
         <v>0</v>
@@ -98861,7 +98861,9 @@
       <c r="Q1757" t="n">
         <v>0</v>
       </c>
-      <c r="R1757" t="inlineStr"/>
+      <c r="R1757" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1758">
       <c r="A1758" s="2" t="n">
@@ -98915,7 +98917,9 @@
       <c r="Q1758" t="n">
         <v>0</v>
       </c>
-      <c r="R1758" t="inlineStr"/>
+      <c r="R1758" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1759">
       <c r="A1759" s="2" t="n">
@@ -98969,7 +98973,9 @@
       <c r="Q1759" t="n">
         <v>0</v>
       </c>
-      <c r="R1759" t="inlineStr"/>
+      <c r="R1759" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1760">
       <c r="A1760" s="2" t="n">
@@ -99023,7 +99029,9 @@
       <c r="Q1760" t="n">
         <v>0</v>
       </c>
-      <c r="R1760" t="inlineStr"/>
+      <c r="R1760" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1761">
       <c r="A1761" s="2" t="n">
@@ -99077,7 +99085,9 @@
       <c r="Q1761" t="n">
         <v>0</v>
       </c>
-      <c r="R1761" t="inlineStr"/>
+      <c r="R1761" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1762">
       <c r="A1762" s="2" t="n">
@@ -99131,7 +99141,9 @@
       <c r="Q1762" t="n">
         <v>0</v>
       </c>
-      <c r="R1762" t="inlineStr"/>
+      <c r="R1762" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1763">
       <c r="A1763" s="2" t="n">
@@ -99185,7 +99197,387 @@
       <c r="Q1763" t="n">
         <v>0</v>
       </c>
-      <c r="R1763" t="inlineStr"/>
+      <c r="R1763" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1764">
+      <c r="A1764" s="2" t="n">
+        <v>45569.38541666666</v>
+      </c>
+      <c r="B1764" t="n">
+        <v>440</v>
+      </c>
+      <c r="C1764" t="n">
+        <v>452.75</v>
+      </c>
+      <c r="D1764" t="n">
+        <v>435.6499938964844</v>
+      </c>
+      <c r="E1764" t="n">
+        <v>450.3999938964844</v>
+      </c>
+      <c r="F1764" t="n">
+        <v>450.3999938964844</v>
+      </c>
+      <c r="G1764" t="n">
+        <v>0</v>
+      </c>
+      <c r="H1764" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1764" t="n">
+        <v>10</v>
+      </c>
+      <c r="J1764" t="n">
+        <v>4</v>
+      </c>
+      <c r="K1764" t="n">
+        <v>9</v>
+      </c>
+      <c r="L1764" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1764" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1764" t="n">
+        <v>40</v>
+      </c>
+      <c r="O1764" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1764" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1764" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1764" t="inlineStr"/>
+    </row>
+    <row r="1765">
+      <c r="A1765" s="2" t="n">
+        <v>45569.42708333334</v>
+      </c>
+      <c r="B1765" t="n">
+        <v>449.9500122070312</v>
+      </c>
+      <c r="C1765" t="n">
+        <v>451.9500122070312</v>
+      </c>
+      <c r="D1765" t="n">
+        <v>446.1499938964844</v>
+      </c>
+      <c r="E1765" t="n">
+        <v>450.1000061035156</v>
+      </c>
+      <c r="F1765" t="n">
+        <v>450.1000061035156</v>
+      </c>
+      <c r="G1765" t="n">
+        <v>946204</v>
+      </c>
+      <c r="H1765" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1765" t="n">
+        <v>10</v>
+      </c>
+      <c r="J1765" t="n">
+        <v>4</v>
+      </c>
+      <c r="K1765" t="n">
+        <v>10</v>
+      </c>
+      <c r="L1765" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1765" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1765" t="n">
+        <v>40</v>
+      </c>
+      <c r="O1765" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1765" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1765" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1765" t="inlineStr"/>
+    </row>
+    <row r="1766">
+      <c r="A1766" s="2" t="n">
+        <v>45569.46875</v>
+      </c>
+      <c r="B1766" t="n">
+        <v>450.1000061035156</v>
+      </c>
+      <c r="C1766" t="n">
+        <v>467.6000061035156</v>
+      </c>
+      <c r="D1766" t="n">
+        <v>450</v>
+      </c>
+      <c r="E1766" t="n">
+        <v>460.5499877929688</v>
+      </c>
+      <c r="F1766" t="n">
+        <v>460.5499877929688</v>
+      </c>
+      <c r="G1766" t="n">
+        <v>1211802</v>
+      </c>
+      <c r="H1766" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1766" t="n">
+        <v>10</v>
+      </c>
+      <c r="J1766" t="n">
+        <v>4</v>
+      </c>
+      <c r="K1766" t="n">
+        <v>11</v>
+      </c>
+      <c r="L1766" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1766" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1766" t="n">
+        <v>40</v>
+      </c>
+      <c r="O1766" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1766" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1766" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1766" t="inlineStr"/>
+    </row>
+    <row r="1767">
+      <c r="A1767" s="2" t="n">
+        <v>45569.51041666666</v>
+      </c>
+      <c r="B1767" t="n">
+        <v>460.5</v>
+      </c>
+      <c r="C1767" t="n">
+        <v>466.75</v>
+      </c>
+      <c r="D1767" t="n">
+        <v>457.4500122070312</v>
+      </c>
+      <c r="E1767" t="n">
+        <v>459.7000122070312</v>
+      </c>
+      <c r="F1767" t="n">
+        <v>459.7000122070312</v>
+      </c>
+      <c r="G1767" t="n">
+        <v>693917</v>
+      </c>
+      <c r="H1767" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1767" t="n">
+        <v>10</v>
+      </c>
+      <c r="J1767" t="n">
+        <v>4</v>
+      </c>
+      <c r="K1767" t="n">
+        <v>12</v>
+      </c>
+      <c r="L1767" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1767" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1767" t="n">
+        <v>40</v>
+      </c>
+      <c r="O1767" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1767" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1767" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1767" t="inlineStr"/>
+    </row>
+    <row r="1768">
+      <c r="A1768" s="2" t="n">
+        <v>45569.55208333334</v>
+      </c>
+      <c r="B1768" t="n">
+        <v>459.75</v>
+      </c>
+      <c r="C1768" t="n">
+        <v>460.5499877929688</v>
+      </c>
+      <c r="D1768" t="n">
+        <v>455.8500061035156</v>
+      </c>
+      <c r="E1768" t="n">
+        <v>460.2999877929688</v>
+      </c>
+      <c r="F1768" t="n">
+        <v>460.2999877929688</v>
+      </c>
+      <c r="G1768" t="n">
+        <v>413669</v>
+      </c>
+      <c r="H1768" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1768" t="n">
+        <v>10</v>
+      </c>
+      <c r="J1768" t="n">
+        <v>4</v>
+      </c>
+      <c r="K1768" t="n">
+        <v>13</v>
+      </c>
+      <c r="L1768" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1768" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1768" t="n">
+        <v>40</v>
+      </c>
+      <c r="O1768" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1768" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q1768" t="n">
+        <v>1</v>
+      </c>
+      <c r="R1768" t="inlineStr"/>
+    </row>
+    <row r="1769">
+      <c r="A1769" s="2" t="n">
+        <v>45569.59375</v>
+      </c>
+      <c r="B1769" t="n">
+        <v>460.0499877929688</v>
+      </c>
+      <c r="C1769" t="n">
+        <v>462.1000061035156</v>
+      </c>
+      <c r="D1769" t="n">
+        <v>454</v>
+      </c>
+      <c r="E1769" t="n">
+        <v>460.0499877929688</v>
+      </c>
+      <c r="F1769" t="n">
+        <v>460.0499877929688</v>
+      </c>
+      <c r="G1769" t="n">
+        <v>533412</v>
+      </c>
+      <c r="H1769" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1769" t="n">
+        <v>10</v>
+      </c>
+      <c r="J1769" t="n">
+        <v>4</v>
+      </c>
+      <c r="K1769" t="n">
+        <v>14</v>
+      </c>
+      <c r="L1769" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1769" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1769" t="n">
+        <v>40</v>
+      </c>
+      <c r="O1769" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1769" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1769" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1769" t="inlineStr"/>
+    </row>
+    <row r="1770">
+      <c r="A1770" s="2" t="n">
+        <v>45569.63541666666</v>
+      </c>
+      <c r="B1770" t="n">
+        <v>460</v>
+      </c>
+      <c r="C1770" t="n">
+        <v>461.0499877929688</v>
+      </c>
+      <c r="D1770" t="n">
+        <v>458</v>
+      </c>
+      <c r="E1770" t="n">
+        <v>459.2999877929688</v>
+      </c>
+      <c r="F1770" t="n">
+        <v>459.2999877929688</v>
+      </c>
+      <c r="G1770" t="n">
+        <v>298696</v>
+      </c>
+      <c r="H1770" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1770" t="n">
+        <v>10</v>
+      </c>
+      <c r="J1770" t="n">
+        <v>4</v>
+      </c>
+      <c r="K1770" t="n">
+        <v>15</v>
+      </c>
+      <c r="L1770" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1770" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1770" t="n">
+        <v>40</v>
+      </c>
+      <c r="O1770" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1770" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1770" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1770" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/60m/ZAGGLE.NS.xlsx
+++ b/stock_historical_data/60m/ZAGGLE.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R1770"/>
+  <dimension ref="A1:R1784"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -99253,7 +99253,9 @@
       <c r="Q1764" t="n">
         <v>0</v>
       </c>
-      <c r="R1764" t="inlineStr"/>
+      <c r="R1764" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1765">
       <c r="A1765" s="2" t="n">
@@ -99307,7 +99309,9 @@
       <c r="Q1765" t="n">
         <v>0</v>
       </c>
-      <c r="R1765" t="inlineStr"/>
+      <c r="R1765" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1766">
       <c r="A1766" s="2" t="n">
@@ -99353,7 +99357,7 @@
         <v>40</v>
       </c>
       <c r="O1766" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P1766" t="n">
         <v>0</v>
@@ -99361,7 +99365,9 @@
       <c r="Q1766" t="n">
         <v>0</v>
       </c>
-      <c r="R1766" t="inlineStr"/>
+      <c r="R1766" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1767">
       <c r="A1767" s="2" t="n">
@@ -99415,7 +99421,9 @@
       <c r="Q1767" t="n">
         <v>0</v>
       </c>
-      <c r="R1767" t="inlineStr"/>
+      <c r="R1767" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1768">
       <c r="A1768" s="2" t="n">
@@ -99469,7 +99477,9 @@
       <c r="Q1768" t="n">
         <v>1</v>
       </c>
-      <c r="R1768" t="inlineStr"/>
+      <c r="R1768" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="1769">
       <c r="A1769" s="2" t="n">
@@ -99523,7 +99533,9 @@
       <c r="Q1769" t="n">
         <v>0</v>
       </c>
-      <c r="R1769" t="inlineStr"/>
+      <c r="R1769" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1770">
       <c r="A1770" s="2" t="n">
@@ -99577,7 +99589,765 @@
       <c r="Q1770" t="n">
         <v>0</v>
       </c>
-      <c r="R1770" t="inlineStr"/>
+      <c r="R1770" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1771">
+      <c r="A1771" s="2" t="n">
+        <v>45572.38541666666</v>
+      </c>
+      <c r="B1771" t="n">
+        <v>462.3500061035156</v>
+      </c>
+      <c r="C1771" t="n">
+        <v>464.25</v>
+      </c>
+      <c r="D1771" t="n">
+        <v>428.2999877929688</v>
+      </c>
+      <c r="E1771" t="n">
+        <v>434.5499877929688</v>
+      </c>
+      <c r="F1771" t="n">
+        <v>434.5499877929688</v>
+      </c>
+      <c r="G1771" t="n">
+        <v>0</v>
+      </c>
+      <c r="H1771" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1771" t="n">
+        <v>10</v>
+      </c>
+      <c r="J1771" t="n">
+        <v>7</v>
+      </c>
+      <c r="K1771" t="n">
+        <v>9</v>
+      </c>
+      <c r="L1771" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1771" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1771" t="n">
+        <v>41</v>
+      </c>
+      <c r="O1771" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1771" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1771" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1771" t="inlineStr"/>
+    </row>
+    <row r="1772">
+      <c r="A1772" s="2" t="n">
+        <v>45572.42708333334</v>
+      </c>
+      <c r="B1772" t="n">
+        <v>434.2999877929688</v>
+      </c>
+      <c r="C1772" t="n">
+        <v>434.7000122070312</v>
+      </c>
+      <c r="D1772" t="n">
+        <v>416.0499877929688</v>
+      </c>
+      <c r="E1772" t="n">
+        <v>423.75</v>
+      </c>
+      <c r="F1772" t="n">
+        <v>423.75</v>
+      </c>
+      <c r="G1772" t="n">
+        <v>581935</v>
+      </c>
+      <c r="H1772" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1772" t="n">
+        <v>10</v>
+      </c>
+      <c r="J1772" t="n">
+        <v>7</v>
+      </c>
+      <c r="K1772" t="n">
+        <v>10</v>
+      </c>
+      <c r="L1772" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1772" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1772" t="n">
+        <v>41</v>
+      </c>
+      <c r="O1772" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1772" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1772" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1772" t="inlineStr"/>
+    </row>
+    <row r="1773">
+      <c r="A1773" s="2" t="n">
+        <v>45572.46875</v>
+      </c>
+      <c r="B1773" t="n">
+        <v>423.8999938964844</v>
+      </c>
+      <c r="C1773" t="n">
+        <v>432.5499877929688</v>
+      </c>
+      <c r="D1773" t="n">
+        <v>423.8999938964844</v>
+      </c>
+      <c r="E1773" t="n">
+        <v>432.2999877929688</v>
+      </c>
+      <c r="F1773" t="n">
+        <v>432.2999877929688</v>
+      </c>
+      <c r="G1773" t="n">
+        <v>327222</v>
+      </c>
+      <c r="H1773" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1773" t="n">
+        <v>10</v>
+      </c>
+      <c r="J1773" t="n">
+        <v>7</v>
+      </c>
+      <c r="K1773" t="n">
+        <v>11</v>
+      </c>
+      <c r="L1773" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1773" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1773" t="n">
+        <v>41</v>
+      </c>
+      <c r="O1773" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1773" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1773" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1773" t="inlineStr"/>
+    </row>
+    <row r="1774">
+      <c r="A1774" s="2" t="n">
+        <v>45572.51041666666</v>
+      </c>
+      <c r="B1774" t="n">
+        <v>432</v>
+      </c>
+      <c r="C1774" t="n">
+        <v>432</v>
+      </c>
+      <c r="D1774" t="n">
+        <v>422</v>
+      </c>
+      <c r="E1774" t="n">
+        <v>424.5499877929688</v>
+      </c>
+      <c r="F1774" t="n">
+        <v>424.5499877929688</v>
+      </c>
+      <c r="G1774" t="n">
+        <v>148031</v>
+      </c>
+      <c r="H1774" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1774" t="n">
+        <v>10</v>
+      </c>
+      <c r="J1774" t="n">
+        <v>7</v>
+      </c>
+      <c r="K1774" t="n">
+        <v>12</v>
+      </c>
+      <c r="L1774" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1774" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1774" t="n">
+        <v>41</v>
+      </c>
+      <c r="O1774" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1774" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1774" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1774" t="inlineStr"/>
+    </row>
+    <row r="1775">
+      <c r="A1775" s="2" t="n">
+        <v>45572.55208333334</v>
+      </c>
+      <c r="B1775" t="n">
+        <v>425.0499877929688</v>
+      </c>
+      <c r="C1775" t="n">
+        <v>431.6499938964844</v>
+      </c>
+      <c r="D1775" t="n">
+        <v>423.8500061035156</v>
+      </c>
+      <c r="E1775" t="n">
+        <v>430.7999877929688</v>
+      </c>
+      <c r="F1775" t="n">
+        <v>430.7999877929688</v>
+      </c>
+      <c r="G1775" t="n">
+        <v>182702</v>
+      </c>
+      <c r="H1775" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1775" t="n">
+        <v>10</v>
+      </c>
+      <c r="J1775" t="n">
+        <v>7</v>
+      </c>
+      <c r="K1775" t="n">
+        <v>13</v>
+      </c>
+      <c r="L1775" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1775" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1775" t="n">
+        <v>41</v>
+      </c>
+      <c r="O1775" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1775" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1775" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1775" t="inlineStr"/>
+    </row>
+    <row r="1776">
+      <c r="A1776" s="2" t="n">
+        <v>45572.59375</v>
+      </c>
+      <c r="B1776" t="n">
+        <v>430.1000061035156</v>
+      </c>
+      <c r="C1776" t="n">
+        <v>430.1000061035156</v>
+      </c>
+      <c r="D1776" t="n">
+        <v>422.8999938964844</v>
+      </c>
+      <c r="E1776" t="n">
+        <v>422.8999938964844</v>
+      </c>
+      <c r="F1776" t="n">
+        <v>422.8999938964844</v>
+      </c>
+      <c r="G1776" t="n">
+        <v>260017</v>
+      </c>
+      <c r="H1776" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1776" t="n">
+        <v>10</v>
+      </c>
+      <c r="J1776" t="n">
+        <v>7</v>
+      </c>
+      <c r="K1776" t="n">
+        <v>14</v>
+      </c>
+      <c r="L1776" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1776" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1776" t="n">
+        <v>41</v>
+      </c>
+      <c r="O1776" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1776" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1776" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1776" t="inlineStr"/>
+    </row>
+    <row r="1777">
+      <c r="A1777" s="2" t="n">
+        <v>45572.63541666666</v>
+      </c>
+      <c r="B1777" t="n">
+        <v>423</v>
+      </c>
+      <c r="C1777" t="n">
+        <v>424.5</v>
+      </c>
+      <c r="D1777" t="n">
+        <v>420</v>
+      </c>
+      <c r="E1777" t="n">
+        <v>422.6000061035156</v>
+      </c>
+      <c r="F1777" t="n">
+        <v>422.6000061035156</v>
+      </c>
+      <c r="G1777" t="n">
+        <v>105967</v>
+      </c>
+      <c r="H1777" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1777" t="n">
+        <v>10</v>
+      </c>
+      <c r="J1777" t="n">
+        <v>7</v>
+      </c>
+      <c r="K1777" t="n">
+        <v>15</v>
+      </c>
+      <c r="L1777" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1777" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1777" t="n">
+        <v>41</v>
+      </c>
+      <c r="O1777" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1777" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q1777" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1777" t="inlineStr"/>
+    </row>
+    <row r="1778">
+      <c r="A1778" s="2" t="n">
+        <v>45573.38541666666</v>
+      </c>
+      <c r="B1778" t="n">
+        <v>420</v>
+      </c>
+      <c r="C1778" t="n">
+        <v>425</v>
+      </c>
+      <c r="D1778" t="n">
+        <v>406.0499877929688</v>
+      </c>
+      <c r="E1778" t="n">
+        <v>420.6499938964844</v>
+      </c>
+      <c r="F1778" t="n">
+        <v>420.6499938964844</v>
+      </c>
+      <c r="G1778" t="n">
+        <v>0</v>
+      </c>
+      <c r="H1778" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1778" t="n">
+        <v>10</v>
+      </c>
+      <c r="J1778" t="n">
+        <v>8</v>
+      </c>
+      <c r="K1778" t="n">
+        <v>9</v>
+      </c>
+      <c r="L1778" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1778" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1778" t="n">
+        <v>41</v>
+      </c>
+      <c r="O1778" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1778" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1778" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1778" t="inlineStr"/>
+    </row>
+    <row r="1779">
+      <c r="A1779" s="2" t="n">
+        <v>45573.42708333334</v>
+      </c>
+      <c r="B1779" t="n">
+        <v>422.5</v>
+      </c>
+      <c r="C1779" t="n">
+        <v>438</v>
+      </c>
+      <c r="D1779" t="n">
+        <v>415</v>
+      </c>
+      <c r="E1779" t="n">
+        <v>433.5499877929688</v>
+      </c>
+      <c r="F1779" t="n">
+        <v>433.5499877929688</v>
+      </c>
+      <c r="G1779" t="n">
+        <v>164295</v>
+      </c>
+      <c r="H1779" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1779" t="n">
+        <v>10</v>
+      </c>
+      <c r="J1779" t="n">
+        <v>8</v>
+      </c>
+      <c r="K1779" t="n">
+        <v>10</v>
+      </c>
+      <c r="L1779" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1779" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1779" t="n">
+        <v>41</v>
+      </c>
+      <c r="O1779" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1779" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1779" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1779" t="inlineStr"/>
+    </row>
+    <row r="1780">
+      <c r="A1780" s="2" t="n">
+        <v>45573.46875</v>
+      </c>
+      <c r="B1780" t="n">
+        <v>433</v>
+      </c>
+      <c r="C1780" t="n">
+        <v>435</v>
+      </c>
+      <c r="D1780" t="n">
+        <v>424.5</v>
+      </c>
+      <c r="E1780" t="n">
+        <v>427.9500122070312</v>
+      </c>
+      <c r="F1780" t="n">
+        <v>427.9500122070312</v>
+      </c>
+      <c r="G1780" t="n">
+        <v>40255</v>
+      </c>
+      <c r="H1780" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1780" t="n">
+        <v>10</v>
+      </c>
+      <c r="J1780" t="n">
+        <v>8</v>
+      </c>
+      <c r="K1780" t="n">
+        <v>11</v>
+      </c>
+      <c r="L1780" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1780" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1780" t="n">
+        <v>41</v>
+      </c>
+      <c r="O1780" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1780" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1780" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1780" t="inlineStr"/>
+    </row>
+    <row r="1781">
+      <c r="A1781" s="2" t="n">
+        <v>45573.51041666666</v>
+      </c>
+      <c r="B1781" t="n">
+        <v>427.9500122070312</v>
+      </c>
+      <c r="C1781" t="n">
+        <v>428</v>
+      </c>
+      <c r="D1781" t="n">
+        <v>419.6499938964844</v>
+      </c>
+      <c r="E1781" t="n">
+        <v>425</v>
+      </c>
+      <c r="F1781" t="n">
+        <v>425</v>
+      </c>
+      <c r="G1781" t="n">
+        <v>46296</v>
+      </c>
+      <c r="H1781" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1781" t="n">
+        <v>10</v>
+      </c>
+      <c r="J1781" t="n">
+        <v>8</v>
+      </c>
+      <c r="K1781" t="n">
+        <v>12</v>
+      </c>
+      <c r="L1781" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1781" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1781" t="n">
+        <v>41</v>
+      </c>
+      <c r="O1781" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1781" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1781" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1781" t="inlineStr"/>
+    </row>
+    <row r="1782">
+      <c r="A1782" s="2" t="n">
+        <v>45573.55208333334</v>
+      </c>
+      <c r="B1782" t="n">
+        <v>425</v>
+      </c>
+      <c r="C1782" t="n">
+        <v>425</v>
+      </c>
+      <c r="D1782" t="n">
+        <v>420</v>
+      </c>
+      <c r="E1782" t="n">
+        <v>424.9500122070312</v>
+      </c>
+      <c r="F1782" t="n">
+        <v>424.9500122070312</v>
+      </c>
+      <c r="G1782" t="n">
+        <v>34151</v>
+      </c>
+      <c r="H1782" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1782" t="n">
+        <v>10</v>
+      </c>
+      <c r="J1782" t="n">
+        <v>8</v>
+      </c>
+      <c r="K1782" t="n">
+        <v>13</v>
+      </c>
+      <c r="L1782" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1782" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1782" t="n">
+        <v>41</v>
+      </c>
+      <c r="O1782" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1782" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1782" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1782" t="inlineStr"/>
+    </row>
+    <row r="1783">
+      <c r="A1783" s="2" t="n">
+        <v>45573.59375</v>
+      </c>
+      <c r="B1783" t="n">
+        <v>424.9500122070312</v>
+      </c>
+      <c r="C1783" t="n">
+        <v>429</v>
+      </c>
+      <c r="D1783" t="n">
+        <v>419.1000061035156</v>
+      </c>
+      <c r="E1783" t="n">
+        <v>428.9500122070312</v>
+      </c>
+      <c r="F1783" t="n">
+        <v>428.9500122070312</v>
+      </c>
+      <c r="G1783" t="n">
+        <v>57129</v>
+      </c>
+      <c r="H1783" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1783" t="n">
+        <v>10</v>
+      </c>
+      <c r="J1783" t="n">
+        <v>8</v>
+      </c>
+      <c r="K1783" t="n">
+        <v>14</v>
+      </c>
+      <c r="L1783" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1783" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1783" t="n">
+        <v>41</v>
+      </c>
+      <c r="O1783" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1783" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1783" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1783" t="inlineStr"/>
+    </row>
+    <row r="1784">
+      <c r="A1784" s="2" t="n">
+        <v>45573.63541666666</v>
+      </c>
+      <c r="B1784" t="n">
+        <v>428.9500122070312</v>
+      </c>
+      <c r="C1784" t="n">
+        <v>429</v>
+      </c>
+      <c r="D1784" t="n">
+        <v>420.1000061035156</v>
+      </c>
+      <c r="E1784" t="n">
+        <v>425.75</v>
+      </c>
+      <c r="F1784" t="n">
+        <v>425.75</v>
+      </c>
+      <c r="G1784" t="n">
+        <v>20446</v>
+      </c>
+      <c r="H1784" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1784" t="n">
+        <v>10</v>
+      </c>
+      <c r="J1784" t="n">
+        <v>8</v>
+      </c>
+      <c r="K1784" t="n">
+        <v>15</v>
+      </c>
+      <c r="L1784" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1784" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1784" t="n">
+        <v>41</v>
+      </c>
+      <c r="O1784" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1784" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1784" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1784" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/60m/ZAGGLE.NS.xlsx
+++ b/stock_historical_data/60m/ZAGGLE.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R1784"/>
+  <dimension ref="A1:R1791"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -99645,7 +99645,9 @@
       <c r="Q1771" t="n">
         <v>0</v>
       </c>
-      <c r="R1771" t="inlineStr"/>
+      <c r="R1771" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1772">
       <c r="A1772" s="2" t="n">
@@ -99699,7 +99701,9 @@
       <c r="Q1772" t="n">
         <v>0</v>
       </c>
-      <c r="R1772" t="inlineStr"/>
+      <c r="R1772" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1773">
       <c r="A1773" s="2" t="n">
@@ -99753,7 +99757,9 @@
       <c r="Q1773" t="n">
         <v>0</v>
       </c>
-      <c r="R1773" t="inlineStr"/>
+      <c r="R1773" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1774">
       <c r="A1774" s="2" t="n">
@@ -99807,7 +99813,9 @@
       <c r="Q1774" t="n">
         <v>0</v>
       </c>
-      <c r="R1774" t="inlineStr"/>
+      <c r="R1774" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1775">
       <c r="A1775" s="2" t="n">
@@ -99861,7 +99869,9 @@
       <c r="Q1775" t="n">
         <v>0</v>
       </c>
-      <c r="R1775" t="inlineStr"/>
+      <c r="R1775" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1776">
       <c r="A1776" s="2" t="n">
@@ -99915,7 +99925,9 @@
       <c r="Q1776" t="n">
         <v>0</v>
       </c>
-      <c r="R1776" t="inlineStr"/>
+      <c r="R1776" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1777">
       <c r="A1777" s="2" t="n">
@@ -99969,7 +99981,9 @@
       <c r="Q1777" t="n">
         <v>0</v>
       </c>
-      <c r="R1777" t="inlineStr"/>
+      <c r="R1777" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="1778">
       <c r="A1778" s="2" t="n">
@@ -100015,7 +100029,7 @@
         <v>41</v>
       </c>
       <c r="O1778" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="P1778" t="n">
         <v>0</v>
@@ -100023,7 +100037,9 @@
       <c r="Q1778" t="n">
         <v>0</v>
       </c>
-      <c r="R1778" t="inlineStr"/>
+      <c r="R1778" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1779">
       <c r="A1779" s="2" t="n">
@@ -100077,7 +100093,9 @@
       <c r="Q1779" t="n">
         <v>0</v>
       </c>
-      <c r="R1779" t="inlineStr"/>
+      <c r="R1779" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1780">
       <c r="A1780" s="2" t="n">
@@ -100131,7 +100149,9 @@
       <c r="Q1780" t="n">
         <v>0</v>
       </c>
-      <c r="R1780" t="inlineStr"/>
+      <c r="R1780" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1781">
       <c r="A1781" s="2" t="n">
@@ -100185,7 +100205,9 @@
       <c r="Q1781" t="n">
         <v>0</v>
       </c>
-      <c r="R1781" t="inlineStr"/>
+      <c r="R1781" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1782">
       <c r="A1782" s="2" t="n">
@@ -100239,7 +100261,9 @@
       <c r="Q1782" t="n">
         <v>0</v>
       </c>
-      <c r="R1782" t="inlineStr"/>
+      <c r="R1782" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1783">
       <c r="A1783" s="2" t="n">
@@ -100293,7 +100317,9 @@
       <c r="Q1783" t="n">
         <v>0</v>
       </c>
-      <c r="R1783" t="inlineStr"/>
+      <c r="R1783" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1784">
       <c r="A1784" s="2" t="n">
@@ -100347,7 +100373,387 @@
       <c r="Q1784" t="n">
         <v>0</v>
       </c>
-      <c r="R1784" t="inlineStr"/>
+      <c r="R1784" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1785">
+      <c r="A1785" s="2" t="n">
+        <v>45574.38541666666</v>
+      </c>
+      <c r="B1785" t="n">
+        <v>427.6000061035156</v>
+      </c>
+      <c r="C1785" t="n">
+        <v>430</v>
+      </c>
+      <c r="D1785" t="n">
+        <v>415.6499938964844</v>
+      </c>
+      <c r="E1785" t="n">
+        <v>423.9500122070312</v>
+      </c>
+      <c r="F1785" t="n">
+        <v>423.9500122070312</v>
+      </c>
+      <c r="G1785" t="n">
+        <v>72893</v>
+      </c>
+      <c r="H1785" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1785" t="n">
+        <v>10</v>
+      </c>
+      <c r="J1785" t="n">
+        <v>9</v>
+      </c>
+      <c r="K1785" t="n">
+        <v>9</v>
+      </c>
+      <c r="L1785" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1785" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1785" t="n">
+        <v>41</v>
+      </c>
+      <c r="O1785" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1785" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1785" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1785" t="inlineStr"/>
+    </row>
+    <row r="1786">
+      <c r="A1786" s="2" t="n">
+        <v>45574.42708333334</v>
+      </c>
+      <c r="B1786" t="n">
+        <v>424</v>
+      </c>
+      <c r="C1786" t="n">
+        <v>430.8999938964844</v>
+      </c>
+      <c r="D1786" t="n">
+        <v>420.1000061035156</v>
+      </c>
+      <c r="E1786" t="n">
+        <v>423</v>
+      </c>
+      <c r="F1786" t="n">
+        <v>423</v>
+      </c>
+      <c r="G1786" t="n">
+        <v>52296</v>
+      </c>
+      <c r="H1786" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1786" t="n">
+        <v>10</v>
+      </c>
+      <c r="J1786" t="n">
+        <v>9</v>
+      </c>
+      <c r="K1786" t="n">
+        <v>10</v>
+      </c>
+      <c r="L1786" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1786" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1786" t="n">
+        <v>41</v>
+      </c>
+      <c r="O1786" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1786" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1786" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1786" t="inlineStr"/>
+    </row>
+    <row r="1787">
+      <c r="A1787" s="2" t="n">
+        <v>45574.46875</v>
+      </c>
+      <c r="B1787" t="n">
+        <v>423</v>
+      </c>
+      <c r="C1787" t="n">
+        <v>425.3999938964844</v>
+      </c>
+      <c r="D1787" t="n">
+        <v>421</v>
+      </c>
+      <c r="E1787" t="n">
+        <v>421</v>
+      </c>
+      <c r="F1787" t="n">
+        <v>421</v>
+      </c>
+      <c r="G1787" t="n">
+        <v>20521</v>
+      </c>
+      <c r="H1787" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1787" t="n">
+        <v>10</v>
+      </c>
+      <c r="J1787" t="n">
+        <v>9</v>
+      </c>
+      <c r="K1787" t="n">
+        <v>11</v>
+      </c>
+      <c r="L1787" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1787" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1787" t="n">
+        <v>41</v>
+      </c>
+      <c r="O1787" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1787" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1787" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1787" t="inlineStr"/>
+    </row>
+    <row r="1788">
+      <c r="A1788" s="2" t="n">
+        <v>45574.51041666666</v>
+      </c>
+      <c r="B1788" t="n">
+        <v>422.7000122070312</v>
+      </c>
+      <c r="C1788" t="n">
+        <v>440.9500122070312</v>
+      </c>
+      <c r="D1788" t="n">
+        <v>420.7000122070312</v>
+      </c>
+      <c r="E1788" t="n">
+        <v>439.8999938964844</v>
+      </c>
+      <c r="F1788" t="n">
+        <v>439.8999938964844</v>
+      </c>
+      <c r="G1788" t="n">
+        <v>107888</v>
+      </c>
+      <c r="H1788" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1788" t="n">
+        <v>10</v>
+      </c>
+      <c r="J1788" t="n">
+        <v>9</v>
+      </c>
+      <c r="K1788" t="n">
+        <v>12</v>
+      </c>
+      <c r="L1788" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1788" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1788" t="n">
+        <v>41</v>
+      </c>
+      <c r="O1788" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1788" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1788" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1788" t="inlineStr"/>
+    </row>
+    <row r="1789">
+      <c r="A1789" s="2" t="n">
+        <v>45574.55208333334</v>
+      </c>
+      <c r="B1789" t="n">
+        <v>439</v>
+      </c>
+      <c r="C1789" t="n">
+        <v>439.8500061035156</v>
+      </c>
+      <c r="D1789" t="n">
+        <v>428</v>
+      </c>
+      <c r="E1789" t="n">
+        <v>435</v>
+      </c>
+      <c r="F1789" t="n">
+        <v>435</v>
+      </c>
+      <c r="G1789" t="n">
+        <v>24177</v>
+      </c>
+      <c r="H1789" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1789" t="n">
+        <v>10</v>
+      </c>
+      <c r="J1789" t="n">
+        <v>9</v>
+      </c>
+      <c r="K1789" t="n">
+        <v>13</v>
+      </c>
+      <c r="L1789" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1789" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1789" t="n">
+        <v>41</v>
+      </c>
+      <c r="O1789" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1789" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q1789" t="n">
+        <v>1</v>
+      </c>
+      <c r="R1789" t="inlineStr"/>
+    </row>
+    <row r="1790">
+      <c r="A1790" s="2" t="n">
+        <v>45574.59375</v>
+      </c>
+      <c r="B1790" t="n">
+        <v>436</v>
+      </c>
+      <c r="C1790" t="n">
+        <v>437.5499877929688</v>
+      </c>
+      <c r="D1790" t="n">
+        <v>421</v>
+      </c>
+      <c r="E1790" t="n">
+        <v>422</v>
+      </c>
+      <c r="F1790" t="n">
+        <v>422</v>
+      </c>
+      <c r="G1790" t="n">
+        <v>60493</v>
+      </c>
+      <c r="H1790" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1790" t="n">
+        <v>10</v>
+      </c>
+      <c r="J1790" t="n">
+        <v>9</v>
+      </c>
+      <c r="K1790" t="n">
+        <v>14</v>
+      </c>
+      <c r="L1790" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1790" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1790" t="n">
+        <v>41</v>
+      </c>
+      <c r="O1790" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1790" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1790" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1790" t="inlineStr"/>
+    </row>
+    <row r="1791">
+      <c r="A1791" s="2" t="n">
+        <v>45574.63541666666</v>
+      </c>
+      <c r="B1791" t="n">
+        <v>422</v>
+      </c>
+      <c r="C1791" t="n">
+        <v>429.9500122070312</v>
+      </c>
+      <c r="D1791" t="n">
+        <v>422</v>
+      </c>
+      <c r="E1791" t="n">
+        <v>425</v>
+      </c>
+      <c r="F1791" t="n">
+        <v>425</v>
+      </c>
+      <c r="G1791" t="n">
+        <v>23960</v>
+      </c>
+      <c r="H1791" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1791" t="n">
+        <v>10</v>
+      </c>
+      <c r="J1791" t="n">
+        <v>9</v>
+      </c>
+      <c r="K1791" t="n">
+        <v>15</v>
+      </c>
+      <c r="L1791" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1791" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1791" t="n">
+        <v>41</v>
+      </c>
+      <c r="O1791" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1791" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1791" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1791" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/60m/ZAGGLE.NS.xlsx
+++ b/stock_historical_data/60m/ZAGGLE.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R1791"/>
+  <dimension ref="A1:R1798"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -100429,7 +100429,9 @@
       <c r="Q1785" t="n">
         <v>0</v>
       </c>
-      <c r="R1785" t="inlineStr"/>
+      <c r="R1785" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1786">
       <c r="A1786" s="2" t="n">
@@ -100483,7 +100485,9 @@
       <c r="Q1786" t="n">
         <v>0</v>
       </c>
-      <c r="R1786" t="inlineStr"/>
+      <c r="R1786" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1787">
       <c r="A1787" s="2" t="n">
@@ -100537,7 +100541,9 @@
       <c r="Q1787" t="n">
         <v>0</v>
       </c>
-      <c r="R1787" t="inlineStr"/>
+      <c r="R1787" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1788">
       <c r="A1788" s="2" t="n">
@@ -100583,7 +100589,7 @@
         <v>41</v>
       </c>
       <c r="O1788" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P1788" t="n">
         <v>0</v>
@@ -100591,7 +100597,9 @@
       <c r="Q1788" t="n">
         <v>0</v>
       </c>
-      <c r="R1788" t="inlineStr"/>
+      <c r="R1788" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1789">
       <c r="A1789" s="2" t="n">
@@ -100645,7 +100653,9 @@
       <c r="Q1789" t="n">
         <v>1</v>
       </c>
-      <c r="R1789" t="inlineStr"/>
+      <c r="R1789" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="1790">
       <c r="A1790" s="2" t="n">
@@ -100699,7 +100709,9 @@
       <c r="Q1790" t="n">
         <v>0</v>
       </c>
-      <c r="R1790" t="inlineStr"/>
+      <c r="R1790" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1791">
       <c r="A1791" s="2" t="n">
@@ -100753,7 +100765,387 @@
       <c r="Q1791" t="n">
         <v>0</v>
       </c>
-      <c r="R1791" t="inlineStr"/>
+      <c r="R1791" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1792">
+      <c r="A1792" s="2" t="n">
+        <v>45575.38541666666</v>
+      </c>
+      <c r="B1792" t="n">
+        <v>429</v>
+      </c>
+      <c r="C1792" t="n">
+        <v>433.7999877929688</v>
+      </c>
+      <c r="D1792" t="n">
+        <v>426</v>
+      </c>
+      <c r="E1792" t="n">
+        <v>432.2000122070312</v>
+      </c>
+      <c r="F1792" t="n">
+        <v>432.2000122070312</v>
+      </c>
+      <c r="G1792" t="n">
+        <v>0</v>
+      </c>
+      <c r="H1792" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1792" t="n">
+        <v>10</v>
+      </c>
+      <c r="J1792" t="n">
+        <v>10</v>
+      </c>
+      <c r="K1792" t="n">
+        <v>9</v>
+      </c>
+      <c r="L1792" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1792" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1792" t="n">
+        <v>41</v>
+      </c>
+      <c r="O1792" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1792" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1792" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1792" t="inlineStr"/>
+    </row>
+    <row r="1793">
+      <c r="A1793" s="2" t="n">
+        <v>45575.42708333334</v>
+      </c>
+      <c r="B1793" t="n">
+        <v>431.9500122070312</v>
+      </c>
+      <c r="C1793" t="n">
+        <v>433</v>
+      </c>
+      <c r="D1793" t="n">
+        <v>429</v>
+      </c>
+      <c r="E1793" t="n">
+        <v>433</v>
+      </c>
+      <c r="F1793" t="n">
+        <v>433</v>
+      </c>
+      <c r="G1793" t="n">
+        <v>30583</v>
+      </c>
+      <c r="H1793" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1793" t="n">
+        <v>10</v>
+      </c>
+      <c r="J1793" t="n">
+        <v>10</v>
+      </c>
+      <c r="K1793" t="n">
+        <v>10</v>
+      </c>
+      <c r="L1793" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1793" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1793" t="n">
+        <v>41</v>
+      </c>
+      <c r="O1793" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1793" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1793" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1793" t="inlineStr"/>
+    </row>
+    <row r="1794">
+      <c r="A1794" s="2" t="n">
+        <v>45575.46875</v>
+      </c>
+      <c r="B1794" t="n">
+        <v>433.5</v>
+      </c>
+      <c r="C1794" t="n">
+        <v>435.8500061035156</v>
+      </c>
+      <c r="D1794" t="n">
+        <v>432</v>
+      </c>
+      <c r="E1794" t="n">
+        <v>434.0499877929688</v>
+      </c>
+      <c r="F1794" t="n">
+        <v>434.0499877929688</v>
+      </c>
+      <c r="G1794" t="n">
+        <v>59850</v>
+      </c>
+      <c r="H1794" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1794" t="n">
+        <v>10</v>
+      </c>
+      <c r="J1794" t="n">
+        <v>10</v>
+      </c>
+      <c r="K1794" t="n">
+        <v>11</v>
+      </c>
+      <c r="L1794" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1794" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1794" t="n">
+        <v>41</v>
+      </c>
+      <c r="O1794" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1794" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1794" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1794" t="inlineStr"/>
+    </row>
+    <row r="1795">
+      <c r="A1795" s="2" t="n">
+        <v>45575.51041666666</v>
+      </c>
+      <c r="B1795" t="n">
+        <v>434.0499877929688</v>
+      </c>
+      <c r="C1795" t="n">
+        <v>435</v>
+      </c>
+      <c r="D1795" t="n">
+        <v>428</v>
+      </c>
+      <c r="E1795" t="n">
+        <v>429</v>
+      </c>
+      <c r="F1795" t="n">
+        <v>429</v>
+      </c>
+      <c r="G1795" t="n">
+        <v>30561</v>
+      </c>
+      <c r="H1795" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1795" t="n">
+        <v>10</v>
+      </c>
+      <c r="J1795" t="n">
+        <v>10</v>
+      </c>
+      <c r="K1795" t="n">
+        <v>12</v>
+      </c>
+      <c r="L1795" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1795" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1795" t="n">
+        <v>41</v>
+      </c>
+      <c r="O1795" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1795" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1795" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1795" t="inlineStr"/>
+    </row>
+    <row r="1796">
+      <c r="A1796" s="2" t="n">
+        <v>45575.55208333334</v>
+      </c>
+      <c r="B1796" t="n">
+        <v>429</v>
+      </c>
+      <c r="C1796" t="n">
+        <v>435</v>
+      </c>
+      <c r="D1796" t="n">
+        <v>424</v>
+      </c>
+      <c r="E1796" t="n">
+        <v>430</v>
+      </c>
+      <c r="F1796" t="n">
+        <v>430</v>
+      </c>
+      <c r="G1796" t="n">
+        <v>42304</v>
+      </c>
+      <c r="H1796" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1796" t="n">
+        <v>10</v>
+      </c>
+      <c r="J1796" t="n">
+        <v>10</v>
+      </c>
+      <c r="K1796" t="n">
+        <v>13</v>
+      </c>
+      <c r="L1796" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1796" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1796" t="n">
+        <v>41</v>
+      </c>
+      <c r="O1796" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1796" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1796" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1796" t="inlineStr"/>
+    </row>
+    <row r="1797">
+      <c r="A1797" s="2" t="n">
+        <v>45575.59375</v>
+      </c>
+      <c r="B1797" t="n">
+        <v>432.75</v>
+      </c>
+      <c r="C1797" t="n">
+        <v>433</v>
+      </c>
+      <c r="D1797" t="n">
+        <v>425</v>
+      </c>
+      <c r="E1797" t="n">
+        <v>427</v>
+      </c>
+      <c r="F1797" t="n">
+        <v>427</v>
+      </c>
+      <c r="G1797" t="n">
+        <v>25825</v>
+      </c>
+      <c r="H1797" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1797" t="n">
+        <v>10</v>
+      </c>
+      <c r="J1797" t="n">
+        <v>10</v>
+      </c>
+      <c r="K1797" t="n">
+        <v>14</v>
+      </c>
+      <c r="L1797" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1797" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1797" t="n">
+        <v>41</v>
+      </c>
+      <c r="O1797" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1797" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1797" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1797" t="inlineStr"/>
+    </row>
+    <row r="1798">
+      <c r="A1798" s="2" t="n">
+        <v>45575.63541666666</v>
+      </c>
+      <c r="B1798" t="n">
+        <v>427</v>
+      </c>
+      <c r="C1798" t="n">
+        <v>428.8999938964844</v>
+      </c>
+      <c r="D1798" t="n">
+        <v>426</v>
+      </c>
+      <c r="E1798" t="n">
+        <v>427.1000061035156</v>
+      </c>
+      <c r="F1798" t="n">
+        <v>427.1000061035156</v>
+      </c>
+      <c r="G1798" t="n">
+        <v>15705</v>
+      </c>
+      <c r="H1798" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1798" t="n">
+        <v>10</v>
+      </c>
+      <c r="J1798" t="n">
+        <v>10</v>
+      </c>
+      <c r="K1798" t="n">
+        <v>15</v>
+      </c>
+      <c r="L1798" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1798" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1798" t="n">
+        <v>41</v>
+      </c>
+      <c r="O1798" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1798" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1798" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1798" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/60m/ZAGGLE.NS.xlsx
+++ b/stock_historical_data/60m/ZAGGLE.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R1798"/>
+  <dimension ref="A1:R1805"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -100821,7 +100821,9 @@
       <c r="Q1792" t="n">
         <v>0</v>
       </c>
-      <c r="R1792" t="inlineStr"/>
+      <c r="R1792" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1793">
       <c r="A1793" s="2" t="n">
@@ -100875,7 +100877,9 @@
       <c r="Q1793" t="n">
         <v>0</v>
       </c>
-      <c r="R1793" t="inlineStr"/>
+      <c r="R1793" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1794">
       <c r="A1794" s="2" t="n">
@@ -100929,7 +100933,9 @@
       <c r="Q1794" t="n">
         <v>0</v>
       </c>
-      <c r="R1794" t="inlineStr"/>
+      <c r="R1794" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1795">
       <c r="A1795" s="2" t="n">
@@ -100983,7 +100989,9 @@
       <c r="Q1795" t="n">
         <v>0</v>
       </c>
-      <c r="R1795" t="inlineStr"/>
+      <c r="R1795" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1796">
       <c r="A1796" s="2" t="n">
@@ -101037,7 +101045,9 @@
       <c r="Q1796" t="n">
         <v>0</v>
       </c>
-      <c r="R1796" t="inlineStr"/>
+      <c r="R1796" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1797">
       <c r="A1797" s="2" t="n">
@@ -101091,7 +101101,9 @@
       <c r="Q1797" t="n">
         <v>0</v>
       </c>
-      <c r="R1797" t="inlineStr"/>
+      <c r="R1797" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1798">
       <c r="A1798" s="2" t="n">
@@ -101145,7 +101157,387 @@
       <c r="Q1798" t="n">
         <v>0</v>
       </c>
-      <c r="R1798" t="inlineStr"/>
+      <c r="R1798" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1799">
+      <c r="A1799" s="2" t="n">
+        <v>45576.38541666666</v>
+      </c>
+      <c r="B1799" t="n">
+        <v>422.6000061035156</v>
+      </c>
+      <c r="C1799" t="n">
+        <v>430</v>
+      </c>
+      <c r="D1799" t="n">
+        <v>420.5</v>
+      </c>
+      <c r="E1799" t="n">
+        <v>425</v>
+      </c>
+      <c r="F1799" t="n">
+        <v>425</v>
+      </c>
+      <c r="G1799" t="n">
+        <v>0</v>
+      </c>
+      <c r="H1799" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1799" t="n">
+        <v>10</v>
+      </c>
+      <c r="J1799" t="n">
+        <v>11</v>
+      </c>
+      <c r="K1799" t="n">
+        <v>9</v>
+      </c>
+      <c r="L1799" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1799" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1799" t="n">
+        <v>41</v>
+      </c>
+      <c r="O1799" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1799" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1799" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1799" t="inlineStr"/>
+    </row>
+    <row r="1800">
+      <c r="A1800" s="2" t="n">
+        <v>45576.42708333334</v>
+      </c>
+      <c r="B1800" t="n">
+        <v>425</v>
+      </c>
+      <c r="C1800" t="n">
+        <v>426.5</v>
+      </c>
+      <c r="D1800" t="n">
+        <v>420.5</v>
+      </c>
+      <c r="E1800" t="n">
+        <v>421.6000061035156</v>
+      </c>
+      <c r="F1800" t="n">
+        <v>421.6000061035156</v>
+      </c>
+      <c r="G1800" t="n">
+        <v>31252</v>
+      </c>
+      <c r="H1800" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1800" t="n">
+        <v>10</v>
+      </c>
+      <c r="J1800" t="n">
+        <v>11</v>
+      </c>
+      <c r="K1800" t="n">
+        <v>10</v>
+      </c>
+      <c r="L1800" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1800" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1800" t="n">
+        <v>41</v>
+      </c>
+      <c r="O1800" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1800" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1800" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1800" t="inlineStr"/>
+    </row>
+    <row r="1801">
+      <c r="A1801" s="2" t="n">
+        <v>45576.46875</v>
+      </c>
+      <c r="B1801" t="n">
+        <v>421.6000061035156</v>
+      </c>
+      <c r="C1801" t="n">
+        <v>426</v>
+      </c>
+      <c r="D1801" t="n">
+        <v>420.2999877929688</v>
+      </c>
+      <c r="E1801" t="n">
+        <v>420.3500061035156</v>
+      </c>
+      <c r="F1801" t="n">
+        <v>420.3500061035156</v>
+      </c>
+      <c r="G1801" t="n">
+        <v>24423</v>
+      </c>
+      <c r="H1801" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1801" t="n">
+        <v>10</v>
+      </c>
+      <c r="J1801" t="n">
+        <v>11</v>
+      </c>
+      <c r="K1801" t="n">
+        <v>11</v>
+      </c>
+      <c r="L1801" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1801" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1801" t="n">
+        <v>41</v>
+      </c>
+      <c r="O1801" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1801" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1801" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1801" t="inlineStr"/>
+    </row>
+    <row r="1802">
+      <c r="A1802" s="2" t="n">
+        <v>45576.51041666666</v>
+      </c>
+      <c r="B1802" t="n">
+        <v>420.3500061035156</v>
+      </c>
+      <c r="C1802" t="n">
+        <v>425</v>
+      </c>
+      <c r="D1802" t="n">
+        <v>419.6000061035156</v>
+      </c>
+      <c r="E1802" t="n">
+        <v>421.3500061035156</v>
+      </c>
+      <c r="F1802" t="n">
+        <v>421.3500061035156</v>
+      </c>
+      <c r="G1802" t="n">
+        <v>22333</v>
+      </c>
+      <c r="H1802" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1802" t="n">
+        <v>10</v>
+      </c>
+      <c r="J1802" t="n">
+        <v>11</v>
+      </c>
+      <c r="K1802" t="n">
+        <v>12</v>
+      </c>
+      <c r="L1802" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1802" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1802" t="n">
+        <v>41</v>
+      </c>
+      <c r="O1802" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1802" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1802" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1802" t="inlineStr"/>
+    </row>
+    <row r="1803">
+      <c r="A1803" s="2" t="n">
+        <v>45576.55208333334</v>
+      </c>
+      <c r="B1803" t="n">
+        <v>421.9500122070312</v>
+      </c>
+      <c r="C1803" t="n">
+        <v>427</v>
+      </c>
+      <c r="D1803" t="n">
+        <v>418.0499877929688</v>
+      </c>
+      <c r="E1803" t="n">
+        <v>423.2000122070312</v>
+      </c>
+      <c r="F1803" t="n">
+        <v>423.2000122070312</v>
+      </c>
+      <c r="G1803" t="n">
+        <v>64888</v>
+      </c>
+      <c r="H1803" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1803" t="n">
+        <v>10</v>
+      </c>
+      <c r="J1803" t="n">
+        <v>11</v>
+      </c>
+      <c r="K1803" t="n">
+        <v>13</v>
+      </c>
+      <c r="L1803" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1803" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1803" t="n">
+        <v>41</v>
+      </c>
+      <c r="O1803" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1803" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1803" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1803" t="inlineStr"/>
+    </row>
+    <row r="1804">
+      <c r="A1804" s="2" t="n">
+        <v>45576.59375</v>
+      </c>
+      <c r="B1804" t="n">
+        <v>423.2999877929688</v>
+      </c>
+      <c r="C1804" t="n">
+        <v>424.7999877929688</v>
+      </c>
+      <c r="D1804" t="n">
+        <v>420</v>
+      </c>
+      <c r="E1804" t="n">
+        <v>420.1000061035156</v>
+      </c>
+      <c r="F1804" t="n">
+        <v>420.1000061035156</v>
+      </c>
+      <c r="G1804" t="n">
+        <v>28967</v>
+      </c>
+      <c r="H1804" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1804" t="n">
+        <v>10</v>
+      </c>
+      <c r="J1804" t="n">
+        <v>11</v>
+      </c>
+      <c r="K1804" t="n">
+        <v>14</v>
+      </c>
+      <c r="L1804" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1804" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1804" t="n">
+        <v>41</v>
+      </c>
+      <c r="O1804" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1804" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1804" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1804" t="inlineStr"/>
+    </row>
+    <row r="1805">
+      <c r="A1805" s="2" t="n">
+        <v>45576.63541666666</v>
+      </c>
+      <c r="B1805" t="n">
+        <v>420.1000061035156</v>
+      </c>
+      <c r="C1805" t="n">
+        <v>424.25</v>
+      </c>
+      <c r="D1805" t="n">
+        <v>415.0499877929688</v>
+      </c>
+      <c r="E1805" t="n">
+        <v>420.5</v>
+      </c>
+      <c r="F1805" t="n">
+        <v>420.5</v>
+      </c>
+      <c r="G1805" t="n">
+        <v>38642</v>
+      </c>
+      <c r="H1805" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1805" t="n">
+        <v>10</v>
+      </c>
+      <c r="J1805" t="n">
+        <v>11</v>
+      </c>
+      <c r="K1805" t="n">
+        <v>15</v>
+      </c>
+      <c r="L1805" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1805" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1805" t="n">
+        <v>41</v>
+      </c>
+      <c r="O1805" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1805" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1805" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1805" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/60m/ZAGGLE.NS.xlsx
+++ b/stock_historical_data/60m/ZAGGLE.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R1805"/>
+  <dimension ref="A1:R1812"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -101213,7 +101213,9 @@
       <c r="Q1799" t="n">
         <v>0</v>
       </c>
-      <c r="R1799" t="inlineStr"/>
+      <c r="R1799" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1800">
       <c r="A1800" s="2" t="n">
@@ -101267,7 +101269,9 @@
       <c r="Q1800" t="n">
         <v>0</v>
       </c>
-      <c r="R1800" t="inlineStr"/>
+      <c r="R1800" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1801">
       <c r="A1801" s="2" t="n">
@@ -101321,7 +101325,9 @@
       <c r="Q1801" t="n">
         <v>0</v>
       </c>
-      <c r="R1801" t="inlineStr"/>
+      <c r="R1801" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1802">
       <c r="A1802" s="2" t="n">
@@ -101375,7 +101381,9 @@
       <c r="Q1802" t="n">
         <v>0</v>
       </c>
-      <c r="R1802" t="inlineStr"/>
+      <c r="R1802" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1803">
       <c r="A1803" s="2" t="n">
@@ -101429,7 +101437,9 @@
       <c r="Q1803" t="n">
         <v>0</v>
       </c>
-      <c r="R1803" t="inlineStr"/>
+      <c r="R1803" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1804">
       <c r="A1804" s="2" t="n">
@@ -101483,7 +101493,9 @@
       <c r="Q1804" t="n">
         <v>0</v>
       </c>
-      <c r="R1804" t="inlineStr"/>
+      <c r="R1804" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1805">
       <c r="A1805" s="2" t="n">
@@ -101537,7 +101549,387 @@
       <c r="Q1805" t="n">
         <v>0</v>
       </c>
-      <c r="R1805" t="inlineStr"/>
+      <c r="R1805" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1806">
+      <c r="A1806" s="2" t="n">
+        <v>45579.38541666666</v>
+      </c>
+      <c r="B1806" t="n">
+        <v>420</v>
+      </c>
+      <c r="C1806" t="n">
+        <v>421.7000122070312</v>
+      </c>
+      <c r="D1806" t="n">
+        <v>410.0499877929688</v>
+      </c>
+      <c r="E1806" t="n">
+        <v>416.1000061035156</v>
+      </c>
+      <c r="F1806" t="n">
+        <v>416.1000061035156</v>
+      </c>
+      <c r="G1806" t="n">
+        <v>0</v>
+      </c>
+      <c r="H1806" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1806" t="n">
+        <v>10</v>
+      </c>
+      <c r="J1806" t="n">
+        <v>14</v>
+      </c>
+      <c r="K1806" t="n">
+        <v>9</v>
+      </c>
+      <c r="L1806" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1806" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1806" t="n">
+        <v>42</v>
+      </c>
+      <c r="O1806" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1806" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1806" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1806" t="inlineStr"/>
+    </row>
+    <row r="1807">
+      <c r="A1807" s="2" t="n">
+        <v>45579.42708333334</v>
+      </c>
+      <c r="B1807" t="n">
+        <v>416.1000061035156</v>
+      </c>
+      <c r="C1807" t="n">
+        <v>421</v>
+      </c>
+      <c r="D1807" t="n">
+        <v>415</v>
+      </c>
+      <c r="E1807" t="n">
+        <v>419.0499877929688</v>
+      </c>
+      <c r="F1807" t="n">
+        <v>419.0499877929688</v>
+      </c>
+      <c r="G1807" t="n">
+        <v>23158</v>
+      </c>
+      <c r="H1807" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1807" t="n">
+        <v>10</v>
+      </c>
+      <c r="J1807" t="n">
+        <v>14</v>
+      </c>
+      <c r="K1807" t="n">
+        <v>10</v>
+      </c>
+      <c r="L1807" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1807" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1807" t="n">
+        <v>42</v>
+      </c>
+      <c r="O1807" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1807" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1807" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1807" t="inlineStr"/>
+    </row>
+    <row r="1808">
+      <c r="A1808" s="2" t="n">
+        <v>45579.46875</v>
+      </c>
+      <c r="B1808" t="n">
+        <v>419.0499877929688</v>
+      </c>
+      <c r="C1808" t="n">
+        <v>421.7999877929688</v>
+      </c>
+      <c r="D1808" t="n">
+        <v>418.6000061035156</v>
+      </c>
+      <c r="E1808" t="n">
+        <v>421</v>
+      </c>
+      <c r="F1808" t="n">
+        <v>421</v>
+      </c>
+      <c r="G1808" t="n">
+        <v>19628</v>
+      </c>
+      <c r="H1808" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1808" t="n">
+        <v>10</v>
+      </c>
+      <c r="J1808" t="n">
+        <v>14</v>
+      </c>
+      <c r="K1808" t="n">
+        <v>11</v>
+      </c>
+      <c r="L1808" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1808" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1808" t="n">
+        <v>42</v>
+      </c>
+      <c r="O1808" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1808" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1808" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1808" t="inlineStr"/>
+    </row>
+    <row r="1809">
+      <c r="A1809" s="2" t="n">
+        <v>45579.51041666666</v>
+      </c>
+      <c r="B1809" t="n">
+        <v>420.0499877929688</v>
+      </c>
+      <c r="C1809" t="n">
+        <v>423</v>
+      </c>
+      <c r="D1809" t="n">
+        <v>417.0499877929688</v>
+      </c>
+      <c r="E1809" t="n">
+        <v>421</v>
+      </c>
+      <c r="F1809" t="n">
+        <v>421</v>
+      </c>
+      <c r="G1809" t="n">
+        <v>20644</v>
+      </c>
+      <c r="H1809" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1809" t="n">
+        <v>10</v>
+      </c>
+      <c r="J1809" t="n">
+        <v>14</v>
+      </c>
+      <c r="K1809" t="n">
+        <v>12</v>
+      </c>
+      <c r="L1809" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1809" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1809" t="n">
+        <v>42</v>
+      </c>
+      <c r="O1809" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1809" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1809" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1809" t="inlineStr"/>
+    </row>
+    <row r="1810">
+      <c r="A1810" s="2" t="n">
+        <v>45579.55208333334</v>
+      </c>
+      <c r="B1810" t="n">
+        <v>422.25</v>
+      </c>
+      <c r="C1810" t="n">
+        <v>423</v>
+      </c>
+      <c r="D1810" t="n">
+        <v>418</v>
+      </c>
+      <c r="E1810" t="n">
+        <v>418</v>
+      </c>
+      <c r="F1810" t="n">
+        <v>418</v>
+      </c>
+      <c r="G1810" t="n">
+        <v>13930</v>
+      </c>
+      <c r="H1810" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1810" t="n">
+        <v>10</v>
+      </c>
+      <c r="J1810" t="n">
+        <v>14</v>
+      </c>
+      <c r="K1810" t="n">
+        <v>13</v>
+      </c>
+      <c r="L1810" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1810" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1810" t="n">
+        <v>42</v>
+      </c>
+      <c r="O1810" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1810" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1810" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1810" t="inlineStr"/>
+    </row>
+    <row r="1811">
+      <c r="A1811" s="2" t="n">
+        <v>45579.59375</v>
+      </c>
+      <c r="B1811" t="n">
+        <v>418</v>
+      </c>
+      <c r="C1811" t="n">
+        <v>420</v>
+      </c>
+      <c r="D1811" t="n">
+        <v>417</v>
+      </c>
+      <c r="E1811" t="n">
+        <v>417.75</v>
+      </c>
+      <c r="F1811" t="n">
+        <v>417.75</v>
+      </c>
+      <c r="G1811" t="n">
+        <v>21229</v>
+      </c>
+      <c r="H1811" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1811" t="n">
+        <v>10</v>
+      </c>
+      <c r="J1811" t="n">
+        <v>14</v>
+      </c>
+      <c r="K1811" t="n">
+        <v>14</v>
+      </c>
+      <c r="L1811" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1811" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1811" t="n">
+        <v>42</v>
+      </c>
+      <c r="O1811" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1811" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1811" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1811" t="inlineStr"/>
+    </row>
+    <row r="1812">
+      <c r="A1812" s="2" t="n">
+        <v>45579.63541666666</v>
+      </c>
+      <c r="B1812" t="n">
+        <v>419</v>
+      </c>
+      <c r="C1812" t="n">
+        <v>420.1000061035156</v>
+      </c>
+      <c r="D1812" t="n">
+        <v>415.5499877929688</v>
+      </c>
+      <c r="E1812" t="n">
+        <v>418</v>
+      </c>
+      <c r="F1812" t="n">
+        <v>418</v>
+      </c>
+      <c r="G1812" t="n">
+        <v>13823</v>
+      </c>
+      <c r="H1812" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1812" t="n">
+        <v>10</v>
+      </c>
+      <c r="J1812" t="n">
+        <v>14</v>
+      </c>
+      <c r="K1812" t="n">
+        <v>15</v>
+      </c>
+      <c r="L1812" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1812" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1812" t="n">
+        <v>42</v>
+      </c>
+      <c r="O1812" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1812" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1812" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1812" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/60m/ZAGGLE.NS.xlsx
+++ b/stock_historical_data/60m/ZAGGLE.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R1812"/>
+  <dimension ref="A1:R1819"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -101597,7 +101597,7 @@
         <v>42</v>
       </c>
       <c r="O1806" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="P1806" t="n">
         <v>0</v>
@@ -101605,7 +101605,9 @@
       <c r="Q1806" t="n">
         <v>0</v>
       </c>
-      <c r="R1806" t="inlineStr"/>
+      <c r="R1806" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1807">
       <c r="A1807" s="2" t="n">
@@ -101659,7 +101661,9 @@
       <c r="Q1807" t="n">
         <v>0</v>
       </c>
-      <c r="R1807" t="inlineStr"/>
+      <c r="R1807" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1808">
       <c r="A1808" s="2" t="n">
@@ -101713,7 +101717,9 @@
       <c r="Q1808" t="n">
         <v>0</v>
       </c>
-      <c r="R1808" t="inlineStr"/>
+      <c r="R1808" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1809">
       <c r="A1809" s="2" t="n">
@@ -101767,7 +101773,9 @@
       <c r="Q1809" t="n">
         <v>0</v>
       </c>
-      <c r="R1809" t="inlineStr"/>
+      <c r="R1809" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1810">
       <c r="A1810" s="2" t="n">
@@ -101821,7 +101829,9 @@
       <c r="Q1810" t="n">
         <v>0</v>
       </c>
-      <c r="R1810" t="inlineStr"/>
+      <c r="R1810" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1811">
       <c r="A1811" s="2" t="n">
@@ -101875,7 +101885,9 @@
       <c r="Q1811" t="n">
         <v>0</v>
       </c>
-      <c r="R1811" t="inlineStr"/>
+      <c r="R1811" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1812">
       <c r="A1812" s="2" t="n">
@@ -101929,7 +101941,387 @@
       <c r="Q1812" t="n">
         <v>0</v>
       </c>
-      <c r="R1812" t="inlineStr"/>
+      <c r="R1812" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1813">
+      <c r="A1813" s="2" t="n">
+        <v>45580.38541666666</v>
+      </c>
+      <c r="B1813" t="n">
+        <v>419.6000061035156</v>
+      </c>
+      <c r="C1813" t="n">
+        <v>420</v>
+      </c>
+      <c r="D1813" t="n">
+        <v>414</v>
+      </c>
+      <c r="E1813" t="n">
+        <v>418.9500122070312</v>
+      </c>
+      <c r="F1813" t="n">
+        <v>418.9500122070312</v>
+      </c>
+      <c r="G1813" t="n">
+        <v>0</v>
+      </c>
+      <c r="H1813" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1813" t="n">
+        <v>10</v>
+      </c>
+      <c r="J1813" t="n">
+        <v>15</v>
+      </c>
+      <c r="K1813" t="n">
+        <v>9</v>
+      </c>
+      <c r="L1813" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1813" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1813" t="n">
+        <v>42</v>
+      </c>
+      <c r="O1813" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1813" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1813" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1813" t="inlineStr"/>
+    </row>
+    <row r="1814">
+      <c r="A1814" s="2" t="n">
+        <v>45580.42708333334</v>
+      </c>
+      <c r="B1814" t="n">
+        <v>418.9500122070312</v>
+      </c>
+      <c r="C1814" t="n">
+        <v>420</v>
+      </c>
+      <c r="D1814" t="n">
+        <v>414</v>
+      </c>
+      <c r="E1814" t="n">
+        <v>419.9500122070312</v>
+      </c>
+      <c r="F1814" t="n">
+        <v>419.9500122070312</v>
+      </c>
+      <c r="G1814" t="n">
+        <v>20131</v>
+      </c>
+      <c r="H1814" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1814" t="n">
+        <v>10</v>
+      </c>
+      <c r="J1814" t="n">
+        <v>15</v>
+      </c>
+      <c r="K1814" t="n">
+        <v>10</v>
+      </c>
+      <c r="L1814" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1814" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1814" t="n">
+        <v>42</v>
+      </c>
+      <c r="O1814" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1814" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1814" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1814" t="inlineStr"/>
+    </row>
+    <row r="1815">
+      <c r="A1815" s="2" t="n">
+        <v>45580.46875</v>
+      </c>
+      <c r="B1815" t="n">
+        <v>420</v>
+      </c>
+      <c r="C1815" t="n">
+        <v>425.6499938964844</v>
+      </c>
+      <c r="D1815" t="n">
+        <v>419.75</v>
+      </c>
+      <c r="E1815" t="n">
+        <v>425.6499938964844</v>
+      </c>
+      <c r="F1815" t="n">
+        <v>425.6499938964844</v>
+      </c>
+      <c r="G1815" t="n">
+        <v>28778</v>
+      </c>
+      <c r="H1815" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1815" t="n">
+        <v>10</v>
+      </c>
+      <c r="J1815" t="n">
+        <v>15</v>
+      </c>
+      <c r="K1815" t="n">
+        <v>11</v>
+      </c>
+      <c r="L1815" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1815" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1815" t="n">
+        <v>42</v>
+      </c>
+      <c r="O1815" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1815" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1815" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1815" t="inlineStr"/>
+    </row>
+    <row r="1816">
+      <c r="A1816" s="2" t="n">
+        <v>45580.51041666666</v>
+      </c>
+      <c r="B1816" t="n">
+        <v>425.6499938964844</v>
+      </c>
+      <c r="C1816" t="n">
+        <v>432.7000122070312</v>
+      </c>
+      <c r="D1816" t="n">
+        <v>424.2000122070312</v>
+      </c>
+      <c r="E1816" t="n">
+        <v>428</v>
+      </c>
+      <c r="F1816" t="n">
+        <v>428</v>
+      </c>
+      <c r="G1816" t="n">
+        <v>53078</v>
+      </c>
+      <c r="H1816" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1816" t="n">
+        <v>10</v>
+      </c>
+      <c r="J1816" t="n">
+        <v>15</v>
+      </c>
+      <c r="K1816" t="n">
+        <v>12</v>
+      </c>
+      <c r="L1816" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1816" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1816" t="n">
+        <v>42</v>
+      </c>
+      <c r="O1816" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1816" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1816" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1816" t="inlineStr"/>
+    </row>
+    <row r="1817">
+      <c r="A1817" s="2" t="n">
+        <v>45580.55208333334</v>
+      </c>
+      <c r="B1817" t="n">
+        <v>427.9500122070312</v>
+      </c>
+      <c r="C1817" t="n">
+        <v>430</v>
+      </c>
+      <c r="D1817" t="n">
+        <v>424.7000122070312</v>
+      </c>
+      <c r="E1817" t="n">
+        <v>428.0499877929688</v>
+      </c>
+      <c r="F1817" t="n">
+        <v>428.0499877929688</v>
+      </c>
+      <c r="G1817" t="n">
+        <v>17731</v>
+      </c>
+      <c r="H1817" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1817" t="n">
+        <v>10</v>
+      </c>
+      <c r="J1817" t="n">
+        <v>15</v>
+      </c>
+      <c r="K1817" t="n">
+        <v>13</v>
+      </c>
+      <c r="L1817" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1817" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1817" t="n">
+        <v>42</v>
+      </c>
+      <c r="O1817" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1817" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q1817" t="n">
+        <v>1</v>
+      </c>
+      <c r="R1817" t="inlineStr"/>
+    </row>
+    <row r="1818">
+      <c r="A1818" s="2" t="n">
+        <v>45580.59375</v>
+      </c>
+      <c r="B1818" t="n">
+        <v>427.6000061035156</v>
+      </c>
+      <c r="C1818" t="n">
+        <v>430</v>
+      </c>
+      <c r="D1818" t="n">
+        <v>425.9500122070312</v>
+      </c>
+      <c r="E1818" t="n">
+        <v>427</v>
+      </c>
+      <c r="F1818" t="n">
+        <v>427</v>
+      </c>
+      <c r="G1818" t="n">
+        <v>53485</v>
+      </c>
+      <c r="H1818" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1818" t="n">
+        <v>10</v>
+      </c>
+      <c r="J1818" t="n">
+        <v>15</v>
+      </c>
+      <c r="K1818" t="n">
+        <v>14</v>
+      </c>
+      <c r="L1818" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1818" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1818" t="n">
+        <v>42</v>
+      </c>
+      <c r="O1818" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1818" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1818" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1818" t="inlineStr"/>
+    </row>
+    <row r="1819">
+      <c r="A1819" s="2" t="n">
+        <v>45580.63541666666</v>
+      </c>
+      <c r="B1819" t="n">
+        <v>429.8999938964844</v>
+      </c>
+      <c r="C1819" t="n">
+        <v>430</v>
+      </c>
+      <c r="D1819" t="n">
+        <v>426</v>
+      </c>
+      <c r="E1819" t="n">
+        <v>428.9500122070312</v>
+      </c>
+      <c r="F1819" t="n">
+        <v>428.9500122070312</v>
+      </c>
+      <c r="G1819" t="n">
+        <v>25112</v>
+      </c>
+      <c r="H1819" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1819" t="n">
+        <v>10</v>
+      </c>
+      <c r="J1819" t="n">
+        <v>15</v>
+      </c>
+      <c r="K1819" t="n">
+        <v>15</v>
+      </c>
+      <c r="L1819" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1819" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1819" t="n">
+        <v>42</v>
+      </c>
+      <c r="O1819" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1819" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1819" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1819" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/60m/ZAGGLE.NS.xlsx
+++ b/stock_historical_data/60m/ZAGGLE.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R1819"/>
+  <dimension ref="A1:R1826"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -101997,7 +101997,9 @@
       <c r="Q1813" t="n">
         <v>0</v>
       </c>
-      <c r="R1813" t="inlineStr"/>
+      <c r="R1813" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1814">
       <c r="A1814" s="2" t="n">
@@ -102051,7 +102053,9 @@
       <c r="Q1814" t="n">
         <v>0</v>
       </c>
-      <c r="R1814" t="inlineStr"/>
+      <c r="R1814" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1815">
       <c r="A1815" s="2" t="n">
@@ -102105,7 +102109,9 @@
       <c r="Q1815" t="n">
         <v>0</v>
       </c>
-      <c r="R1815" t="inlineStr"/>
+      <c r="R1815" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1816">
       <c r="A1816" s="2" t="n">
@@ -102159,7 +102165,9 @@
       <c r="Q1816" t="n">
         <v>0</v>
       </c>
-      <c r="R1816" t="inlineStr"/>
+      <c r="R1816" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1817">
       <c r="A1817" s="2" t="n">
@@ -102213,7 +102221,9 @@
       <c r="Q1817" t="n">
         <v>1</v>
       </c>
-      <c r="R1817" t="inlineStr"/>
+      <c r="R1817" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="1818">
       <c r="A1818" s="2" t="n">
@@ -102267,7 +102277,9 @@
       <c r="Q1818" t="n">
         <v>0</v>
       </c>
-      <c r="R1818" t="inlineStr"/>
+      <c r="R1818" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1819">
       <c r="A1819" s="2" t="n">
@@ -102321,7 +102333,387 @@
       <c r="Q1819" t="n">
         <v>0</v>
       </c>
-      <c r="R1819" t="inlineStr"/>
+      <c r="R1819" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1820">
+      <c r="A1820" s="2" t="n">
+        <v>45581.38541666666</v>
+      </c>
+      <c r="B1820" t="n">
+        <v>430</v>
+      </c>
+      <c r="C1820" t="n">
+        <v>436.7999877929688</v>
+      </c>
+      <c r="D1820" t="n">
+        <v>429</v>
+      </c>
+      <c r="E1820" t="n">
+        <v>434</v>
+      </c>
+      <c r="F1820" t="n">
+        <v>434</v>
+      </c>
+      <c r="G1820" t="n">
+        <v>0</v>
+      </c>
+      <c r="H1820" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1820" t="n">
+        <v>10</v>
+      </c>
+      <c r="J1820" t="n">
+        <v>16</v>
+      </c>
+      <c r="K1820" t="n">
+        <v>9</v>
+      </c>
+      <c r="L1820" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1820" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1820" t="n">
+        <v>42</v>
+      </c>
+      <c r="O1820" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1820" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1820" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1820" t="inlineStr"/>
+    </row>
+    <row r="1821">
+      <c r="A1821" s="2" t="n">
+        <v>45581.42708333334</v>
+      </c>
+      <c r="B1821" t="n">
+        <v>434</v>
+      </c>
+      <c r="C1821" t="n">
+        <v>434.75</v>
+      </c>
+      <c r="D1821" t="n">
+        <v>429</v>
+      </c>
+      <c r="E1821" t="n">
+        <v>429.7000122070312</v>
+      </c>
+      <c r="F1821" t="n">
+        <v>429.7000122070312</v>
+      </c>
+      <c r="G1821" t="n">
+        <v>32463</v>
+      </c>
+      <c r="H1821" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1821" t="n">
+        <v>10</v>
+      </c>
+      <c r="J1821" t="n">
+        <v>16</v>
+      </c>
+      <c r="K1821" t="n">
+        <v>10</v>
+      </c>
+      <c r="L1821" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1821" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1821" t="n">
+        <v>42</v>
+      </c>
+      <c r="O1821" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1821" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1821" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1821" t="inlineStr"/>
+    </row>
+    <row r="1822">
+      <c r="A1822" s="2" t="n">
+        <v>45581.46875</v>
+      </c>
+      <c r="B1822" t="n">
+        <v>429.7000122070312</v>
+      </c>
+      <c r="C1822" t="n">
+        <v>431</v>
+      </c>
+      <c r="D1822" t="n">
+        <v>428.6000061035156</v>
+      </c>
+      <c r="E1822" t="n">
+        <v>429.8500061035156</v>
+      </c>
+      <c r="F1822" t="n">
+        <v>429.8500061035156</v>
+      </c>
+      <c r="G1822" t="n">
+        <v>17007</v>
+      </c>
+      <c r="H1822" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1822" t="n">
+        <v>10</v>
+      </c>
+      <c r="J1822" t="n">
+        <v>16</v>
+      </c>
+      <c r="K1822" t="n">
+        <v>11</v>
+      </c>
+      <c r="L1822" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1822" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1822" t="n">
+        <v>42</v>
+      </c>
+      <c r="O1822" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1822" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1822" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1822" t="inlineStr"/>
+    </row>
+    <row r="1823">
+      <c r="A1823" s="2" t="n">
+        <v>45581.51041666666</v>
+      </c>
+      <c r="B1823" t="n">
+        <v>429.8500061035156</v>
+      </c>
+      <c r="C1823" t="n">
+        <v>434</v>
+      </c>
+      <c r="D1823" t="n">
+        <v>429.8500061035156</v>
+      </c>
+      <c r="E1823" t="n">
+        <v>433.1000061035156</v>
+      </c>
+      <c r="F1823" t="n">
+        <v>433.1000061035156</v>
+      </c>
+      <c r="G1823" t="n">
+        <v>15571</v>
+      </c>
+      <c r="H1823" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1823" t="n">
+        <v>10</v>
+      </c>
+      <c r="J1823" t="n">
+        <v>16</v>
+      </c>
+      <c r="K1823" t="n">
+        <v>12</v>
+      </c>
+      <c r="L1823" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1823" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1823" t="n">
+        <v>42</v>
+      </c>
+      <c r="O1823" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1823" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1823" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1823" t="inlineStr"/>
+    </row>
+    <row r="1824">
+      <c r="A1824" s="2" t="n">
+        <v>45581.55208333334</v>
+      </c>
+      <c r="B1824" t="n">
+        <v>433.5</v>
+      </c>
+      <c r="C1824" t="n">
+        <v>434</v>
+      </c>
+      <c r="D1824" t="n">
+        <v>432.2999877929688</v>
+      </c>
+      <c r="E1824" t="n">
+        <v>433.3500061035156</v>
+      </c>
+      <c r="F1824" t="n">
+        <v>433.3500061035156</v>
+      </c>
+      <c r="G1824" t="n">
+        <v>13887</v>
+      </c>
+      <c r="H1824" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1824" t="n">
+        <v>10</v>
+      </c>
+      <c r="J1824" t="n">
+        <v>16</v>
+      </c>
+      <c r="K1824" t="n">
+        <v>13</v>
+      </c>
+      <c r="L1824" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1824" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1824" t="n">
+        <v>42</v>
+      </c>
+      <c r="O1824" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1824" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1824" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1824" t="inlineStr"/>
+    </row>
+    <row r="1825">
+      <c r="A1825" s="2" t="n">
+        <v>45581.59375</v>
+      </c>
+      <c r="B1825" t="n">
+        <v>433.25</v>
+      </c>
+      <c r="C1825" t="n">
+        <v>438</v>
+      </c>
+      <c r="D1825" t="n">
+        <v>432.1000061035156</v>
+      </c>
+      <c r="E1825" t="n">
+        <v>434.6000061035156</v>
+      </c>
+      <c r="F1825" t="n">
+        <v>434.6000061035156</v>
+      </c>
+      <c r="G1825" t="n">
+        <v>43647</v>
+      </c>
+      <c r="H1825" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1825" t="n">
+        <v>10</v>
+      </c>
+      <c r="J1825" t="n">
+        <v>16</v>
+      </c>
+      <c r="K1825" t="n">
+        <v>14</v>
+      </c>
+      <c r="L1825" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1825" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1825" t="n">
+        <v>42</v>
+      </c>
+      <c r="O1825" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1825" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1825" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1825" t="inlineStr"/>
+    </row>
+    <row r="1826">
+      <c r="A1826" s="2" t="n">
+        <v>45581.63541666666</v>
+      </c>
+      <c r="B1826" t="n">
+        <v>434.6000061035156</v>
+      </c>
+      <c r="C1826" t="n">
+        <v>435</v>
+      </c>
+      <c r="D1826" t="n">
+        <v>429</v>
+      </c>
+      <c r="E1826" t="n">
+        <v>434</v>
+      </c>
+      <c r="F1826" t="n">
+        <v>434</v>
+      </c>
+      <c r="G1826" t="n">
+        <v>32403</v>
+      </c>
+      <c r="H1826" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1826" t="n">
+        <v>10</v>
+      </c>
+      <c r="J1826" t="n">
+        <v>16</v>
+      </c>
+      <c r="K1826" t="n">
+        <v>15</v>
+      </c>
+      <c r="L1826" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1826" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1826" t="n">
+        <v>42</v>
+      </c>
+      <c r="O1826" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1826" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1826" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1826" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/60m/ZAGGLE.NS.xlsx
+++ b/stock_historical_data/60m/ZAGGLE.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R1826"/>
+  <dimension ref="A1:R1840"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -102389,7 +102389,9 @@
       <c r="Q1820" t="n">
         <v>0</v>
       </c>
-      <c r="R1820" t="inlineStr"/>
+      <c r="R1820" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1821">
       <c r="A1821" s="2" t="n">
@@ -102443,7 +102445,9 @@
       <c r="Q1821" t="n">
         <v>0</v>
       </c>
-      <c r="R1821" t="inlineStr"/>
+      <c r="R1821" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1822">
       <c r="A1822" s="2" t="n">
@@ -102497,7 +102501,9 @@
       <c r="Q1822" t="n">
         <v>0</v>
       </c>
-      <c r="R1822" t="inlineStr"/>
+      <c r="R1822" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1823">
       <c r="A1823" s="2" t="n">
@@ -102551,7 +102557,9 @@
       <c r="Q1823" t="n">
         <v>0</v>
       </c>
-      <c r="R1823" t="inlineStr"/>
+      <c r="R1823" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1824">
       <c r="A1824" s="2" t="n">
@@ -102605,7 +102613,9 @@
       <c r="Q1824" t="n">
         <v>0</v>
       </c>
-      <c r="R1824" t="inlineStr"/>
+      <c r="R1824" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1825">
       <c r="A1825" s="2" t="n">
@@ -102659,7 +102669,9 @@
       <c r="Q1825" t="n">
         <v>0</v>
       </c>
-      <c r="R1825" t="inlineStr"/>
+      <c r="R1825" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1826">
       <c r="A1826" s="2" t="n">
@@ -102713,7 +102725,765 @@
       <c r="Q1826" t="n">
         <v>0</v>
       </c>
-      <c r="R1826" t="inlineStr"/>
+      <c r="R1826" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1827">
+      <c r="A1827" s="2" t="n">
+        <v>45582.38541666666</v>
+      </c>
+      <c r="B1827" t="n">
+        <v>436</v>
+      </c>
+      <c r="C1827" t="n">
+        <v>437.6000061035156</v>
+      </c>
+      <c r="D1827" t="n">
+        <v>428.2000122070312</v>
+      </c>
+      <c r="E1827" t="n">
+        <v>432.7999877929688</v>
+      </c>
+      <c r="F1827" t="n">
+        <v>432.7999877929688</v>
+      </c>
+      <c r="G1827" t="n">
+        <v>0</v>
+      </c>
+      <c r="H1827" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1827" t="n">
+        <v>10</v>
+      </c>
+      <c r="J1827" t="n">
+        <v>17</v>
+      </c>
+      <c r="K1827" t="n">
+        <v>9</v>
+      </c>
+      <c r="L1827" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1827" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1827" t="n">
+        <v>42</v>
+      </c>
+      <c r="O1827" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1827" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1827" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1827" t="inlineStr"/>
+    </row>
+    <row r="1828">
+      <c r="A1828" s="2" t="n">
+        <v>45582.42708333334</v>
+      </c>
+      <c r="B1828" t="n">
+        <v>432.7999877929688</v>
+      </c>
+      <c r="C1828" t="n">
+        <v>437</v>
+      </c>
+      <c r="D1828" t="n">
+        <v>429.2000122070312</v>
+      </c>
+      <c r="E1828" t="n">
+        <v>436.8999938964844</v>
+      </c>
+      <c r="F1828" t="n">
+        <v>436.8999938964844</v>
+      </c>
+      <c r="G1828" t="n">
+        <v>33818</v>
+      </c>
+      <c r="H1828" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1828" t="n">
+        <v>10</v>
+      </c>
+      <c r="J1828" t="n">
+        <v>17</v>
+      </c>
+      <c r="K1828" t="n">
+        <v>10</v>
+      </c>
+      <c r="L1828" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1828" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1828" t="n">
+        <v>42</v>
+      </c>
+      <c r="O1828" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1828" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1828" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1828" t="inlineStr"/>
+    </row>
+    <row r="1829">
+      <c r="A1829" s="2" t="n">
+        <v>45582.46875</v>
+      </c>
+      <c r="B1829" t="n">
+        <v>436</v>
+      </c>
+      <c r="C1829" t="n">
+        <v>449.8999938964844</v>
+      </c>
+      <c r="D1829" t="n">
+        <v>436</v>
+      </c>
+      <c r="E1829" t="n">
+        <v>444</v>
+      </c>
+      <c r="F1829" t="n">
+        <v>444</v>
+      </c>
+      <c r="G1829" t="n">
+        <v>136288</v>
+      </c>
+      <c r="H1829" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1829" t="n">
+        <v>10</v>
+      </c>
+      <c r="J1829" t="n">
+        <v>17</v>
+      </c>
+      <c r="K1829" t="n">
+        <v>11</v>
+      </c>
+      <c r="L1829" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1829" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1829" t="n">
+        <v>42</v>
+      </c>
+      <c r="O1829" t="n">
+        <v>1</v>
+      </c>
+      <c r="P1829" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1829" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1829" t="inlineStr"/>
+    </row>
+    <row r="1830">
+      <c r="A1830" s="2" t="n">
+        <v>45582.51041666666</v>
+      </c>
+      <c r="B1830" t="n">
+        <v>444</v>
+      </c>
+      <c r="C1830" t="n">
+        <v>444.9500122070312</v>
+      </c>
+      <c r="D1830" t="n">
+        <v>440</v>
+      </c>
+      <c r="E1830" t="n">
+        <v>440.5499877929688</v>
+      </c>
+      <c r="F1830" t="n">
+        <v>440.5499877929688</v>
+      </c>
+      <c r="G1830" t="n">
+        <v>12065</v>
+      </c>
+      <c r="H1830" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1830" t="n">
+        <v>10</v>
+      </c>
+      <c r="J1830" t="n">
+        <v>17</v>
+      </c>
+      <c r="K1830" t="n">
+        <v>12</v>
+      </c>
+      <c r="L1830" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1830" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1830" t="n">
+        <v>42</v>
+      </c>
+      <c r="O1830" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1830" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1830" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1830" t="inlineStr"/>
+    </row>
+    <row r="1831">
+      <c r="A1831" s="2" t="n">
+        <v>45582.55208333334</v>
+      </c>
+      <c r="B1831" t="n">
+        <v>440.5499877929688</v>
+      </c>
+      <c r="C1831" t="n">
+        <v>441.6000061035156</v>
+      </c>
+      <c r="D1831" t="n">
+        <v>437.7999877929688</v>
+      </c>
+      <c r="E1831" t="n">
+        <v>439</v>
+      </c>
+      <c r="F1831" t="n">
+        <v>439</v>
+      </c>
+      <c r="G1831" t="n">
+        <v>18102</v>
+      </c>
+      <c r="H1831" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1831" t="n">
+        <v>10</v>
+      </c>
+      <c r="J1831" t="n">
+        <v>17</v>
+      </c>
+      <c r="K1831" t="n">
+        <v>13</v>
+      </c>
+      <c r="L1831" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1831" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1831" t="n">
+        <v>42</v>
+      </c>
+      <c r="O1831" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1831" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1831" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1831" t="inlineStr"/>
+    </row>
+    <row r="1832">
+      <c r="A1832" s="2" t="n">
+        <v>45582.59375</v>
+      </c>
+      <c r="B1832" t="n">
+        <v>439</v>
+      </c>
+      <c r="C1832" t="n">
+        <v>441.6000061035156</v>
+      </c>
+      <c r="D1832" t="n">
+        <v>437.8500061035156</v>
+      </c>
+      <c r="E1832" t="n">
+        <v>440.5</v>
+      </c>
+      <c r="F1832" t="n">
+        <v>440.5</v>
+      </c>
+      <c r="G1832" t="n">
+        <v>21108</v>
+      </c>
+      <c r="H1832" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1832" t="n">
+        <v>10</v>
+      </c>
+      <c r="J1832" t="n">
+        <v>17</v>
+      </c>
+      <c r="K1832" t="n">
+        <v>14</v>
+      </c>
+      <c r="L1832" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1832" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1832" t="n">
+        <v>42</v>
+      </c>
+      <c r="O1832" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1832" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1832" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1832" t="inlineStr"/>
+    </row>
+    <row r="1833">
+      <c r="A1833" s="2" t="n">
+        <v>45582.63541666666</v>
+      </c>
+      <c r="B1833" t="n">
+        <v>440.5</v>
+      </c>
+      <c r="C1833" t="n">
+        <v>440.7000122070312</v>
+      </c>
+      <c r="D1833" t="n">
+        <v>438</v>
+      </c>
+      <c r="E1833" t="n">
+        <v>438.5</v>
+      </c>
+      <c r="F1833" t="n">
+        <v>438.5</v>
+      </c>
+      <c r="G1833" t="n">
+        <v>34278</v>
+      </c>
+      <c r="H1833" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1833" t="n">
+        <v>10</v>
+      </c>
+      <c r="J1833" t="n">
+        <v>17</v>
+      </c>
+      <c r="K1833" t="n">
+        <v>15</v>
+      </c>
+      <c r="L1833" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1833" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1833" t="n">
+        <v>42</v>
+      </c>
+      <c r="O1833" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1833" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1833" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1833" t="inlineStr"/>
+    </row>
+    <row r="1834">
+      <c r="A1834" s="2" t="n">
+        <v>45583.38541666666</v>
+      </c>
+      <c r="B1834" t="n">
+        <v>438.5499877929688</v>
+      </c>
+      <c r="C1834" t="n">
+        <v>438.5499877929688</v>
+      </c>
+      <c r="D1834" t="n">
+        <v>421.5499877929688</v>
+      </c>
+      <c r="E1834" t="n">
+        <v>433.8500061035156</v>
+      </c>
+      <c r="F1834" t="n">
+        <v>433.8500061035156</v>
+      </c>
+      <c r="G1834" t="n">
+        <v>0</v>
+      </c>
+      <c r="H1834" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1834" t="n">
+        <v>10</v>
+      </c>
+      <c r="J1834" t="n">
+        <v>18</v>
+      </c>
+      <c r="K1834" t="n">
+        <v>9</v>
+      </c>
+      <c r="L1834" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1834" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1834" t="n">
+        <v>42</v>
+      </c>
+      <c r="O1834" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1834" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1834" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1834" t="inlineStr"/>
+    </row>
+    <row r="1835">
+      <c r="A1835" s="2" t="n">
+        <v>45583.42708333334</v>
+      </c>
+      <c r="B1835" t="n">
+        <v>434</v>
+      </c>
+      <c r="C1835" t="n">
+        <v>445</v>
+      </c>
+      <c r="D1835" t="n">
+        <v>432</v>
+      </c>
+      <c r="E1835" t="n">
+        <v>442.5</v>
+      </c>
+      <c r="F1835" t="n">
+        <v>442.5</v>
+      </c>
+      <c r="G1835" t="n">
+        <v>41578</v>
+      </c>
+      <c r="H1835" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1835" t="n">
+        <v>10</v>
+      </c>
+      <c r="J1835" t="n">
+        <v>18</v>
+      </c>
+      <c r="K1835" t="n">
+        <v>10</v>
+      </c>
+      <c r="L1835" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1835" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1835" t="n">
+        <v>42</v>
+      </c>
+      <c r="O1835" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1835" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1835" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1835" t="inlineStr"/>
+    </row>
+    <row r="1836">
+      <c r="A1836" s="2" t="n">
+        <v>45583.46875</v>
+      </c>
+      <c r="B1836" t="n">
+        <v>441</v>
+      </c>
+      <c r="C1836" t="n">
+        <v>444</v>
+      </c>
+      <c r="D1836" t="n">
+        <v>440.0499877929688</v>
+      </c>
+      <c r="E1836" t="n">
+        <v>441.7000122070312</v>
+      </c>
+      <c r="F1836" t="n">
+        <v>441.7000122070312</v>
+      </c>
+      <c r="G1836" t="n">
+        <v>16995</v>
+      </c>
+      <c r="H1836" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1836" t="n">
+        <v>10</v>
+      </c>
+      <c r="J1836" t="n">
+        <v>18</v>
+      </c>
+      <c r="K1836" t="n">
+        <v>11</v>
+      </c>
+      <c r="L1836" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1836" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1836" t="n">
+        <v>42</v>
+      </c>
+      <c r="O1836" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1836" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1836" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1836" t="inlineStr"/>
+    </row>
+    <row r="1837">
+      <c r="A1837" s="2" t="n">
+        <v>45583.51041666666</v>
+      </c>
+      <c r="B1837" t="n">
+        <v>441.7000122070312</v>
+      </c>
+      <c r="C1837" t="n">
+        <v>448.0499877929688</v>
+      </c>
+      <c r="D1837" t="n">
+        <v>440.1000061035156</v>
+      </c>
+      <c r="E1837" t="n">
+        <v>445</v>
+      </c>
+      <c r="F1837" t="n">
+        <v>445</v>
+      </c>
+      <c r="G1837" t="n">
+        <v>46226</v>
+      </c>
+      <c r="H1837" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1837" t="n">
+        <v>10</v>
+      </c>
+      <c r="J1837" t="n">
+        <v>18</v>
+      </c>
+      <c r="K1837" t="n">
+        <v>12</v>
+      </c>
+      <c r="L1837" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1837" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1837" t="n">
+        <v>42</v>
+      </c>
+      <c r="O1837" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1837" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1837" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1837" t="inlineStr"/>
+    </row>
+    <row r="1838">
+      <c r="A1838" s="2" t="n">
+        <v>45583.55208333334</v>
+      </c>
+      <c r="B1838" t="n">
+        <v>445</v>
+      </c>
+      <c r="C1838" t="n">
+        <v>447</v>
+      </c>
+      <c r="D1838" t="n">
+        <v>440</v>
+      </c>
+      <c r="E1838" t="n">
+        <v>445</v>
+      </c>
+      <c r="F1838" t="n">
+        <v>445</v>
+      </c>
+      <c r="G1838" t="n">
+        <v>29025</v>
+      </c>
+      <c r="H1838" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1838" t="n">
+        <v>10</v>
+      </c>
+      <c r="J1838" t="n">
+        <v>18</v>
+      </c>
+      <c r="K1838" t="n">
+        <v>13</v>
+      </c>
+      <c r="L1838" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1838" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1838" t="n">
+        <v>42</v>
+      </c>
+      <c r="O1838" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1838" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1838" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1838" t="inlineStr"/>
+    </row>
+    <row r="1839">
+      <c r="A1839" s="2" t="n">
+        <v>45583.59375</v>
+      </c>
+      <c r="B1839" t="n">
+        <v>445.8500061035156</v>
+      </c>
+      <c r="C1839" t="n">
+        <v>445.8999938964844</v>
+      </c>
+      <c r="D1839" t="n">
+        <v>441.0499877929688</v>
+      </c>
+      <c r="E1839" t="n">
+        <v>445</v>
+      </c>
+      <c r="F1839" t="n">
+        <v>445</v>
+      </c>
+      <c r="G1839" t="n">
+        <v>38289</v>
+      </c>
+      <c r="H1839" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1839" t="n">
+        <v>10</v>
+      </c>
+      <c r="J1839" t="n">
+        <v>18</v>
+      </c>
+      <c r="K1839" t="n">
+        <v>14</v>
+      </c>
+      <c r="L1839" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1839" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1839" t="n">
+        <v>42</v>
+      </c>
+      <c r="O1839" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1839" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1839" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1839" t="inlineStr"/>
+    </row>
+    <row r="1840">
+      <c r="A1840" s="2" t="n">
+        <v>45583.63541666666</v>
+      </c>
+      <c r="B1840" t="n">
+        <v>445</v>
+      </c>
+      <c r="C1840" t="n">
+        <v>446.75</v>
+      </c>
+      <c r="D1840" t="n">
+        <v>443.7999877929688</v>
+      </c>
+      <c r="E1840" t="n">
+        <v>446.6499938964844</v>
+      </c>
+      <c r="F1840" t="n">
+        <v>446.6499938964844</v>
+      </c>
+      <c r="G1840" t="n">
+        <v>24513</v>
+      </c>
+      <c r="H1840" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1840" t="n">
+        <v>10</v>
+      </c>
+      <c r="J1840" t="n">
+        <v>18</v>
+      </c>
+      <c r="K1840" t="n">
+        <v>15</v>
+      </c>
+      <c r="L1840" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1840" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1840" t="n">
+        <v>42</v>
+      </c>
+      <c r="O1840" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1840" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1840" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1840" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
